--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF30BE3-B8D3-415B-8A25-5E30E84AD976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -42,7 +48,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,7 +58,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为0：</t>
@@ -62,20 +66,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">道具ID，道具数量
+道具ID，道具数量
 </t>
         </r>
         <r>
@@ -83,7 +77,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为1：</t>
@@ -92,60 +85,14 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">出现概率，
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">道具ID，
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">道具数量，
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">购买次数， 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">购买类型（ 0 表示 金币  1表示钻石）
+出现概率，
+道具ID，
+道具数量，
+购买次数， 
+购买类型（ 0 表示 金币  1表示钻石）
 </t>
         </r>
         <r>
@@ -153,7 +100,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为2：</t>
@@ -162,20 +108,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">出现最小等级，出现最大等级，道具ID，道具数量
+出现最小等级，出现最大等级，道具ID，道具数量
 </t>
         </r>
         <r>
@@ -183,7 +119,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>商店类型为3：</t>
@@ -192,31 +127,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>出现最小等级，出现最大等级，道具ID，道具数量，购买使用什么道具，购买使用道具数量</t>
+出现最小等级，出现最大等级，道具ID，道具数量，购买使用什么道具，购买使用道具数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -225,7 +149,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -246,33 +169,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0:</t>
+          <t>作者:
+0:</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示不拉近</t>
@@ -281,38 +194,28 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
+1</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：表示拉近</t>
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -321,26 +224,16 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>播放音效</t>
+播放音效</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ID,</t>
         </r>
@@ -348,7 +241,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>文件存储在</t>
@@ -357,7 +249,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>UI</t>
         </r>
@@ -365,7 +257,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>文件夹下</t>
@@ -374,7 +265,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -382,7 +273,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>多个音效用</t>
@@ -391,7 +281,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>;</t>
         </r>
@@ -399,7 +289,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>号间隔</t>
@@ -408,7 +297,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -416,7 +305,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>将会随机播放一个</t>
@@ -425,7 +313,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -433,7 +321,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>如果有概率不播放就写成</t>
@@ -442,7 +329,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">100;0  </t>
         </r>
@@ -450,7 +337,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>就表示</t>
@@ -459,7 +345,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>50%</t>
         </r>
@@ -467,7 +353,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>概率播放</t>
@@ -476,7 +361,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>100</t>
         </r>
@@ -484,21 +369,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>号音效</t>
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -507,26 +390,16 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>玩家等级在此区间才会显示此</t>
+玩家等级在此区间才会显示此</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">NPC
 </t>
@@ -535,7 +408,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>例如</t>
@@ -544,7 +416,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:10;20 </t>
         </r>
@@ -552,7 +424,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示</t>
@@ -561,7 +432,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 10-20</t>
         </r>
@@ -569,21 +440,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>级会出现</t>
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="W3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -592,91 +461,26 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0.默认,不执行
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1.NPC出现时间
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2.地图内击败指定数量的怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3.地图内击败指定ID的怪物后NPC出现
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4.当自身某个ID的任务完成后出现
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5.穿戴要求指定数量的装备出现(玩家进地图时)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>6.背包内有某个道具出现(玩家进地图时)</t>
+0.默认,不执行
+1.NPC出现时间
+2.地图内击败指定数量的怪物
+3.地图内击败指定ID的怪物后NPC出现
+4.当自身某个ID的任务完成后出现
+5.穿戴要求指定数量的装备出现(玩家进地图时)
+6.背包内有某个道具出现(玩家进地图时)</t>
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="X3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -685,111 +489,28 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0. 不需要填写
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1. 以秒为单位,最大86400。
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">出现秒，消失秒。（例如10000,20000）
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2. 指定击败怪物数量
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3. 指定击败怪物的ID
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4. 指定任务ID
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5. 要求装备数量;装备ID_1,装备ID_2,装备ID_3……
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">6. 背包内有某个道具出现
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>指定道具ID,指定数量</t>
+0. 不需要填写
+1. 以秒为单位,最大86400。
+出现秒，消失秒。（例如10000,20000）
+2. 指定击败怪物数量
+3. 指定击败怪物的ID
+4. 指定任务ID
+5. 要求装备数量;装备ID_1,装备ID_2,装备ID_3……
+6. 背包内有某个道具出现
+指定道具ID,指定数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="Y4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -798,60 +519,14 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">此字段目前没使用,留存的
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0：普通商店
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1：随机商店
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2：普通购买消失商店
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>3：随机购买消失商店</t>
+此字段目前没使用,留存的
+0：普通商店
+1：随机商店
+2：普通购买消失商店
+3：随机购买消失商店</t>
         </r>
       </text>
     </comment>
@@ -860,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="474">
   <si>
     <t>#</t>
   </si>
@@ -901,6 +576,9 @@
     <t>方向</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>移动坐标</t>
   </si>
   <si>
@@ -1006,6 +684,9 @@
     <t>卫兵</t>
   </si>
   <si>
+    <t>20000001</t>
+  </si>
+  <si>
     <t>卫士</t>
   </si>
   <si>
@@ -1018,15 +699,9 @@
     <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
   </si>
   <si>
-    <t>20000001</t>
-  </si>
-  <si>
     <t>杂货店老板</t>
   </si>
   <si>
-    <t>NPC_WuQi</t>
-  </si>
-  <si>
     <t>882,374,6308</t>
   </si>
   <si>
@@ -1036,9 +711,6 @@
     <t>啄啄百货店</t>
   </si>
   <si>
-    <t>NPC_ZaHuo</t>
-  </si>
-  <si>
     <t>-5671,-96,2162</t>
   </si>
   <si>
@@ -1048,9 +720,6 @@
     <t>仓库储存箱</t>
   </si>
   <si>
-    <t>NPC_CangKu</t>
-  </si>
-  <si>
     <t>-1394,-29,4347</t>
   </si>
   <si>
@@ -1060,9 +729,6 @@
     <t>装备洗炼大师</t>
   </si>
   <si>
-    <t>NPC_LaoTou_2</t>
-  </si>
-  <si>
     <t>-5663,-75,2965</t>
   </si>
   <si>
@@ -1084,9 +750,6 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>NPC_Mail</t>
-  </si>
-  <si>
     <t>1506,-31,3674</t>
   </si>
   <si>
@@ -1117,9 +780,6 @@
     <t>排行榜</t>
   </si>
   <si>
-    <t>Npc_Rank</t>
-  </si>
-  <si>
     <t>3849,-442,1527</t>
   </si>
   <si>
@@ -1132,9 +792,6 @@
     <t>宠物蛋培养</t>
   </si>
   <si>
-    <t>NPC_FuHua</t>
-  </si>
-  <si>
     <t>-5523,-247,-318</t>
   </si>
   <si>
@@ -1147,9 +804,6 @@
     <t>幸运探宝</t>
   </si>
   <si>
-    <t>NPC_BaoXiang</t>
-  </si>
-  <si>
     <t>-5266,-250,-3636</t>
   </si>
   <si>
@@ -1162,9 +816,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>NPC_CaiFeng</t>
-  </si>
-  <si>
     <t>-1305,345,6417</t>
   </si>
   <si>
@@ -1180,9 +831,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>NPC_DuanZao</t>
-  </si>
-  <si>
     <t>-4288,606,4787</t>
   </si>
   <si>
@@ -1198,9 +846,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>NPC_LianJin</t>
-  </si>
-  <si>
     <t>4963,357,4965</t>
   </si>
   <si>
@@ -1213,9 +858,6 @@
     <t>转职大师</t>
   </si>
   <si>
-    <t>NPC_Shu</t>
-  </si>
-  <si>
     <t>-3095,-420,-5199</t>
   </si>
   <si>
@@ -1228,9 +870,6 @@
     <t>补偿大使</t>
   </si>
   <si>
-    <t>NPC_ZhuanZhi</t>
-  </si>
-  <si>
     <t>-1415,-404,-1472</t>
   </si>
   <si>
@@ -1240,9 +879,6 @@
     <t>拍卖行商人</t>
   </si>
   <si>
-    <t>NPC_LaoTou</t>
-  </si>
-  <si>
     <t>4987,-428,1137</t>
   </si>
   <si>
@@ -1264,9 +900,6 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
-    <t>NPC_ShenShou_1</t>
-  </si>
-  <si>
     <t>1156,-428,607</t>
   </si>
   <si>
@@ -1276,9 +909,6 @@
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
-    <t>NPC_ShenShou_2</t>
-  </si>
-  <si>
     <t>1156,-428,357</t>
   </si>
   <si>
@@ -1288,9 +918,6 @@
     <t>神兽:仙界魔龙</t>
   </si>
   <si>
-    <t>NPC_ShenShou_3</t>
-  </si>
-  <si>
     <t>1156,-428,107</t>
   </si>
   <si>
@@ -1303,9 +930,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>NPC_ShenMi</t>
-  </si>
-  <si>
     <t>5015,-430,-2904</t>
   </si>
   <si>
@@ -1315,16 +939,16 @@
     <t xml:space="preserve"> 神器商人</t>
   </si>
   <si>
-    <t>NPC_ShenQi</t>
-  </si>
-  <si>
     <t>3816,-428,-3622</t>
   </si>
   <si>
+    <t>20000024</t>
+  </si>
+  <si>
     <t>任务使者:赛利</t>
   </si>
   <si>
-    <t>NPC_ShangJin</t>
+    <t>50000101,50000102,50000103,50000104,50000105,50000201,50000202,50000203,50000301,50000302,50000303,60001001,50000003,30050024,30050025,30090001,30090002,30090003,30090004,30090005,30090006,30090007,30090008,30090009,30090010</t>
   </si>
   <si>
     <t>-4658,-85,3444</t>
@@ -1417,9 +1041,6 @@
     <t>坐骑训练师</t>
   </si>
   <si>
-    <t>NPC_ZuoQi</t>
-  </si>
-  <si>
     <t>4817,378,3215</t>
   </si>
   <si>
@@ -1429,12 +1050,12 @@
     <t>节日使者</t>
   </si>
   <si>
-    <t>NPC_JieRi</t>
-  </si>
-  <si>
     <t>5195,-404,-97</t>
   </si>
   <si>
+    <t>每到节日的时候,超过20级的玩家都可以来我这里领取奖励哦~</t>
+  </si>
+  <si>
     <t>20000034</t>
   </si>
   <si>
@@ -1516,25 +1137,76 @@
     <t>当你拥有全部神兽时,你可以用多余的神兽碎片来我这里换取璀璨传承哦。</t>
   </si>
   <si>
+    <t>20000041</t>
+  </si>
+  <si>
+    <t>封印之塔</t>
+  </si>
+  <si>
+    <t>-2954,-403,-1198</t>
+  </si>
+  <si>
+    <t>在我这里有100层,听说能闯到最后的都是勇士哦！</t>
+  </si>
+  <si>
     <t>20000101</t>
   </si>
   <si>
+    <t>家族管理</t>
+  </si>
+  <si>
+    <t>-8304,5,203</t>
+  </si>
+  <si>
     <t>20000102</t>
   </si>
   <si>
     <t>家族任务</t>
   </si>
   <si>
+    <t>-4274,5,2498</t>
+  </si>
+  <si>
+    <t>我这里的家族试炼任务每完成20、40、60、80、100环都会获得一份特殊奖励哦!</t>
+  </si>
+  <si>
     <t>20000103</t>
   </si>
   <si>
     <t>家族捐献</t>
   </si>
   <si>
+    <t>-5882,5,76</t>
+  </si>
+  <si>
+    <t>20000104</t>
+  </si>
+  <si>
     <t>家族强化</t>
   </si>
   <si>
-    <t>NPC_CunZhang</t>
+    <t>-6660,5,2006</t>
+  </si>
+  <si>
+    <t>20000105</t>
+  </si>
+  <si>
+    <t>家族商店</t>
+  </si>
+  <si>
+    <t>-8439,5,-1948</t>
+  </si>
+  <si>
+    <t>20000106</t>
+  </si>
+  <si>
+    <t>家族科技</t>
+  </si>
+  <si>
+    <t>-7715,5,2106</t>
+  </si>
+  <si>
+    <t>20001001</t>
   </si>
   <si>
     <t>杂货药店老板</t>
@@ -1552,6 +1224,9 @@
     <t>村长·乌尔</t>
   </si>
   <si>
+    <t>30010001,30010002,30010003,30010006,30010008,30010020,30010044,31001008</t>
+  </si>
+  <si>
     <t>140,16,150</t>
   </si>
   <si>
@@ -1561,9 +1236,6 @@
     <t>圣光军队长</t>
   </si>
   <si>
-    <t>NPC_ShiBing</t>
-  </si>
-  <si>
     <t>-196,0,-1568</t>
   </si>
   <si>
@@ -1642,6 +1314,9 @@
     <t>艾丽公主</t>
   </si>
   <si>
+    <t>30010018,30010019,31001001</t>
+  </si>
+  <si>
     <t>14275,2896,-1827</t>
   </si>
   <si>
@@ -1693,6 +1368,9 @@
     <t>森林守卫</t>
   </si>
   <si>
+    <t>30010023,30010024,30010025,31001002</t>
+  </si>
+  <si>
     <t>14313,2905,-6593</t>
   </si>
   <si>
@@ -1708,6 +1386,9 @@
     <t>石墓守陵人</t>
   </si>
   <si>
+    <t>30010027,30010028,30010029,30010030,30010031,31001003,31001004</t>
+  </si>
+  <si>
     <t>14705,2904,-3602</t>
   </si>
   <si>
@@ -1726,6 +1407,12 @@
     <t>15180,2904,-4445</t>
   </si>
   <si>
+    <t>地下洞穴守洞人</t>
+  </si>
+  <si>
+    <t>30010032,30010033,30010034,30010035,30010036,30010037,30010038,30010039,30010040,30010041,30010042,30010043,31001005,31001006,31001007</t>
+  </si>
+  <si>
     <t>17004,2893,-6304</t>
   </si>
   <si>
@@ -2035,9 +1722,6 @@
     <t>圣光城装备老板</t>
   </si>
   <si>
-    <t>NPC_Task_1</t>
-  </si>
-  <si>
     <t>我这里的货物物美价廉!赶紧来看看有什么需要的,过段时间可不是这个价格呦！</t>
   </si>
   <si>
@@ -2068,15 +1752,63 @@
     <t>别说话,这里需要安静！</t>
   </si>
   <si>
+    <t>小龟赛跑大使</t>
+  </si>
+  <si>
+    <t>-844,-771,-4836</t>
+  </si>
+  <si>
+    <t>小龟1号</t>
+  </si>
+  <si>
+    <t>-529,-765,-5248</t>
+  </si>
+  <si>
+    <t>我年轻力胜,获胜最终胜利的一定是我！</t>
+  </si>
+  <si>
+    <t>小龟2号</t>
+  </si>
+  <si>
+    <t>-205,-765,-5248</t>
+  </si>
+  <si>
+    <t>我是来自沙漠的龟,这么热的天获胜最终胜利的一定是我！</t>
+  </si>
+  <si>
+    <t>小龟3号</t>
+  </si>
+  <si>
+    <t>92,-765,-5248</t>
+  </si>
+  <si>
+    <t>我拥有丰富的赛龟经验,获胜最终胜利的一定是我！</t>
+  </si>
+  <si>
+    <t>小龟一号选手</t>
+  </si>
+  <si>
+    <t>20000,5000,5000</t>
+  </si>
+  <si>
+    <t>-2.46;3.55;97.41</t>
+  </si>
+  <si>
+    <t>小龟二号选手</t>
+  </si>
+  <si>
+    <t>小龟三号选手</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>30000001</t>
   </si>
   <si>
     <t>农场管理员</t>
   </si>
   <si>
-    <t>NPC_JiaYuanNongChang</t>
-  </si>
-  <si>
     <t>-468,0,-2912</t>
   </si>
   <si>
@@ -2086,9 +1818,6 @@
     <t>牧场管理员</t>
   </si>
   <si>
-    <t>NPC_JiaYuanMuChang</t>
-  </si>
-  <si>
     <t>-1090,0,-1494</t>
   </si>
   <si>
@@ -2098,9 +1827,6 @@
     <t>家园管家</t>
   </si>
   <si>
-    <t>NPC_JiaYuanGuanLi</t>
-  </si>
-  <si>
     <t>3061,0,1224</t>
   </si>
   <si>
@@ -2110,7 +1836,7 @@
     <t>家园公告牌</t>
   </si>
   <si>
-    <t>NPC_JiaYuanGongGao</t>
+    <t>1450,0,-3250</t>
   </si>
   <si>
     <t>30000005</t>
@@ -2128,9 +1854,6 @@
     <t>家园存放员</t>
   </si>
   <si>
-    <t>NPC_JiaYuanPet</t>
-  </si>
-  <si>
     <t>-1293,0,1892</t>
   </si>
   <si>
@@ -2140,9 +1863,6 @@
     <t>家园士兵</t>
   </si>
   <si>
-    <t>NPC_JiaYuanShiBing</t>
-  </si>
-  <si>
     <t>949,0,-4357</t>
   </si>
   <si>
@@ -2158,9 +1878,6 @@
     <t>美味大师</t>
   </si>
   <si>
-    <t>NPC_JiaYuanMeiWei</t>
-  </si>
-  <si>
     <t>2845,0,-2586</t>
   </si>
   <si>
@@ -2191,306 +1908,68 @@
     <t>-1556,0,1277</t>
   </si>
   <si>
-    <t>20000024</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下洞穴守洞人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>30000014</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_CangKu</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝图生活技能仓库</t>
   </si>
   <si>
     <t>2350,0,1620</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝图生活技能仓库</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>封印之塔</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_JiaYuanPet2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000041</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>像试试自己差距嘛,那就来我这里吧。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我这里有100层,听说能闯到最后的都是勇士哦！</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2954,-403,-1198</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>30000015</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>装备增幅</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1450,0,-3250</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_Task_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_JiaYuanShiBing</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3439,0,804</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>30000016</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>家园觉醒大师</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>14,0,2133</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_LaoTou</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>40000001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场招募·猎魔</t>
+  </si>
+  <si>
+    <t>-7655,0,-1313</t>
   </si>
   <si>
     <t>40000002</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场招募·猎魔</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>战场招募·曙光</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-7655,0,-1313</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>9256,0,-1330</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000105</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族商店</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龟1号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龟2号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龟3号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-844,-771,-4836</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龟一号选手</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龟二号选手</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龟三号选手</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2.46;3.55;97.41</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_XiaoGui_1</t>
-  </si>
-  <si>
-    <t>NPC_XiaoGui_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_XiaoGui_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-529,-765,-5248</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>92,-765,-5248</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>我年轻力胜,获胜最终胜利的一定是我！</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是来自沙漠的龟,这么热的天获胜最终胜利的一定是我！</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>我拥有丰富的赛龟经验,获胜最终胜利的一定是我！</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-205,-765,-5248</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,5000,5000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龟赛跑大使</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>40000003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>神秘之门</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_ShenMiZhiMen</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000101,50000102,50000103,50000104,50000105,50000201,50000202,50000203,50000301,50000302,50000303,60001001,50000003,30050024,30050025,30090001,30090002,30090003,30090004,30090005,30090006,30090007,30090008,30090009,30090010</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>每到节日的时候,超过20级的玩家都可以来我这里领取奖励哦~</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>30010018,30010019,31001001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>30010023,30010024,30010025,31001002</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>30010027,30010028,30010029,30010030,30010031,31001003,31001004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>30010032,30010033,30010034,30010035,30010036,30010037,30010038,30010039,30010040,30010041,30010042,30010043,31001005,31001006,31001007</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>30010001,30010002,30010003,30010006,30010008,30010020,30010044,31001008</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000106</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族科技</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>我这里的家族试炼任务每完成20、40、60、80、100环都会获得一份特殊奖励哦!</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族管理</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4274,5,2498</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8304,5,203</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8439,5,-1948</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-6660,5,2006</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5882,5,76</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-7715,5,2106</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000104</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2502,14 +1981,12 @@
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2517,14 +1994,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2532,7 +2007,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2540,7 +2014,6 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2548,49 +2021,176 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2611,12 +2211,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14972380748924222"/>
+        <fgColor theme="0" tint="-0.149723807489242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2667,13 +2453,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2725,6 +2753,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2738,58 +2769,102 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 5" xfId="49"/>
+    <cellStyle name="常规 6" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3076,19 +3151,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -3116,13 +3191,13 @@
     <col min="26" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:25">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3160,183 +3235,183 @@
         <v>12</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="P3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="P3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="Q3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="S3" s="20" t="s">
         <v>17</v>
       </c>
+      <c r="T3" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="U3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:25">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="Q4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="R4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="S4" s="21" t="s">
         <v>37</v>
       </c>
+      <c r="T4" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="U4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:25">
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="M5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="S5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="V5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="W5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="X5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="Y5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="3:18">
       <c r="C6" s="12">
         <v>10001</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="12"/>
       <c r="H6" s="4">
@@ -3345,8 +3420,8 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="12">
-        <v>0</v>
+      <c r="L6" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M6" s="5">
         <v>0</v>
@@ -3354,14 +3429,14 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="3:18">
       <c r="C7" s="12">
         <v>10002</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="12"/>
       <c r="H7" s="4">
@@ -3370,8 +3445,8 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="12">
-        <v>0</v>
+      <c r="L7" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -3379,14 +3454,14 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="26"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="3:18">
       <c r="C8" s="12">
         <v>10003</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="12"/>
       <c r="H8" s="4">
@@ -3395,8 +3470,8 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="12">
-        <v>0</v>
+      <c r="L8" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -3404,14 +3479,14 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="3:19">
       <c r="C9" s="12">
         <v>10004</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="12"/>
       <c r="H9" s="4">
@@ -3420,8 +3495,8 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="12">
-        <v>0</v>
+      <c r="L9" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -3429,19 +3504,19 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="R9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="3:18">
       <c r="C10" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="12">
         <v>200001</v>
@@ -3455,10 +3530,10 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="27" t="s">
+      <c r="L10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="31" t="s">
         <v>55</v>
       </c>
       <c r="N10" s="5">
@@ -3466,7 +3541,7 @@
       </c>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:18">
       <c r="C11" s="13" t="s">
         <v>56</v>
       </c>
@@ -3485,23 +3560,23 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>59</v>
       </c>
       <c r="N11" s="5">
         <v>-280</v>
       </c>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:18">
       <c r="C12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="4">
@@ -3513,23 +3588,23 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>63</v>
+      <c r="L12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="N12" s="5">
         <v>-180</v>
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:18">
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="4">
@@ -3541,24 +3616,24 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>67</v>
+      <c r="L13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="N13" s="5">
         <v>-280</v>
       </c>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:25">
       <c r="C14" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17">
@@ -3570,36 +3645,36 @@
       <c r="I14" s="17">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="L14" s="16">
-        <v>20001007</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>70</v>
+      <c r="J14" s="22"/>
+      <c r="L14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="N14" s="15">
         <v>-180</v>
       </c>
       <c r="O14" s="15"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
       <c r="R14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
     </row>
-    <row r="15" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:18">
       <c r="C15" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4">
         <v>1005</v>
@@ -3610,11 +3685,11 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>75</v>
+      <c r="L15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="N15" s="4">
         <v>-180</v>
@@ -3622,17 +3697,17 @@
       <c r="O15" s="4"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:25">
       <c r="C16" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17">
@@ -3644,37 +3719,37 @@
       <c r="I16" s="17">
         <v>0</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="L16" s="16">
-        <v>20001024</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>79</v>
+      <c r="J16" s="22"/>
+      <c r="L16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="N16" s="15">
         <v>-90</v>
       </c>
       <c r="O16" s="15"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
       <c r="R16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
     </row>
-    <row r="17" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:25">
       <c r="C17" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17">
@@ -3686,36 +3761,36 @@
       <c r="I17" s="17">
         <v>0</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="L17" s="16">
-        <v>20001024</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>82</v>
+      <c r="J17" s="22"/>
+      <c r="L17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="N17" s="15">
         <v>90</v>
       </c>
       <c r="O17" s="15"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
       <c r="R17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:18">
       <c r="C18" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="4">
@@ -3727,25 +3802,25 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>86</v>
+      <c r="L18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:18">
       <c r="C19" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="4">
@@ -3757,25 +3832,25 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>91</v>
+      <c r="L19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="N19" s="5">
         <v>-270</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="3:18">
       <c r="C20" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="4">
@@ -3787,26 +3862,26 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>96</v>
+      <c r="L20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="N20" s="5">
         <v>45</v>
       </c>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="20.1" customHeight="1" spans="3:18">
       <c r="C21" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G21" s="4">
         <v>1007</v>
@@ -3817,28 +3892,28 @@
       <c r="I21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>101</v>
+      <c r="L21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="N21" s="5">
         <v>90</v>
       </c>
-      <c r="R21" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R21" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="3:18">
       <c r="C22" s="13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G22" s="4">
         <v>1006</v>
@@ -3849,28 +3924,28 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>107</v>
+      <c r="L22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="N22" s="5">
         <v>90</v>
       </c>
-      <c r="R22" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R22" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" ht="20.1" customHeight="1" spans="3:18">
       <c r="C23" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G23" s="4">
         <v>1008</v>
@@ -3881,25 +3956,25 @@
       <c r="I23" s="4">
         <v>0</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>113</v>
+      <c r="L23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>103</v>
       </c>
       <c r="N23" s="5">
         <v>225</v>
       </c>
-      <c r="R23" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R23" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" ht="20.1" customHeight="1" spans="3:18">
       <c r="C24" s="13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G24" s="4">
         <v>1002</v>
@@ -3910,25 +3985,25 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>118</v>
+      <c r="L24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="N24" s="5">
         <v>0</v>
       </c>
-      <c r="R24" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" ht="20.1" customHeight="1" spans="3:18">
       <c r="C25" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
@@ -3939,23 +4014,23 @@
       <c r="I25" s="4">
         <v>0</v>
       </c>
-      <c r="L25" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>123</v>
+      <c r="L25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="N25" s="5">
         <v>-90</v>
       </c>
-      <c r="R25" s="24"/>
-    </row>
-    <row r="26" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" ht="20.1" customHeight="1" spans="3:18">
       <c r="C26" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G26" s="4">
         <v>1014</v>
@@ -3966,25 +4041,25 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>127</v>
+      <c r="L26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>114</v>
       </c>
       <c r="N26" s="5">
         <v>180</v>
       </c>
-      <c r="R26" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R26" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" ht="20.1" customHeight="1" spans="3:18">
       <c r="C27" s="13" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F27" s="5">
         <v>4</v>
@@ -3998,25 +4073,25 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>131</v>
+      <c r="L27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="N27" s="5">
         <v>180</v>
       </c>
-      <c r="R27" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" ht="20.1" customHeight="1" spans="3:18">
       <c r="C28" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -4030,23 +4105,23 @@
       <c r="J28" s="4">
         <v>52</v>
       </c>
-      <c r="L28" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>135</v>
+      <c r="L28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>121</v>
       </c>
       <c r="N28" s="5">
         <v>90</v>
       </c>
-      <c r="R28" s="24"/>
-    </row>
-    <row r="29" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="27"/>
+    </row>
+    <row r="29" ht="20.1" customHeight="1" spans="3:18">
       <c r="C29" s="13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -4060,23 +4135,23 @@
       <c r="J29" s="4">
         <v>53</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M29" s="30" t="s">
-        <v>139</v>
+      <c r="L29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="N29" s="5">
         <v>90</v>
       </c>
-      <c r="R29" s="24"/>
-    </row>
-    <row r="30" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="27"/>
+    </row>
+    <row r="30" ht="20.1" customHeight="1" spans="3:18">
       <c r="C30" s="13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -4090,23 +4165,23 @@
       <c r="J30" s="4">
         <v>54</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M30" s="30" t="s">
-        <v>143</v>
+      <c r="L30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="N30" s="5">
         <v>90</v>
       </c>
-      <c r="R30" s="24"/>
-    </row>
-    <row r="31" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="27"/>
+    </row>
+    <row r="31" ht="20.1" customHeight="1" spans="3:18">
       <c r="C31" s="13" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F31" s="12">
         <v>100001</v>
@@ -4115,28 +4190,28 @@
         <v>1012</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="M31" s="30" t="s">
-        <v>148</v>
+        <v>130</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="N31" s="5">
         <v>-110</v>
       </c>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:18">
       <c r="C32" s="13" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F32" s="5">
         <v>5</v>
@@ -4150,54 +4225,54 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="30" t="s">
-        <v>152</v>
+      <c r="L32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="N32" s="5">
         <v>-30</v>
       </c>
-      <c r="R32" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" ht="20.1" customHeight="1" spans="3:18">
       <c r="C33" s="13" t="s">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="31" t="s">
-        <v>498</v>
+      <c r="H33" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M33" s="30" t="s">
-        <v>155</v>
+      <c r="L33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="N33" s="5">
         <v>180</v>
       </c>
-      <c r="R33" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="3:18">
       <c r="C34" s="13" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F34" s="18">
         <v>0</v>
@@ -4205,25 +4280,25 @@
       <c r="G34" s="4">
         <v>1024</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>159</v>
+      <c r="L34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="N34" s="5">
         <v>-30</v>
       </c>
-      <c r="R34" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" ht="20.1" customHeight="1" spans="3:18">
       <c r="C35" s="13" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F35" s="5">
         <v>6</v>
@@ -4237,25 +4312,25 @@
       <c r="I35" s="4">
         <v>0</v>
       </c>
-      <c r="L35" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>163</v>
+      <c r="L35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>146</v>
       </c>
       <c r="N35" s="5">
         <v>-144</v>
       </c>
-      <c r="R35" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" ht="20.1" customHeight="1" spans="3:18">
       <c r="C36" s="13" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G36" s="4">
         <v>2</v>
@@ -4263,25 +4338,25 @@
       <c r="J36" s="4">
         <v>2000001</v>
       </c>
-      <c r="L36" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>167</v>
+      <c r="L36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="N36" s="5">
         <v>-180</v>
       </c>
-      <c r="R36" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R36" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" ht="20.1" customHeight="1" spans="3:18">
       <c r="C37" s="13" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="G37" s="4">
         <v>2</v>
@@ -4289,73 +4364,73 @@
       <c r="J37" s="6">
         <v>2000002</v>
       </c>
-      <c r="L37" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>171</v>
+      <c r="L37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="N37" s="5">
         <v>90</v>
       </c>
-      <c r="R37" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" ht="20.1" customHeight="1" spans="3:18">
       <c r="C38" s="13" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G38" s="4">
         <v>1027</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="M38" s="30" t="s">
-        <v>175</v>
+      <c r="L38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="N38" s="5">
         <v>90</v>
       </c>
-      <c r="P38" s="23"/>
-      <c r="R38" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P38" s="25"/>
+      <c r="R38" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" ht="20.1" customHeight="1" spans="3:18">
       <c r="C39" s="13" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G39" s="4">
         <v>1028</v>
       </c>
-      <c r="L39" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="M39" s="30" t="s">
-        <v>179</v>
+      <c r="L39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="N39" s="5">
         <v>129</v>
       </c>
-      <c r="P39" s="23"/>
-      <c r="R39" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P39" s="25"/>
+      <c r="R39" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" ht="20.1" customHeight="1" spans="3:18">
       <c r="C40" s="13" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -4369,144 +4444,144 @@
       <c r="J40" s="4">
         <v>0</v>
       </c>
-      <c r="L40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M40" s="30" t="s">
-        <v>182</v>
+      <c r="L40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>165</v>
       </c>
       <c r="N40" s="5">
         <v>180</v>
       </c>
-      <c r="R40" s="24"/>
-    </row>
-    <row r="41" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R40" s="27"/>
+    </row>
+    <row r="41" ht="20.1" customHeight="1" spans="3:18">
       <c r="C41" s="13" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="4">
         <v>1030</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="M41" s="30" t="s">
-        <v>186</v>
+        <v>130</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="N41" s="5">
         <v>0</v>
       </c>
       <c r="R41" s="12"/>
     </row>
-    <row r="42" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:18">
       <c r="C42" s="13" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="4">
         <v>6</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="M42" s="30" t="s">
-        <v>190</v>
+        <v>130</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="N42" s="5">
         <v>270</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="43" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" ht="20.1" customHeight="1" spans="3:18">
       <c r="C43" s="13" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="4">
         <v>7</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="M43" s="30" t="s">
-        <v>193</v>
+        <v>130</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="N43" s="5">
         <v>-146</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" ht="20.1" customHeight="1" spans="3:18">
       <c r="C44" s="13" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="4">
         <v>2</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="M44" s="30" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>180</v>
       </c>
       <c r="N44" s="5">
         <v>-146</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1" spans="3:18">
       <c r="C45" s="13" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F45" s="12">
         <v>50000001</v>
@@ -4520,23 +4595,23 @@
       <c r="I45" s="4">
         <v>0</v>
       </c>
-      <c r="L45" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>202</v>
+      <c r="L45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="N45" s="5">
         <v>106</v>
       </c>
       <c r="R45" s="12"/>
     </row>
-    <row r="46" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:18">
       <c r="C46" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F46" s="12">
         <v>0</v>
@@ -4550,25 +4625,25 @@
       <c r="I46" s="4">
         <v>0</v>
       </c>
-      <c r="L46" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>205</v>
+      <c r="L46" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="N46" s="5">
         <v>-90</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" ht="20.1" customHeight="1" spans="3:18">
       <c r="C47" s="13" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F47" s="12">
         <v>0</v>
@@ -4582,25 +4657,25 @@
       <c r="I47" s="4">
         <v>0</v>
       </c>
-      <c r="L47" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>209</v>
+      <c r="L47" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="N47" s="5">
         <v>90</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" ht="20.1" customHeight="1" spans="3:18">
       <c r="C48" s="13" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F48" s="12">
         <v>60000001</v>
@@ -4614,23 +4689,23 @@
       <c r="I48" s="4">
         <v>0</v>
       </c>
-      <c r="L48" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>213</v>
+      <c r="L48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M48" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="N48" s="5">
         <v>180</v>
       </c>
       <c r="R48" s="12"/>
     </row>
-    <row r="49" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:18">
       <c r="C49" s="13" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F49" s="12">
         <v>0</v>
@@ -4644,51 +4719,51 @@
       <c r="I49" s="4">
         <v>0</v>
       </c>
-      <c r="L49" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>216</v>
+      <c r="L49" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>198</v>
       </c>
       <c r="N49" s="5">
         <v>-90</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" ht="20.1" customHeight="1" spans="3:18">
       <c r="C50" s="13" t="s">
-        <v>451</v>
+        <v>200</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>449</v>
+        <v>201</v>
       </c>
       <c r="G50" s="4">
         <v>1050</v>
       </c>
-      <c r="L50" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>454</v>
+      <c r="L50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M50" s="34" t="s">
+        <v>202</v>
       </c>
       <c r="N50" s="5">
         <v>90</v>
       </c>
-      <c r="R50" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R50" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="12" t="s">
-        <v>508</v>
+        <v>205</v>
       </c>
       <c r="F51" s="12">
         <v>0</v>
@@ -4704,11 +4779,11 @@
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>510</v>
+      <c r="L51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="N51" s="5">
         <v>90</v>
@@ -4721,15 +4796,15 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="13" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="12" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F52" s="12">
         <v>0</v>
@@ -4745,18 +4820,18 @@
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>509</v>
+      <c r="L52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="N52" s="5">
         <v>-140</v>
       </c>
       <c r="O52" s="5"/>
       <c r="R52" s="12" t="s">
-        <v>507</v>
+        <v>210</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
@@ -4764,15 +4839,15 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="13" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="12" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F53" s="12">
         <v>0</v>
@@ -4788,11 +4863,11 @@
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>513</v>
+      <c r="L53" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="N53" s="5">
         <v>90</v>
@@ -4805,15 +4880,15 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="13" t="s">
-        <v>515</v>
+        <v>214</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F54" s="12">
         <v>0</v>
@@ -4829,11 +4904,11 @@
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>512</v>
+      <c r="L54" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="N54" s="5">
         <v>-180</v>
@@ -4846,15 +4921,15 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="13" t="s">
-        <v>471</v>
+        <v>217</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="12" t="s">
-        <v>472</v>
+        <v>218</v>
       </c>
       <c r="F55" s="12">
         <v>0</v>
@@ -4870,11 +4945,11 @@
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>511</v>
+      <c r="L55" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="N55" s="5">
         <v>30</v>
@@ -4887,15 +4962,15 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="13" t="s">
-        <v>505</v>
+        <v>220</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="12" t="s">
-        <v>506</v>
+        <v>221</v>
       </c>
       <c r="F56" s="12">
         <v>0</v>
@@ -4911,11 +4986,11 @@
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>514</v>
+      <c r="L56" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="N56" s="5">
         <v>130</v>
@@ -4928,12 +5003,12 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:18">
       <c r="C57" s="13" t="s">
-        <v>516</v>
+        <v>223</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F57" s="12">
         <v>10001101</v>
@@ -4942,28 +5017,28 @@
         <v>1009</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>226</v>
+        <v>130</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="N57" s="5">
         <v>60</v>
       </c>
       <c r="R57" s="12"/>
     </row>
-    <row r="58" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="35">
+    <row r="58" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C58" s="19">
         <v>20001002</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F58" s="12">
         <v>10001201</v>
@@ -4972,38 +5047,38 @@
         <v>1009</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>58</v>
+        <v>130</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N58" s="5">
         <v>-45</v>
       </c>
       <c r="R58" s="12"/>
     </row>
-    <row r="59" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="35">
+    <row r="59" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C59" s="19">
         <v>20001003</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F59" s="12"/>
       <c r="H59" s="6" t="s">
-        <v>504</v>
+        <v>229</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>224</v>
+        <v>130</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>230</v>
@@ -5011,12 +5086,12 @@
       <c r="N59" s="5">
         <v>180</v>
       </c>
-      <c r="R59" s="25" t="s">
+      <c r="R59" s="26" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="35">
+    <row r="60" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C60" s="19">
         <v>20001004</v>
       </c>
       <c r="E60" s="12" t="s">
@@ -5024,229 +5099,229 @@
       </c>
       <c r="F60" s="12"/>
       <c r="H60" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L60" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M60" s="31" t="s">
         <v>233</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>234</v>
       </c>
       <c r="N60" s="5">
         <v>90</v>
       </c>
-      <c r="R60" s="25" t="s">
+      <c r="R60" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C61" s="19">
+        <v>20001005</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="35">
-        <v>20001005</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="F61" s="12"/>
       <c r="H61" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N61" s="5">
         <v>-45</v>
       </c>
-      <c r="R61" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="35">
+      <c r="R61" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C62" s="19">
         <v>20001006</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F62" s="12"/>
       <c r="H62" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>239</v>
+        <v>130</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="N62" s="5">
         <v>45</v>
       </c>
-      <c r="R62" s="25" t="s">
+      <c r="R62" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C63" s="19">
+        <v>20001007</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="35">
-        <v>20001007</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="F63" s="12"/>
       <c r="H63" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M63" s="31" t="s">
         <v>242</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L63" s="12">
-        <v>20001007</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>243</v>
       </c>
       <c r="N63" s="5">
         <v>150</v>
       </c>
-      <c r="R63" s="25" t="s">
+      <c r="R63" s="26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C64" s="19">
+        <v>20001008</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="35">
-        <v>20001008</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="F64" s="12"/>
       <c r="H64" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L64" s="12">
-        <v>20001008</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>246</v>
+        <v>130</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M64" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="N64" s="5">
         <v>-155</v>
       </c>
-      <c r="R64" s="25" t="s">
+      <c r="R64" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C65" s="19">
+        <v>20001009</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="35">
-        <v>20001009</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="F65" s="12"/>
       <c r="H65" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M65" s="31" t="s">
         <v>249</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L65" s="12">
-        <v>20001009</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>250</v>
       </c>
       <c r="N65" s="5">
         <v>35</v>
       </c>
-      <c r="R65" s="25" t="s">
+      <c r="R65" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C66" s="19">
+        <v>20001010</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="66" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="35">
-        <v>20001010</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="F66" s="12"/>
       <c r="H66" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L66" s="12">
-        <v>20001010</v>
-      </c>
-      <c r="M66" s="31" t="s">
-        <v>253</v>
+        <v>130</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M66" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="N66" s="5">
         <v>180</v>
       </c>
-      <c r="R66" s="25" t="s">
+      <c r="R66" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C67" s="19">
+        <v>20001011</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="67" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="35">
-        <v>20001011</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="F67" s="12"/>
       <c r="H67" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M67" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L67" s="12">
-        <v>20001011</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="N67" s="5">
         <v>-180</v>
       </c>
-      <c r="R67" s="25" t="s">
+      <c r="R67" s="26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C68" s="19">
+        <v>20001012</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="35">
-        <v>20001012</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="F68" s="12"/>
       <c r="H68" s="6" t="s">
-        <v>500</v>
+        <v>259</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L68" s="12">
-        <v>20001012</v>
+        <v>130</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M68" s="5" t="s">
         <v>260</v>
@@ -5254,12 +5329,12 @@
       <c r="N68" s="5">
         <v>80</v>
       </c>
-      <c r="R68" s="25" t="s">
+      <c r="R68" s="26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="35">
+    <row r="69" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C69" s="19">
         <v>20001013</v>
       </c>
       <c r="E69" s="12" t="s">
@@ -5270,10 +5345,10 @@
         <v>263</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L69" s="12">
-        <v>20001013</v>
+        <v>130</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M69" s="5" t="s">
         <v>264</v>
@@ -5281,12 +5356,12 @@
       <c r="N69" s="5">
         <v>180</v>
       </c>
-      <c r="R69" s="25" t="s">
+      <c r="R69" s="26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="35">
+    <row r="70" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C70" s="19">
         <v>20001014</v>
       </c>
       <c r="E70" s="12" t="s">
@@ -5297,10 +5372,10 @@
         <v>267</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L70" s="12">
-        <v>20001014</v>
+        <v>130</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M70" s="5" t="s">
         <v>268</v>
@@ -5308,12 +5383,12 @@
       <c r="N70" s="5">
         <v>180</v>
       </c>
-      <c r="R70" s="25" t="s">
+      <c r="R70" s="26" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="35">
+    <row r="71" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C71" s="19">
         <v>20001015</v>
       </c>
       <c r="E71" s="12" t="s">
@@ -5324,10 +5399,10 @@
         <v>271</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L71" s="12">
-        <v>20001015</v>
+        <v>130</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M71" s="5" t="s">
         <v>272</v>
@@ -5335,12 +5410,12 @@
       <c r="N71" s="5">
         <v>128</v>
       </c>
-      <c r="R71" s="25" t="s">
+      <c r="R71" s="26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="35">
+    <row r="72" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C72" s="19">
         <v>20001016</v>
       </c>
       <c r="E72" s="12" t="s">
@@ -5348,26 +5423,26 @@
       </c>
       <c r="F72" s="12"/>
       <c r="H72" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L72" s="12">
-        <v>20001016</v>
+        <v>130</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N72" s="5">
         <v>180</v>
       </c>
-      <c r="R72" s="25" t="s">
+      <c r="R72" s="26" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="35">
+    <row r="73" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C73" s="19">
         <v>20001017</v>
       </c>
       <c r="E73" s="12" t="s">
@@ -5375,219 +5450,219 @@
       </c>
       <c r="F73" s="12"/>
       <c r="H73" s="6" t="s">
-        <v>501</v>
+        <v>277</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L73" s="12">
-        <v>20001017</v>
+        <v>130</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N73" s="5">
         <v>120</v>
       </c>
-      <c r="R73" s="25" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="74" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="35">
+      <c r="R73" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C74" s="19">
         <v>20001018</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F74" s="12"/>
       <c r="H74" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="J74" s="4"/>
-      <c r="L74" s="24">
-        <v>0</v>
+      <c r="L74" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N74" s="5">
         <v>180</v>
       </c>
-      <c r="R74" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="35">
+      <c r="R74" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C75" s="19">
         <v>20001019</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F75" s="12"/>
       <c r="H75" s="6" t="s">
-        <v>502</v>
+        <v>283</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L75" s="12">
-        <v>20001019</v>
+        <v>130</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N75" s="5">
         <v>-180</v>
       </c>
-      <c r="R75" s="25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="35">
+      <c r="R75" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C76" s="19">
         <v>20001020</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F76" s="12"/>
       <c r="H76" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L76" s="12">
-        <v>20001019</v>
+        <v>130</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N76" s="5">
         <v>180</v>
       </c>
-      <c r="R76" s="25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="35">
+      <c r="R76" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C77" s="19">
         <v>20001021</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F77" s="12"/>
       <c r="H77" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L77" s="12">
-        <v>20001021</v>
+        <v>130</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N77" s="5">
         <v>-180</v>
       </c>
-      <c r="R77" s="25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="35">
+      <c r="R77" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C78" s="19">
         <v>20001022</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>444</v>
+        <v>290</v>
       </c>
       <c r="F78" s="12"/>
       <c r="H78" s="6" t="s">
-        <v>503</v>
+        <v>291</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L78" s="12">
-        <v>20001022</v>
+        <v>130</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N78" s="5">
         <v>-106</v>
       </c>
-      <c r="R78" s="25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="35">
+      <c r="R78" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C79" s="19">
         <v>20001023</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="4">
         <v>1004</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L79" s="12">
-        <v>20001023</v>
+        <v>130</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N79" s="5">
         <v>180</v>
       </c>
       <c r="R79" s="12"/>
     </row>
-    <row r="80" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="35">
+    <row r="80" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C80" s="19">
         <v>20001024</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F80" s="12"/>
       <c r="H80" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L80" s="12">
-        <v>20001024</v>
+        <v>130</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N80" s="5">
         <v>-152</v>
       </c>
       <c r="R80" s="12"/>
     </row>
-    <row r="81" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:18">
       <c r="C81" s="13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81" s="12">
         <v>10002101</v>
@@ -5596,28 +5671,28 @@
         <v>1009</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L81" s="12">
-        <v>20001001</v>
+        <v>130</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N81" s="5">
         <v>-147</v>
       </c>
       <c r="R81" s="12"/>
     </row>
-    <row r="82" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:18">
       <c r="C82" s="13" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F82" s="12">
         <v>10002201</v>
@@ -5626,217 +5701,217 @@
         <v>1009</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L82" s="12">
-        <v>20001002</v>
+        <v>130</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N82" s="5">
         <v>-129</v>
       </c>
       <c r="R82" s="12"/>
     </row>
-    <row r="83" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="20.1" customHeight="1" spans="3:18">
       <c r="C83" s="13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F83" s="12"/>
       <c r="H83" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L83" s="24">
-        <v>20001007</v>
+        <v>130</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N83" s="5">
         <v>-131</v>
       </c>
-      <c r="R83" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R83" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:18">
       <c r="C84" s="13" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F84" s="12"/>
       <c r="H84" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L84" s="12">
-        <v>20001005</v>
+        <v>130</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="N84" s="5">
         <v>180</v>
       </c>
-      <c r="R84" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R84" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:18">
       <c r="C85" s="13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F85" s="12"/>
       <c r="H85" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L85" s="24">
-        <v>20001009</v>
+        <v>130</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N85" s="5">
         <v>180</v>
       </c>
-      <c r="R85" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R85" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" ht="20.1" customHeight="1" spans="3:18">
       <c r="C86" s="13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F86" s="12"/>
       <c r="H86" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L86" s="12">
-        <v>20001005</v>
+        <v>130</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N86" s="5">
         <v>180</v>
       </c>
-      <c r="R86" s="25" t="s">
+      <c r="R86" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C87" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="F87" s="12"/>
       <c r="H87" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L87" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N87" s="5">
         <v>180</v>
       </c>
-      <c r="R87" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R87" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:18">
       <c r="C88" s="13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F88" s="12"/>
       <c r="H88" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N88" s="5">
         <v>180</v>
       </c>
-      <c r="R88" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R88" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" ht="20.1" customHeight="1" spans="3:18">
       <c r="C89" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F89" s="12"/>
       <c r="H89" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L89" s="24">
-        <v>20001017</v>
+        <v>130</v>
+      </c>
+      <c r="L89" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N89" s="5">
         <v>27</v>
       </c>
-      <c r="R89" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R89" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" ht="20.1" customHeight="1" spans="3:18">
       <c r="C90" s="13" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90" s="12">
         <v>10003101</v>
@@ -5845,28 +5920,28 @@
         <v>1009</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L90" s="12">
-        <v>20001001</v>
+        <v>130</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N90" s="5">
         <v>123</v>
       </c>
       <c r="R90" s="12"/>
     </row>
-    <row r="91" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" ht="20.1" customHeight="1" spans="3:18">
       <c r="C91" s="13" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F91" s="12">
         <v>10003201</v>
@@ -5875,244 +5950,244 @@
         <v>1009</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L91" s="12">
-        <v>20001002</v>
+        <v>130</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N91" s="5">
         <v>45</v>
       </c>
       <c r="R91" s="12"/>
     </row>
-    <row r="92" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" ht="20.1" customHeight="1" spans="3:18">
       <c r="C92" s="13" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F92" s="12"/>
       <c r="H92" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L92" s="24">
-        <v>20001007</v>
+        <v>130</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N92" s="5">
         <v>90</v>
       </c>
-      <c r="R92" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="93" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R92" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:18">
       <c r="C93" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F93" s="12"/>
       <c r="H93" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L93" s="24">
-        <v>20001011</v>
+        <v>130</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N93" s="5">
         <v>180</v>
       </c>
-      <c r="R93" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="94" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R93" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" ht="20.1" customHeight="1" spans="3:18">
       <c r="C94" s="13" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F94" s="12"/>
       <c r="H94" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L94" s="24">
-        <v>20001017</v>
+        <v>130</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N94" s="5">
         <v>95</v>
       </c>
-      <c r="R94" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R94" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" ht="20.1" customHeight="1" spans="3:18">
       <c r="C95" s="13" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F95" s="12"/>
       <c r="H95" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L95" s="12">
-        <v>20001005</v>
+        <v>130</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N95" s="5">
         <v>-70</v>
       </c>
-      <c r="R95" s="25" t="s">
+      <c r="R95" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C96" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="F96" s="12"/>
       <c r="H96" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N96" s="5">
         <v>180</v>
       </c>
-      <c r="R96" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R96" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:18">
       <c r="C97" s="13" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F97" s="12"/>
       <c r="H97" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L97" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L97" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N97" s="5">
         <v>180</v>
       </c>
-      <c r="R97" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R97" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" ht="20.1" customHeight="1" spans="3:18">
       <c r="C98" s="13" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F98" s="12"/>
       <c r="H98" s="6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L98" s="12">
-        <v>20001008</v>
+        <v>130</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N98" s="5">
         <v>-70</v>
       </c>
-      <c r="R98" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="99" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R98" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" ht="20.1" customHeight="1" spans="3:18">
       <c r="C99" s="13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F99" s="12"/>
       <c r="H99" s="6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L99" s="24">
-        <v>20001011</v>
+        <v>130</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N99" s="5">
         <v>-180</v>
       </c>
-      <c r="R99" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R99" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" ht="20.1" customHeight="1" spans="3:18">
       <c r="C100" s="13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F100" s="12">
         <v>10004101</v>
@@ -6121,28 +6196,28 @@
         <v>1009</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L100" s="12">
-        <v>20001001</v>
+        <v>130</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="N100" s="5">
         <v>35</v>
       </c>
       <c r="R100" s="12"/>
     </row>
-    <row r="101" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="20.1" customHeight="1" spans="3:18">
       <c r="C101" s="13" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F101" s="12">
         <v>10004201</v>
@@ -6151,217 +6226,217 @@
         <v>1009</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L101" s="12">
-        <v>20001002</v>
+        <v>130</v>
+      </c>
+      <c r="L101" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N101" s="5">
         <v>-41</v>
       </c>
       <c r="R101" s="12"/>
     </row>
-    <row r="102" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="20.1" customHeight="1" spans="3:18">
       <c r="C102" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L102" s="24">
-        <v>20001007</v>
+        <v>130</v>
+      </c>
+      <c r="L102" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N102" s="5">
         <v>0</v>
       </c>
-      <c r="R102" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R102" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" ht="20.1" customHeight="1" spans="3:18">
       <c r="C103" s="13" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F103" s="12"/>
       <c r="H103" s="6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L103" s="24">
-        <v>20001017</v>
+        <v>130</v>
+      </c>
+      <c r="L103" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N103" s="5">
         <v>101</v>
       </c>
-      <c r="R103" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="104" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R103" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="104" ht="20.1" customHeight="1" spans="3:18">
       <c r="C104" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F104" s="12"/>
       <c r="H104" s="6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L104" s="24">
-        <v>20001013</v>
+        <v>130</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N104" s="5">
         <v>-3</v>
       </c>
-      <c r="R104" s="25" t="s">
+      <c r="R104" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C105" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="105" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="F105" s="12"/>
       <c r="H105" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L105" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N105" s="5">
         <v>180</v>
       </c>
-      <c r="R105" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="106" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R105" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" ht="20.1" customHeight="1" spans="3:18">
       <c r="C106" s="13" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F106" s="12"/>
       <c r="H106" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L106" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N106" s="5">
         <v>180</v>
       </c>
-      <c r="R106" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R106" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" ht="20.1" customHeight="1" spans="3:18">
       <c r="C107" s="13" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F107" s="12"/>
       <c r="H107" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L107" s="24">
-        <v>20001015</v>
+        <v>130</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N107" s="5">
         <v>-180</v>
       </c>
-      <c r="R107" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R107" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" ht="20.1" customHeight="1" spans="3:18">
       <c r="C108" s="13" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F108" s="12"/>
       <c r="H108" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L108" s="24">
-        <v>20001015</v>
+        <v>130</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="N108" s="5">
         <v>83</v>
       </c>
-      <c r="R108" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R108" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" ht="20.1" customHeight="1" spans="3:18">
       <c r="C109" s="13" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109" s="12">
         <v>10005101</v>
@@ -6370,28 +6445,28 @@
         <v>1009</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L109" s="12">
-        <v>20001001</v>
+        <v>130</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N109" s="5">
         <v>51</v>
       </c>
       <c r="R109" s="12"/>
     </row>
-    <row r="110" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="20.1" customHeight="1" spans="3:18">
       <c r="C110" s="13" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F110" s="12">
         <v>10005201</v>
@@ -6400,447 +6475,447 @@
         <v>1009</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L110" s="12">
-        <v>20001002</v>
+        <v>130</v>
+      </c>
+      <c r="L110" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="N110" s="5">
         <v>-44</v>
       </c>
       <c r="R110" s="12"/>
     </row>
-    <row r="111" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="20.1" customHeight="1" spans="3:18">
       <c r="C111" s="13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L111" s="12" t="s">
-        <v>224</v>
+        <v>130</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="N111" s="5">
         <v>180</v>
       </c>
-      <c r="R111" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R111" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" ht="20.1" customHeight="1" spans="3:18">
       <c r="C112" s="13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F112" s="12"/>
       <c r="H112" s="6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L112" s="24">
-        <v>20001012</v>
+        <v>130</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N112" s="5">
         <v>92</v>
       </c>
-      <c r="R112" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R112" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" ht="20.1" customHeight="1" spans="3:18">
       <c r="C113" s="13" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F113" s="12"/>
       <c r="H113" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L113" s="24">
-        <v>20001015</v>
+        <v>130</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N113" s="5">
         <v>180</v>
       </c>
-      <c r="R113" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R113" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" ht="20.1" customHeight="1" spans="3:18">
       <c r="C114" s="13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F114" s="12"/>
       <c r="H114" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L114" s="24">
-        <v>20001013</v>
+        <v>130</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N114" s="5">
         <v>145</v>
       </c>
-      <c r="R114" s="25" t="s">
+      <c r="R114" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" ht="20.1" customHeight="1" spans="3:18">
+      <c r="C115" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="E115" s="12" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="115" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="F115" s="12"/>
       <c r="H115" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L115" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L115" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N115" s="5">
         <v>180</v>
       </c>
-      <c r="R115" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="116" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R115" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" ht="20.1" customHeight="1" spans="3:18">
       <c r="C116" s="13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F116" s="12"/>
       <c r="H116" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L116" s="12" t="s">
-        <v>233</v>
+        <v>130</v>
+      </c>
+      <c r="L116" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N116" s="5">
         <v>180</v>
       </c>
-      <c r="R116" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="117" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R116" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:18">
       <c r="C117" s="12">
         <v>20099001</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F117" s="12"/>
       <c r="H117" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L117" s="24" t="s">
-        <v>458</v>
+        <v>130</v>
+      </c>
+      <c r="L117" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N117" s="5">
         <v>180</v>
       </c>
-      <c r="R117" s="25" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="118" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R117" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118" ht="20.1" customHeight="1" spans="3:18">
       <c r="C118" s="12">
         <v>20099002</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F118" s="12"/>
       <c r="H118" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L118" s="24" t="s">
-        <v>391</v>
+        <v>130</v>
+      </c>
+      <c r="L118" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N118" s="5">
         <v>180</v>
       </c>
-      <c r="R118" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="119" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R118" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="119" ht="20.1" customHeight="1" spans="3:18">
       <c r="C119" s="12">
         <v>20099003</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F119" s="12"/>
       <c r="H119" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L119" s="24" t="s">
-        <v>391</v>
+        <v>130</v>
+      </c>
+      <c r="L119" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N119" s="5">
         <v>180</v>
       </c>
-      <c r="R119" s="25" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="120" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R119" s="26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" ht="20.1" customHeight="1" spans="3:18">
       <c r="C120" s="12">
         <v>20099004</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F120" s="12"/>
       <c r="H120" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L120" s="24" t="s">
-        <v>391</v>
+        <v>130</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N120" s="5">
         <v>180</v>
       </c>
-      <c r="R120" s="25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="121" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R120" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" ht="20.1" customHeight="1" spans="3:18">
       <c r="C121" s="12">
         <v>20099005</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F121" s="12"/>
       <c r="H121" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L121" s="24" t="s">
-        <v>391</v>
+        <v>130</v>
+      </c>
+      <c r="L121" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N121" s="5">
         <v>180</v>
       </c>
-      <c r="R121" s="25" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="122" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R121" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="122" ht="20.1" customHeight="1" spans="3:18">
       <c r="C122" s="12">
         <v>20099006</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F122" s="12"/>
       <c r="H122" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L122" s="12">
-        <v>20001005</v>
+        <v>130</v>
+      </c>
+      <c r="L122" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N122" s="5">
         <v>180</v>
       </c>
-      <c r="R122" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="123" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R122" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123" ht="20.1" customHeight="1" spans="3:18">
       <c r="C123" s="12">
         <v>20099007</v>
       </c>
-      <c r="E123" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="F123" s="32"/>
+      <c r="E123" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="F123" s="28"/>
       <c r="G123" s="4">
         <v>1057</v>
       </c>
-      <c r="L123" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M123" s="27" t="s">
-        <v>476</v>
+      <c r="L123" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M123" s="31" t="s">
+        <v>406</v>
       </c>
       <c r="N123" s="5">
         <v>180</v>
       </c>
-      <c r="R123" s="33"/>
-    </row>
-    <row r="124" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R123" s="29"/>
+    </row>
+    <row r="124" ht="20.1" customHeight="1" spans="3:18">
       <c r="C124" s="12">
         <v>20099008</v>
       </c>
-      <c r="E124" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="F124" s="32"/>
-      <c r="L124" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="M124" s="27" t="s">
-        <v>487</v>
+      <c r="E124" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="F124" s="28"/>
+      <c r="L124" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M124" s="31" t="s">
+        <v>408</v>
       </c>
       <c r="N124" s="5">
         <v>0</v>
       </c>
-      <c r="R124" s="33" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="125" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R124" s="29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="125" ht="20.1" customHeight="1" spans="3:18">
       <c r="C125" s="12">
         <v>20099009</v>
       </c>
-      <c r="E125" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="F125" s="32"/>
-      <c r="L125" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="M125" s="27" t="s">
-        <v>492</v>
+      <c r="E125" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="F125" s="28"/>
+      <c r="L125" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M125" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="N125" s="5">
         <v>0</v>
       </c>
-      <c r="R125" s="33" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="126" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R125" s="29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" ht="20.1" customHeight="1" spans="3:18">
       <c r="C126" s="12">
         <v>20099010</v>
       </c>
-      <c r="E126" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="F126" s="32"/>
-      <c r="L126" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="M126" s="27" t="s">
-        <v>488</v>
+      <c r="E126" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="F126" s="28"/>
+      <c r="L126" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M126" s="31" t="s">
+        <v>414</v>
       </c>
       <c r="N126" s="5">
         <v>0</v>
       </c>
-      <c r="R126" s="33" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="127" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R126" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="127" ht="20.1" customHeight="1" spans="3:18">
       <c r="C127" s="12">
         <v>20099011</v>
       </c>
-      <c r="E127" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="F127" s="32"/>
+      <c r="E127" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="F127" s="28"/>
       <c r="J127" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="L127" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="M127" s="27" t="s">
-        <v>487</v>
+        <v>417</v>
+      </c>
+      <c r="L127" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M127" s="31" t="s">
+        <v>408</v>
       </c>
       <c r="N127" s="5">
         <v>0</v>
@@ -6848,27 +6923,27 @@
       <c r="O127" s="5">
         <v>13</v>
       </c>
-      <c r="P127" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="R127" s="33"/>
-    </row>
-    <row r="128" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P127" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="R127" s="29"/>
+    </row>
+    <row r="128" ht="20.1" customHeight="1" spans="3:18">
       <c r="C128" s="12">
         <v>20099012</v>
       </c>
-      <c r="E128" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="F128" s="32"/>
+      <c r="E128" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="F128" s="28"/>
       <c r="J128" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="L128" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="M128" s="27" t="s">
-        <v>492</v>
+        <v>417</v>
+      </c>
+      <c r="L128" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M128" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="N128" s="5">
         <v>0</v>
@@ -6876,27 +6951,27 @@
       <c r="O128" s="5">
         <v>13</v>
       </c>
-      <c r="P128" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="R128" s="33"/>
-    </row>
-    <row r="129" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P128" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="R128" s="29"/>
+    </row>
+    <row r="129" ht="20.1" customHeight="1" spans="3:18">
       <c r="C129" s="12">
         <v>20099013</v>
       </c>
-      <c r="E129" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="F129" s="32"/>
+      <c r="E129" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="F129" s="28"/>
       <c r="J129" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="L129" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="M129" s="27" t="s">
-        <v>488</v>
+        <v>417</v>
+      </c>
+      <c r="L129" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M129" s="31" t="s">
+        <v>414</v>
       </c>
       <c r="N129" s="5">
         <v>0</v>
@@ -6904,22 +6979,22 @@
       <c r="O129" s="5">
         <v>13</v>
       </c>
-      <c r="P129" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="R129" s="33"/>
-    </row>
-    <row r="130" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P129" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="R129" s="29"/>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A130" s="3" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="13" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="26" t="s">
-        <v>403</v>
+      <c r="E130" s="30" t="s">
+        <v>423</v>
       </c>
       <c r="F130" s="5">
         <v>300001</v>
@@ -6935,33 +7010,33 @@
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="3"/>
-      <c r="L130" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="M130" s="30" t="s">
-        <v>405</v>
+      <c r="L130" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M130" s="34" t="s">
+        <v>424</v>
       </c>
       <c r="N130" s="5">
         <v>0</v>
       </c>
       <c r="O130" s="5"/>
-      <c r="P130" s="23"/>
-      <c r="R130" s="24"/>
+      <c r="P130" s="25"/>
+      <c r="R130" s="27"/>
       <c r="U130" s="5"/>
       <c r="V130" s="5"/>
       <c r="W130" s="5"/>
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
     </row>
-    <row r="131" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="13" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="D131" s="5"/>
-      <c r="E131" s="26" t="s">
-        <v>407</v>
+      <c r="E131" s="30" t="s">
+        <v>426</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4">
@@ -6975,33 +7050,33 @@
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="3"/>
-      <c r="L131" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="M131" s="30" t="s">
-        <v>409</v>
+      <c r="L131" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M131" s="34" t="s">
+        <v>427</v>
       </c>
       <c r="N131" s="5">
         <v>90</v>
       </c>
       <c r="O131" s="5"/>
-      <c r="P131" s="23"/>
-      <c r="R131" s="24"/>
+      <c r="P131" s="25"/>
+      <c r="R131" s="27"/>
       <c r="U131" s="5"/>
       <c r="V131" s="5"/>
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
     </row>
-    <row r="132" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="13" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="26" t="s">
-        <v>411</v>
+      <c r="E132" s="30" t="s">
+        <v>429</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="4">
@@ -7015,32 +7090,32 @@
       </c>
       <c r="J132" s="4"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="M132" s="30" t="s">
-        <v>413</v>
+      <c r="L132" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M132" s="34" t="s">
+        <v>430</v>
       </c>
       <c r="N132" s="5">
         <v>210</v>
       </c>
       <c r="O132" s="5"/>
-      <c r="R132" s="24"/>
+      <c r="R132" s="27"/>
       <c r="U132" s="5"/>
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="13" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="D133" s="5"/>
-      <c r="E133" s="26" t="s">
-        <v>415</v>
+      <c r="E133" s="30" t="s">
+        <v>432</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="4">
@@ -7054,29 +7129,29 @@
       </c>
       <c r="J133" s="4"/>
       <c r="K133" s="3"/>
-      <c r="L133" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="M133" s="23" t="s">
-        <v>457</v>
+      <c r="L133" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M133" s="25" t="s">
+        <v>433</v>
       </c>
       <c r="N133" s="5">
         <v>0</v>
       </c>
       <c r="O133" s="5"/>
-      <c r="R133" s="24"/>
+      <c r="R133" s="27"/>
       <c r="U133" s="5"/>
       <c r="V133" s="5"/>
       <c r="W133" s="5"/>
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
     </row>
-    <row r="134" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" ht="20.1" customHeight="1" spans="3:14">
       <c r="C134" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>418</v>
+        <v>434</v>
+      </c>
+      <c r="E134" s="30" t="s">
+        <v>435</v>
       </c>
       <c r="G134" s="4">
         <v>1036</v>
@@ -7088,22 +7163,22 @@
         <v>0</v>
       </c>
       <c r="J134" s="4"/>
-      <c r="L134" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M134" s="23" t="s">
-        <v>419</v>
+      <c r="L134" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M134" s="25" t="s">
+        <v>436</v>
       </c>
       <c r="N134" s="5">
         <v>-100</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" ht="20.1" customHeight="1" spans="3:14">
       <c r="C135" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>421</v>
+        <v>437</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>438</v>
       </c>
       <c r="G135" s="4">
         <v>1032</v>
@@ -7115,22 +7190,22 @@
         <v>0</v>
       </c>
       <c r="J135" s="4"/>
-      <c r="L135" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="M135" s="30" t="s">
-        <v>423</v>
+      <c r="L135" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M135" s="34" t="s">
+        <v>439</v>
       </c>
       <c r="N135" s="5">
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" ht="20.1" customHeight="1" spans="3:14">
       <c r="C136" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>425</v>
+        <v>440</v>
+      </c>
+      <c r="E136" s="30" t="s">
+        <v>441</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7142,22 +7217,22 @@
         <v>0</v>
       </c>
       <c r="J136" s="4"/>
-      <c r="L136" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="M136" s="23" t="s">
-        <v>427</v>
+      <c r="L136" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M136" s="25" t="s">
+        <v>442</v>
       </c>
       <c r="N136" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" ht="20.1" customHeight="1" spans="3:14">
       <c r="C137" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>425</v>
+        <v>443</v>
+      </c>
+      <c r="E137" s="30" t="s">
+        <v>441</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7169,22 +7244,22 @@
         <v>0</v>
       </c>
       <c r="J137" s="4"/>
-      <c r="L137" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="M137" s="23" t="s">
-        <v>429</v>
+      <c r="L137" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M137" s="25" t="s">
+        <v>444</v>
       </c>
       <c r="N137" s="5">
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" ht="20.1" customHeight="1" spans="3:14">
       <c r="C138" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>431</v>
+        <v>445</v>
+      </c>
+      <c r="E138" s="30" t="s">
+        <v>446</v>
       </c>
       <c r="G138" s="4">
         <v>1037</v>
@@ -7196,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="J138" s="4"/>
-      <c r="L138" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="M138" s="23" t="s">
-        <v>433</v>
+      <c r="L138" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M138" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="N138" s="5">
         <v>-90</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" ht="20.1" customHeight="1" spans="3:14">
       <c r="C139" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>435</v>
+        <v>448</v>
+      </c>
+      <c r="E139" s="30" t="s">
+        <v>449</v>
       </c>
       <c r="G139" s="4">
         <v>1038</v>
@@ -7223,22 +7298,22 @@
         <v>0</v>
       </c>
       <c r="J139" s="4"/>
-      <c r="L139" s="26" t="s">
+      <c r="L139" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M139" s="25" t="s">
         <v>450</v>
-      </c>
-      <c r="M139" s="23" t="s">
-        <v>436</v>
       </c>
       <c r="N139" s="5">
         <v>-150</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" ht="20.1" customHeight="1" spans="3:15">
       <c r="C140" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>438</v>
+        <v>451</v>
+      </c>
+      <c r="E140" s="30" t="s">
+        <v>452</v>
       </c>
       <c r="G140" s="4">
         <v>1047</v>
@@ -7250,26 +7325,26 @@
         <v>0</v>
       </c>
       <c r="J140" s="4"/>
-      <c r="L140" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M140" s="29" t="s">
-        <v>439</v>
+      <c r="L140" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M140" s="33" t="s">
+        <v>453</v>
       </c>
       <c r="N140" s="4">
         <v>90</v>
       </c>
       <c r="O140" s="4"/>
     </row>
-    <row r="141" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="D141" s="5"/>
-      <c r="E141" s="26" t="s">
-        <v>441</v>
+      <c r="E141" s="30" t="s">
+        <v>455</v>
       </c>
       <c r="F141" s="5">
         <v>400001</v>
@@ -7285,11 +7360,11 @@
       </c>
       <c r="J141" s="4"/>
       <c r="K141" s="3"/>
-      <c r="L141" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M141" s="30" t="s">
-        <v>442</v>
+      <c r="L141" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M141" s="34" t="s">
+        <v>456</v>
       </c>
       <c r="N141" s="5">
         <v>110</v>
@@ -7301,12 +7376,12 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
     </row>
-    <row r="142" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" ht="20.1" customHeight="1" spans="3:14">
       <c r="C142" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="E142" s="26" t="s">
-        <v>448</v>
+        <v>457</v>
+      </c>
+      <c r="E142" s="30" t="s">
+        <v>458</v>
       </c>
       <c r="G142" s="4">
         <v>1049</v>
@@ -7318,22 +7393,22 @@
         <v>0</v>
       </c>
       <c r="J142" s="4"/>
-      <c r="L142" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="M142" s="30" t="s">
-        <v>447</v>
+      <c r="L142" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M142" s="34" t="s">
+        <v>459</v>
       </c>
       <c r="N142" s="5">
         <v>173</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" ht="20.1" customHeight="1" spans="3:14">
       <c r="C143" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="E143" s="26" t="s">
-        <v>456</v>
+        <v>460</v>
+      </c>
+      <c r="E143" s="30" t="s">
+        <v>461</v>
       </c>
       <c r="G143" s="4">
         <v>1051</v>
@@ -7345,22 +7420,22 @@
         <v>0</v>
       </c>
       <c r="J143" s="4"/>
-      <c r="L143" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="M143" s="30" t="s">
-        <v>460</v>
+      <c r="L143" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M143" s="34" t="s">
+        <v>462</v>
       </c>
       <c r="N143" s="5">
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" ht="20.1" customHeight="1" spans="3:14">
       <c r="C144" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="E144" s="30" t="s">
+        <v>464</v>
       </c>
       <c r="G144" s="4">
         <v>1053</v>
@@ -7372,21 +7447,21 @@
         <v>0</v>
       </c>
       <c r="J144" s="4"/>
-      <c r="L144" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="M144" s="30" t="s">
-        <v>463</v>
+      <c r="L144" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M144" s="34" t="s">
+        <v>465</v>
       </c>
       <c r="N144" s="5">
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" ht="20.1" customHeight="1" spans="3:14">
       <c r="C145" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="E145" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="E145" s="30" t="s">
         <v>467</v>
       </c>
       <c r="G145" s="4">
@@ -7399,22 +7474,22 @@
         <v>0</v>
       </c>
       <c r="J145" s="4"/>
-      <c r="L145" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="M145" s="30" t="s">
-        <v>469</v>
+      <c r="L145" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M145" s="34" t="s">
+        <v>468</v>
       </c>
       <c r="N145" s="5">
         <v>175</v>
       </c>
     </row>
-    <row r="146" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" ht="20.1" customHeight="1" spans="3:14">
       <c r="C146" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
+      </c>
+      <c r="E146" s="30" t="s">
+        <v>470</v>
       </c>
       <c r="G146" s="4">
         <v>1054</v>
@@ -7426,22 +7501,22 @@
         <v>0</v>
       </c>
       <c r="J146" s="4"/>
-      <c r="L146" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="M146" s="30" t="s">
-        <v>470</v>
+      <c r="L146" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M146" s="34" t="s">
+        <v>471</v>
       </c>
       <c r="N146" s="5">
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" ht="20.1" customHeight="1" spans="3:14">
       <c r="C147" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="E147" s="26" t="s">
-        <v>496</v>
+        <v>472</v>
+      </c>
+      <c r="E147" s="30" t="s">
+        <v>473</v>
       </c>
       <c r="G147" s="4">
         <v>10</v>
@@ -7453,34 +7528,34 @@
         <v>0</v>
       </c>
       <c r="J147" s="4"/>
-      <c r="L147" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="M147" s="30" t="s">
-        <v>470</v>
+      <c r="L147" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M147" s="34" t="s">
+        <v>471</v>
       </c>
       <c r="N147" s="5">
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="20.1" customHeight="1"/>
+    <row r="149" ht="20.1" customHeight="1"/>
+    <row r="150" ht="20.1" customHeight="1"/>
+    <row r="151" ht="20.1" customHeight="1"/>
+    <row r="152" ht="20.1" customHeight="1"/>
+    <row r="153" ht="20.1" customHeight="1"/>
+    <row r="154" ht="20.1" customHeight="1"/>
+    <row r="155" ht="20.1" customHeight="1"/>
+    <row r="156" ht="20.1" customHeight="1"/>
+    <row r="157" ht="20.1" customHeight="1"/>
+    <row r="158" ht="20.1" customHeight="1"/>
+    <row r="159" ht="20.1" customHeight="1"/>
+    <row r="160" ht="20.1" customHeight="1"/>
+    <row r="161" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -702,7 +702,7 @@
     <t>杂货店老板</t>
   </si>
   <si>
-    <t>882,374,6308</t>
+    <t>882,374,3608</t>
   </si>
   <si>
     <t>20000002</t>
@@ -711,7 +711,7 @@
     <t>啄啄百货店</t>
   </si>
   <si>
-    <t>-5671,-96,2162</t>
+    <t>-2671,-96,2162</t>
   </si>
   <si>
     <t>20000003</t>
@@ -729,7 +729,7 @@
     <t>装备洗炼大师</t>
   </si>
   <si>
-    <t>-5663,-75,2965</t>
+    <t>-1663,-75,2965</t>
   </si>
   <si>
     <t>20000005</t>
@@ -804,7 +804,7 @@
     <t>幸运探宝</t>
   </si>
   <si>
-    <t>-5266,-250,-3636</t>
+    <t>-2666,-250,-3636</t>
   </si>
   <si>
     <t>20000012</t>
@@ -858,7 +858,7 @@
     <t>转职大师</t>
   </si>
   <si>
-    <t>-3095,-420,-5199</t>
+    <t>-3095,-420,-2099</t>
   </si>
   <si>
     <t>选择一个合适的职业尤为重要！</t>
@@ -930,7 +930,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>5015,-430,-2904</t>
+    <t>1915,-430,-2904</t>
   </si>
   <si>
     <t>20000023</t>
@@ -1041,7 +1041,7 @@
     <t>坐骑训练师</t>
   </si>
   <si>
-    <t>4817,378,3215</t>
+    <t>1717,378,3215</t>
   </si>
   <si>
     <t>20000033</t>
@@ -1062,7 +1062,7 @@
     <t>任务使者</t>
   </si>
   <si>
-    <t>5300,-404,-474</t>
+    <t>3300,-404,-474</t>
   </si>
   <si>
     <t>我这里有许许多多的奇怪任务哦!</t>
@@ -1077,7 +1077,7 @@
     <t>6000001</t>
   </si>
   <si>
-    <t>5500,-404,-574</t>
+    <t>550,-404,-574</t>
   </si>
   <si>
     <t>到底谁是最厉害的强者呢</t>
@@ -1155,7 +1155,7 @@
     <t>家族管理</t>
   </si>
   <si>
-    <t>-8304,5,203</t>
+    <t>-834,5,203</t>
   </si>
   <si>
     <t>20000102</t>
@@ -1185,7 +1185,7 @@
     <t>家族强化</t>
   </si>
   <si>
-    <t>-6660,5,2006</t>
+    <t>-2060,5,2006</t>
   </si>
   <si>
     <t>20000105</t>
@@ -1194,7 +1194,7 @@
     <t>家族商店</t>
   </si>
   <si>
-    <t>-8439,5,-1948</t>
+    <t>-839,5,-1948</t>
   </si>
   <si>
     <t>20000106</t>
@@ -1203,7 +1203,7 @@
     <t>家族科技</t>
   </si>
   <si>
-    <t>-7715,5,2106</t>
+    <t>-1915,5,2106</t>
   </si>
   <si>
     <t>20001001</t>
@@ -1305,7 +1305,7 @@
     <t>30010009</t>
   </si>
   <si>
-    <t>6831,-92,-4900</t>
+    <t>631,-92,-490</t>
   </si>
   <si>
     <t>我好不容易逃出了那个该死的矿洞,在里面我发现了一个很凶猛的怪兽,不过我还没来的急看清那怪兽的样子就已经被那巨大的爪子拍晕了.</t>
@@ -1317,7 +1317,7 @@
     <t>30010018,30010019,31001001</t>
   </si>
   <si>
-    <t>14275,2896,-1827</t>
+    <t>1275,2,-1827</t>
   </si>
   <si>
     <t>我多么希望赶紧离开这个阴森的地方,我好怕,谁来救救我啊</t>
@@ -1329,7 +1329,7 @@
     <t>30010011,30010012,30010013,30010014</t>
   </si>
   <si>
-    <t>14719,2893,-5084</t>
+    <t>1719,2,-5084</t>
   </si>
   <si>
     <t>该死的！刚才双眼一黑我就什么也不知道了！这个矿洞里究竟发生了什么！</t>
@@ -1341,7 +1341,7 @@
     <t>30010015,30010016,30010017</t>
   </si>
   <si>
-    <t>15756,2896,-7486</t>
+    <t>156,0,-7486</t>
   </si>
   <si>
     <t>我想我已经知道了事情的真相,这里已经非常危险了！</t>
@@ -1353,7 +1353,7 @@
     <t>30010021,30010022,30010026</t>
   </si>
   <si>
-    <t>20083,2903,-3521</t>
+    <t>2083,1,-3521</t>
   </si>
   <si>
     <t>希望这次旅行可以平安的到达目的地.</t>
@@ -1371,7 +1371,7 @@
     <t>30010023,30010024,30010025,31001002</t>
   </si>
   <si>
-    <t>14313,2905,-6593</t>
+    <t>560,2905,-653</t>
   </si>
   <si>
     <t>森林中有一个大型的怪兽,没事还是去别的地方转转吧,这里太危险.</t>
@@ -1389,7 +1389,7 @@
     <t>30010027,30010028,30010029,30010030,30010031,31001003,31001004</t>
   </si>
   <si>
-    <t>14705,2904,-3602</t>
+    <t>145,1,-3602</t>
   </si>
   <si>
     <t>这个古墓已经很久没人来过了.</t>
@@ -1404,7 +1404,7 @@
     <t>石墓二层守陵人</t>
   </si>
   <si>
-    <t>15180,2904,-4445</t>
+    <t>180,2,-400</t>
   </si>
   <si>
     <t>地下洞穴守洞人</t>
@@ -1413,7 +1413,7 @@
     <t>30010032,30010033,30010034,30010035,30010036,30010037,30010038,30010039,30010040,30010041,30010042,30010043,31001005,31001006,31001007</t>
   </si>
   <si>
-    <t>17004,2893,-6304</t>
+    <t>174,1,-63</t>
   </si>
   <si>
     <t>没想到竟然有人发现了这里的秘密！</t>
@@ -1422,19 +1422,19 @@
     <t>仓库管理员</t>
   </si>
   <si>
-    <t>118400,-500,16600</t>
+    <t>110,1,166</t>
   </si>
   <si>
     <t>20002001</t>
   </si>
   <si>
-    <t>14222,2896,-4417</t>
+    <t>1422,1,-447</t>
   </si>
   <si>
     <t>20002002</t>
   </si>
   <si>
-    <t>15449,2888,-5419</t>
+    <t>1549,1,-541</t>
   </si>
   <si>
     <t>20002003</t>
@@ -1446,7 +1446,7 @@
     <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124,50000002,41001001,41001002,41001003,41001101,41001102,41001103</t>
   </si>
   <si>
-    <t>14962,2890,-4838</t>
+    <t>1462,1,-483</t>
   </si>
   <si>
     <t>20002004</t>
@@ -1458,7 +1458,7 @@
     <t>30020107,30020108,30020109,30020110</t>
   </si>
   <si>
-    <t>15373,2893,-9020</t>
+    <t>1373,1,-902</t>
   </si>
   <si>
     <t>20002005</t>
@@ -1470,7 +1470,7 @@
     <t>30020111,30020112,30020113,30020114,30020115,30020116,30020117,</t>
   </si>
   <si>
-    <t>15689,2889,-6938</t>
+    <t>1589,1,-693</t>
   </si>
   <si>
     <t>20002006</t>
@@ -1482,7 +1482,7 @@
     <t>30020118,30020119,30020120,30020121,30020122,30020123,30020124,</t>
   </si>
   <si>
-    <t>14414,2801,-6748</t>
+    <t>1414,1,-674</t>
   </si>
   <si>
     <t>20002007</t>
@@ -1494,19 +1494,19 @@
     <t>20002009</t>
   </si>
   <si>
-    <t>12961,2896,-7298</t>
+    <t>1261,1,-729</t>
   </si>
   <si>
     <t>20003001</t>
   </si>
   <si>
-    <t>14671,2902,-3600</t>
+    <t>1471,1,-360</t>
   </si>
   <si>
     <t>20003002</t>
   </si>
   <si>
-    <t>14664,2897,-4950</t>
+    <t>1464,1,-495</t>
   </si>
   <si>
     <t>20003003</t>
@@ -1518,7 +1518,7 @@
     <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038,41002001,41002002,41002003,41002101,41002102,41002103,41003001,41003002,41003003,41003101,41003102,41003103</t>
   </si>
   <si>
-    <t>14635,2897,-4301</t>
+    <t>1635,1,-430</t>
   </si>
   <si>
     <t>20003004</t>
@@ -1530,7 +1530,7 @@
     <t>30030009,30030010,30030011,30030012,30030013,30030014</t>
   </si>
   <si>
-    <t>14589,2905,-5444</t>
+    <t>1459,1,-544</t>
   </si>
   <si>
     <t>20003005</t>
@@ -1542,13 +1542,13 @@
     <t>30030023,30030024,30030025,30030026,30030027,30030028,30030029</t>
   </si>
   <si>
-    <t>13792,2904,-7159</t>
+    <t>1372,1,-715</t>
   </si>
   <si>
     <t>20003006</t>
   </si>
   <si>
-    <t>15088,3459,-7501</t>
+    <t>1588,1,-750</t>
   </si>
   <si>
     <t>20003007</t>
@@ -1566,7 +1566,7 @@
     <t>30030030,30030031,30030032,30030033,30030034</t>
   </si>
   <si>
-    <t>15088,3459,-7500</t>
+    <t>18,1,-7500</t>
   </si>
   <si>
     <t>20003010</t>
@@ -1578,19 +1578,19 @@
     <t>30030015,30030016,30030017,30030018,30030019,30030020,30030021,30030022</t>
   </si>
   <si>
-    <t>14291,2901,-3398</t>
+    <t>191,1,-339</t>
   </si>
   <si>
     <t>20004001</t>
   </si>
   <si>
-    <t>17987,2913,-5746</t>
+    <t>1787,1,-574</t>
   </si>
   <si>
     <t>20004002</t>
   </si>
   <si>
-    <t>19623,2904,-5818</t>
+    <t>1623,1,-581</t>
   </si>
   <si>
     <t>20004003</t>
@@ -1602,7 +1602,7 @@
     <t>30040001,30040002,30040003,30040004,30040005,30040006,30040007,30040008,30040009,30040022,30040023,30040029,30040030,30040031,30040032,30040033</t>
   </si>
   <si>
-    <t>18788,2904,-5706</t>
+    <t>1878,1,-570</t>
   </si>
   <si>
     <t>20004005</t>
@@ -1614,7 +1614,7 @@
     <t>30040010,30040011,30040012,30040013,30040014,30040015,30040016</t>
   </si>
   <si>
-    <t>17060,2902,-7683</t>
+    <t>170,1,-768</t>
   </si>
   <si>
     <t>20004006</t>
@@ -1626,7 +1626,7 @@
     <t>30040017,30040018,30040019,30040020,30040021</t>
   </si>
   <si>
-    <t>25878,2895,-6669</t>
+    <t>278,1,-666</t>
   </si>
   <si>
     <t>20004007</t>
@@ -1644,7 +1644,7 @@
     <t>30040024,30040025,30040026,30040027</t>
   </si>
   <si>
-    <t>14323,2904,-2681</t>
+    <t>143,2,-2681</t>
   </si>
   <si>
     <t>20004010</t>
@@ -1656,21 +1656,18 @@
     <t>30040028</t>
   </si>
   <si>
-    <t>23872,2904,-11240</t>
+    <t>232,2,-10</t>
   </si>
   <si>
     <t>20005001</t>
   </si>
   <si>
-    <t>-442,2888,-1611</t>
+    <t>912,0,-1707</t>
   </si>
   <si>
     <t>20005002</t>
   </si>
   <si>
-    <t>912,2888,-1707</t>
-  </si>
-  <si>
     <t>20005003</t>
   </si>
   <si>
@@ -1680,7 +1677,7 @@
     <t>30050001,30050002,30050003,30050004,30050005,30050006,30050007,30050008,41004001,41004002,41004003,41004101,41004102,41004103,30050023</t>
   </si>
   <si>
-    <t>228,2941,-620</t>
+    <t>228,0,-620</t>
   </si>
   <si>
     <t>20005004</t>
@@ -1692,7 +1689,7 @@
     <t>30050009,30050010,30050011,30050012,30050013,30050014</t>
   </si>
   <si>
-    <t>14606,2880,-6651</t>
+    <t>1406,0,-6651</t>
   </si>
   <si>
     <t>20005005</t>
@@ -1710,7 +1707,7 @@
     <t>30050015,30050016,30050017,30050018,30050019,30050020,30050021,30050022</t>
   </si>
   <si>
-    <t>14149,2801,-6951</t>
+    <t>1149,0,-6951</t>
   </si>
   <si>
     <t>20005007</t>
@@ -1941,7 +1938,7 @@
     <t>战场招募·猎魔</t>
   </si>
   <si>
-    <t>-7655,0,-1313</t>
+    <t>-755,0,-1313</t>
   </si>
   <si>
     <t>40000002</t>
@@ -1950,13 +1947,16 @@
     <t>战场招募·曙光</t>
   </si>
   <si>
-    <t>9256,0,-1330</t>
+    <t>926,0,-1330</t>
   </si>
   <si>
     <t>40000003</t>
   </si>
   <si>
     <t>神秘之门</t>
+  </si>
+  <si>
+    <t>56,0,-1330</t>
   </si>
 </sst>
 </file>
@@ -2170,18 +2170,18 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3159,8 +3159,8 @@
   <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M70" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6484,7 +6484,7 @@
         <v>49</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N110" s="5">
         <v>-44</v>
@@ -6493,23 +6493,23 @@
     </row>
     <row r="111" ht="20.1" customHeight="1" spans="3:18">
       <c r="C111" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>379</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M111" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L111" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="N111" s="5">
         <v>180</v>
@@ -6520,23 +6520,23 @@
     </row>
     <row r="112" ht="20.1" customHeight="1" spans="3:18">
       <c r="C112" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="E112" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="F112" s="12"/>
       <c r="H112" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M112" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L112" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="N112" s="5">
         <v>92</v>
@@ -6547,10 +6547,10 @@
     </row>
     <row r="113" ht="20.1" customHeight="1" spans="3:18">
       <c r="C113" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E113" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>387</v>
       </c>
       <c r="F113" s="12"/>
       <c r="H113" s="6" t="s">
@@ -6574,23 +6574,23 @@
     </row>
     <row r="114" ht="20.1" customHeight="1" spans="3:18">
       <c r="C114" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="E114" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="F114" s="12"/>
       <c r="H114" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M114" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L114" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="N114" s="5">
         <v>145</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="115" ht="20.1" customHeight="1" spans="3:18">
       <c r="C115" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>235</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="116" ht="20.1" customHeight="1" spans="3:18">
       <c r="C116" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>235</v>
@@ -6658,7 +6658,7 @@
         <v>20099001</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F117" s="12"/>
       <c r="H117" s="6" t="s">
@@ -6677,7 +6677,7 @@
         <v>180</v>
       </c>
       <c r="R117" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" ht="20.1" customHeight="1" spans="3:18">
@@ -6685,7 +6685,7 @@
         <v>20099002</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F118" s="12"/>
       <c r="H118" s="6" t="s">
@@ -6704,7 +6704,7 @@
         <v>180</v>
       </c>
       <c r="R118" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" ht="20.1" customHeight="1" spans="3:18">
@@ -6712,7 +6712,7 @@
         <v>20099003</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F119" s="12"/>
       <c r="H119" s="6" t="s">
@@ -6731,7 +6731,7 @@
         <v>180</v>
       </c>
       <c r="R119" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" ht="20.1" customHeight="1" spans="3:18">
@@ -6739,7 +6739,7 @@
         <v>20099004</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F120" s="12"/>
       <c r="H120" s="6" t="s">
@@ -6758,7 +6758,7 @@
         <v>180</v>
       </c>
       <c r="R120" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" ht="20.1" customHeight="1" spans="3:18">
@@ -6766,7 +6766,7 @@
         <v>20099005</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F121" s="12"/>
       <c r="H121" s="6" t="s">
@@ -6785,7 +6785,7 @@
         <v>180</v>
       </c>
       <c r="R121" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" ht="20.1" customHeight="1" spans="3:18">
@@ -6812,7 +6812,7 @@
         <v>180</v>
       </c>
       <c r="R122" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" ht="20.1" customHeight="1" spans="3:18">
@@ -6820,7 +6820,7 @@
         <v>20099007</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F123" s="28"/>
       <c r="G123" s="4">
@@ -6830,7 +6830,7 @@
         <v>49</v>
       </c>
       <c r="M123" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N123" s="5">
         <v>180</v>
@@ -6842,20 +6842,20 @@
         <v>20099008</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F124" s="28"/>
       <c r="L124" s="13" t="s">
         <v>49</v>
       </c>
       <c r="M124" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="N124" s="5">
+        <v>0</v>
+      </c>
+      <c r="R124" s="29" t="s">
         <v>408</v>
-      </c>
-      <c r="N124" s="5">
-        <v>0</v>
-      </c>
-      <c r="R124" s="29" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="125" ht="20.1" customHeight="1" spans="3:18">
@@ -6863,20 +6863,20 @@
         <v>20099009</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F125" s="28"/>
       <c r="L125" s="13" t="s">
         <v>49</v>
       </c>
       <c r="M125" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="N125" s="5">
+        <v>0</v>
+      </c>
+      <c r="R125" s="29" t="s">
         <v>411</v>
-      </c>
-      <c r="N125" s="5">
-        <v>0</v>
-      </c>
-      <c r="R125" s="29" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="126" ht="20.1" customHeight="1" spans="3:18">
@@ -6884,20 +6884,20 @@
         <v>20099010</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F126" s="28"/>
       <c r="L126" s="13" t="s">
         <v>49</v>
       </c>
       <c r="M126" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0</v>
+      </c>
+      <c r="R126" s="29" t="s">
         <v>414</v>
-      </c>
-      <c r="N126" s="5">
-        <v>0</v>
-      </c>
-      <c r="R126" s="29" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="127" ht="20.1" customHeight="1" spans="3:18">
@@ -6905,17 +6905,17 @@
         <v>20099011</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F127" s="28"/>
       <c r="J127" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L127" s="13" t="s">
         <v>49</v>
       </c>
       <c r="M127" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N127" s="5">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>13</v>
       </c>
       <c r="P127" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R127" s="29"/>
     </row>
@@ -6933,17 +6933,17 @@
         <v>20099012</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F128" s="28"/>
       <c r="J128" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L128" s="13" t="s">
         <v>49</v>
       </c>
       <c r="M128" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N128" s="5">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>13</v>
       </c>
       <c r="P128" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R128" s="29"/>
     </row>
@@ -6961,17 +6961,17 @@
         <v>20099013</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F129" s="28"/>
       <c r="J129" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L129" s="13" t="s">
         <v>49</v>
       </c>
       <c r="M129" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N129" s="5">
         <v>0</v>
@@ -6980,21 +6980,21 @@
         <v>13</v>
       </c>
       <c r="P129" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R129" s="29"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A130" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F130" s="5">
         <v>300001</v>
@@ -7014,7 +7014,7 @@
         <v>49</v>
       </c>
       <c r="M130" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N130" s="5">
         <v>0</v>
@@ -7032,11 +7032,11 @@
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4">
@@ -7054,7 +7054,7 @@
         <v>49</v>
       </c>
       <c r="M131" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N131" s="5">
         <v>90</v>
@@ -7072,11 +7072,11 @@
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="4">
@@ -7094,7 +7094,7 @@
         <v>49</v>
       </c>
       <c r="M132" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N132" s="5">
         <v>210</v>
@@ -7111,11 +7111,11 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="4">
@@ -7133,7 +7133,7 @@
         <v>49</v>
       </c>
       <c r="M133" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N133" s="5">
         <v>0</v>
@@ -7148,10 +7148,10 @@
     </row>
     <row r="134" ht="20.1" customHeight="1" spans="3:14">
       <c r="C134" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E134" s="30" t="s">
         <v>434</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>435</v>
       </c>
       <c r="G134" s="4">
         <v>1036</v>
@@ -7167,7 +7167,7 @@
         <v>49</v>
       </c>
       <c r="M134" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N134" s="5">
         <v>-100</v>
@@ -7175,10 +7175,10 @@
     </row>
     <row r="135" ht="20.1" customHeight="1" spans="3:14">
       <c r="C135" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E135" s="30" t="s">
         <v>437</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>438</v>
       </c>
       <c r="G135" s="4">
         <v>1032</v>
@@ -7194,7 +7194,7 @@
         <v>49</v>
       </c>
       <c r="M135" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N135" s="5">
         <v>123</v>
@@ -7202,10 +7202,10 @@
     </row>
     <row r="136" ht="20.1" customHeight="1" spans="3:14">
       <c r="C136" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E136" s="30" t="s">
         <v>440</v>
-      </c>
-      <c r="E136" s="30" t="s">
-        <v>441</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>49</v>
       </c>
       <c r="M136" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N136" s="5">
         <v>90</v>
@@ -7229,10 +7229,10 @@
     </row>
     <row r="137" ht="20.1" customHeight="1" spans="3:14">
       <c r="C137" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E137" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>49</v>
       </c>
       <c r="M137" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N137" s="5">
         <v>270</v>
@@ -7256,10 +7256,10 @@
     </row>
     <row r="138" ht="20.1" customHeight="1" spans="3:14">
       <c r="C138" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E138" s="30" t="s">
         <v>445</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>446</v>
       </c>
       <c r="G138" s="4">
         <v>1037</v>
@@ -7275,7 +7275,7 @@
         <v>49</v>
       </c>
       <c r="M138" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N138" s="5">
         <v>-90</v>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="139" ht="20.1" customHeight="1" spans="3:14">
       <c r="C139" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E139" s="30" t="s">
         <v>448</v>
-      </c>
-      <c r="E139" s="30" t="s">
-        <v>449</v>
       </c>
       <c r="G139" s="4">
         <v>1038</v>
@@ -7302,7 +7302,7 @@
         <v>49</v>
       </c>
       <c r="M139" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N139" s="5">
         <v>-150</v>
@@ -7310,10 +7310,10 @@
     </row>
     <row r="140" ht="20.1" customHeight="1" spans="3:15">
       <c r="C140" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E140" s="30" t="s">
         <v>451</v>
-      </c>
-      <c r="E140" s="30" t="s">
-        <v>452</v>
       </c>
       <c r="G140" s="4">
         <v>1047</v>
@@ -7329,7 +7329,7 @@
         <v>49</v>
       </c>
       <c r="M140" s="33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N140" s="4">
         <v>90</v>
@@ -7340,11 +7340,11 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F141" s="5">
         <v>400001</v>
@@ -7364,7 +7364,7 @@
         <v>49</v>
       </c>
       <c r="M141" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N141" s="5">
         <v>110</v>
@@ -7378,10 +7378,10 @@
     </row>
     <row r="142" ht="20.1" customHeight="1" spans="3:14">
       <c r="C142" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E142" s="30" t="s">
         <v>457</v>
-      </c>
-      <c r="E142" s="30" t="s">
-        <v>458</v>
       </c>
       <c r="G142" s="4">
         <v>1049</v>
@@ -7397,7 +7397,7 @@
         <v>49</v>
       </c>
       <c r="M142" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N142" s="5">
         <v>173</v>
@@ -7405,10 +7405,10 @@
     </row>
     <row r="143" ht="20.1" customHeight="1" spans="3:14">
       <c r="C143" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E143" s="30" t="s">
         <v>460</v>
-      </c>
-      <c r="E143" s="30" t="s">
-        <v>461</v>
       </c>
       <c r="G143" s="4">
         <v>1051</v>
@@ -7424,7 +7424,7 @@
         <v>49</v>
       </c>
       <c r="M143" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N143" s="5">
         <v>235</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="144" ht="20.1" customHeight="1" spans="3:14">
       <c r="C144" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E144" s="30" t="s">
         <v>463</v>
-      </c>
-      <c r="E144" s="30" t="s">
-        <v>464</v>
       </c>
       <c r="G144" s="4">
         <v>1053</v>
@@ -7451,7 +7451,7 @@
         <v>49</v>
       </c>
       <c r="M144" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N144" s="5">
         <v>175</v>
@@ -7459,10 +7459,10 @@
     </row>
     <row r="145" ht="20.1" customHeight="1" spans="3:14">
       <c r="C145" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E145" s="30" t="s">
         <v>466</v>
-      </c>
-      <c r="E145" s="30" t="s">
-        <v>467</v>
       </c>
       <c r="G145" s="4">
         <v>1054</v>
@@ -7478,7 +7478,7 @@
         <v>49</v>
       </c>
       <c r="M145" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N145" s="5">
         <v>175</v>
@@ -7486,10 +7486,10 @@
     </row>
     <row r="146" ht="20.1" customHeight="1" spans="3:14">
       <c r="C146" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E146" s="30" t="s">
         <v>469</v>
-      </c>
-      <c r="E146" s="30" t="s">
-        <v>470</v>
       </c>
       <c r="G146" s="4">
         <v>1054</v>
@@ -7505,7 +7505,7 @@
         <v>49</v>
       </c>
       <c r="M146" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N146" s="5">
         <v>175</v>
@@ -7513,10 +7513,10 @@
     </row>
     <row r="147" ht="20.1" customHeight="1" spans="3:14">
       <c r="C147" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="E147" s="30" t="s">
         <v>472</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>473</v>
       </c>
       <c r="G147" s="4">
         <v>10</v>
@@ -7532,7 +7532,7 @@
         <v>49</v>
       </c>
       <c r="M147" s="34" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N147" s="5">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="476">
   <si>
     <t>#</t>
   </si>
@@ -702,7 +702,7 @@
     <t>杂货店老板</t>
   </si>
   <si>
-    <t>882,374,3608</t>
+    <t>882,1,3608</t>
   </si>
   <si>
     <t>20000002</t>
@@ -711,7 +711,7 @@
     <t>啄啄百货店</t>
   </si>
   <si>
-    <t>-2671,-96,2162</t>
+    <t>-2671,1,2162</t>
   </si>
   <si>
     <t>20000003</t>
@@ -720,7 +720,7 @@
     <t>仓库储存箱</t>
   </si>
   <si>
-    <t>-1394,-29,4347</t>
+    <t>-1394,1,4347</t>
   </si>
   <si>
     <t>20000004</t>
@@ -729,7 +729,7 @@
     <t>装备洗炼大师</t>
   </si>
   <si>
-    <t>-1663,-75,2965</t>
+    <t>-1663,1,2965</t>
   </si>
   <si>
     <t>20000005</t>
@@ -750,7 +750,7 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>1506,-31,3674</t>
+    <t>1506,1,3674</t>
   </si>
   <si>
     <t>快来看看有没有你的邮件</t>
@@ -780,7 +780,7 @@
     <t>排行榜</t>
   </si>
   <si>
-    <t>3849,-442,1527</t>
+    <t>3849,1,1527</t>
   </si>
   <si>
     <t>强者都在这里!</t>
@@ -792,7 +792,7 @@
     <t>宠物蛋培养</t>
   </si>
   <si>
-    <t>-5523,-247,-318</t>
+    <t>-5523,1,-318</t>
   </si>
   <si>
     <t>你怎么还没有宠物啊!</t>
@@ -804,7 +804,7 @@
     <t>幸运探宝</t>
   </si>
   <si>
-    <t>-2666,-250,-3636</t>
+    <t>-2666,1,-3636</t>
   </si>
   <si>
     <t>20000012</t>
@@ -816,7 +816,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>-1305,345,6417</t>
+    <t>-1305,1,2417</t>
   </si>
   <si>
     <t>我做的衣服很好看,想学习就要准备好金币噢</t>
@@ -831,7 +831,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>-4288,606,4787</t>
+    <t>-2088,1,4787</t>
   </si>
   <si>
     <t>我打造的武器是这里最出色的</t>
@@ -846,7 +846,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>4963,357,4965</t>
+    <t>463,1,1365</t>
   </si>
   <si>
     <t>药剂可以帮助你在逆境中战胜困难</t>
@@ -858,7 +858,7 @@
     <t>转职大师</t>
   </si>
   <si>
-    <t>-3095,-420,-2099</t>
+    <t>-3095,1,-2099</t>
   </si>
   <si>
     <t>选择一个合适的职业尤为重要！</t>
@@ -870,7 +870,7 @@
     <t>补偿大使</t>
   </si>
   <si>
-    <t>-1415,-404,-1472</t>
+    <t>-1415,1,-1472</t>
   </si>
   <si>
     <t>20000017</t>
@@ -879,7 +879,7 @@
     <t>拍卖行商人</t>
   </si>
   <si>
-    <t>4987,-428,1137</t>
+    <t>4987,1,1137</t>
   </si>
   <si>
     <t>在这可以购买你需要的商品！</t>
@@ -891,7 +891,7 @@
     <t>宝石制造商人</t>
   </si>
   <si>
-    <t>1853,-428,1348</t>
+    <t>1853,1,1348</t>
   </si>
   <si>
     <t>20000019</t>
@@ -900,7 +900,7 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
-    <t>1156,-428,607</t>
+    <t>1156,1,607</t>
   </si>
   <si>
     <t>20000020</t>
@@ -909,7 +909,7 @@
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
-    <t>1156,-428,357</t>
+    <t>1156,1,357</t>
   </si>
   <si>
     <t>20000021</t>
@@ -918,7 +918,7 @@
     <t>神兽:仙界魔龙</t>
   </si>
   <si>
-    <t>1156,-428,107</t>
+    <t>1156,1,107</t>
   </si>
   <si>
     <t>20000022</t>
@@ -930,7 +930,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>1915,-430,-2904</t>
+    <t>1915,1,-2904</t>
   </si>
   <si>
     <t>20000023</t>
@@ -939,7 +939,7 @@
     <t xml:space="preserve"> 神器商人</t>
   </si>
   <si>
-    <t>3816,-428,-3622</t>
+    <t>3816,1,-3622</t>
   </si>
   <si>
     <t>20000024</t>
@@ -951,7 +951,7 @@
     <t>50000101,50000102,50000103,50000104,50000105,50000201,50000202,50000203,50000301,50000302,50000303,60001001,50000003,30050024,30050025,30090001,30090002,30090003,30090004,30090005,30090006,30090007,30090008,30090009,30090010</t>
   </si>
   <si>
-    <t>-4658,-85,3444</t>
+    <t>-458,1,3444</t>
   </si>
   <si>
     <t>在我这里可以接取赏金任务,可以领取许许多多的金币奖励哦！</t>
@@ -963,7 +963,7 @@
     <t>收集珍宝</t>
   </si>
   <si>
-    <t>1747,-428,-3552</t>
+    <t>1747,1,-3552</t>
   </si>
   <si>
     <t>我这里有许许多多的商品但是限量噢!</t>
@@ -975,7 +975,7 @@
     <t>附魔大师</t>
   </si>
   <si>
-    <t>989,357,8471</t>
+    <t>989,1,8471</t>
   </si>
   <si>
     <t>附魔是一种神奇的能力,他能让你的装备更加闪耀</t>
@@ -987,7 +987,7 @@
     <t>宝藏之地</t>
   </si>
   <si>
-    <t>-2555,-58,2044</t>
+    <t>-2555,-1,2044</t>
   </si>
   <si>
     <t>我这里是个奇妙的地方,你有兴趣就进来看看吧，说不定会有意外收获哦。</t>
@@ -999,7 +999,7 @@
     <t>密境传送</t>
   </si>
   <si>
-    <t>-2507,-400,220</t>
+    <t>-2507,-1,220</t>
   </si>
   <si>
     <t>传说在密境中有一直守护在这里的巨兽,挑战并击败它可以获得丰厚的奖励</t>
@@ -1011,7 +1011,7 @@
     <t>挑战之地</t>
   </si>
   <si>
-    <t>-2920,-395,-2682</t>
+    <t>-2920,-1,-2682</t>
   </si>
   <si>
     <t>像试试自己差距嘛,那就来我这里吧。</t>
@@ -1023,7 +1023,7 @@
     <t>试炼之地</t>
   </si>
   <si>
-    <t>-1732,365,8252</t>
+    <t>-1732,1,8252</t>
   </si>
   <si>
     <t>20000031</t>
@@ -1032,7 +1032,7 @@
     <t>神秘人</t>
   </si>
   <si>
-    <t>3049,365,5136</t>
+    <t>3049,1,5136</t>
   </si>
   <si>
     <t>20000032</t>
@@ -1041,7 +1041,7 @@
     <t>坐骑训练师</t>
   </si>
   <si>
-    <t>1717,378,3215</t>
+    <t>1717,1,3215</t>
   </si>
   <si>
     <t>20000033</t>
@@ -1050,7 +1050,7 @@
     <t>节日使者</t>
   </si>
   <si>
-    <t>5195,-404,-97</t>
+    <t>5195,1,-97</t>
   </si>
   <si>
     <t>每到节日的时候,超过20级的玩家都可以来我这里领取奖励哦~</t>
@@ -1062,7 +1062,7 @@
     <t>任务使者</t>
   </si>
   <si>
-    <t>3300,-404,-474</t>
+    <t>3300,1,-474</t>
   </si>
   <si>
     <t>我这里有许许多多的奇怪任务哦!</t>
@@ -1077,7 +1077,7 @@
     <t>6000001</t>
   </si>
   <si>
-    <t>550,-404,-574</t>
+    <t>550,1,-574</t>
   </si>
   <si>
     <t>到底谁是最厉害的强者呢</t>
@@ -1089,7 +1089,7 @@
     <t>珍宝商人</t>
   </si>
   <si>
-    <t>-4107,615,6479</t>
+    <t>-4107,1,6479</t>
   </si>
   <si>
     <t>20000037</t>
@@ -1098,7 +1098,7 @@
     <t>经验老头</t>
   </si>
   <si>
-    <t>3090,-424,-1153</t>
+    <t>3090,1,-1153</t>
   </si>
   <si>
     <t>当你的等级达到上限时无法获得经验时,你可以用多余的30%经验来我这里换取一份不错的奖励哦!</t>
@@ -1110,7 +1110,7 @@
     <t>争霸赛规则</t>
   </si>
   <si>
-    <t>-7980,4,309</t>
+    <t>-780,4,309</t>
   </si>
   <si>
     <t>在占领区人数较多的一方家族可以获得最终胜利喔!</t>
@@ -1122,7 +1122,7 @@
     <t>传承商人</t>
   </si>
   <si>
-    <t>-1957,360,5418</t>
+    <t>-1957,1,5418</t>
   </si>
   <si>
     <t>20000040</t>
@@ -1131,7 +1131,7 @@
     <t>神兽碎片兑换</t>
   </si>
   <si>
-    <t>407,-770,-4911</t>
+    <t>407,1,-4911</t>
   </si>
   <si>
     <t>当你拥有全部神兽时,你可以用多余的神兽碎片来我这里换取璀璨传承哦。</t>
@@ -1143,7 +1143,7 @@
     <t>封印之塔</t>
   </si>
   <si>
-    <t>-2954,-403,-1198</t>
+    <t>-2954,1,-1198</t>
   </si>
   <si>
     <t>在我这里有100层,听说能闯到最后的都是勇士哦！</t>
@@ -1176,7 +1176,7 @@
     <t>家族捐献</t>
   </si>
   <si>
-    <t>-5882,5,76</t>
+    <t>-882,5,76</t>
   </si>
   <si>
     <t>20000104</t>
@@ -1371,7 +1371,7 @@
     <t>30010023,30010024,30010025,31001002</t>
   </si>
   <si>
-    <t>560,2905,-653</t>
+    <t>560,1,-653</t>
   </si>
   <si>
     <t>森林中有一个大型的怪兽,没事还是去别的地方转转吧,这里太危险.</t>
@@ -1752,13 +1752,13 @@
     <t>小龟赛跑大使</t>
   </si>
   <si>
-    <t>-844,-771,-4836</t>
+    <t>-844,1,-436</t>
   </si>
   <si>
     <t>小龟1号</t>
   </si>
   <si>
-    <t>-529,-765,-5248</t>
+    <t>-529,1,-548</t>
   </si>
   <si>
     <t>我年轻力胜,获胜最终胜利的一定是我！</t>
@@ -1767,7 +1767,7 @@
     <t>小龟2号</t>
   </si>
   <si>
-    <t>-205,-765,-5248</t>
+    <t>-205,1,-548</t>
   </si>
   <si>
     <t>我是来自沙漠的龟,这么热的天获胜最终胜利的一定是我！</t>
@@ -1776,7 +1776,7 @@
     <t>小龟3号</t>
   </si>
   <si>
-    <t>92,-765,-5248</t>
+    <t>92,1,-548</t>
   </si>
   <si>
     <t>我拥有丰富的赛龟经验,获胜最终胜利的一定是我！</t>
@@ -1794,9 +1794,15 @@
     <t>小龟二号选手</t>
   </si>
   <si>
+    <t>-529,1,-248</t>
+  </si>
+  <si>
     <t>小龟三号选手</t>
   </si>
   <si>
+    <t>92,-1,-5248</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1866,7 +1872,7 @@
     <t>30000008</t>
   </si>
   <si>
-    <t>1532,0,-4366</t>
+    <t>1532,0,-436</t>
   </si>
   <si>
     <t>30000009</t>
@@ -1893,7 +1899,7 @@
     <t>装备宠物加锁</t>
   </si>
   <si>
-    <t>906,-423,-1201</t>
+    <t>906,1,-1201</t>
   </si>
   <si>
     <t>30000013</t>
@@ -2170,18 +2176,18 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3159,8 +3165,8 @@
   <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M70" sqref="M$1:M$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6943,7 +6949,7 @@
         <v>49</v>
       </c>
       <c r="M128" s="31" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="N128" s="5">
         <v>0</v>
@@ -6961,7 +6967,7 @@
         <v>20099013</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F129" s="28"/>
       <c r="J129" s="6" t="s">
@@ -6971,7 +6977,7 @@
         <v>49</v>
       </c>
       <c r="M129" s="31" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="N129" s="5">
         <v>0</v>
@@ -6986,15 +6992,15 @@
     </row>
     <row r="130" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
       <c r="A130" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="30" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F130" s="5">
         <v>300001</v>
@@ -7014,7 +7020,7 @@
         <v>49</v>
       </c>
       <c r="M130" s="34" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N130" s="5">
         <v>0</v>
@@ -7032,11 +7038,11 @@
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="30" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4">
@@ -7054,7 +7060,7 @@
         <v>49</v>
       </c>
       <c r="M131" s="34" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N131" s="5">
         <v>90</v>
@@ -7072,11 +7078,11 @@
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="13" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="30" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="4">
@@ -7094,7 +7100,7 @@
         <v>49</v>
       </c>
       <c r="M132" s="34" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N132" s="5">
         <v>210</v>
@@ -7111,11 +7117,11 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="13" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="30" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="4">
@@ -7133,7 +7139,7 @@
         <v>49</v>
       </c>
       <c r="M133" s="25" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N133" s="5">
         <v>0</v>
@@ -7148,10 +7154,10 @@
     </row>
     <row r="134" ht="20.1" customHeight="1" spans="3:14">
       <c r="C134" s="13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E134" s="30" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G134" s="4">
         <v>1036</v>
@@ -7167,7 +7173,7 @@
         <v>49</v>
       </c>
       <c r="M134" s="25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N134" s="5">
         <v>-100</v>
@@ -7175,10 +7181,10 @@
     </row>
     <row r="135" ht="20.1" customHeight="1" spans="3:14">
       <c r="C135" s="13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E135" s="30" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G135" s="4">
         <v>1032</v>
@@ -7194,7 +7200,7 @@
         <v>49</v>
       </c>
       <c r="M135" s="34" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N135" s="5">
         <v>123</v>
@@ -7202,10 +7208,10 @@
     </row>
     <row r="136" ht="20.1" customHeight="1" spans="3:14">
       <c r="C136" s="13" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E136" s="30" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7221,7 +7227,7 @@
         <v>49</v>
       </c>
       <c r="M136" s="25" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N136" s="5">
         <v>90</v>
@@ -7229,10 +7235,10 @@
     </row>
     <row r="137" ht="20.1" customHeight="1" spans="3:14">
       <c r="C137" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E137" s="30" t="s">
         <v>442</v>
-      </c>
-      <c r="E137" s="30" t="s">
-        <v>440</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7248,7 +7254,7 @@
         <v>49</v>
       </c>
       <c r="M137" s="25" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N137" s="5">
         <v>270</v>
@@ -7256,10 +7262,10 @@
     </row>
     <row r="138" ht="20.1" customHeight="1" spans="3:14">
       <c r="C138" s="13" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E138" s="30" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G138" s="4">
         <v>1037</v>
@@ -7275,7 +7281,7 @@
         <v>49</v>
       </c>
       <c r="M138" s="25" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N138" s="5">
         <v>-90</v>
@@ -7283,10 +7289,10 @@
     </row>
     <row r="139" ht="20.1" customHeight="1" spans="3:14">
       <c r="C139" s="13" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E139" s="30" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G139" s="4">
         <v>1038</v>
@@ -7302,7 +7308,7 @@
         <v>49</v>
       </c>
       <c r="M139" s="25" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N139" s="5">
         <v>-150</v>
@@ -7310,10 +7316,10 @@
     </row>
     <row r="140" ht="20.1" customHeight="1" spans="3:15">
       <c r="C140" s="13" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E140" s="30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G140" s="4">
         <v>1047</v>
@@ -7329,7 +7335,7 @@
         <v>49</v>
       </c>
       <c r="M140" s="33" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N140" s="4">
         <v>90</v>
@@ -7340,11 +7346,11 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="30" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F141" s="5">
         <v>400001</v>
@@ -7364,7 +7370,7 @@
         <v>49</v>
       </c>
       <c r="M141" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N141" s="5">
         <v>110</v>
@@ -7378,10 +7384,10 @@
     </row>
     <row r="142" ht="20.1" customHeight="1" spans="3:14">
       <c r="C142" s="13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E142" s="30" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G142" s="4">
         <v>1049</v>
@@ -7397,7 +7403,7 @@
         <v>49</v>
       </c>
       <c r="M142" s="34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N142" s="5">
         <v>173</v>
@@ -7405,10 +7411,10 @@
     </row>
     <row r="143" ht="20.1" customHeight="1" spans="3:14">
       <c r="C143" s="13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E143" s="30" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G143" s="4">
         <v>1051</v>
@@ -7424,7 +7430,7 @@
         <v>49</v>
       </c>
       <c r="M143" s="34" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N143" s="5">
         <v>235</v>
@@ -7432,10 +7438,10 @@
     </row>
     <row r="144" ht="20.1" customHeight="1" spans="3:14">
       <c r="C144" s="13" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E144" s="30" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G144" s="4">
         <v>1053</v>
@@ -7451,7 +7457,7 @@
         <v>49</v>
       </c>
       <c r="M144" s="34" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N144" s="5">
         <v>175</v>
@@ -7459,10 +7465,10 @@
     </row>
     <row r="145" ht="20.1" customHeight="1" spans="3:14">
       <c r="C145" s="13" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E145" s="30" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G145" s="4">
         <v>1054</v>
@@ -7478,7 +7484,7 @@
         <v>49</v>
       </c>
       <c r="M145" s="34" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N145" s="5">
         <v>175</v>
@@ -7486,10 +7492,10 @@
     </row>
     <row r="146" ht="20.1" customHeight="1" spans="3:14">
       <c r="C146" s="13" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E146" s="30" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G146" s="4">
         <v>1054</v>
@@ -7505,7 +7511,7 @@
         <v>49</v>
       </c>
       <c r="M146" s="34" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N146" s="5">
         <v>175</v>
@@ -7513,10 +7519,10 @@
     </row>
     <row r="147" ht="20.1" customHeight="1" spans="3:14">
       <c r="C147" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G147" s="4">
         <v>10</v>
@@ -7532,7 +7538,7 @@
         <v>49</v>
       </c>
       <c r="M147" s="34" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N147" s="5">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1944,7 +1944,7 @@
     <t>战场招募·猎魔</t>
   </si>
   <si>
-    <t>-755,0,-1313</t>
+    <t>1449,0,-1560</t>
   </si>
   <si>
     <t>40000002</t>
@@ -1953,7 +1953,7 @@
     <t>战场招募·曙光</t>
   </si>
   <si>
-    <t>926,0,-1330</t>
+    <t>2111,0,-937</t>
   </si>
   <si>
     <t>40000003</t>
@@ -3165,8 +3165,8 @@
   <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1812,7 +1812,7 @@
     <t>农场管理员</t>
   </si>
   <si>
-    <t>-468,0,-2912</t>
+    <t>1046,0,-1876</t>
   </si>
   <si>
     <t>30000002</t>
@@ -1821,7 +1821,7 @@
     <t>牧场管理员</t>
   </si>
   <si>
-    <t>-1090,0,-1494</t>
+    <t>1140,0,-1802</t>
   </si>
   <si>
     <t>30000003</t>
@@ -1830,7 +1830,7 @@
     <t>家园管家</t>
   </si>
   <si>
-    <t>3061,0,1224</t>
+    <t>1234,0,-1782</t>
   </si>
   <si>
     <t>30000004</t>
@@ -1839,7 +1839,7 @@
     <t>家园公告牌</t>
   </si>
   <si>
-    <t>1450,0,-3250</t>
+    <t>1334,0,-1782</t>
   </si>
   <si>
     <t>30000005</t>
@@ -1848,7 +1848,7 @@
     <t>采购管理员</t>
   </si>
   <si>
-    <t>2963,0,-3074</t>
+    <t>1434,0,-1782</t>
   </si>
   <si>
     <t>30000006</t>
@@ -1857,7 +1857,7 @@
     <t>家园存放员</t>
   </si>
   <si>
-    <t>-1293,0,1892</t>
+    <t>1534,0,-1782</t>
   </si>
   <si>
     <t>30000007</t>
@@ -1866,13 +1866,13 @@
     <t>家园士兵</t>
   </si>
   <si>
-    <t>949,0,-4357</t>
+    <t>1634,0,-1782</t>
   </si>
   <si>
     <t>30000008</t>
   </si>
   <si>
-    <t>1532,0,-436</t>
+    <t>1734,0,-1782</t>
   </si>
   <si>
     <t>30000009</t>
@@ -1881,7 +1881,7 @@
     <t>美味大师</t>
   </si>
   <si>
-    <t>2845,0,-2586</t>
+    <t>1784,0,-1782</t>
   </si>
   <si>
     <t>30000010</t>
@@ -1890,7 +1890,7 @@
     <t>家园宠物管理员</t>
   </si>
   <si>
-    <t>941,0,1588</t>
+    <t>1834,0,-1782</t>
   </si>
   <si>
     <t>30000011</t>
@@ -1899,7 +1899,7 @@
     <t>装备宠物加锁</t>
   </si>
   <si>
-    <t>906,1,-1201</t>
+    <t>1900,0,-1782</t>
   </si>
   <si>
     <t>30000013</t>
@@ -1908,7 +1908,7 @@
     <t>家园商人</t>
   </si>
   <si>
-    <t>-1556,0,1277</t>
+    <t>1950,0,-1782</t>
   </si>
   <si>
     <t>30000014</t>
@@ -1917,7 +1917,7 @@
     <t>藏宝图生活技能仓库</t>
   </si>
   <si>
-    <t>2350,0,1620</t>
+    <t>2000,0,-1782</t>
   </si>
   <si>
     <t>30000015</t>
@@ -1926,7 +1926,7 @@
     <t>装备增幅</t>
   </si>
   <si>
-    <t>3439,0,804</t>
+    <t>2150,0,-1782</t>
   </si>
   <si>
     <t>30000016</t>
@@ -1935,7 +1935,7 @@
     <t>家园觉醒大师</t>
   </si>
   <si>
-    <t>14,0,2133</t>
+    <t>2559,0,-707</t>
   </si>
   <si>
     <t>40000001</t>
@@ -2174,12 +2174,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3165,8 +3165,8 @@
   <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="M144" sqref="M144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7138,7 +7138,7 @@
       <c r="L133" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M133" s="25" t="s">
+      <c r="M133" s="34" t="s">
         <v>434</v>
       </c>
       <c r="N133" s="5">
@@ -7172,7 +7172,7 @@
       <c r="L134" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M134" s="25" t="s">
+      <c r="M134" s="34" t="s">
         <v>437</v>
       </c>
       <c r="N134" s="5">
@@ -7226,7 +7226,7 @@
       <c r="L136" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M136" s="25" t="s">
+      <c r="M136" s="34" t="s">
         <v>443</v>
       </c>
       <c r="N136" s="5">
@@ -7253,7 +7253,7 @@
       <c r="L137" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M137" s="25" t="s">
+      <c r="M137" s="34" t="s">
         <v>445</v>
       </c>
       <c r="N137" s="5">
@@ -7280,7 +7280,7 @@
       <c r="L138" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M138" s="25" t="s">
+      <c r="M138" s="34" t="s">
         <v>448</v>
       </c>
       <c r="N138" s="5">
@@ -7307,7 +7307,7 @@
       <c r="L139" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M139" s="25" t="s">
+      <c r="M139" s="34" t="s">
         <v>451</v>
       </c>
       <c r="N139" s="5">
@@ -7334,7 +7334,7 @@
       <c r="L140" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M140" s="33" t="s">
+      <c r="M140" s="34" t="s">
         <v>454</v>
       </c>
       <c r="N140" s="4">

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="470">
   <si>
     <t>#</t>
   </si>
@@ -1155,7 +1155,7 @@
     <t>家族管理</t>
   </si>
   <si>
-    <t>-834,5,203</t>
+    <t>1234,0,-1782</t>
   </si>
   <si>
     <t>20000102</t>
@@ -1164,7 +1164,7 @@
     <t>家族任务</t>
   </si>
   <si>
-    <t>-4274,5,2498</t>
+    <t>1334,0,-1782</t>
   </si>
   <si>
     <t>我这里的家族试炼任务每完成20、40、60、80、100环都会获得一份特殊奖励哦!</t>
@@ -1176,7 +1176,7 @@
     <t>家族捐献</t>
   </si>
   <si>
-    <t>-882,5,76</t>
+    <t>1434,0,-1782</t>
   </si>
   <si>
     <t>20000104</t>
@@ -1185,7 +1185,7 @@
     <t>家族强化</t>
   </si>
   <si>
-    <t>-2060,5,2006</t>
+    <t>1534,0,-1782</t>
   </si>
   <si>
     <t>20000105</t>
@@ -1194,7 +1194,7 @@
     <t>家族商店</t>
   </si>
   <si>
-    <t>-839,5,-1948</t>
+    <t>1634,0,-1782</t>
   </si>
   <si>
     <t>20000106</t>
@@ -1203,7 +1203,7 @@
     <t>家族科技</t>
   </si>
   <si>
-    <t>-1915,5,2106</t>
+    <t>1734,0,-1782</t>
   </si>
   <si>
     <t>20001001</t>
@@ -1830,49 +1830,31 @@
     <t>家园管家</t>
   </si>
   <si>
-    <t>1234,0,-1782</t>
-  </si>
-  <si>
     <t>30000004</t>
   </si>
   <si>
     <t>家园公告牌</t>
   </si>
   <si>
-    <t>1334,0,-1782</t>
-  </si>
-  <si>
     <t>30000005</t>
   </si>
   <si>
     <t>采购管理员</t>
   </si>
   <si>
-    <t>1434,0,-1782</t>
-  </si>
-  <si>
     <t>30000006</t>
   </si>
   <si>
     <t>家园存放员</t>
   </si>
   <si>
-    <t>1534,0,-1782</t>
-  </si>
-  <si>
     <t>30000007</t>
   </si>
   <si>
     <t>家园士兵</t>
   </si>
   <si>
-    <t>1634,0,-1782</t>
-  </si>
-  <si>
     <t>30000008</t>
-  </si>
-  <si>
-    <t>1734,0,-1782</t>
   </si>
   <si>
     <t>30000009</t>
@@ -2174,12 +2156,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3165,8 +3147,8 @@
   <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="M144" sqref="M144"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4788,7 +4770,7 @@
       <c r="L51" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M51" s="31" t="s">
+      <c r="M51" s="34" t="s">
         <v>206</v>
       </c>
       <c r="N51" s="5">
@@ -4829,7 +4811,7 @@
       <c r="L52" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="31" t="s">
+      <c r="M52" s="34" t="s">
         <v>209</v>
       </c>
       <c r="N52" s="5">
@@ -4872,7 +4854,7 @@
       <c r="L53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M53" s="31" t="s">
+      <c r="M53" s="34" t="s">
         <v>213</v>
       </c>
       <c r="N53" s="5">
@@ -4913,7 +4895,7 @@
       <c r="L54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M54" s="31" t="s">
+      <c r="M54" s="34" t="s">
         <v>216</v>
       </c>
       <c r="N54" s="5">
@@ -4954,7 +4936,7 @@
       <c r="L55" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M55" s="31" t="s">
+      <c r="M55" s="34" t="s">
         <v>219</v>
       </c>
       <c r="N55" s="5">
@@ -4995,7 +4977,7 @@
       <c r="L56" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M56" s="31" t="s">
+      <c r="M56" s="34" t="s">
         <v>222</v>
       </c>
       <c r="N56" s="5">
@@ -7100,7 +7082,7 @@
         <v>49</v>
       </c>
       <c r="M132" s="34" t="s">
-        <v>431</v>
+        <v>206</v>
       </c>
       <c r="N132" s="5">
         <v>210</v>
@@ -7117,11 +7099,11 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="4">
@@ -7139,7 +7121,7 @@
         <v>49</v>
       </c>
       <c r="M133" s="34" t="s">
-        <v>434</v>
+        <v>209</v>
       </c>
       <c r="N133" s="5">
         <v>0</v>
@@ -7154,10 +7136,10 @@
     </row>
     <row r="134" ht="20.1" customHeight="1" spans="3:14">
       <c r="C134" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E134" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G134" s="4">
         <v>1036</v>
@@ -7173,7 +7155,7 @@
         <v>49</v>
       </c>
       <c r="M134" s="34" t="s">
-        <v>437</v>
+        <v>213</v>
       </c>
       <c r="N134" s="5">
         <v>-100</v>
@@ -7181,10 +7163,10 @@
     </row>
     <row r="135" ht="20.1" customHeight="1" spans="3:14">
       <c r="C135" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E135" s="30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G135" s="4">
         <v>1032</v>
@@ -7200,7 +7182,7 @@
         <v>49</v>
       </c>
       <c r="M135" s="34" t="s">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="N135" s="5">
         <v>123</v>
@@ -7208,10 +7190,10 @@
     </row>
     <row r="136" ht="20.1" customHeight="1" spans="3:14">
       <c r="C136" s="13" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E136" s="30" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7227,7 +7209,7 @@
         <v>49</v>
       </c>
       <c r="M136" s="34" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="N136" s="5">
         <v>90</v>
@@ -7235,10 +7217,10 @@
     </row>
     <row r="137" ht="20.1" customHeight="1" spans="3:14">
       <c r="C137" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E137" s="30" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7254,7 +7236,7 @@
         <v>49</v>
       </c>
       <c r="M137" s="34" t="s">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="N137" s="5">
         <v>270</v>
@@ -7262,10 +7244,10 @@
     </row>
     <row r="138" ht="20.1" customHeight="1" spans="3:14">
       <c r="C138" s="13" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E138" s="30" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G138" s="4">
         <v>1037</v>
@@ -7281,7 +7263,7 @@
         <v>49</v>
       </c>
       <c r="M138" s="34" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N138" s="5">
         <v>-90</v>
@@ -7289,10 +7271,10 @@
     </row>
     <row r="139" ht="20.1" customHeight="1" spans="3:14">
       <c r="C139" s="13" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E139" s="30" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G139" s="4">
         <v>1038</v>
@@ -7308,7 +7290,7 @@
         <v>49</v>
       </c>
       <c r="M139" s="34" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N139" s="5">
         <v>-150</v>
@@ -7316,10 +7298,10 @@
     </row>
     <row r="140" ht="20.1" customHeight="1" spans="3:15">
       <c r="C140" s="13" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E140" s="30" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G140" s="4">
         <v>1047</v>
@@ -7335,7 +7317,7 @@
         <v>49</v>
       </c>
       <c r="M140" s="34" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N140" s="4">
         <v>90</v>
@@ -7346,11 +7328,11 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="30" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F141" s="5">
         <v>400001</v>
@@ -7370,7 +7352,7 @@
         <v>49</v>
       </c>
       <c r="M141" s="34" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="N141" s="5">
         <v>110</v>
@@ -7384,10 +7366,10 @@
     </row>
     <row r="142" ht="20.1" customHeight="1" spans="3:14">
       <c r="C142" s="13" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E142" s="30" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G142" s="4">
         <v>1049</v>
@@ -7403,7 +7385,7 @@
         <v>49</v>
       </c>
       <c r="M142" s="34" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="N142" s="5">
         <v>173</v>
@@ -7411,10 +7393,10 @@
     </row>
     <row r="143" ht="20.1" customHeight="1" spans="3:14">
       <c r="C143" s="13" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E143" s="30" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G143" s="4">
         <v>1051</v>
@@ -7430,7 +7412,7 @@
         <v>49</v>
       </c>
       <c r="M143" s="34" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="N143" s="5">
         <v>235</v>
@@ -7438,10 +7420,10 @@
     </row>
     <row r="144" ht="20.1" customHeight="1" spans="3:14">
       <c r="C144" s="13" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E144" s="30" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G144" s="4">
         <v>1053</v>
@@ -7457,7 +7439,7 @@
         <v>49</v>
       </c>
       <c r="M144" s="34" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N144" s="5">
         <v>175</v>
@@ -7465,10 +7447,10 @@
     </row>
     <row r="145" ht="20.1" customHeight="1" spans="3:14">
       <c r="C145" s="13" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E145" s="30" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G145" s="4">
         <v>1054</v>
@@ -7484,7 +7466,7 @@
         <v>49</v>
       </c>
       <c r="M145" s="34" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N145" s="5">
         <v>175</v>
@@ -7492,10 +7474,10 @@
     </row>
     <row r="146" ht="20.1" customHeight="1" spans="3:14">
       <c r="C146" s="13" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E146" s="30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G146" s="4">
         <v>1054</v>
@@ -7511,7 +7493,7 @@
         <v>49</v>
       </c>
       <c r="M146" s="34" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N146" s="5">
         <v>175</v>
@@ -7519,10 +7501,10 @@
     </row>
     <row r="147" ht="20.1" customHeight="1" spans="3:14">
       <c r="C147" s="13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G147" s="4">
         <v>10</v>
@@ -7538,7 +7520,7 @@
         <v>49</v>
       </c>
       <c r="M147" s="34" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N147" s="5">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="475">
   <si>
     <t>#</t>
   </si>
@@ -1836,27 +1836,42 @@
     <t>家园公告牌</t>
   </si>
   <si>
+    <t>1334,0,-1482</t>
+  </si>
+  <si>
     <t>30000005</t>
   </si>
   <si>
     <t>采购管理员</t>
   </si>
   <si>
+    <t>1434,0,-1282</t>
+  </si>
+  <si>
     <t>30000006</t>
   </si>
   <si>
     <t>家园存放员</t>
   </si>
   <si>
+    <t>1534,0,-1082</t>
+  </si>
+  <si>
     <t>30000007</t>
   </si>
   <si>
     <t>家园士兵</t>
   </si>
   <si>
+    <t>1634,0,-882</t>
+  </si>
+  <si>
     <t>30000008</t>
   </si>
   <si>
+    <t>1734,0,-682</t>
+  </si>
+  <si>
     <t>30000009</t>
   </si>
   <si>
@@ -1872,7 +1887,7 @@
     <t>家园宠物管理员</t>
   </si>
   <si>
-    <t>1834,0,-1782</t>
+    <t>1834,0,-1482</t>
   </si>
   <si>
     <t>30000011</t>
@@ -1881,7 +1896,7 @@
     <t>装备宠物加锁</t>
   </si>
   <si>
-    <t>1900,0,-1782</t>
+    <t>1900,0,-1282</t>
   </si>
   <si>
     <t>30000013</t>
@@ -1890,7 +1905,7 @@
     <t>家园商人</t>
   </si>
   <si>
-    <t>1950,0,-1782</t>
+    <t>1950,0,-1082</t>
   </si>
   <si>
     <t>30000014</t>
@@ -1899,7 +1914,7 @@
     <t>藏宝图生活技能仓库</t>
   </si>
   <si>
-    <t>2000,0,-1782</t>
+    <t>2000,0,-882</t>
   </si>
   <si>
     <t>30000015</t>
@@ -1908,7 +1923,7 @@
     <t>装备增幅</t>
   </si>
   <si>
-    <t>2150,0,-1782</t>
+    <t>2150,0,-682</t>
   </si>
   <si>
     <t>30000016</t>
@@ -3147,8 +3162,8 @@
   <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51:M56"/>
+    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7121,7 +7136,7 @@
         <v>49</v>
       </c>
       <c r="M133" s="34" t="s">
-        <v>209</v>
+        <v>433</v>
       </c>
       <c r="N133" s="5">
         <v>0</v>
@@ -7136,10 +7151,10 @@
     </row>
     <row r="134" ht="20.1" customHeight="1" spans="3:14">
       <c r="C134" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E134" s="30" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G134" s="4">
         <v>1036</v>
@@ -7155,7 +7170,7 @@
         <v>49</v>
       </c>
       <c r="M134" s="34" t="s">
-        <v>213</v>
+        <v>436</v>
       </c>
       <c r="N134" s="5">
         <v>-100</v>
@@ -7163,10 +7178,10 @@
     </row>
     <row r="135" ht="20.1" customHeight="1" spans="3:14">
       <c r="C135" s="13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E135" s="30" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G135" s="4">
         <v>1032</v>
@@ -7182,7 +7197,7 @@
         <v>49</v>
       </c>
       <c r="M135" s="34" t="s">
-        <v>216</v>
+        <v>439</v>
       </c>
       <c r="N135" s="5">
         <v>123</v>
@@ -7190,10 +7205,10 @@
     </row>
     <row r="136" ht="20.1" customHeight="1" spans="3:14">
       <c r="C136" s="13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E136" s="30" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7209,7 +7224,7 @@
         <v>49</v>
       </c>
       <c r="M136" s="34" t="s">
-        <v>219</v>
+        <v>442</v>
       </c>
       <c r="N136" s="5">
         <v>90</v>
@@ -7217,10 +7232,10 @@
     </row>
     <row r="137" ht="20.1" customHeight="1" spans="3:14">
       <c r="C137" s="13" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E137" s="30" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7236,7 +7251,7 @@
         <v>49</v>
       </c>
       <c r="M137" s="34" t="s">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="N137" s="5">
         <v>270</v>
@@ -7244,10 +7259,10 @@
     </row>
     <row r="138" ht="20.1" customHeight="1" spans="3:14">
       <c r="C138" s="13" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E138" s="30" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G138" s="4">
         <v>1037</v>
@@ -7263,7 +7278,7 @@
         <v>49</v>
       </c>
       <c r="M138" s="34" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="N138" s="5">
         <v>-90</v>
@@ -7271,10 +7286,10 @@
     </row>
     <row r="139" ht="20.1" customHeight="1" spans="3:14">
       <c r="C139" s="13" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E139" s="30" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G139" s="4">
         <v>1038</v>
@@ -7290,7 +7305,7 @@
         <v>49</v>
       </c>
       <c r="M139" s="34" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="N139" s="5">
         <v>-150</v>
@@ -7298,10 +7313,10 @@
     </row>
     <row r="140" ht="20.1" customHeight="1" spans="3:15">
       <c r="C140" s="13" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E140" s="30" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G140" s="4">
         <v>1047</v>
@@ -7317,7 +7332,7 @@
         <v>49</v>
       </c>
       <c r="M140" s="34" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="N140" s="4">
         <v>90</v>
@@ -7328,11 +7343,11 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="30" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F141" s="5">
         <v>400001</v>
@@ -7352,7 +7367,7 @@
         <v>49</v>
       </c>
       <c r="M141" s="34" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="N141" s="5">
         <v>110</v>
@@ -7366,10 +7381,10 @@
     </row>
     <row r="142" ht="20.1" customHeight="1" spans="3:14">
       <c r="C142" s="13" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E142" s="30" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G142" s="4">
         <v>1049</v>
@@ -7385,7 +7400,7 @@
         <v>49</v>
       </c>
       <c r="M142" s="34" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="N142" s="5">
         <v>173</v>
@@ -7393,10 +7408,10 @@
     </row>
     <row r="143" ht="20.1" customHeight="1" spans="3:14">
       <c r="C143" s="13" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E143" s="30" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="G143" s="4">
         <v>1051</v>
@@ -7412,7 +7427,7 @@
         <v>49</v>
       </c>
       <c r="M143" s="34" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="N143" s="5">
         <v>235</v>
@@ -7420,10 +7435,10 @@
     </row>
     <row r="144" ht="20.1" customHeight="1" spans="3:14">
       <c r="C144" s="13" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E144" s="30" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G144" s="4">
         <v>1053</v>
@@ -7439,7 +7454,7 @@
         <v>49</v>
       </c>
       <c r="M144" s="34" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="N144" s="5">
         <v>175</v>
@@ -7447,10 +7462,10 @@
     </row>
     <row r="145" ht="20.1" customHeight="1" spans="3:14">
       <c r="C145" s="13" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E145" s="30" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G145" s="4">
         <v>1054</v>
@@ -7466,7 +7481,7 @@
         <v>49</v>
       </c>
       <c r="M145" s="34" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="N145" s="5">
         <v>175</v>
@@ -7474,10 +7489,10 @@
     </row>
     <row r="146" ht="20.1" customHeight="1" spans="3:14">
       <c r="C146" s="13" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E146" s="30" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G146" s="4">
         <v>1054</v>
@@ -7493,7 +7508,7 @@
         <v>49</v>
       </c>
       <c r="M146" s="34" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="N146" s="5">
         <v>175</v>
@@ -7501,10 +7516,10 @@
     </row>
     <row r="147" ht="20.1" customHeight="1" spans="3:14">
       <c r="C147" s="13" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G147" s="4">
         <v>10</v>
@@ -7520,7 +7535,7 @@
         <v>49</v>
       </c>
       <c r="M147" s="34" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="N147" s="5">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="474">
   <si>
     <t>#</t>
   </si>
@@ -1164,7 +1164,7 @@
     <t>家族任务</t>
   </si>
   <si>
-    <t>1334,0,-1782</t>
+    <t>1334,0,-1482</t>
   </si>
   <si>
     <t>我这里的家族试炼任务每完成20、40、60、80、100环都会获得一份特殊奖励哦!</t>
@@ -1176,7 +1176,7 @@
     <t>家族捐献</t>
   </si>
   <si>
-    <t>1434,0,-1782</t>
+    <t>1434,0,-1182</t>
   </si>
   <si>
     <t>20000104</t>
@@ -1194,7 +1194,7 @@
     <t>家族商店</t>
   </si>
   <si>
-    <t>1634,0,-1782</t>
+    <t>1634,0,-1482</t>
   </si>
   <si>
     <t>20000106</t>
@@ -1203,7 +1203,7 @@
     <t>家族科技</t>
   </si>
   <si>
-    <t>1734,0,-1782</t>
+    <t>1734,0,-1182</t>
   </si>
   <si>
     <t>20001001</t>
@@ -1834,9 +1834,6 @@
   </si>
   <si>
     <t>家园公告牌</t>
-  </si>
-  <si>
-    <t>1334,0,-1482</t>
   </si>
   <si>
     <t>30000005</t>
@@ -2171,6 +2168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -2183,11 +2185,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -3162,8 +3159,8 @@
   <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
-      <selection activeCell="N149" sqref="N149"/>
+    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7136,7 +7133,7 @@
         <v>49</v>
       </c>
       <c r="M133" s="34" t="s">
-        <v>433</v>
+        <v>209</v>
       </c>
       <c r="N133" s="5">
         <v>0</v>
@@ -7151,10 +7148,10 @@
     </row>
     <row r="134" ht="20.1" customHeight="1" spans="3:14">
       <c r="C134" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E134" s="30" t="s">
         <v>434</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>435</v>
       </c>
       <c r="G134" s="4">
         <v>1036</v>
@@ -7170,7 +7167,7 @@
         <v>49</v>
       </c>
       <c r="M134" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N134" s="5">
         <v>-100</v>
@@ -7178,10 +7175,10 @@
     </row>
     <row r="135" ht="20.1" customHeight="1" spans="3:14">
       <c r="C135" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E135" s="30" t="s">
         <v>437</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>438</v>
       </c>
       <c r="G135" s="4">
         <v>1032</v>
@@ -7197,7 +7194,7 @@
         <v>49</v>
       </c>
       <c r="M135" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N135" s="5">
         <v>123</v>
@@ -7205,10 +7202,10 @@
     </row>
     <row r="136" ht="20.1" customHeight="1" spans="3:14">
       <c r="C136" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E136" s="30" t="s">
         <v>440</v>
-      </c>
-      <c r="E136" s="30" t="s">
-        <v>441</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7224,7 +7221,7 @@
         <v>49</v>
       </c>
       <c r="M136" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N136" s="5">
         <v>90</v>
@@ -7232,10 +7229,10 @@
     </row>
     <row r="137" ht="20.1" customHeight="1" spans="3:14">
       <c r="C137" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E137" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7251,7 +7248,7 @@
         <v>49</v>
       </c>
       <c r="M137" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N137" s="5">
         <v>270</v>
@@ -7259,10 +7256,10 @@
     </row>
     <row r="138" ht="20.1" customHeight="1" spans="3:14">
       <c r="C138" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E138" s="30" t="s">
         <v>445</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>446</v>
       </c>
       <c r="G138" s="4">
         <v>1037</v>
@@ -7278,7 +7275,7 @@
         <v>49</v>
       </c>
       <c r="M138" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N138" s="5">
         <v>-90</v>
@@ -7286,10 +7283,10 @@
     </row>
     <row r="139" ht="20.1" customHeight="1" spans="3:14">
       <c r="C139" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E139" s="30" t="s">
         <v>448</v>
-      </c>
-      <c r="E139" s="30" t="s">
-        <v>449</v>
       </c>
       <c r="G139" s="4">
         <v>1038</v>
@@ -7305,7 +7302,7 @@
         <v>49</v>
       </c>
       <c r="M139" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N139" s="5">
         <v>-150</v>
@@ -7313,10 +7310,10 @@
     </row>
     <row r="140" ht="20.1" customHeight="1" spans="3:15">
       <c r="C140" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E140" s="30" t="s">
         <v>451</v>
-      </c>
-      <c r="E140" s="30" t="s">
-        <v>452</v>
       </c>
       <c r="G140" s="4">
         <v>1047</v>
@@ -7332,7 +7329,7 @@
         <v>49</v>
       </c>
       <c r="M140" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N140" s="4">
         <v>90</v>
@@ -7343,11 +7340,11 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F141" s="5">
         <v>400001</v>
@@ -7367,7 +7364,7 @@
         <v>49</v>
       </c>
       <c r="M141" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N141" s="5">
         <v>110</v>
@@ -7381,10 +7378,10 @@
     </row>
     <row r="142" ht="20.1" customHeight="1" spans="3:14">
       <c r="C142" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E142" s="30" t="s">
         <v>457</v>
-      </c>
-      <c r="E142" s="30" t="s">
-        <v>458</v>
       </c>
       <c r="G142" s="4">
         <v>1049</v>
@@ -7400,7 +7397,7 @@
         <v>49</v>
       </c>
       <c r="M142" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N142" s="5">
         <v>173</v>
@@ -7408,10 +7405,10 @@
     </row>
     <row r="143" ht="20.1" customHeight="1" spans="3:14">
       <c r="C143" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E143" s="30" t="s">
         <v>460</v>
-      </c>
-      <c r="E143" s="30" t="s">
-        <v>461</v>
       </c>
       <c r="G143" s="4">
         <v>1051</v>
@@ -7427,7 +7424,7 @@
         <v>49</v>
       </c>
       <c r="M143" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N143" s="5">
         <v>235</v>
@@ -7435,10 +7432,10 @@
     </row>
     <row r="144" ht="20.1" customHeight="1" spans="3:14">
       <c r="C144" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E144" s="30" t="s">
         <v>463</v>
-      </c>
-      <c r="E144" s="30" t="s">
-        <v>464</v>
       </c>
       <c r="G144" s="4">
         <v>1053</v>
@@ -7454,7 +7451,7 @@
         <v>49</v>
       </c>
       <c r="M144" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N144" s="5">
         <v>175</v>
@@ -7462,10 +7459,10 @@
     </row>
     <row r="145" ht="20.1" customHeight="1" spans="3:14">
       <c r="C145" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E145" s="30" t="s">
         <v>466</v>
-      </c>
-      <c r="E145" s="30" t="s">
-        <v>467</v>
       </c>
       <c r="G145" s="4">
         <v>1054</v>
@@ -7481,7 +7478,7 @@
         <v>49</v>
       </c>
       <c r="M145" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N145" s="5">
         <v>175</v>
@@ -7489,10 +7486,10 @@
     </row>
     <row r="146" ht="20.1" customHeight="1" spans="3:14">
       <c r="C146" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E146" s="30" t="s">
         <v>469</v>
-      </c>
-      <c r="E146" s="30" t="s">
-        <v>470</v>
       </c>
       <c r="G146" s="4">
         <v>1054</v>
@@ -7508,7 +7505,7 @@
         <v>49</v>
       </c>
       <c r="M146" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N146" s="5">
         <v>175</v>
@@ -7516,10 +7513,10 @@
     </row>
     <row r="147" ht="20.1" customHeight="1" spans="3:14">
       <c r="C147" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="E147" s="30" t="s">
         <v>472</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>473</v>
       </c>
       <c r="G147" s="4">
         <v>10</v>
@@ -7535,7 +7532,7 @@
         <v>49</v>
       </c>
       <c r="M147" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N147" s="5">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1227,7 +1227,7 @@
     <t>30010001,30010002,30010003,30010006,30010008,30010020,30010044,31001008</t>
   </si>
   <si>
-    <t>140,16,150</t>
+    <t>0,0,-700</t>
   </si>
   <si>
     <t>勇士,我是这里的村长,这里是一个被诅咒的村子,如果怕死,你还是赶紧离开这个鬼地方吧！</t>
@@ -2168,11 +2168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -2185,6 +2180,11 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -3159,8 +3159,8 @@
   <sheetPr/>
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3170,7 +3170,7 @@
     <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="8" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="6" customWidth="1"/>
     <col min="9" max="9" width="10.875" style="6" customWidth="1"/>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB6AAA-F475-42BE-8822-78DE7CDC34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -169,14 +162,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>作者:
 0:</t>
@@ -194,7 +187,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1</t>
@@ -209,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +226,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>ID,</t>
         </r>
@@ -249,7 +242,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>UI</t>
         </r>
@@ -265,7 +258,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -281,7 +274,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>;</t>
         </r>
@@ -297,7 +290,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -313,7 +306,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -329,7 +322,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">100;0  </t>
         </r>
@@ -345,7 +338,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>50%</t>
         </r>
@@ -361,7 +354,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>100</t>
         </r>
@@ -375,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">NPC
 </t>
@@ -416,7 +409,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:10;20 </t>
         </r>
@@ -432,7 +425,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 10-20</t>
         </r>
@@ -446,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0">
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0">
+    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -504,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0">
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1467,9 +1460,6 @@
     <t>幸存者</t>
   </si>
   <si>
-    <t>30020111,30020112,30020113,30020114,30020115,30020116,30020117,</t>
-  </si>
-  <si>
     <t>1589,1,-693</t>
   </si>
   <si>
@@ -1479,9 +1469,6 @@
     <t>走失的士兵</t>
   </si>
   <si>
-    <t>30020118,30020119,30020120,30020121,30020122,30020123,30020124,</t>
-  </si>
-  <si>
     <t>1414,1,-674</t>
   </si>
   <si>
@@ -1957,19 +1944,21 @@
   </si>
   <si>
     <t>56,0,-1330</t>
+  </si>
+  <si>
+    <t>30020111,30020112,30020113,30020114,30020115,30020116,30020117</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>30020118,30020119,30020120,30020121,30020122,30020123,30020124</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2021,150 +2010,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2182,15 +2034,28 @@
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2211,198 +2076,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149723807489242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14969328897976622"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2453,255 +2132,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2753,9 +2190,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2767,9 +2201,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2789,82 +2220,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 5" xfId="49"/>
-    <cellStyle name="常规 6" xfId="50"/>
+    <cellStyle name="常规 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3151,19 +2541,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -3191,13 +2581,13 @@
     <col min="26" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:25">
+    <row r="3" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3237,19 +2627,19 @@
       <c r="O3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -3268,7 +2658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:25">
+    <row r="4" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3306,19 +2696,19 @@
       <c r="O4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="20" t="s">
         <v>38</v>
       </c>
       <c r="U4" s="11" t="s">
@@ -3337,7 +2727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:25">
+    <row r="5" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>44</v>
       </c>
@@ -3406,7 +2796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:18">
+    <row r="6" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12">
         <v>10001</v>
       </c>
@@ -3429,9 +2819,9 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="26"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
         <v>10002</v>
       </c>
@@ -3454,9 +2844,9 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="R7" s="26"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="12">
         <v>10003</v>
       </c>
@@ -3479,9 +2869,9 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="R8" s="26"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:19">
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="12">
         <v>10004</v>
       </c>
@@ -3504,14 +2894,14 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:18">
+    <row r="10" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>49</v>
       </c>
@@ -3533,7 +2923,7 @@
       <c r="L10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N10" s="5">
@@ -3541,7 +2931,7 @@
       </c>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:18">
+    <row r="11" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>56</v>
       </c>
@@ -3563,7 +2953,7 @@
       <c r="L11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="29" t="s">
         <v>58</v>
       </c>
       <c r="N11" s="5">
@@ -3571,7 +2961,7 @@
       </c>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:18">
+    <row r="12" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>59</v>
       </c>
@@ -3591,7 +2981,7 @@
       <c r="L12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="29" t="s">
         <v>61</v>
       </c>
       <c r="N12" s="5">
@@ -3599,7 +2989,7 @@
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:18">
+    <row r="13" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>62</v>
       </c>
@@ -3619,7 +3009,7 @@
       <c r="L13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="29" t="s">
         <v>64</v>
       </c>
       <c r="N13" s="5">
@@ -3627,7 +3017,7 @@
       </c>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:25">
+    <row r="14" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
         <v>65</v>
       </c>
@@ -3645,31 +3035,31 @@
       <c r="I14" s="17">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="21"/>
       <c r="L14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="30" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="15">
         <v>-180</v>
       </c>
       <c r="O14" s="15"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:18">
+    <row r="15" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
         <v>69</v>
       </c>
@@ -3688,7 +3078,7 @@
       <c r="L15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="31" t="s">
         <v>71</v>
       </c>
       <c r="N15" s="4">
@@ -3697,11 +3087,11 @@
       <c r="O15" s="4"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:25">
+    <row r="16" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
         <v>73</v>
       </c>
@@ -3719,31 +3109,31 @@
       <c r="I16" s="17">
         <v>0</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="21"/>
       <c r="L16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="30" t="s">
         <v>75</v>
       </c>
       <c r="N16" s="15">
         <v>-90</v>
       </c>
       <c r="O16" s="15"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:25">
+    <row r="17" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
         <v>76</v>
       </c>
@@ -3761,31 +3151,31 @@
       <c r="I17" s="17">
         <v>0</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="21"/>
       <c r="L17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="30" t="s">
         <v>78</v>
       </c>
       <c r="N17" s="15">
         <v>90</v>
       </c>
       <c r="O17" s="15"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:18">
+    <row r="18" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>79</v>
       </c>
@@ -3805,7 +3195,7 @@
       <c r="L18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="29" t="s">
         <v>81</v>
       </c>
       <c r="N18" s="5">
@@ -3815,7 +3205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:18">
+    <row r="19" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="13" t="s">
         <v>83</v>
       </c>
@@ -3835,7 +3225,7 @@
       <c r="L19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="29" t="s">
         <v>85</v>
       </c>
       <c r="N19" s="5">
@@ -3845,7 +3235,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:18">
+    <row r="20" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
         <v>87</v>
       </c>
@@ -3865,7 +3255,7 @@
       <c r="L20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="31" t="s">
+      <c r="M20" s="29" t="s">
         <v>89</v>
       </c>
       <c r="N20" s="5">
@@ -3873,7 +3263,7 @@
       </c>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:18">
+    <row r="21" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="13" t="s">
         <v>90</v>
       </c>
@@ -3895,17 +3285,17 @@
       <c r="L21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="32" t="s">
         <v>93</v>
       </c>
       <c r="N21" s="5">
         <v>90</v>
       </c>
-      <c r="R21" s="27" t="s">
+      <c r="R21" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:18">
+    <row r="22" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="13" t="s">
         <v>95</v>
       </c>
@@ -3927,17 +3317,17 @@
       <c r="L22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="M22" s="32" t="s">
         <v>98</v>
       </c>
       <c r="N22" s="5">
         <v>90</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:18">
+    <row r="23" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="13" t="s">
         <v>100</v>
       </c>
@@ -3959,17 +3349,17 @@
       <c r="L23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M23" s="32" t="s">
         <v>103</v>
       </c>
       <c r="N23" s="5">
         <v>225</v>
       </c>
-      <c r="R23" s="27" t="s">
+      <c r="R23" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:18">
+    <row r="24" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="13" t="s">
         <v>105</v>
       </c>
@@ -3988,17 +3378,17 @@
       <c r="L24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="32" t="s">
         <v>107</v>
       </c>
       <c r="N24" s="5">
         <v>0</v>
       </c>
-      <c r="R24" s="27" t="s">
+      <c r="R24" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:18">
+    <row r="25" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="13" t="s">
         <v>109</v>
       </c>
@@ -4017,15 +3407,15 @@
       <c r="L25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="32" t="s">
         <v>111</v>
       </c>
       <c r="N25" s="5">
         <v>-90</v>
       </c>
-      <c r="R25" s="27"/>
-    </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="13" t="s">
         <v>112</v>
       </c>
@@ -4044,17 +3434,17 @@
       <c r="L26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="M26" s="32" t="s">
         <v>114</v>
       </c>
       <c r="N26" s="5">
         <v>180</v>
       </c>
-      <c r="R26" s="27" t="s">
+      <c r="R26" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:18">
+    <row r="27" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
         <v>116</v>
       </c>
@@ -4076,17 +3466,17 @@
       <c r="L27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="32" t="s">
         <v>118</v>
       </c>
       <c r="N27" s="5">
         <v>180</v>
       </c>
-      <c r="R27" s="27" t="s">
+      <c r="R27" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:18">
+    <row r="28" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="13" t="s">
         <v>119</v>
       </c>
@@ -4108,15 +3498,15 @@
       <c r="L28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="34" t="s">
+      <c r="M28" s="32" t="s">
         <v>121</v>
       </c>
       <c r="N28" s="5">
         <v>90</v>
       </c>
-      <c r="R28" s="27"/>
-    </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R28" s="25"/>
+    </row>
+    <row r="29" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="13" t="s">
         <v>122</v>
       </c>
@@ -4138,15 +3528,15 @@
       <c r="L29" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="32" t="s">
         <v>124</v>
       </c>
       <c r="N29" s="5">
         <v>90</v>
       </c>
-      <c r="R29" s="27"/>
-    </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R29" s="25"/>
+    </row>
+    <row r="30" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="13" t="s">
         <v>125</v>
       </c>
@@ -4168,15 +3558,15 @@
       <c r="L30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="M30" s="32" t="s">
         <v>127</v>
       </c>
       <c r="N30" s="5">
         <v>90</v>
       </c>
-      <c r="R30" s="27"/>
-    </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
         <v>128</v>
       </c>
@@ -4198,7 +3588,7 @@
       <c r="L31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="M31" s="32" t="s">
         <v>131</v>
       </c>
       <c r="N31" s="5">
@@ -4206,7 +3596,7 @@
       </c>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:18">
+    <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
         <v>132</v>
       </c>
@@ -4228,17 +3618,17 @@
       <c r="L32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="M32" s="32" t="s">
         <v>134</v>
       </c>
       <c r="N32" s="5">
         <v>-30</v>
       </c>
-      <c r="R32" s="27" t="s">
+      <c r="R32" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:18">
+    <row r="33" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
         <v>135</v>
       </c>
@@ -4248,7 +3638,7 @@
       <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="33" t="s">
         <v>137</v>
       </c>
       <c r="I33" s="4">
@@ -4257,17 +3647,17 @@
       <c r="L33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="32" t="s">
         <v>138</v>
       </c>
       <c r="N33" s="5">
         <v>180</v>
       </c>
-      <c r="R33" s="27" t="s">
+      <c r="R33" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:18">
+    <row r="34" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="13" t="s">
         <v>140</v>
       </c>
@@ -4283,17 +3673,17 @@
       <c r="L34" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M34" s="34" t="s">
+      <c r="M34" s="32" t="s">
         <v>142</v>
       </c>
       <c r="N34" s="5">
         <v>-30</v>
       </c>
-      <c r="R34" s="27" t="s">
+      <c r="R34" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:18">
+    <row r="35" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="13" t="s">
         <v>144</v>
       </c>
@@ -4315,17 +3705,17 @@
       <c r="L35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M35" s="34" t="s">
+      <c r="M35" s="32" t="s">
         <v>146</v>
       </c>
       <c r="N35" s="5">
         <v>-144</v>
       </c>
-      <c r="R35" s="27" t="s">
+      <c r="R35" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:18">
+    <row r="36" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="13" t="s">
         <v>148</v>
       </c>
@@ -4341,17 +3731,17 @@
       <c r="L36" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M36" s="34" t="s">
+      <c r="M36" s="32" t="s">
         <v>150</v>
       </c>
       <c r="N36" s="5">
         <v>-180</v>
       </c>
-      <c r="R36" s="27" t="s">
+      <c r="R36" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:18">
+    <row r="37" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="13" t="s">
         <v>152</v>
       </c>
@@ -4367,17 +3757,17 @@
       <c r="L37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="34" t="s">
+      <c r="M37" s="32" t="s">
         <v>154</v>
       </c>
       <c r="N37" s="5">
         <v>90</v>
       </c>
-      <c r="R37" s="27" t="s">
+      <c r="R37" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:18">
+    <row r="38" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="13" t="s">
         <v>156</v>
       </c>
@@ -4390,18 +3780,18 @@
       <c r="L38" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M38" s="34" t="s">
+      <c r="M38" s="32" t="s">
         <v>158</v>
       </c>
       <c r="N38" s="5">
         <v>90</v>
       </c>
-      <c r="P38" s="25"/>
-      <c r="R38" s="27" t="s">
+      <c r="P38" s="23"/>
+      <c r="R38" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:18">
+    <row r="39" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="13" t="s">
         <v>160</v>
       </c>
@@ -4414,18 +3804,18 @@
       <c r="L39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M39" s="34" t="s">
+      <c r="M39" s="32" t="s">
         <v>162</v>
       </c>
       <c r="N39" s="5">
         <v>129</v>
       </c>
-      <c r="P39" s="25"/>
-      <c r="R39" s="27" t="s">
+      <c r="P39" s="23"/>
+      <c r="R39" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:18">
+    <row r="40" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="13" t="s">
         <v>163</v>
       </c>
@@ -4447,15 +3837,15 @@
       <c r="L40" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="34" t="s">
+      <c r="M40" s="32" t="s">
         <v>165</v>
       </c>
       <c r="N40" s="5">
         <v>180</v>
       </c>
-      <c r="R40" s="27"/>
-    </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="13" t="s">
         <v>166</v>
       </c>
@@ -4475,7 +3865,7 @@
       <c r="L41" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="M41" s="32" t="s">
         <v>168</v>
       </c>
       <c r="N41" s="5">
@@ -4483,7 +3873,7 @@
       </c>
       <c r="R41" s="12"/>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:18">
+    <row r="42" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="13" t="s">
         <v>169</v>
       </c>
@@ -4503,7 +3893,7 @@
       <c r="L42" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="34" t="s">
+      <c r="M42" s="32" t="s">
         <v>171</v>
       </c>
       <c r="N42" s="5">
@@ -4513,7 +3903,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:18">
+    <row r="43" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="13" t="s">
         <v>173</v>
       </c>
@@ -4533,7 +3923,7 @@
       <c r="L43" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="34" t="s">
+      <c r="M43" s="32" t="s">
         <v>175</v>
       </c>
       <c r="N43" s="5">
@@ -4543,7 +3933,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:18">
+    <row r="44" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="13" t="s">
         <v>177</v>
       </c>
@@ -4566,7 +3956,7 @@
       <c r="L44" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M44" s="34" t="s">
+      <c r="M44" s="32" t="s">
         <v>180</v>
       </c>
       <c r="N44" s="5">
@@ -4576,7 +3966,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:18">
+    <row r="45" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="13" t="s">
         <v>182</v>
       </c>
@@ -4598,7 +3988,7 @@
       <c r="L45" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M45" s="31" t="s">
+      <c r="M45" s="29" t="s">
         <v>184</v>
       </c>
       <c r="N45" s="5">
@@ -4606,7 +3996,7 @@
       </c>
       <c r="R45" s="12"/>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:18">
+    <row r="46" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="13" t="s">
         <v>185</v>
       </c>
@@ -4628,7 +4018,7 @@
       <c r="L46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M46" s="31" t="s">
+      <c r="M46" s="29" t="s">
         <v>187</v>
       </c>
       <c r="N46" s="5">
@@ -4638,7 +4028,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:18">
+    <row r="47" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="13" t="s">
         <v>189</v>
       </c>
@@ -4660,7 +4050,7 @@
       <c r="L47" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M47" s="31" t="s">
+      <c r="M47" s="29" t="s">
         <v>191</v>
       </c>
       <c r="N47" s="5">
@@ -4670,7 +4060,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:18">
+    <row r="48" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="13" t="s">
         <v>193</v>
       </c>
@@ -4692,7 +4082,7 @@
       <c r="L48" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M48" s="31" t="s">
+      <c r="M48" s="29" t="s">
         <v>195</v>
       </c>
       <c r="N48" s="5">
@@ -4700,7 +4090,7 @@
       </c>
       <c r="R48" s="12"/>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:18">
+    <row r="49" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="13" t="s">
         <v>196</v>
       </c>
@@ -4722,7 +4112,7 @@
       <c r="L49" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="31" t="s">
+      <c r="M49" s="29" t="s">
         <v>198</v>
       </c>
       <c r="N49" s="5">
@@ -4732,7 +4122,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:18">
+    <row r="50" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="13" t="s">
         <v>200</v>
       </c>
@@ -4745,17 +4135,17 @@
       <c r="L50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M50" s="34" t="s">
+      <c r="M50" s="32" t="s">
         <v>202</v>
       </c>
       <c r="N50" s="5">
         <v>90</v>
       </c>
-      <c r="R50" s="27" t="s">
+      <c r="R50" s="25" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="51" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="13" t="s">
@@ -4782,7 +4172,7 @@
       <c r="L51" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M51" s="34" t="s">
+      <c r="M51" s="32" t="s">
         <v>206</v>
       </c>
       <c r="N51" s="5">
@@ -4796,7 +4186,7 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="52" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="13" t="s">
@@ -4823,7 +4213,7 @@
       <c r="L52" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="34" t="s">
+      <c r="M52" s="32" t="s">
         <v>209</v>
       </c>
       <c r="N52" s="5">
@@ -4839,7 +4229,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="53" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="13" t="s">
@@ -4866,7 +4256,7 @@
       <c r="L53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M53" s="34" t="s">
+      <c r="M53" s="32" t="s">
         <v>213</v>
       </c>
       <c r="N53" s="5">
@@ -4880,7 +4270,7 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="54" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="13" t="s">
@@ -4907,7 +4297,7 @@
       <c r="L54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M54" s="34" t="s">
+      <c r="M54" s="32" t="s">
         <v>216</v>
       </c>
       <c r="N54" s="5">
@@ -4921,7 +4311,7 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="55" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="13" t="s">
@@ -4948,7 +4338,7 @@
       <c r="L55" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M55" s="34" t="s">
+      <c r="M55" s="32" t="s">
         <v>219</v>
       </c>
       <c r="N55" s="5">
@@ -4962,7 +4352,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="56" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="13" t="s">
@@ -4989,7 +4379,7 @@
       <c r="L56" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M56" s="34" t="s">
+      <c r="M56" s="32" t="s">
         <v>222</v>
       </c>
       <c r="N56" s="5">
@@ -5003,7 +4393,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:18">
+    <row r="57" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="13" t="s">
         <v>223</v>
       </c>
@@ -5025,7 +4415,7 @@
       <c r="L57" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="31" t="s">
+      <c r="M57" s="29" t="s">
         <v>225</v>
       </c>
       <c r="N57" s="5">
@@ -5033,8 +4423,8 @@
       </c>
       <c r="R57" s="12"/>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C58" s="19">
+    <row r="58" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="12">
         <v>20001002</v>
       </c>
       <c r="E58" s="12" t="s">
@@ -5063,8 +4453,8 @@
       </c>
       <c r="R58" s="12"/>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C59" s="19">
+    <row r="59" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="12">
         <v>20001003</v>
       </c>
       <c r="E59" s="12" t="s">
@@ -5086,12 +4476,12 @@
       <c r="N59" s="5">
         <v>180</v>
       </c>
-      <c r="R59" s="26" t="s">
+      <c r="R59" s="24" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C60" s="19">
+    <row r="60" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="12">
         <v>20001004</v>
       </c>
       <c r="E60" s="12" t="s">
@@ -5107,18 +4497,18 @@
       <c r="L60" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M60" s="31" t="s">
+      <c r="M60" s="29" t="s">
         <v>233</v>
       </c>
       <c r="N60" s="5">
         <v>90</v>
       </c>
-      <c r="R60" s="26" t="s">
+      <c r="R60" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C61" s="19">
+    <row r="61" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="12">
         <v>20001005</v>
       </c>
       <c r="E61" s="12" t="s">
@@ -5140,12 +4530,12 @@
       <c r="N61" s="5">
         <v>-45</v>
       </c>
-      <c r="R61" s="26" t="s">
+      <c r="R61" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C62" s="19">
+    <row r="62" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="12">
         <v>20001006</v>
       </c>
       <c r="E62" s="12" t="s">
@@ -5161,18 +4551,18 @@
       <c r="L62" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M62" s="31" t="s">
+      <c r="M62" s="29" t="s">
         <v>238</v>
       </c>
       <c r="N62" s="5">
         <v>45</v>
       </c>
-      <c r="R62" s="26" t="s">
+      <c r="R62" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C63" s="19">
+    <row r="63" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="12">
         <v>20001007</v>
       </c>
       <c r="E63" s="12" t="s">
@@ -5188,18 +4578,18 @@
       <c r="L63" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M63" s="31" t="s">
+      <c r="M63" s="29" t="s">
         <v>242</v>
       </c>
       <c r="N63" s="5">
         <v>150</v>
       </c>
-      <c r="R63" s="26" t="s">
+      <c r="R63" s="24" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C64" s="19">
+    <row r="64" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="12">
         <v>20001008</v>
       </c>
       <c r="E64" s="12" t="s">
@@ -5215,18 +4605,18 @@
       <c r="L64" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M64" s="31" t="s">
+      <c r="M64" s="29" t="s">
         <v>245</v>
       </c>
       <c r="N64" s="5">
         <v>-155</v>
       </c>
-      <c r="R64" s="26" t="s">
+      <c r="R64" s="24" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C65" s="19">
+    <row r="65" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="12">
         <v>20001009</v>
       </c>
       <c r="E65" s="12" t="s">
@@ -5242,18 +4632,18 @@
       <c r="L65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M65" s="31" t="s">
+      <c r="M65" s="29" t="s">
         <v>249</v>
       </c>
       <c r="N65" s="5">
         <v>35</v>
       </c>
-      <c r="R65" s="26" t="s">
+      <c r="R65" s="24" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C66" s="19">
+    <row r="66" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="12">
         <v>20001010</v>
       </c>
       <c r="E66" s="12" t="s">
@@ -5269,18 +4659,18 @@
       <c r="L66" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M66" s="35" t="s">
+      <c r="M66" s="33" t="s">
         <v>252</v>
       </c>
       <c r="N66" s="5">
         <v>180</v>
       </c>
-      <c r="R66" s="26" t="s">
+      <c r="R66" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C67" s="19">
+    <row r="67" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="12">
         <v>20001011</v>
       </c>
       <c r="E67" s="12" t="s">
@@ -5302,12 +4692,12 @@
       <c r="N67" s="5">
         <v>-180</v>
       </c>
-      <c r="R67" s="26" t="s">
+      <c r="R67" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C68" s="19">
+    <row r="68" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="12">
         <v>20001012</v>
       </c>
       <c r="E68" s="12" t="s">
@@ -5329,12 +4719,12 @@
       <c r="N68" s="5">
         <v>80</v>
       </c>
-      <c r="R68" s="26" t="s">
+      <c r="R68" s="24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C69" s="19">
+    <row r="69" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="12">
         <v>20001013</v>
       </c>
       <c r="E69" s="12" t="s">
@@ -5356,12 +4746,12 @@
       <c r="N69" s="5">
         <v>180</v>
       </c>
-      <c r="R69" s="26" t="s">
+      <c r="R69" s="24" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C70" s="19">
+    <row r="70" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="12">
         <v>20001014</v>
       </c>
       <c r="E70" s="12" t="s">
@@ -5383,12 +4773,12 @@
       <c r="N70" s="5">
         <v>180</v>
       </c>
-      <c r="R70" s="26" t="s">
+      <c r="R70" s="24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C71" s="19">
+    <row r="71" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="12">
         <v>20001015</v>
       </c>
       <c r="E71" s="12" t="s">
@@ -5410,12 +4800,12 @@
       <c r="N71" s="5">
         <v>128</v>
       </c>
-      <c r="R71" s="26" t="s">
+      <c r="R71" s="24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C72" s="19">
+    <row r="72" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="12">
         <v>20001016</v>
       </c>
       <c r="E72" s="12" t="s">
@@ -5437,12 +4827,12 @@
       <c r="N72" s="5">
         <v>180</v>
       </c>
-      <c r="R72" s="26" t="s">
+      <c r="R72" s="24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C73" s="19">
+    <row r="73" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="12">
         <v>20001017</v>
       </c>
       <c r="E73" s="12" t="s">
@@ -5464,12 +4854,12 @@
       <c r="N73" s="5">
         <v>120</v>
       </c>
-      <c r="R73" s="26" t="s">
+      <c r="R73" s="24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C74" s="19">
+    <row r="74" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="12">
         <v>20001018</v>
       </c>
       <c r="E74" s="12" t="s">
@@ -5492,12 +4882,12 @@
       <c r="N74" s="5">
         <v>180</v>
       </c>
-      <c r="R74" s="26" t="s">
+      <c r="R74" s="24" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C75" s="19">
+    <row r="75" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="12">
         <v>20001019</v>
       </c>
       <c r="E75" s="12" t="s">
@@ -5519,12 +4909,12 @@
       <c r="N75" s="5">
         <v>-180</v>
       </c>
-      <c r="R75" s="26" t="s">
+      <c r="R75" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C76" s="19">
+    <row r="76" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="12">
         <v>20001020</v>
       </c>
       <c r="E76" s="12" t="s">
@@ -5546,12 +4936,12 @@
       <c r="N76" s="5">
         <v>180</v>
       </c>
-      <c r="R76" s="26" t="s">
+      <c r="R76" s="24" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C77" s="19">
+    <row r="77" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="12">
         <v>20001021</v>
       </c>
       <c r="E77" s="12" t="s">
@@ -5573,12 +4963,12 @@
       <c r="N77" s="5">
         <v>-180</v>
       </c>
-      <c r="R77" s="26" t="s">
+      <c r="R77" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C78" s="19">
+    <row r="78" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="12">
         <v>20001022</v>
       </c>
       <c r="E78" s="12" t="s">
@@ -5600,12 +4990,12 @@
       <c r="N78" s="5">
         <v>-106</v>
       </c>
-      <c r="R78" s="26" t="s">
+      <c r="R78" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C79" s="19">
+    <row r="79" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="12">
         <v>20001023</v>
       </c>
       <c r="E79" s="12" t="s">
@@ -5632,8 +5022,8 @@
       </c>
       <c r="R79" s="12"/>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C80" s="19">
+    <row r="80" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="12">
         <v>20001024</v>
       </c>
       <c r="E80" s="12" t="s">
@@ -5657,7 +5047,7 @@
       </c>
       <c r="R80" s="12"/>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:18">
+    <row r="81" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="13" t="s">
         <v>296</v>
       </c>
@@ -5687,7 +5077,7 @@
       </c>
       <c r="R81" s="12"/>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:18">
+    <row r="82" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="13" t="s">
         <v>298</v>
       </c>
@@ -5717,7 +5107,7 @@
       </c>
       <c r="R82" s="12"/>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:18">
+    <row r="83" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="13" t="s">
         <v>300</v>
       </c>
@@ -5740,11 +5130,11 @@
       <c r="N83" s="5">
         <v>-131</v>
       </c>
-      <c r="R83" s="26" t="s">
+      <c r="R83" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:18">
+    <row r="84" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="13" t="s">
         <v>304</v>
       </c>
@@ -5767,11 +5157,11 @@
       <c r="N84" s="5">
         <v>180</v>
       </c>
-      <c r="R84" s="26" t="s">
+      <c r="R84" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:18">
+    <row r="85" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="13" t="s">
         <v>308</v>
       </c>
@@ -5779,55 +5169,55 @@
         <v>309</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L85" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="N85" s="5">
         <v>180</v>
       </c>
-      <c r="R85" s="26" t="s">
+      <c r="R85" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:18">
+    <row r="86" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="F86" s="12"/>
+      <c r="H86" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M86" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="F86" s="12"/>
-      <c r="H86" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="N86" s="5">
         <v>180</v>
       </c>
-      <c r="R86" s="26" t="s">
+      <c r="R86" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:18">
+    <row r="87" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>235</v>
@@ -5848,13 +5238,13 @@
       <c r="N87" s="5">
         <v>180</v>
       </c>
-      <c r="R87" s="26" t="s">
+      <c r="R87" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:18">
+    <row r="88" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>235</v>
@@ -5875,13 +5265,13 @@
       <c r="N88" s="5">
         <v>180</v>
       </c>
-      <c r="R88" s="26" t="s">
+      <c r="R88" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:18">
+    <row r="89" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>164</v>
@@ -5897,18 +5287,18 @@
         <v>49</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N89" s="5">
         <v>27</v>
       </c>
-      <c r="R89" s="26" t="s">
+      <c r="R89" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:18">
+    <row r="90" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>54</v>
@@ -5929,16 +5319,16 @@
         <v>49</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N90" s="5">
         <v>123</v>
       </c>
       <c r="R90" s="12"/>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:18">
+    <row r="91" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>226</v>
@@ -5959,23 +5349,23 @@
         <v>49</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N91" s="5">
         <v>45</v>
       </c>
       <c r="R91" s="12"/>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:18">
+    <row r="92" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F92" s="12"/>
       <c r="H92" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>130</v>
@@ -5984,25 +5374,25 @@
         <v>49</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N92" s="5">
         <v>90</v>
       </c>
-      <c r="R92" s="26" t="s">
+      <c r="R92" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:18">
+    <row r="93" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F93" s="12"/>
       <c r="H93" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>130</v>
@@ -6011,25 +5401,25 @@
         <v>49</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N93" s="5">
         <v>180</v>
       </c>
-      <c r="R93" s="26" t="s">
+      <c r="R93" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:18">
+    <row r="94" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F94" s="12"/>
       <c r="H94" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>130</v>
@@ -6038,21 +5428,21 @@
         <v>49</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N94" s="5">
         <v>95</v>
       </c>
-      <c r="R94" s="26" t="s">
+      <c r="R94" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:18">
+    <row r="95" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F95" s="12"/>
       <c r="H95" s="6" t="s">
@@ -6065,18 +5455,18 @@
         <v>49</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N95" s="5">
         <v>-70</v>
       </c>
-      <c r="R95" s="26" t="s">
+      <c r="R95" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:18">
+    <row r="96" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>235</v>
@@ -6097,13 +5487,13 @@
       <c r="N96" s="5">
         <v>180</v>
       </c>
-      <c r="R96" s="26" t="s">
+      <c r="R96" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:18">
+    <row r="97" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>235</v>
@@ -6124,20 +5514,20 @@
       <c r="N97" s="5">
         <v>180</v>
       </c>
-      <c r="R97" s="26" t="s">
+      <c r="R97" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:18">
+    <row r="98" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F98" s="12"/>
       <c r="H98" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>130</v>
@@ -6146,25 +5536,25 @@
         <v>49</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N98" s="5">
         <v>-70</v>
       </c>
-      <c r="R98" s="26" t="s">
+      <c r="R98" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:18">
+    <row r="99" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F99" s="12"/>
       <c r="H99" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>130</v>
@@ -6173,18 +5563,18 @@
         <v>49</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N99" s="5">
         <v>-180</v>
       </c>
-      <c r="R99" s="26" t="s">
+      <c r="R99" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:18">
+    <row r="100" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>54</v>
@@ -6205,16 +5595,16 @@
         <v>49</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N100" s="5">
         <v>35</v>
       </c>
       <c r="R100" s="12"/>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:18">
+    <row r="101" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>226</v>
@@ -6235,50 +5625,50 @@
         <v>49</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N101" s="5">
         <v>-41</v>
       </c>
       <c r="R101" s="12"/>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:18">
+    <row r="102" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L102" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="N102" s="5">
+        <v>0</v>
+      </c>
+      <c r="R102" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="I102" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M102" s="5" t="s">
+      <c r="E103" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="N102" s="5">
-        <v>0</v>
-      </c>
-      <c r="R102" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:18">
-      <c r="C103" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="F103" s="12"/>
       <c r="H103" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>130</v>
@@ -6287,25 +5677,25 @@
         <v>49</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N103" s="5">
         <v>101</v>
       </c>
-      <c r="R103" s="26" t="s">
+      <c r="R103" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:18">
+    <row r="104" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F104" s="12"/>
       <c r="H104" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>130</v>
@@ -6314,18 +5704,18 @@
         <v>49</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N104" s="5">
         <v>-3</v>
       </c>
-      <c r="R104" s="26" t="s">
+      <c r="R104" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:18">
+    <row r="105" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>235</v>
@@ -6346,13 +5736,13 @@
       <c r="N105" s="5">
         <v>180</v>
       </c>
-      <c r="R105" s="26" t="s">
+      <c r="R105" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:18">
+    <row r="106" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>235</v>
@@ -6373,20 +5763,20 @@
       <c r="N106" s="5">
         <v>180</v>
       </c>
-      <c r="R106" s="26" t="s">
+      <c r="R106" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:18">
+    <row r="107" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F107" s="12"/>
       <c r="H107" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>130</v>
@@ -6395,25 +5785,25 @@
         <v>49</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N107" s="5">
         <v>-180</v>
       </c>
-      <c r="R107" s="26" t="s">
+      <c r="R107" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:18">
+    <row r="108" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F108" s="12"/>
       <c r="H108" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>130</v>
@@ -6422,18 +5812,18 @@
         <v>49</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N108" s="5">
         <v>83</v>
       </c>
-      <c r="R108" s="26" t="s">
+      <c r="R108" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:18">
+    <row r="109" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>54</v>
@@ -6454,16 +5844,16 @@
         <v>49</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N109" s="5">
         <v>51</v>
       </c>
       <c r="R109" s="12"/>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:18">
+    <row r="110" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>226</v>
@@ -6484,23 +5874,23 @@
         <v>49</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N110" s="5">
         <v>-44</v>
       </c>
       <c r="R110" s="12"/>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:18">
+    <row r="111" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>130</v>
@@ -6509,25 +5899,25 @@
         <v>49</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N111" s="5">
         <v>180</v>
       </c>
-      <c r="R111" s="26" t="s">
+      <c r="R111" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:18">
+    <row r="112" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F112" s="12"/>
       <c r="H112" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>130</v>
@@ -6536,21 +5926,21 @@
         <v>49</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N112" s="5">
         <v>92</v>
       </c>
-      <c r="R112" s="26" t="s">
+      <c r="R112" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:18">
+    <row r="113" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F113" s="12"/>
       <c r="H113" s="6" t="s">
@@ -6568,20 +5958,20 @@
       <c r="N113" s="5">
         <v>180</v>
       </c>
-      <c r="R113" s="26" t="s">
+      <c r="R113" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:18">
+    <row r="114" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F114" s="12"/>
       <c r="H114" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>130</v>
@@ -6590,18 +5980,18 @@
         <v>49</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N114" s="5">
         <v>145</v>
       </c>
-      <c r="R114" s="26" t="s">
+      <c r="R114" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:18">
+    <row r="115" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>235</v>
@@ -6622,13 +6012,13 @@
       <c r="N115" s="5">
         <v>180</v>
       </c>
-      <c r="R115" s="26" t="s">
+      <c r="R115" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:18">
+    <row r="116" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>235</v>
@@ -6649,16 +6039,16 @@
       <c r="N116" s="5">
         <v>180</v>
       </c>
-      <c r="R116" s="26" t="s">
+      <c r="R116" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:18">
+    <row r="117" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="12">
         <v>20099001</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F117" s="12"/>
       <c r="H117" s="6" t="s">
@@ -6676,16 +6066,16 @@
       <c r="N117" s="5">
         <v>180</v>
       </c>
-      <c r="R117" s="26" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R117" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="118" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="12">
         <v>20099002</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F118" s="12"/>
       <c r="H118" s="6" t="s">
@@ -6703,16 +6093,16 @@
       <c r="N118" s="5">
         <v>180</v>
       </c>
-      <c r="R118" s="26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R118" s="24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="119" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="12">
         <v>20099003</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F119" s="12"/>
       <c r="H119" s="6" t="s">
@@ -6730,16 +6120,16 @@
       <c r="N119" s="5">
         <v>180</v>
       </c>
-      <c r="R119" s="26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R119" s="24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="120" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="12">
         <v>20099004</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F120" s="12"/>
       <c r="H120" s="6" t="s">
@@ -6757,16 +6147,16 @@
       <c r="N120" s="5">
         <v>180</v>
       </c>
-      <c r="R120" s="26" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R120" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="12">
         <v>20099005</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F121" s="12"/>
       <c r="H121" s="6" t="s">
@@ -6784,11 +6174,11 @@
       <c r="N121" s="5">
         <v>180</v>
       </c>
-      <c r="R121" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R121" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="12">
         <v>20099006</v>
       </c>
@@ -6811,111 +6201,111 @@
       <c r="N122" s="5">
         <v>180</v>
       </c>
-      <c r="R122" s="26" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R122" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="123" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="12">
         <v>20099007</v>
       </c>
-      <c r="E123" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="F123" s="28"/>
+      <c r="E123" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="F123" s="26"/>
       <c r="G123" s="4">
         <v>1057</v>
       </c>
       <c r="L123" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M123" s="31" t="s">
-        <v>405</v>
+      <c r="M123" s="29" t="s">
+        <v>403</v>
       </c>
       <c r="N123" s="5">
         <v>180</v>
       </c>
-      <c r="R123" s="29"/>
-    </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:18">
+      <c r="R123" s="27"/>
+    </row>
+    <row r="124" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="12">
         <v>20099008</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F124" s="26"/>
+      <c r="L124" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M124" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="N124" s="5">
+        <v>0</v>
+      </c>
+      <c r="R124" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="F124" s="28"/>
-      <c r="L124" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M124" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="N124" s="5">
-        <v>0</v>
-      </c>
-      <c r="R124" s="29" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:18">
+    </row>
+    <row r="125" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="12">
         <v>20099009</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="F125" s="26"/>
+      <c r="L125" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M125" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="N125" s="5">
+        <v>0</v>
+      </c>
+      <c r="R125" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="F125" s="28"/>
-      <c r="L125" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M125" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="N125" s="5">
-        <v>0</v>
-      </c>
-      <c r="R125" s="29" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="126" ht="20.1" customHeight="1" spans="3:18">
+    </row>
+    <row r="126" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="12">
         <v>20099010</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F126" s="26"/>
+      <c r="L126" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M126" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0</v>
+      </c>
+      <c r="R126" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="F126" s="28"/>
-      <c r="L126" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M126" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="N126" s="5">
-        <v>0</v>
-      </c>
-      <c r="R126" s="29" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="127" ht="20.1" customHeight="1" spans="3:18">
+    </row>
+    <row r="127" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="12">
         <v>20099011</v>
       </c>
-      <c r="E127" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="F127" s="28"/>
+      <c r="E127" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="F127" s="26"/>
       <c r="J127" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L127" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M127" s="31" t="s">
-        <v>407</v>
+      <c r="M127" s="29" t="s">
+        <v>405</v>
       </c>
       <c r="N127" s="5">
         <v>0</v>
@@ -6923,27 +6313,27 @@
       <c r="O127" s="5">
         <v>13</v>
       </c>
-      <c r="P127" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="R127" s="29"/>
-    </row>
-    <row r="128" ht="20.1" customHeight="1" spans="3:18">
+      <c r="P127" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="R127" s="27"/>
+    </row>
+    <row r="128" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="12">
         <v>20099012</v>
       </c>
-      <c r="E128" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="F128" s="28"/>
+      <c r="E128" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="F128" s="26"/>
       <c r="J128" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L128" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M128" s="31" t="s">
-        <v>419</v>
+      <c r="M128" s="29" t="s">
+        <v>417</v>
       </c>
       <c r="N128" s="5">
         <v>0</v>
@@ -6951,27 +6341,27 @@
       <c r="O128" s="5">
         <v>13</v>
       </c>
-      <c r="P128" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="R128" s="29"/>
-    </row>
-    <row r="129" ht="20.1" customHeight="1" spans="3:18">
+      <c r="P128" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="R128" s="27"/>
+    </row>
+    <row r="129" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="12">
         <v>20099013</v>
       </c>
-      <c r="E129" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="F129" s="28"/>
+      <c r="E129" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F129" s="26"/>
       <c r="J129" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L129" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M129" s="31" t="s">
-        <v>421</v>
+      <c r="M129" s="29" t="s">
+        <v>419</v>
       </c>
       <c r="N129" s="5">
         <v>0</v>
@@ -6979,22 +6369,22 @@
       <c r="O129" s="5">
         <v>13</v>
       </c>
-      <c r="P129" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="R129" s="29"/>
-    </row>
-    <row r="130" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+      <c r="P129" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="R129" s="27"/>
+    </row>
+    <row r="130" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="30" t="s">
-        <v>424</v>
+      <c r="E130" s="28" t="s">
+        <v>422</v>
       </c>
       <c r="F130" s="5">
         <v>300001</v>
@@ -7013,30 +6403,30 @@
       <c r="L130" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M130" s="34" t="s">
-        <v>425</v>
+      <c r="M130" s="32" t="s">
+        <v>423</v>
       </c>
       <c r="N130" s="5">
         <v>0</v>
       </c>
       <c r="O130" s="5"/>
-      <c r="P130" s="25"/>
-      <c r="R130" s="27"/>
+      <c r="P130" s="23"/>
+      <c r="R130" s="25"/>
       <c r="U130" s="5"/>
       <c r="V130" s="5"/>
       <c r="W130" s="5"/>
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
     </row>
-    <row r="131" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="131" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D131" s="5"/>
-      <c r="E131" s="30" t="s">
-        <v>427</v>
+      <c r="E131" s="28" t="s">
+        <v>425</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4">
@@ -7053,30 +6443,30 @@
       <c r="L131" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M131" s="34" t="s">
-        <v>428</v>
+      <c r="M131" s="32" t="s">
+        <v>426</v>
       </c>
       <c r="N131" s="5">
         <v>90</v>
       </c>
       <c r="O131" s="5"/>
-      <c r="P131" s="25"/>
-      <c r="R131" s="27"/>
+      <c r="P131" s="23"/>
+      <c r="R131" s="25"/>
       <c r="U131" s="5"/>
       <c r="V131" s="5"/>
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
     </row>
-    <row r="132" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="132" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="30" t="s">
-        <v>430</v>
+      <c r="E132" s="28" t="s">
+        <v>428</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="4">
@@ -7093,29 +6483,29 @@
       <c r="L132" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M132" s="34" t="s">
+      <c r="M132" s="32" t="s">
         <v>206</v>
       </c>
       <c r="N132" s="5">
         <v>210</v>
       </c>
       <c r="O132" s="5"/>
-      <c r="R132" s="27"/>
+      <c r="R132" s="25"/>
       <c r="U132" s="5"/>
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="133" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D133" s="5"/>
-      <c r="E133" s="30" t="s">
-        <v>432</v>
+      <c r="E133" s="28" t="s">
+        <v>430</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="4">
@@ -7132,26 +6522,26 @@
       <c r="L133" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M133" s="34" t="s">
+      <c r="M133" s="32" t="s">
         <v>209</v>
       </c>
       <c r="N133" s="5">
         <v>0</v>
       </c>
       <c r="O133" s="5"/>
-      <c r="R133" s="27"/>
+      <c r="R133" s="25"/>
       <c r="U133" s="5"/>
       <c r="V133" s="5"/>
       <c r="W133" s="5"/>
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
     </row>
-    <row r="134" ht="20.1" customHeight="1" spans="3:14">
+    <row r="134" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>434</v>
+        <v>431</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>432</v>
       </c>
       <c r="G134" s="4">
         <v>1036</v>
@@ -7166,19 +6556,19 @@
       <c r="L134" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M134" s="34" t="s">
-        <v>435</v>
+      <c r="M134" s="32" t="s">
+        <v>433</v>
       </c>
       <c r="N134" s="5">
         <v>-100</v>
       </c>
     </row>
-    <row r="135" ht="20.1" customHeight="1" spans="3:14">
+    <row r="135" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>437</v>
+        <v>434</v>
+      </c>
+      <c r="E135" s="28" t="s">
+        <v>435</v>
       </c>
       <c r="G135" s="4">
         <v>1032</v>
@@ -7193,19 +6583,19 @@
       <c r="L135" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M135" s="34" t="s">
-        <v>438</v>
+      <c r="M135" s="32" t="s">
+        <v>436</v>
       </c>
       <c r="N135" s="5">
         <v>123</v>
       </c>
     </row>
-    <row r="136" ht="20.1" customHeight="1" spans="3:14">
+    <row r="136" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="E136" s="30" t="s">
-        <v>440</v>
+        <v>437</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>438</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7220,19 +6610,19 @@
       <c r="L136" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M136" s="34" t="s">
-        <v>441</v>
+      <c r="M136" s="32" t="s">
+        <v>439</v>
       </c>
       <c r="N136" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="137" ht="20.1" customHeight="1" spans="3:14">
+    <row r="137" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="E137" s="30" t="s">
         <v>440</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>438</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7247,19 +6637,19 @@
       <c r="L137" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M137" s="34" t="s">
-        <v>443</v>
+      <c r="M137" s="32" t="s">
+        <v>441</v>
       </c>
       <c r="N137" s="5">
         <v>270</v>
       </c>
     </row>
-    <row r="138" ht="20.1" customHeight="1" spans="3:14">
+    <row r="138" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>445</v>
+        <v>442</v>
+      </c>
+      <c r="E138" s="28" t="s">
+        <v>443</v>
       </c>
       <c r="G138" s="4">
         <v>1037</v>
@@ -7274,19 +6664,19 @@
       <c r="L138" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M138" s="34" t="s">
-        <v>446</v>
+      <c r="M138" s="32" t="s">
+        <v>444</v>
       </c>
       <c r="N138" s="5">
         <v>-90</v>
       </c>
     </row>
-    <row r="139" ht="20.1" customHeight="1" spans="3:14">
+    <row r="139" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="E139" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>446</v>
       </c>
       <c r="G139" s="4">
         <v>1038</v>
@@ -7301,19 +6691,19 @@
       <c r="L139" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M139" s="34" t="s">
-        <v>449</v>
+      <c r="M139" s="32" t="s">
+        <v>447</v>
       </c>
       <c r="N139" s="5">
         <v>-150</v>
       </c>
     </row>
-    <row r="140" ht="20.1" customHeight="1" spans="3:15">
+    <row r="140" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="E140" s="30" t="s">
-        <v>451</v>
+        <v>448</v>
+      </c>
+      <c r="E140" s="28" t="s">
+        <v>449</v>
       </c>
       <c r="G140" s="4">
         <v>1047</v>
@@ -7328,23 +6718,23 @@
       <c r="L140" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M140" s="34" t="s">
-        <v>452</v>
+      <c r="M140" s="32" t="s">
+        <v>450</v>
       </c>
       <c r="N140" s="4">
         <v>90</v>
       </c>
       <c r="O140" s="4"/>
     </row>
-    <row r="141" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:25">
+    <row r="141" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D141" s="5"/>
-      <c r="E141" s="30" t="s">
-        <v>454</v>
+      <c r="E141" s="28" t="s">
+        <v>452</v>
       </c>
       <c r="F141" s="5">
         <v>400001</v>
@@ -7363,8 +6753,8 @@
       <c r="L141" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M141" s="34" t="s">
-        <v>455</v>
+      <c r="M141" s="32" t="s">
+        <v>453</v>
       </c>
       <c r="N141" s="5">
         <v>110</v>
@@ -7376,12 +6766,12 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
     </row>
-    <row r="142" ht="20.1" customHeight="1" spans="3:14">
+    <row r="142" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="E142" s="30" t="s">
-        <v>457</v>
+        <v>454</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>455</v>
       </c>
       <c r="G142" s="4">
         <v>1049</v>
@@ -7396,19 +6786,19 @@
       <c r="L142" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M142" s="34" t="s">
-        <v>458</v>
+      <c r="M142" s="32" t="s">
+        <v>456</v>
       </c>
       <c r="N142" s="5">
         <v>173</v>
       </c>
     </row>
-    <row r="143" ht="20.1" customHeight="1" spans="3:14">
+    <row r="143" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="E143" s="30" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>458</v>
       </c>
       <c r="G143" s="4">
         <v>1051</v>
@@ -7423,19 +6813,19 @@
       <c r="L143" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M143" s="34" t="s">
-        <v>461</v>
+      <c r="M143" s="32" t="s">
+        <v>459</v>
       </c>
       <c r="N143" s="5">
         <v>235</v>
       </c>
     </row>
-    <row r="144" ht="20.1" customHeight="1" spans="3:14">
+    <row r="144" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="E144" s="30" t="s">
-        <v>463</v>
+        <v>460</v>
+      </c>
+      <c r="E144" s="28" t="s">
+        <v>461</v>
       </c>
       <c r="G144" s="4">
         <v>1053</v>
@@ -7450,19 +6840,19 @@
       <c r="L144" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M144" s="34" t="s">
-        <v>464</v>
+      <c r="M144" s="32" t="s">
+        <v>462</v>
       </c>
       <c r="N144" s="5">
         <v>175</v>
       </c>
     </row>
-    <row r="145" ht="20.1" customHeight="1" spans="3:14">
+    <row r="145" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="E145" s="30" t="s">
-        <v>466</v>
+        <v>463</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="G145" s="4">
         <v>1054</v>
@@ -7477,19 +6867,19 @@
       <c r="L145" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M145" s="34" t="s">
-        <v>467</v>
+      <c r="M145" s="32" t="s">
+        <v>465</v>
       </c>
       <c r="N145" s="5">
         <v>175</v>
       </c>
     </row>
-    <row r="146" ht="20.1" customHeight="1" spans="3:14">
+    <row r="146" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="E146" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>467</v>
       </c>
       <c r="G146" s="4">
         <v>1054</v>
@@ -7504,19 +6894,19 @@
       <c r="L146" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M146" s="34" t="s">
-        <v>470</v>
+      <c r="M146" s="32" t="s">
+        <v>468</v>
       </c>
       <c r="N146" s="5">
         <v>175</v>
       </c>
     </row>
-    <row r="147" ht="20.1" customHeight="1" spans="3:14">
+    <row r="147" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>470</v>
       </c>
       <c r="G147" s="4">
         <v>10</v>
@@ -7531,31 +6921,31 @@
       <c r="L147" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M147" s="34" t="s">
-        <v>473</v>
+      <c r="M147" s="32" t="s">
+        <v>471</v>
       </c>
       <c r="N147" s="5">
         <v>175</v>
       </c>
     </row>
-    <row r="148" ht="20.1" customHeight="1"/>
-    <row r="149" ht="20.1" customHeight="1"/>
-    <row r="150" ht="20.1" customHeight="1"/>
-    <row r="151" ht="20.1" customHeight="1"/>
-    <row r="152" ht="20.1" customHeight="1"/>
-    <row r="153" ht="20.1" customHeight="1"/>
-    <row r="154" ht="20.1" customHeight="1"/>
-    <row r="155" ht="20.1" customHeight="1"/>
-    <row r="156" ht="20.1" customHeight="1"/>
-    <row r="157" ht="20.1" customHeight="1"/>
-    <row r="158" ht="20.1" customHeight="1"/>
-    <row r="159" ht="20.1" customHeight="1"/>
-    <row r="160" ht="20.1" customHeight="1"/>
-    <row r="161" ht="20.1" customHeight="1"/>
+    <row r="148" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB6AAA-F475-42BE-8822-78DE7CDC34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7220CA-63EB-4EDB-851D-7077205EB1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="475">
   <si>
     <t>#</t>
   </si>
@@ -672,9 +672,6 @@
   </si>
   <si>
     <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>卫兵</t>
   </si>
   <si>
     <t>20000001</t>
@@ -1951,6 +1948,14 @@
   </si>
   <si>
     <t>30020118,30020119,30020120,30020121,30020122,30020123,30020124</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-507,1,-735</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>安森</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1958,7 +1963,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2054,6 +2059,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2138,7 +2151,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2239,6 +2252,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2549,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2800,8 +2819,8 @@
       <c r="C6" s="12">
         <v>10001</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
+      <c r="E6" s="37" t="s">
+        <v>474</v>
       </c>
       <c r="F6" s="12"/>
       <c r="H6" s="4">
@@ -2811,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>473</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
@@ -2826,7 +2845,7 @@
         <v>10002</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="12"/>
       <c r="H7" s="4">
@@ -2836,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -2851,7 +2870,7 @@
         <v>10003</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="12"/>
       <c r="H8" s="4">
@@ -2861,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -2876,7 +2895,7 @@
         <v>10004</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="12"/>
       <c r="H9" s="4">
@@ -2886,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -2895,18 +2914,18 @@
         <v>0</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="12">
         <v>200001</v>
@@ -2921,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="5">
         <v>-90</v>
@@ -2933,10 +2952,10 @@
     </row>
     <row r="11" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="F11" s="12">
         <v>10001201</v>
@@ -2951,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" s="5">
         <v>-280</v>
@@ -2963,10 +2982,10 @@
     </row>
     <row r="12" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="4">
@@ -2979,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N12" s="5">
         <v>-180</v>
@@ -2991,10 +3010,10 @@
     </row>
     <row r="13" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="4">
@@ -3007,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="5">
         <v>-280</v>
@@ -3019,11 +3038,11 @@
     </row>
     <row r="14" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17">
@@ -3037,10 +3056,10 @@
       </c>
       <c r="J14" s="21"/>
       <c r="L14" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="15">
         <v>-180</v>
@@ -3049,7 +3068,7 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -3061,10 +3080,10 @@
     </row>
     <row r="15" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G15" s="4">
         <v>1005</v>
@@ -3076,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="4">
         <v>-180</v>
@@ -3088,16 +3107,16 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17">
@@ -3111,10 +3130,10 @@
       </c>
       <c r="J16" s="21"/>
       <c r="L16" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" s="15">
         <v>-90</v>
@@ -3123,7 +3142,7 @@
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -3135,11 +3154,11 @@
     </row>
     <row r="17" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17">
@@ -3153,10 +3172,10 @@
       </c>
       <c r="J17" s="21"/>
       <c r="L17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N17" s="15">
         <v>90</v>
@@ -3165,7 +3184,7 @@
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -3177,10 +3196,10 @@
     </row>
     <row r="18" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="4">
@@ -3193,24 +3212,24 @@
         <v>0</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="4">
@@ -3223,24 +3242,24 @@
         <v>0</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N19" s="5">
         <v>-270</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="4">
@@ -3253,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" s="5">
         <v>45</v>
@@ -3265,13 +3284,13 @@
     </row>
     <row r="21" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G21" s="4">
         <v>1007</v>
@@ -3283,27 +3302,27 @@
         <v>0</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N21" s="5">
         <v>90</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="G22" s="4">
         <v>1006</v>
@@ -3315,27 +3334,27 @@
         <v>0</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N22" s="5">
         <v>90</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="G23" s="4">
         <v>1008</v>
@@ -3347,24 +3366,24 @@
         <v>0</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N23" s="5">
         <v>225</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="G24" s="4">
         <v>1002</v>
@@ -3376,24 +3395,24 @@
         <v>0</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
@@ -3405,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N25" s="5">
         <v>-90</v>
@@ -3417,10 +3436,10 @@
     </row>
     <row r="26" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G26" s="4">
         <v>1014</v>
@@ -3432,24 +3451,24 @@
         <v>0</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N26" s="5">
         <v>180</v>
       </c>
       <c r="R26" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F27" s="5">
         <v>4</v>
@@ -3464,24 +3483,24 @@
         <v>0</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N27" s="5">
         <v>180</v>
       </c>
       <c r="R27" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -3496,10 +3515,10 @@
         <v>52</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N28" s="5">
         <v>90</v>
@@ -3508,10 +3527,10 @@
     </row>
     <row r="29" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -3526,10 +3545,10 @@
         <v>53</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N29" s="5">
         <v>90</v>
@@ -3538,10 +3557,10 @@
     </row>
     <row r="30" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -3556,10 +3575,10 @@
         <v>54</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N30" s="5">
         <v>90</v>
@@ -3568,10 +3587,10 @@
     </row>
     <row r="31" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="F31" s="12">
         <v>100001</v>
@@ -3580,16 +3599,16 @@
         <v>1012</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" s="32" t="s">
         <v>130</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M31" s="32" t="s">
-        <v>131</v>
       </c>
       <c r="N31" s="5">
         <v>-110</v>
@@ -3598,10 +3617,10 @@
     </row>
     <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F32" s="5">
         <v>5</v>
@@ -3616,53 +3635,53 @@
         <v>0</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N32" s="5">
         <v>-30</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="G33" s="4">
         <v>3</v>
       </c>
       <c r="H33" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="N33" s="5">
         <v>180</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F34" s="18">
         <v>0</v>
@@ -3671,24 +3690,24 @@
         <v>1024</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N34" s="5">
         <v>-30</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="F35" s="5">
         <v>6</v>
@@ -3703,24 +3722,24 @@
         <v>0</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N35" s="5">
         <v>-144</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G36" s="4">
         <v>2</v>
@@ -3729,24 +3748,24 @@
         <v>2000001</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N36" s="5">
         <v>-180</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="G37" s="4">
         <v>2</v>
@@ -3755,72 +3774,72 @@
         <v>2000002</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N37" s="5">
         <v>90</v>
       </c>
       <c r="R37" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="G38" s="4">
         <v>1027</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N38" s="5">
         <v>90</v>
       </c>
       <c r="P38" s="23"/>
       <c r="R38" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="G39" s="4">
         <v>1028</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N39" s="5">
         <v>129</v>
       </c>
       <c r="P39" s="23"/>
       <c r="R39" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -3835,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N40" s="5">
         <v>180</v>
@@ -3847,26 +3866,26 @@
     </row>
     <row r="41" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="4">
         <v>1030</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N41" s="5">
         <v>0</v>
@@ -3875,103 +3894,103 @@
     </row>
     <row r="42" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="4">
         <v>6</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N42" s="5">
         <v>270</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="4">
         <v>7</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N43" s="5">
         <v>-146</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="4">
         <v>2</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M44" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="N44" s="5">
         <v>-146</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="F45" s="12">
         <v>50000001</v>
@@ -3986,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M45" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N45" s="5">
         <v>106</v>
@@ -3998,10 +4017,10 @@
     </row>
     <row r="46" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="F46" s="12">
         <v>0</v>
@@ -4016,56 +4035,56 @@
         <v>0</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N46" s="5">
         <v>-90</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M47" s="29" t="s">
         <v>190</v>
-      </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>191</v>
       </c>
       <c r="N47" s="5">
         <v>90</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="F48" s="12">
         <v>60000001</v>
@@ -4080,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N48" s="5">
         <v>180</v>
@@ -4092,10 +4111,10 @@
     </row>
     <row r="49" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="F49" s="12">
         <v>0</v>
@@ -4110,50 +4129,50 @@
         <v>0</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N49" s="5">
         <v>-90</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G50" s="4">
         <v>1050</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N50" s="5">
         <v>90</v>
       </c>
       <c r="R50" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" s="12">
         <v>0</v>
@@ -4170,10 +4189,10 @@
       <c r="J51" s="6"/>
       <c r="K51" s="3"/>
       <c r="L51" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N51" s="5">
         <v>90</v>
@@ -4190,11 +4209,11 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F52" s="12">
         <v>0</v>
@@ -4211,17 +4230,17 @@
       <c r="J52" s="6"/>
       <c r="K52" s="3"/>
       <c r="L52" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N52" s="5">
         <v>-140</v>
       </c>
       <c r="O52" s="5"/>
       <c r="R52" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
@@ -4233,11 +4252,11 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F53" s="12">
         <v>0</v>
@@ -4254,10 +4273,10 @@
       <c r="J53" s="6"/>
       <c r="K53" s="3"/>
       <c r="L53" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N53" s="5">
         <v>90</v>
@@ -4274,11 +4293,11 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F54" s="12">
         <v>0</v>
@@ -4295,10 +4314,10 @@
       <c r="J54" s="6"/>
       <c r="K54" s="3"/>
       <c r="L54" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N54" s="5">
         <v>-180</v>
@@ -4315,11 +4334,11 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F55" s="12">
         <v>0</v>
@@ -4336,10 +4355,10 @@
       <c r="J55" s="6"/>
       <c r="K55" s="3"/>
       <c r="L55" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N55" s="5">
         <v>30</v>
@@ -4356,11 +4375,11 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F56" s="12">
         <v>0</v>
@@ -4377,10 +4396,10 @@
       <c r="J56" s="6"/>
       <c r="K56" s="3"/>
       <c r="L56" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N56" s="5">
         <v>130</v>
@@ -4395,10 +4414,10 @@
     </row>
     <row r="57" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="F57" s="12">
         <v>10001101</v>
@@ -4407,16 +4426,16 @@
         <v>1009</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M57" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N57" s="5">
         <v>60</v>
@@ -4428,7 +4447,7 @@
         <v>20001002</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F58" s="12">
         <v>10001201</v>
@@ -4437,16 +4456,16 @@
         <v>1009</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N58" s="5">
         <v>-45</v>
@@ -4458,26 +4477,26 @@
         <v>20001003</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F59" s="12"/>
       <c r="H59" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="N59" s="5">
         <v>180</v>
       </c>
       <c r="R59" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4485,26 +4504,26 @@
         <v>20001004</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F60" s="12"/>
       <c r="H60" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M60" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N60" s="5">
         <v>90</v>
       </c>
       <c r="R60" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4512,26 +4531,26 @@
         <v>20001005</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" s="12"/>
       <c r="H61" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N61" s="5">
         <v>-45</v>
       </c>
       <c r="R61" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4539,26 +4558,26 @@
         <v>20001006</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F62" s="12"/>
       <c r="H62" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L62" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M62" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N62" s="5">
         <v>45</v>
       </c>
       <c r="R62" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4566,26 +4585,26 @@
         <v>20001007</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" s="12"/>
       <c r="H63" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M63" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M63" s="29" t="s">
-        <v>242</v>
       </c>
       <c r="N63" s="5">
         <v>150</v>
       </c>
       <c r="R63" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4593,26 +4612,26 @@
         <v>20001008</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F64" s="12"/>
       <c r="H64" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M64" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N64" s="5">
         <v>-155</v>
       </c>
       <c r="R64" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4620,26 +4639,26 @@
         <v>20001009</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F65" s="12"/>
       <c r="H65" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M65" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M65" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="N65" s="5">
         <v>35</v>
       </c>
       <c r="R65" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4647,26 +4666,26 @@
         <v>20001010</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F66" s="12"/>
       <c r="H66" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M66" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N66" s="5">
         <v>180</v>
       </c>
       <c r="R66" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4674,26 +4693,26 @@
         <v>20001011</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F67" s="12"/>
       <c r="H67" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M67" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="N67" s="5">
         <v>-180</v>
       </c>
       <c r="R67" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4701,26 +4720,26 @@
         <v>20001012</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F68" s="12"/>
       <c r="H68" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M68" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L68" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="N68" s="5">
         <v>80</v>
       </c>
       <c r="R68" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4728,26 +4747,26 @@
         <v>20001013</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F69" s="12"/>
       <c r="H69" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M69" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L69" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="N69" s="5">
         <v>180</v>
       </c>
       <c r="R69" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4755,26 +4774,26 @@
         <v>20001014</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F70" s="12"/>
       <c r="H70" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M70" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L70" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="N70" s="5">
         <v>180</v>
       </c>
       <c r="R70" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4782,26 +4801,26 @@
         <v>20001015</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F71" s="12"/>
       <c r="H71" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M71" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="N71" s="5">
         <v>128</v>
       </c>
       <c r="R71" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4809,26 +4828,26 @@
         <v>20001016</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F72" s="12"/>
       <c r="H72" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N72" s="5">
         <v>180</v>
       </c>
       <c r="R72" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4836,26 +4855,26 @@
         <v>20001017</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F73" s="12"/>
       <c r="H73" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M73" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L73" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="N73" s="5">
         <v>120</v>
       </c>
       <c r="R73" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4863,27 +4882,27 @@
         <v>20001018</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F74" s="12"/>
       <c r="H74" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J74" s="4"/>
       <c r="L74" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N74" s="5">
         <v>180</v>
       </c>
       <c r="R74" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4891,26 +4910,26 @@
         <v>20001019</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F75" s="12"/>
       <c r="H75" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M75" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L75" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="N75" s="5">
         <v>-180</v>
       </c>
       <c r="R75" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4918,26 +4937,26 @@
         <v>20001020</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F76" s="12"/>
       <c r="H76" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N76" s="5">
         <v>180</v>
       </c>
       <c r="R76" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4945,26 +4964,26 @@
         <v>20001021</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F77" s="12"/>
       <c r="H77" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L77" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N77" s="5">
         <v>-180</v>
       </c>
       <c r="R77" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4972,26 +4991,26 @@
         <v>20001022</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F78" s="12"/>
       <c r="H78" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M78" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="N78" s="5">
         <v>-106</v>
       </c>
       <c r="R78" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4999,23 +5018,23 @@
         <v>20001023</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="4">
         <v>1004</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L79" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N79" s="5">
         <v>180</v>
@@ -5027,20 +5046,20 @@
         <v>20001024</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F80" s="12"/>
       <c r="H80" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L80" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N80" s="5">
         <v>-152</v>
@@ -5049,10 +5068,10 @@
     </row>
     <row r="81" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F81" s="12">
         <v>10002101</v>
@@ -5061,16 +5080,16 @@
         <v>1009</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L81" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N81" s="5">
         <v>-147</v>
@@ -5079,10 +5098,10 @@
     </row>
     <row r="82" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F82" s="12">
         <v>10002201</v>
@@ -5091,16 +5110,16 @@
         <v>1009</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N82" s="5">
         <v>-129</v>
@@ -5109,199 +5128,199 @@
     </row>
     <row r="83" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="F83" s="12"/>
       <c r="H83" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M83" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L83" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="N83" s="5">
         <v>-131</v>
       </c>
       <c r="R83" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="F84" s="12"/>
       <c r="H84" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L84" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="N84" s="5">
         <v>180</v>
       </c>
       <c r="R84" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="F85" s="12"/>
       <c r="H85" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N85" s="5">
         <v>180</v>
       </c>
       <c r="R85" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="F86" s="12"/>
       <c r="H86" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L86" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N86" s="5">
         <v>180</v>
       </c>
       <c r="R86" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F87" s="12"/>
       <c r="H87" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L87" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N87" s="5">
         <v>180</v>
       </c>
       <c r="R87" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F88" s="12"/>
       <c r="H88" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N88" s="5">
         <v>180</v>
       </c>
       <c r="R88" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F89" s="12"/>
       <c r="H89" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L89" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N89" s="5">
         <v>27</v>
       </c>
       <c r="R89" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F90" s="12">
         <v>10003101</v>
@@ -5310,16 +5329,16 @@
         <v>1009</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N90" s="5">
         <v>123</v>
@@ -5328,10 +5347,10 @@
     </row>
     <row r="91" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F91" s="12">
         <v>10003201</v>
@@ -5340,16 +5359,16 @@
         <v>1009</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L91" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N91" s="5">
         <v>45</v>
@@ -5358,226 +5377,226 @@
     </row>
     <row r="92" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>322</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>323</v>
       </c>
       <c r="F92" s="12"/>
       <c r="H92" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M92" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L92" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="N92" s="5">
         <v>90</v>
       </c>
       <c r="R92" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>326</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>327</v>
       </c>
       <c r="F93" s="12"/>
       <c r="H93" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M93" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L93" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="N93" s="5">
         <v>180</v>
       </c>
       <c r="R93" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>331</v>
       </c>
       <c r="F94" s="12"/>
       <c r="H94" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M94" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L94" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="N94" s="5">
         <v>95</v>
       </c>
       <c r="R94" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F95" s="12"/>
       <c r="H95" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L95" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N95" s="5">
         <v>-70</v>
       </c>
       <c r="R95" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F96" s="12"/>
       <c r="H96" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L96" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N96" s="5">
         <v>180</v>
       </c>
       <c r="R96" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F97" s="12"/>
       <c r="H97" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L97" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N97" s="5">
         <v>180</v>
       </c>
       <c r="R97" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="F98" s="12"/>
       <c r="H98" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M98" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L98" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="N98" s="5">
         <v>-70</v>
       </c>
       <c r="R98" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>343</v>
       </c>
       <c r="F99" s="12"/>
       <c r="H99" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M99" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L99" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="N99" s="5">
         <v>-180</v>
       </c>
       <c r="R99" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F100" s="12">
         <v>10004101</v>
@@ -5586,16 +5605,16 @@
         <v>1009</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L100" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N100" s="5">
         <v>35</v>
@@ -5604,10 +5623,10 @@
     </row>
     <row r="101" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F101" s="12">
         <v>10004201</v>
@@ -5616,16 +5635,16 @@
         <v>1009</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L101" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N101" s="5">
         <v>-41</v>
@@ -5634,199 +5653,199 @@
     </row>
     <row r="102" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L102" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M102" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="I102" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="N102" s="5">
         <v>0</v>
       </c>
       <c r="R102" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="F103" s="12"/>
       <c r="H103" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L103" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M103" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L103" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M103" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="N103" s="5">
         <v>101</v>
       </c>
       <c r="R103" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>359</v>
       </c>
       <c r="F104" s="12"/>
       <c r="H104" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M104" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L104" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="N104" s="5">
         <v>-3</v>
       </c>
       <c r="R104" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F105" s="12"/>
       <c r="H105" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N105" s="5">
         <v>180</v>
       </c>
       <c r="R105" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F106" s="12"/>
       <c r="H106" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L106" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N106" s="5">
         <v>180</v>
       </c>
       <c r="R106" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="F107" s="12"/>
       <c r="H107" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M107" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L107" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="N107" s="5">
         <v>-180</v>
       </c>
       <c r="R107" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>369</v>
       </c>
       <c r="F108" s="12"/>
       <c r="H108" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M108" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L108" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="N108" s="5">
         <v>83</v>
       </c>
       <c r="R108" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F109" s="12">
         <v>10005101</v>
@@ -5835,16 +5854,16 @@
         <v>1009</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L109" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N109" s="5">
         <v>51</v>
@@ -5853,10 +5872,10 @@
     </row>
     <row r="110" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F110" s="12">
         <v>10005201</v>
@@ -5865,16 +5884,16 @@
         <v>1009</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L110" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N110" s="5">
         <v>-44</v>
@@ -5883,164 +5902,164 @@
     </row>
     <row r="111" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>376</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M111" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L111" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="N111" s="5">
         <v>180</v>
       </c>
       <c r="R111" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E112" s="12" t="s">
         <v>379</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="F112" s="12"/>
       <c r="H112" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M112" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L112" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="N112" s="5">
         <v>92</v>
       </c>
       <c r="R112" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="E113" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="F113" s="12"/>
       <c r="H113" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L113" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N113" s="5">
         <v>180</v>
       </c>
       <c r="R113" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E114" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="F114" s="12"/>
       <c r="H114" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M114" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L114" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="N114" s="5">
         <v>145</v>
       </c>
       <c r="R114" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F115" s="12"/>
       <c r="H115" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L115" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N115" s="5">
         <v>180</v>
       </c>
       <c r="R115" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F116" s="12"/>
       <c r="H116" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L116" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N116" s="5">
         <v>180</v>
       </c>
       <c r="R116" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6048,26 +6067,26 @@
         <v>20099001</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F117" s="12"/>
       <c r="H117" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L117" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N117" s="5">
         <v>180</v>
       </c>
       <c r="R117" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6075,26 +6094,26 @@
         <v>20099002</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F118" s="12"/>
       <c r="H118" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L118" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N118" s="5">
         <v>180</v>
       </c>
       <c r="R118" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6102,26 +6121,26 @@
         <v>20099003</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F119" s="12"/>
       <c r="H119" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L119" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N119" s="5">
         <v>180</v>
       </c>
       <c r="R119" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6129,26 +6148,26 @@
         <v>20099004</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F120" s="12"/>
       <c r="H120" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L120" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N120" s="5">
         <v>180</v>
       </c>
       <c r="R120" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6156,26 +6175,26 @@
         <v>20099005</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F121" s="12"/>
       <c r="H121" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L121" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N121" s="5">
         <v>180</v>
       </c>
       <c r="R121" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6183,26 +6202,26 @@
         <v>20099006</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F122" s="12"/>
       <c r="H122" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L122" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N122" s="5">
         <v>180</v>
       </c>
       <c r="R122" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6210,17 +6229,17 @@
         <v>20099007</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F123" s="26"/>
       <c r="G123" s="4">
         <v>1057</v>
       </c>
       <c r="L123" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M123" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N123" s="5">
         <v>180</v>
@@ -6232,20 +6251,20 @@
         <v>20099008</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F124" s="26"/>
       <c r="L124" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M124" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="N124" s="5">
+        <v>0</v>
+      </c>
+      <c r="R124" s="27" t="s">
         <v>405</v>
-      </c>
-      <c r="N124" s="5">
-        <v>0</v>
-      </c>
-      <c r="R124" s="27" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="125" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6253,20 +6272,20 @@
         <v>20099009</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F125" s="26"/>
       <c r="L125" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M125" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="N125" s="5">
+        <v>0</v>
+      </c>
+      <c r="R125" s="27" t="s">
         <v>408</v>
-      </c>
-      <c r="N125" s="5">
-        <v>0</v>
-      </c>
-      <c r="R125" s="27" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="126" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6274,20 +6293,20 @@
         <v>20099010</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F126" s="26"/>
       <c r="L126" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M126" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0</v>
+      </c>
+      <c r="R126" s="27" t="s">
         <v>411</v>
-      </c>
-      <c r="N126" s="5">
-        <v>0</v>
-      </c>
-      <c r="R126" s="27" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="127" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6295,17 +6314,17 @@
         <v>20099011</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F127" s="26"/>
       <c r="J127" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M127" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N127" s="5">
         <v>0</v>
@@ -6314,7 +6333,7 @@
         <v>13</v>
       </c>
       <c r="P127" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R127" s="27"/>
     </row>
@@ -6323,17 +6342,17 @@
         <v>20099012</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F128" s="26"/>
       <c r="J128" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L128" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M128" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N128" s="5">
         <v>0</v>
@@ -6342,7 +6361,7 @@
         <v>13</v>
       </c>
       <c r="P128" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R128" s="27"/>
     </row>
@@ -6351,17 +6370,17 @@
         <v>20099013</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F129" s="26"/>
       <c r="J129" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L129" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M129" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N129" s="5">
         <v>0</v>
@@ -6370,21 +6389,21 @@
         <v>13</v>
       </c>
       <c r="P129" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R129" s="27"/>
     </row>
     <row r="130" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F130" s="5">
         <v>300001</v>
@@ -6401,10 +6420,10 @@
       <c r="J130" s="4"/>
       <c r="K130" s="3"/>
       <c r="L130" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M130" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N130" s="5">
         <v>0</v>
@@ -6422,11 +6441,11 @@
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="4">
@@ -6441,10 +6460,10 @@
       <c r="J131" s="4"/>
       <c r="K131" s="3"/>
       <c r="L131" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M131" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N131" s="5">
         <v>90</v>
@@ -6462,11 +6481,11 @@
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="4">
@@ -6481,10 +6500,10 @@
       <c r="J132" s="4"/>
       <c r="K132" s="3"/>
       <c r="L132" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M132" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N132" s="5">
         <v>210</v>
@@ -6501,11 +6520,11 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="4">
@@ -6520,10 +6539,10 @@
       <c r="J133" s="4"/>
       <c r="K133" s="3"/>
       <c r="L133" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M133" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N133" s="5">
         <v>0</v>
@@ -6538,10 +6557,10 @@
     </row>
     <row r="134" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="E134" s="28" t="s">
         <v>431</v>
-      </c>
-      <c r="E134" s="28" t="s">
-        <v>432</v>
       </c>
       <c r="G134" s="4">
         <v>1036</v>
@@ -6554,10 +6573,10 @@
       </c>
       <c r="J134" s="4"/>
       <c r="L134" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M134" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N134" s="5">
         <v>-100</v>
@@ -6565,10 +6584,10 @@
     </row>
     <row r="135" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E135" s="28" t="s">
         <v>434</v>
-      </c>
-      <c r="E135" s="28" t="s">
-        <v>435</v>
       </c>
       <c r="G135" s="4">
         <v>1032</v>
@@ -6581,10 +6600,10 @@
       </c>
       <c r="J135" s="4"/>
       <c r="L135" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N135" s="5">
         <v>123</v>
@@ -6592,10 +6611,10 @@
     </row>
     <row r="136" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E136" s="28" t="s">
         <v>437</v>
-      </c>
-      <c r="E136" s="28" t="s">
-        <v>438</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -6608,10 +6627,10 @@
       </c>
       <c r="J136" s="4"/>
       <c r="L136" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M136" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N136" s="5">
         <v>90</v>
@@ -6619,10 +6638,10 @@
     </row>
     <row r="137" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -6635,10 +6654,10 @@
       </c>
       <c r="J137" s="4"/>
       <c r="L137" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M137" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N137" s="5">
         <v>270</v>
@@ -6646,10 +6665,10 @@
     </row>
     <row r="138" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E138" s="28" t="s">
         <v>442</v>
-      </c>
-      <c r="E138" s="28" t="s">
-        <v>443</v>
       </c>
       <c r="G138" s="4">
         <v>1037</v>
@@ -6662,10 +6681,10 @@
       </c>
       <c r="J138" s="4"/>
       <c r="L138" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M138" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N138" s="5">
         <v>-90</v>
@@ -6673,10 +6692,10 @@
     </row>
     <row r="139" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E139" s="28" t="s">
         <v>445</v>
-      </c>
-      <c r="E139" s="28" t="s">
-        <v>446</v>
       </c>
       <c r="G139" s="4">
         <v>1038</v>
@@ -6689,10 +6708,10 @@
       </c>
       <c r="J139" s="4"/>
       <c r="L139" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M139" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N139" s="5">
         <v>-150</v>
@@ -6700,10 +6719,10 @@
     </row>
     <row r="140" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E140" s="28" t="s">
         <v>448</v>
-      </c>
-      <c r="E140" s="28" t="s">
-        <v>449</v>
       </c>
       <c r="G140" s="4">
         <v>1047</v>
@@ -6716,10 +6735,10 @@
       </c>
       <c r="J140" s="4"/>
       <c r="L140" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M140" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N140" s="4">
         <v>90</v>
@@ -6730,11 +6749,11 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F141" s="5">
         <v>400001</v>
@@ -6751,10 +6770,10 @@
       <c r="J141" s="4"/>
       <c r="K141" s="3"/>
       <c r="L141" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M141" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N141" s="5">
         <v>110</v>
@@ -6768,10 +6787,10 @@
     </row>
     <row r="142" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E142" s="28" t="s">
         <v>454</v>
-      </c>
-      <c r="E142" s="28" t="s">
-        <v>455</v>
       </c>
       <c r="G142" s="4">
         <v>1049</v>
@@ -6784,10 +6803,10 @@
       </c>
       <c r="J142" s="4"/>
       <c r="L142" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N142" s="5">
         <v>173</v>
@@ -6795,10 +6814,10 @@
     </row>
     <row r="143" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E143" s="28" t="s">
         <v>457</v>
-      </c>
-      <c r="E143" s="28" t="s">
-        <v>458</v>
       </c>
       <c r="G143" s="4">
         <v>1051</v>
@@ -6811,10 +6830,10 @@
       </c>
       <c r="J143" s="4"/>
       <c r="L143" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N143" s="5">
         <v>235</v>
@@ -6822,10 +6841,10 @@
     </row>
     <row r="144" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E144" s="28" t="s">
         <v>460</v>
-      </c>
-      <c r="E144" s="28" t="s">
-        <v>461</v>
       </c>
       <c r="G144" s="4">
         <v>1053</v>
@@ -6838,10 +6857,10 @@
       </c>
       <c r="J144" s="4"/>
       <c r="L144" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M144" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N144" s="5">
         <v>175</v>
@@ -6849,10 +6868,10 @@
     </row>
     <row r="145" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E145" s="28" t="s">
         <v>463</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>464</v>
       </c>
       <c r="G145" s="4">
         <v>1054</v>
@@ -6865,10 +6884,10 @@
       </c>
       <c r="J145" s="4"/>
       <c r="L145" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M145" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N145" s="5">
         <v>175</v>
@@ -6876,10 +6895,10 @@
     </row>
     <row r="146" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E146" s="28" t="s">
         <v>466</v>
-      </c>
-      <c r="E146" s="28" t="s">
-        <v>467</v>
       </c>
       <c r="G146" s="4">
         <v>1054</v>
@@ -6892,10 +6911,10 @@
       </c>
       <c r="J146" s="4"/>
       <c r="L146" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M146" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N146" s="5">
         <v>175</v>
@@ -6903,10 +6922,10 @@
     </row>
     <row r="147" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E147" s="28" t="s">
         <v>469</v>
-      </c>
-      <c r="E147" s="28" t="s">
-        <v>470</v>
       </c>
       <c r="G147" s="4">
         <v>10</v>
@@ -6919,10 +6938,10 @@
       </c>
       <c r="J147" s="4"/>
       <c r="L147" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M147" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N147" s="5">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7220CA-63EB-4EDB-851D-7077205EB1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD98C45-DE95-46D4-8385-8C18B894CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="475">
   <si>
     <t>#</t>
   </si>
@@ -2569,7 +2569,7 @@
   <dimension ref="A1:Y161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2829,8 +2829,8 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>48</v>
+      <c r="L6" s="12">
+        <v>10001</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>473</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD98C45-DE95-46D4-8385-8C18B894CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD123CE1-0727-4C98-927D-B1A985591EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,6 +53,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为0：</t>
@@ -59,6 +62,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,6 +74,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为1：</t>
@@ -78,6 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,6 +99,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为2：</t>
@@ -101,6 +108,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -112,6 +120,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>商店类型为3：</t>
@@ -120,6 +129,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -134,6 +144,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -142,6 +153,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -179,6 +191,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示不拉近</t>
@@ -196,6 +209,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：表示拉近</t>
@@ -209,6 +223,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -217,6 +232,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -234,6 +250,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>文件存储在</t>
@@ -250,6 +267,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>文件夹下</t>
@@ -266,6 +284,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>多个音效用</t>
@@ -282,6 +301,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>号间隔</t>
@@ -298,6 +318,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>将会随机播放一个</t>
@@ -314,6 +335,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>如果有概率不播放就写成</t>
@@ -330,6 +352,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>就表示</t>
@@ -346,6 +369,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>概率播放</t>
@@ -362,6 +386,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>号音效</t>
@@ -375,6 +400,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -383,6 +409,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -401,6 +428,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>例如</t>
@@ -417,6 +445,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示</t>
@@ -433,6 +462,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>级会出现</t>
@@ -446,6 +476,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -454,6 +485,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -474,6 +506,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -482,6 +515,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -504,6 +538,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -512,6 +547,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -528,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="476">
   <si>
     <t>#</t>
   </si>
@@ -1944,19 +1980,23 @@
   </si>
   <si>
     <t>30020111,30020112,30020113,30020114,30020115,30020116,30020117</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>30020118,30020119,30020120,30020121,30020122,30020123,30020124</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>-507,1,-735</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>安森</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001,100002,100003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1975,12 +2015,14 @@
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1988,12 +2030,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2001,6 +2045,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2008,19 +2053,15 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2028,11 +2069,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2049,6 +2092,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2066,6 +2110,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2148,8 +2198,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2200,9 +2250,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2215,49 +2262,52 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2569,7 +2619,7 @@
   <dimension ref="A1:Y161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2646,19 +2696,19 @@
       <c r="O3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -2715,19 +2765,19 @@
       <c r="O4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="19" t="s">
         <v>38</v>
       </c>
       <c r="U4" s="11" t="s">
@@ -2819,12 +2869,12 @@
       <c r="C6" s="12">
         <v>10001</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="26" t="s">
         <v>474</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="H6" s="4">
-        <v>0</v>
+      <c r="H6" s="24" t="s">
+        <v>475</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -2832,13 +2882,13 @@
       <c r="L6" s="12">
         <v>10001</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="25" t="s">
         <v>473</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
@@ -2863,7 +2913,7 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="R7" s="24"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="12">
@@ -2888,7 +2938,7 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="12">
@@ -2913,128 +2963,176 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
+    <row r="10" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>200001</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="17">
         <v>1012</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="29" t="s">
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="L10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="15">
         <v>-90</v>
       </c>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="13" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+    </row>
+    <row r="11" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="16">
         <v>10001201</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="17">
         <v>1009</v>
       </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="29" t="s">
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="L11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="15">
         <v>-280</v>
       </c>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="13" t="s">
+      <c r="O11" s="15"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="4">
+      <c r="F12" s="16"/>
+      <c r="G12" s="17">
         <v>1004</v>
       </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="29" t="s">
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="L12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="15">
         <v>-180</v>
       </c>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="13" t="s">
+      <c r="O12" s="15"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+    </row>
+    <row r="13" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="4">
+      <c r="F13" s="16"/>
+      <c r="G13" s="17">
         <v>1015</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="29" t="s">
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="L13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="15">
         <v>-280</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
@@ -3054,61 +3152,71 @@
       <c r="I14" s="17">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="L14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="30" t="s">
+      <c r="J14" s="20"/>
+      <c r="L14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="23" t="s">
         <v>66</v>
       </c>
       <c r="N14" s="15">
         <v>-180</v>
       </c>
       <c r="O14" s="15"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
       <c r="R14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
     </row>
-    <row r="15" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="4">
+      <c r="F15" s="15"/>
+      <c r="G15" s="17">
         <v>1005</v>
       </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="31" t="s">
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="L15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="17">
         <v>-180</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="25" t="s">
+      <c r="O15" s="17"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="28" t="s">
         <v>71</v>
       </c>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
@@ -3128,24 +3236,24 @@
       <c r="I16" s="17">
         <v>0</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="L16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="30" t="s">
+      <c r="J16" s="20"/>
+      <c r="L16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="23" t="s">
         <v>74</v>
       </c>
       <c r="N16" s="15">
         <v>-90</v>
       </c>
       <c r="O16" s="15"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -3170,3799 +3278,5320 @@
       <c r="I17" s="17">
         <v>0</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="L17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="30" t="s">
+      <c r="J17" s="20"/>
+      <c r="L17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="23" t="s">
         <v>77</v>
       </c>
       <c r="N17" s="15">
         <v>90</v>
       </c>
       <c r="O17" s="15"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
       <c r="R17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13" t="s">
+    <row r="18" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="4">
+      <c r="F18" s="16"/>
+      <c r="G18" s="17">
         <v>1016</v>
       </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="29" t="s">
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="L18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="12" t="s">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13" t="s">
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+    </row>
+    <row r="19" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="4">
+      <c r="F19" s="16"/>
+      <c r="G19" s="17">
         <v>1020</v>
       </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="29" t="s">
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="L19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="15">
         <v>-270</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="O19" s="15"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="13" t="s">
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+    </row>
+    <row r="20" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="4">
+      <c r="F20" s="16"/>
+      <c r="G20" s="17">
         <v>1021</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="29" t="s">
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="L20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="15">
         <v>45</v>
       </c>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="13" t="s">
+      <c r="O20" s="15"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+    </row>
+    <row r="21" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="17">
         <v>1007</v>
       </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="32" t="s">
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="L21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="15">
         <v>90</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="O21" s="15"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="13" t="s">
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+    </row>
+    <row r="22" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="17">
         <v>1006</v>
       </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="32" t="s">
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="L22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="15">
         <v>90</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="O22" s="15"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="28" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="13" t="s">
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+    </row>
+    <row r="23" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="17">
         <v>1008</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" s="32" t="s">
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="L23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="15">
         <v>225</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="O23" s="15"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="13" t="s">
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+    </row>
+    <row r="24" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="4">
+      <c r="F24" s="15"/>
+      <c r="G24" s="17">
         <v>1002</v>
       </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="32" t="s">
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="L24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="25" t="s">
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="13" t="s">
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+    </row>
+    <row r="25" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="4">
+      <c r="F25" s="15"/>
+      <c r="G25" s="17">
         <v>5</v>
       </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M25" s="32" t="s">
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="L25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="15">
         <v>-90</v>
       </c>
-      <c r="R25" s="25"/>
-    </row>
-    <row r="26" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="13" t="s">
+      <c r="O25" s="15"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+    </row>
+    <row r="26" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="4">
+      <c r="F26" s="15"/>
+      <c r="G26" s="17">
         <v>1014</v>
       </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26" s="32" t="s">
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="L26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="15">
         <v>180</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="O26" s="15"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="13" t="s">
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+    </row>
+    <row r="27" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="15">
         <v>4</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="17">
         <v>1022</v>
       </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" s="32" t="s">
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="L27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="15">
         <v>180</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="O27" s="15"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="13" t="s">
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+    </row>
+    <row r="28" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="4">
+      <c r="F28" s="15"/>
+      <c r="G28" s="17">
         <v>1</v>
       </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
         <v>52</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" s="32" t="s">
+      <c r="L28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="15">
         <v>90</v>
       </c>
-      <c r="R28" s="25"/>
-    </row>
-    <row r="29" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="13" t="s">
+      <c r="O28" s="15"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+    </row>
+    <row r="29" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="4">
+      <c r="F29" s="15"/>
+      <c r="G29" s="17">
         <v>1</v>
       </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
         <v>53</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M29" s="32" t="s">
+      <c r="L29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="15">
         <v>90</v>
       </c>
-      <c r="R29" s="25"/>
-    </row>
-    <row r="30" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="13" t="s">
+      <c r="O29" s="15"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+    </row>
+    <row r="30" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="4">
+      <c r="F30" s="15"/>
+      <c r="G30" s="17">
         <v>1</v>
       </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
         <v>54</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" s="32" t="s">
+      <c r="L30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="15">
         <v>90</v>
       </c>
-      <c r="R30" s="25"/>
-    </row>
-    <row r="31" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="13" t="s">
+      <c r="O30" s="15"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+    </row>
+    <row r="31" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="16">
         <v>100001</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="17">
         <v>1012</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" s="32" t="s">
+      <c r="H31" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="L31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="15">
         <v>-110</v>
       </c>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="13" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+    </row>
+    <row r="32" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="15">
         <v>5</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="17">
         <v>1029</v>
       </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" s="32" t="s">
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17">
+        <v>0</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="L32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M32" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="15">
         <v>-30</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="O32" s="15"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="13" t="s">
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+    </row>
+    <row r="33" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="4">
+      <c r="F33" s="15"/>
+      <c r="G33" s="17">
         <v>3</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="32" t="s">
+      <c r="I33" s="17">
+        <v>0</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="L33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="15">
         <v>180</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="O33" s="15"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="13" t="s">
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+    </row>
+    <row r="34" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="18">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="31">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
         <v>1024</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M34" s="32" t="s">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="L34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="15">
         <v>-30</v>
       </c>
-      <c r="R34" s="25" t="s">
+      <c r="O34" s="15"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="28" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="35" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="13" t="s">
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+    </row>
+    <row r="35" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="15">
         <v>6</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="17">
         <v>1026</v>
       </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" s="32" t="s">
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="L35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="15">
         <v>-144</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="O35" s="15"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="28" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="36" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+    </row>
+    <row r="36" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="4">
+      <c r="F36" s="15"/>
+      <c r="G36" s="17">
         <v>2</v>
       </c>
-      <c r="J36" s="4">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="17">
         <v>2000001</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M36" s="32" t="s">
+      <c r="L36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="15">
         <v>-180</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="O36" s="15"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="37" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="13" t="s">
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+    </row>
+    <row r="37" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G37" s="4">
+      <c r="F37" s="15"/>
+      <c r="G37" s="17">
         <v>2</v>
       </c>
-      <c r="J37" s="6">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
         <v>2000002</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37" s="32" t="s">
+      <c r="L37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="15">
         <v>90</v>
       </c>
-      <c r="R37" s="25" t="s">
+      <c r="O37" s="15"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="28" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="38" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="13" t="s">
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+    </row>
+    <row r="38" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="4">
+      <c r="F38" s="15"/>
+      <c r="G38" s="17">
         <v>1027</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="32" t="s">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="L38" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="15">
         <v>90</v>
       </c>
-      <c r="P38" s="23"/>
-      <c r="R38" s="25" t="s">
+      <c r="O38" s="15"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="39" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="13" t="s">
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+    </row>
+    <row r="39" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="4">
+      <c r="F39" s="15"/>
+      <c r="G39" s="17">
         <v>1028</v>
       </c>
-      <c r="L39" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M39" s="32" t="s">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="L39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M39" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="N39" s="5">
-        <v>129</v>
-      </c>
-      <c r="P39" s="23"/>
-      <c r="R39" s="25" t="s">
+      <c r="N39" s="15">
+        <v>129</v>
+      </c>
+      <c r="O39" s="15"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="40" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="13" t="s">
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+    </row>
+    <row r="40" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="F40" s="15"/>
+      <c r="G40" s="17">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17">
         <v>50000001</v>
       </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M40" s="32" t="s">
+      <c r="I40" s="17">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="15">
         <v>180</v>
       </c>
-      <c r="R40" s="25"/>
-    </row>
-    <row r="41" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="13" t="s">
+      <c r="O40" s="15"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+    </row>
+    <row r="41" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="4">
+      <c r="F41" s="16"/>
+      <c r="G41" s="17">
         <v>1030</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M41" s="32" t="s">
+      <c r="H41" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="L41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="13" t="s">
+      <c r="N41" s="15">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+    </row>
+    <row r="42" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="15"/>
+      <c r="E42" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="4">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17">
         <v>6</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M42" s="32" t="s">
+      <c r="H42" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="L42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="15">
         <v>270</v>
       </c>
-      <c r="R42" s="12" t="s">
+      <c r="O42" s="15"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="16" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="43" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="13" t="s">
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+    </row>
+    <row r="43" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="4">
+      <c r="F43" s="16"/>
+      <c r="G43" s="17">
         <v>7</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M43" s="32" t="s">
+      <c r="H43" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="L43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="15">
         <v>-146</v>
       </c>
-      <c r="R43" s="12" t="s">
+      <c r="O43" s="15"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="16" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="44" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="13" t="s">
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+    </row>
+    <row r="44" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="4">
+      <c r="F44" s="16"/>
+      <c r="G44" s="17">
         <v>2</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J44" s="6" t="s">
+      <c r="H44" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M44" s="32" t="s">
+      <c r="L44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="15">
         <v>-146</v>
       </c>
-      <c r="R44" s="12" t="s">
+      <c r="O44" s="15"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="16" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="45" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="13" t="s">
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+    </row>
+    <row r="45" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="16">
         <v>50000001</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="17">
         <v>1009</v>
       </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M45" s="29" t="s">
+      <c r="H45" s="17">
+        <v>0</v>
+      </c>
+      <c r="I45" s="17">
+        <v>0</v>
+      </c>
+      <c r="J45" s="20"/>
+      <c r="L45" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M45" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="15">
         <v>106</v>
       </c>
-      <c r="R45" s="12"/>
-    </row>
-    <row r="46" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="13" t="s">
+      <c r="O45" s="15"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+    </row>
+    <row r="46" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="12">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="17">
         <v>8</v>
       </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M46" s="29" t="s">
+      <c r="H46" s="17">
+        <v>0</v>
+      </c>
+      <c r="I46" s="17">
+        <v>0</v>
+      </c>
+      <c r="J46" s="20"/>
+      <c r="L46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="15">
         <v>-90</v>
       </c>
-      <c r="R46" s="12" t="s">
+      <c r="O46" s="15"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="47" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="13" t="s">
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+    </row>
+    <row r="47" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M47" s="29" t="s">
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0</v>
+      </c>
+      <c r="J47" s="20"/>
+      <c r="L47" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M47" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="15">
         <v>90</v>
       </c>
-      <c r="R47" s="12" t="s">
+      <c r="O47" s="15"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="16" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="48" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="13" t="s">
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+    </row>
+    <row r="48" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="16">
         <v>60000001</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="17">
         <v>1009</v>
       </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M48" s="29" t="s">
+      <c r="H48" s="17">
+        <v>0</v>
+      </c>
+      <c r="I48" s="17">
+        <v>0</v>
+      </c>
+      <c r="J48" s="20"/>
+      <c r="L48" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M48" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="15">
         <v>180</v>
       </c>
-      <c r="R48" s="12"/>
-    </row>
-    <row r="49" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="13" t="s">
+      <c r="O48" s="15"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+    </row>
+    <row r="49" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="12">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="17">
         <v>9</v>
       </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M49" s="29" t="s">
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17">
+        <v>0</v>
+      </c>
+      <c r="J49" s="20"/>
+      <c r="L49" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M49" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="15">
         <v>-90</v>
       </c>
-      <c r="R49" s="12" t="s">
+      <c r="O49" s="15"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="16" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="13" t="s">
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+    </row>
+    <row r="50" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="15"/>
+      <c r="E50" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="4">
+      <c r="F50" s="15"/>
+      <c r="G50" s="17">
         <v>1050</v>
       </c>
-      <c r="L50" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M50" s="32" t="s">
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="L50" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="15">
         <v>90</v>
       </c>
-      <c r="R50" s="25" t="s">
+      <c r="O50" s="15"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="28" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="13" t="s">
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+    </row>
+    <row r="51" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="15"/>
+      <c r="E51" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="F51" s="12">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="17">
         <v>1046</v>
       </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M51" s="32" t="s">
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17">
+        <v>0</v>
+      </c>
+      <c r="J51" s="20"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M51" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="15">
         <v>90</v>
       </c>
-      <c r="O51" s="5"/>
-      <c r="R51" s="12"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-    </row>
-    <row r="52" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="13" t="s">
+      <c r="O51" s="15"/>
+      <c r="R51" s="16"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+    </row>
+    <row r="52" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="F52" s="12">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M52" s="32" t="s">
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="17">
+        <v>0</v>
+      </c>
+      <c r="H52" s="17">
+        <v>0</v>
+      </c>
+      <c r="I52" s="17">
+        <v>0</v>
+      </c>
+      <c r="J52" s="20"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M52" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="15">
         <v>-140</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="R52" s="12" t="s">
+      <c r="O52" s="15"/>
+      <c r="R52" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-    </row>
-    <row r="53" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="13" t="s">
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+    </row>
+    <row r="53" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="12" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="12">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+      <c r="G53" s="17">
         <v>1041</v>
       </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M53" s="32" t="s">
+      <c r="H53" s="17">
+        <v>0</v>
+      </c>
+      <c r="I53" s="17">
+        <v>0</v>
+      </c>
+      <c r="J53" s="20"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="15">
         <v>90</v>
       </c>
-      <c r="O53" s="5"/>
-      <c r="R53" s="12"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-    </row>
-    <row r="54" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="13" t="s">
+      <c r="O53" s="15"/>
+      <c r="R53" s="16"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+    </row>
+    <row r="54" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="12" t="s">
+      <c r="D54" s="15"/>
+      <c r="E54" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="12">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+      <c r="G54" s="17">
         <v>1042</v>
       </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M54" s="32" t="s">
+      <c r="H54" s="17">
+        <v>0</v>
+      </c>
+      <c r="I54" s="17">
+        <v>0</v>
+      </c>
+      <c r="J54" s="20"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="15">
         <v>-180</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="R54" s="12"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-    </row>
-    <row r="55" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="13" t="s">
+      <c r="O54" s="15"/>
+      <c r="R54" s="16"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+    </row>
+    <row r="55" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="12">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="F55" s="16">
+        <v>0</v>
+      </c>
+      <c r="G55" s="17">
         <v>1056</v>
       </c>
-      <c r="H55" s="4">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M55" s="32" t="s">
+      <c r="H55" s="17">
+        <v>0</v>
+      </c>
+      <c r="I55" s="17">
+        <v>0</v>
+      </c>
+      <c r="J55" s="20"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M55" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="15">
         <v>30</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="R55" s="12"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-    </row>
-    <row r="56" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="13" t="s">
+      <c r="O55" s="15"/>
+      <c r="R55" s="16"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+    </row>
+    <row r="56" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="F56" s="12">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
+      <c r="F56" s="16">
+        <v>0</v>
+      </c>
+      <c r="G56" s="17">
         <v>1072</v>
       </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M56" s="32" t="s">
+      <c r="H56" s="17">
+        <v>0</v>
+      </c>
+      <c r="I56" s="17">
+        <v>0</v>
+      </c>
+      <c r="J56" s="20"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="15">
         <v>130</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="R56" s="12"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-    </row>
-    <row r="57" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="13" t="s">
+      <c r="O56" s="15"/>
+      <c r="R56" s="16"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+    </row>
+    <row r="57" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="15"/>
+      <c r="E57" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="16">
         <v>10001101</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="17">
         <v>1009</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L57" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M57" s="29" t="s">
+      <c r="H57" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J57" s="20"/>
+      <c r="L57" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M57" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="15">
         <v>60</v>
       </c>
-      <c r="R57" s="12"/>
-    </row>
-    <row r="58" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="12">
+      <c r="O57" s="15"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+    </row>
+    <row r="58" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="16">
         <v>20001002</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="16">
         <v>10001201</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="17">
         <v>1009</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L58" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M58" s="5" t="s">
+      <c r="H58" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58" s="20"/>
+      <c r="L58" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M58" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58" s="15">
         <v>-45</v>
       </c>
-      <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="12">
+      <c r="O58" s="15"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+    </row>
+    <row r="59" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="16">
         <v>20001003</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="15"/>
+      <c r="E59" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="H59" s="6" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M59" s="5" t="s">
+      <c r="I59" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" s="20"/>
+      <c r="L59" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59" s="15">
         <v>180</v>
       </c>
-      <c r="R59" s="24" t="s">
+      <c r="O59" s="15"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="33" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="12">
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+    </row>
+    <row r="60" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="16">
         <v>20001004</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="H60" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L60" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M60" s="29" t="s">
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" s="20"/>
+      <c r="L60" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M60" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="15">
         <v>90</v>
       </c>
-      <c r="R60" s="24" t="s">
+      <c r="O60" s="15"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="12">
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
+    </row>
+    <row r="61" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="16">
         <v>20001005</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="D61" s="15"/>
+      <c r="E61" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="H61" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M61" s="5" t="s">
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J61" s="20"/>
+      <c r="L61" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="15">
         <v>-45</v>
       </c>
-      <c r="R61" s="24" t="s">
+      <c r="O61" s="15"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="33" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="12">
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+    </row>
+    <row r="62" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="16">
         <v>20001006</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="D62" s="15"/>
+      <c r="E62" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="H62" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M62" s="29" t="s">
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J62" s="20"/>
+      <c r="L62" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M62" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N62" s="15">
         <v>45</v>
       </c>
-      <c r="R62" s="24" t="s">
+      <c r="O62" s="15"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="12">
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+    </row>
+    <row r="63" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="16">
         <v>20001007</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="D63" s="15"/>
+      <c r="E63" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="H63" s="6" t="s">
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M63" s="29" t="s">
+      <c r="I63" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J63" s="20"/>
+      <c r="L63" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M63" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="15">
         <v>150</v>
       </c>
-      <c r="R63" s="24" t="s">
+      <c r="O63" s="15"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="33" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="12">
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+    </row>
+    <row r="64" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="16">
         <v>20001008</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="D64" s="15"/>
+      <c r="E64" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="H64" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M64" s="29" t="s">
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J64" s="20"/>
+      <c r="L64" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M64" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N64" s="15">
         <v>-155</v>
       </c>
-      <c r="R64" s="24" t="s">
+      <c r="O64" s="15"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="33" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="65" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="12">
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+    </row>
+    <row r="65" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="16">
         <v>20001009</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="D65" s="15"/>
+      <c r="E65" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="H65" s="6" t="s">
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M65" s="29" t="s">
+      <c r="I65" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J65" s="20"/>
+      <c r="L65" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M65" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="15">
         <v>35</v>
       </c>
-      <c r="R65" s="24" t="s">
+      <c r="O65" s="15"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="33" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="66" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="12">
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+    </row>
+    <row r="66" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="16">
         <v>20001010</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="D66" s="15"/>
+      <c r="E66" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="H66" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L66" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M66" s="33" t="s">
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J66" s="20"/>
+      <c r="L66" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M66" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="15">
         <v>180</v>
       </c>
-      <c r="R66" s="24" t="s">
+      <c r="O66" s="15"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="33" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="67" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="12">
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+    </row>
+    <row r="67" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="16">
         <v>20001011</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="D67" s="15"/>
+      <c r="E67" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="H67" s="6" t="s">
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M67" s="5" t="s">
+      <c r="I67" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J67" s="20"/>
+      <c r="L67" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M67" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="15">
         <v>-180</v>
       </c>
-      <c r="R67" s="24" t="s">
+      <c r="O67" s="15"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="33" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="68" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="12">
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+    </row>
+    <row r="68" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="16">
         <v>20001012</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="D68" s="15"/>
+      <c r="E68" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="H68" s="6" t="s">
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L68" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="I68" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J68" s="20"/>
+      <c r="L68" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M68" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68" s="15">
         <v>80</v>
       </c>
-      <c r="R68" s="24" t="s">
+      <c r="O68" s="15"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="33" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="69" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="12">
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+    </row>
+    <row r="69" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="16">
         <v>20001013</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="D69" s="15"/>
+      <c r="E69" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="H69" s="6" t="s">
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L69" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M69" s="5" t="s">
+      <c r="I69" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J69" s="20"/>
+      <c r="L69" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M69" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69" s="15">
         <v>180</v>
       </c>
-      <c r="R69" s="24" t="s">
+      <c r="O69" s="15"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="33" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="70" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="12">
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+    </row>
+    <row r="70" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="16">
         <v>20001014</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="D70" s="15"/>
+      <c r="E70" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="H70" s="6" t="s">
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L70" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M70" s="5" t="s">
+      <c r="I70" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J70" s="20"/>
+      <c r="L70" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M70" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70" s="15">
         <v>180</v>
       </c>
-      <c r="R70" s="24" t="s">
+      <c r="O70" s="15"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="33" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="71" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="12">
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+    </row>
+    <row r="71" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="16">
         <v>20001015</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="D71" s="15"/>
+      <c r="E71" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="H71" s="6" t="s">
+      <c r="F71" s="16"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M71" s="5" t="s">
+      <c r="I71" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J71" s="20"/>
+      <c r="L71" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M71" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N71" s="15">
         <v>128</v>
       </c>
-      <c r="R71" s="24" t="s">
+      <c r="O71" s="15"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="33" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="72" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="12">
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+    </row>
+    <row r="72" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="16">
         <v>20001016</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="D72" s="15"/>
+      <c r="E72" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="H72" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M72" s="5" t="s">
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J72" s="20"/>
+      <c r="L72" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M72" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N72" s="15">
         <v>180</v>
       </c>
-      <c r="R72" s="24" t="s">
+      <c r="O72" s="15"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="33" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="73" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="12">
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+    </row>
+    <row r="73" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="16">
         <v>20001017</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="D73" s="15"/>
+      <c r="E73" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="H73" s="6" t="s">
+      <c r="F73" s="16"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L73" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M73" s="5" t="s">
+      <c r="I73" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J73" s="20"/>
+      <c r="L73" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M73" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N73" s="15">
         <v>120</v>
       </c>
-      <c r="R73" s="24" t="s">
+      <c r="O73" s="15"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="33" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="74" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="12">
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+    </row>
+    <row r="74" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="16">
         <v>20001018</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="15"/>
+      <c r="E74" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="F74" s="12"/>
-      <c r="H74" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J74" s="4"/>
-      <c r="L74" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M74" s="5" t="s">
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J74" s="17"/>
+      <c r="L74" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M74" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N74" s="5">
+      <c r="N74" s="15">
         <v>180</v>
       </c>
-      <c r="R74" s="24" t="s">
+      <c r="O74" s="15"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="33" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="75" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="12">
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+    </row>
+    <row r="75" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="16">
         <v>20001019</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="D75" s="15"/>
+      <c r="E75" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F75" s="12"/>
-      <c r="H75" s="6" t="s">
+      <c r="F75" s="16"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L75" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M75" s="5" t="s">
+      <c r="I75" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J75" s="20"/>
+      <c r="L75" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M75" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="N75" s="5">
+      <c r="N75" s="15">
         <v>-180</v>
       </c>
-      <c r="R75" s="24" t="s">
+      <c r="O75" s="15"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="33" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="76" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="12">
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+    </row>
+    <row r="76" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="16">
         <v>20001020</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="D76" s="15"/>
+      <c r="E76" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="H76" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L76" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" s="20"/>
+      <c r="L76" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M76" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N76" s="5">
+      <c r="N76" s="15">
         <v>180</v>
       </c>
-      <c r="R76" s="24" t="s">
+      <c r="O76" s="15"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="33" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="77" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="12">
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+    </row>
+    <row r="77" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="16">
         <v>20001021</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="D77" s="15"/>
+      <c r="E77" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="H77" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L77" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M77" s="5" t="s">
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J77" s="20"/>
+      <c r="L77" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M77" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="N77" s="5">
+      <c r="N77" s="15">
         <v>-180</v>
       </c>
-      <c r="R77" s="24" t="s">
+      <c r="O77" s="15"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="33" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="78" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="12">
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+    </row>
+    <row r="78" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="16">
         <v>20001022</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="H78" s="6" t="s">
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="I78" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="I78" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J78" s="20"/>
+      <c r="L78" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M78" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="N78" s="5">
+      <c r="N78" s="15">
         <v>-106</v>
       </c>
-      <c r="R78" s="24" t="s">
+      <c r="O78" s="15"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="33" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="79" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="12">
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+    </row>
+    <row r="79" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="16">
         <v>20001023</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="D79" s="15"/>
+      <c r="E79" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="4">
+      <c r="F79" s="16"/>
+      <c r="G79" s="17">
         <v>1004</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L79" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M79" s="5" t="s">
+      <c r="H79" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J79" s="20"/>
+      <c r="L79" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M79" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N79" s="5">
+      <c r="N79" s="15">
         <v>180</v>
       </c>
-      <c r="R79" s="12"/>
-    </row>
-    <row r="80" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="12">
+      <c r="O79" s="15"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+    </row>
+    <row r="80" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="16">
         <v>20001024</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="D80" s="15"/>
+      <c r="E80" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F80" s="12"/>
-      <c r="H80" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L80" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M80" s="5" t="s">
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J80" s="20"/>
+      <c r="L80" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M80" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N80" s="15">
         <v>-152</v>
       </c>
-      <c r="R80" s="12"/>
-    </row>
-    <row r="81" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="13" t="s">
+      <c r="O80" s="15"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+    </row>
+    <row r="81" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="D81" s="15"/>
+      <c r="E81" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="16">
         <v>10002101</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="17">
         <v>1009</v>
       </c>
-      <c r="H81" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L81" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M81" s="5" t="s">
+      <c r="H81" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J81" s="20"/>
+      <c r="L81" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M81" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="N81" s="5">
+      <c r="N81" s="15">
         <v>-147</v>
       </c>
-      <c r="R81" s="12"/>
-    </row>
-    <row r="82" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="13" t="s">
+      <c r="O81" s="15"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+    </row>
+    <row r="82" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="D82" s="15"/>
+      <c r="E82" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="16">
         <v>10002201</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="17">
         <v>1009</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L82" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="H82" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J82" s="20"/>
+      <c r="L82" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M82" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="N82" s="5">
+      <c r="N82" s="15">
         <v>-129</v>
       </c>
-      <c r="R82" s="12"/>
-    </row>
-    <row r="83" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="13" t="s">
+      <c r="O82" s="15"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+    </row>
+    <row r="83" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="D83" s="15"/>
+      <c r="E83" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="F83" s="12"/>
-      <c r="H83" s="6" t="s">
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="I83" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L83" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="I83" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J83" s="20"/>
+      <c r="L83" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M83" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="N83" s="5">
+      <c r="N83" s="15">
         <v>-131</v>
       </c>
-      <c r="R83" s="24" t="s">
+      <c r="O83" s="15"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="13" t="s">
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+    </row>
+    <row r="84" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="D84" s="15"/>
+      <c r="E84" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="F84" s="12"/>
-      <c r="H84" s="6" t="s">
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L84" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="I84" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J84" s="20"/>
+      <c r="L84" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M84" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="N84" s="5">
+      <c r="N84" s="15">
         <v>180</v>
       </c>
-      <c r="R84" s="24" t="s">
+      <c r="O84" s="15"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="13" t="s">
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+    </row>
+    <row r="85" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="D85" s="15"/>
+      <c r="E85" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F85" s="12"/>
-      <c r="H85" s="35" t="s">
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L85" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="I85" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J85" s="20"/>
+      <c r="L85" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M85" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="N85" s="5">
+      <c r="N85" s="15">
         <v>180</v>
       </c>
-      <c r="R85" s="24" t="s">
+      <c r="O85" s="15"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="13" t="s">
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+    </row>
+    <row r="86" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="D86" s="15"/>
+      <c r="E86" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F86" s="12"/>
-      <c r="H86" s="35" t="s">
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="I86" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J86" s="20"/>
+      <c r="L86" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M86" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="N86" s="5">
+      <c r="N86" s="15">
         <v>180</v>
       </c>
-      <c r="R86" s="24" t="s">
+      <c r="O86" s="15"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="13" t="s">
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+    </row>
+    <row r="87" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="D87" s="15"/>
+      <c r="E87" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F87" s="12"/>
-      <c r="H87" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L87" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M87" s="5" t="s">
+      <c r="F87" s="16"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J87" s="20"/>
+      <c r="L87" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M87" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N87" s="5">
+      <c r="N87" s="15">
         <v>180</v>
       </c>
-      <c r="R87" s="24" t="s">
+      <c r="O87" s="15"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="33" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="13" t="s">
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+    </row>
+    <row r="88" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="D88" s="15"/>
+      <c r="E88" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F88" s="12"/>
-      <c r="H88" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L88" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J88" s="20"/>
+      <c r="L88" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M88" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N88" s="5">
+      <c r="N88" s="15">
         <v>180</v>
       </c>
-      <c r="R88" s="24" t="s">
+      <c r="O88" s="15"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="13" t="s">
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+    </row>
+    <row r="89" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="D89" s="15"/>
+      <c r="E89" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F89" s="12"/>
-      <c r="H89" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L89" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M89" s="5" t="s">
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J89" s="20"/>
+      <c r="L89" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M89" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="N89" s="5">
+      <c r="N89" s="15">
         <v>27</v>
       </c>
-      <c r="R89" s="24" t="s">
+      <c r="O89" s="15"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="13" t="s">
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+    </row>
+    <row r="90" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="16">
         <v>10003101</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="17">
         <v>1009</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L90" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="H90" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J90" s="20"/>
+      <c r="L90" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M90" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="N90" s="5">
+      <c r="N90" s="15">
         <v>123</v>
       </c>
-      <c r="R90" s="12"/>
-    </row>
-    <row r="91" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="13" t="s">
+      <c r="O90" s="15"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+    </row>
+    <row r="91" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="D91" s="15"/>
+      <c r="E91" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="16">
         <v>10003201</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="17">
         <v>1009</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L91" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M91" s="5" t="s">
+      <c r="H91" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I91" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J91" s="20"/>
+      <c r="L91" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M91" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="N91" s="5">
+      <c r="N91" s="15">
         <v>45</v>
       </c>
-      <c r="R91" s="12"/>
-    </row>
-    <row r="92" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="13" t="s">
+      <c r="O91" s="15"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+    </row>
+    <row r="92" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="D92" s="15"/>
+      <c r="E92" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="F92" s="12"/>
-      <c r="H92" s="6" t="s">
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L92" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M92" s="5" t="s">
+      <c r="I92" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J92" s="20"/>
+      <c r="L92" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M92" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="N92" s="5">
+      <c r="N92" s="15">
         <v>90</v>
       </c>
-      <c r="R92" s="24" t="s">
+      <c r="O92" s="15"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="13" t="s">
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+    </row>
+    <row r="93" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="D93" s="15"/>
+      <c r="E93" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="F93" s="12"/>
-      <c r="H93" s="6" t="s">
+      <c r="F93" s="16"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="I93" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L93" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M93" s="5" t="s">
+      <c r="I93" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J93" s="20"/>
+      <c r="L93" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M93" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="N93" s="5">
+      <c r="N93" s="15">
         <v>180</v>
       </c>
-      <c r="R93" s="24" t="s">
+      <c r="O93" s="15"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="13" t="s">
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+    </row>
+    <row r="94" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="D94" s="15"/>
+      <c r="E94" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="F94" s="12"/>
-      <c r="H94" s="6" t="s">
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L94" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M94" s="5" t="s">
+      <c r="I94" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J94" s="20"/>
+      <c r="L94" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M94" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="N94" s="5">
+      <c r="N94" s="15">
         <v>95</v>
       </c>
-      <c r="R94" s="24" t="s">
+      <c r="O94" s="15"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="13" t="s">
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+    </row>
+    <row r="95" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="D95" s="15"/>
+      <c r="E95" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="F95" s="12"/>
-      <c r="H95" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L95" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="F95" s="16"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J95" s="20"/>
+      <c r="L95" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M95" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="N95" s="5">
+      <c r="N95" s="15">
         <v>-70</v>
       </c>
-      <c r="R95" s="24" t="s">
+      <c r="O95" s="15"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="96" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="13" t="s">
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="15"/>
+      <c r="W95" s="15"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+    </row>
+    <row r="96" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="D96" s="15"/>
+      <c r="E96" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F96" s="12"/>
-      <c r="H96" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L96" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M96" s="5" t="s">
+      <c r="F96" s="16"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J96" s="20"/>
+      <c r="L96" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M96" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N96" s="5">
+      <c r="N96" s="15">
         <v>180</v>
       </c>
-      <c r="R96" s="24" t="s">
+      <c r="O96" s="15"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="33" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="13" t="s">
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="15"/>
+      <c r="V96" s="15"/>
+      <c r="W96" s="15"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+    </row>
+    <row r="97" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="D97" s="15"/>
+      <c r="E97" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F97" s="12"/>
-      <c r="H97" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L97" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M97" s="5" t="s">
+      <c r="F97" s="16"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J97" s="20"/>
+      <c r="L97" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M97" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N97" s="15">
         <v>180</v>
       </c>
-      <c r="R97" s="24" t="s">
+      <c r="O97" s="15"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="13" t="s">
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+      <c r="U97" s="15"/>
+      <c r="V97" s="15"/>
+      <c r="W97" s="15"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+    </row>
+    <row r="98" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="D98" s="15"/>
+      <c r="E98" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="F98" s="12"/>
-      <c r="H98" s="6" t="s">
+      <c r="F98" s="16"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="I98" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L98" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="I98" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J98" s="20"/>
+      <c r="L98" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M98" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="N98" s="5">
+      <c r="N98" s="15">
         <v>-70</v>
       </c>
-      <c r="R98" s="24" t="s">
+      <c r="O98" s="15"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="13" t="s">
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+    </row>
+    <row r="99" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="D99" s="15"/>
+      <c r="E99" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="F99" s="12"/>
-      <c r="H99" s="6" t="s">
+      <c r="F99" s="16"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="I99" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L99" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M99" s="5" t="s">
+      <c r="I99" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J99" s="20"/>
+      <c r="L99" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M99" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="N99" s="5">
+      <c r="N99" s="15">
         <v>-180</v>
       </c>
-      <c r="R99" s="24" t="s">
+      <c r="O99" s="15"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="13" t="s">
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="15"/>
+      <c r="W99" s="15"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+    </row>
+    <row r="100" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="D100" s="15"/>
+      <c r="E100" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="16">
         <v>10004101</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="17">
         <v>1009</v>
       </c>
-      <c r="H100" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L100" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M100" s="5" t="s">
+      <c r="H100" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J100" s="20"/>
+      <c r="L100" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M100" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="N100" s="5">
+      <c r="N100" s="15">
         <v>35</v>
       </c>
-      <c r="R100" s="12"/>
-    </row>
-    <row r="101" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="13" t="s">
+      <c r="O100" s="15"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="15"/>
+      <c r="W100" s="15"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+    </row>
+    <row r="101" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="D101" s="15"/>
+      <c r="E101" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="16">
         <v>10004201</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="17">
         <v>1009</v>
       </c>
-      <c r="H101" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L101" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M101" s="5" t="s">
+      <c r="H101" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J101" s="20"/>
+      <c r="L101" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M101" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="N101" s="5">
+      <c r="N101" s="15">
         <v>-41</v>
       </c>
-      <c r="R101" s="12"/>
-    </row>
-    <row r="102" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="13" t="s">
+      <c r="O101" s="15"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="15"/>
+      <c r="V101" s="15"/>
+      <c r="W101" s="15"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+    </row>
+    <row r="102" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="D102" s="15"/>
+      <c r="E102" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="F102" s="12"/>
-      <c r="H102" s="6" t="s">
+      <c r="F102" s="16"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="I102" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M102" s="5" t="s">
+      <c r="I102" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J102" s="20"/>
+      <c r="L102" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M102" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="N102" s="5">
-        <v>0</v>
-      </c>
-      <c r="R102" s="24" t="s">
+      <c r="N102" s="15">
+        <v>0</v>
+      </c>
+      <c r="O102" s="15"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="103" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="13" t="s">
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="15"/>
+      <c r="W102" s="15"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+    </row>
+    <row r="103" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="D103" s="15"/>
+      <c r="E103" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F103" s="12"/>
-      <c r="H103" s="6" t="s">
+      <c r="F103" s="16"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="I103" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L103" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M103" s="5" t="s">
+      <c r="I103" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J103" s="20"/>
+      <c r="L103" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M103" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="N103" s="5">
+      <c r="N103" s="15">
         <v>101</v>
       </c>
-      <c r="R103" s="24" t="s">
+      <c r="O103" s="15"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="104" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="13" t="s">
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+    </row>
+    <row r="104" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="E104" s="12" t="s">
+      <c r="D104" s="15"/>
+      <c r="E104" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F104" s="12"/>
-      <c r="H104" s="6" t="s">
+      <c r="F104" s="16"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="I104" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L104" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M104" s="5" t="s">
+      <c r="I104" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J104" s="20"/>
+      <c r="L104" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M104" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="N104" s="5">
+      <c r="N104" s="15">
         <v>-3</v>
       </c>
-      <c r="R104" s="24" t="s">
+      <c r="O104" s="15"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="105" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="13" t="s">
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="15"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+    </row>
+    <row r="105" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="D105" s="15"/>
+      <c r="E105" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F105" s="12"/>
-      <c r="H105" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M105" s="5" t="s">
+      <c r="F105" s="16"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J105" s="20"/>
+      <c r="L105" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M105" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N105" s="5">
+      <c r="N105" s="15">
         <v>180</v>
       </c>
-      <c r="R105" s="24" t="s">
+      <c r="O105" s="15"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="33" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="106" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="13" t="s">
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="15"/>
+      <c r="V105" s="15"/>
+      <c r="W105" s="15"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+    </row>
+    <row r="106" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="D106" s="15"/>
+      <c r="E106" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F106" s="12"/>
-      <c r="H106" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L106" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M106" s="5" t="s">
+      <c r="F106" s="16"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J106" s="20"/>
+      <c r="L106" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M106" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N106" s="5">
+      <c r="N106" s="15">
         <v>180</v>
       </c>
-      <c r="R106" s="24" t="s">
+      <c r="O106" s="15"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="107" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="13" t="s">
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="15"/>
+      <c r="V106" s="15"/>
+      <c r="W106" s="15"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+    </row>
+    <row r="107" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="D107" s="15"/>
+      <c r="E107" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="F107" s="12"/>
-      <c r="H107" s="6" t="s">
+      <c r="F107" s="16"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="I107" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L107" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M107" s="5" t="s">
+      <c r="I107" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J107" s="20"/>
+      <c r="L107" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M107" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="N107" s="5">
+      <c r="N107" s="15">
         <v>-180</v>
       </c>
-      <c r="R107" s="24" t="s">
+      <c r="O107" s="15"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="108" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="13" t="s">
+      <c r="S107" s="21"/>
+      <c r="T107" s="21"/>
+      <c r="U107" s="15"/>
+      <c r="V107" s="15"/>
+      <c r="W107" s="15"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+    </row>
+    <row r="108" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="D108" s="15"/>
+      <c r="E108" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="F108" s="12"/>
-      <c r="H108" s="6" t="s">
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="I108" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L108" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M108" s="5" t="s">
+      <c r="I108" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J108" s="20"/>
+      <c r="L108" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M108" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="N108" s="5">
+      <c r="N108" s="15">
         <v>83</v>
       </c>
-      <c r="R108" s="24" t="s">
+      <c r="O108" s="15"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="109" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="13" t="s">
+      <c r="S108" s="21"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+    </row>
+    <row r="109" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="D109" s="15"/>
+      <c r="E109" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="16">
         <v>10005101</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="17">
         <v>1009</v>
       </c>
-      <c r="H109" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L109" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M109" s="5" t="s">
+      <c r="H109" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J109" s="20"/>
+      <c r="L109" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M109" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="N109" s="5">
+      <c r="N109" s="15">
         <v>51</v>
       </c>
-      <c r="R109" s="12"/>
-    </row>
-    <row r="110" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="13" t="s">
+      <c r="O109" s="15"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="15"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+    </row>
+    <row r="110" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="D110" s="15"/>
+      <c r="E110" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="16">
         <v>10005201</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="17">
         <v>1009</v>
       </c>
-      <c r="H110" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L110" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M110" s="5" t="s">
+      <c r="H110" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I110" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J110" s="20"/>
+      <c r="L110" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M110" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="N110" s="5">
+      <c r="N110" s="15">
         <v>-44</v>
       </c>
-      <c r="R110" s="12"/>
-    </row>
-    <row r="111" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="13" t="s">
+      <c r="O110" s="15"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="15"/>
+      <c r="V110" s="15"/>
+      <c r="W110" s="15"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+    </row>
+    <row r="111" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="D111" s="15"/>
+      <c r="E111" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="F111" s="12"/>
-      <c r="H111" s="6" t="s">
+      <c r="F111" s="16"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="I111" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L111" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M111" s="5" t="s">
+      <c r="I111" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J111" s="20"/>
+      <c r="L111" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M111" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="N111" s="5">
+      <c r="N111" s="15">
         <v>180</v>
       </c>
-      <c r="R111" s="24" t="s">
+      <c r="O111" s="15"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="112" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="13" t="s">
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="15"/>
+      <c r="V111" s="15"/>
+      <c r="W111" s="15"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+    </row>
+    <row r="112" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="D112" s="15"/>
+      <c r="E112" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="F112" s="12"/>
-      <c r="H112" s="6" t="s">
+      <c r="F112" s="16"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="I112" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L112" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M112" s="5" t="s">
+      <c r="I112" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J112" s="20"/>
+      <c r="L112" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M112" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="N112" s="5">
+      <c r="N112" s="15">
         <v>92</v>
       </c>
-      <c r="R112" s="24" t="s">
+      <c r="O112" s="15"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="113" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="13" t="s">
+      <c r="S112" s="21"/>
+      <c r="T112" s="21"/>
+      <c r="U112" s="15"/>
+      <c r="V112" s="15"/>
+      <c r="W112" s="15"/>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="15"/>
+    </row>
+    <row r="113" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="D113" s="15"/>
+      <c r="E113" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="F113" s="12"/>
-      <c r="H113" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L113" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M113" s="5" t="s">
+      <c r="F113" s="16"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I113" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J113" s="20"/>
+      <c r="L113" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M113" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N113" s="5">
+      <c r="N113" s="15">
         <v>180</v>
       </c>
-      <c r="R113" s="24" t="s">
+      <c r="O113" s="15"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="114" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="13" t="s">
+      <c r="S113" s="21"/>
+      <c r="T113" s="21"/>
+      <c r="U113" s="15"/>
+      <c r="V113" s="15"/>
+      <c r="W113" s="15"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="15"/>
+    </row>
+    <row r="114" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="D114" s="15"/>
+      <c r="E114" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="F114" s="12"/>
-      <c r="H114" s="6" t="s">
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="I114" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L114" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M114" s="5" t="s">
+      <c r="I114" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J114" s="20"/>
+      <c r="L114" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M114" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="N114" s="5">
+      <c r="N114" s="15">
         <v>145</v>
       </c>
-      <c r="R114" s="24" t="s">
+      <c r="O114" s="15"/>
+      <c r="P114" s="21"/>
+      <c r="Q114" s="21"/>
+      <c r="R114" s="33" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="115" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="13" t="s">
+      <c r="S114" s="21"/>
+      <c r="T114" s="21"/>
+      <c r="U114" s="15"/>
+      <c r="V114" s="15"/>
+      <c r="W114" s="15"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+    </row>
+    <row r="115" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="D115" s="15"/>
+      <c r="E115" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F115" s="12"/>
-      <c r="H115" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L115" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M115" s="5" t="s">
+      <c r="F115" s="16"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I115" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J115" s="20"/>
+      <c r="L115" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M115" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N115" s="5">
+      <c r="N115" s="15">
         <v>180</v>
       </c>
-      <c r="R115" s="24" t="s">
+      <c r="O115" s="15"/>
+      <c r="P115" s="21"/>
+      <c r="Q115" s="21"/>
+      <c r="R115" s="33" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="116" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="13" t="s">
+      <c r="S115" s="21"/>
+      <c r="T115" s="21"/>
+      <c r="U115" s="15"/>
+      <c r="V115" s="15"/>
+      <c r="W115" s="15"/>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="15"/>
+    </row>
+    <row r="116" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="D116" s="15"/>
+      <c r="E116" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F116" s="12"/>
-      <c r="H116" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L116" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M116" s="5" t="s">
+      <c r="F116" s="16"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I116" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J116" s="20"/>
+      <c r="L116" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M116" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N116" s="5">
+      <c r="N116" s="15">
         <v>180</v>
       </c>
-      <c r="R116" s="24" t="s">
+      <c r="O116" s="15"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="117" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="12">
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="15"/>
+      <c r="V116" s="15"/>
+      <c r="W116" s="15"/>
+      <c r="X116" s="15"/>
+      <c r="Y116" s="15"/>
+    </row>
+    <row r="117" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="16">
         <v>20099001</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="D117" s="15"/>
+      <c r="E117" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="F117" s="12"/>
-      <c r="H117" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L117" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M117" s="5" t="s">
+      <c r="F117" s="16"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J117" s="20"/>
+      <c r="L117" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M117" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N117" s="5">
+      <c r="N117" s="15">
         <v>180</v>
       </c>
-      <c r="R117" s="24" t="s">
+      <c r="O117" s="15"/>
+      <c r="P117" s="21"/>
+      <c r="Q117" s="21"/>
+      <c r="R117" s="33" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="118" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="12">
+      <c r="S117" s="21"/>
+      <c r="T117" s="21"/>
+      <c r="U117" s="15"/>
+      <c r="V117" s="15"/>
+      <c r="W117" s="15"/>
+      <c r="X117" s="15"/>
+      <c r="Y117" s="15"/>
+    </row>
+    <row r="118" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="16">
         <v>20099002</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="D118" s="15"/>
+      <c r="E118" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="F118" s="12"/>
-      <c r="H118" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L118" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M118" s="5" t="s">
+      <c r="F118" s="16"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I118" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J118" s="20"/>
+      <c r="L118" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M118" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N118" s="5">
+      <c r="N118" s="15">
         <v>180</v>
       </c>
-      <c r="R118" s="24" t="s">
+      <c r="O118" s="15"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="33" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="119" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="12">
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="15"/>
+      <c r="V118" s="15"/>
+      <c r="W118" s="15"/>
+      <c r="X118" s="15"/>
+      <c r="Y118" s="15"/>
+    </row>
+    <row r="119" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="16">
         <v>20099003</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="D119" s="15"/>
+      <c r="E119" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="F119" s="12"/>
-      <c r="H119" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L119" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M119" s="5" t="s">
+      <c r="F119" s="16"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J119" s="20"/>
+      <c r="L119" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M119" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N119" s="5">
+      <c r="N119" s="15">
         <v>180</v>
       </c>
-      <c r="R119" s="24" t="s">
+      <c r="O119" s="15"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="33" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="120" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="12">
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="15"/>
+      <c r="V119" s="15"/>
+      <c r="W119" s="15"/>
+      <c r="X119" s="15"/>
+      <c r="Y119" s="15"/>
+    </row>
+    <row r="120" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="16">
         <v>20099004</v>
       </c>
-      <c r="E120" s="12" t="s">
+      <c r="D120" s="15"/>
+      <c r="E120" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="F120" s="12"/>
-      <c r="H120" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L120" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M120" s="5" t="s">
+      <c r="F120" s="16"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J120" s="20"/>
+      <c r="L120" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M120" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N120" s="5">
+      <c r="N120" s="15">
         <v>180</v>
       </c>
-      <c r="R120" s="24" t="s">
+      <c r="O120" s="15"/>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="33" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="121" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="12">
+      <c r="S120" s="21"/>
+      <c r="T120" s="21"/>
+      <c r="U120" s="15"/>
+      <c r="V120" s="15"/>
+      <c r="W120" s="15"/>
+      <c r="X120" s="15"/>
+      <c r="Y120" s="15"/>
+    </row>
+    <row r="121" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="16">
         <v>20099005</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="D121" s="15"/>
+      <c r="E121" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="F121" s="12"/>
-      <c r="H121" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L121" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M121" s="5" t="s">
+      <c r="F121" s="16"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J121" s="20"/>
+      <c r="L121" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M121" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N121" s="5">
+      <c r="N121" s="15">
         <v>180</v>
       </c>
-      <c r="R121" s="24" t="s">
+      <c r="O121" s="15"/>
+      <c r="P121" s="21"/>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="33" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="122" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="12">
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="15"/>
+      <c r="V121" s="15"/>
+      <c r="W121" s="15"/>
+      <c r="X121" s="15"/>
+      <c r="Y121" s="15"/>
+    </row>
+    <row r="122" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="16">
         <v>20099006</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="D122" s="15"/>
+      <c r="E122" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F122" s="12"/>
-      <c r="H122" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L122" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M122" s="5" t="s">
+      <c r="F122" s="16"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I122" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J122" s="20"/>
+      <c r="L122" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M122" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="N122" s="5">
+      <c r="N122" s="15">
         <v>180</v>
       </c>
-      <c r="R122" s="24" t="s">
+      <c r="O122" s="15"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="33" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="123" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="12">
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="15"/>
+      <c r="V122" s="15"/>
+      <c r="W122" s="15"/>
+      <c r="X122" s="15"/>
+      <c r="Y122" s="15"/>
+    </row>
+    <row r="123" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="16">
         <v>20099007</v>
       </c>
-      <c r="E123" s="26" t="s">
+      <c r="D123" s="15"/>
+      <c r="E123" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="F123" s="26"/>
-      <c r="G123" s="4">
+      <c r="F123" s="34"/>
+      <c r="G123" s="17">
         <v>1057</v>
       </c>
-      <c r="L123" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M123" s="29" t="s">
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="L123" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M123" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="N123" s="5">
+      <c r="N123" s="15">
         <v>180</v>
       </c>
-      <c r="R123" s="27"/>
-    </row>
-    <row r="124" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="12">
+      <c r="O123" s="15"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="35"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="15"/>
+      <c r="V123" s="15"/>
+      <c r="W123" s="15"/>
+      <c r="X123" s="15"/>
+      <c r="Y123" s="15"/>
+    </row>
+    <row r="124" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="16">
         <v>20099008</v>
       </c>
-      <c r="E124" s="26" t="s">
+      <c r="D124" s="15"/>
+      <c r="E124" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="F124" s="26"/>
-      <c r="L124" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M124" s="29" t="s">
+      <c r="F124" s="34"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="L124" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M124" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="N124" s="5">
-        <v>0</v>
-      </c>
-      <c r="R124" s="27" t="s">
+      <c r="N124" s="15">
+        <v>0</v>
+      </c>
+      <c r="O124" s="15"/>
+      <c r="P124" s="21"/>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="35" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="125" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="12">
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="15"/>
+      <c r="V124" s="15"/>
+      <c r="W124" s="15"/>
+      <c r="X124" s="15"/>
+      <c r="Y124" s="15"/>
+    </row>
+    <row r="125" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="16">
         <v>20099009</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="D125" s="15"/>
+      <c r="E125" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="F125" s="26"/>
-      <c r="L125" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M125" s="29" t="s">
+      <c r="F125" s="34"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="L125" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M125" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="N125" s="5">
-        <v>0</v>
-      </c>
-      <c r="R125" s="27" t="s">
+      <c r="N125" s="15">
+        <v>0</v>
+      </c>
+      <c r="O125" s="15"/>
+      <c r="P125" s="21"/>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="35" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="126" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="12">
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="15"/>
+      <c r="V125" s="15"/>
+      <c r="W125" s="15"/>
+      <c r="X125" s="15"/>
+      <c r="Y125" s="15"/>
+    </row>
+    <row r="126" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="16">
         <v>20099010</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="D126" s="15"/>
+      <c r="E126" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="F126" s="26"/>
-      <c r="L126" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M126" s="29" t="s">
+      <c r="F126" s="34"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="L126" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M126" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="N126" s="5">
-        <v>0</v>
-      </c>
-      <c r="R126" s="27" t="s">
+      <c r="N126" s="15">
+        <v>0</v>
+      </c>
+      <c r="O126" s="15"/>
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="35" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="127" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="12">
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="15"/>
+      <c r="V126" s="15"/>
+      <c r="W126" s="15"/>
+      <c r="X126" s="15"/>
+      <c r="Y126" s="15"/>
+    </row>
+    <row r="127" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="16">
         <v>20099011</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="D127" s="15"/>
+      <c r="E127" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="F127" s="26"/>
-      <c r="J127" s="6" t="s">
+      <c r="F127" s="34"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="L127" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M127" s="29" t="s">
+      <c r="L127" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M127" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="N127" s="5">
-        <v>0</v>
-      </c>
-      <c r="O127" s="5">
+      <c r="N127" s="15">
+        <v>0</v>
+      </c>
+      <c r="O127" s="15">
         <v>13</v>
       </c>
-      <c r="P127" s="34" t="s">
+      <c r="P127" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="R127" s="27"/>
-    </row>
-    <row r="128" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="12">
+      <c r="Q127" s="21"/>
+      <c r="R127" s="35"/>
+      <c r="S127" s="21"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="15"/>
+      <c r="V127" s="15"/>
+      <c r="W127" s="15"/>
+      <c r="X127" s="15"/>
+      <c r="Y127" s="15"/>
+    </row>
+    <row r="128" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="16">
         <v>20099012</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="D128" s="15"/>
+      <c r="E128" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="F128" s="26"/>
-      <c r="J128" s="6" t="s">
+      <c r="F128" s="34"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="L128" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M128" s="29" t="s">
+      <c r="L128" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M128" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="N128" s="5">
-        <v>0</v>
-      </c>
-      <c r="O128" s="5">
+      <c r="N128" s="15">
+        <v>0</v>
+      </c>
+      <c r="O128" s="15">
         <v>13</v>
       </c>
-      <c r="P128" s="34" t="s">
+      <c r="P128" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="R128" s="27"/>
-    </row>
-    <row r="129" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="12">
+      <c r="Q128" s="21"/>
+      <c r="R128" s="35"/>
+      <c r="S128" s="21"/>
+      <c r="T128" s="21"/>
+      <c r="U128" s="15"/>
+      <c r="V128" s="15"/>
+      <c r="W128" s="15"/>
+      <c r="X128" s="15"/>
+      <c r="Y128" s="15"/>
+    </row>
+    <row r="129" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="16">
         <v>20099013</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="D129" s="15"/>
+      <c r="E129" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="F129" s="26"/>
-      <c r="J129" s="6" t="s">
+      <c r="F129" s="34"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="L129" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M129" s="29" t="s">
+      <c r="L129" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M129" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="N129" s="5">
-        <v>0</v>
-      </c>
-      <c r="O129" s="5">
+      <c r="N129" s="15">
+        <v>0</v>
+      </c>
+      <c r="O129" s="15">
         <v>13</v>
       </c>
-      <c r="P129" s="34" t="s">
+      <c r="P129" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="R129" s="27"/>
-    </row>
-    <row r="130" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+      <c r="Q129" s="21"/>
+      <c r="R129" s="35"/>
+      <c r="S129" s="21"/>
+      <c r="T129" s="21"/>
+      <c r="U129" s="15"/>
+      <c r="V129" s="15"/>
+      <c r="W129" s="15"/>
+      <c r="X129" s="15"/>
+      <c r="Y129" s="15"/>
+    </row>
+    <row r="130" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="13" t="s">
+      <c r="B130" s="1"/>
+      <c r="C130" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="28" t="s">
+      <c r="D130" s="15"/>
+      <c r="E130" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="15">
         <v>300001</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="17">
         <v>1034</v>
       </c>
-      <c r="H130" s="4">
-        <v>0</v>
-      </c>
-      <c r="I130" s="4">
-        <v>0</v>
-      </c>
-      <c r="J130" s="4"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M130" s="32" t="s">
+      <c r="H130" s="17">
+        <v>0</v>
+      </c>
+      <c r="I130" s="17">
+        <v>0</v>
+      </c>
+      <c r="J130" s="17"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M130" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="N130" s="5">
-        <v>0</v>
-      </c>
-      <c r="O130" s="5"/>
-      <c r="P130" s="23"/>
-      <c r="R130" s="25"/>
-      <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
-      <c r="W130" s="5"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-    </row>
-    <row r="131" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="13" t="s">
+      <c r="N130" s="15">
+        <v>0</v>
+      </c>
+      <c r="O130" s="15"/>
+      <c r="P130" s="32"/>
+      <c r="R130" s="28"/>
+      <c r="U130" s="15"/>
+      <c r="V130" s="15"/>
+      <c r="W130" s="15"/>
+      <c r="X130" s="15"/>
+      <c r="Y130" s="15"/>
+    </row>
+    <row r="131" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="28" t="s">
+      <c r="D131" s="15"/>
+      <c r="E131" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="4">
+      <c r="F131" s="15"/>
+      <c r="G131" s="17">
         <v>1035</v>
       </c>
-      <c r="H131" s="4">
-        <v>0</v>
-      </c>
-      <c r="I131" s="4">
-        <v>0</v>
-      </c>
-      <c r="J131" s="4"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M131" s="32" t="s">
+      <c r="H131" s="17">
+        <v>0</v>
+      </c>
+      <c r="I131" s="17">
+        <v>0</v>
+      </c>
+      <c r="J131" s="17"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M131" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="N131" s="5">
+      <c r="N131" s="15">
         <v>90</v>
       </c>
-      <c r="O131" s="5"/>
-      <c r="P131" s="23"/>
-      <c r="R131" s="25"/>
-      <c r="U131" s="5"/>
-      <c r="V131" s="5"/>
-      <c r="W131" s="5"/>
-      <c r="X131" s="5"/>
-      <c r="Y131" s="5"/>
-    </row>
-    <row r="132" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="13" t="s">
+      <c r="O131" s="15"/>
+      <c r="P131" s="32"/>
+      <c r="R131" s="28"/>
+      <c r="U131" s="15"/>
+      <c r="V131" s="15"/>
+      <c r="W131" s="15"/>
+      <c r="X131" s="15"/>
+      <c r="Y131" s="15"/>
+    </row>
+    <row r="132" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="28" t="s">
+      <c r="D132" s="15"/>
+      <c r="E132" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="4">
+      <c r="F132" s="15"/>
+      <c r="G132" s="17">
         <v>1033</v>
       </c>
-      <c r="H132" s="4">
-        <v>0</v>
-      </c>
-      <c r="I132" s="4">
-        <v>0</v>
-      </c>
-      <c r="J132" s="4"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M132" s="32" t="s">
+      <c r="H132" s="17">
+        <v>0</v>
+      </c>
+      <c r="I132" s="17">
+        <v>0</v>
+      </c>
+      <c r="J132" s="17"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M132" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="N132" s="5">
+      <c r="N132" s="15">
         <v>210</v>
       </c>
-      <c r="O132" s="5"/>
-      <c r="R132" s="25"/>
-      <c r="U132" s="5"/>
-      <c r="V132" s="5"/>
-      <c r="W132" s="5"/>
-      <c r="X132" s="5"/>
-      <c r="Y132" s="5"/>
-    </row>
-    <row r="133" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="13" t="s">
+      <c r="O132" s="15"/>
+      <c r="R132" s="28"/>
+      <c r="U132" s="15"/>
+      <c r="V132" s="15"/>
+      <c r="W132" s="15"/>
+      <c r="X132" s="15"/>
+      <c r="Y132" s="15"/>
+    </row>
+    <row r="133" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="28" t="s">
+      <c r="D133" s="15"/>
+      <c r="E133" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="4">
+      <c r="F133" s="15"/>
+      <c r="G133" s="17">
         <v>1039</v>
       </c>
-      <c r="H133" s="4">
-        <v>0</v>
-      </c>
-      <c r="I133" s="4">
-        <v>0</v>
-      </c>
-      <c r="J133" s="4"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M133" s="32" t="s">
+      <c r="H133" s="17">
+        <v>0</v>
+      </c>
+      <c r="I133" s="17">
+        <v>0</v>
+      </c>
+      <c r="J133" s="17"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M133" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="N133" s="5">
-        <v>0</v>
-      </c>
-      <c r="O133" s="5"/>
-      <c r="R133" s="25"/>
-      <c r="U133" s="5"/>
-      <c r="V133" s="5"/>
-      <c r="W133" s="5"/>
-      <c r="X133" s="5"/>
-      <c r="Y133" s="5"/>
-    </row>
-    <row r="134" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="13" t="s">
+      <c r="N133" s="15">
+        <v>0</v>
+      </c>
+      <c r="O133" s="15"/>
+      <c r="R133" s="28"/>
+      <c r="U133" s="15"/>
+      <c r="V133" s="15"/>
+      <c r="W133" s="15"/>
+      <c r="X133" s="15"/>
+      <c r="Y133" s="15"/>
+    </row>
+    <row r="134" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="E134" s="28" t="s">
+      <c r="D134" s="15"/>
+      <c r="E134" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="G134" s="4">
+      <c r="F134" s="15"/>
+      <c r="G134" s="17">
         <v>1036</v>
       </c>
-      <c r="H134" s="4">
-        <v>0</v>
-      </c>
-      <c r="I134" s="4">
-        <v>0</v>
-      </c>
-      <c r="J134" s="4"/>
-      <c r="L134" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M134" s="32" t="s">
+      <c r="H134" s="17">
+        <v>0</v>
+      </c>
+      <c r="I134" s="17">
+        <v>0</v>
+      </c>
+      <c r="J134" s="17"/>
+      <c r="L134" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M134" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="N134" s="5">
+      <c r="N134" s="15">
         <v>-100</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="13" t="s">
+      <c r="O134" s="15"/>
+      <c r="P134" s="21"/>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="15"/>
+      <c r="V134" s="15"/>
+      <c r="W134" s="15"/>
+      <c r="X134" s="15"/>
+      <c r="Y134" s="15"/>
+    </row>
+    <row r="135" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="E135" s="28" t="s">
+      <c r="D135" s="15"/>
+      <c r="E135" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="G135" s="4">
+      <c r="F135" s="15"/>
+      <c r="G135" s="17">
         <v>1032</v>
       </c>
-      <c r="H135" s="4">
-        <v>0</v>
-      </c>
-      <c r="I135" s="4">
-        <v>0</v>
-      </c>
-      <c r="J135" s="4"/>
-      <c r="L135" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M135" s="32" t="s">
+      <c r="H135" s="17">
+        <v>0</v>
+      </c>
+      <c r="I135" s="17">
+        <v>0</v>
+      </c>
+      <c r="J135" s="17"/>
+      <c r="L135" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M135" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="N135" s="5">
+      <c r="N135" s="15">
         <v>123</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="13" t="s">
+      <c r="O135" s="15"/>
+      <c r="P135" s="21"/>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="15"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="15"/>
+      <c r="X135" s="15"/>
+      <c r="Y135" s="15"/>
+    </row>
+    <row r="136" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E136" s="28" t="s">
+      <c r="D136" s="15"/>
+      <c r="E136" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="G136" s="4">
-        <v>0</v>
-      </c>
-      <c r="H136" s="4">
-        <v>0</v>
-      </c>
-      <c r="I136" s="4">
-        <v>0</v>
-      </c>
-      <c r="J136" s="4"/>
-      <c r="L136" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M136" s="32" t="s">
+      <c r="F136" s="15"/>
+      <c r="G136" s="17">
+        <v>0</v>
+      </c>
+      <c r="H136" s="17">
+        <v>0</v>
+      </c>
+      <c r="I136" s="17">
+        <v>0</v>
+      </c>
+      <c r="J136" s="17"/>
+      <c r="L136" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M136" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="N136" s="5">
+      <c r="N136" s="15">
         <v>90</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="13" t="s">
+      <c r="O136" s="15"/>
+      <c r="P136" s="21"/>
+      <c r="Q136" s="21"/>
+      <c r="R136" s="21"/>
+      <c r="S136" s="21"/>
+      <c r="T136" s="21"/>
+      <c r="U136" s="15"/>
+      <c r="V136" s="15"/>
+      <c r="W136" s="15"/>
+      <c r="X136" s="15"/>
+      <c r="Y136" s="15"/>
+    </row>
+    <row r="137" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="E137" s="28" t="s">
+      <c r="D137" s="15"/>
+      <c r="E137" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="G137" s="4">
-        <v>0</v>
-      </c>
-      <c r="H137" s="4">
-        <v>0</v>
-      </c>
-      <c r="I137" s="4">
-        <v>0</v>
-      </c>
-      <c r="J137" s="4"/>
-      <c r="L137" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M137" s="32" t="s">
+      <c r="F137" s="15"/>
+      <c r="G137" s="17">
+        <v>0</v>
+      </c>
+      <c r="H137" s="17">
+        <v>0</v>
+      </c>
+      <c r="I137" s="17">
+        <v>0</v>
+      </c>
+      <c r="J137" s="17"/>
+      <c r="L137" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M137" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="N137" s="5">
+      <c r="N137" s="15">
         <v>270</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="13" t="s">
+      <c r="O137" s="15"/>
+      <c r="P137" s="21"/>
+      <c r="Q137" s="21"/>
+      <c r="R137" s="21"/>
+      <c r="S137" s="21"/>
+      <c r="T137" s="21"/>
+      <c r="U137" s="15"/>
+      <c r="V137" s="15"/>
+      <c r="W137" s="15"/>
+      <c r="X137" s="15"/>
+      <c r="Y137" s="15"/>
+    </row>
+    <row r="138" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="E138" s="28" t="s">
+      <c r="D138" s="15"/>
+      <c r="E138" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="G138" s="4">
+      <c r="F138" s="15"/>
+      <c r="G138" s="17">
         <v>1037</v>
       </c>
-      <c r="H138" s="4">
-        <v>0</v>
-      </c>
-      <c r="I138" s="4">
-        <v>0</v>
-      </c>
-      <c r="J138" s="4"/>
-      <c r="L138" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M138" s="32" t="s">
+      <c r="H138" s="17">
+        <v>0</v>
+      </c>
+      <c r="I138" s="17">
+        <v>0</v>
+      </c>
+      <c r="J138" s="17"/>
+      <c r="L138" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M138" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="N138" s="5">
+      <c r="N138" s="15">
         <v>-90</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="13" t="s">
+      <c r="O138" s="15"/>
+      <c r="P138" s="21"/>
+      <c r="Q138" s="21"/>
+      <c r="R138" s="21"/>
+      <c r="S138" s="21"/>
+      <c r="T138" s="21"/>
+      <c r="U138" s="15"/>
+      <c r="V138" s="15"/>
+      <c r="W138" s="15"/>
+      <c r="X138" s="15"/>
+      <c r="Y138" s="15"/>
+    </row>
+    <row r="139" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="E139" s="28" t="s">
+      <c r="D139" s="15"/>
+      <c r="E139" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="G139" s="4">
+      <c r="F139" s="15"/>
+      <c r="G139" s="17">
         <v>1038</v>
       </c>
-      <c r="H139" s="4">
-        <v>0</v>
-      </c>
-      <c r="I139" s="4">
-        <v>0</v>
-      </c>
-      <c r="J139" s="4"/>
-      <c r="L139" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M139" s="32" t="s">
+      <c r="H139" s="17">
+        <v>0</v>
+      </c>
+      <c r="I139" s="17">
+        <v>0</v>
+      </c>
+      <c r="J139" s="17"/>
+      <c r="L139" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M139" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="N139" s="5">
+      <c r="N139" s="15">
         <v>-150</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="13" t="s">
+      <c r="O139" s="15"/>
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="15"/>
+      <c r="V139" s="15"/>
+      <c r="W139" s="15"/>
+      <c r="X139" s="15"/>
+      <c r="Y139" s="15"/>
+    </row>
+    <row r="140" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="E140" s="28" t="s">
+      <c r="D140" s="15"/>
+      <c r="E140" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="G140" s="4">
+      <c r="F140" s="15"/>
+      <c r="G140" s="17">
         <v>1047</v>
       </c>
-      <c r="H140" s="4">
-        <v>0</v>
-      </c>
-      <c r="I140" s="4">
-        <v>0</v>
-      </c>
-      <c r="J140" s="4"/>
-      <c r="L140" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M140" s="32" t="s">
+      <c r="H140" s="17">
+        <v>0</v>
+      </c>
+      <c r="I140" s="17">
+        <v>0</v>
+      </c>
+      <c r="J140" s="17"/>
+      <c r="L140" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M140" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="N140" s="4">
+      <c r="N140" s="17">
         <v>90</v>
       </c>
-      <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="13" t="s">
+      <c r="O140" s="17"/>
+      <c r="P140" s="21"/>
+      <c r="Q140" s="21"/>
+      <c r="R140" s="21"/>
+      <c r="S140" s="21"/>
+      <c r="T140" s="21"/>
+      <c r="U140" s="15"/>
+      <c r="V140" s="15"/>
+      <c r="W140" s="15"/>
+      <c r="X140" s="15"/>
+      <c r="Y140" s="15"/>
+    </row>
+    <row r="141" spans="1:25" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="28" t="s">
+      <c r="D141" s="15"/>
+      <c r="E141" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141" s="15">
         <v>400001</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="17">
         <v>1034</v>
       </c>
-      <c r="H141" s="4">
-        <v>0</v>
-      </c>
-      <c r="I141" s="4">
-        <v>0</v>
-      </c>
-      <c r="J141" s="4"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M141" s="32" t="s">
+      <c r="H141" s="17">
+        <v>0</v>
+      </c>
+      <c r="I141" s="17">
+        <v>0</v>
+      </c>
+      <c r="J141" s="17"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M141" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="N141" s="5">
+      <c r="N141" s="15">
         <v>110</v>
       </c>
-      <c r="O141" s="5"/>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-    </row>
-    <row r="142" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="13" t="s">
+      <c r="O141" s="15"/>
+      <c r="U141" s="15"/>
+      <c r="V141" s="15"/>
+      <c r="W141" s="15"/>
+      <c r="X141" s="15"/>
+      <c r="Y141" s="15"/>
+    </row>
+    <row r="142" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="E142" s="28" t="s">
+      <c r="D142" s="15"/>
+      <c r="E142" s="37" t="s">
         <v>454</v>
       </c>
-      <c r="G142" s="4">
+      <c r="F142" s="15"/>
+      <c r="G142" s="17">
         <v>1049</v>
       </c>
-      <c r="H142" s="4">
-        <v>0</v>
-      </c>
-      <c r="I142" s="4">
-        <v>0</v>
-      </c>
-      <c r="J142" s="4"/>
-      <c r="L142" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M142" s="32" t="s">
+      <c r="H142" s="17">
+        <v>0</v>
+      </c>
+      <c r="I142" s="17">
+        <v>0</v>
+      </c>
+      <c r="J142" s="17"/>
+      <c r="L142" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M142" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="N142" s="5">
+      <c r="N142" s="15">
         <v>173</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="13" t="s">
+      <c r="O142" s="15"/>
+      <c r="P142" s="21"/>
+      <c r="Q142" s="21"/>
+      <c r="R142" s="21"/>
+      <c r="S142" s="21"/>
+      <c r="T142" s="21"/>
+      <c r="U142" s="15"/>
+      <c r="V142" s="15"/>
+      <c r="W142" s="15"/>
+      <c r="X142" s="15"/>
+      <c r="Y142" s="15"/>
+    </row>
+    <row r="143" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="E143" s="28" t="s">
+      <c r="D143" s="15"/>
+      <c r="E143" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="G143" s="4">
+      <c r="F143" s="15"/>
+      <c r="G143" s="17">
         <v>1051</v>
       </c>
-      <c r="H143" s="4">
-        <v>0</v>
-      </c>
-      <c r="I143" s="4">
-        <v>0</v>
-      </c>
-      <c r="J143" s="4"/>
-      <c r="L143" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M143" s="32" t="s">
+      <c r="H143" s="17">
+        <v>0</v>
+      </c>
+      <c r="I143" s="17">
+        <v>0</v>
+      </c>
+      <c r="J143" s="17"/>
+      <c r="L143" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M143" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="N143" s="5">
+      <c r="N143" s="15">
         <v>235</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="13" t="s">
+      <c r="O143" s="15"/>
+      <c r="P143" s="21"/>
+      <c r="Q143" s="21"/>
+      <c r="R143" s="21"/>
+      <c r="S143" s="21"/>
+      <c r="T143" s="21"/>
+      <c r="U143" s="15"/>
+      <c r="V143" s="15"/>
+      <c r="W143" s="15"/>
+      <c r="X143" s="15"/>
+      <c r="Y143" s="15"/>
+    </row>
+    <row r="144" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E144" s="28" t="s">
+      <c r="D144" s="15"/>
+      <c r="E144" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="G144" s="4">
+      <c r="F144" s="15"/>
+      <c r="G144" s="17">
         <v>1053</v>
       </c>
-      <c r="H144" s="4">
-        <v>0</v>
-      </c>
-      <c r="I144" s="4">
-        <v>0</v>
-      </c>
-      <c r="J144" s="4"/>
-      <c r="L144" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M144" s="32" t="s">
+      <c r="H144" s="17">
+        <v>0</v>
+      </c>
+      <c r="I144" s="17">
+        <v>0</v>
+      </c>
+      <c r="J144" s="17"/>
+      <c r="L144" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M144" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="N144" s="5">
+      <c r="N144" s="15">
         <v>175</v>
       </c>
-    </row>
-    <row r="145" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="13" t="s">
+      <c r="O144" s="15"/>
+      <c r="P144" s="21"/>
+      <c r="Q144" s="21"/>
+      <c r="R144" s="21"/>
+      <c r="S144" s="21"/>
+      <c r="T144" s="21"/>
+      <c r="U144" s="15"/>
+      <c r="V144" s="15"/>
+      <c r="W144" s="15"/>
+      <c r="X144" s="15"/>
+      <c r="Y144" s="15"/>
+    </row>
+    <row r="145" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="E145" s="28" t="s">
+      <c r="D145" s="15"/>
+      <c r="E145" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="G145" s="4">
+      <c r="F145" s="15"/>
+      <c r="G145" s="17">
         <v>1054</v>
       </c>
-      <c r="H145" s="4">
-        <v>0</v>
-      </c>
-      <c r="I145" s="4">
-        <v>0</v>
-      </c>
-      <c r="J145" s="4"/>
-      <c r="L145" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M145" s="32" t="s">
+      <c r="H145" s="17">
+        <v>0</v>
+      </c>
+      <c r="I145" s="17">
+        <v>0</v>
+      </c>
+      <c r="J145" s="17"/>
+      <c r="L145" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M145" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="N145" s="5">
+      <c r="N145" s="15">
         <v>175</v>
       </c>
-    </row>
-    <row r="146" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="13" t="s">
+      <c r="O145" s="15"/>
+      <c r="P145" s="21"/>
+      <c r="Q145" s="21"/>
+      <c r="R145" s="21"/>
+      <c r="S145" s="21"/>
+      <c r="T145" s="21"/>
+      <c r="U145" s="15"/>
+      <c r="V145" s="15"/>
+      <c r="W145" s="15"/>
+      <c r="X145" s="15"/>
+      <c r="Y145" s="15"/>
+    </row>
+    <row r="146" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="E146" s="28" t="s">
+      <c r="D146" s="15"/>
+      <c r="E146" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="G146" s="4">
+      <c r="F146" s="15"/>
+      <c r="G146" s="17">
         <v>1054</v>
       </c>
-      <c r="H146" s="4">
-        <v>0</v>
-      </c>
-      <c r="I146" s="4">
-        <v>0</v>
-      </c>
-      <c r="J146" s="4"/>
-      <c r="L146" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M146" s="32" t="s">
+      <c r="H146" s="17">
+        <v>0</v>
+      </c>
+      <c r="I146" s="17">
+        <v>0</v>
+      </c>
+      <c r="J146" s="17"/>
+      <c r="L146" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M146" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="N146" s="5">
+      <c r="N146" s="15">
         <v>175</v>
       </c>
-    </row>
-    <row r="147" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="13" t="s">
+      <c r="O146" s="15"/>
+      <c r="P146" s="21"/>
+      <c r="Q146" s="21"/>
+      <c r="R146" s="21"/>
+      <c r="S146" s="21"/>
+      <c r="T146" s="21"/>
+      <c r="U146" s="15"/>
+      <c r="V146" s="15"/>
+      <c r="W146" s="15"/>
+      <c r="X146" s="15"/>
+      <c r="Y146" s="15"/>
+    </row>
+    <row r="147" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="E147" s="28" t="s">
+      <c r="D147" s="15"/>
+      <c r="E147" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="G147" s="4">
+      <c r="F147" s="15"/>
+      <c r="G147" s="17">
         <v>10</v>
       </c>
-      <c r="H147" s="4">
-        <v>0</v>
-      </c>
-      <c r="I147" s="4">
-        <v>0</v>
-      </c>
-      <c r="J147" s="4"/>
-      <c r="L147" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M147" s="32" t="s">
+      <c r="H147" s="17">
+        <v>0</v>
+      </c>
+      <c r="I147" s="17">
+        <v>0</v>
+      </c>
+      <c r="J147" s="17"/>
+      <c r="L147" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M147" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="N147" s="5">
+      <c r="N147" s="15">
         <v>175</v>
       </c>
-    </row>
-    <row r="148" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="21"/>
+      <c r="Q147" s="21"/>
+      <c r="R147" s="21"/>
+      <c r="S147" s="21"/>
+      <c r="T147" s="21"/>
+      <c r="U147" s="15"/>
+      <c r="V147" s="15"/>
+      <c r="W147" s="15"/>
+      <c r="X147" s="15"/>
+      <c r="Y147" s="15"/>
+    </row>
+    <row r="148" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD123CE1-0727-4C98-927D-B1A985591EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6430625E-7A5B-4CEA-8D4D-E5C378D07C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -1995,7 +1995,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>100001,100002,100003</t>
+    <t>100002,100003</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C572F-C833-4068-B4C8-0D6B2A0DA621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E2E923-25B4-4076-BA6F-BA6C5FE94471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2016,10 +2016,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>2513,0,1741</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>-97,0,-1436</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2092,6 +2088,10 @@
   </si>
   <si>
     <t>欢迎你来到天空之城,我的子民!</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2513,0,-1741</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2734,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3002,10 +3002,10 @@
       <c r="J6" s="40"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N6" s="39">
         <v>90</v>
@@ -3047,10 +3047,10 @@
       <c r="J7" s="40"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="M7" s="43" t="s">
         <v>490</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>491</v>
       </c>
       <c r="N7" s="39">
         <v>186</v>
@@ -3088,10 +3088,10 @@
       <c r="J8" s="40"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N8" s="39">
         <v>-60</v>
@@ -3129,10 +3129,10 @@
       <c r="J9" s="40"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="N9" s="39">
         <v>180</v>
@@ -3172,10 +3172,10 @@
       <c r="J10" s="40"/>
       <c r="K10" s="39"/>
       <c r="L10" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="M10" s="43" t="s">
         <v>486</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>487</v>
       </c>
       <c r="N10" s="39">
         <v>-60</v>
@@ -3213,10 +3213,10 @@
       <c r="J11" s="40"/>
       <c r="K11" s="39"/>
       <c r="L11" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="M11" s="43" t="s">
         <v>488</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>489</v>
       </c>
       <c r="N11" s="39">
         <v>90</v>
@@ -3252,10 +3252,10 @@
       <c r="J12" s="18"/>
       <c r="K12" s="1"/>
       <c r="L12" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N12" s="39">
         <v>71</v>
@@ -3293,7 +3293,7 @@
       <c r="J13" s="40"/>
       <c r="K13" s="39"/>
       <c r="L13" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M13" s="43" t="s">
         <v>481</v>
@@ -3334,10 +3334,10 @@
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="M14" s="43" t="s">
         <v>497</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>498</v>
       </c>
       <c r="N14" s="39">
         <v>90</v>
@@ -3377,10 +3377,10 @@
       <c r="J15" s="40"/>
       <c r="K15" s="39"/>
       <c r="L15" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="M15" s="43" t="s">
         <v>492</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>493</v>
       </c>
       <c r="N15" s="39">
         <v>165</v>
@@ -3402,7 +3402,7 @@
         <v>1011</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F16" s="13"/>
       <c r="H16" s="4">
@@ -3412,19 +3412,19 @@
         <v>0</v>
       </c>
       <c r="L16" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>500</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>501</v>
       </c>
       <c r="N16" s="5">
         <v>178</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E2E923-25B4-4076-BA6F-BA6C5FE94471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF78852-B1D1-4FA9-B738-6E45F4587393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="559">
   <si>
     <t>#</t>
   </si>
@@ -2092,6 +2092,230 @@
   </si>
   <si>
     <t>2513,0,-1741</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>走失的村民</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.95,1.66,-21.51</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒谷村长</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1485,166,2637</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-58,1732,96</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒地探险者</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘-430,183,181</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的卫士</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>4678,-38,-1606</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠猎手-安娜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗迹挖掘者</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1308,43,696</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5518,-57,-72</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠老者-加尔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1749,635,19504</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险者-奎恩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军-巴斯</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘5467,612,-4138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>360,161,-432</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>山谷长者</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤的魔法师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013,235,-13507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9444,-86,-11746</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险者-鲁维</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>精疲力尽的矿工</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-860,-97,-12378</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔法师-恩科</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘-3814,-77,-15853</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者-库里</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,2,-2323</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地狩猎人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2084,0,1792</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司-法克</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4898,0，-114</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2364,45,635</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰宫护卫长</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军-库克</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1694,2,-135</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>影月使者-维纶</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2569,29,3806</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2282,13,-1805</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪式魔法师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的村民</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>302,1209,-3364</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者-凯恩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3393,608,-797</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金狩猎者</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13,647,2556</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2295,7 +2519,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2425,6 +2649,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2732,10 +2962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y173"/>
+  <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3427,7 +3657,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="13">
         <v>10001</v>
       </c>
@@ -3452,7 +3682,7 @@
       </c>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13">
         <v>10002</v>
       </c>
@@ -3477,7 +3707,7 @@
       </c>
       <c r="R18" s="24"/>
     </row>
-    <row r="19" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="13">
         <v>10003</v>
       </c>
@@ -3502,7 +3732,7 @@
       </c>
       <c r="R19" s="24"/>
     </row>
-    <row r="20" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="13">
         <v>10004</v>
       </c>
@@ -3532,1091 +3762,594 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="13">
+        <v>1000101</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="H21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>10001</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="13">
+        <v>1000201</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="L22" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="N22" s="5">
+        <v>180</v>
+      </c>
+      <c r="R22" s="24"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="13">
+        <v>1000301</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="L23" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="N23" s="5">
+        <v>-306</v>
+      </c>
+      <c r="R23" s="24"/>
+      <c r="S23" s="46"/>
+    </row>
+    <row r="24" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="13">
+        <v>1000401</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="L24" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="N24" s="5">
+        <v>-183</v>
+      </c>
+      <c r="R24" s="24"/>
+      <c r="S24" s="46"/>
+    </row>
+    <row r="25" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="13">
+        <v>1000501</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="L25" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="N25" s="5">
+        <v>-180</v>
+      </c>
+      <c r="R25" s="24"/>
+      <c r="S25" s="46"/>
+    </row>
+    <row r="26" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="13">
+        <v>2000101</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="L26" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="N26" s="5">
+        <v>-155</v>
+      </c>
+      <c r="R26" s="24"/>
+      <c r="S26" s="46"/>
+    </row>
+    <row r="27" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="13">
+        <v>2000201</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="L27" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="N27" s="5">
+        <v>-274</v>
+      </c>
+      <c r="R27" s="24"/>
+      <c r="S27" s="46"/>
+    </row>
+    <row r="28" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="13">
+        <v>2000301</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="L28" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="N28" s="5">
+        <v>-223</v>
+      </c>
+      <c r="R28" s="24"/>
+      <c r="S28" s="46"/>
+    </row>
+    <row r="29" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="13">
+        <v>2000401</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="L29" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="N29" s="5">
+        <v>-87</v>
+      </c>
+      <c r="R29" s="24"/>
+      <c r="S29" s="46"/>
+    </row>
+    <row r="30" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="13">
+        <v>2000501</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="L30" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="N30" s="5">
+        <v>-45</v>
+      </c>
+      <c r="R30" s="24"/>
+      <c r="S30" s="46"/>
+    </row>
+    <row r="31" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="13">
+        <v>3000101</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="L31" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="N31" s="5">
+        <v>-200</v>
+      </c>
+      <c r="R31" s="24"/>
+      <c r="S31" s="46"/>
+    </row>
+    <row r="32" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="13">
+        <v>3000201</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="L32" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="N32" s="5">
+        <v>-144</v>
+      </c>
+      <c r="R32" s="24"/>
+      <c r="S32" s="46"/>
+    </row>
+    <row r="33" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="13">
+        <v>3000301</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="L33" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="N33" s="5">
+        <v>-180</v>
+      </c>
+      <c r="R33" s="24"/>
+      <c r="S33" s="46"/>
+    </row>
+    <row r="34" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="13">
+        <v>3000401</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="L34" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="N34" s="5">
+        <v>-211</v>
+      </c>
+      <c r="R34" s="24"/>
+      <c r="S34" s="46"/>
+    </row>
+    <row r="35" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="13">
+        <v>3000501</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="L35" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="N35" s="5">
+        <v>-215</v>
+      </c>
+      <c r="R35" s="24"/>
+      <c r="S35" s="46"/>
+    </row>
+    <row r="36" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="13">
+        <v>4000101</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="L36" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="N36" s="5">
+        <v>-157</v>
+      </c>
+      <c r="R36" s="24"/>
+      <c r="S36" s="46"/>
+    </row>
+    <row r="37" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="13">
+        <v>4000102</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="L37" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="N37" s="5">
+        <v>-60</v>
+      </c>
+      <c r="R37" s="24"/>
+      <c r="S37" s="46"/>
+    </row>
+    <row r="38" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="13">
+        <v>4000103</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="L38" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="N38" s="5">
+        <v>-187</v>
+      </c>
+      <c r="R38" s="24"/>
+      <c r="S38" s="46"/>
+    </row>
+    <row r="39" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="13">
+        <v>4000104</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="L39" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="N39" s="5">
+        <v>-90</v>
+      </c>
+      <c r="R39" s="24"/>
+      <c r="S39" s="46"/>
+    </row>
+    <row r="40" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="13">
+        <v>4000105</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="L40" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="N40" s="5">
+        <v>-94</v>
+      </c>
+      <c r="R40" s="24"/>
+      <c r="S40" s="46"/>
+    </row>
+    <row r="41" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="13">
+        <v>5000101</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="L41" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="N41" s="5">
+        <v>-85</v>
+      </c>
+      <c r="R41" s="24"/>
+      <c r="S41" s="46"/>
+    </row>
+    <row r="42" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="13">
+        <v>5000201</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="L42" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="N42" s="5">
+        <v>-280</v>
+      </c>
+      <c r="R42" s="24"/>
+      <c r="S42" s="46"/>
+    </row>
+    <row r="43" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="13">
+        <v>5000301</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="L43" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="N43" s="5">
+        <v>-180</v>
+      </c>
+      <c r="R43" s="24"/>
+      <c r="S43" s="46"/>
+    </row>
+    <row r="44" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="13">
+        <v>5000401</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="L44" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="N44" s="5">
+        <v>-152</v>
+      </c>
+      <c r="R44" s="24"/>
+      <c r="S44" s="46"/>
+    </row>
+    <row r="45" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="13">
+        <v>5000501</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="L45" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="N45" s="5">
+        <v>-156</v>
+      </c>
+      <c r="R45" s="24"/>
+      <c r="S45" s="46"/>
+    </row>
+    <row r="46" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="13">
         <v>1000014</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="F46" s="15">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16">
         <v>4</v>
       </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="L21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="14">
-        <v>-90</v>
-      </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-    </row>
-    <row r="22" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="15">
-        <v>200001</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1012</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18"/>
-      <c r="L22" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="14">
-        <v>-90</v>
-      </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-    </row>
-    <row r="23" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="15">
-        <v>10001201</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1009</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="L23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="N23" s="14">
-        <v>-280</v>
-      </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-    </row>
-    <row r="24" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16">
-        <v>1004</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="L24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="14">
-        <v>-180</v>
-      </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-    </row>
-    <row r="25" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16">
-        <v>1015</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0</v>
-      </c>
-      <c r="I25" s="16">
-        <v>0</v>
-      </c>
-      <c r="J25" s="18"/>
-      <c r="L25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="14">
-        <v>-280</v>
-      </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-    </row>
-    <row r="26" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16">
-        <v>1017</v>
-      </c>
-      <c r="H26" s="16">
-        <v>0</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
-      <c r="J26" s="18"/>
-      <c r="L26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="14">
-        <v>-180</v>
-      </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-    </row>
-    <row r="27" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16">
-        <v>1005</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
-      <c r="I27" s="16">
-        <v>0</v>
-      </c>
-      <c r="J27" s="18"/>
-      <c r="L27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="16">
-        <v>-180</v>
-      </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-    </row>
-    <row r="28" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16">
-        <v>1018</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="L28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="14">
-        <v>-90</v>
-      </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-    </row>
-    <row r="29" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16">
-        <v>1019</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0</v>
-      </c>
-      <c r="J29" s="18"/>
-      <c r="L29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="N29" s="14">
-        <v>90</v>
-      </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-    </row>
-    <row r="30" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16">
-        <v>1016</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
-      <c r="J30" s="18"/>
-      <c r="L30" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="N30" s="14">
-        <v>0</v>
-      </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-    </row>
-    <row r="31" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16">
-        <v>1020</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
-        <v>0</v>
-      </c>
-      <c r="J31" s="18"/>
-      <c r="L31" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="N31" s="14">
-        <v>-270</v>
-      </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-    </row>
-    <row r="32" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16">
-        <v>1021</v>
-      </c>
-      <c r="H32" s="16">
-        <v>0</v>
-      </c>
-      <c r="I32" s="16">
-        <v>0</v>
-      </c>
-      <c r="J32" s="18"/>
-      <c r="L32" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="N32" s="14">
-        <v>45</v>
-      </c>
-      <c r="O32" s="14"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-    </row>
-    <row r="33" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="16">
-        <v>1007</v>
-      </c>
-      <c r="H33" s="16">
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18"/>
-      <c r="L33" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="N33" s="14">
-        <v>90</v>
-      </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-    </row>
-    <row r="34" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="16">
-        <v>1006</v>
-      </c>
-      <c r="H34" s="16">
-        <v>0</v>
-      </c>
-      <c r="I34" s="16">
-        <v>0</v>
-      </c>
-      <c r="J34" s="18"/>
-      <c r="L34" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M34" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="N34" s="14">
-        <v>90</v>
-      </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-    </row>
-    <row r="35" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="16">
-        <v>1008</v>
-      </c>
-      <c r="H35" s="16">
-        <v>0</v>
-      </c>
-      <c r="I35" s="16">
-        <v>0</v>
-      </c>
-      <c r="J35" s="18"/>
-      <c r="L35" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="N35" s="14">
-        <v>225</v>
-      </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-    </row>
-    <row r="36" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="16">
-        <v>1002</v>
-      </c>
-      <c r="H36" s="16">
-        <v>0</v>
-      </c>
-      <c r="I36" s="16">
-        <v>0</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="L36" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="N36" s="14">
-        <v>0</v>
-      </c>
-      <c r="O36" s="14"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-    </row>
-    <row r="37" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="16">
-        <v>5</v>
-      </c>
-      <c r="H37" s="16">
-        <v>0</v>
-      </c>
-      <c r="I37" s="16">
-        <v>0</v>
-      </c>
-      <c r="J37" s="18"/>
-      <c r="L37" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="N37" s="14">
-        <v>-90</v>
-      </c>
-      <c r="O37" s="14"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-    </row>
-    <row r="38" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="16">
-        <v>1014</v>
-      </c>
-      <c r="H38" s="16">
-        <v>0</v>
-      </c>
-      <c r="I38" s="16">
-        <v>0</v>
-      </c>
-      <c r="J38" s="18"/>
-      <c r="L38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="N38" s="14">
-        <v>180</v>
-      </c>
-      <c r="O38" s="14"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-    </row>
-    <row r="39" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="14">
-        <v>4</v>
-      </c>
-      <c r="G39" s="16">
-        <v>1022</v>
-      </c>
-      <c r="H39" s="16">
-        <v>0</v>
-      </c>
-      <c r="I39" s="16">
-        <v>0</v>
-      </c>
-      <c r="J39" s="18"/>
-      <c r="L39" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="N39" s="14">
-        <v>180</v>
-      </c>
-      <c r="O39" s="14"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-    </row>
-    <row r="40" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="16">
-        <v>1</v>
-      </c>
-      <c r="H40" s="16">
-        <v>0</v>
-      </c>
-      <c r="I40" s="16">
-        <v>0</v>
-      </c>
-      <c r="J40" s="16">
-        <v>52</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="N40" s="14">
-        <v>90</v>
-      </c>
-      <c r="O40" s="14"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-    </row>
-    <row r="41" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="16">
-        <v>1</v>
-      </c>
-      <c r="H41" s="16">
-        <v>0</v>
-      </c>
-      <c r="I41" s="16">
-        <v>0</v>
-      </c>
-      <c r="J41" s="16">
-        <v>53</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="N41" s="14">
-        <v>90</v>
-      </c>
-      <c r="O41" s="14"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-    </row>
-    <row r="42" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="16">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16">
-        <v>0</v>
-      </c>
-      <c r="I42" s="16">
-        <v>0</v>
-      </c>
-      <c r="J42" s="16">
-        <v>54</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="N42" s="14">
-        <v>90</v>
-      </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-    </row>
-    <row r="43" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="15">
-        <v>100001</v>
-      </c>
-      <c r="G43" s="16">
-        <v>1012</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" s="18"/>
-      <c r="L43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M43" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N43" s="14">
-        <v>-110</v>
-      </c>
-      <c r="O43" s="14"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-    </row>
-    <row r="44" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="14">
-        <v>5</v>
-      </c>
-      <c r="G44" s="16">
-        <v>1029</v>
-      </c>
-      <c r="H44" s="16">
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <v>0</v>
-      </c>
-      <c r="J44" s="18"/>
-      <c r="L44" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M44" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="N44" s="14">
-        <v>-30</v>
-      </c>
-      <c r="O44" s="14"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-    </row>
-    <row r="45" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="16">
-        <v>3</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="16">
-        <v>0</v>
-      </c>
-      <c r="J45" s="18"/>
-      <c r="L45" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N45" s="14">
-        <v>180</v>
-      </c>
-      <c r="O45" s="14"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-    </row>
-    <row r="46" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="19">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16">
-        <v>1024</v>
-      </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="H46" s="16">
+        <v>0</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
       <c r="J46" s="18"/>
       <c r="L46" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="34" t="s">
-        <v>147</v>
+      <c r="M46" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="N46" s="14">
-        <v>-30</v>
+        <v>-90</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="25" t="s">
-        <v>148</v>
+      <c r="R46" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -4628,17 +4361,17 @@
     </row>
     <row r="47" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D47" s="14"/>
-      <c r="E47" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="14">
-        <v>6</v>
+      <c r="E47" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="15">
+        <v>200001</v>
       </c>
       <c r="G47" s="16">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="H47" s="16">
         <v>0</v>
@@ -4650,18 +4383,16 @@
       <c r="L47" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M47" s="34" t="s">
-        <v>151</v>
+      <c r="M47" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="N47" s="14">
-        <v>-144</v>
+        <v>-90</v>
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="25" t="s">
-        <v>152</v>
-      </c>
+      <c r="R47" s="15"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="14"/>
@@ -4672,36 +4403,38 @@
     </row>
     <row r="48" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="D48" s="14"/>
-      <c r="E48" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="F48" s="14"/>
+      <c r="E48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="15">
+        <v>10001201</v>
+      </c>
       <c r="G48" s="16">
-        <v>2</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="16">
-        <v>2000001</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18"/>
       <c r="L48" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="34" t="s">
-        <v>154</v>
+      <c r="M48" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="N48" s="14">
-        <v>-180</v>
+        <v>-280</v>
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="25" t="s">
-        <v>155</v>
-      </c>
+      <c r="R48" s="15"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="14"/>
@@ -4710,38 +4443,38 @@
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
     </row>
-    <row r="49" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="17" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F49" s="14"/>
+      <c r="E49" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="15"/>
       <c r="G49" s="16">
-        <v>2</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18">
-        <v>2000002</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18"/>
       <c r="L49" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M49" s="34" t="s">
-        <v>158</v>
+      <c r="M49" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="N49" s="14">
-        <v>90</v>
+        <v>-180</v>
       </c>
       <c r="O49" s="14"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="25" t="s">
-        <v>159</v>
-      </c>
+      <c r="R49" s="15"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="14"/>
@@ -4750,36 +4483,38 @@
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
     </row>
-    <row r="50" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="17" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="D50" s="14"/>
-      <c r="E50" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="14"/>
+      <c r="E50" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="15"/>
       <c r="G50" s="16">
-        <v>1027</v>
-      </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+        <v>1015</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
       <c r="J50" s="18"/>
       <c r="L50" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M50" s="34" t="s">
-        <v>162</v>
+      <c r="M50" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="N50" s="14">
-        <v>90</v>
+        <v>-280</v>
       </c>
       <c r="O50" s="14"/>
-      <c r="P50" s="23"/>
+      <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="25" t="s">
-        <v>163</v>
-      </c>
+      <c r="R50" s="15"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="14"/>
@@ -4788,35 +4523,39 @@
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
     </row>
-    <row r="51" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="D51" s="14"/>
-      <c r="E51" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F51" s="14"/>
+      <c r="E51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="15"/>
       <c r="G51" s="16">
-        <v>1028</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
+        <v>1017</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
       <c r="J51" s="18"/>
       <c r="L51" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M51" s="34" t="s">
-        <v>166</v>
+      <c r="M51" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="N51" s="14">
-        <v>129</v>
+        <v>-180</v>
       </c>
       <c r="O51" s="14"/>
-      <c r="P51" s="23"/>
+      <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="25" t="s">
-        <v>163</v>
+      <c r="R51" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -4826,40 +4565,40 @@
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
     </row>
-    <row r="52" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="16" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="16">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="H52" s="16">
-        <v>50000001</v>
+        <v>0</v>
       </c>
       <c r="I52" s="16">
         <v>0</v>
       </c>
-      <c r="J52" s="16">
-        <v>0</v>
-      </c>
+      <c r="J52" s="18"/>
       <c r="L52" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M52" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="N52" s="14">
-        <v>180</v>
-      </c>
-      <c r="O52" s="14"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="25"/>
+      <c r="M52" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="N52" s="16">
+        <v>-180</v>
+      </c>
+      <c r="O52" s="16"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="14"/>
@@ -4868,38 +4607,40 @@
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
     </row>
-    <row r="53" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="15" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="16">
-        <v>1030</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>135</v>
+        <v>1018</v>
+      </c>
+      <c r="H53" s="16">
+        <v>0</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
       </c>
       <c r="J53" s="18"/>
       <c r="L53" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M53" s="34" t="s">
-        <v>172</v>
+      <c r="M53" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="N53" s="14">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="15"/>
+      <c r="R53" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="14"/>
@@ -4908,39 +4649,39 @@
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
     </row>
-    <row r="54" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="17" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="16">
-        <v>6</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>135</v>
+        <v>1019</v>
+      </c>
+      <c r="H54" s="16">
+        <v>0</v>
+      </c>
+      <c r="I54" s="16">
+        <v>0</v>
       </c>
       <c r="J54" s="18"/>
       <c r="L54" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M54" s="34" t="s">
-        <v>175</v>
+      <c r="M54" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="N54" s="14">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="O54" s="14"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="15" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -4950,39 +4691,39 @@
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
     </row>
-    <row r="55" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="15" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="16">
-        <v>7</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>135</v>
+        <v>1016</v>
+      </c>
+      <c r="H55" s="16">
+        <v>0</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0</v>
       </c>
       <c r="J55" s="18"/>
       <c r="L55" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M55" s="34" t="s">
-        <v>179</v>
+      <c r="M55" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="N55" s="14">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="O55" s="14"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="15" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -4992,41 +4733,39 @@
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
     </row>
-    <row r="56" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="15" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="16">
-        <v>2</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>183</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="H56" s="16">
+        <v>0</v>
+      </c>
+      <c r="I56" s="16">
+        <v>0</v>
+      </c>
+      <c r="J56" s="18"/>
       <c r="L56" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M56" s="34" t="s">
-        <v>184</v>
+      <c r="M56" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="N56" s="14">
-        <v>-146</v>
+        <v>-270</v>
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="15" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -5036,19 +4775,17 @@
       <c r="X56" s="14"/>
       <c r="Y56" s="14"/>
     </row>
-    <row r="57" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="17" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F57" s="15">
-        <v>50000001</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F57" s="15"/>
       <c r="G57" s="16">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="H57" s="16">
         <v>0</v>
@@ -5061,10 +4798,10 @@
         <v>52</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="N57" s="14">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="2"/>
@@ -5078,19 +4815,19 @@
       <c r="X57" s="14"/>
       <c r="Y57" s="14"/>
     </row>
-    <row r="58" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="17" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="15">
-        <v>0</v>
+      <c r="E58" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="G58" s="16">
-        <v>8</v>
+        <v>1007</v>
       </c>
       <c r="H58" s="16">
         <v>0</v>
@@ -5102,17 +4839,17 @@
       <c r="L58" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M58" s="32" t="s">
-        <v>191</v>
+      <c r="M58" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="N58" s="14">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="15" t="s">
-        <v>192</v>
+      <c r="R58" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -5122,19 +4859,19 @@
       <c r="X58" s="14"/>
       <c r="Y58" s="14"/>
     </row>
-    <row r="59" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F59" s="15">
-        <v>0</v>
+      <c r="E59" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="G59" s="16">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="H59" s="16">
         <v>0</v>
@@ -5146,8 +4883,8 @@
       <c r="L59" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M59" s="32" t="s">
-        <v>195</v>
+      <c r="M59" s="34" t="s">
+        <v>103</v>
       </c>
       <c r="N59" s="14">
         <v>90</v>
@@ -5155,8 +4892,8 @@
       <c r="O59" s="14"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="15" t="s">
-        <v>196</v>
+      <c r="R59" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -5166,19 +4903,19 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
-    <row r="60" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="17" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F60" s="15">
-        <v>60000001</v>
+      <c r="E60" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="G60" s="16">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H60" s="16">
         <v>0</v>
@@ -5190,16 +4927,18 @@
       <c r="L60" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M60" s="32" t="s">
-        <v>199</v>
+      <c r="M60" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="N60" s="14">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="O60" s="14"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="15"/>
+      <c r="R60" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="14"/>
@@ -5208,19 +4947,17 @@
       <c r="X60" s="14"/>
       <c r="Y60" s="14"/>
     </row>
-    <row r="61" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="17" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F61" s="15">
-        <v>0</v>
-      </c>
+      <c r="E61" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="14"/>
       <c r="G61" s="16">
-        <v>9</v>
+        <v>1002</v>
       </c>
       <c r="H61" s="16">
         <v>0</v>
@@ -5232,17 +4969,17 @@
       <c r="L61" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M61" s="32" t="s">
-        <v>202</v>
+      <c r="M61" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="N61" s="14">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
-      <c r="R61" s="15" t="s">
-        <v>203</v>
+      <c r="R61" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -5252,36 +4989,38 @@
       <c r="X61" s="14"/>
       <c r="Y61" s="14"/>
     </row>
-    <row r="62" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="17" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="16" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="16">
-        <v>1050</v>
-      </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H62" s="16">
+        <v>0</v>
+      </c>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
       <c r="J62" s="18"/>
       <c r="L62" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="N62" s="14">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="25" t="s">
-        <v>207</v>
-      </c>
+      <c r="R62" s="25"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="14"/>
@@ -5290,21 +5029,17 @@
       <c r="X62" s="14"/>
       <c r="Y62" s="14"/>
     </row>
-    <row r="63" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+    <row r="63" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="17" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="D63" s="14"/>
-      <c r="E63" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F63" s="15">
-        <v>0</v>
-      </c>
+      <c r="E63" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="14"/>
       <c r="G63" s="16">
-        <v>1046</v>
+        <v>1014</v>
       </c>
       <c r="H63" s="16">
         <v>0</v>
@@ -5313,39 +5048,42 @@
         <v>0</v>
       </c>
       <c r="J63" s="18"/>
-      <c r="K63" s="1"/>
       <c r="L63" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="N63" s="14">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O63" s="14"/>
-      <c r="R63" s="15"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="14"/>
       <c r="V63" s="14"/>
       <c r="W63" s="14"/>
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
     </row>
-    <row r="64" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+    <row r="64" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="17" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="D64" s="14"/>
-      <c r="E64" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64" s="15">
-        <v>0</v>
+      <c r="E64" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="14">
+        <v>4</v>
       </c>
       <c r="G64" s="16">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="H64" s="16">
         <v>0</v>
@@ -5354,41 +5092,40 @@
         <v>0</v>
       </c>
       <c r="J64" s="18"/>
-      <c r="K64" s="1"/>
       <c r="L64" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M64" s="34" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="N64" s="14">
-        <v>-140</v>
+        <v>180</v>
       </c>
       <c r="O64" s="14"/>
-      <c r="R64" s="15" t="s">
-        <v>214</v>
-      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
     </row>
-    <row r="65" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+    <row r="65" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="17" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="D65" s="14"/>
-      <c r="E65" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F65" s="15">
-        <v>0</v>
-      </c>
+      <c r="E65" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="14"/>
       <c r="G65" s="16">
-        <v>1041</v>
+        <v>1</v>
       </c>
       <c r="H65" s="16">
         <v>0</v>
@@ -5396,40 +5133,41 @@
       <c r="I65" s="16">
         <v>0</v>
       </c>
-      <c r="J65" s="18"/>
-      <c r="K65" s="1"/>
+      <c r="J65" s="16">
+        <v>52</v>
+      </c>
       <c r="L65" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M65" s="34" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="N65" s="14">
         <v>90</v>
       </c>
       <c r="O65" s="14"/>
-      <c r="R65" s="15"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
       <c r="U65" s="14"/>
       <c r="V65" s="14"/>
       <c r="W65" s="14"/>
       <c r="X65" s="14"/>
       <c r="Y65" s="14"/>
     </row>
-    <row r="66" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+    <row r="66" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="17" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="D66" s="14"/>
-      <c r="E66" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F66" s="15">
-        <v>0</v>
-      </c>
+      <c r="E66" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="14"/>
       <c r="G66" s="16">
-        <v>1042</v>
+        <v>1</v>
       </c>
       <c r="H66" s="16">
         <v>0</v>
@@ -5437,40 +5175,41 @@
       <c r="I66" s="16">
         <v>0</v>
       </c>
-      <c r="J66" s="18"/>
-      <c r="K66" s="1"/>
+      <c r="J66" s="16">
+        <v>53</v>
+      </c>
       <c r="L66" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M66" s="34" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="N66" s="14">
-        <v>-180</v>
+        <v>90</v>
       </c>
       <c r="O66" s="14"/>
-      <c r="R66" s="15"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
       <c r="W66" s="14"/>
       <c r="X66" s="14"/>
       <c r="Y66" s="14"/>
     </row>
-    <row r="67" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+    <row r="67" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="17" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" s="15">
-        <v>0</v>
-      </c>
+      <c r="E67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="14"/>
       <c r="G67" s="16">
-        <v>1056</v>
+        <v>1</v>
       </c>
       <c r="H67" s="16">
         <v>0</v>
@@ -5478,100 +5217,108 @@
       <c r="I67" s="16">
         <v>0</v>
       </c>
-      <c r="J67" s="18"/>
-      <c r="K67" s="1"/>
+      <c r="J67" s="16">
+        <v>54</v>
+      </c>
       <c r="L67" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="N67" s="14">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="O67" s="14"/>
-      <c r="R67" s="15"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
       <c r="U67" s="14"/>
       <c r="V67" s="14"/>
       <c r="W67" s="14"/>
       <c r="X67" s="14"/>
       <c r="Y67" s="14"/>
     </row>
-    <row r="68" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+    <row r="68" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="17" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="15" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="F68" s="15">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="G68" s="16">
-        <v>1072</v>
-      </c>
-      <c r="H68" s="16">
-        <v>0</v>
-      </c>
-      <c r="I68" s="16">
-        <v>0</v>
+        <v>1012</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="J68" s="18"/>
-      <c r="K68" s="1"/>
       <c r="L68" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="N68" s="14">
-        <v>130</v>
+        <v>-110</v>
       </c>
       <c r="O68" s="14"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
       <c r="R68" s="15"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
       <c r="W68" s="14"/>
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
     </row>
-    <row r="69" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="17" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="D69" s="14"/>
-      <c r="E69" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F69" s="15">
-        <v>10001101</v>
+      <c r="E69" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="14">
+        <v>5</v>
       </c>
       <c r="G69" s="16">
-        <v>1009</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>135</v>
+        <v>1029</v>
+      </c>
+      <c r="H69" s="16">
+        <v>0</v>
+      </c>
+      <c r="I69" s="16">
+        <v>0</v>
       </c>
       <c r="J69" s="18"/>
       <c r="L69" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M69" s="32" t="s">
-        <v>229</v>
+      <c r="M69" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="N69" s="14">
-        <v>60</v>
+        <v>-30</v>
       </c>
       <c r="O69" s="14"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-      <c r="R69" s="15"/>
+      <c r="R69" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="14"/>
@@ -5580,40 +5327,40 @@
       <c r="X69" s="14"/>
       <c r="Y69" s="14"/>
     </row>
-    <row r="70" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="15">
-        <v>20001002</v>
+    <row r="70" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="D70" s="14"/>
-      <c r="E70" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F70" s="15">
-        <v>10001201</v>
-      </c>
+      <c r="E70" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="14"/>
       <c r="G70" s="16">
-        <v>1009</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="I70" s="16">
+        <v>0</v>
       </c>
       <c r="J70" s="18"/>
       <c r="L70" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M70" s="14" t="s">
-        <v>231</v>
+      <c r="M70" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="N70" s="14">
-        <v>-45</v>
+        <v>180</v>
       </c>
       <c r="O70" s="14"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="15"/>
+      <c r="R70" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="14"/>
@@ -5622,37 +5369,37 @@
       <c r="X70" s="14"/>
       <c r="Y70" s="14"/>
     </row>
-    <row r="71" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="15">
-        <v>20001003</v>
+    <row r="71" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="D71" s="14"/>
-      <c r="E71" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="E71" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="19">
+        <v>0</v>
+      </c>
+      <c r="G71" s="16">
+        <v>1024</v>
+      </c>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="L71" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M71" s="14" t="s">
-        <v>234</v>
+      <c r="M71" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="N71" s="14">
-        <v>180</v>
+        <v>-30</v>
       </c>
       <c r="O71" s="14"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-      <c r="R71" s="26" t="s">
-        <v>235</v>
+      <c r="R71" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
@@ -5662,37 +5409,41 @@
       <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
     </row>
-    <row r="72" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="15">
-        <v>20001004</v>
+    <row r="72" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="D72" s="14"/>
-      <c r="E72" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>135</v>
+      <c r="E72" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="14">
+        <v>6</v>
+      </c>
+      <c r="G72" s="16">
+        <v>1026</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0</v>
+      </c>
+      <c r="I72" s="16">
+        <v>0</v>
       </c>
       <c r="J72" s="18"/>
       <c r="L72" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M72" s="32" t="s">
-        <v>237</v>
+      <c r="M72" s="34" t="s">
+        <v>151</v>
       </c>
       <c r="N72" s="14">
-        <v>90</v>
+        <v>-144</v>
       </c>
       <c r="O72" s="14"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="26" t="s">
-        <v>238</v>
+      <c r="R72" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
@@ -5702,37 +5453,37 @@
       <c r="X72" s="14"/>
       <c r="Y72" s="14"/>
     </row>
-    <row r="73" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="15">
-        <v>20001005</v>
+    <row r="73" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J73" s="18"/>
+      <c r="E73" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="16">
+        <v>2</v>
+      </c>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="16">
+        <v>2000001</v>
+      </c>
       <c r="L73" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M73" s="14" t="s">
-        <v>240</v>
+      <c r="M73" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="N73" s="14">
-        <v>-45</v>
+        <v>-180</v>
       </c>
       <c r="O73" s="14"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="26" t="s">
-        <v>241</v>
+      <c r="R73" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -5742,37 +5493,37 @@
       <c r="X73" s="14"/>
       <c r="Y73" s="14"/>
     </row>
-    <row r="74" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="15">
-        <v>20001006</v>
+    <row r="74" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J74" s="18"/>
+      <c r="E74" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="16">
+        <v>2</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18">
+        <v>2000002</v>
+      </c>
       <c r="L74" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M74" s="32" t="s">
-        <v>242</v>
+      <c r="M74" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="N74" s="14">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O74" s="14"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="26" t="s">
-        <v>243</v>
+      <c r="R74" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
@@ -5782,37 +5533,35 @@
       <c r="X74" s="14"/>
       <c r="Y74" s="14"/>
     </row>
-    <row r="75" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="15">
-        <v>20001007</v>
+    <row r="75" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="I75" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="E75" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="16">
+        <v>1027</v>
+      </c>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="L75" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M75" s="32" t="s">
-        <v>246</v>
+      <c r="M75" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="N75" s="14">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="O75" s="14"/>
-      <c r="P75" s="2"/>
+      <c r="P75" s="23"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="26" t="s">
-        <v>247</v>
+      <c r="R75" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
@@ -5822,37 +5571,35 @@
       <c r="X75" s="14"/>
       <c r="Y75" s="14"/>
     </row>
-    <row r="76" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="15">
-        <v>20001008</v>
+    <row r="76" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="E76" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" s="16">
+        <v>1028</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="L76" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M76" s="32" t="s">
-        <v>249</v>
+      <c r="M76" s="34" t="s">
+        <v>166</v>
       </c>
       <c r="N76" s="14">
-        <v>-155</v>
+        <v>129</v>
       </c>
       <c r="O76" s="14"/>
-      <c r="P76" s="2"/>
+      <c r="P76" s="23"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="26" t="s">
-        <v>250</v>
+      <c r="R76" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
@@ -5862,38 +5609,40 @@
       <c r="X76" s="14"/>
       <c r="Y76" s="14"/>
     </row>
-    <row r="77" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="15">
-        <v>20001009</v>
+    <row r="77" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J77" s="18"/>
+      <c r="E77" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" s="16">
+        <v>0</v>
+      </c>
+      <c r="H77" s="16">
+        <v>50000001</v>
+      </c>
+      <c r="I77" s="16">
+        <v>0</v>
+      </c>
+      <c r="J77" s="16">
+        <v>0</v>
+      </c>
       <c r="L77" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M77" s="32" t="s">
-        <v>253</v>
+      <c r="M77" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="N77" s="14">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="O77" s="14"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="26" t="s">
-        <v>254</v>
-      </c>
+      <c r="R77" s="25"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="14"/>
@@ -5902,16 +5651,18 @@
       <c r="X77" s="14"/>
       <c r="Y77" s="14"/>
     </row>
-    <row r="78" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="15">
-        <v>20001010</v>
+    <row r="78" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="15" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="F78" s="15"/>
-      <c r="G78" s="16"/>
+      <c r="G78" s="16">
+        <v>1030</v>
+      </c>
       <c r="H78" s="18" t="s">
         <v>135</v>
       </c>
@@ -5922,18 +5673,16 @@
       <c r="L78" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M78" s="35" t="s">
-        <v>256</v>
+      <c r="M78" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="N78" s="14">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O78" s="14"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="R78" s="15"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="14"/>
@@ -5942,18 +5691,20 @@
       <c r="X78" s="14"/>
       <c r="Y78" s="14"/>
     </row>
-    <row r="79" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="15">
-        <v>20001011</v>
+    <row r="79" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="15" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="F79" s="15"/>
-      <c r="G79" s="16"/>
+      <c r="G79" s="16">
+        <v>6</v>
+      </c>
       <c r="H79" s="18" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="I79" s="18" t="s">
         <v>135</v>
@@ -5962,17 +5713,17 @@
       <c r="L79" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M79" s="14" t="s">
-        <v>260</v>
+      <c r="M79" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="N79" s="14">
-        <v>-180</v>
+        <v>270</v>
       </c>
       <c r="O79" s="14"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="26" t="s">
-        <v>261</v>
+      <c r="R79" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
@@ -5982,18 +5733,20 @@
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
     </row>
-    <row r="80" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="15">
-        <v>20001012</v>
+    <row r="80" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="15" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="F80" s="15"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="16">
+        <v>7</v>
+      </c>
       <c r="H80" s="18" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>135</v>
@@ -6002,17 +5755,17 @@
       <c r="L80" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M80" s="14" t="s">
-        <v>264</v>
+      <c r="M80" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="N80" s="14">
-        <v>80</v>
+        <v>-146</v>
       </c>
       <c r="O80" s="14"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-      <c r="R80" s="26" t="s">
-        <v>265</v>
+      <c r="R80" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -6022,37 +5775,41 @@
       <c r="X80" s="14"/>
       <c r="Y80" s="14"/>
     </row>
-    <row r="81" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="15">
-        <v>20001013</v>
+    <row r="81" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="15" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="F81" s="15"/>
-      <c r="G81" s="16"/>
+      <c r="G81" s="16">
+        <v>2</v>
+      </c>
       <c r="H81" s="18" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J81" s="18"/>
+      <c r="J81" s="18" t="s">
+        <v>183</v>
+      </c>
       <c r="L81" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M81" s="14" t="s">
-        <v>268</v>
+      <c r="M81" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="N81" s="14">
-        <v>180</v>
+        <v>-146</v>
       </c>
       <c r="O81" s="14"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-      <c r="R81" s="26" t="s">
-        <v>269</v>
+      <c r="R81" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -6062,38 +5819,40 @@
       <c r="X81" s="14"/>
       <c r="Y81" s="14"/>
     </row>
-    <row r="82" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="15">
-        <v>20001014</v>
+    <row r="82" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>135</v>
+        <v>187</v>
+      </c>
+      <c r="F82" s="15">
+        <v>50000001</v>
+      </c>
+      <c r="G82" s="16">
+        <v>1009</v>
+      </c>
+      <c r="H82" s="16">
+        <v>0</v>
+      </c>
+      <c r="I82" s="16">
+        <v>0</v>
       </c>
       <c r="J82" s="18"/>
       <c r="L82" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M82" s="14" t="s">
-        <v>272</v>
+      <c r="M82" s="32" t="s">
+        <v>188</v>
       </c>
       <c r="N82" s="14">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="O82" s="14"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-      <c r="R82" s="26" t="s">
-        <v>273</v>
-      </c>
+      <c r="R82" s="15"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="14"/>
@@ -6102,37 +5861,41 @@
       <c r="X82" s="14"/>
       <c r="Y82" s="14"/>
     </row>
-    <row r="83" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="15">
-        <v>20001015</v>
+    <row r="83" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>135</v>
+        <v>190</v>
+      </c>
+      <c r="F83" s="15">
+        <v>0</v>
+      </c>
+      <c r="G83" s="16">
+        <v>8</v>
+      </c>
+      <c r="H83" s="16">
+        <v>0</v>
+      </c>
+      <c r="I83" s="16">
+        <v>0</v>
       </c>
       <c r="J83" s="18"/>
       <c r="L83" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M83" s="14" t="s">
-        <v>276</v>
+      <c r="M83" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="N83" s="14">
-        <v>128</v>
+        <v>-90</v>
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="26" t="s">
-        <v>277</v>
+      <c r="R83" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
@@ -6142,37 +5905,41 @@
       <c r="X83" s="14"/>
       <c r="Y83" s="14"/>
     </row>
-    <row r="84" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="15">
-        <v>20001016</v>
+    <row r="84" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>135</v>
+        <v>194</v>
+      </c>
+      <c r="F84" s="15">
+        <v>0</v>
+      </c>
+      <c r="G84" s="16">
+        <v>0</v>
+      </c>
+      <c r="H84" s="16">
+        <v>0</v>
+      </c>
+      <c r="I84" s="16">
+        <v>0</v>
       </c>
       <c r="J84" s="18"/>
       <c r="L84" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M84" s="14" t="s">
-        <v>256</v>
+      <c r="M84" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="N84" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="26" t="s">
-        <v>279</v>
+      <c r="R84" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -6182,38 +5949,40 @@
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
     </row>
-    <row r="85" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="15">
-        <v>20001017</v>
+    <row r="85" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>135</v>
+        <v>198</v>
+      </c>
+      <c r="F85" s="15">
+        <v>60000001</v>
+      </c>
+      <c r="G85" s="16">
+        <v>1009</v>
+      </c>
+      <c r="H85" s="16">
+        <v>0</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0</v>
       </c>
       <c r="J85" s="18"/>
       <c r="L85" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M85" s="14" t="s">
-        <v>282</v>
+      <c r="M85" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="N85" s="14">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="26" t="s">
-        <v>283</v>
-      </c>
+      <c r="R85" s="15"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="14"/>
@@ -6222,37 +5991,41 @@
       <c r="X85" s="14"/>
       <c r="Y85" s="14"/>
     </row>
-    <row r="86" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="15">
-        <v>20001018</v>
+    <row r="86" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J86" s="16"/>
+        <v>201</v>
+      </c>
+      <c r="F86" s="15">
+        <v>0</v>
+      </c>
+      <c r="G86" s="16">
+        <v>9</v>
+      </c>
+      <c r="H86" s="16">
+        <v>0</v>
+      </c>
+      <c r="I86" s="16">
+        <v>0</v>
+      </c>
+      <c r="J86" s="18"/>
       <c r="L86" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M86" s="14" t="s">
-        <v>256</v>
+      <c r="M86" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="N86" s="14">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="O86" s="14"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-      <c r="R86" s="26" t="s">
-        <v>285</v>
+      <c r="R86" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -6262,37 +6035,35 @@
       <c r="X86" s="14"/>
       <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="15">
-        <v>20001019</v>
+    <row r="87" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="E87" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="16">
+        <v>1050</v>
+      </c>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="L87" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M87" s="14" t="s">
-        <v>288</v>
+      <c r="M87" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="N87" s="14">
-        <v>-180</v>
+        <v>90</v>
       </c>
       <c r="O87" s="14"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-      <c r="R87" s="26" t="s">
-        <v>289</v>
+      <c r="R87" s="25" t="s">
+        <v>207</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -6302,256 +6073,264 @@
       <c r="X87" s="14"/>
       <c r="Y87" s="14"/>
     </row>
-    <row r="88" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="15">
-        <v>20001020</v>
+    <row r="88" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>135</v>
+        <v>209</v>
+      </c>
+      <c r="F88" s="15">
+        <v>0</v>
+      </c>
+      <c r="G88" s="16">
+        <v>1046</v>
+      </c>
+      <c r="H88" s="16">
+        <v>0</v>
+      </c>
+      <c r="I88" s="16">
+        <v>0</v>
       </c>
       <c r="J88" s="18"/>
+      <c r="K88" s="1"/>
       <c r="L88" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M88" s="14" t="s">
-        <v>256</v>
+      <c r="M88" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="N88" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O88" s="14"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
+      <c r="R88" s="15"/>
       <c r="U88" s="14"/>
       <c r="V88" s="14"/>
       <c r="W88" s="14"/>
       <c r="X88" s="14"/>
       <c r="Y88" s="14"/>
     </row>
-    <row r="89" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="15">
-        <v>20001021</v>
+    <row r="89" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I89" s="18" t="s">
-        <v>135</v>
+        <v>212</v>
+      </c>
+      <c r="F89" s="15">
+        <v>0</v>
+      </c>
+      <c r="G89" s="16">
+        <v>0</v>
+      </c>
+      <c r="H89" s="16">
+        <v>0</v>
+      </c>
+      <c r="I89" s="16">
+        <v>0</v>
       </c>
       <c r="J89" s="18"/>
+      <c r="K89" s="1"/>
       <c r="L89" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M89" s="14" t="s">
-        <v>293</v>
+      <c r="M89" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="N89" s="14">
-        <v>-180</v>
+        <v>-140</v>
       </c>
       <c r="O89" s="14"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
+      <c r="R89" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="U89" s="14"/>
       <c r="V89" s="14"/>
       <c r="W89" s="14"/>
       <c r="X89" s="14"/>
       <c r="Y89" s="14"/>
     </row>
-    <row r="90" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="15">
-        <v>20001022</v>
+    <row r="90" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>135</v>
+        <v>216</v>
+      </c>
+      <c r="F90" s="15">
+        <v>0</v>
+      </c>
+      <c r="G90" s="16">
+        <v>1041</v>
+      </c>
+      <c r="H90" s="16">
+        <v>0</v>
+      </c>
+      <c r="I90" s="16">
+        <v>0</v>
       </c>
       <c r="J90" s="18"/>
+      <c r="K90" s="1"/>
       <c r="L90" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M90" s="14" t="s">
-        <v>296</v>
+      <c r="M90" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="N90" s="14">
-        <v>-106</v>
+        <v>90</v>
       </c>
       <c r="O90" s="14"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
+      <c r="R90" s="15"/>
       <c r="U90" s="14"/>
       <c r="V90" s="14"/>
       <c r="W90" s="14"/>
       <c r="X90" s="14"/>
       <c r="Y90" s="14"/>
     </row>
-    <row r="91" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="15">
-        <v>20001023</v>
+    <row r="91" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F91" s="15"/>
+        <v>219</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0</v>
+      </c>
       <c r="G91" s="16">
-        <v>1004</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I91" s="18" t="s">
-        <v>135</v>
+        <v>1042</v>
+      </c>
+      <c r="H91" s="16">
+        <v>0</v>
+      </c>
+      <c r="I91" s="16">
+        <v>0</v>
       </c>
       <c r="J91" s="18"/>
+      <c r="K91" s="1"/>
       <c r="L91" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M91" s="14" t="s">
-        <v>256</v>
+      <c r="M91" s="34" t="s">
+        <v>220</v>
       </c>
       <c r="N91" s="14">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="O91" s="14"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
       <c r="R91" s="15"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
       <c r="U91" s="14"/>
       <c r="V91" s="14"/>
       <c r="W91" s="14"/>
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
     </row>
-    <row r="92" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="15">
-        <v>20001024</v>
+    <row r="92" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>135</v>
+        <v>222</v>
+      </c>
+      <c r="F92" s="15">
+        <v>0</v>
+      </c>
+      <c r="G92" s="16">
+        <v>1056</v>
+      </c>
+      <c r="H92" s="16">
+        <v>0</v>
+      </c>
+      <c r="I92" s="16">
+        <v>0</v>
       </c>
       <c r="J92" s="18"/>
+      <c r="K92" s="1"/>
       <c r="L92" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M92" s="14" t="s">
-        <v>299</v>
+      <c r="M92" s="34" t="s">
+        <v>223</v>
       </c>
       <c r="N92" s="14">
-        <v>-152</v>
+        <v>30</v>
       </c>
       <c r="O92" s="14"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
       <c r="R92" s="15"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
       <c r="U92" s="14"/>
       <c r="V92" s="14"/>
       <c r="W92" s="14"/>
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
       <c r="C93" s="17" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="15" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="F93" s="15">
-        <v>10002101</v>
+        <v>0</v>
       </c>
       <c r="G93" s="16">
-        <v>1009</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>135</v>
+        <v>1072</v>
+      </c>
+      <c r="H93" s="16">
+        <v>0</v>
+      </c>
+      <c r="I93" s="16">
+        <v>0</v>
       </c>
       <c r="J93" s="18"/>
+      <c r="K93" s="1"/>
       <c r="L93" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M93" s="14" t="s">
-        <v>301</v>
+      <c r="M93" s="34" t="s">
+        <v>226</v>
       </c>
       <c r="N93" s="14">
-        <v>-147</v>
+        <v>130</v>
       </c>
       <c r="O93" s="14"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
       <c r="R93" s="15"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
       <c r="U93" s="14"/>
       <c r="V93" s="14"/>
       <c r="W93" s="14"/>
       <c r="X93" s="14"/>
       <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="17" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F94" s="15">
-        <v>10002201</v>
+        <v>10001101</v>
       </c>
       <c r="G94" s="16">
         <v>1009</v>
@@ -6566,11 +6345,11 @@
       <c r="L94" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M94" s="14" t="s">
-        <v>303</v>
+      <c r="M94" s="32" t="s">
+        <v>229</v>
       </c>
       <c r="N94" s="14">
-        <v>-129</v>
+        <v>60</v>
       </c>
       <c r="O94" s="14"/>
       <c r="P94" s="2"/>
@@ -6584,18 +6363,22 @@
       <c r="X94" s="14"/>
       <c r="Y94" s="14"/>
     </row>
-    <row r="95" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="17" t="s">
-        <v>304</v>
+    <row r="95" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="15">
+        <v>20001002</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="F95" s="15"/>
-      <c r="G95" s="16"/>
+        <v>230</v>
+      </c>
+      <c r="F95" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G95" s="16">
+        <v>1009</v>
+      </c>
       <c r="H95" s="18" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="I95" s="18" t="s">
         <v>135</v>
@@ -6605,17 +6388,15 @@
         <v>52</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="N95" s="14">
-        <v>-131</v>
+        <v>-45</v>
       </c>
       <c r="O95" s="14"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
-      <c r="R95" s="26" t="s">
-        <v>238</v>
-      </c>
+      <c r="R95" s="15"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="14"/>
@@ -6624,18 +6405,18 @@
       <c r="X95" s="14"/>
       <c r="Y95" s="14"/>
     </row>
-    <row r="96" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="17" t="s">
-        <v>308</v>
+    <row r="96" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="15">
+        <v>20001003</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="15" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="16"/>
       <c r="H96" s="18" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>135</v>
@@ -6645,7 +6426,7 @@
         <v>52</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="N96" s="14">
         <v>180</v>
@@ -6654,7 +6435,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
@@ -6665,17 +6446,17 @@
       <c r="Y96" s="14"/>
     </row>
     <row r="97" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="17" t="s">
-        <v>312</v>
+      <c r="C97" s="15">
+        <v>20001004</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="15" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="16"/>
       <c r="H97" s="18" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>135</v>
@@ -6684,11 +6465,11 @@
       <c r="L97" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M97" s="14" t="s">
-        <v>315</v>
+      <c r="M97" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="N97" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O97" s="14"/>
       <c r="P97" s="2"/>
@@ -6705,17 +6486,17 @@
       <c r="Y97" s="14"/>
     </row>
     <row r="98" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="17" t="s">
-        <v>316</v>
+      <c r="C98" s="15">
+        <v>20001005</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="15" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="16"/>
       <c r="H98" s="18" t="s">
-        <v>318</v>
+        <v>135</v>
       </c>
       <c r="I98" s="18" t="s">
         <v>135</v>
@@ -6725,16 +6506,16 @@
         <v>52</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="N98" s="14">
-        <v>180</v>
+        <v>-45</v>
       </c>
       <c r="O98" s="14"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -6745,8 +6526,8 @@
       <c r="Y98" s="14"/>
     </row>
     <row r="99" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="17" t="s">
-        <v>320</v>
+      <c r="C99" s="15">
+        <v>20001006</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="15" t="s">
@@ -6764,17 +6545,17 @@
       <c r="L99" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M99" s="14" t="s">
-        <v>256</v>
+      <c r="M99" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="N99" s="14">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="O99" s="14"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -6785,17 +6566,17 @@
       <c r="Y99" s="14"/>
     </row>
     <row r="100" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="17" t="s">
-        <v>321</v>
+      <c r="C100" s="15">
+        <v>20001007</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
       <c r="H100" s="18" t="s">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>135</v>
@@ -6804,17 +6585,17 @@
       <c r="L100" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M100" s="14" t="s">
-        <v>256</v>
+      <c r="M100" s="32" t="s">
+        <v>246</v>
       </c>
       <c r="N100" s="14">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="O100" s="14"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="26" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -6825,12 +6606,12 @@
       <c r="Y100" s="14"/>
     </row>
     <row r="101" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="17" t="s">
-        <v>322</v>
+      <c r="C101" s="15">
+        <v>20001008</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="15" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="16"/>
@@ -6844,17 +6625,17 @@
       <c r="L101" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M101" s="14" t="s">
-        <v>323</v>
+      <c r="M101" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="N101" s="14">
-        <v>27</v>
+        <v>-155</v>
       </c>
       <c r="O101" s="14"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="26" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -6865,21 +6646,17 @@
       <c r="Y101" s="14"/>
     </row>
     <row r="102" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="17" t="s">
-        <v>324</v>
+      <c r="C102" s="15">
+        <v>20001009</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F102" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G102" s="16">
-        <v>1009</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F102" s="15"/>
+      <c r="G102" s="16"/>
       <c r="H102" s="18" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>135</v>
@@ -6888,16 +6665,18 @@
       <c r="L102" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M102" s="14" t="s">
-        <v>325</v>
+      <c r="M102" s="32" t="s">
+        <v>253</v>
       </c>
       <c r="N102" s="14">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="O102" s="14"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
-      <c r="R102" s="15"/>
+      <c r="R102" s="26" t="s">
+        <v>254</v>
+      </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
       <c r="U102" s="14"/>
@@ -6907,19 +6686,15 @@
       <c r="Y102" s="14"/>
     </row>
     <row r="103" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="17" t="s">
-        <v>326</v>
+      <c r="C103" s="15">
+        <v>20001010</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F103" s="15">
-        <v>10003201</v>
-      </c>
-      <c r="G103" s="16">
-        <v>1009</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F103" s="15"/>
+      <c r="G103" s="16"/>
       <c r="H103" s="18" t="s">
         <v>135</v>
       </c>
@@ -6930,16 +6705,18 @@
       <c r="L103" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M103" s="14" t="s">
-        <v>327</v>
+      <c r="M103" s="35" t="s">
+        <v>256</v>
       </c>
       <c r="N103" s="14">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="O103" s="14"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="15"/>
+      <c r="R103" s="26" t="s">
+        <v>257</v>
+      </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="14"/>
@@ -6949,17 +6726,17 @@
       <c r="Y103" s="14"/>
     </row>
     <row r="104" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="17" t="s">
-        <v>328</v>
+      <c r="C104" s="15">
+        <v>20001011</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="15" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="16"/>
       <c r="H104" s="18" t="s">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>135</v>
@@ -6969,16 +6746,16 @@
         <v>52</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="N104" s="14">
-        <v>90</v>
+        <v>-180</v>
       </c>
       <c r="O104" s="14"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="26" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -6989,17 +6766,17 @@
       <c r="Y104" s="14"/>
     </row>
     <row r="105" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="17" t="s">
-        <v>332</v>
+      <c r="C105" s="15">
+        <v>20001012</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="16"/>
       <c r="H105" s="18" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>135</v>
@@ -7009,16 +6786,16 @@
         <v>52</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="N105" s="14">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="O105" s="14"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="26" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -7029,17 +6806,17 @@
       <c r="Y105" s="14"/>
     </row>
     <row r="106" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="17" t="s">
-        <v>336</v>
+      <c r="C106" s="15">
+        <v>20001013</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="15" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
       <c r="H106" s="18" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>135</v>
@@ -7049,16 +6826,16 @@
         <v>52</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="N106" s="14">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="26" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -7069,17 +6846,17 @@
       <c r="Y106" s="14"/>
     </row>
     <row r="107" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="17" t="s">
-        <v>340</v>
+      <c r="C107" s="15">
+        <v>20001014</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="15" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="18" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>135</v>
@@ -7089,16 +6866,16 @@
         <v>52</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="N107" s="14">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="O107" s="14"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="26" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -7109,17 +6886,17 @@
       <c r="Y107" s="14"/>
     </row>
     <row r="108" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="17" t="s">
-        <v>342</v>
+      <c r="C108" s="15">
+        <v>20001015</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="15" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="16"/>
       <c r="H108" s="18" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>135</v>
@@ -7129,16 +6906,16 @@
         <v>52</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="N108" s="14">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="O108" s="14"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="26" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -7149,12 +6926,12 @@
       <c r="Y108" s="14"/>
     </row>
     <row r="109" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="17" t="s">
-        <v>343</v>
+      <c r="C109" s="15">
+        <v>20001016</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="15" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
@@ -7178,7 +6955,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="26" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
@@ -7189,17 +6966,17 @@
       <c r="Y109" s="14"/>
     </row>
     <row r="110" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="17" t="s">
-        <v>344</v>
+      <c r="C110" s="15">
+        <v>20001017</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="15" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
       <c r="H110" s="18" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>135</v>
@@ -7209,16 +6986,16 @@
         <v>52</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="N110" s="14">
-        <v>-70</v>
+        <v>120</v>
       </c>
       <c r="O110" s="14"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="26" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
@@ -7229,36 +7006,36 @@
       <c r="Y110" s="14"/>
     </row>
     <row r="111" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="17" t="s">
-        <v>348</v>
+      <c r="C111" s="15">
+        <v>20001018</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="15" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
       <c r="H111" s="18" t="s">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J111" s="18"/>
+      <c r="J111" s="16"/>
       <c r="L111" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="N111" s="14">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="O111" s="14"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="26" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -7269,21 +7046,17 @@
       <c r="Y111" s="14"/>
     </row>
     <row r="112" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="17" t="s">
-        <v>352</v>
+      <c r="C112" s="15">
+        <v>20001019</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F112" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G112" s="16">
-        <v>1009</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F112" s="15"/>
+      <c r="G112" s="16"/>
       <c r="H112" s="18" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>135</v>
@@ -7293,15 +7066,17 @@
         <v>52</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="N112" s="14">
-        <v>35</v>
+        <v>-180</v>
       </c>
       <c r="O112" s="14"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
-      <c r="R112" s="15"/>
+      <c r="R112" s="26" t="s">
+        <v>289</v>
+      </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
       <c r="U112" s="14"/>
@@ -7311,19 +7086,15 @@
       <c r="Y112" s="14"/>
     </row>
     <row r="113" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="17" t="s">
-        <v>354</v>
+      <c r="C113" s="15">
+        <v>20001020</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F113" s="15">
-        <v>10004201</v>
-      </c>
-      <c r="G113" s="16">
-        <v>1009</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F113" s="15"/>
+      <c r="G113" s="16"/>
       <c r="H113" s="18" t="s">
         <v>135</v>
       </c>
@@ -7335,15 +7106,17 @@
         <v>52</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="N113" s="14">
-        <v>-41</v>
+        <v>180</v>
       </c>
       <c r="O113" s="14"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
-      <c r="R113" s="15"/>
+      <c r="R113" s="26" t="s">
+        <v>291</v>
+      </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
       <c r="U113" s="14"/>
@@ -7353,17 +7126,17 @@
       <c r="Y113" s="14"/>
     </row>
     <row r="114" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="17" t="s">
-        <v>356</v>
+      <c r="C114" s="15">
+        <v>20001021</v>
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="15" t="s">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="16"/>
       <c r="H114" s="18" t="s">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>135</v>
@@ -7373,16 +7146,16 @@
         <v>52</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="N114" s="14">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="O114" s="14"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="26" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -7393,17 +7166,17 @@
       <c r="Y114" s="14"/>
     </row>
     <row r="115" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="17" t="s">
-        <v>360</v>
+      <c r="C115" s="15">
+        <v>20001022</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="15" t="s">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
       <c r="H115" s="18" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>135</v>
@@ -7413,16 +7186,16 @@
         <v>52</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="N115" s="14">
-        <v>101</v>
+        <v>-106</v>
       </c>
       <c r="O115" s="14"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="26" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -7433,17 +7206,19 @@
       <c r="Y115" s="14"/>
     </row>
     <row r="116" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="17" t="s">
-        <v>364</v>
+      <c r="C116" s="15">
+        <v>20001023</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="15" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="F116" s="15"/>
-      <c r="G116" s="16"/>
+      <c r="G116" s="16">
+        <v>1004</v>
+      </c>
       <c r="H116" s="18" t="s">
-        <v>366</v>
+        <v>135</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>135</v>
@@ -7453,17 +7228,15 @@
         <v>52</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="N116" s="14">
-        <v>-3</v>
+        <v>180</v>
       </c>
       <c r="O116" s="14"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
-      <c r="R116" s="26" t="s">
-        <v>238</v>
-      </c>
+      <c r="R116" s="15"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="14"/>
@@ -7473,12 +7246,12 @@
       <c r="Y116" s="14"/>
     </row>
     <row r="117" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="17" t="s">
-        <v>368</v>
+      <c r="C117" s="15">
+        <v>20001024</v>
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="15" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="16"/>
@@ -7493,17 +7266,15 @@
         <v>52</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="N117" s="14">
-        <v>180</v>
+        <v>-152</v>
       </c>
       <c r="O117" s="14"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
-      <c r="R117" s="26" t="s">
-        <v>241</v>
-      </c>
+      <c r="R117" s="15"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
       <c r="U117" s="14"/>
@@ -7514,14 +7285,18 @@
     </row>
     <row r="118" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="17" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F118" s="15"/>
-      <c r="G118" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="F118" s="15">
+        <v>10002101</v>
+      </c>
+      <c r="G118" s="16">
+        <v>1009</v>
+      </c>
       <c r="H118" s="18" t="s">
         <v>135</v>
       </c>
@@ -7533,17 +7308,15 @@
         <v>52</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N118" s="14">
-        <v>180</v>
+        <v>-147</v>
       </c>
       <c r="O118" s="14"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
-      <c r="R118" s="26" t="s">
-        <v>243</v>
-      </c>
+      <c r="R118" s="15"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
       <c r="U118" s="14"/>
@@ -7554,16 +7327,20 @@
     </row>
     <row r="119" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="17" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="F119" s="15"/>
-      <c r="G119" s="16"/>
+        <v>230</v>
+      </c>
+      <c r="F119" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G119" s="16">
+        <v>1009</v>
+      </c>
       <c r="H119" s="18" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>135</v>
@@ -7573,17 +7350,15 @@
         <v>52</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="N119" s="14">
-        <v>-180</v>
+        <v>-129</v>
       </c>
       <c r="O119" s="14"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
-      <c r="R119" s="26" t="s">
-        <v>243</v>
-      </c>
+      <c r="R119" s="15"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
       <c r="U119" s="14"/>
@@ -7594,16 +7369,16 @@
     </row>
     <row r="120" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="17" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="15" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="16"/>
       <c r="H120" s="18" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>135</v>
@@ -7613,16 +7388,16 @@
         <v>52</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="N120" s="14">
-        <v>83</v>
+        <v>-131</v>
       </c>
       <c r="O120" s="14"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="26" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
@@ -7634,20 +7409,16 @@
     </row>
     <row r="121" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="17" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F121" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G121" s="16">
-        <v>1009</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="F121" s="15"/>
+      <c r="G121" s="16"/>
       <c r="H121" s="18" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>135</v>
@@ -7657,15 +7428,17 @@
         <v>52</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="N121" s="14">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="O121" s="14"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
-      <c r="R121" s="15"/>
+      <c r="R121" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
       <c r="U121" s="14"/>
@@ -7676,20 +7449,16 @@
     </row>
     <row r="122" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="17" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F122" s="15">
-        <v>10005201</v>
-      </c>
-      <c r="G122" s="16">
-        <v>1009</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F122" s="15"/>
+      <c r="G122" s="16"/>
       <c r="H122" s="18" t="s">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>135</v>
@@ -7699,15 +7468,17 @@
         <v>52</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="N122" s="14">
-        <v>-44</v>
+        <v>180</v>
       </c>
       <c r="O122" s="14"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
-      <c r="R122" s="15"/>
+      <c r="R122" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
       <c r="U122" s="14"/>
@@ -7718,16 +7489,16 @@
     </row>
     <row r="123" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="17" t="s">
-        <v>381</v>
+        <v>316</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="15" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="16"/>
       <c r="H123" s="18" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>135</v>
@@ -7737,7 +7508,7 @@
         <v>52</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="N123" s="14">
         <v>180</v>
@@ -7758,16 +7529,16 @@
     </row>
     <row r="124" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="17" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="15" t="s">
-        <v>386</v>
+        <v>239</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="16"/>
       <c r="H124" s="18" t="s">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>135</v>
@@ -7777,16 +7548,16 @@
         <v>52</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="N124" s="14">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="O124" s="14"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -7798,11 +7569,11 @@
     </row>
     <row r="125" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="17" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="15" t="s">
-        <v>390</v>
+        <v>239</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="16"/>
@@ -7826,7 +7597,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="26" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
@@ -7838,16 +7609,16 @@
     </row>
     <row r="126" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="17" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="15" t="s">
-        <v>392</v>
+        <v>168</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="16"/>
       <c r="H126" s="18" t="s">
-        <v>393</v>
+        <v>135</v>
       </c>
       <c r="I126" s="18" t="s">
         <v>135</v>
@@ -7857,16 +7628,16 @@
         <v>52</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="N126" s="14">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="O126" s="14"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="26" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
@@ -7878,14 +7649,18 @@
     </row>
     <row r="127" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="17" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F127" s="15"/>
-      <c r="G127" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="F127" s="15">
+        <v>10003101</v>
+      </c>
+      <c r="G127" s="16">
+        <v>1009</v>
+      </c>
       <c r="H127" s="18" t="s">
         <v>135</v>
       </c>
@@ -7897,17 +7672,15 @@
         <v>52</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="N127" s="14">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="O127" s="14"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
-      <c r="R127" s="26" t="s">
-        <v>241</v>
-      </c>
+      <c r="R127" s="15"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
       <c r="U127" s="14"/>
@@ -7918,14 +7691,18 @@
     </row>
     <row r="128" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="17" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F128" s="15"/>
-      <c r="G128" s="16"/>
+        <v>230</v>
+      </c>
+      <c r="F128" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G128" s="16">
+        <v>1009</v>
+      </c>
       <c r="H128" s="18" t="s">
         <v>135</v>
       </c>
@@ -7937,17 +7714,15 @@
         <v>52</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="N128" s="14">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="O128" s="14"/>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
-      <c r="R128" s="26" t="s">
-        <v>243</v>
-      </c>
+      <c r="R128" s="15"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
       <c r="U128" s="14"/>
@@ -7956,18 +7731,18 @@
       <c r="X128" s="14"/>
       <c r="Y128" s="14"/>
     </row>
-    <row r="129" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="15">
-        <v>20099001</v>
+    <row r="129" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="17" t="s">
+        <v>328</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="15" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="16"/>
       <c r="H129" s="18" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="I129" s="18" t="s">
         <v>135</v>
@@ -7977,16 +7752,16 @@
         <v>52</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="N129" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O129" s="14"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="26" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
@@ -7996,18 +7771,18 @@
       <c r="X129" s="14"/>
       <c r="Y129" s="14"/>
     </row>
-    <row r="130" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="15">
-        <v>20099002</v>
+    <row r="130" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="17" t="s">
+        <v>332</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="15" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="16"/>
       <c r="H130" s="18" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="I130" s="18" t="s">
         <v>135</v>
@@ -8017,7 +7792,7 @@
         <v>52</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="N130" s="14">
         <v>180</v>
@@ -8026,7 +7801,7 @@
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="26" t="s">
-        <v>400</v>
+        <v>238</v>
       </c>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
@@ -8036,18 +7811,18 @@
       <c r="X130" s="14"/>
       <c r="Y130" s="14"/>
     </row>
-    <row r="131" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="15">
-        <v>20099003</v>
+    <row r="131" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="17" t="s">
+        <v>336</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="15" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="16"/>
       <c r="H131" s="18" t="s">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="I131" s="18" t="s">
         <v>135</v>
@@ -8057,16 +7832,16 @@
         <v>52</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="N131" s="14">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="O131" s="14"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="26" t="s">
-        <v>402</v>
+        <v>238</v>
       </c>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
@@ -8076,13 +7851,13 @@
       <c r="X131" s="14"/>
       <c r="Y131" s="14"/>
     </row>
-    <row r="132" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="15">
-        <v>20099004</v>
+    <row r="132" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="15" t="s">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="16"/>
@@ -8097,16 +7872,16 @@
         <v>52</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="N132" s="14">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="26" t="s">
-        <v>404</v>
+        <v>238</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -8116,13 +7891,13 @@
       <c r="X132" s="14"/>
       <c r="Y132" s="14"/>
     </row>
-    <row r="133" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="15">
-        <v>20099005</v>
+    <row r="133" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="15" t="s">
-        <v>405</v>
+        <v>239</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="16"/>
@@ -8146,7 +7921,7 @@
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="26" t="s">
-        <v>406</v>
+        <v>241</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
@@ -8156,9 +7931,9 @@
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
     </row>
-    <row r="134" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="15">
-        <v>20099006</v>
+    <row r="134" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="17" t="s">
+        <v>343</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="15" t="s">
@@ -8186,7 +7961,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="26" t="s">
-        <v>407</v>
+        <v>243</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
@@ -8196,34 +7971,38 @@
       <c r="X134" s="14"/>
       <c r="Y134" s="14"/>
     </row>
-    <row r="135" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="15">
-        <v>20099007</v>
+    <row r="135" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="D135" s="14"/>
-      <c r="E135" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F135" s="27"/>
-      <c r="G135" s="16">
-        <v>1057</v>
-      </c>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
+      <c r="E135" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="F135" s="15"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="I135" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="J135" s="18"/>
       <c r="L135" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M135" s="32" t="s">
-        <v>409</v>
+      <c r="M135" s="14" t="s">
+        <v>347</v>
       </c>
       <c r="N135" s="14">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
-      <c r="R135" s="28"/>
+      <c r="R135" s="26" t="s">
+        <v>243</v>
+      </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
       <c r="U135" s="14"/>
@@ -8232,33 +8011,37 @@
       <c r="X135" s="14"/>
       <c r="Y135" s="14"/>
     </row>
-    <row r="136" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="15">
-        <v>20099008</v>
+    <row r="136" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="17" t="s">
+        <v>348</v>
       </c>
       <c r="D136" s="14"/>
-      <c r="E136" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F136" s="27"/>
+      <c r="E136" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F136" s="15"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
+      <c r="H136" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="I136" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="J136" s="18"/>
       <c r="L136" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M136" s="32" t="s">
-        <v>411</v>
+      <c r="M136" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="N136" s="14">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
-      <c r="R136" s="28" t="s">
-        <v>412</v>
+      <c r="R136" s="26" t="s">
+        <v>243</v>
       </c>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
@@ -8268,34 +8051,40 @@
       <c r="X136" s="14"/>
       <c r="Y136" s="14"/>
     </row>
-    <row r="137" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="15">
-        <v>20099009</v>
+    <row r="137" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="17" t="s">
+        <v>352</v>
       </c>
       <c r="D137" s="14"/>
-      <c r="E137" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="F137" s="27"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
+      <c r="E137" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F137" s="15">
+        <v>10004101</v>
+      </c>
+      <c r="G137" s="16">
+        <v>1009</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I137" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="J137" s="18"/>
       <c r="L137" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M137" s="32" t="s">
-        <v>414</v>
+      <c r="M137" s="14" t="s">
+        <v>353</v>
       </c>
       <c r="N137" s="14">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O137" s="14"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
-      <c r="R137" s="28" t="s">
-        <v>415</v>
-      </c>
+      <c r="R137" s="15"/>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
       <c r="U137" s="14"/>
@@ -8304,34 +8093,40 @@
       <c r="X137" s="14"/>
       <c r="Y137" s="14"/>
     </row>
-    <row r="138" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="15">
-        <v>20099010</v>
+    <row r="138" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="D138" s="14"/>
-      <c r="E138" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="F138" s="27"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
+      <c r="E138" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F138" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G138" s="16">
+        <v>1009</v>
+      </c>
+      <c r="H138" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I138" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="J138" s="18"/>
       <c r="L138" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M138" s="32" t="s">
-        <v>417</v>
+      <c r="M138" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="N138" s="14">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="O138" s="14"/>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
-      <c r="R138" s="28" t="s">
-        <v>418</v>
-      </c>
+      <c r="R138" s="15"/>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
       <c r="U138" s="14"/>
@@ -8340,38 +8135,38 @@
       <c r="X138" s="14"/>
       <c r="Y138" s="14"/>
     </row>
-    <row r="139" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="15">
-        <v>20099011</v>
+    <row r="139" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="17" t="s">
+        <v>356</v>
       </c>
       <c r="D139" s="14"/>
-      <c r="E139" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="F139" s="27"/>
+      <c r="E139" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F139" s="15"/>
       <c r="G139" s="16"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18" t="s">
-        <v>420</v>
-      </c>
+      <c r="H139" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J139" s="18"/>
       <c r="L139" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M139" s="32" t="s">
-        <v>411</v>
+      <c r="M139" s="14" t="s">
+        <v>359</v>
       </c>
       <c r="N139" s="14">
         <v>0</v>
       </c>
-      <c r="O139" s="14">
-        <v>13</v>
-      </c>
-      <c r="P139" s="36" t="s">
-        <v>421</v>
-      </c>
+      <c r="O139" s="14"/>
+      <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
-      <c r="R139" s="28"/>
+      <c r="R139" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
       <c r="U139" s="14"/>
@@ -8380,38 +8175,38 @@
       <c r="X139" s="14"/>
       <c r="Y139" s="14"/>
     </row>
-    <row r="140" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="15">
-        <v>20099012</v>
+    <row r="140" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="17" t="s">
+        <v>360</v>
       </c>
       <c r="D140" s="14"/>
-      <c r="E140" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="F140" s="27"/>
+      <c r="E140" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F140" s="15"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18" t="s">
-        <v>420</v>
-      </c>
+      <c r="H140" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="I140" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J140" s="18"/>
       <c r="L140" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M140" s="32" t="s">
-        <v>423</v>
+      <c r="M140" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="N140" s="14">
-        <v>0</v>
-      </c>
-      <c r="O140" s="14">
-        <v>13</v>
-      </c>
-      <c r="P140" s="36" t="s">
-        <v>421</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O140" s="14"/>
+      <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
-      <c r="R140" s="28"/>
+      <c r="R140" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
       <c r="U140" s="14"/>
@@ -8420,38 +8215,38 @@
       <c r="X140" s="14"/>
       <c r="Y140" s="14"/>
     </row>
-    <row r="141" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="15">
-        <v>20099013</v>
+    <row r="141" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="17" t="s">
+        <v>364</v>
       </c>
       <c r="D141" s="14"/>
-      <c r="E141" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="F141" s="27"/>
+      <c r="E141" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="F141" s="15"/>
       <c r="G141" s="16"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18" t="s">
-        <v>420</v>
-      </c>
+      <c r="H141" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="I141" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J141" s="18"/>
       <c r="L141" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M141" s="32" t="s">
-        <v>425</v>
+      <c r="M141" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="N141" s="14">
-        <v>0</v>
-      </c>
-      <c r="O141" s="14">
-        <v>13</v>
-      </c>
-      <c r="P141" s="36" t="s">
-        <v>421</v>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="O141" s="14"/>
+      <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
-      <c r="R141" s="28"/>
+      <c r="R141" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
       <c r="U141" s="14"/>
@@ -8460,200 +8255,200 @@
       <c r="X141" s="14"/>
       <c r="Y141" s="14"/>
     </row>
-    <row r="142" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B142" s="1"/>
+    <row r="142" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="17" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="D142" s="14"/>
-      <c r="E142" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="F142" s="14">
-        <v>300001</v>
-      </c>
-      <c r="G142" s="16">
-        <v>1034</v>
-      </c>
-      <c r="H142" s="16">
-        <v>0</v>
-      </c>
-      <c r="I142" s="16">
-        <v>0</v>
-      </c>
-      <c r="J142" s="16"/>
-      <c r="K142" s="1"/>
+      <c r="E142" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" s="15"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I142" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J142" s="18"/>
       <c r="L142" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M142" s="34" t="s">
-        <v>429</v>
+      <c r="M142" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N142" s="14">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O142" s="14"/>
-      <c r="P142" s="23"/>
-      <c r="R142" s="25"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
       <c r="U142" s="14"/>
       <c r="V142" s="14"/>
       <c r="W142" s="14"/>
       <c r="X142" s="14"/>
       <c r="Y142" s="14"/>
     </row>
-    <row r="143" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+    <row r="143" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="17" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="D143" s="14"/>
-      <c r="E143" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="F143" s="14"/>
-      <c r="G143" s="16">
-        <v>1035</v>
-      </c>
-      <c r="H143" s="16">
-        <v>0</v>
-      </c>
-      <c r="I143" s="16">
-        <v>0</v>
-      </c>
-      <c r="J143" s="16"/>
-      <c r="K143" s="1"/>
+      <c r="E143" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F143" s="15"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J143" s="18"/>
       <c r="L143" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M143" s="34" t="s">
-        <v>432</v>
+      <c r="M143" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N143" s="14">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O143" s="14"/>
-      <c r="P143" s="23"/>
-      <c r="R143" s="25"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
       <c r="U143" s="14"/>
       <c r="V143" s="14"/>
       <c r="W143" s="14"/>
       <c r="X143" s="14"/>
       <c r="Y143" s="14"/>
     </row>
-    <row r="144" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+    <row r="144" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="17" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="D144" s="14"/>
-      <c r="E144" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="F144" s="14"/>
-      <c r="G144" s="16">
-        <v>1033</v>
-      </c>
-      <c r="H144" s="16">
-        <v>0</v>
-      </c>
-      <c r="I144" s="16">
-        <v>0</v>
-      </c>
-      <c r="J144" s="16"/>
-      <c r="K144" s="1"/>
+      <c r="E144" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="I144" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J144" s="18"/>
       <c r="L144" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M144" s="34" t="s">
-        <v>210</v>
+      <c r="M144" s="14" t="s">
+        <v>373</v>
       </c>
       <c r="N144" s="14">
-        <v>210</v>
+        <v>-180</v>
       </c>
       <c r="O144" s="14"/>
-      <c r="R144" s="25"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
       <c r="U144" s="14"/>
       <c r="V144" s="14"/>
       <c r="W144" s="14"/>
       <c r="X144" s="14"/>
       <c r="Y144" s="14"/>
     </row>
-    <row r="145" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+    <row r="145" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="17" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="D145" s="14"/>
-      <c r="E145" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="F145" s="14"/>
-      <c r="G145" s="16">
-        <v>1039</v>
-      </c>
-      <c r="H145" s="16">
-        <v>0</v>
-      </c>
-      <c r="I145" s="16">
-        <v>0</v>
-      </c>
-      <c r="J145" s="16"/>
-      <c r="K145" s="1"/>
+      <c r="E145" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="F145" s="15"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="I145" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J145" s="18"/>
       <c r="L145" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M145" s="34" t="s">
-        <v>213</v>
+      <c r="M145" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="N145" s="14">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="O145" s="14"/>
-      <c r="R145" s="25"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
       <c r="U145" s="14"/>
       <c r="V145" s="14"/>
       <c r="W145" s="14"/>
       <c r="X145" s="14"/>
       <c r="Y145" s="14"/>
     </row>
-    <row r="146" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="17" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="D146" s="14"/>
-      <c r="E146" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="F146" s="14"/>
+      <c r="E146" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F146" s="15">
+        <v>10005101</v>
+      </c>
       <c r="G146" s="16">
-        <v>1036</v>
-      </c>
-      <c r="H146" s="16">
-        <v>0</v>
-      </c>
-      <c r="I146" s="16">
-        <v>0</v>
-      </c>
-      <c r="J146" s="16"/>
+        <v>1009</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I146" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J146" s="18"/>
       <c r="L146" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M146" s="34" t="s">
-        <v>439</v>
+      <c r="M146" s="14" t="s">
+        <v>379</v>
       </c>
       <c r="N146" s="14">
-        <v>-100</v>
+        <v>51</v>
       </c>
       <c r="O146" s="14"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
+      <c r="R146" s="15"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="14"/>
@@ -8662,38 +8457,40 @@
       <c r="X146" s="14"/>
       <c r="Y146" s="14"/>
     </row>
-    <row r="147" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="17" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="D147" s="14"/>
-      <c r="E147" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="F147" s="14"/>
+      <c r="E147" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F147" s="15">
+        <v>10005201</v>
+      </c>
       <c r="G147" s="16">
-        <v>1032</v>
-      </c>
-      <c r="H147" s="16">
-        <v>0</v>
-      </c>
-      <c r="I147" s="16">
-        <v>0</v>
-      </c>
-      <c r="J147" s="16"/>
+        <v>1009</v>
+      </c>
+      <c r="H147" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J147" s="18"/>
       <c r="L147" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M147" s="34" t="s">
-        <v>442</v>
+      <c r="M147" s="14" t="s">
+        <v>379</v>
       </c>
       <c r="N147" s="14">
-        <v>123</v>
+        <v>-44</v>
       </c>
       <c r="O147" s="14"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
+      <c r="R147" s="15"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
       <c r="U147" s="14"/>
@@ -8702,38 +8499,38 @@
       <c r="X147" s="14"/>
       <c r="Y147" s="14"/>
     </row>
-    <row r="148" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="17" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="D148" s="14"/>
-      <c r="E148" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="F148" s="14"/>
-      <c r="G148" s="16">
-        <v>0</v>
-      </c>
-      <c r="H148" s="16">
-        <v>0</v>
-      </c>
-      <c r="I148" s="16">
-        <v>0</v>
-      </c>
-      <c r="J148" s="16"/>
+      <c r="E148" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F148" s="15"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J148" s="18"/>
       <c r="L148" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M148" s="34" t="s">
-        <v>445</v>
+      <c r="M148" s="14" t="s">
+        <v>384</v>
       </c>
       <c r="N148" s="14">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O148" s="14"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
+      <c r="R148" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="14"/>
@@ -8742,38 +8539,38 @@
       <c r="X148" s="14"/>
       <c r="Y148" s="14"/>
     </row>
-    <row r="149" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="17" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="D149" s="14"/>
-      <c r="E149" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="F149" s="14"/>
-      <c r="G149" s="16">
-        <v>0</v>
-      </c>
-      <c r="H149" s="16">
-        <v>0</v>
-      </c>
-      <c r="I149" s="16">
-        <v>0</v>
-      </c>
-      <c r="J149" s="16"/>
+      <c r="E149" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="F149" s="15"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J149" s="18"/>
       <c r="L149" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M149" s="34" t="s">
-        <v>447</v>
+      <c r="M149" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="N149" s="14">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="O149" s="14"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
+      <c r="R149" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
       <c r="U149" s="14"/>
@@ -8782,38 +8579,38 @@
       <c r="X149" s="14"/>
       <c r="Y149" s="14"/>
     </row>
-    <row r="150" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="17" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="D150" s="14"/>
-      <c r="E150" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="F150" s="14"/>
-      <c r="G150" s="16">
-        <v>1037</v>
-      </c>
-      <c r="H150" s="16">
-        <v>0</v>
-      </c>
-      <c r="I150" s="16">
-        <v>0</v>
-      </c>
-      <c r="J150" s="16"/>
+      <c r="E150" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F150" s="15"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I150" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J150" s="18"/>
       <c r="L150" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M150" s="34" t="s">
-        <v>450</v>
+      <c r="M150" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N150" s="14">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="O150" s="14"/>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
+      <c r="R150" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
       <c r="U150" s="14"/>
@@ -8822,38 +8619,38 @@
       <c r="X150" s="14"/>
       <c r="Y150" s="14"/>
     </row>
-    <row r="151" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="17" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="D151" s="14"/>
-      <c r="E151" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="F151" s="14"/>
-      <c r="G151" s="16">
-        <v>1038</v>
-      </c>
-      <c r="H151" s="16">
-        <v>0</v>
-      </c>
-      <c r="I151" s="16">
-        <v>0</v>
-      </c>
-      <c r="J151" s="16"/>
+      <c r="E151" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F151" s="15"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="I151" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J151" s="18"/>
       <c r="L151" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M151" s="34" t="s">
-        <v>453</v>
+      <c r="M151" s="14" t="s">
+        <v>394</v>
       </c>
       <c r="N151" s="14">
-        <v>-150</v>
+        <v>145</v>
       </c>
       <c r="O151" s="14"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
-      <c r="R151" s="2"/>
+      <c r="R151" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
       <c r="U151" s="14"/>
@@ -8862,38 +8659,38 @@
       <c r="X151" s="14"/>
       <c r="Y151" s="14"/>
     </row>
-    <row r="152" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="17" t="s">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="D152" s="14"/>
-      <c r="E152" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="F152" s="14"/>
-      <c r="G152" s="16">
-        <v>1047</v>
-      </c>
-      <c r="H152" s="16">
-        <v>0</v>
-      </c>
-      <c r="I152" s="16">
-        <v>0</v>
-      </c>
-      <c r="J152" s="16"/>
+      <c r="E152" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F152" s="15"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I152" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J152" s="18"/>
       <c r="L152" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M152" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="N152" s="16">
-        <v>90</v>
-      </c>
-      <c r="O152" s="16"/>
+      <c r="M152" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="N152" s="14">
+        <v>180</v>
+      </c>
+      <c r="O152" s="14"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
+      <c r="R152" s="26" t="s">
+        <v>241</v>
+      </c>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
       <c r="U152" s="14"/>
@@ -8902,78 +8699,78 @@
       <c r="X152" s="14"/>
       <c r="Y152" s="14"/>
     </row>
-    <row r="153" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+    <row r="153" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="17" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="D153" s="14"/>
-      <c r="E153" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="F153" s="14">
-        <v>400001</v>
-      </c>
-      <c r="G153" s="16">
-        <v>1034</v>
-      </c>
-      <c r="H153" s="16">
-        <v>0</v>
-      </c>
-      <c r="I153" s="16">
-        <v>0</v>
-      </c>
-      <c r="J153" s="16"/>
-      <c r="K153" s="1"/>
+      <c r="E153" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F153" s="15"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I153" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J153" s="18"/>
       <c r="L153" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M153" s="34" t="s">
-        <v>459</v>
+      <c r="M153" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N153" s="14">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="O153" s="14"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
       <c r="U153" s="14"/>
       <c r="V153" s="14"/>
       <c r="W153" s="14"/>
       <c r="X153" s="14"/>
       <c r="Y153" s="14"/>
     </row>
-    <row r="154" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="17" t="s">
-        <v>460</v>
+    <row r="154" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="15">
+        <v>20099001</v>
       </c>
       <c r="D154" s="14"/>
-      <c r="E154" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="F154" s="14"/>
-      <c r="G154" s="16">
-        <v>1049</v>
-      </c>
-      <c r="H154" s="16">
-        <v>0</v>
-      </c>
-      <c r="I154" s="16">
-        <v>0</v>
-      </c>
-      <c r="J154" s="16"/>
+      <c r="E154" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="F154" s="15"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I154" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J154" s="18"/>
       <c r="L154" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M154" s="34" t="s">
-        <v>462</v>
+      <c r="M154" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N154" s="14">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O154" s="14"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
+      <c r="R154" s="26" t="s">
+        <v>398</v>
+      </c>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
       <c r="U154" s="14"/>
@@ -8982,38 +8779,38 @@
       <c r="X154" s="14"/>
       <c r="Y154" s="14"/>
     </row>
-    <row r="155" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="17" t="s">
-        <v>463</v>
+    <row r="155" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="15">
+        <v>20099002</v>
       </c>
       <c r="D155" s="14"/>
-      <c r="E155" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F155" s="14"/>
-      <c r="G155" s="16">
-        <v>1051</v>
-      </c>
-      <c r="H155" s="16">
-        <v>0</v>
-      </c>
-      <c r="I155" s="16">
-        <v>0</v>
-      </c>
-      <c r="J155" s="16"/>
+      <c r="E155" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="F155" s="15"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I155" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J155" s="18"/>
       <c r="L155" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M155" s="34" t="s">
-        <v>465</v>
+      <c r="M155" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N155" s="14">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="O155" s="14"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
+      <c r="R155" s="26" t="s">
+        <v>400</v>
+      </c>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
       <c r="U155" s="14"/>
@@ -9022,38 +8819,38 @@
       <c r="X155" s="14"/>
       <c r="Y155" s="14"/>
     </row>
-    <row r="156" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="17" t="s">
-        <v>466</v>
+    <row r="156" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="15">
+        <v>20099003</v>
       </c>
       <c r="D156" s="14"/>
-      <c r="E156" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="F156" s="14"/>
-      <c r="G156" s="16">
-        <v>1053</v>
-      </c>
-      <c r="H156" s="16">
-        <v>0</v>
-      </c>
-      <c r="I156" s="16">
-        <v>0</v>
-      </c>
-      <c r="J156" s="16"/>
+      <c r="E156" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F156" s="15"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I156" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J156" s="18"/>
       <c r="L156" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M156" s="34" t="s">
-        <v>468</v>
+      <c r="M156" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N156" s="14">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O156" s="14"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
+      <c r="R156" s="26" t="s">
+        <v>402</v>
+      </c>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
       <c r="U156" s="14"/>
@@ -9062,38 +8859,38 @@
       <c r="X156" s="14"/>
       <c r="Y156" s="14"/>
     </row>
-    <row r="157" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="17" t="s">
-        <v>469</v>
+    <row r="157" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="15">
+        <v>20099004</v>
       </c>
       <c r="D157" s="14"/>
-      <c r="E157" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="F157" s="14"/>
-      <c r="G157" s="16">
-        <v>1054</v>
-      </c>
-      <c r="H157" s="16">
-        <v>0</v>
-      </c>
-      <c r="I157" s="16">
-        <v>0</v>
-      </c>
-      <c r="J157" s="16"/>
+      <c r="E157" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I157" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J157" s="18"/>
       <c r="L157" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M157" s="34" t="s">
-        <v>471</v>
+      <c r="M157" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N157" s="14">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O157" s="14"/>
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
+      <c r="R157" s="26" t="s">
+        <v>404</v>
+      </c>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
       <c r="U157" s="14"/>
@@ -9102,38 +8899,38 @@
       <c r="X157" s="14"/>
       <c r="Y157" s="14"/>
     </row>
-    <row r="158" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="17" t="s">
-        <v>472</v>
+    <row r="158" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="15">
+        <v>20099005</v>
       </c>
       <c r="D158" s="14"/>
-      <c r="E158" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="F158" s="14"/>
-      <c r="G158" s="16">
-        <v>1054</v>
-      </c>
-      <c r="H158" s="16">
-        <v>0</v>
-      </c>
-      <c r="I158" s="16">
-        <v>0</v>
-      </c>
-      <c r="J158" s="16"/>
+      <c r="E158" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F158" s="15"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I158" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J158" s="18"/>
       <c r="L158" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M158" s="34" t="s">
-        <v>474</v>
+      <c r="M158" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N158" s="14">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O158" s="14"/>
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
+      <c r="R158" s="26" t="s">
+        <v>406</v>
+      </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
       <c r="U158" s="14"/>
@@ -9142,38 +8939,38 @@
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
     </row>
-    <row r="159" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="17" t="s">
-        <v>475</v>
+    <row r="159" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="15">
+        <v>20099006</v>
       </c>
       <c r="D159" s="14"/>
-      <c r="E159" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="F159" s="14"/>
-      <c r="G159" s="16">
-        <v>10</v>
-      </c>
-      <c r="H159" s="16">
-        <v>0</v>
-      </c>
-      <c r="I159" s="16">
-        <v>0</v>
-      </c>
-      <c r="J159" s="16"/>
+      <c r="E159" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F159" s="15"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I159" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J159" s="18"/>
       <c r="L159" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M159" s="34" t="s">
-        <v>477</v>
+      <c r="M159" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="N159" s="14">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O159" s="14"/>
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
+      <c r="R159" s="26" t="s">
+        <v>407</v>
+      </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
       <c r="U159" s="14"/>
@@ -9182,20 +8979,1006 @@
       <c r="X159" s="14"/>
       <c r="Y159" s="14"/>
     </row>
-    <row r="160" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="15">
+        <v>20099007</v>
+      </c>
+      <c r="D160" s="14"/>
+      <c r="E160" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F160" s="27"/>
+      <c r="G160" s="16">
+        <v>1057</v>
+      </c>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="18"/>
+      <c r="L160" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M160" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="N160" s="14">
+        <v>180</v>
+      </c>
+      <c r="O160" s="14"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="28"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="14"/>
+      <c r="V160" s="14"/>
+      <c r="W160" s="14"/>
+      <c r="X160" s="14"/>
+      <c r="Y160" s="14"/>
+    </row>
+    <row r="161" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="15">
+        <v>20099008</v>
+      </c>
+      <c r="D161" s="14"/>
+      <c r="E161" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F161" s="27"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="L161" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M161" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="N161" s="14">
+        <v>0</v>
+      </c>
+      <c r="O161" s="14"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="14"/>
+      <c r="V161" s="14"/>
+      <c r="W161" s="14"/>
+      <c r="X161" s="14"/>
+      <c r="Y161" s="14"/>
+    </row>
+    <row r="162" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="15">
+        <v>20099009</v>
+      </c>
+      <c r="D162" s="14"/>
+      <c r="E162" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="F162" s="27"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="L162" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M162" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="N162" s="14">
+        <v>0</v>
+      </c>
+      <c r="O162" s="14"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="14"/>
+      <c r="V162" s="14"/>
+      <c r="W162" s="14"/>
+      <c r="X162" s="14"/>
+      <c r="Y162" s="14"/>
+    </row>
+    <row r="163" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="15">
+        <v>20099010</v>
+      </c>
+      <c r="D163" s="14"/>
+      <c r="E163" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="F163" s="27"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
+      <c r="L163" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M163" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="N163" s="14">
+        <v>0</v>
+      </c>
+      <c r="O163" s="14"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="14"/>
+      <c r="V163" s="14"/>
+      <c r="W163" s="14"/>
+      <c r="X163" s="14"/>
+      <c r="Y163" s="14"/>
+    </row>
+    <row r="164" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="15">
+        <v>20099011</v>
+      </c>
+      <c r="D164" s="14"/>
+      <c r="E164" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="F164" s="27"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="L164" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M164" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="N164" s="14">
+        <v>0</v>
+      </c>
+      <c r="O164" s="14">
+        <v>13</v>
+      </c>
+      <c r="P164" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="28"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="14"/>
+      <c r="V164" s="14"/>
+      <c r="W164" s="14"/>
+      <c r="X164" s="14"/>
+      <c r="Y164" s="14"/>
+    </row>
+    <row r="165" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="15">
+        <v>20099012</v>
+      </c>
+      <c r="D165" s="14"/>
+      <c r="E165" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="F165" s="27"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="L165" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M165" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="N165" s="14">
+        <v>0</v>
+      </c>
+      <c r="O165" s="14">
+        <v>13</v>
+      </c>
+      <c r="P165" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="28"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="14"/>
+      <c r="V165" s="14"/>
+      <c r="W165" s="14"/>
+      <c r="X165" s="14"/>
+      <c r="Y165" s="14"/>
+    </row>
+    <row r="166" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="15">
+        <v>20099013</v>
+      </c>
+      <c r="D166" s="14"/>
+      <c r="E166" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="F166" s="27"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+      <c r="J166" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="L166" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M166" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="N166" s="14">
+        <v>0</v>
+      </c>
+      <c r="O166" s="14">
+        <v>13</v>
+      </c>
+      <c r="P166" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="28"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="14"/>
+      <c r="V166" s="14"/>
+      <c r="W166" s="14"/>
+      <c r="X166" s="14"/>
+      <c r="Y166" s="14"/>
+    </row>
+    <row r="167" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="D167" s="14"/>
+      <c r="E167" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F167" s="14">
+        <v>300001</v>
+      </c>
+      <c r="G167" s="16">
+        <v>1034</v>
+      </c>
+      <c r="H167" s="16">
+        <v>0</v>
+      </c>
+      <c r="I167" s="16">
+        <v>0</v>
+      </c>
+      <c r="J167" s="16"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M167" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="N167" s="14">
+        <v>0</v>
+      </c>
+      <c r="O167" s="14"/>
+      <c r="P167" s="23"/>
+      <c r="R167" s="25"/>
+      <c r="U167" s="14"/>
+      <c r="V167" s="14"/>
+      <c r="W167" s="14"/>
+      <c r="X167" s="14"/>
+      <c r="Y167" s="14"/>
+    </row>
+    <row r="168" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D168" s="14"/>
+      <c r="E168" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F168" s="14"/>
+      <c r="G168" s="16">
+        <v>1035</v>
+      </c>
+      <c r="H168" s="16">
+        <v>0</v>
+      </c>
+      <c r="I168" s="16">
+        <v>0</v>
+      </c>
+      <c r="J168" s="16"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M168" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="N168" s="14">
+        <v>90</v>
+      </c>
+      <c r="O168" s="14"/>
+      <c r="P168" s="23"/>
+      <c r="R168" s="25"/>
+      <c r="U168" s="14"/>
+      <c r="V168" s="14"/>
+      <c r="W168" s="14"/>
+      <c r="X168" s="14"/>
+      <c r="Y168" s="14"/>
+    </row>
+    <row r="169" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="D169" s="14"/>
+      <c r="E169" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="G169" s="16">
+        <v>1033</v>
+      </c>
+      <c r="H169" s="16">
+        <v>0</v>
+      </c>
+      <c r="I169" s="16">
+        <v>0</v>
+      </c>
+      <c r="J169" s="16"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M169" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="N169" s="14">
+        <v>210</v>
+      </c>
+      <c r="O169" s="14"/>
+      <c r="R169" s="25"/>
+      <c r="U169" s="14"/>
+      <c r="V169" s="14"/>
+      <c r="W169" s="14"/>
+      <c r="X169" s="14"/>
+      <c r="Y169" s="14"/>
+    </row>
+    <row r="170" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="D170" s="14"/>
+      <c r="E170" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F170" s="14"/>
+      <c r="G170" s="16">
+        <v>1039</v>
+      </c>
+      <c r="H170" s="16">
+        <v>0</v>
+      </c>
+      <c r="I170" s="16">
+        <v>0</v>
+      </c>
+      <c r="J170" s="16"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M170" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="N170" s="14">
+        <v>0</v>
+      </c>
+      <c r="O170" s="14"/>
+      <c r="R170" s="25"/>
+      <c r="U170" s="14"/>
+      <c r="V170" s="14"/>
+      <c r="W170" s="14"/>
+      <c r="X170" s="14"/>
+      <c r="Y170" s="14"/>
+    </row>
+    <row r="171" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D171" s="14"/>
+      <c r="E171" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="F171" s="14"/>
+      <c r="G171" s="16">
+        <v>1036</v>
+      </c>
+      <c r="H171" s="16">
+        <v>0</v>
+      </c>
+      <c r="I171" s="16">
+        <v>0</v>
+      </c>
+      <c r="J171" s="16"/>
+      <c r="L171" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M171" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="N171" s="14">
+        <v>-100</v>
+      </c>
+      <c r="O171" s="14"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="14"/>
+      <c r="V171" s="14"/>
+      <c r="W171" s="14"/>
+      <c r="X171" s="14"/>
+      <c r="Y171" s="14"/>
+    </row>
+    <row r="172" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D172" s="14"/>
+      <c r="E172" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="F172" s="14"/>
+      <c r="G172" s="16">
+        <v>1032</v>
+      </c>
+      <c r="H172" s="16">
+        <v>0</v>
+      </c>
+      <c r="I172" s="16">
+        <v>0</v>
+      </c>
+      <c r="J172" s="16"/>
+      <c r="L172" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M172" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="N172" s="14">
+        <v>123</v>
+      </c>
+      <c r="O172" s="14"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="14"/>
+      <c r="V172" s="14"/>
+      <c r="W172" s="14"/>
+      <c r="X172" s="14"/>
+      <c r="Y172" s="14"/>
+    </row>
+    <row r="173" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D173" s="14"/>
+      <c r="E173" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="F173" s="14"/>
+      <c r="G173" s="16">
+        <v>0</v>
+      </c>
+      <c r="H173" s="16">
+        <v>0</v>
+      </c>
+      <c r="I173" s="16">
+        <v>0</v>
+      </c>
+      <c r="J173" s="16"/>
+      <c r="L173" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M173" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="N173" s="14">
+        <v>90</v>
+      </c>
+      <c r="O173" s="14"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="14"/>
+      <c r="V173" s="14"/>
+      <c r="W173" s="14"/>
+      <c r="X173" s="14"/>
+      <c r="Y173" s="14"/>
+    </row>
+    <row r="174" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D174" s="14"/>
+      <c r="E174" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="F174" s="14"/>
+      <c r="G174" s="16">
+        <v>0</v>
+      </c>
+      <c r="H174" s="16">
+        <v>0</v>
+      </c>
+      <c r="I174" s="16">
+        <v>0</v>
+      </c>
+      <c r="J174" s="16"/>
+      <c r="L174" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M174" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="N174" s="14">
+        <v>270</v>
+      </c>
+      <c r="O174" s="14"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="14"/>
+      <c r="V174" s="14"/>
+      <c r="W174" s="14"/>
+      <c r="X174" s="14"/>
+      <c r="Y174" s="14"/>
+    </row>
+    <row r="175" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D175" s="14"/>
+      <c r="E175" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="F175" s="14"/>
+      <c r="G175" s="16">
+        <v>1037</v>
+      </c>
+      <c r="H175" s="16">
+        <v>0</v>
+      </c>
+      <c r="I175" s="16">
+        <v>0</v>
+      </c>
+      <c r="J175" s="16"/>
+      <c r="L175" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M175" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="N175" s="14">
+        <v>-90</v>
+      </c>
+      <c r="O175" s="14"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="14"/>
+      <c r="V175" s="14"/>
+      <c r="W175" s="14"/>
+      <c r="X175" s="14"/>
+      <c r="Y175" s="14"/>
+    </row>
+    <row r="176" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D176" s="14"/>
+      <c r="E176" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="F176" s="14"/>
+      <c r="G176" s="16">
+        <v>1038</v>
+      </c>
+      <c r="H176" s="16">
+        <v>0</v>
+      </c>
+      <c r="I176" s="16">
+        <v>0</v>
+      </c>
+      <c r="J176" s="16"/>
+      <c r="L176" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M176" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="N176" s="14">
+        <v>-150</v>
+      </c>
+      <c r="O176" s="14"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="14"/>
+      <c r="V176" s="14"/>
+      <c r="W176" s="14"/>
+      <c r="X176" s="14"/>
+      <c r="Y176" s="14"/>
+    </row>
+    <row r="177" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D177" s="14"/>
+      <c r="E177" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="F177" s="14"/>
+      <c r="G177" s="16">
+        <v>1047</v>
+      </c>
+      <c r="H177" s="16">
+        <v>0</v>
+      </c>
+      <c r="I177" s="16">
+        <v>0</v>
+      </c>
+      <c r="J177" s="16"/>
+      <c r="L177" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M177" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N177" s="16">
+        <v>90</v>
+      </c>
+      <c r="O177" s="16"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="14"/>
+      <c r="V177" s="14"/>
+      <c r="W177" s="14"/>
+      <c r="X177" s="14"/>
+      <c r="Y177" s="14"/>
+    </row>
+    <row r="178" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="D178" s="14"/>
+      <c r="E178" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="F178" s="14">
+        <v>400001</v>
+      </c>
+      <c r="G178" s="16">
+        <v>1034</v>
+      </c>
+      <c r="H178" s="16">
+        <v>0</v>
+      </c>
+      <c r="I178" s="16">
+        <v>0</v>
+      </c>
+      <c r="J178" s="16"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M178" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="N178" s="14">
+        <v>110</v>
+      </c>
+      <c r="O178" s="14"/>
+      <c r="U178" s="14"/>
+      <c r="V178" s="14"/>
+      <c r="W178" s="14"/>
+      <c r="X178" s="14"/>
+      <c r="Y178" s="14"/>
+    </row>
+    <row r="179" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D179" s="14"/>
+      <c r="E179" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="F179" s="14"/>
+      <c r="G179" s="16">
+        <v>1049</v>
+      </c>
+      <c r="H179" s="16">
+        <v>0</v>
+      </c>
+      <c r="I179" s="16">
+        <v>0</v>
+      </c>
+      <c r="J179" s="16"/>
+      <c r="L179" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M179" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="N179" s="14">
+        <v>173</v>
+      </c>
+      <c r="O179" s="14"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+      <c r="U179" s="14"/>
+      <c r="V179" s="14"/>
+      <c r="W179" s="14"/>
+      <c r="X179" s="14"/>
+      <c r="Y179" s="14"/>
+    </row>
+    <row r="180" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="D180" s="14"/>
+      <c r="E180" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F180" s="14"/>
+      <c r="G180" s="16">
+        <v>1051</v>
+      </c>
+      <c r="H180" s="16">
+        <v>0</v>
+      </c>
+      <c r="I180" s="16">
+        <v>0</v>
+      </c>
+      <c r="J180" s="16"/>
+      <c r="L180" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M180" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="N180" s="14">
+        <v>235</v>
+      </c>
+      <c r="O180" s="14"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+      <c r="U180" s="14"/>
+      <c r="V180" s="14"/>
+      <c r="W180" s="14"/>
+      <c r="X180" s="14"/>
+      <c r="Y180" s="14"/>
+    </row>
+    <row r="181" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D181" s="14"/>
+      <c r="E181" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="F181" s="14"/>
+      <c r="G181" s="16">
+        <v>1053</v>
+      </c>
+      <c r="H181" s="16">
+        <v>0</v>
+      </c>
+      <c r="I181" s="16">
+        <v>0</v>
+      </c>
+      <c r="J181" s="16"/>
+      <c r="L181" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M181" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="N181" s="14">
+        <v>175</v>
+      </c>
+      <c r="O181" s="14"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="14"/>
+      <c r="V181" s="14"/>
+      <c r="W181" s="14"/>
+      <c r="X181" s="14"/>
+      <c r="Y181" s="14"/>
+    </row>
+    <row r="182" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D182" s="14"/>
+      <c r="E182" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="F182" s="14"/>
+      <c r="G182" s="16">
+        <v>1054</v>
+      </c>
+      <c r="H182" s="16">
+        <v>0</v>
+      </c>
+      <c r="I182" s="16">
+        <v>0</v>
+      </c>
+      <c r="J182" s="16"/>
+      <c r="L182" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M182" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="N182" s="14">
+        <v>175</v>
+      </c>
+      <c r="O182" s="14"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="14"/>
+      <c r="V182" s="14"/>
+      <c r="W182" s="14"/>
+      <c r="X182" s="14"/>
+      <c r="Y182" s="14"/>
+    </row>
+    <row r="183" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D183" s="14"/>
+      <c r="E183" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="F183" s="14"/>
+      <c r="G183" s="16">
+        <v>1054</v>
+      </c>
+      <c r="H183" s="16">
+        <v>0</v>
+      </c>
+      <c r="I183" s="16">
+        <v>0</v>
+      </c>
+      <c r="J183" s="16"/>
+      <c r="L183" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M183" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="N183" s="14">
+        <v>175</v>
+      </c>
+      <c r="O183" s="14"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="14"/>
+      <c r="V183" s="14"/>
+      <c r="W183" s="14"/>
+      <c r="X183" s="14"/>
+      <c r="Y183" s="14"/>
+    </row>
+    <row r="184" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="D184" s="14"/>
+      <c r="E184" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="F184" s="14"/>
+      <c r="G184" s="16">
+        <v>10</v>
+      </c>
+      <c r="H184" s="16">
+        <v>0</v>
+      </c>
+      <c r="I184" s="16">
+        <v>0</v>
+      </c>
+      <c r="J184" s="16"/>
+      <c r="L184" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M184" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="N184" s="14">
+        <v>175</v>
+      </c>
+      <c r="O184" s="14"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="14"/>
+      <c r="V184" s="14"/>
+      <c r="W184" s="14"/>
+      <c r="X184" s="14"/>
+      <c r="Y184" s="14"/>
+    </row>
+    <row r="185" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF78852-B1D1-4FA9-B738-6E45F4587393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6FC28-93E4-4069-AE6C-C8DEA63EB9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2259,10 +2259,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>-4898,0，-114</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>-2364,45,635</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2316,6 +2312,10 @@
   </si>
   <si>
     <t>-13,647,2556</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4898,0,-114</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2650,7 +2650,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2964,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4153,7 +4153,7 @@
         <v>537</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="N38" s="5">
         <v>-187</v>
@@ -4166,7 +4166,7 @@
         <v>4000104</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F39" s="13"/>
       <c r="H39" s="4"/>
@@ -4175,7 +4175,7 @@
         <v>525</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N39" s="5">
         <v>-90</v>
@@ -4188,7 +4188,7 @@
         <v>4000105</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F40" s="13"/>
       <c r="H40" s="4"/>
@@ -4197,7 +4197,7 @@
         <v>532</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N40" s="5">
         <v>-94</v>
@@ -4210,7 +4210,7 @@
         <v>5000101</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F41" s="13"/>
       <c r="H41" s="4"/>
@@ -4219,7 +4219,7 @@
         <v>505</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N41" s="5">
         <v>-85</v>
@@ -4232,7 +4232,7 @@
         <v>5000201</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F42" s="13"/>
       <c r="H42" s="4"/>
@@ -4241,7 +4241,7 @@
         <v>512</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N42" s="5">
         <v>-280</v>
@@ -4254,7 +4254,7 @@
         <v>5000301</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F43" s="13"/>
       <c r="H43" s="4"/>
@@ -4263,7 +4263,7 @@
         <v>504</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N43" s="5">
         <v>-180</v>
@@ -4276,7 +4276,7 @@
         <v>5000401</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F44" s="13"/>
       <c r="H44" s="4"/>
@@ -4285,7 +4285,7 @@
         <v>532</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N44" s="5">
         <v>-152</v>
@@ -4298,7 +4298,7 @@
         <v>5000501</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F45" s="13"/>
       <c r="H45" s="4"/>
@@ -4307,7 +4307,7 @@
         <v>516</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N45" s="5">
         <v>-156</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6FC28-93E4-4069-AE6C-C8DEA63EB9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF29E28-8732-4508-9F61-14F925C69F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2107,10 +2107,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>32.95,1.66,-21.51</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>荒谷村长</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2135,10 +2131,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>‘-430,183,181</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>最后的卫士</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2187,10 +2179,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>‘5467,612,-4138</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>360,161,-432</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2235,10 +2223,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>‘-3814,-77,-15853</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>勇者-库里</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2316,6 +2300,22 @@
   </si>
   <si>
     <t>-4898,0,-114</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-430,183,181</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3814,-77,-15853</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5467,612,-4138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3295,166,-2151</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2964,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3801,7 +3801,7 @@
         <v>504</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N22" s="5">
         <v>180</v>
@@ -3814,7 +3814,7 @@
         <v>1000301</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F23" s="13"/>
       <c r="H23" s="4"/>
@@ -3823,7 +3823,7 @@
         <v>505</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="N23" s="5">
         <v>-306</v>
@@ -3836,16 +3836,16 @@
         <v>1000401</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F24" s="13"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="L24" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N24" s="5">
         <v>-183</v>
@@ -3858,16 +3858,16 @@
         <v>1000501</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F25" s="13"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="L25" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>555</v>
       </c>
       <c r="N25" s="5">
         <v>-180</v>
@@ -3880,16 +3880,16 @@
         <v>2000101</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F26" s="13"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="L26" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N26" s="5">
         <v>-155</v>
@@ -3902,7 +3902,7 @@
         <v>2000201</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F27" s="13"/>
       <c r="H27" s="4"/>
@@ -3911,7 +3911,7 @@
         <v>504</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N27" s="5">
         <v>-274</v>
@@ -3924,7 +3924,7 @@
         <v>2000301</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F28" s="13"/>
       <c r="H28" s="4"/>
@@ -3933,7 +3933,7 @@
         <v>505</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N28" s="5">
         <v>-223</v>
@@ -3946,16 +3946,16 @@
         <v>2000401</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F29" s="13"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="L29" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N29" s="5">
         <v>-87</v>
@@ -3968,16 +3968,16 @@
         <v>2000501</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F30" s="13"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="L30" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="N30" s="5">
         <v>-45</v>
@@ -3990,7 +3990,7 @@
         <v>3000101</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F31" s="13"/>
       <c r="H31" s="4"/>
@@ -3999,7 +3999,7 @@
         <v>505</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="N31" s="5">
         <v>-200</v>
@@ -4012,16 +4012,16 @@
         <v>3000201</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F32" s="13"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="L32" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N32" s="5">
         <v>-144</v>
@@ -4034,16 +4034,16 @@
         <v>3000301</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F33" s="13"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="L33" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="N33" s="5">
         <v>-180</v>
@@ -4056,7 +4056,7 @@
         <v>3000401</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F34" s="13"/>
       <c r="H34" s="4"/>
@@ -4065,7 +4065,7 @@
         <v>504</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N34" s="5">
         <v>-211</v>
@@ -4078,16 +4078,16 @@
         <v>3000501</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F35" s="13"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="L35" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="N35" s="5">
         <v>-215</v>
@@ -4100,16 +4100,16 @@
         <v>4000101</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F36" s="13"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="L36" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="N36" s="5">
         <v>-157</v>
@@ -4122,16 +4122,16 @@
         <v>4000102</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F37" s="13"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="L37" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M37" s="31" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N37" s="5">
         <v>-60</v>
@@ -4144,16 +4144,16 @@
         <v>4000103</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="L38" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N38" s="5">
         <v>-187</v>
@@ -4166,16 +4166,16 @@
         <v>4000104</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F39" s="13"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="L39" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N39" s="5">
         <v>-90</v>
@@ -4188,16 +4188,16 @@
         <v>4000105</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F40" s="13"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="L40" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N40" s="5">
         <v>-94</v>
@@ -4210,7 +4210,7 @@
         <v>5000101</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F41" s="13"/>
       <c r="H41" s="4"/>
@@ -4219,7 +4219,7 @@
         <v>505</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N41" s="5">
         <v>-85</v>
@@ -4232,16 +4232,16 @@
         <v>5000201</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F42" s="13"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="L42" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="N42" s="5">
         <v>-280</v>
@@ -4254,7 +4254,7 @@
         <v>5000301</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F43" s="13"/>
       <c r="H43" s="4"/>
@@ -4263,7 +4263,7 @@
         <v>504</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N43" s="5">
         <v>-180</v>
@@ -4276,16 +4276,16 @@
         <v>5000401</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F44" s="13"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="L44" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N44" s="5">
         <v>-152</v>
@@ -4298,16 +4298,16 @@
         <v>5000501</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F45" s="13"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="L45" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="N45" s="5">
         <v>-156</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF29E28-8732-4508-9F61-14F925C69F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F315AF9-2DF9-4252-A2EF-033293A4BFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2964,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk\Desktop\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F315AF9-2DF9-4252-A2EF-033293A4BFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C057A-99CB-428C-974D-FE094B3A17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="585">
   <si>
     <t>#</t>
   </si>
@@ -713,9 +713,6 @@
     <t>安森</t>
   </si>
   <si>
-    <t>100002,100003</t>
-  </si>
-  <si>
     <t>-507,1,-735</t>
   </si>
   <si>
@@ -1554,9 +1551,6 @@
   </si>
   <si>
     <t>镇长卡瑟</t>
-  </si>
-  <si>
-    <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038,41002001,41002002,41002003,41002101,41002102,41002103,41003001,41003002,41003003,41003101,41003102,41003103</t>
   </si>
   <si>
     <t>1635,1,-430</t>
@@ -2316,6 +2310,114 @@
   </si>
   <si>
     <t>3295,166,-2151</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038,41002001,41002002,41002003,41002101,41002102,41002103,41003001,41003002,41003003,41003101,41003102,41003103</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102001,102002,102003,102004,102005,102006,102007,102008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102009,102010,102011,102012,102013,102014,102015</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102016,102017,102018,102019,102020,102021,102022</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102023,102024,102025,102026,102027,102028,102029</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102030,102031,102032,102033,102034,102035,102036</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103008,103009,103010,103011,103012,103013,103014</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103015,103016,103017,103018,103019,103020,103021</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103022,103023,103024,103025,103026,103027,103028</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103029,103030,103031,103032,103033,103034,103035,103036,103037,103038</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103001,103002,103003,103004,103005,103006,103007</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100009,100010,100011,100012</t>
+  </si>
+  <si>
+    <t>100015,100016,100017,100018,100019</t>
+  </si>
+  <si>
+    <t>100022,100023,100024,100025,100026,100027</t>
+  </si>
+  <si>
+    <t>100028,100029,100030,100031,100032,100033,100034,100035,100036</t>
+  </si>
+  <si>
+    <t>100002,100003,100004,100005,100006,100007,100008,100013,100014</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104001,104002,104003,104004,104005,104006,104007,104008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104009,104010,104011,104012,104013,104014,104015,104016</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104017,104018,104019,104020,104021,104022,104023</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104024,104025,104026,104027,104028,104029,104030,104031</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104032,104033,104034,104035,104036,104037,104038,104039,104040,104041,104042</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105001,105002,105003,105004,105005,105006,105007,105008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105009,105010,105011,105012,105013,105014,105015</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105016,105017,105018,105019,105020,105021,105022,105023</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105024,105025,105026,105027,105028,105029,105030,105031,105032,105033,105034,105035</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105036</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001,100020,100021,105037,105038,105039</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2519,7 +2621,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2655,6 +2757,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2964,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3217,7 +3322,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="39">
@@ -3232,10 +3337,10 @@
       <c r="J6" s="40"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N6" s="39">
         <v>90</v>
@@ -3244,7 +3349,7 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
       <c r="R6" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
@@ -3260,7 +3365,7 @@
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="39">
         <v>10001201</v>
@@ -3277,10 +3382,10 @@
       <c r="J7" s="40"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N7" s="39">
         <v>186</v>
@@ -3303,7 +3408,7 @@
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="39">
@@ -3318,10 +3423,10 @@
       <c r="J8" s="40"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N8" s="39">
         <v>-60</v>
@@ -3344,7 +3449,7 @@
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="39">
@@ -3359,10 +3464,10 @@
       <c r="J9" s="40"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N9" s="39">
         <v>180</v>
@@ -3371,7 +3476,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
@@ -3387,7 +3492,7 @@
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="39">
@@ -3402,10 +3507,10 @@
       <c r="J10" s="40"/>
       <c r="K10" s="39"/>
       <c r="L10" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N10" s="39">
         <v>-60</v>
@@ -3428,7 +3533,7 @@
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="39">
@@ -3443,10 +3548,10 @@
       <c r="J11" s="40"/>
       <c r="K11" s="39"/>
       <c r="L11" s="37" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N11" s="39">
         <v>90</v>
@@ -3469,7 +3574,7 @@
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="19">
         <v>0</v>
@@ -3477,15 +3582,17 @@
       <c r="G12" s="16">
         <v>1024</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>557</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="1"/>
       <c r="L12" s="37" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N12" s="39">
         <v>71</v>
@@ -3508,14 +3615,14 @@
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="39">
         <v>3</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="39">
         <v>0</v>
@@ -3523,10 +3630,10 @@
       <c r="J13" s="40"/>
       <c r="K13" s="39"/>
       <c r="L13" s="37" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N13" s="39">
         <v>0</v>
@@ -3535,7 +3642,7 @@
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
@@ -3551,23 +3658,25 @@
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="39">
         <v>2</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="39">
+        <v>0</v>
+      </c>
       <c r="I14" s="39"/>
       <c r="J14" s="40">
         <v>2000002</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="37" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N14" s="39">
         <v>90</v>
@@ -3576,7 +3685,7 @@
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
       <c r="R14" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S14" s="42"/>
       <c r="T14" s="42"/>
@@ -3592,25 +3701,25 @@
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="39">
         <v>1030</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="39"/>
       <c r="L15" s="37" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N15" s="39">
         <v>165</v>
@@ -3632,29 +3741,29 @@
         <v>1011</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="H16" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>498</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>500</v>
       </c>
       <c r="N16" s="5">
         <v>178</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3665,9 +3774,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="H17" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="H17" s="30"/>
       <c r="I17" s="4">
         <v>0</v>
       </c>
@@ -3675,7 +3782,7 @@
         <v>10001</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
@@ -3687,17 +3794,15 @@
         <v>10002</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -3712,17 +3817,15 @@
         <v>10003</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -3737,29 +3840,27 @@
         <v>10004</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>55</v>
-      </c>
       <c r="S20" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3771,7 +3872,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="H21" s="30" t="s">
-        <v>49</v>
+        <v>573</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -3780,7 +3881,7 @@
         <v>10001</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21" s="5">
         <v>0</v>
@@ -3792,16 +3893,18 @@
         <v>1000201</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="30" t="s">
+        <v>569</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="L22" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N22" s="5">
         <v>180</v>
@@ -3814,16 +3917,18 @@
         <v>1000301</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F23" s="13"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="30" t="s">
+        <v>570</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="L23" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N23" s="5">
         <v>-306</v>
@@ -3836,16 +3941,18 @@
         <v>1000401</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="48" t="s">
+        <v>571</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="L24" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N24" s="5">
         <v>-183</v>
@@ -3858,16 +3965,18 @@
         <v>1000501</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="30" t="s">
+        <v>572</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="L25" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N25" s="5">
         <v>-180</v>
@@ -3880,16 +3989,18 @@
         <v>2000101</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="30" t="s">
+        <v>559</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="L26" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N26" s="5">
         <v>-155</v>
@@ -3902,16 +4013,18 @@
         <v>2000201</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="30" t="s">
+        <v>560</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="L27" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N27" s="5">
         <v>-274</v>
@@ -3924,16 +4037,18 @@
         <v>2000301</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="30" t="s">
+        <v>561</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="L28" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N28" s="5">
         <v>-223</v>
@@ -3946,16 +4061,18 @@
         <v>2000401</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="30" t="s">
+        <v>562</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="L29" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N29" s="5">
         <v>-87</v>
@@ -3968,16 +4085,18 @@
         <v>2000501</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="30" t="s">
+        <v>563</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="L30" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N30" s="5">
         <v>-45</v>
@@ -3990,16 +4109,18 @@
         <v>3000101</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F31" s="13"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="30" t="s">
+        <v>568</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="L31" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N31" s="5">
         <v>-200</v>
@@ -4012,16 +4133,18 @@
         <v>3000201</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="30" t="s">
+        <v>564</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="L32" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N32" s="5">
         <v>-144</v>
@@ -4034,16 +4157,18 @@
         <v>3000301</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="30" t="s">
+        <v>565</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="L33" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N33" s="5">
         <v>-180</v>
@@ -4056,16 +4181,18 @@
         <v>3000401</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="30" t="s">
+        <v>566</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="L34" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N34" s="5">
         <v>-211</v>
@@ -4078,16 +4205,18 @@
         <v>3000501</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="30" t="s">
+        <v>567</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="L35" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N35" s="5">
         <v>-215</v>
@@ -4100,16 +4229,18 @@
         <v>4000101</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="30" t="s">
+        <v>574</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="L36" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N36" s="5">
         <v>-157</v>
@@ -4122,16 +4253,18 @@
         <v>4000102</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="30" t="s">
+        <v>575</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="L37" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M37" s="31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N37" s="5">
         <v>-60</v>
@@ -4144,16 +4277,18 @@
         <v>4000103</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="30" t="s">
+        <v>576</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="L38" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N38" s="5">
         <v>-187</v>
@@ -4166,16 +4301,18 @@
         <v>4000104</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F39" s="13"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="30" t="s">
+        <v>577</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="L39" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N39" s="5">
         <v>-90</v>
@@ -4188,16 +4325,18 @@
         <v>4000105</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F40" s="13"/>
-      <c r="H40" s="4"/>
+      <c r="H40" s="30" t="s">
+        <v>578</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="L40" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N40" s="5">
         <v>-94</v>
@@ -4210,16 +4349,18 @@
         <v>5000101</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="30" t="s">
+        <v>579</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="L41" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N41" s="5">
         <v>-85</v>
@@ -4232,16 +4373,18 @@
         <v>5000201</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F42" s="13"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="30" t="s">
+        <v>580</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="L42" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N42" s="5">
         <v>-280</v>
@@ -4254,16 +4397,18 @@
         <v>5000301</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="30" t="s">
+        <v>581</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="L43" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N43" s="5">
         <v>-180</v>
@@ -4276,16 +4421,18 @@
         <v>5000401</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F44" s="13"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="30" t="s">
+        <v>582</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="L44" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N44" s="5">
         <v>-152</v>
@@ -4298,16 +4445,18 @@
         <v>5000501</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F45" s="13"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="30" t="s">
+        <v>583</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="L45" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N45" s="5">
         <v>-156</v>
@@ -4321,7 +4470,7 @@
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="15">
         <v>0</v>
@@ -4337,10 +4486,10 @@
       </c>
       <c r="J46" s="18"/>
       <c r="L46" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N46" s="14">
         <v>-90</v>
@@ -4349,7 +4498,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -4361,11 +4510,11 @@
     </row>
     <row r="47" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="15">
         <v>200001</v>
@@ -4381,10 +4530,10 @@
       </c>
       <c r="J47" s="18"/>
       <c r="L47" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N47" s="14">
         <v>-90</v>
@@ -4403,11 +4552,11 @@
     </row>
     <row r="48" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" s="15">
         <v>10001201</v>
@@ -4423,10 +4572,10 @@
       </c>
       <c r="J48" s="18"/>
       <c r="L48" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N48" s="14">
         <v>-280</v>
@@ -4445,11 +4594,11 @@
     </row>
     <row r="49" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="16">
@@ -4463,10 +4612,10 @@
       </c>
       <c r="J49" s="18"/>
       <c r="L49" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N49" s="14">
         <v>-180</v>
@@ -4485,11 +4634,11 @@
     </row>
     <row r="50" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="16">
@@ -4503,10 +4652,10 @@
       </c>
       <c r="J50" s="18"/>
       <c r="L50" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N50" s="14">
         <v>-280</v>
@@ -4525,11 +4674,11 @@
     </row>
     <row r="51" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="16">
@@ -4543,10 +4692,10 @@
       </c>
       <c r="J51" s="18"/>
       <c r="L51" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N51" s="14">
         <v>-180</v>
@@ -4555,7 +4704,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -4567,11 +4716,11 @@
     </row>
     <row r="52" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="16">
@@ -4585,10 +4734,10 @@
       </c>
       <c r="J52" s="18"/>
       <c r="L52" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M52" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N52" s="16">
         <v>-180</v>
@@ -4597,7 +4746,7 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
       <c r="R52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -4609,11 +4758,11 @@
     </row>
     <row r="53" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="16">
@@ -4627,10 +4776,10 @@
       </c>
       <c r="J53" s="18"/>
       <c r="L53" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N53" s="14">
         <v>-90</v>
@@ -4639,7 +4788,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -4651,11 +4800,11 @@
     </row>
     <row r="54" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="16">
@@ -4669,10 +4818,10 @@
       </c>
       <c r="J54" s="18"/>
       <c r="L54" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N54" s="14">
         <v>90</v>
@@ -4681,7 +4830,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -4693,11 +4842,11 @@
     </row>
     <row r="55" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="16">
@@ -4711,10 +4860,10 @@
       </c>
       <c r="J55" s="18"/>
       <c r="L55" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N55" s="14">
         <v>0</v>
@@ -4723,7 +4872,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -4735,11 +4884,11 @@
     </row>
     <row r="56" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="16">
@@ -4753,10 +4902,10 @@
       </c>
       <c r="J56" s="18"/>
       <c r="L56" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N56" s="14">
         <v>-270</v>
@@ -4765,7 +4914,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -4777,11 +4926,11 @@
     </row>
     <row r="57" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="16">
@@ -4795,10 +4944,10 @@
       </c>
       <c r="J57" s="18"/>
       <c r="L57" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N57" s="14">
         <v>45</v>
@@ -4817,14 +4966,14 @@
     </row>
     <row r="58" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="G58" s="16">
         <v>1007</v>
@@ -4837,10 +4986,10 @@
       </c>
       <c r="J58" s="18"/>
       <c r="L58" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N58" s="14">
         <v>90</v>
@@ -4849,7 +4998,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -4861,14 +5010,14 @@
     </row>
     <row r="59" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="G59" s="16">
         <v>1006</v>
@@ -4881,10 +5030,10 @@
       </c>
       <c r="J59" s="18"/>
       <c r="L59" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N59" s="14">
         <v>90</v>
@@ -4893,7 +5042,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -4905,14 +5054,14 @@
     </row>
     <row r="60" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="G60" s="16">
         <v>1008</v>
@@ -4925,10 +5074,10 @@
       </c>
       <c r="J60" s="18"/>
       <c r="L60" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N60" s="14">
         <v>225</v>
@@ -4937,7 +5086,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -4949,11 +5098,11 @@
     </row>
     <row r="61" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="16">
@@ -4967,10 +5116,10 @@
       </c>
       <c r="J61" s="18"/>
       <c r="L61" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M61" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N61" s="14">
         <v>0</v>
@@ -4979,7 +5128,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -4991,11 +5140,11 @@
     </row>
     <row r="62" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="16">
@@ -5009,10 +5158,10 @@
       </c>
       <c r="J62" s="18"/>
       <c r="L62" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N62" s="14">
         <v>-90</v>
@@ -5031,11 +5180,11 @@
     </row>
     <row r="63" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="16">
@@ -5049,10 +5198,10 @@
       </c>
       <c r="J63" s="18"/>
       <c r="L63" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N63" s="14">
         <v>180</v>
@@ -5061,7 +5210,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
@@ -5073,11 +5222,11 @@
     </row>
     <row r="64" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F64" s="14">
         <v>4</v>
@@ -5093,10 +5242,10 @@
       </c>
       <c r="J64" s="18"/>
       <c r="L64" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M64" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N64" s="14">
         <v>180</v>
@@ -5105,7 +5254,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
@@ -5117,11 +5266,11 @@
     </row>
     <row r="65" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="16">
@@ -5137,10 +5286,10 @@
         <v>52</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M65" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N65" s="14">
         <v>90</v>
@@ -5159,11 +5308,11 @@
     </row>
     <row r="66" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="16">
@@ -5179,10 +5328,10 @@
         <v>53</v>
       </c>
       <c r="L66" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M66" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N66" s="14">
         <v>90</v>
@@ -5201,11 +5350,11 @@
     </row>
     <row r="67" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="16">
@@ -5221,10 +5370,10 @@
         <v>54</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N67" s="14">
         <v>90</v>
@@ -5243,11 +5392,11 @@
     </row>
     <row r="68" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F68" s="15">
         <v>100001</v>
@@ -5256,17 +5405,17 @@
         <v>1012</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J68" s="18"/>
       <c r="L68" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N68" s="14">
         <v>-110</v>
@@ -5285,11 +5434,11 @@
     </row>
     <row r="69" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F69" s="14">
         <v>5</v>
@@ -5305,10 +5454,10 @@
       </c>
       <c r="J69" s="18"/>
       <c r="L69" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M69" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N69" s="14">
         <v>-30</v>
@@ -5317,7 +5466,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
@@ -5329,28 +5478,28 @@
     </row>
     <row r="70" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="16">
         <v>3</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I70" s="16">
         <v>0</v>
       </c>
       <c r="J70" s="18"/>
       <c r="L70" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N70" s="14">
         <v>180</v>
@@ -5359,7 +5508,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -5371,11 +5520,11 @@
     </row>
     <row r="71" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F71" s="19">
         <v>0</v>
@@ -5387,10 +5536,10 @@
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="L71" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M71" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N71" s="14">
         <v>-30</v>
@@ -5399,7 +5548,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
@@ -5411,11 +5560,11 @@
     </row>
     <row r="72" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72" s="14">
         <v>6</v>
@@ -5431,10 +5580,10 @@
       </c>
       <c r="J72" s="18"/>
       <c r="L72" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M72" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N72" s="14">
         <v>-144</v>
@@ -5443,7 +5592,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
@@ -5455,11 +5604,11 @@
     </row>
     <row r="73" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="16">
@@ -5471,10 +5620,10 @@
         <v>2000001</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M73" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N73" s="14">
         <v>-180</v>
@@ -5483,7 +5632,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -5495,11 +5644,11 @@
     </row>
     <row r="74" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="16">
@@ -5511,10 +5660,10 @@
         <v>2000002</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N74" s="14">
         <v>90</v>
@@ -5523,7 +5672,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
@@ -5535,11 +5684,11 @@
     </row>
     <row r="75" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="16">
@@ -5549,10 +5698,10 @@
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="L75" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M75" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N75" s="14">
         <v>90</v>
@@ -5561,7 +5710,7 @@
       <c r="P75" s="23"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
@@ -5573,11 +5722,11 @@
     </row>
     <row r="76" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="16">
@@ -5587,10 +5736,10 @@
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="L76" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M76" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N76" s="14">
         <v>129</v>
@@ -5599,7 +5748,7 @@
       <c r="P76" s="23"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
@@ -5611,11 +5760,11 @@
     </row>
     <row r="77" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="16">
@@ -5631,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M77" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N77" s="14">
         <v>180</v>
@@ -5653,28 +5802,28 @@
     </row>
     <row r="78" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="16">
         <v>1030</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J78" s="18"/>
       <c r="L78" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M78" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N78" s="14">
         <v>0</v>
@@ -5693,28 +5842,28 @@
     </row>
     <row r="79" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="16">
         <v>6</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J79" s="18"/>
       <c r="L79" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M79" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N79" s="14">
         <v>270</v>
@@ -5723,7 +5872,7 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
@@ -5735,28 +5884,28 @@
     </row>
     <row r="80" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="16">
         <v>7</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J80" s="18"/>
       <c r="L80" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M80" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N80" s="14">
         <v>-146</v>
@@ -5765,7 +5914,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -5777,30 +5926,30 @@
     </row>
     <row r="81" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="16">
         <v>2</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J81" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M81" s="34" t="s">
         <v>183</v>
-      </c>
-      <c r="L81" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M81" s="34" t="s">
-        <v>184</v>
       </c>
       <c r="N81" s="14">
         <v>-146</v>
@@ -5809,7 +5958,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -5821,11 +5970,11 @@
     </row>
     <row r="82" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F82" s="15">
         <v>50000001</v>
@@ -5841,10 +5990,10 @@
       </c>
       <c r="J82" s="18"/>
       <c r="L82" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M82" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N82" s="14">
         <v>106</v>
@@ -5863,11 +6012,11 @@
     </row>
     <row r="83" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F83" s="15">
         <v>0</v>
@@ -5883,10 +6032,10 @@
       </c>
       <c r="J83" s="18"/>
       <c r="L83" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M83" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N83" s="14">
         <v>-90</v>
@@ -5895,7 +6044,7 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
@@ -5907,11 +6056,11 @@
     </row>
     <row r="84" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F84" s="15">
         <v>0</v>
@@ -5927,10 +6076,10 @@
       </c>
       <c r="J84" s="18"/>
       <c r="L84" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M84" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N84" s="14">
         <v>90</v>
@@ -5939,7 +6088,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -5951,11 +6100,11 @@
     </row>
     <row r="85" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F85" s="15">
         <v>60000001</v>
@@ -5971,10 +6120,10 @@
       </c>
       <c r="J85" s="18"/>
       <c r="L85" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N85" s="14">
         <v>180</v>
@@ -5993,11 +6142,11 @@
     </row>
     <row r="86" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F86" s="15">
         <v>0</v>
@@ -6013,10 +6162,10 @@
       </c>
       <c r="J86" s="18"/>
       <c r="L86" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N86" s="14">
         <v>-90</v>
@@ -6025,7 +6174,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -6037,11 +6186,11 @@
     </row>
     <row r="87" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="16">
@@ -6051,10 +6200,10 @@
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="L87" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M87" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N87" s="14">
         <v>90</v>
@@ -6063,7 +6212,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -6077,11 +6226,11 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F88" s="15">
         <v>0</v>
@@ -6098,10 +6247,10 @@
       <c r="J88" s="18"/>
       <c r="K88" s="1"/>
       <c r="L88" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N88" s="14">
         <v>90</v>
@@ -6118,11 +6267,11 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F89" s="15">
         <v>0</v>
@@ -6139,17 +6288,17 @@
       <c r="J89" s="18"/>
       <c r="K89" s="1"/>
       <c r="L89" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N89" s="14">
         <v>-140</v>
       </c>
       <c r="O89" s="14"/>
       <c r="R89" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U89" s="14"/>
       <c r="V89" s="14"/>
@@ -6161,11 +6310,11 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F90" s="15">
         <v>0</v>
@@ -6182,10 +6331,10 @@
       <c r="J90" s="18"/>
       <c r="K90" s="1"/>
       <c r="L90" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M90" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N90" s="14">
         <v>90</v>
@@ -6202,11 +6351,11 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F91" s="15">
         <v>0</v>
@@ -6223,10 +6372,10 @@
       <c r="J91" s="18"/>
       <c r="K91" s="1"/>
       <c r="L91" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N91" s="14">
         <v>-180</v>
@@ -6243,11 +6392,11 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F92" s="15">
         <v>0</v>
@@ -6264,10 +6413,10 @@
       <c r="J92" s="18"/>
       <c r="K92" s="1"/>
       <c r="L92" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M92" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N92" s="14">
         <v>30</v>
@@ -6284,11 +6433,11 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F93" s="15">
         <v>0</v>
@@ -6305,10 +6454,10 @@
       <c r="J93" s="18"/>
       <c r="K93" s="1"/>
       <c r="L93" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N93" s="14">
         <v>130</v>
@@ -6323,11 +6472,11 @@
     </row>
     <row r="94" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F94" s="15">
         <v>10001101</v>
@@ -6336,17 +6485,17 @@
         <v>1009</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J94" s="18"/>
       <c r="L94" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M94" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N94" s="14">
         <v>60</v>
@@ -6369,7 +6518,7 @@
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F95" s="15">
         <v>10001201</v>
@@ -6378,17 +6527,17 @@
         <v>1009</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J95" s="18"/>
       <c r="L95" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N95" s="14">
         <v>-45</v>
@@ -6411,22 +6560,22 @@
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="16"/>
       <c r="H96" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J96" s="18"/>
       <c r="L96" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N96" s="14">
         <v>180</v>
@@ -6435,7 +6584,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
@@ -6451,22 +6600,22 @@
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="16"/>
       <c r="H97" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J97" s="18"/>
       <c r="L97" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M97" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N97" s="14">
         <v>90</v>
@@ -6475,7 +6624,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -6491,22 +6640,22 @@
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="16"/>
       <c r="H98" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J98" s="18"/>
       <c r="L98" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N98" s="14">
         <v>-45</v>
@@ -6515,7 +6664,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -6531,22 +6680,22 @@
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="16"/>
       <c r="H99" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J99" s="18"/>
       <c r="L99" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M99" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N99" s="14">
         <v>45</v>
@@ -6555,7 +6704,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -6571,22 +6720,22 @@
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
       <c r="H100" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J100" s="18"/>
       <c r="L100" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M100" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N100" s="14">
         <v>150</v>
@@ -6595,7 +6744,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -6611,22 +6760,22 @@
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="16"/>
       <c r="H101" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J101" s="18"/>
       <c r="L101" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M101" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N101" s="14">
         <v>-155</v>
@@ -6635,7 +6784,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -6651,22 +6800,22 @@
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="16"/>
       <c r="H102" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J102" s="18"/>
       <c r="L102" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M102" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N102" s="14">
         <v>35</v>
@@ -6675,7 +6824,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -6691,22 +6840,22 @@
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
       <c r="H103" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J103" s="18"/>
       <c r="L103" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M103" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N103" s="14">
         <v>180</v>
@@ -6715,7 +6864,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -6731,22 +6880,22 @@
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="16"/>
       <c r="H104" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J104" s="18"/>
       <c r="L104" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N104" s="14">
         <v>-180</v>
@@ -6755,7 +6904,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -6771,22 +6920,22 @@
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="16"/>
       <c r="H105" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J105" s="18"/>
       <c r="L105" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N105" s="14">
         <v>80</v>
@@ -6795,7 +6944,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -6811,22 +6960,22 @@
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
       <c r="H106" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J106" s="18"/>
       <c r="L106" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N106" s="14">
         <v>180</v>
@@ -6835,7 +6984,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -6851,22 +7000,22 @@
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J107" s="18"/>
       <c r="L107" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N107" s="14">
         <v>180</v>
@@ -6875,7 +7024,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -6891,22 +7040,22 @@
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="16"/>
       <c r="H108" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J108" s="18"/>
       <c r="L108" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N108" s="14">
         <v>128</v>
@@ -6915,7 +7064,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -6931,22 +7080,22 @@
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
       <c r="H109" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J109" s="18"/>
       <c r="L109" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N109" s="14">
         <v>180</v>
@@ -6955,7 +7104,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
@@ -6971,22 +7120,22 @@
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
       <c r="H110" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J110" s="18"/>
       <c r="L110" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N110" s="14">
         <v>120</v>
@@ -6995,7 +7144,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
@@ -7011,22 +7160,22 @@
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
       <c r="H111" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J111" s="16"/>
       <c r="L111" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N111" s="14">
         <v>180</v>
@@ -7035,7 +7184,7 @@
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -7051,22 +7200,22 @@
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
       <c r="H112" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J112" s="18"/>
       <c r="L112" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N112" s="14">
         <v>-180</v>
@@ -7075,7 +7224,7 @@
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
@@ -7091,22 +7240,22 @@
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="16"/>
       <c r="H113" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J113" s="18"/>
       <c r="L113" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N113" s="14">
         <v>180</v>
@@ -7115,7 +7264,7 @@
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -7131,22 +7280,22 @@
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="16"/>
       <c r="H114" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J114" s="18"/>
       <c r="L114" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N114" s="14">
         <v>-180</v>
@@ -7155,7 +7304,7 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -7171,22 +7320,22 @@
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
       <c r="H115" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J115" s="18"/>
       <c r="L115" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N115" s="14">
         <v>-106</v>
@@ -7195,7 +7344,7 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -7211,24 +7360,24 @@
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="16">
         <v>1004</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J116" s="18"/>
       <c r="L116" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N116" s="14">
         <v>180</v>
@@ -7251,22 +7400,22 @@
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="16"/>
       <c r="H117" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J117" s="18"/>
       <c r="L117" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N117" s="14">
         <v>-152</v>
@@ -7285,11 +7434,11 @@
     </row>
     <row r="118" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F118" s="15">
         <v>10002101</v>
@@ -7298,17 +7447,17 @@
         <v>1009</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J118" s="18"/>
       <c r="L118" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N118" s="14">
         <v>-147</v>
@@ -7327,11 +7476,11 @@
     </row>
     <row r="119" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F119" s="15">
         <v>10002201</v>
@@ -7340,17 +7489,17 @@
         <v>1009</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J119" s="18"/>
       <c r="L119" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N119" s="14">
         <v>-129</v>
@@ -7369,26 +7518,26 @@
     </row>
     <row r="120" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="16"/>
       <c r="H120" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I120" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J120" s="18"/>
       <c r="L120" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N120" s="14">
         <v>-131</v>
@@ -7397,7 +7546,7 @@
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
       <c r="R120" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
@@ -7409,26 +7558,26 @@
     </row>
     <row r="121" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="16"/>
       <c r="H121" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J121" s="18"/>
       <c r="L121" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N121" s="14">
         <v>180</v>
@@ -7437,7 +7586,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -7449,26 +7598,26 @@
     </row>
     <row r="122" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="16"/>
       <c r="H122" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I122" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J122" s="18"/>
       <c r="L122" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N122" s="14">
         <v>180</v>
@@ -7477,7 +7626,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -7489,26 +7638,26 @@
     </row>
     <row r="123" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="16"/>
       <c r="H123" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J123" s="18"/>
       <c r="L123" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N123" s="14">
         <v>180</v>
@@ -7517,7 +7666,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -7529,26 +7678,26 @@
     </row>
     <row r="124" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="16"/>
       <c r="H124" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J124" s="18"/>
       <c r="L124" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N124" s="14">
         <v>180</v>
@@ -7557,7 +7706,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -7569,26 +7718,26 @@
     </row>
     <row r="125" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="16"/>
       <c r="H125" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I125" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J125" s="18"/>
       <c r="L125" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N125" s="14">
         <v>180</v>
@@ -7597,7 +7746,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
@@ -7609,26 +7758,26 @@
     </row>
     <row r="126" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="16"/>
       <c r="H126" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J126" s="18"/>
       <c r="L126" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N126" s="14">
         <v>27</v>
@@ -7637,7 +7786,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
@@ -7649,11 +7798,11 @@
     </row>
     <row r="127" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F127" s="15">
         <v>10003101</v>
@@ -7662,17 +7811,17 @@
         <v>1009</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J127" s="18"/>
       <c r="L127" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N127" s="14">
         <v>123</v>
@@ -7691,11 +7840,11 @@
     </row>
     <row r="128" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F128" s="15">
         <v>10003201</v>
@@ -7704,17 +7853,17 @@
         <v>1009</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J128" s="18"/>
       <c r="L128" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N128" s="14">
         <v>45</v>
@@ -7733,26 +7882,26 @@
     </row>
     <row r="129" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="16"/>
       <c r="H129" s="18" t="s">
-        <v>330</v>
+        <v>558</v>
       </c>
       <c r="I129" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J129" s="18"/>
       <c r="L129" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N129" s="14">
         <v>90</v>
@@ -7761,7 +7910,7 @@
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
@@ -7773,26 +7922,26 @@
     </row>
     <row r="130" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="16"/>
       <c r="H130" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J130" s="18"/>
       <c r="L130" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N130" s="14">
         <v>180</v>
@@ -7801,7 +7950,7 @@
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
@@ -7813,26 +7962,26 @@
     </row>
     <row r="131" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="16"/>
       <c r="H131" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J131" s="18"/>
       <c r="L131" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N131" s="14">
         <v>95</v>
@@ -7841,7 +7990,7 @@
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
@@ -7853,26 +8002,26 @@
     </row>
     <row r="132" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="16"/>
       <c r="H132" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I132" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J132" s="18"/>
       <c r="L132" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N132" s="14">
         <v>-70</v>
@@ -7881,7 +8030,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -7893,26 +8042,26 @@
     </row>
     <row r="133" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="16"/>
       <c r="H133" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I133" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J133" s="18"/>
       <c r="L133" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N133" s="14">
         <v>180</v>
@@ -7921,7 +8070,7 @@
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
@@ -7933,26 +8082,26 @@
     </row>
     <row r="134" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="16"/>
       <c r="H134" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J134" s="18"/>
       <c r="L134" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N134" s="14">
         <v>180</v>
@@ -7961,7 +8110,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
@@ -7973,26 +8122,26 @@
     </row>
     <row r="135" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="16"/>
       <c r="H135" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J135" s="18"/>
       <c r="L135" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N135" s="14">
         <v>-70</v>
@@ -8001,7 +8150,7 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -8013,26 +8162,26 @@
     </row>
     <row r="136" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="16"/>
       <c r="H136" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J136" s="18"/>
       <c r="L136" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N136" s="14">
         <v>-180</v>
@@ -8041,7 +8190,7 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
@@ -8053,11 +8202,11 @@
     </row>
     <row r="137" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F137" s="15">
         <v>10004101</v>
@@ -8066,17 +8215,17 @@
         <v>1009</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I137" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J137" s="18"/>
       <c r="L137" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N137" s="14">
         <v>35</v>
@@ -8095,11 +8244,11 @@
     </row>
     <row r="138" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F138" s="15">
         <v>10004201</v>
@@ -8108,17 +8257,17 @@
         <v>1009</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J138" s="18"/>
       <c r="L138" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N138" s="14">
         <v>-41</v>
@@ -8137,26 +8286,26 @@
     </row>
     <row r="139" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="16"/>
       <c r="H139" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J139" s="18"/>
       <c r="L139" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N139" s="14">
         <v>0</v>
@@ -8165,7 +8314,7 @@
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
@@ -8177,26 +8326,26 @@
     </row>
     <row r="140" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="16"/>
       <c r="H140" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I140" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J140" s="18"/>
       <c r="L140" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N140" s="14">
         <v>101</v>
@@ -8205,7 +8354,7 @@
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
@@ -8217,26 +8366,26 @@
     </row>
     <row r="141" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="16"/>
       <c r="H141" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I141" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J141" s="18"/>
       <c r="L141" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N141" s="14">
         <v>-3</v>
@@ -8245,7 +8394,7 @@
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
@@ -8257,26 +8406,26 @@
     </row>
     <row r="142" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="16"/>
       <c r="H142" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I142" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J142" s="18"/>
       <c r="L142" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N142" s="14">
         <v>180</v>
@@ -8285,7 +8434,7 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
@@ -8297,26 +8446,26 @@
     </row>
     <row r="143" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="16"/>
       <c r="H143" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J143" s="18"/>
       <c r="L143" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N143" s="14">
         <v>180</v>
@@ -8325,7 +8474,7 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
@@ -8337,26 +8486,26 @@
     </row>
     <row r="144" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="16"/>
       <c r="H144" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J144" s="18"/>
       <c r="L144" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M144" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N144" s="14">
         <v>-180</v>
@@ -8365,7 +8514,7 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
@@ -8377,26 +8526,26 @@
     </row>
     <row r="145" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="16"/>
       <c r="H145" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J145" s="18"/>
       <c r="L145" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N145" s="14">
         <v>83</v>
@@ -8405,7 +8554,7 @@
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
@@ -8417,11 +8566,11 @@
     </row>
     <row r="146" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F146" s="15">
         <v>10005101</v>
@@ -8430,17 +8579,17 @@
         <v>1009</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I146" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J146" s="18"/>
       <c r="L146" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N146" s="14">
         <v>51</v>
@@ -8459,11 +8608,11 @@
     </row>
     <row r="147" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F147" s="15">
         <v>10005201</v>
@@ -8472,17 +8621,17 @@
         <v>1009</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I147" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J147" s="18"/>
       <c r="L147" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N147" s="14">
         <v>-44</v>
@@ -8501,26 +8650,26 @@
     </row>
     <row r="148" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="16"/>
       <c r="H148" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I148" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J148" s="18"/>
       <c r="L148" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M148" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N148" s="14">
         <v>180</v>
@@ -8529,7 +8678,7 @@
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
@@ -8541,26 +8690,26 @@
     </row>
     <row r="149" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="16"/>
       <c r="H149" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J149" s="18"/>
       <c r="L149" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M149" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N149" s="14">
         <v>92</v>
@@ -8569,7 +8718,7 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
@@ -8581,26 +8730,26 @@
     </row>
     <row r="150" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="16"/>
       <c r="H150" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J150" s="18"/>
       <c r="L150" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M150" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N150" s="14">
         <v>180</v>
@@ -8609,7 +8758,7 @@
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
@@ -8621,26 +8770,26 @@
     </row>
     <row r="151" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="16"/>
       <c r="H151" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J151" s="18"/>
       <c r="L151" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N151" s="14">
         <v>145</v>
@@ -8649,7 +8798,7 @@
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
@@ -8661,26 +8810,26 @@
     </row>
     <row r="152" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="16"/>
       <c r="H152" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J152" s="18"/>
       <c r="L152" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N152" s="14">
         <v>180</v>
@@ -8689,7 +8838,7 @@
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
@@ -8701,26 +8850,26 @@
     </row>
     <row r="153" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="16"/>
       <c r="H153" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J153" s="18"/>
       <c r="L153" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N153" s="14">
         <v>180</v>
@@ -8729,7 +8878,7 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
@@ -8745,22 +8894,22 @@
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F154" s="15"/>
       <c r="G154" s="16"/>
       <c r="H154" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J154" s="18"/>
       <c r="L154" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N154" s="14">
         <v>180</v>
@@ -8769,7 +8918,7 @@
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
@@ -8785,22 +8934,22 @@
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="16"/>
       <c r="H155" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J155" s="18"/>
       <c r="L155" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N155" s="14">
         <v>180</v>
@@ -8809,7 +8958,7 @@
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
@@ -8825,22 +8974,22 @@
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="16"/>
       <c r="H156" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J156" s="18"/>
       <c r="L156" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N156" s="14">
         <v>180</v>
@@ -8849,7 +8998,7 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
@@ -8865,22 +9014,22 @@
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="16"/>
       <c r="H157" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J157" s="18"/>
       <c r="L157" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N157" s="14">
         <v>180</v>
@@ -8889,7 +9038,7 @@
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
@@ -8905,22 +9054,22 @@
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F158" s="15"/>
       <c r="G158" s="16"/>
       <c r="H158" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J158" s="18"/>
       <c r="L158" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N158" s="14">
         <v>180</v>
@@ -8929,7 +9078,7 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
@@ -8945,22 +9094,22 @@
       </c>
       <c r="D159" s="14"/>
       <c r="E159" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="16"/>
       <c r="H159" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I159" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J159" s="18"/>
       <c r="L159" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N159" s="14">
         <v>180</v>
@@ -8969,7 +9118,7 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
@@ -8985,7 +9134,7 @@
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F160" s="27"/>
       <c r="G160" s="16">
@@ -8995,10 +9144,10 @@
       <c r="I160" s="18"/>
       <c r="J160" s="18"/>
       <c r="L160" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M160" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N160" s="14">
         <v>180</v>
@@ -9021,7 +9170,7 @@
       </c>
       <c r="D161" s="14"/>
       <c r="E161" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="16"/>
@@ -9029,10 +9178,10 @@
       <c r="I161" s="18"/>
       <c r="J161" s="18"/>
       <c r="L161" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M161" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N161" s="14">
         <v>0</v>
@@ -9041,7 +9190,7 @@
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
       <c r="R161" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
@@ -9057,7 +9206,7 @@
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="16"/>
@@ -9065,10 +9214,10 @@
       <c r="I162" s="18"/>
       <c r="J162" s="18"/>
       <c r="L162" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M162" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N162" s="14">
         <v>0</v>
@@ -9077,7 +9226,7 @@
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
@@ -9093,7 +9242,7 @@
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="27" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="16"/>
@@ -9101,10 +9250,10 @@
       <c r="I163" s="18"/>
       <c r="J163" s="18"/>
       <c r="L163" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M163" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N163" s="14">
         <v>0</v>
@@ -9113,7 +9262,7 @@
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
@@ -9129,20 +9278,20 @@
       </c>
       <c r="D164" s="14"/>
       <c r="E164" s="27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="16"/>
       <c r="H164" s="18"/>
       <c r="I164" s="18"/>
       <c r="J164" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L164" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M164" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N164" s="14">
         <v>0</v>
@@ -9151,7 +9300,7 @@
         <v>13</v>
       </c>
       <c r="P164" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" s="28"/>
@@ -9169,20 +9318,20 @@
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="16"/>
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
       <c r="J165" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L165" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M165" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N165" s="14">
         <v>0</v>
@@ -9191,7 +9340,7 @@
         <v>13</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" s="28"/>
@@ -9209,20 +9358,20 @@
       </c>
       <c r="D166" s="14"/>
       <c r="E166" s="27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="16"/>
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
       <c r="J166" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L166" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M166" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N166" s="14">
         <v>0</v>
@@ -9231,7 +9380,7 @@
         <v>13</v>
       </c>
       <c r="P166" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" s="28"/>
@@ -9245,15 +9394,15 @@
     </row>
     <row r="167" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D167" s="14"/>
       <c r="E167" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F167" s="14">
         <v>300001</v>
@@ -9270,10 +9419,10 @@
       <c r="J167" s="16"/>
       <c r="K167" s="1"/>
       <c r="L167" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M167" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N167" s="14">
         <v>0</v>
@@ -9291,11 +9440,11 @@
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="16">
@@ -9310,10 +9459,10 @@
       <c r="J168" s="16"/>
       <c r="K168" s="1"/>
       <c r="L168" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M168" s="34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N168" s="14">
         <v>90</v>
@@ -9331,11 +9480,11 @@
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D169" s="14"/>
       <c r="E169" s="29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="16">
@@ -9350,10 +9499,10 @@
       <c r="J169" s="16"/>
       <c r="K169" s="1"/>
       <c r="L169" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M169" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N169" s="14">
         <v>210</v>
@@ -9370,11 +9519,11 @@
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="16">
@@ -9389,10 +9538,10 @@
       <c r="J170" s="16"/>
       <c r="K170" s="1"/>
       <c r="L170" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M170" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N170" s="14">
         <v>0</v>
@@ -9407,11 +9556,11 @@
     </row>
     <row r="171" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D171" s="14"/>
       <c r="E171" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="16">
@@ -9425,10 +9574,10 @@
       </c>
       <c r="J171" s="16"/>
       <c r="L171" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M171" s="34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N171" s="14">
         <v>-100</v>
@@ -9447,11 +9596,11 @@
     </row>
     <row r="172" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="16">
@@ -9465,10 +9614,10 @@
       </c>
       <c r="J172" s="16"/>
       <c r="L172" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M172" s="34" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N172" s="14">
         <v>123</v>
@@ -9487,11 +9636,11 @@
     </row>
     <row r="173" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="16">
@@ -9505,10 +9654,10 @@
       </c>
       <c r="J173" s="16"/>
       <c r="L173" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M173" s="34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N173" s="14">
         <v>90</v>
@@ -9527,11 +9676,11 @@
     </row>
     <row r="174" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D174" s="14"/>
       <c r="E174" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="16">
@@ -9545,10 +9694,10 @@
       </c>
       <c r="J174" s="16"/>
       <c r="L174" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M174" s="34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N174" s="14">
         <v>270</v>
@@ -9567,11 +9716,11 @@
     </row>
     <row r="175" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D175" s="14"/>
       <c r="E175" s="29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="16">
@@ -9585,10 +9734,10 @@
       </c>
       <c r="J175" s="16"/>
       <c r="L175" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M175" s="34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N175" s="14">
         <v>-90</v>
@@ -9607,11 +9756,11 @@
     </row>
     <row r="176" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="16">
@@ -9625,10 +9774,10 @@
       </c>
       <c r="J176" s="16"/>
       <c r="L176" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M176" s="34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N176" s="14">
         <v>-150</v>
@@ -9647,11 +9796,11 @@
     </row>
     <row r="177" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D177" s="14"/>
       <c r="E177" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="16">
@@ -9665,10 +9814,10 @@
       </c>
       <c r="J177" s="16"/>
       <c r="L177" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M177" s="34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N177" s="16">
         <v>90</v>
@@ -9689,11 +9838,11 @@
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D178" s="14"/>
       <c r="E178" s="29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F178" s="14">
         <v>400001</v>
@@ -9710,10 +9859,10 @@
       <c r="J178" s="16"/>
       <c r="K178" s="1"/>
       <c r="L178" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M178" s="34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N178" s="14">
         <v>110</v>
@@ -9727,11 +9876,11 @@
     </row>
     <row r="179" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D179" s="14"/>
       <c r="E179" s="29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F179" s="14"/>
       <c r="G179" s="16">
@@ -9745,10 +9894,10 @@
       </c>
       <c r="J179" s="16"/>
       <c r="L179" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M179" s="34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N179" s="14">
         <v>173</v>
@@ -9767,11 +9916,11 @@
     </row>
     <row r="180" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="16">
@@ -9785,10 +9934,10 @@
       </c>
       <c r="J180" s="16"/>
       <c r="L180" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M180" s="34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="N180" s="14">
         <v>235</v>
@@ -9807,11 +9956,11 @@
     </row>
     <row r="181" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D181" s="14"/>
       <c r="E181" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="16">
@@ -9825,10 +9974,10 @@
       </c>
       <c r="J181" s="16"/>
       <c r="L181" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M181" s="34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N181" s="14">
         <v>175</v>
@@ -9847,11 +9996,11 @@
     </row>
     <row r="182" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F182" s="14"/>
       <c r="G182" s="16">
@@ -9865,10 +10014,10 @@
       </c>
       <c r="J182" s="16"/>
       <c r="L182" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M182" s="34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N182" s="14">
         <v>175</v>
@@ -9887,11 +10036,11 @@
     </row>
     <row r="183" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D183" s="14"/>
       <c r="E183" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="16">
@@ -9905,10 +10054,10 @@
       </c>
       <c r="J183" s="16"/>
       <c r="L183" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M183" s="34" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N183" s="14">
         <v>175</v>
@@ -9927,11 +10076,11 @@
     </row>
     <row r="184" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D184" s="14"/>
       <c r="E184" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="16">
@@ -9945,10 +10094,10 @@
       </c>
       <c r="J184" s="16"/>
       <c r="L184" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M184" s="34" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N184" s="14">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk\Desktop\mengjing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C057A-99CB-428C-974D-FE094B3A17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C688097E-BD9E-4521-8740-2FEA8BDEF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="587">
   <si>
     <t>#</t>
   </si>
@@ -1043,27 +1043,15 @@
     <t>传说在密境中有一直守护在这里的巨兽,挑战并击败它可以获得丰厚的奖励</t>
   </si>
   <si>
-    <t>20000029</t>
-  </si>
-  <si>
     <t>挑战之地</t>
   </si>
   <si>
-    <t>-2920,-1,-2682</t>
-  </si>
-  <si>
     <t>像试试自己差距嘛,那就来我这里吧。</t>
   </si>
   <si>
-    <t>20000030</t>
-  </si>
-  <si>
     <t>试炼之地</t>
   </si>
   <si>
-    <t>-1732,1,8252</t>
-  </si>
-  <si>
     <t>20000031</t>
   </si>
   <si>
@@ -2419,6 +2407,27 @@
   <si>
     <t>100001,100020,100021,105037,105038,105039</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>-3131,135,2254</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3145,-135,-243</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1801,135,-253</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>10006</t>
   </si>
 </sst>
 </file>
@@ -2621,7 +2630,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2760,6 +2769,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3067,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y198"/>
+  <dimension ref="A1:Y199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3337,10 +3349,10 @@
       <c r="J6" s="40"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N6" s="39">
         <v>90</v>
@@ -3382,10 +3394,10 @@
       <c r="J7" s="40"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="N7" s="39">
         <v>186</v>
@@ -3423,10 +3435,10 @@
       <c r="J8" s="40"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N8" s="39">
         <v>-60</v>
@@ -3464,10 +3476,10 @@
       <c r="J9" s="40"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N9" s="39">
         <v>180</v>
@@ -3507,10 +3519,10 @@
       <c r="J10" s="40"/>
       <c r="K10" s="39"/>
       <c r="L10" s="37" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N10" s="39">
         <v>-60</v>
@@ -3548,10 +3560,10 @@
       <c r="J11" s="40"/>
       <c r="K11" s="39"/>
       <c r="L11" s="37" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N11" s="39">
         <v>90</v>
@@ -3583,16 +3595,16 @@
         <v>1024</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="1"/>
       <c r="L12" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="M12" s="43" t="s">
         <v>489</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>493</v>
       </c>
       <c r="N12" s="39">
         <v>71</v>
@@ -3615,7 +3627,7 @@
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="39">
@@ -3630,10 +3642,10 @@
       <c r="J13" s="40"/>
       <c r="K13" s="39"/>
       <c r="L13" s="37" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="N13" s="39">
         <v>0</v>
@@ -3673,10 +3685,10 @@
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="37" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N14" s="39">
         <v>90</v>
@@ -3701,7 +3713,7 @@
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="39">
@@ -3716,10 +3728,10 @@
       <c r="J15" s="40"/>
       <c r="K15" s="39"/>
       <c r="L15" s="37" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N15" s="39">
         <v>165</v>
@@ -3741,868 +3753,858 @@
         <v>1011</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F16" s="13"/>
       <c r="H16" s="48" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N16" s="5">
         <v>178</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="13">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="45">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39">
+        <v>1050</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="L17" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>582</v>
+      </c>
+      <c r="N17" s="38">
+        <v>145</v>
+      </c>
+      <c r="O17" s="38"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+    </row>
+    <row r="18" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="13">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39">
+        <v>1027</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="N18" s="38">
+        <v>45</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+    </row>
+    <row r="19" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="45">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39">
+        <v>1028</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>584</v>
+      </c>
+      <c r="N19" s="38">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+    </row>
+    <row r="20" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="13">
         <v>10001</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13">
+      <c r="F20" s="13"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
         <v>10001</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13">
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="13">
         <v>10002</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="24"/>
-    </row>
-    <row r="19" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13">
+      <c r="F21" s="13"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="13">
         <v>10003</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="24"/>
-    </row>
-    <row r="20" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="13">
+      <c r="F22" s="13"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24"/>
+    </row>
+    <row r="23" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="13">
         <v>10004</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="24" t="s">
+      <c r="F23" s="13"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="S23" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="13">
+    <row r="24" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="13">
         <v>1000101</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="H21" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="F24" s="13"/>
+      <c r="H24" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
         <v>10001</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M24" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="R21" s="24"/>
-    </row>
-    <row r="22" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="13">
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="24"/>
+    </row>
+    <row r="25" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="13">
         <v>1000201</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="H22" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="L22" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="M22" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="N22" s="5">
-        <v>180</v>
-      </c>
-      <c r="R22" s="24"/>
-      <c r="S22" s="46"/>
-    </row>
-    <row r="23" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="13">
-        <v>1000301</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="H23" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="L23" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="N23" s="5">
-        <v>-306</v>
-      </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="46"/>
-    </row>
-    <row r="24" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="13">
-        <v>1000401</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="H24" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="L24" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="M24" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="N24" s="5">
-        <v>-183</v>
-      </c>
-      <c r="R24" s="24"/>
-      <c r="S24" s="46"/>
-    </row>
-    <row r="25" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="13">
-        <v>1000501</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="F25" s="13"/>
       <c r="H25" s="30" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I25" s="4"/>
       <c r="L25" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>553</v>
+        <v>498</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>501</v>
       </c>
       <c r="N25" s="5">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="R25" s="24"/>
       <c r="S25" s="46"/>
     </row>
-    <row r="26" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="13">
-        <v>2000101</v>
+        <v>1000301</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F26" s="13"/>
       <c r="H26" s="30" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="I26" s="4"/>
       <c r="L26" s="22" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="N26" s="5">
-        <v>-155</v>
+        <v>-306</v>
       </c>
       <c r="R26" s="24"/>
       <c r="S26" s="46"/>
     </row>
-    <row r="27" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="13">
-        <v>2000201</v>
+        <v>1000401</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="H27" s="30" t="s">
-        <v>560</v>
+      <c r="H27" s="48" t="s">
+        <v>567</v>
       </c>
       <c r="I27" s="4"/>
       <c r="L27" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="M27" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="M27" s="31" t="s">
-        <v>515</v>
-      </c>
       <c r="N27" s="5">
-        <v>-274</v>
+        <v>-183</v>
       </c>
       <c r="R27" s="24"/>
       <c r="S27" s="46"/>
     </row>
-    <row r="28" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="13">
-        <v>2000301</v>
+        <v>1000501</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F28" s="13"/>
       <c r="H28" s="30" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="I28" s="4"/>
       <c r="L28" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="N28" s="5">
-        <v>-223</v>
+        <v>-180</v>
       </c>
       <c r="R28" s="24"/>
       <c r="S28" s="46"/>
     </row>
-    <row r="29" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="13">
-        <v>2000401</v>
+        <v>2000101</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F29" s="13"/>
       <c r="H29" s="30" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="I29" s="4"/>
       <c r="L29" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="M29" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="M29" s="31" t="s">
-        <v>518</v>
-      </c>
       <c r="N29" s="5">
-        <v>-87</v>
+        <v>-155</v>
       </c>
       <c r="R29" s="24"/>
       <c r="S29" s="46"/>
     </row>
-    <row r="30" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="13">
-        <v>2000501</v>
+        <v>2000201</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F30" s="13"/>
       <c r="H30" s="30" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="I30" s="4"/>
       <c r="L30" s="22" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="N30" s="5">
-        <v>-45</v>
+        <v>-274</v>
       </c>
       <c r="R30" s="24"/>
       <c r="S30" s="46"/>
     </row>
-    <row r="31" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="13">
-        <v>3000101</v>
+        <v>2000301</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F31" s="13"/>
       <c r="H31" s="30" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="I31" s="4"/>
       <c r="L31" s="22" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="N31" s="5">
-        <v>-200</v>
+        <v>-223</v>
       </c>
       <c r="R31" s="24"/>
       <c r="S31" s="46"/>
     </row>
-    <row r="32" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="13">
-        <v>3000201</v>
+        <v>2000401</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F32" s="13"/>
       <c r="H32" s="30" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I32" s="4"/>
       <c r="L32" s="22" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="N32" s="5">
-        <v>-144</v>
+        <v>-87</v>
       </c>
       <c r="R32" s="24"/>
       <c r="S32" s="46"/>
     </row>
-    <row r="33" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13">
-        <v>3000301</v>
+        <v>2000501</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F33" s="13"/>
       <c r="H33" s="30" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="I33" s="4"/>
       <c r="L33" s="22" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="N33" s="5">
-        <v>-180</v>
+        <v>-45</v>
       </c>
       <c r="R33" s="24"/>
       <c r="S33" s="46"/>
     </row>
-    <row r="34" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="13">
-        <v>3000401</v>
+        <v>3000101</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F34" s="13"/>
       <c r="H34" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I34" s="4"/>
       <c r="L34" s="22" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="N34" s="5">
-        <v>-211</v>
+        <v>-200</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="46"/>
     </row>
-    <row r="35" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="13">
-        <v>3000501</v>
+        <v>3000201</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F35" s="13"/>
       <c r="H35" s="30" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="I35" s="4"/>
       <c r="L35" s="22" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="N35" s="5">
-        <v>-215</v>
+        <v>-144</v>
       </c>
       <c r="R35" s="24"/>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="13">
-        <v>4000101</v>
+        <v>3000301</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F36" s="13"/>
       <c r="H36" s="30" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="I36" s="4"/>
       <c r="L36" s="22" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="N36" s="5">
-        <v>-157</v>
+        <v>-180</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="46"/>
     </row>
-    <row r="37" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="13">
-        <v>4000102</v>
+        <v>3000401</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F37" s="13"/>
       <c r="H37" s="30" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="I37" s="4"/>
       <c r="L37" s="22" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="M37" s="31" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="N37" s="5">
-        <v>-60</v>
+        <v>-211</v>
       </c>
       <c r="R37" s="24"/>
       <c r="S37" s="46"/>
     </row>
-    <row r="38" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="13">
-        <v>4000103</v>
+        <v>3000501</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="30" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="I38" s="4"/>
       <c r="L38" s="22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N38" s="5">
-        <v>-187</v>
+        <v>-215</v>
       </c>
       <c r="R38" s="24"/>
       <c r="S38" s="46"/>
     </row>
-    <row r="39" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="13">
-        <v>4000104</v>
+        <v>4000101</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F39" s="13"/>
       <c r="H39" s="30" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="I39" s="4"/>
       <c r="L39" s="22" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="N39" s="5">
-        <v>-90</v>
+        <v>-157</v>
       </c>
       <c r="R39" s="24"/>
       <c r="S39" s="46"/>
     </row>
-    <row r="40" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="13">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F40" s="13"/>
       <c r="H40" s="30" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="I40" s="4"/>
       <c r="L40" s="22" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N40" s="5">
-        <v>-94</v>
+        <v>-60</v>
       </c>
       <c r="R40" s="24"/>
       <c r="S40" s="46"/>
     </row>
-    <row r="41" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="13">
-        <v>5000101</v>
+        <v>4000103</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="F41" s="13"/>
       <c r="H41" s="30" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="I41" s="4"/>
       <c r="L41" s="22" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="N41" s="5">
-        <v>-85</v>
+        <v>-187</v>
       </c>
       <c r="R41" s="24"/>
       <c r="S41" s="46"/>
     </row>
-    <row r="42" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="13">
-        <v>5000201</v>
+        <v>4000104</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F42" s="13"/>
       <c r="H42" s="30" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="I42" s="4"/>
       <c r="L42" s="22" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="N42" s="5">
-        <v>-280</v>
+        <v>-90</v>
       </c>
       <c r="R42" s="24"/>
       <c r="S42" s="46"/>
     </row>
-    <row r="43" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="13">
-        <v>5000301</v>
+        <v>4000105</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F43" s="13"/>
       <c r="H43" s="30" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="I43" s="4"/>
       <c r="L43" s="22" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="N43" s="5">
-        <v>-180</v>
+        <v>-94</v>
       </c>
       <c r="R43" s="24"/>
       <c r="S43" s="46"/>
     </row>
-    <row r="44" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="13">
-        <v>5000401</v>
+        <v>5000101</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F44" s="13"/>
       <c r="H44" s="30" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I44" s="4"/>
       <c r="L44" s="22" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="N44" s="5">
-        <v>-152</v>
+        <v>-85</v>
       </c>
       <c r="R44" s="24"/>
       <c r="S44" s="46"/>
     </row>
-    <row r="45" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="13">
-        <v>5000501</v>
+        <v>5000201</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F45" s="13"/>
       <c r="H45" s="30" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="I45" s="4"/>
       <c r="L45" s="22" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="N45" s="5">
-        <v>-156</v>
+        <v>-280</v>
       </c>
       <c r="R45" s="24"/>
       <c r="S45" s="46"/>
     </row>
-    <row r="46" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="13">
+        <v>5000301</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="H46" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="L46" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="N46" s="5">
+        <v>-180</v>
+      </c>
+      <c r="R46" s="24"/>
+      <c r="S46" s="46"/>
+    </row>
+    <row r="47" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="13">
+        <v>5000401</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="H47" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="L47" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="N47" s="5">
+        <v>-152</v>
+      </c>
+      <c r="R47" s="24"/>
+      <c r="S47" s="46"/>
+    </row>
+    <row r="48" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="13">
+        <v>5000501</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="H48" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="L48" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="M48" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="N48" s="5">
+        <v>-156</v>
+      </c>
+      <c r="R48" s="24"/>
+      <c r="S48" s="46"/>
+    </row>
+    <row r="49" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="13">
         <v>1000014</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="15">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16">
-        <v>4</v>
-      </c>
-      <c r="H46" s="16">
-        <v>0</v>
-      </c>
-      <c r="I46" s="16">
-        <v>0</v>
-      </c>
-      <c r="J46" s="18"/>
-      <c r="L46" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M46" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" s="14">
-        <v>-90</v>
-      </c>
-      <c r="O46" s="14"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-    </row>
-    <row r="47" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="15">
-        <v>200001</v>
-      </c>
-      <c r="G47" s="16">
-        <v>1012</v>
-      </c>
-      <c r="H47" s="16">
-        <v>0</v>
-      </c>
-      <c r="I47" s="16">
-        <v>0</v>
-      </c>
-      <c r="J47" s="18"/>
-      <c r="L47" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="N47" s="14">
-        <v>-90</v>
-      </c>
-      <c r="O47" s="14"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-    </row>
-    <row r="48" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="15">
-        <v>10001201</v>
-      </c>
-      <c r="G48" s="16">
-        <v>1009</v>
-      </c>
-      <c r="H48" s="16">
-        <v>0</v>
-      </c>
-      <c r="I48" s="16">
-        <v>0</v>
-      </c>
-      <c r="J48" s="18"/>
-      <c r="L48" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M48" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="N48" s="14">
-        <v>-280</v>
-      </c>
-      <c r="O48" s="14"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-    </row>
-    <row r="49" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
       <c r="G49" s="16">
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="H49" s="16">
         <v>0</v>
@@ -4615,15 +4617,17 @@
         <v>51</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N49" s="14">
-        <v>-180</v>
+        <v>-90</v>
       </c>
       <c r="O49" s="14"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="15"/>
+      <c r="R49" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="14"/>
@@ -4634,15 +4638,17 @@
     </row>
     <row r="50" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="F50" s="15">
+        <v>200001</v>
+      </c>
       <c r="G50" s="16">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="H50" s="16">
         <v>0</v>
@@ -4655,10 +4661,10 @@
         <v>51</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N50" s="14">
-        <v>-280</v>
+        <v>-90</v>
       </c>
       <c r="O50" s="14"/>
       <c r="P50" s="2"/>
@@ -4674,15 +4680,17 @@
     </row>
     <row r="51" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="F51" s="15">
+        <v>10001201</v>
+      </c>
       <c r="G51" s="16">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="H51" s="16">
         <v>0</v>
@@ -4695,17 +4703,15 @@
         <v>51</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N51" s="14">
-        <v>-180</v>
+        <v>-280</v>
       </c>
       <c r="O51" s="14"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="15" t="s">
-        <v>72</v>
-      </c>
+      <c r="R51" s="15"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="14"/>
@@ -4716,15 +4722,15 @@
     </row>
     <row r="52" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D52" s="14"/>
-      <c r="E52" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="14"/>
+      <c r="E52" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="15"/>
       <c r="G52" s="16">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H52" s="16">
         <v>0</v>
@@ -4736,18 +4742,16 @@
       <c r="L52" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="N52" s="16">
+      <c r="M52" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="14">
         <v>-180</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="25" t="s">
-        <v>76</v>
-      </c>
+      <c r="O52" s="14"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="15"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="14"/>
@@ -4758,15 +4762,15 @@
     </row>
     <row r="53" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="15" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="16">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="H53" s="16">
         <v>0</v>
@@ -4779,17 +4783,15 @@
         <v>51</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N53" s="14">
-        <v>-90</v>
+        <v>-280</v>
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="15" t="s">
-        <v>72</v>
-      </c>
+      <c r="R53" s="15"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="14"/>
@@ -4800,15 +4802,15 @@
     </row>
     <row r="54" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="17" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="16">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H54" s="16">
         <v>0</v>
@@ -4821,10 +4823,10 @@
         <v>51</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="N54" s="14">
-        <v>90</v>
+        <v>-180</v>
       </c>
       <c r="O54" s="14"/>
       <c r="P54" s="2"/>
@@ -4842,15 +4844,15 @@
     </row>
     <row r="55" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" s="15"/>
+      <c r="E55" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="14"/>
       <c r="G55" s="16">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="H55" s="16">
         <v>0</v>
@@ -4862,17 +4864,17 @@
       <c r="L55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M55" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="N55" s="14">
-        <v>0</v>
-      </c>
-      <c r="O55" s="14"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="15" t="s">
-        <v>86</v>
+      <c r="M55" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N55" s="16">
+        <v>-180</v>
+      </c>
+      <c r="O55" s="16"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -4884,15 +4886,15 @@
     </row>
     <row r="56" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="16">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H56" s="16">
         <v>0</v>
@@ -4905,16 +4907,16 @@
         <v>51</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="N56" s="14">
-        <v>-270</v>
+        <v>-90</v>
       </c>
       <c r="O56" s="14"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="15" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -4926,15 +4928,15 @@
     </row>
     <row r="57" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="16">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H57" s="16">
         <v>0</v>
@@ -4947,15 +4949,17 @@
         <v>51</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N57" s="14">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="15"/>
+      <c r="R57" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="14"/>
@@ -4966,17 +4970,15 @@
     </row>
     <row r="58" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="E58" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="15"/>
       <c r="G58" s="16">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="H58" s="16">
         <v>0</v>
@@ -4988,17 +4990,17 @@
       <c r="L58" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="34" t="s">
-        <v>97</v>
+      <c r="M58" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="N58" s="14">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="25" t="s">
-        <v>98</v>
+      <c r="R58" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -5010,17 +5012,15 @@
     </row>
     <row r="59" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="E59" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="15"/>
       <c r="G59" s="16">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="H59" s="16">
         <v>0</v>
@@ -5032,17 +5032,17 @@
       <c r="L59" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M59" s="34" t="s">
-        <v>102</v>
+      <c r="M59" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="N59" s="14">
-        <v>90</v>
+        <v>-270</v>
       </c>
       <c r="O59" s="14"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="25" t="s">
-        <v>103</v>
+      <c r="R59" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -5054,17 +5054,15 @@
     </row>
     <row r="60" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="E60" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="15"/>
       <c r="G60" s="16">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="H60" s="16">
         <v>0</v>
@@ -5076,18 +5074,16 @@
       <c r="L60" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M60" s="34" t="s">
-        <v>107</v>
+      <c r="M60" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="N60" s="14">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="O60" s="14"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="R60" s="15"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="14"/>
@@ -5098,15 +5094,17 @@
     </row>
     <row r="61" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="17" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="G61" s="16">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="H61" s="16">
         <v>0</v>
@@ -5119,16 +5117,16 @@
         <v>51</v>
       </c>
       <c r="M61" s="34" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="N61" s="14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O61" s="14"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="25" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -5140,15 +5138,17 @@
     </row>
     <row r="62" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G62" s="16">
-        <v>5</v>
+        <v>1006</v>
       </c>
       <c r="H62" s="16">
         <v>0</v>
@@ -5161,15 +5161,17 @@
         <v>51</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N62" s="14">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="25"/>
+      <c r="R62" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="14"/>
@@ -5180,15 +5182,17 @@
     </row>
     <row r="63" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="17" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F63" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="G63" s="16">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="H63" s="16">
         <v>0</v>
@@ -5201,16 +5205,16 @@
         <v>51</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N63" s="14">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="25" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
@@ -5222,17 +5226,15 @@
     </row>
     <row r="64" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="17" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="14">
-        <v>4</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F64" s="14"/>
       <c r="G64" s="16">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="H64" s="16">
         <v>0</v>
@@ -5245,16 +5247,16 @@
         <v>51</v>
       </c>
       <c r="M64" s="34" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="N64" s="14">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
@@ -5266,15 +5268,15 @@
     </row>
     <row r="65" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="17" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="16" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H65" s="16">
         <v>0</v>
@@ -5282,17 +5284,15 @@
       <c r="I65" s="16">
         <v>0</v>
       </c>
-      <c r="J65" s="16">
-        <v>52</v>
-      </c>
+      <c r="J65" s="18"/>
       <c r="L65" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M65" s="34" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="N65" s="14">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="2"/>
@@ -5308,15 +5308,15 @@
     </row>
     <row r="66" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="17" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="16" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="16">
-        <v>1</v>
+        <v>1014</v>
       </c>
       <c r="H66" s="16">
         <v>0</v>
@@ -5324,22 +5324,22 @@
       <c r="I66" s="16">
         <v>0</v>
       </c>
-      <c r="J66" s="16">
-        <v>53</v>
-      </c>
+      <c r="J66" s="18"/>
       <c r="L66" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M66" s="34" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="N66" s="14">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="25"/>
+      <c r="R66" s="25" t="s">
+        <v>119</v>
+      </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="14"/>
@@ -5350,15 +5350,17 @@
     </row>
     <row r="67" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="F67" s="14">
+        <v>4</v>
+      </c>
       <c r="G67" s="16">
-        <v>1</v>
+        <v>1022</v>
       </c>
       <c r="H67" s="16">
         <v>0</v>
@@ -5366,22 +5368,22 @@
       <c r="I67" s="16">
         <v>0</v>
       </c>
-      <c r="J67" s="16">
-        <v>54</v>
-      </c>
+      <c r="J67" s="18"/>
       <c r="L67" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N67" s="14">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-      <c r="R67" s="25"/>
+      <c r="R67" s="25" t="s">
+        <v>119</v>
+      </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="14"/>
@@ -5392,38 +5394,38 @@
     </row>
     <row r="68" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="17" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D68" s="14"/>
-      <c r="E68" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F68" s="15">
-        <v>100001</v>
-      </c>
+      <c r="E68" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="14"/>
       <c r="G68" s="16">
-        <v>1012</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J68" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="16">
+        <v>0</v>
+      </c>
+      <c r="I68" s="16">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16">
+        <v>52</v>
+      </c>
       <c r="L68" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="N68" s="14">
-        <v>-110</v>
+        <v>90</v>
       </c>
       <c r="O68" s="14"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="15"/>
+      <c r="R68" s="25"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="14"/>
@@ -5434,17 +5436,15 @@
     </row>
     <row r="69" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" s="14">
-        <v>5</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F69" s="14"/>
       <c r="G69" s="16">
-        <v>1029</v>
+        <v>1</v>
       </c>
       <c r="H69" s="16">
         <v>0</v>
@@ -5452,22 +5452,22 @@
       <c r="I69" s="16">
         <v>0</v>
       </c>
-      <c r="J69" s="18"/>
+      <c r="J69" s="16">
+        <v>53</v>
+      </c>
       <c r="L69" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M69" s="34" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N69" s="14">
-        <v>-30</v>
+        <v>90</v>
       </c>
       <c r="O69" s="14"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-      <c r="R69" s="25" t="s">
-        <v>119</v>
-      </c>
+      <c r="R69" s="25"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="14"/>
@@ -5478,38 +5478,38 @@
     </row>
     <row r="70" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="17" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="16">
-        <v>3</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="H70" s="16">
+        <v>0</v>
       </c>
       <c r="I70" s="16">
         <v>0</v>
       </c>
-      <c r="J70" s="18"/>
+      <c r="J70" s="16">
+        <v>54</v>
+      </c>
       <c r="L70" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N70" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O70" s="14"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="25" t="s">
-        <v>143</v>
-      </c>
+      <c r="R70" s="25"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="14"/>
@@ -5520,36 +5520,38 @@
     </row>
     <row r="71" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D71" s="14"/>
-      <c r="E71" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="19">
-        <v>0</v>
+      <c r="E71" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="15">
+        <v>100001</v>
       </c>
       <c r="G71" s="16">
-        <v>1024</v>
-      </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
+        <v>1012</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="J71" s="18"/>
       <c r="L71" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M71" s="34" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="N71" s="14">
-        <v>-30</v>
+        <v>-110</v>
       </c>
       <c r="O71" s="14"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-      <c r="R71" s="25" t="s">
-        <v>147</v>
-      </c>
+      <c r="R71" s="15"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="14"/>
@@ -5560,17 +5562,17 @@
     </row>
     <row r="72" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F72" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72" s="16">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="H72" s="16">
         <v>0</v>
@@ -5583,16 +5585,16 @@
         <v>51</v>
       </c>
       <c r="M72" s="34" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="N72" s="14">
-        <v>-144</v>
+        <v>-30</v>
       </c>
       <c r="O72" s="14"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="25" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
@@ -5604,35 +5606,37 @@
     </row>
     <row r="73" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="17" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="16" t="s">
-        <v>476</v>
+        <v>140</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="16">
-        <v>2</v>
-      </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="16">
-        <v>2000001</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I73" s="16">
+        <v>0</v>
+      </c>
+      <c r="J73" s="18"/>
       <c r="L73" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M73" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="N73" s="14">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="O73" s="14"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="25" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -5644,35 +5648,35 @@
     </row>
     <row r="74" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="F74" s="14"/>
+        <v>145</v>
+      </c>
+      <c r="F74" s="19">
+        <v>0</v>
+      </c>
       <c r="G74" s="16">
-        <v>2</v>
+        <v>1024</v>
       </c>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
-      <c r="J74" s="18">
-        <v>2000002</v>
-      </c>
+      <c r="J74" s="18"/>
       <c r="L74" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N74" s="14">
-        <v>90</v>
+        <v>-30</v>
       </c>
       <c r="O74" s="14"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="25" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
@@ -5684,33 +5688,39 @@
     </row>
     <row r="75" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="14"/>
+        <v>149</v>
+      </c>
+      <c r="F75" s="14">
+        <v>6</v>
+      </c>
       <c r="G75" s="16">
-        <v>1027</v>
-      </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
+        <v>1026</v>
+      </c>
+      <c r="H75" s="16">
+        <v>0</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
       <c r="J75" s="18"/>
       <c r="L75" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M75" s="34" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="N75" s="14">
-        <v>90</v>
+        <v>-144</v>
       </c>
       <c r="O75" s="14"/>
-      <c r="P75" s="23"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="25" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
@@ -5722,33 +5732,35 @@
     </row>
     <row r="76" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="16" t="s">
-        <v>164</v>
+        <v>472</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="16">
-        <v>1028</v>
+        <v>2</v>
       </c>
       <c r="H76" s="18"/>
       <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
+      <c r="J76" s="16">
+        <v>2000001</v>
+      </c>
       <c r="L76" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M76" s="34" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N76" s="14">
-        <v>129</v>
+        <v>-180</v>
       </c>
       <c r="O76" s="14"/>
-      <c r="P76" s="23"/>
+      <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="25" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
@@ -5760,38 +5772,36 @@
     </row>
     <row r="77" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="17" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16" t="s">
-        <v>167</v>
+        <v>473</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="16">
-        <v>0</v>
-      </c>
-      <c r="H77" s="16">
-        <v>50000001</v>
-      </c>
-      <c r="I77" s="16">
-        <v>0</v>
-      </c>
-      <c r="J77" s="16">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18">
+        <v>2000002</v>
       </c>
       <c r="L77" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M77" s="34" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="N77" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O77" s="14"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="25"/>
+      <c r="R77" s="25" t="s">
+        <v>158</v>
+      </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="14"/>
@@ -5802,36 +5812,38 @@
     </row>
     <row r="78" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D78" s="14"/>
-      <c r="E78" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="15"/>
+      <c r="E78" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78" s="14"/>
       <c r="G78" s="16">
-        <v>1030</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J78" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="16">
+        <v>50000001</v>
+      </c>
+      <c r="I78" s="16">
+        <v>0</v>
+      </c>
+      <c r="J78" s="16">
+        <v>0</v>
+      </c>
       <c r="L78" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M78" s="34" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="N78" s="14">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O78" s="14"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="15"/>
+      <c r="R78" s="25"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="14"/>
@@ -5842,15 +5854,15 @@
     </row>
     <row r="79" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="16">
-        <v>6</v>
+        <v>1030</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>134</v>
@@ -5863,17 +5875,15 @@
         <v>51</v>
       </c>
       <c r="M79" s="34" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="N79" s="14">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="O79" s="14"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="15" t="s">
-        <v>175</v>
-      </c>
+      <c r="R79" s="15"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="14"/>
@@ -5884,15 +5894,15 @@
     </row>
     <row r="80" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>134</v>
@@ -5905,16 +5915,16 @@
         <v>51</v>
       </c>
       <c r="M80" s="34" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="N80" s="14">
-        <v>-146</v>
+        <v>270</v>
       </c>
       <c r="O80" s="14"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="15" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -5926,15 +5936,15 @@
     </row>
     <row r="81" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="17" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>134</v>
@@ -5942,14 +5952,12 @@
       <c r="I81" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J81" s="18" t="s">
-        <v>182</v>
-      </c>
+      <c r="J81" s="18"/>
       <c r="L81" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M81" s="34" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="N81" s="14">
         <v>-146</v>
@@ -5958,7 +5966,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -5970,38 +5978,40 @@
     </row>
     <row r="82" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" s="15">
-        <v>50000001</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F82" s="15"/>
       <c r="G82" s="16">
-        <v>1009</v>
-      </c>
-      <c r="H82" s="16">
-        <v>0</v>
-      </c>
-      <c r="I82" s="16">
-        <v>0</v>
-      </c>
-      <c r="J82" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="L82" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M82" s="32" t="s">
-        <v>187</v>
+      <c r="M82" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="N82" s="14">
-        <v>106</v>
+        <v>-146</v>
       </c>
       <c r="O82" s="14"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-      <c r="R82" s="15"/>
+      <c r="R82" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="14"/>
@@ -6012,17 +6022,17 @@
     </row>
     <row r="83" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F83" s="15">
-        <v>0</v>
+        <v>50000001</v>
       </c>
       <c r="G83" s="16">
-        <v>8</v>
+        <v>1009</v>
       </c>
       <c r="H83" s="16">
         <v>0</v>
@@ -6035,17 +6045,15 @@
         <v>51</v>
       </c>
       <c r="M83" s="32" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N83" s="14">
-        <v>-90</v>
+        <v>106</v>
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="R83" s="15"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="14"/>
@@ -6056,17 +6064,17 @@
     </row>
     <row r="84" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F84" s="15">
         <v>0</v>
       </c>
       <c r="G84" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H84" s="16">
         <v>0</v>
@@ -6079,16 +6087,16 @@
         <v>51</v>
       </c>
       <c r="M84" s="32" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="N84" s="14">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -6100,17 +6108,17 @@
     </row>
     <row r="85" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F85" s="15">
-        <v>60000001</v>
+        <v>0</v>
       </c>
       <c r="G85" s="16">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="H85" s="16">
         <v>0</v>
@@ -6123,15 +6131,17 @@
         <v>51</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N85" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="15"/>
+      <c r="R85" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="14"/>
@@ -6142,17 +6152,17 @@
     </row>
     <row r="86" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="17" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F86" s="15">
-        <v>0</v>
+        <v>60000001</v>
       </c>
       <c r="G86" s="16">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="H86" s="16">
         <v>0</v>
@@ -6165,17 +6175,15 @@
         <v>51</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N86" s="14">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="O86" s="14"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-      <c r="R86" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="R86" s="15"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="14"/>
@@ -6186,33 +6194,39 @@
     </row>
     <row r="87" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" s="14"/>
+      <c r="E87" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="15">
+        <v>0</v>
+      </c>
       <c r="G87" s="16">
-        <v>1050</v>
-      </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="H87" s="16">
+        <v>0</v>
+      </c>
+      <c r="I87" s="16">
+        <v>0</v>
+      </c>
       <c r="J87" s="18"/>
       <c r="L87" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M87" s="34" t="s">
-        <v>205</v>
+      <c r="M87" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="N87" s="14">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="O87" s="14"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-      <c r="R87" s="25" t="s">
-        <v>206</v>
+      <c r="R87" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -6222,41 +6236,38 @@
       <c r="X87" s="14"/>
       <c r="Y87" s="14"/>
     </row>
-    <row r="88" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+    <row r="88" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="17" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F88" s="15">
-        <v>0</v>
-      </c>
+      <c r="E88" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F88" s="14"/>
       <c r="G88" s="16">
-        <v>1046</v>
-      </c>
-      <c r="H88" s="16">
-        <v>0</v>
-      </c>
-      <c r="I88" s="16">
-        <v>0</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
       <c r="J88" s="18"/>
-      <c r="K88" s="1"/>
       <c r="L88" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="N88" s="14">
         <v>90</v>
       </c>
       <c r="O88" s="14"/>
-      <c r="R88" s="15"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
       <c r="U88" s="14"/>
       <c r="V88" s="14"/>
       <c r="W88" s="14"/>
@@ -6267,17 +6278,17 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="17" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F89" s="15">
         <v>0</v>
       </c>
       <c r="G89" s="16">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="H89" s="16">
         <v>0</v>
@@ -6291,15 +6302,13 @@
         <v>51</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="N89" s="14">
-        <v>-140</v>
+        <v>90</v>
       </c>
       <c r="O89" s="14"/>
-      <c r="R89" s="15" t="s">
-        <v>213</v>
-      </c>
+      <c r="R89" s="15"/>
       <c r="U89" s="14"/>
       <c r="V89" s="14"/>
       <c r="W89" s="14"/>
@@ -6310,17 +6319,17 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="17" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="15" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F90" s="15">
         <v>0</v>
       </c>
       <c r="G90" s="16">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="H90" s="16">
         <v>0</v>
@@ -6334,13 +6343,15 @@
         <v>51</v>
       </c>
       <c r="M90" s="34" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="N90" s="14">
-        <v>90</v>
+        <v>-140</v>
       </c>
       <c r="O90" s="14"/>
-      <c r="R90" s="15"/>
+      <c r="R90" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="U90" s="14"/>
       <c r="V90" s="14"/>
       <c r="W90" s="14"/>
@@ -6351,17 +6362,17 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F91" s="15">
         <v>0</v>
       </c>
       <c r="G91" s="16">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H91" s="16">
         <v>0</v>
@@ -6375,10 +6386,10 @@
         <v>51</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N91" s="14">
-        <v>-180</v>
+        <v>90</v>
       </c>
       <c r="O91" s="14"/>
       <c r="R91" s="15"/>
@@ -6392,17 +6403,17 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="15" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F92" s="15">
         <v>0</v>
       </c>
       <c r="G92" s="16">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="H92" s="16">
         <v>0</v>
@@ -6416,10 +6427,10 @@
         <v>51</v>
       </c>
       <c r="M92" s="34" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N92" s="14">
-        <v>30</v>
+        <v>-180</v>
       </c>
       <c r="O92" s="14"/>
       <c r="R92" s="15"/>
@@ -6433,17 +6444,17 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="17" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="15" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F93" s="15">
         <v>0</v>
       </c>
       <c r="G93" s="16">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="H93" s="16">
         <v>0</v>
@@ -6457,10 +6468,10 @@
         <v>51</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N93" s="14">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="O93" s="14"/>
       <c r="R93" s="15"/>
@@ -6470,42 +6481,41 @@
       <c r="X93" s="14"/>
       <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="15" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F94" s="15">
-        <v>10001101</v>
+        <v>0</v>
       </c>
       <c r="G94" s="16">
-        <v>1009</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I94" s="18" t="s">
-        <v>134</v>
+        <v>1072</v>
+      </c>
+      <c r="H94" s="16">
+        <v>0</v>
+      </c>
+      <c r="I94" s="16">
+        <v>0</v>
       </c>
       <c r="J94" s="18"/>
+      <c r="K94" s="1"/>
       <c r="L94" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M94" s="32" t="s">
-        <v>228</v>
+      <c r="M94" s="34" t="s">
+        <v>221</v>
       </c>
       <c r="N94" s="14">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="O94" s="14"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
       <c r="R94" s="15"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
       <c r="U94" s="14"/>
       <c r="V94" s="14"/>
       <c r="W94" s="14"/>
@@ -6513,15 +6523,15 @@
       <c r="Y94" s="14"/>
     </row>
     <row r="95" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="15">
-        <v>20001002</v>
+      <c r="C95" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F95" s="15">
-        <v>10001201</v>
+        <v>10001101</v>
       </c>
       <c r="G95" s="16">
         <v>1009</v>
@@ -6536,11 +6546,11 @@
       <c r="L95" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M95" s="14" t="s">
-        <v>230</v>
+      <c r="M95" s="32" t="s">
+        <v>224</v>
       </c>
       <c r="N95" s="14">
-        <v>-45</v>
+        <v>60</v>
       </c>
       <c r="O95" s="14"/>
       <c r="P95" s="2"/>
@@ -6556,16 +6566,20 @@
     </row>
     <row r="96" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="15">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="F96" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G96" s="16">
+        <v>1009</v>
+      </c>
       <c r="H96" s="18" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>134</v>
@@ -6575,17 +6589,15 @@
         <v>51</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N96" s="14">
-        <v>180</v>
+        <v>-45</v>
       </c>
       <c r="O96" s="14"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
-      <c r="R96" s="26" t="s">
-        <v>234</v>
-      </c>
+      <c r="R96" s="15"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
       <c r="U96" s="14"/>
@@ -6596,16 +6608,16 @@
     </row>
     <row r="97" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="15">
-        <v>20001004</v>
+        <v>20001003</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="15" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="16"/>
       <c r="H97" s="18" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>134</v>
@@ -6614,17 +6626,17 @@
       <c r="L97" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M97" s="32" t="s">
-        <v>236</v>
+      <c r="M97" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="N97" s="14">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O97" s="14"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="26" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -6636,11 +6648,11 @@
     </row>
     <row r="98" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="15">
-        <v>20001005</v>
+        <v>20001004</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="16"/>
@@ -6654,17 +6666,17 @@
       <c r="L98" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M98" s="14" t="s">
-        <v>239</v>
+      <c r="M98" s="32" t="s">
+        <v>232</v>
       </c>
       <c r="N98" s="14">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="O98" s="14"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -6676,11 +6688,11 @@
     </row>
     <row r="99" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="16"/>
@@ -6694,17 +6706,17 @@
       <c r="L99" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M99" s="32" t="s">
-        <v>241</v>
+      <c r="M99" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="N99" s="14">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="O99" s="14"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -6716,16 +6728,16 @@
     </row>
     <row r="100" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
       <c r="H100" s="18" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>134</v>
@@ -6735,16 +6747,16 @@
         <v>51</v>
       </c>
       <c r="M100" s="32" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="N100" s="14">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="O100" s="14"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -6756,16 +6768,16 @@
     </row>
     <row r="101" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="15" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="16"/>
       <c r="H101" s="18" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="I101" s="18" t="s">
         <v>134</v>
@@ -6775,16 +6787,16 @@
         <v>51</v>
       </c>
       <c r="M101" s="32" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N101" s="14">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="O101" s="14"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="26" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -6796,16 +6808,16 @@
     </row>
     <row r="102" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="16"/>
       <c r="H102" s="18" t="s">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>134</v>
@@ -6815,16 +6827,16 @@
         <v>51</v>
       </c>
       <c r="M102" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="N102" s="14">
-        <v>35</v>
+        <v>-155</v>
       </c>
       <c r="O102" s="14"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="26" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -6836,16 +6848,16 @@
     </row>
     <row r="103" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="15">
-        <v>20001010</v>
+        <v>20001009</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="15" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
       <c r="H103" s="18" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>134</v>
@@ -6854,17 +6866,17 @@
       <c r="L103" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M103" s="35" t="s">
-        <v>255</v>
+      <c r="M103" s="32" t="s">
+        <v>248</v>
       </c>
       <c r="N103" s="14">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="O103" s="14"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="26" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -6876,16 +6888,16 @@
     </row>
     <row r="104" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="15">
-        <v>20001011</v>
+        <v>20001010</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="15" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="16"/>
       <c r="H104" s="18" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>134</v>
@@ -6894,17 +6906,17 @@
       <c r="L104" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M104" s="14" t="s">
-        <v>259</v>
+      <c r="M104" s="35" t="s">
+        <v>251</v>
       </c>
       <c r="N104" s="14">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="O104" s="14"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="26" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -6916,16 +6928,16 @@
     </row>
     <row r="105" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="16"/>
       <c r="H105" s="18" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>134</v>
@@ -6935,16 +6947,16 @@
         <v>51</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N105" s="14">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="O105" s="14"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="26" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -6956,16 +6968,16 @@
     </row>
     <row r="106" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="15" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
       <c r="H106" s="18" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>134</v>
@@ -6975,16 +6987,16 @@
         <v>51</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="N106" s="14">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="O106" s="14"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="26" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -6996,16 +7008,16 @@
     </row>
     <row r="107" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="18" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>134</v>
@@ -7015,7 +7027,7 @@
         <v>51</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N107" s="14">
         <v>180</v>
@@ -7024,7 +7036,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="26" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -7036,16 +7048,16 @@
     </row>
     <row r="108" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="16"/>
       <c r="H108" s="18" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>134</v>
@@ -7055,16 +7067,16 @@
         <v>51</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N108" s="14">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="O108" s="14"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="26" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -7076,16 +7088,16 @@
     </row>
     <row r="109" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="15" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
       <c r="H109" s="18" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>134</v>
@@ -7095,16 +7107,16 @@
         <v>51</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="N109" s="14">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="O109" s="14"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="26" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
@@ -7116,16 +7128,16 @@
     </row>
     <row r="110" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
       <c r="H110" s="18" t="s">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>134</v>
@@ -7135,16 +7147,16 @@
         <v>51</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="N110" s="14">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="O110" s="14"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="26" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
@@ -7156,35 +7168,35 @@
     </row>
     <row r="111" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="15" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
       <c r="H111" s="18" t="s">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J111" s="16"/>
+      <c r="J111" s="18"/>
       <c r="L111" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="N111" s="14">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="O111" s="14"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -7196,35 +7208,35 @@
     </row>
     <row r="112" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
       <c r="H112" s="18" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J112" s="18"/>
+      <c r="J112" s="16"/>
       <c r="L112" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="N112" s="14">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="O112" s="14"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="26" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
@@ -7236,16 +7248,16 @@
     </row>
     <row r="113" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="16"/>
       <c r="H113" s="18" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>134</v>
@@ -7255,16 +7267,16 @@
         <v>51</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="N113" s="14">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="O113" s="14"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="26" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -7276,11 +7288,11 @@
     </row>
     <row r="114" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="16"/>
@@ -7295,16 +7307,16 @@
         <v>51</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="N114" s="14">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="O114" s="14"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -7316,16 +7328,16 @@
     </row>
     <row r="115" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
       <c r="H115" s="18" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>134</v>
@@ -7335,16 +7347,16 @@
         <v>51</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N115" s="14">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="O115" s="14"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="26" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -7356,18 +7368,16 @@
     </row>
     <row r="116" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="15" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F116" s="15"/>
-      <c r="G116" s="16">
-        <v>1004</v>
-      </c>
+      <c r="G116" s="16"/>
       <c r="H116" s="18" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>134</v>
@@ -7377,15 +7387,17 @@
         <v>51</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="N116" s="14">
-        <v>180</v>
+        <v>-106</v>
       </c>
       <c r="O116" s="14"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
-      <c r="R116" s="15"/>
+      <c r="R116" s="26" t="s">
+        <v>292</v>
+      </c>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="14"/>
@@ -7396,14 +7408,16 @@
     </row>
     <row r="117" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="15" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="F117" s="15"/>
-      <c r="G117" s="16"/>
+      <c r="G117" s="16">
+        <v>1004</v>
+      </c>
       <c r="H117" s="18" t="s">
         <v>134</v>
       </c>
@@ -7415,10 +7429,10 @@
         <v>51</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="N117" s="14">
-        <v>-152</v>
+        <v>180</v>
       </c>
       <c r="O117" s="14"/>
       <c r="P117" s="2"/>
@@ -7433,19 +7447,15 @@
       <c r="Y117" s="14"/>
     </row>
     <row r="118" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="17" t="s">
-        <v>299</v>
+      <c r="C118" s="15">
+        <v>20001024</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F118" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G118" s="16">
-        <v>1009</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F118" s="15"/>
+      <c r="G118" s="16"/>
       <c r="H118" s="18" t="s">
         <v>134</v>
       </c>
@@ -7457,10 +7467,10 @@
         <v>51</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N118" s="14">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="O118" s="14"/>
       <c r="P118" s="2"/>
@@ -7476,14 +7486,14 @@
     </row>
     <row r="119" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="17" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="15" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="F119" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G119" s="16">
         <v>1009</v>
@@ -7499,10 +7509,10 @@
         <v>51</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N119" s="14">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="O119" s="14"/>
       <c r="P119" s="2"/>
@@ -7518,16 +7528,20 @@
     </row>
     <row r="120" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F120" s="15"/>
-      <c r="G120" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="F120" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G120" s="16">
+        <v>1009</v>
+      </c>
       <c r="H120" s="18" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>134</v>
@@ -7537,17 +7551,15 @@
         <v>51</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N120" s="14">
-        <v>-131</v>
+        <v>-129</v>
       </c>
       <c r="O120" s="14"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
-      <c r="R120" s="26" t="s">
-        <v>237</v>
-      </c>
+      <c r="R120" s="15"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
       <c r="U120" s="14"/>
@@ -7558,16 +7570,16 @@
     </row>
     <row r="121" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="17" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="15" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="16"/>
       <c r="H121" s="18" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>134</v>
@@ -7577,16 +7589,16 @@
         <v>51</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N121" s="14">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="O121" s="14"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -7598,16 +7610,16 @@
     </row>
     <row r="122" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="17" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="15" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="16"/>
       <c r="H122" s="18" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>134</v>
@@ -7617,7 +7629,7 @@
         <v>51</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N122" s="14">
         <v>180</v>
@@ -7626,7 +7638,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -7638,16 +7650,16 @@
     </row>
     <row r="123" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="17" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="16"/>
       <c r="H123" s="18" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>134</v>
@@ -7657,7 +7669,7 @@
         <v>51</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N123" s="14">
         <v>180</v>
@@ -7666,7 +7678,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -7678,16 +7690,16 @@
     </row>
     <row r="124" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="17" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="15" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="16"/>
       <c r="H124" s="18" t="s">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>134</v>
@@ -7697,7 +7709,7 @@
         <v>51</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="N124" s="14">
         <v>180</v>
@@ -7706,7 +7718,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -7718,11 +7730,11 @@
     </row>
     <row r="125" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="16"/>
@@ -7737,7 +7749,7 @@
         <v>51</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N125" s="14">
         <v>180</v>
@@ -7746,7 +7758,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
@@ -7758,11 +7770,11 @@
     </row>
     <row r="126" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="15" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="16"/>
@@ -7777,16 +7789,16 @@
         <v>51</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="N126" s="14">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="O126" s="14"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
@@ -7798,18 +7810,14 @@
     </row>
     <row r="127" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="17" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F127" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G127" s="16">
-        <v>1009</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F127" s="15"/>
+      <c r="G127" s="16"/>
       <c r="H127" s="18" t="s">
         <v>134</v>
       </c>
@@ -7821,15 +7829,17 @@
         <v>51</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N127" s="14">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="O127" s="14"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
-      <c r="R127" s="15"/>
+      <c r="R127" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
       <c r="U127" s="14"/>
@@ -7840,14 +7850,14 @@
     </row>
     <row r="128" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="17" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="15" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="F128" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G128" s="16">
         <v>1009</v>
@@ -7863,10 +7873,10 @@
         <v>51</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="N128" s="14">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="O128" s="14"/>
       <c r="P128" s="2"/>
@@ -7882,16 +7892,20 @@
     </row>
     <row r="129" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="17" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F129" s="15"/>
-      <c r="G129" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="F129" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G129" s="16">
+        <v>1009</v>
+      </c>
       <c r="H129" s="18" t="s">
-        <v>558</v>
+        <v>134</v>
       </c>
       <c r="I129" s="18" t="s">
         <v>134</v>
@@ -7901,17 +7915,15 @@
         <v>51</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N129" s="14">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O129" s="14"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
-      <c r="R129" s="26" t="s">
-        <v>237</v>
-      </c>
+      <c r="R129" s="15"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
       <c r="U129" s="14"/>
@@ -7922,16 +7934,16 @@
     </row>
     <row r="130" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="17" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="15" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="16"/>
       <c r="H130" s="18" t="s">
-        <v>332</v>
+        <v>554</v>
       </c>
       <c r="I130" s="18" t="s">
         <v>134</v>
@@ -7941,16 +7953,16 @@
         <v>51</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="N130" s="14">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O130" s="14"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
@@ -7962,16 +7974,16 @@
     </row>
     <row r="131" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="17" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="15" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="16"/>
       <c r="H131" s="18" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I131" s="18" t="s">
         <v>134</v>
@@ -7981,16 +7993,16 @@
         <v>51</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="N131" s="14">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="O131" s="14"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
@@ -8002,16 +8014,16 @@
     </row>
     <row r="132" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="15" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="16"/>
       <c r="H132" s="18" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="I132" s="18" t="s">
         <v>134</v>
@@ -8021,16 +8033,16 @@
         <v>51</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N132" s="14">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="O132" s="14"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -8042,11 +8054,11 @@
     </row>
     <row r="133" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="17" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="15" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="16"/>
@@ -8061,16 +8073,16 @@
         <v>51</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="N133" s="14">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="O133" s="14"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
@@ -8082,11 +8094,11 @@
     </row>
     <row r="134" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="16"/>
@@ -8101,7 +8113,7 @@
         <v>51</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N134" s="14">
         <v>180</v>
@@ -8110,7 +8122,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
@@ -8122,16 +8134,16 @@
     </row>
     <row r="135" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="15" t="s">
-        <v>343</v>
+        <v>234</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="16"/>
       <c r="H135" s="18" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="I135" s="18" t="s">
         <v>134</v>
@@ -8141,16 +8153,16 @@
         <v>51</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="N135" s="14">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="O135" s="14"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -8162,16 +8174,16 @@
     </row>
     <row r="136" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="17" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="15" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="16"/>
       <c r="H136" s="18" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I136" s="18" t="s">
         <v>134</v>
@@ -8181,16 +8193,16 @@
         <v>51</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N136" s="14">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="O136" s="14"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
@@ -8202,20 +8214,16 @@
     </row>
     <row r="137" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="17" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F137" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G137" s="16">
-        <v>1009</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="F137" s="15"/>
+      <c r="G137" s="16"/>
       <c r="H137" s="18" t="s">
-        <v>134</v>
+        <v>344</v>
       </c>
       <c r="I137" s="18" t="s">
         <v>134</v>
@@ -8225,15 +8233,17 @@
         <v>51</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N137" s="14">
-        <v>35</v>
+        <v>-180</v>
       </c>
       <c r="O137" s="14"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
-      <c r="R137" s="15"/>
+      <c r="R137" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
       <c r="U137" s="14"/>
@@ -8244,14 +8254,14 @@
     </row>
     <row r="138" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="15" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="F138" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G138" s="16">
         <v>1009</v>
@@ -8267,10 +8277,10 @@
         <v>51</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="N138" s="14">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="O138" s="14"/>
       <c r="P138" s="2"/>
@@ -8286,16 +8296,20 @@
     </row>
     <row r="139" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="F139" s="15"/>
-      <c r="G139" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="F139" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G139" s="16">
+        <v>1009</v>
+      </c>
       <c r="H139" s="18" t="s">
-        <v>356</v>
+        <v>134</v>
       </c>
       <c r="I139" s="18" t="s">
         <v>134</v>
@@ -8305,17 +8319,15 @@
         <v>51</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="N139" s="14">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="O139" s="14"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
-      <c r="R139" s="26" t="s">
-        <v>237</v>
-      </c>
+      <c r="R139" s="15"/>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
       <c r="U139" s="14"/>
@@ -8326,16 +8338,16 @@
     </row>
     <row r="140" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="17" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="15" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="16"/>
       <c r="H140" s="18" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I140" s="18" t="s">
         <v>134</v>
@@ -8345,16 +8357,16 @@
         <v>51</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N140" s="14">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="O140" s="14"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
@@ -8366,16 +8378,16 @@
     </row>
     <row r="141" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="17" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="15" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="16"/>
       <c r="H141" s="18" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I141" s="18" t="s">
         <v>134</v>
@@ -8385,16 +8397,16 @@
         <v>51</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="N141" s="14">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="O141" s="14"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
@@ -8406,16 +8418,16 @@
     </row>
     <row r="142" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="17" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="15" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="16"/>
       <c r="H142" s="18" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="I142" s="18" t="s">
         <v>134</v>
@@ -8425,16 +8437,16 @@
         <v>51</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>255</v>
+        <v>361</v>
       </c>
       <c r="N142" s="14">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="O142" s="14"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
@@ -8446,11 +8458,11 @@
     </row>
     <row r="143" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="16"/>
@@ -8465,7 +8477,7 @@
         <v>51</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N143" s="14">
         <v>180</v>
@@ -8474,7 +8486,7 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
@@ -8486,16 +8498,16 @@
     </row>
     <row r="144" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="17" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="15" t="s">
-        <v>369</v>
+        <v>234</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="16"/>
       <c r="H144" s="18" t="s">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="I144" s="18" t="s">
         <v>134</v>
@@ -8505,16 +8517,16 @@
         <v>51</v>
       </c>
       <c r="M144" s="14" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="N144" s="14">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="O144" s="14"/>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
@@ -8526,16 +8538,16 @@
     </row>
     <row r="145" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="17" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="15" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="16"/>
       <c r="H145" s="18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I145" s="18" t="s">
         <v>134</v>
@@ -8545,16 +8557,16 @@
         <v>51</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="N145" s="14">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="O145" s="14"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
@@ -8566,20 +8578,16 @@
     </row>
     <row r="146" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="17" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F146" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G146" s="16">
-        <v>1009</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="16"/>
       <c r="H146" s="18" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="I146" s="18" t="s">
         <v>134</v>
@@ -8589,15 +8597,17 @@
         <v>51</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N146" s="14">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="O146" s="14"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
-      <c r="R146" s="15"/>
+      <c r="R146" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="14"/>
@@ -8608,14 +8618,14 @@
     </row>
     <row r="147" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="17" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="15" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="F147" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G147" s="16">
         <v>1009</v>
@@ -8631,10 +8641,10 @@
         <v>51</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N147" s="14">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="O147" s="14"/>
       <c r="P147" s="2"/>
@@ -8650,16 +8660,20 @@
     </row>
     <row r="148" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="F148" s="15"/>
-      <c r="G148" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="F148" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G148" s="16">
+        <v>1009</v>
+      </c>
       <c r="H148" s="18" t="s">
-        <v>381</v>
+        <v>134</v>
       </c>
       <c r="I148" s="18" t="s">
         <v>134</v>
@@ -8669,17 +8683,15 @@
         <v>51</v>
       </c>
       <c r="M148" s="14" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N148" s="14">
-        <v>180</v>
+        <v>-44</v>
       </c>
       <c r="O148" s="14"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
-      <c r="R148" s="26" t="s">
-        <v>237</v>
-      </c>
+      <c r="R148" s="15"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="14"/>
@@ -8690,16 +8702,16 @@
     </row>
     <row r="149" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="17" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="15" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="16"/>
       <c r="H149" s="18" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="I149" s="18" t="s">
         <v>134</v>
@@ -8709,16 +8721,16 @@
         <v>51</v>
       </c>
       <c r="M149" s="14" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="N149" s="14">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="O149" s="14"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
@@ -8730,16 +8742,16 @@
     </row>
     <row r="150" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="17" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="15" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="16"/>
       <c r="H150" s="18" t="s">
-        <v>134</v>
+        <v>381</v>
       </c>
       <c r="I150" s="18" t="s">
         <v>134</v>
@@ -8749,16 +8761,16 @@
         <v>51</v>
       </c>
       <c r="M150" s="14" t="s">
-        <v>255</v>
+        <v>382</v>
       </c>
       <c r="N150" s="14">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="O150" s="14"/>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
@@ -8770,16 +8782,16 @@
     </row>
     <row r="151" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="17" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="15" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="16"/>
       <c r="H151" s="18" t="s">
-        <v>391</v>
+        <v>134</v>
       </c>
       <c r="I151" s="18" t="s">
         <v>134</v>
@@ -8789,16 +8801,16 @@
         <v>51</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="N151" s="14">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="O151" s="14"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
@@ -8810,16 +8822,16 @@
     </row>
     <row r="152" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="17" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="15" t="s">
-        <v>238</v>
+        <v>386</v>
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="16"/>
       <c r="H152" s="18" t="s">
-        <v>134</v>
+        <v>387</v>
       </c>
       <c r="I152" s="18" t="s">
         <v>134</v>
@@ -8829,16 +8841,16 @@
         <v>51</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="N152" s="14">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="O152" s="14"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
@@ -8850,11 +8862,11 @@
     </row>
     <row r="153" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="17" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="16"/>
@@ -8869,7 +8881,7 @@
         <v>51</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N153" s="14">
         <v>180</v>
@@ -8878,7 +8890,7 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
@@ -8889,12 +8901,12 @@
       <c r="Y153" s="14"/>
     </row>
     <row r="154" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="15">
-        <v>20099001</v>
+      <c r="C154" s="17" t="s">
+        <v>390</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="15" t="s">
-        <v>395</v>
+        <v>234</v>
       </c>
       <c r="F154" s="15"/>
       <c r="G154" s="16"/>
@@ -8909,7 +8921,7 @@
         <v>51</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N154" s="14">
         <v>180</v>
@@ -8918,7 +8930,7 @@
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="26" t="s">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
@@ -8930,11 +8942,11 @@
     </row>
     <row r="155" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="15" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="16"/>
@@ -8949,7 +8961,7 @@
         <v>51</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N155" s="14">
         <v>180</v>
@@ -8958,7 +8970,7 @@
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="26" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
@@ -8970,11 +8982,11 @@
     </row>
     <row r="156" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="15" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="16"/>
@@ -8989,7 +9001,7 @@
         <v>51</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N156" s="14">
         <v>180</v>
@@ -8998,7 +9010,7 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="26" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
@@ -9010,11 +9022,11 @@
     </row>
     <row r="157" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="16"/>
@@ -9029,7 +9041,7 @@
         <v>51</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N157" s="14">
         <v>180</v>
@@ -9038,7 +9050,7 @@
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="26" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
@@ -9050,11 +9062,11 @@
     </row>
     <row r="158" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="15" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F158" s="15"/>
       <c r="G158" s="16"/>
@@ -9069,7 +9081,7 @@
         <v>51</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N158" s="14">
         <v>180</v>
@@ -9078,7 +9090,7 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="26" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
@@ -9090,11 +9102,11 @@
     </row>
     <row r="159" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="D159" s="14"/>
       <c r="E159" s="15" t="s">
-        <v>238</v>
+        <v>399</v>
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="16"/>
@@ -9109,7 +9121,7 @@
         <v>51</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N159" s="14">
         <v>180</v>
@@ -9118,7 +9130,7 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="26" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
@@ -9130,24 +9142,26 @@
     </row>
     <row r="160" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="15">
-        <v>20099007</v>
+        <v>20099006</v>
       </c>
       <c r="D160" s="14"/>
-      <c r="E160" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F160" s="27"/>
-      <c r="G160" s="16">
-        <v>1057</v>
-      </c>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
+      <c r="E160" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F160" s="15"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I160" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="J160" s="18"/>
       <c r="L160" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M160" s="32" t="s">
-        <v>407</v>
+      <c r="M160" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="N160" s="14">
         <v>180</v>
@@ -9155,7 +9169,9 @@
       <c r="O160" s="14"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
-      <c r="R160" s="28"/>
+      <c r="R160" s="26" t="s">
+        <v>401</v>
+      </c>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
       <c r="U160" s="14"/>
@@ -9166,14 +9182,16 @@
     </row>
     <row r="161" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="15">
-        <v>20099008</v>
+        <v>20099007</v>
       </c>
       <c r="D161" s="14"/>
       <c r="E161" s="27" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F161" s="27"/>
-      <c r="G161" s="16"/>
+      <c r="G161" s="16">
+        <v>1057</v>
+      </c>
       <c r="H161" s="18"/>
       <c r="I161" s="18"/>
       <c r="J161" s="18"/>
@@ -9181,17 +9199,15 @@
         <v>51</v>
       </c>
       <c r="M161" s="32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N161" s="14">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O161" s="14"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
-      <c r="R161" s="28" t="s">
-        <v>410</v>
-      </c>
+      <c r="R161" s="28"/>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
       <c r="U161" s="14"/>
@@ -9202,11 +9218,11 @@
     </row>
     <row r="162" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="15">
-        <v>20099009</v>
+        <v>20099008</v>
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="27" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="16"/>
@@ -9217,7 +9233,7 @@
         <v>51</v>
       </c>
       <c r="M162" s="32" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="N162" s="14">
         <v>0</v>
@@ -9226,7 +9242,7 @@
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="28" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
@@ -9238,11 +9254,11 @@
     </row>
     <row r="163" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="15">
-        <v>20099010</v>
+        <v>20099009</v>
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="27" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="16"/>
@@ -9253,7 +9269,7 @@
         <v>51</v>
       </c>
       <c r="M163" s="32" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="N163" s="14">
         <v>0</v>
@@ -9262,7 +9278,7 @@
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="28" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
@@ -9274,36 +9290,32 @@
     </row>
     <row r="164" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="15">
-        <v>20099011</v>
+        <v>20099010</v>
       </c>
       <c r="D164" s="14"/>
       <c r="E164" s="27" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="16"/>
       <c r="H164" s="18"/>
       <c r="I164" s="18"/>
-      <c r="J164" s="18" t="s">
-        <v>418</v>
-      </c>
+      <c r="J164" s="18"/>
       <c r="L164" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M164" s="32" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N164" s="14">
         <v>0</v>
       </c>
-      <c r="O164" s="14">
-        <v>13</v>
-      </c>
-      <c r="P164" s="36" t="s">
-        <v>419</v>
-      </c>
+      <c r="O164" s="14"/>
+      <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
-      <c r="R164" s="28"/>
+      <c r="R164" s="28" t="s">
+        <v>412</v>
+      </c>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
       <c r="U164" s="14"/>
@@ -9314,24 +9326,24 @@
     </row>
     <row r="165" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="15">
-        <v>20099012</v>
+        <v>20099011</v>
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="27" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="16"/>
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
       <c r="J165" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L165" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M165" s="32" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="N165" s="14">
         <v>0</v>
@@ -9340,7 +9352,7 @@
         <v>13</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" s="28"/>
@@ -9354,24 +9366,24 @@
     </row>
     <row r="166" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="15">
-        <v>20099013</v>
+        <v>20099012</v>
       </c>
       <c r="D166" s="14"/>
       <c r="E166" s="27" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="16"/>
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
       <c r="J166" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L166" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M166" s="32" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N166" s="14">
         <v>0</v>
@@ -9380,7 +9392,7 @@
         <v>13</v>
       </c>
       <c r="P166" s="36" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" s="28"/>
@@ -9392,44 +9404,40 @@
       <c r="X166" s="14"/>
       <c r="Y166" s="14"/>
     </row>
-    <row r="167" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B167" s="1"/>
-      <c r="C167" s="17" t="s">
-        <v>425</v>
+    <row r="167" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="15">
+        <v>20099013</v>
       </c>
       <c r="D167" s="14"/>
-      <c r="E167" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="F167" s="14">
-        <v>300001</v>
-      </c>
-      <c r="G167" s="16">
-        <v>1034</v>
-      </c>
-      <c r="H167" s="16">
-        <v>0</v>
-      </c>
-      <c r="I167" s="16">
-        <v>0</v>
-      </c>
-      <c r="J167" s="16"/>
-      <c r="K167" s="1"/>
+      <c r="E167" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="F167" s="27"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="18" t="s">
+        <v>414</v>
+      </c>
       <c r="L167" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M167" s="34" t="s">
-        <v>427</v>
+      <c r="M167" s="32" t="s">
+        <v>419</v>
       </c>
       <c r="N167" s="14">
         <v>0</v>
       </c>
-      <c r="O167" s="14"/>
-      <c r="P167" s="23"/>
-      <c r="R167" s="25"/>
+      <c r="O167" s="14">
+        <v>13</v>
+      </c>
+      <c r="P167" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="28"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
       <c r="U167" s="14"/>
       <c r="V167" s="14"/>
       <c r="W167" s="14"/>
@@ -9437,18 +9445,22 @@
       <c r="Y167" s="14"/>
     </row>
     <row r="168" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="B168" s="1"/>
       <c r="C168" s="17" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="F168" s="14"/>
+        <v>422</v>
+      </c>
+      <c r="F168" s="14">
+        <v>300001</v>
+      </c>
       <c r="G168" s="16">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H168" s="16">
         <v>0</v>
@@ -9462,10 +9474,10 @@
         <v>51</v>
       </c>
       <c r="M168" s="34" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="N168" s="14">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O168" s="14"/>
       <c r="P168" s="23"/>
@@ -9480,15 +9492,15 @@
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="17" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D169" s="14"/>
       <c r="E169" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="16">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="H169" s="16">
         <v>0</v>
@@ -9502,12 +9514,13 @@
         <v>51</v>
       </c>
       <c r="M169" s="34" t="s">
-        <v>209</v>
+        <v>426</v>
       </c>
       <c r="N169" s="14">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="O169" s="14"/>
+      <c r="P169" s="23"/>
       <c r="R169" s="25"/>
       <c r="U169" s="14"/>
       <c r="V169" s="14"/>
@@ -9519,15 +9532,15 @@
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="29" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="16">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="H170" s="16">
         <v>0</v>
@@ -9541,10 +9554,10 @@
         <v>51</v>
       </c>
       <c r="M170" s="34" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="N170" s="14">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="O170" s="14"/>
       <c r="R170" s="25"/>
@@ -9554,17 +9567,19 @@
       <c r="X170" s="14"/>
       <c r="Y170" s="14"/>
     </row>
-    <row r="171" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
       <c r="C171" s="17" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D171" s="14"/>
       <c r="E171" s="29" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="16">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="H171" s="16">
         <v>0</v>
@@ -9573,21 +9588,18 @@
         <v>0</v>
       </c>
       <c r="J171" s="16"/>
+      <c r="K171" s="1"/>
       <c r="L171" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M171" s="34" t="s">
-        <v>437</v>
+        <v>208</v>
       </c>
       <c r="N171" s="14">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O171" s="14"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
+      <c r="R171" s="25"/>
       <c r="U171" s="14"/>
       <c r="V171" s="14"/>
       <c r="W171" s="14"/>
@@ -9596,15 +9608,15 @@
     </row>
     <row r="172" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="29" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="16">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="H172" s="16">
         <v>0</v>
@@ -9617,10 +9629,10 @@
         <v>51</v>
       </c>
       <c r="M172" s="34" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N172" s="14">
-        <v>123</v>
+        <v>-100</v>
       </c>
       <c r="O172" s="14"/>
       <c r="P172" s="2"/>
@@ -9636,15 +9648,15 @@
     </row>
     <row r="173" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="17" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="29" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="16">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="H173" s="16">
         <v>0</v>
@@ -9657,10 +9669,10 @@
         <v>51</v>
       </c>
       <c r="M173" s="34" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N173" s="14">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="O173" s="14"/>
       <c r="P173" s="2"/>
@@ -9676,11 +9688,11 @@
     </row>
     <row r="174" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="17" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D174" s="14"/>
       <c r="E174" s="29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="16">
@@ -9697,10 +9709,10 @@
         <v>51</v>
       </c>
       <c r="M174" s="34" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="N174" s="14">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="O174" s="14"/>
       <c r="P174" s="2"/>
@@ -9716,15 +9728,15 @@
     </row>
     <row r="175" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D175" s="14"/>
       <c r="E175" s="29" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="16">
-        <v>1037</v>
+        <v>0</v>
       </c>
       <c r="H175" s="16">
         <v>0</v>
@@ -9737,10 +9749,10 @@
         <v>51</v>
       </c>
       <c r="M175" s="34" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="N175" s="14">
-        <v>-90</v>
+        <v>270</v>
       </c>
       <c r="O175" s="14"/>
       <c r="P175" s="2"/>
@@ -9756,15 +9768,15 @@
     </row>
     <row r="176" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="17" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="29" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="16">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H176" s="16">
         <v>0</v>
@@ -9777,10 +9789,10 @@
         <v>51</v>
       </c>
       <c r="M176" s="34" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N176" s="14">
-        <v>-150</v>
+        <v>-90</v>
       </c>
       <c r="O176" s="14"/>
       <c r="P176" s="2"/>
@@ -9796,15 +9808,15 @@
     </row>
     <row r="177" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="17" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D177" s="14"/>
       <c r="E177" s="29" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="16">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="H177" s="16">
         <v>0</v>
@@ -9817,12 +9829,12 @@
         <v>51</v>
       </c>
       <c r="M177" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="N177" s="16">
-        <v>90</v>
-      </c>
-      <c r="O177" s="16"/>
+        <v>447</v>
+      </c>
+      <c r="N177" s="14">
+        <v>-150</v>
+      </c>
+      <c r="O177" s="14"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
@@ -9834,21 +9846,17 @@
       <c r="X177" s="14"/>
       <c r="Y177" s="14"/>
     </row>
-    <row r="178" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+    <row r="178" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="17" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D178" s="14"/>
       <c r="E178" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="F178" s="14">
-        <v>400001</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="F178" s="14"/>
       <c r="G178" s="16">
-        <v>1034</v>
+        <v>1047</v>
       </c>
       <c r="H178" s="16">
         <v>0</v>
@@ -9857,34 +9865,42 @@
         <v>0</v>
       </c>
       <c r="J178" s="16"/>
-      <c r="K178" s="1"/>
       <c r="L178" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M178" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="N178" s="14">
-        <v>110</v>
-      </c>
-      <c r="O178" s="14"/>
+        <v>450</v>
+      </c>
+      <c r="N178" s="16">
+        <v>90</v>
+      </c>
+      <c r="O178" s="16"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
       <c r="U178" s="14"/>
       <c r="V178" s="14"/>
       <c r="W178" s="14"/>
       <c r="X178" s="14"/>
       <c r="Y178" s="14"/>
     </row>
-    <row r="179" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
       <c r="C179" s="17" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D179" s="14"/>
       <c r="E179" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="F179" s="14"/>
+        <v>452</v>
+      </c>
+      <c r="F179" s="14">
+        <v>400001</v>
+      </c>
       <c r="G179" s="16">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="H179" s="16">
         <v>0</v>
@@ -9893,21 +9909,17 @@
         <v>0</v>
       </c>
       <c r="J179" s="16"/>
+      <c r="K179" s="1"/>
       <c r="L179" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M179" s="34" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N179" s="14">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="O179" s="14"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
       <c r="U179" s="14"/>
       <c r="V179" s="14"/>
       <c r="W179" s="14"/>
@@ -9916,15 +9928,15 @@
     </row>
     <row r="180" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="17" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="29" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="16">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H180" s="16">
         <v>0</v>
@@ -9937,10 +9949,10 @@
         <v>51</v>
       </c>
       <c r="M180" s="34" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N180" s="14">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="O180" s="14"/>
       <c r="P180" s="2"/>
@@ -9956,15 +9968,15 @@
     </row>
     <row r="181" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D181" s="14"/>
       <c r="E181" s="29" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="16">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H181" s="16">
         <v>0</v>
@@ -9977,10 +9989,10 @@
         <v>51</v>
       </c>
       <c r="M181" s="34" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N181" s="14">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="O181" s="14"/>
       <c r="P181" s="2"/>
@@ -9996,15 +10008,15 @@
     </row>
     <row r="182" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="17" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="29" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F182" s="14"/>
       <c r="G182" s="16">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H182" s="16">
         <v>0</v>
@@ -10017,7 +10029,7 @@
         <v>51</v>
       </c>
       <c r="M182" s="34" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="N182" s="14">
         <v>175</v>
@@ -10036,11 +10048,11 @@
     </row>
     <row r="183" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="17" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D183" s="14"/>
       <c r="E183" s="29" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="16">
@@ -10057,7 +10069,7 @@
         <v>51</v>
       </c>
       <c r="M183" s="34" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="N183" s="14">
         <v>175</v>
@@ -10076,15 +10088,15 @@
     </row>
     <row r="184" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="17" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D184" s="14"/>
       <c r="E184" s="29" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="16">
-        <v>10</v>
+        <v>1054</v>
       </c>
       <c r="H184" s="16">
         <v>0</v>
@@ -10097,7 +10109,7 @@
         <v>51</v>
       </c>
       <c r="M184" s="34" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="N184" s="14">
         <v>175</v>
@@ -10114,7 +10126,46 @@
       <c r="X184" s="14"/>
       <c r="Y184" s="14"/>
     </row>
-    <row r="185" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D185" s="14"/>
+      <c r="E185" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="F185" s="14"/>
+      <c r="G185" s="16">
+        <v>10</v>
+      </c>
+      <c r="H185" s="16">
+        <v>0</v>
+      </c>
+      <c r="I185" s="16">
+        <v>0</v>
+      </c>
+      <c r="J185" s="16"/>
+      <c r="L185" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M185" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="N185" s="14">
+        <v>175</v>
+      </c>
+      <c r="O185" s="14"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="14"/>
+      <c r="V185" s="14"/>
+      <c r="W185" s="14"/>
+      <c r="X185" s="14"/>
+      <c r="Y185" s="14"/>
+    </row>
     <row r="186" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="187" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="188" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10128,6 +10179,7 @@
     <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C688097E-BD9E-4521-8740-2FEA8BDEF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFD99B7-CCA3-41F5-86B5-F584FE5587B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,10 +2416,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>-3145,-135,-243</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>-1801,135,-253</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2428,6 +2424,10 @@
   </si>
   <si>
     <t>10006</t>
+  </si>
+  <si>
+    <t>-3145,135,-243</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3082,7 +3082,7 @@
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3833,10 +3833,10 @@
       <c r="J18" s="40"/>
       <c r="K18" s="41"/>
       <c r="L18" s="37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="N18" s="38">
         <v>45</v>
@@ -3872,10 +3872,10 @@
       <c r="J19" s="40"/>
       <c r="K19" s="41"/>
       <c r="L19" s="37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N19" s="38">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFD99B7-CCA3-41F5-86B5-F584FE5587B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CCA3B6-923E-4958-81A3-88B6EC40DB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="588">
   <si>
     <t>#</t>
   </si>
@@ -2427,6 +2427,10 @@
   </si>
   <si>
     <t>-3145,135,-243</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵禁秘塔</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3082,7 +3086,7 @@
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3784,7 +3788,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39" t="s">
-        <v>200</v>
+        <v>587</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="39">

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CCA3B6-923E-4958-81A3-88B6EC40DB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FDB8C2-27DB-42B1-9669-205A1F8614E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,9 +1049,6 @@
     <t>像试试自己差距嘛,那就来我这里吧。</t>
   </si>
   <si>
-    <t>试炼之地</t>
-  </si>
-  <si>
     <t>20000031</t>
   </si>
   <si>
@@ -2431,6 +2428,10 @@
   </si>
   <si>
     <t>灵禁秘塔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>巅峰试炼</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3086,7 +3087,7 @@
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3353,10 +3354,10 @@
       <c r="J6" s="40"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N6" s="39">
         <v>90</v>
@@ -3398,10 +3399,10 @@
       <c r="J7" s="40"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="M7" s="43" t="s">
         <v>483</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>484</v>
       </c>
       <c r="N7" s="39">
         <v>186</v>
@@ -3439,10 +3440,10 @@
       <c r="J8" s="40"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N8" s="39">
         <v>-60</v>
@@ -3480,10 +3481,10 @@
       <c r="J9" s="40"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N9" s="39">
         <v>180</v>
@@ -3523,10 +3524,10 @@
       <c r="J10" s="40"/>
       <c r="K10" s="39"/>
       <c r="L10" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="M10" s="43" t="s">
         <v>479</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>480</v>
       </c>
       <c r="N10" s="39">
         <v>-60</v>
@@ -3564,10 +3565,10 @@
       <c r="J11" s="40"/>
       <c r="K11" s="39"/>
       <c r="L11" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="M11" s="43" t="s">
         <v>481</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>482</v>
       </c>
       <c r="N11" s="39">
         <v>90</v>
@@ -3599,16 +3600,16 @@
         <v>1024</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="1"/>
       <c r="L12" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N12" s="39">
         <v>71</v>
@@ -3631,7 +3632,7 @@
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="39">
@@ -3646,10 +3647,10 @@
       <c r="J13" s="40"/>
       <c r="K13" s="39"/>
       <c r="L13" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N13" s="39">
         <v>0</v>
@@ -3689,10 +3690,10 @@
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="M14" s="43" t="s">
         <v>490</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>491</v>
       </c>
       <c r="N14" s="39">
         <v>90</v>
@@ -3717,7 +3718,7 @@
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="39">
@@ -3732,10 +3733,10 @@
       <c r="J15" s="40"/>
       <c r="K15" s="39"/>
       <c r="L15" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="M15" s="43" t="s">
         <v>485</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>486</v>
       </c>
       <c r="N15" s="39">
         <v>165</v>
@@ -3757,29 +3758,29 @@
         <v>1011</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F16" s="13"/>
       <c r="H16" s="48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>493</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>494</v>
       </c>
       <c r="N16" s="5">
         <v>178</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="3:25" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3788,7 +3789,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="39">
@@ -3798,10 +3799,10 @@
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="L17" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="M17" s="49" t="s">
         <v>581</v>
-      </c>
-      <c r="M17" s="49" t="s">
-        <v>582</v>
       </c>
       <c r="N17" s="38">
         <v>145</v>
@@ -3810,7 +3811,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -3837,10 +3838,10 @@
       <c r="J18" s="40"/>
       <c r="K18" s="41"/>
       <c r="L18" s="37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N18" s="38">
         <v>45</v>
@@ -3865,7 +3866,7 @@
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39" t="s">
-        <v>161</v>
+        <v>587</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="39">
@@ -3876,10 +3877,10 @@
       <c r="J19" s="40"/>
       <c r="K19" s="41"/>
       <c r="L19" s="37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N19" s="38">
         <v>0</v>
@@ -4004,7 +4005,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="H24" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -4025,18 +4026,18 @@
         <v>1000201</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F25" s="13"/>
       <c r="H25" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I25" s="4"/>
       <c r="L25" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N25" s="5">
         <v>180</v>
@@ -4049,18 +4050,18 @@
         <v>1000301</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F26" s="13"/>
       <c r="H26" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I26" s="4"/>
       <c r="L26" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N26" s="5">
         <v>-306</v>
@@ -4073,18 +4074,18 @@
         <v>1000401</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F27" s="13"/>
       <c r="H27" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I27" s="4"/>
       <c r="L27" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N27" s="5">
         <v>-183</v>
@@ -4097,18 +4098,18 @@
         <v>1000501</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F28" s="13"/>
       <c r="H28" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I28" s="4"/>
       <c r="L28" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N28" s="5">
         <v>-180</v>
@@ -4121,18 +4122,18 @@
         <v>2000101</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F29" s="13"/>
       <c r="H29" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I29" s="4"/>
       <c r="L29" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N29" s="5">
         <v>-155</v>
@@ -4145,18 +4146,18 @@
         <v>2000201</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F30" s="13"/>
       <c r="H30" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I30" s="4"/>
       <c r="L30" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N30" s="5">
         <v>-274</v>
@@ -4169,18 +4170,18 @@
         <v>2000301</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F31" s="13"/>
       <c r="H31" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I31" s="4"/>
       <c r="L31" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N31" s="5">
         <v>-223</v>
@@ -4193,18 +4194,18 @@
         <v>2000401</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F32" s="13"/>
       <c r="H32" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I32" s="4"/>
       <c r="L32" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N32" s="5">
         <v>-87</v>
@@ -4217,18 +4218,18 @@
         <v>2000501</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F33" s="13"/>
       <c r="H33" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I33" s="4"/>
       <c r="L33" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N33" s="5">
         <v>-45</v>
@@ -4241,18 +4242,18 @@
         <v>3000101</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F34" s="13"/>
       <c r="H34" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I34" s="4"/>
       <c r="L34" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N34" s="5">
         <v>-200</v>
@@ -4265,18 +4266,18 @@
         <v>3000201</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F35" s="13"/>
       <c r="H35" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I35" s="4"/>
       <c r="L35" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N35" s="5">
         <v>-144</v>
@@ -4289,18 +4290,18 @@
         <v>3000301</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F36" s="13"/>
       <c r="H36" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I36" s="4"/>
       <c r="L36" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N36" s="5">
         <v>-180</v>
@@ -4313,18 +4314,18 @@
         <v>3000401</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F37" s="13"/>
       <c r="H37" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I37" s="4"/>
       <c r="L37" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M37" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N37" s="5">
         <v>-211</v>
@@ -4337,18 +4338,18 @@
         <v>3000501</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I38" s="4"/>
       <c r="L38" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N38" s="5">
         <v>-215</v>
@@ -4361,18 +4362,18 @@
         <v>4000101</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F39" s="13"/>
       <c r="H39" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I39" s="4"/>
       <c r="L39" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N39" s="5">
         <v>-157</v>
@@ -4385,18 +4386,18 @@
         <v>4000102</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F40" s="13"/>
       <c r="H40" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I40" s="4"/>
       <c r="L40" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N40" s="5">
         <v>-60</v>
@@ -4409,18 +4410,18 @@
         <v>4000103</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F41" s="13"/>
       <c r="H41" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I41" s="4"/>
       <c r="L41" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N41" s="5">
         <v>-187</v>
@@ -4433,18 +4434,18 @@
         <v>4000104</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F42" s="13"/>
       <c r="H42" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I42" s="4"/>
       <c r="L42" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N42" s="5">
         <v>-90</v>
@@ -4457,18 +4458,18 @@
         <v>4000105</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F43" s="13"/>
       <c r="H43" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I43" s="4"/>
       <c r="L43" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N43" s="5">
         <v>-94</v>
@@ -4481,18 +4482,18 @@
         <v>5000101</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F44" s="13"/>
       <c r="H44" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I44" s="4"/>
       <c r="L44" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N44" s="5">
         <v>-85</v>
@@ -4505,18 +4506,18 @@
         <v>5000201</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F45" s="13"/>
       <c r="H45" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I45" s="4"/>
       <c r="L45" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N45" s="5">
         <v>-280</v>
@@ -4529,18 +4530,18 @@
         <v>5000301</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F46" s="13"/>
       <c r="H46" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I46" s="4"/>
       <c r="L46" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N46" s="5">
         <v>-180</v>
@@ -4553,18 +4554,18 @@
         <v>5000401</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F47" s="13"/>
       <c r="H47" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I47" s="4"/>
       <c r="L47" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M47" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N47" s="5">
         <v>-152</v>
@@ -4577,18 +4578,18 @@
         <v>5000501</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F48" s="13"/>
       <c r="H48" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I48" s="4"/>
       <c r="L48" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M48" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N48" s="5">
         <v>-156</v>
@@ -5740,7 +5741,7 @@
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="16">
@@ -5780,7 +5781,7 @@
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="16">
@@ -5816,11 +5817,11 @@
     </row>
     <row r="78" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="16">
@@ -5839,7 +5840,7 @@
         <v>51</v>
       </c>
       <c r="M78" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N78" s="14">
         <v>180</v>
@@ -5858,11 +5859,11 @@
     </row>
     <row r="79" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="16">
@@ -5879,7 +5880,7 @@
         <v>51</v>
       </c>
       <c r="M79" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N79" s="14">
         <v>0</v>
@@ -5898,11 +5899,11 @@
     </row>
     <row r="80" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="16">
@@ -5919,7 +5920,7 @@
         <v>51</v>
       </c>
       <c r="M80" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N80" s="14">
         <v>270</v>
@@ -5928,7 +5929,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -5940,11 +5941,11 @@
     </row>
     <row r="81" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="16">
@@ -5961,7 +5962,7 @@
         <v>51</v>
       </c>
       <c r="M81" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N81" s="14">
         <v>-146</v>
@@ -5970,7 +5971,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -5982,11 +5983,11 @@
     </row>
     <row r="82" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="16">
@@ -5999,13 +6000,13 @@
         <v>134</v>
       </c>
       <c r="J82" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M82" s="34" t="s">
         <v>178</v>
-      </c>
-      <c r="L82" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M82" s="34" t="s">
-        <v>179</v>
       </c>
       <c r="N82" s="14">
         <v>-146</v>
@@ -6014,7 +6015,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
@@ -6026,11 +6027,11 @@
     </row>
     <row r="83" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F83" s="15">
         <v>50000001</v>
@@ -6049,7 +6050,7 @@
         <v>51</v>
       </c>
       <c r="M83" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N83" s="14">
         <v>106</v>
@@ -6068,11 +6069,11 @@
     </row>
     <row r="84" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F84" s="15">
         <v>0</v>
@@ -6091,7 +6092,7 @@
         <v>51</v>
       </c>
       <c r="M84" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N84" s="14">
         <v>-90</v>
@@ -6100,7 +6101,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -6112,11 +6113,11 @@
     </row>
     <row r="85" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F85" s="15">
         <v>0</v>
@@ -6135,7 +6136,7 @@
         <v>51</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N85" s="14">
         <v>90</v>
@@ -6144,7 +6145,7 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -6156,11 +6157,11 @@
     </row>
     <row r="86" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F86" s="15">
         <v>60000001</v>
@@ -6179,7 +6180,7 @@
         <v>51</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N86" s="14">
         <v>180</v>
@@ -6198,11 +6199,11 @@
     </row>
     <row r="87" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F87" s="15">
         <v>0</v>
@@ -6221,7 +6222,7 @@
         <v>51</v>
       </c>
       <c r="M87" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N87" s="14">
         <v>-90</v>
@@ -6230,7 +6231,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -6242,11 +6243,11 @@
     </row>
     <row r="88" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="16">
@@ -6259,7 +6260,7 @@
         <v>51</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N88" s="14">
         <v>90</v>
@@ -6268,7 +6269,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -6282,11 +6283,11 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F89" s="15">
         <v>0</v>
@@ -6306,7 +6307,7 @@
         <v>51</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N89" s="14">
         <v>90</v>
@@ -6323,11 +6324,11 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F90" s="15">
         <v>0</v>
@@ -6347,14 +6348,14 @@
         <v>51</v>
       </c>
       <c r="M90" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N90" s="14">
         <v>-140</v>
       </c>
       <c r="O90" s="14"/>
       <c r="R90" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U90" s="14"/>
       <c r="V90" s="14"/>
@@ -6366,11 +6367,11 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F91" s="15">
         <v>0</v>
@@ -6390,7 +6391,7 @@
         <v>51</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N91" s="14">
         <v>90</v>
@@ -6407,11 +6408,11 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F92" s="15">
         <v>0</v>
@@ -6431,7 +6432,7 @@
         <v>51</v>
       </c>
       <c r="M92" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N92" s="14">
         <v>-180</v>
@@ -6448,11 +6449,11 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F93" s="15">
         <v>0</v>
@@ -6472,7 +6473,7 @@
         <v>51</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N93" s="14">
         <v>30</v>
@@ -6489,11 +6490,11 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F94" s="15">
         <v>0</v>
@@ -6513,7 +6514,7 @@
         <v>51</v>
       </c>
       <c r="M94" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N94" s="14">
         <v>130</v>
@@ -6528,11 +6529,11 @@
     </row>
     <row r="95" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F95" s="15">
         <v>10001101</v>
@@ -6551,7 +6552,7 @@
         <v>51</v>
       </c>
       <c r="M95" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N95" s="14">
         <v>60</v>
@@ -6574,7 +6575,7 @@
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F96" s="15">
         <v>10001201</v>
@@ -6593,7 +6594,7 @@
         <v>51</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N96" s="14">
         <v>-45</v>
@@ -6616,12 +6617,12 @@
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="16"/>
       <c r="H97" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>134</v>
@@ -6631,7 +6632,7 @@
         <v>51</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N97" s="14">
         <v>180</v>
@@ -6640,7 +6641,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -6656,7 +6657,7 @@
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="16"/>
@@ -6671,7 +6672,7 @@
         <v>51</v>
       </c>
       <c r="M98" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N98" s="14">
         <v>90</v>
@@ -6680,7 +6681,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="16"/>
@@ -6711,7 +6712,7 @@
         <v>51</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N99" s="14">
         <v>-45</v>
@@ -6720,7 +6721,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -6736,7 +6737,7 @@
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
@@ -6751,7 +6752,7 @@
         <v>51</v>
       </c>
       <c r="M100" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N100" s="14">
         <v>45</v>
@@ -6760,7 +6761,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -6776,12 +6777,12 @@
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="16"/>
       <c r="H101" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I101" s="18" t="s">
         <v>134</v>
@@ -6791,7 +6792,7 @@
         <v>51</v>
       </c>
       <c r="M101" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N101" s="14">
         <v>150</v>
@@ -6800,7 +6801,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="16"/>
@@ -6831,7 +6832,7 @@
         <v>51</v>
       </c>
       <c r="M102" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N102" s="14">
         <v>-155</v>
@@ -6840,7 +6841,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -6856,12 +6857,12 @@
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
       <c r="H103" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>134</v>
@@ -6871,7 +6872,7 @@
         <v>51</v>
       </c>
       <c r="M103" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N103" s="14">
         <v>35</v>
@@ -6880,7 +6881,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -6896,7 +6897,7 @@
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="16"/>
@@ -6911,7 +6912,7 @@
         <v>51</v>
       </c>
       <c r="M104" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N104" s="14">
         <v>180</v>
@@ -6920,7 +6921,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -6936,12 +6937,12 @@
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="16"/>
       <c r="H105" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>134</v>
@@ -6951,7 +6952,7 @@
         <v>51</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N105" s="14">
         <v>-180</v>
@@ -6960,7 +6961,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -6976,12 +6977,12 @@
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
       <c r="H106" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>134</v>
@@ -6991,7 +6992,7 @@
         <v>51</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N106" s="14">
         <v>80</v>
@@ -7000,7 +7001,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -7016,12 +7017,12 @@
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>134</v>
@@ -7031,7 +7032,7 @@
         <v>51</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N107" s="14">
         <v>180</v>
@@ -7040,7 +7041,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -7056,12 +7057,12 @@
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="16"/>
       <c r="H108" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>134</v>
@@ -7071,7 +7072,7 @@
         <v>51</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N108" s="14">
         <v>180</v>
@@ -7080,7 +7081,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -7096,12 +7097,12 @@
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
       <c r="H109" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>134</v>
@@ -7111,7 +7112,7 @@
         <v>51</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N109" s="14">
         <v>128</v>
@@ -7120,7 +7121,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
@@ -7136,7 +7137,7 @@
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
@@ -7151,7 +7152,7 @@
         <v>51</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N110" s="14">
         <v>180</v>
@@ -7160,7 +7161,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
@@ -7176,12 +7177,12 @@
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
       <c r="H111" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>134</v>
@@ -7191,7 +7192,7 @@
         <v>51</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N111" s="14">
         <v>120</v>
@@ -7200,7 +7201,7 @@
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -7216,7 +7217,7 @@
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
@@ -7231,7 +7232,7 @@
         <v>51</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N112" s="14">
         <v>180</v>
@@ -7240,7 +7241,7 @@
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
@@ -7256,12 +7257,12 @@
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="16"/>
       <c r="H113" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>134</v>
@@ -7271,7 +7272,7 @@
         <v>51</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N113" s="14">
         <v>-180</v>
@@ -7280,7 +7281,7 @@
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="16"/>
@@ -7311,7 +7312,7 @@
         <v>51</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N114" s="14">
         <v>180</v>
@@ -7320,7 +7321,7 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -7336,7 +7337,7 @@
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
@@ -7351,7 +7352,7 @@
         <v>51</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N115" s="14">
         <v>-180</v>
@@ -7360,7 +7361,7 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -7376,12 +7377,12 @@
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="16"/>
       <c r="H116" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>134</v>
@@ -7391,7 +7392,7 @@
         <v>51</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N116" s="14">
         <v>-106</v>
@@ -7400,7 +7401,7 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="16">
@@ -7433,7 +7434,7 @@
         <v>51</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N117" s="14">
         <v>180</v>
@@ -7471,7 +7472,7 @@
         <v>51</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N118" s="14">
         <v>-152</v>
@@ -7490,7 +7491,7 @@
     </row>
     <row r="119" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="15" t="s">
@@ -7513,7 +7514,7 @@
         <v>51</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N119" s="14">
         <v>-147</v>
@@ -7532,11 +7533,11 @@
     </row>
     <row r="120" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F120" s="15">
         <v>10002201</v>
@@ -7555,7 +7556,7 @@
         <v>51</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N120" s="14">
         <v>-129</v>
@@ -7574,16 +7575,16 @@
     </row>
     <row r="121" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="16"/>
       <c r="H121" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>134</v>
@@ -7593,7 +7594,7 @@
         <v>51</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N121" s="14">
         <v>-131</v>
@@ -7602,7 +7603,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -7614,16 +7615,16 @@
     </row>
     <row r="122" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="16"/>
       <c r="H122" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>134</v>
@@ -7633,7 +7634,7 @@
         <v>51</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N122" s="14">
         <v>180</v>
@@ -7642,7 +7643,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -7654,16 +7655,16 @@
     </row>
     <row r="123" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="16"/>
       <c r="H123" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>134</v>
@@ -7673,7 +7674,7 @@
         <v>51</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N123" s="14">
         <v>180</v>
@@ -7682,7 +7683,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -7694,16 +7695,16 @@
     </row>
     <row r="124" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="16"/>
       <c r="H124" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>134</v>
@@ -7713,7 +7714,7 @@
         <v>51</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N124" s="14">
         <v>180</v>
@@ -7722,7 +7723,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -7734,11 +7735,11 @@
     </row>
     <row r="125" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="16"/>
@@ -7753,7 +7754,7 @@
         <v>51</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N125" s="14">
         <v>180</v>
@@ -7762,7 +7763,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
@@ -7774,11 +7775,11 @@
     </row>
     <row r="126" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="16"/>
@@ -7793,7 +7794,7 @@
         <v>51</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N126" s="14">
         <v>180</v>
@@ -7802,7 +7803,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
@@ -7814,11 +7815,11 @@
     </row>
     <row r="127" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="16"/>
@@ -7833,7 +7834,7 @@
         <v>51</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N127" s="14">
         <v>27</v>
@@ -7842,7 +7843,7 @@
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
       <c r="R127" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -7854,7 +7855,7 @@
     </row>
     <row r="128" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="15" t="s">
@@ -7877,7 +7878,7 @@
         <v>51</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N128" s="14">
         <v>123</v>
@@ -7896,11 +7897,11 @@
     </row>
     <row r="129" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F129" s="15">
         <v>10003201</v>
@@ -7919,7 +7920,7 @@
         <v>51</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N129" s="14">
         <v>45</v>
@@ -7938,16 +7939,16 @@
     </row>
     <row r="130" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="16"/>
       <c r="H130" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I130" s="18" t="s">
         <v>134</v>
@@ -7957,7 +7958,7 @@
         <v>51</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N130" s="14">
         <v>90</v>
@@ -7966,7 +7967,7 @@
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
@@ -7978,16 +7979,16 @@
     </row>
     <row r="131" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="16"/>
       <c r="H131" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I131" s="18" t="s">
         <v>134</v>
@@ -7997,7 +7998,7 @@
         <v>51</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N131" s="14">
         <v>180</v>
@@ -8006,7 +8007,7 @@
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
@@ -8018,16 +8019,16 @@
     </row>
     <row r="132" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="16"/>
       <c r="H132" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I132" s="18" t="s">
         <v>134</v>
@@ -8037,7 +8038,7 @@
         <v>51</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N132" s="14">
         <v>95</v>
@@ -8046,7 +8047,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -8058,11 +8059,11 @@
     </row>
     <row r="133" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="16"/>
@@ -8077,7 +8078,7 @@
         <v>51</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N133" s="14">
         <v>-70</v>
@@ -8086,7 +8087,7 @@
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
@@ -8098,11 +8099,11 @@
     </row>
     <row r="134" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="16"/>
@@ -8117,7 +8118,7 @@
         <v>51</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N134" s="14">
         <v>180</v>
@@ -8126,7 +8127,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
@@ -8138,11 +8139,11 @@
     </row>
     <row r="135" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="16"/>
@@ -8157,7 +8158,7 @@
         <v>51</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N135" s="14">
         <v>180</v>
@@ -8166,7 +8167,7 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -8178,16 +8179,16 @@
     </row>
     <row r="136" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="16"/>
       <c r="H136" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I136" s="18" t="s">
         <v>134</v>
@@ -8197,7 +8198,7 @@
         <v>51</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N136" s="14">
         <v>-70</v>
@@ -8206,7 +8207,7 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
@@ -8218,16 +8219,16 @@
     </row>
     <row r="137" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="16"/>
       <c r="H137" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I137" s="18" t="s">
         <v>134</v>
@@ -8237,7 +8238,7 @@
         <v>51</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N137" s="14">
         <v>-180</v>
@@ -8246,7 +8247,7 @@
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
@@ -8258,7 +8259,7 @@
     </row>
     <row r="138" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="15" t="s">
@@ -8281,7 +8282,7 @@
         <v>51</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N138" s="14">
         <v>35</v>
@@ -8300,11 +8301,11 @@
     </row>
     <row r="139" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F139" s="15">
         <v>10004201</v>
@@ -8323,7 +8324,7 @@
         <v>51</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N139" s="14">
         <v>-41</v>
@@ -8342,16 +8343,16 @@
     </row>
     <row r="140" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="16"/>
       <c r="H140" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I140" s="18" t="s">
         <v>134</v>
@@ -8361,7 +8362,7 @@
         <v>51</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N140" s="14">
         <v>0</v>
@@ -8370,7 +8371,7 @@
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
@@ -8382,16 +8383,16 @@
     </row>
     <row r="141" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="16"/>
       <c r="H141" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I141" s="18" t="s">
         <v>134</v>
@@ -8401,7 +8402,7 @@
         <v>51</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N141" s="14">
         <v>101</v>
@@ -8410,7 +8411,7 @@
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
@@ -8422,16 +8423,16 @@
     </row>
     <row r="142" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="16"/>
       <c r="H142" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I142" s="18" t="s">
         <v>134</v>
@@ -8441,7 +8442,7 @@
         <v>51</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N142" s="14">
         <v>-3</v>
@@ -8450,7 +8451,7 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
@@ -8462,11 +8463,11 @@
     </row>
     <row r="143" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="16"/>
@@ -8481,7 +8482,7 @@
         <v>51</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N143" s="14">
         <v>180</v>
@@ -8490,7 +8491,7 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
@@ -8502,11 +8503,11 @@
     </row>
     <row r="144" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="16"/>
@@ -8521,7 +8522,7 @@
         <v>51</v>
       </c>
       <c r="M144" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N144" s="14">
         <v>180</v>
@@ -8530,7 +8531,7 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
@@ -8542,16 +8543,16 @@
     </row>
     <row r="145" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="16"/>
       <c r="H145" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I145" s="18" t="s">
         <v>134</v>
@@ -8561,7 +8562,7 @@
         <v>51</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N145" s="14">
         <v>-180</v>
@@ -8570,7 +8571,7 @@
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
@@ -8582,16 +8583,16 @@
     </row>
     <row r="146" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="16"/>
       <c r="H146" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I146" s="18" t="s">
         <v>134</v>
@@ -8601,7 +8602,7 @@
         <v>51</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N146" s="14">
         <v>83</v>
@@ -8610,7 +8611,7 @@
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
@@ -8622,7 +8623,7 @@
     </row>
     <row r="147" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="15" t="s">
@@ -8645,7 +8646,7 @@
         <v>51</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N147" s="14">
         <v>51</v>
@@ -8664,11 +8665,11 @@
     </row>
     <row r="148" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F148" s="15">
         <v>10005201</v>
@@ -8687,7 +8688,7 @@
         <v>51</v>
       </c>
       <c r="M148" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N148" s="14">
         <v>-44</v>
@@ -8706,16 +8707,16 @@
     </row>
     <row r="149" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="16"/>
       <c r="H149" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I149" s="18" t="s">
         <v>134</v>
@@ -8725,7 +8726,7 @@
         <v>51</v>
       </c>
       <c r="M149" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N149" s="14">
         <v>180</v>
@@ -8734,7 +8735,7 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
@@ -8746,16 +8747,16 @@
     </row>
     <row r="150" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="16"/>
       <c r="H150" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I150" s="18" t="s">
         <v>134</v>
@@ -8765,7 +8766,7 @@
         <v>51</v>
       </c>
       <c r="M150" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N150" s="14">
         <v>92</v>
@@ -8774,7 +8775,7 @@
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
@@ -8786,11 +8787,11 @@
     </row>
     <row r="151" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="16"/>
@@ -8805,7 +8806,7 @@
         <v>51</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N151" s="14">
         <v>180</v>
@@ -8814,7 +8815,7 @@
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
@@ -8826,16 +8827,16 @@
     </row>
     <row r="152" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="16"/>
       <c r="H152" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I152" s="18" t="s">
         <v>134</v>
@@ -8845,7 +8846,7 @@
         <v>51</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N152" s="14">
         <v>145</v>
@@ -8854,7 +8855,7 @@
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
@@ -8866,11 +8867,11 @@
     </row>
     <row r="153" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="16"/>
@@ -8885,7 +8886,7 @@
         <v>51</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N153" s="14">
         <v>180</v>
@@ -8894,7 +8895,7 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
@@ -8906,11 +8907,11 @@
     </row>
     <row r="154" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F154" s="15"/>
       <c r="G154" s="16"/>
@@ -8925,7 +8926,7 @@
         <v>51</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N154" s="14">
         <v>180</v>
@@ -8934,7 +8935,7 @@
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
@@ -8950,7 +8951,7 @@
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="16"/>
@@ -8965,7 +8966,7 @@
         <v>51</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N155" s="14">
         <v>180</v>
@@ -8974,7 +8975,7 @@
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
@@ -8990,7 +8991,7 @@
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="16"/>
@@ -9005,7 +9006,7 @@
         <v>51</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N156" s="14">
         <v>180</v>
@@ -9014,7 +9015,7 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
@@ -9030,7 +9031,7 @@
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="16"/>
@@ -9045,7 +9046,7 @@
         <v>51</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N157" s="14">
         <v>180</v>
@@ -9054,7 +9055,7 @@
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
@@ -9070,7 +9071,7 @@
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F158" s="15"/>
       <c r="G158" s="16"/>
@@ -9085,7 +9086,7 @@
         <v>51</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N158" s="14">
         <v>180</v>
@@ -9094,7 +9095,7 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
@@ -9110,7 +9111,7 @@
       </c>
       <c r="D159" s="14"/>
       <c r="E159" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="16"/>
@@ -9125,7 +9126,7 @@
         <v>51</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N159" s="14">
         <v>180</v>
@@ -9134,7 +9135,7 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
@@ -9150,7 +9151,7 @@
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F160" s="15"/>
       <c r="G160" s="16"/>
@@ -9165,7 +9166,7 @@
         <v>51</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N160" s="14">
         <v>180</v>
@@ -9174,7 +9175,7 @@
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
       <c r="R160" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
@@ -9190,7 +9191,7 @@
       </c>
       <c r="D161" s="14"/>
       <c r="E161" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="16">
@@ -9203,7 +9204,7 @@
         <v>51</v>
       </c>
       <c r="M161" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N161" s="14">
         <v>180</v>
@@ -9226,7 +9227,7 @@
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="16"/>
@@ -9237,7 +9238,7 @@
         <v>51</v>
       </c>
       <c r="M162" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N162" s="14">
         <v>0</v>
@@ -9246,7 +9247,7 @@
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
@@ -9262,7 +9263,7 @@
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="16"/>
@@ -9273,7 +9274,7 @@
         <v>51</v>
       </c>
       <c r="M163" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N163" s="14">
         <v>0</v>
@@ -9282,7 +9283,7 @@
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
@@ -9298,7 +9299,7 @@
       </c>
       <c r="D164" s="14"/>
       <c r="E164" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="16"/>
@@ -9309,7 +9310,7 @@
         <v>51</v>
       </c>
       <c r="M164" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N164" s="14">
         <v>0</v>
@@ -9318,7 +9319,7 @@
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
@@ -9334,20 +9335,20 @@
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="16"/>
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
       <c r="J165" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L165" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M165" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N165" s="14">
         <v>0</v>
@@ -9356,7 +9357,7 @@
         <v>13</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" s="28"/>
@@ -9374,20 +9375,20 @@
       </c>
       <c r="D166" s="14"/>
       <c r="E166" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="16"/>
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
       <c r="J166" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L166" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M166" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N166" s="14">
         <v>0</v>
@@ -9396,7 +9397,7 @@
         <v>13</v>
       </c>
       <c r="P166" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" s="28"/>
@@ -9414,20 +9415,20 @@
       </c>
       <c r="D167" s="14"/>
       <c r="E167" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F167" s="27"/>
       <c r="G167" s="16"/>
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
       <c r="J167" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L167" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M167" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N167" s="14">
         <v>0</v>
@@ -9436,7 +9437,7 @@
         <v>13</v>
       </c>
       <c r="P167" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" s="28"/>
@@ -9450,15 +9451,15 @@
     </row>
     <row r="168" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F168" s="14">
         <v>300001</v>
@@ -9478,7 +9479,7 @@
         <v>51</v>
       </c>
       <c r="M168" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N168" s="14">
         <v>0</v>
@@ -9496,11 +9497,11 @@
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D169" s="14"/>
       <c r="E169" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="16">
@@ -9518,7 +9519,7 @@
         <v>51</v>
       </c>
       <c r="M169" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N169" s="14">
         <v>90</v>
@@ -9536,11 +9537,11 @@
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="16">
@@ -9558,7 +9559,7 @@
         <v>51</v>
       </c>
       <c r="M170" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N170" s="14">
         <v>210</v>
@@ -9575,11 +9576,11 @@
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D171" s="14"/>
       <c r="E171" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="16">
@@ -9597,7 +9598,7 @@
         <v>51</v>
       </c>
       <c r="M171" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N171" s="14">
         <v>0</v>
@@ -9612,11 +9613,11 @@
     </row>
     <row r="172" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="16">
@@ -9633,7 +9634,7 @@
         <v>51</v>
       </c>
       <c r="M172" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N172" s="14">
         <v>-100</v>
@@ -9652,11 +9653,11 @@
     </row>
     <row r="173" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="16">
@@ -9673,7 +9674,7 @@
         <v>51</v>
       </c>
       <c r="M173" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N173" s="14">
         <v>123</v>
@@ -9692,11 +9693,11 @@
     </row>
     <row r="174" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D174" s="14"/>
       <c r="E174" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="16">
@@ -9713,7 +9714,7 @@
         <v>51</v>
       </c>
       <c r="M174" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N174" s="14">
         <v>90</v>
@@ -9732,11 +9733,11 @@
     </row>
     <row r="175" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D175" s="14"/>
       <c r="E175" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="16">
@@ -9753,7 +9754,7 @@
         <v>51</v>
       </c>
       <c r="M175" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N175" s="14">
         <v>270</v>
@@ -9772,11 +9773,11 @@
     </row>
     <row r="176" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="16">
@@ -9793,7 +9794,7 @@
         <v>51</v>
       </c>
       <c r="M176" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N176" s="14">
         <v>-90</v>
@@ -9812,11 +9813,11 @@
     </row>
     <row r="177" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D177" s="14"/>
       <c r="E177" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="16">
@@ -9833,7 +9834,7 @@
         <v>51</v>
       </c>
       <c r="M177" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N177" s="14">
         <v>-150</v>
@@ -9852,11 +9853,11 @@
     </row>
     <row r="178" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D178" s="14"/>
       <c r="E178" s="29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F178" s="14"/>
       <c r="G178" s="16">
@@ -9873,7 +9874,7 @@
         <v>51</v>
       </c>
       <c r="M178" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N178" s="16">
         <v>90</v>
@@ -9894,11 +9895,11 @@
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D179" s="14"/>
       <c r="E179" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F179" s="14">
         <v>400001</v>
@@ -9918,7 +9919,7 @@
         <v>51</v>
       </c>
       <c r="M179" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N179" s="14">
         <v>110</v>
@@ -9932,11 +9933,11 @@
     </row>
     <row r="180" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="16">
@@ -9953,7 +9954,7 @@
         <v>51</v>
       </c>
       <c r="M180" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N180" s="14">
         <v>173</v>
@@ -9972,11 +9973,11 @@
     </row>
     <row r="181" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D181" s="14"/>
       <c r="E181" s="29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="16">
@@ -9993,7 +9994,7 @@
         <v>51</v>
       </c>
       <c r="M181" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N181" s="14">
         <v>235</v>
@@ -10012,11 +10013,11 @@
     </row>
     <row r="182" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F182" s="14"/>
       <c r="G182" s="16">
@@ -10033,7 +10034,7 @@
         <v>51</v>
       </c>
       <c r="M182" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N182" s="14">
         <v>175</v>
@@ -10052,11 +10053,11 @@
     </row>
     <row r="183" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D183" s="14"/>
       <c r="E183" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="16">
@@ -10073,7 +10074,7 @@
         <v>51</v>
       </c>
       <c r="M183" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N183" s="14">
         <v>175</v>
@@ -10092,11 +10093,11 @@
     </row>
     <row r="184" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D184" s="14"/>
       <c r="E184" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="16">
@@ -10113,7 +10114,7 @@
         <v>51</v>
       </c>
       <c r="M184" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N184" s="14">
         <v>175</v>
@@ -10132,11 +10133,11 @@
     </row>
     <row r="185" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D185" s="14"/>
       <c r="E185" s="29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F185" s="14"/>
       <c r="G185" s="16">
@@ -10153,7 +10154,7 @@
         <v>51</v>
       </c>
       <c r="M185" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N185" s="14">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FDB8C2-27DB-42B1-9669-205A1F8614E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C1FC8-22D0-421A-978C-E07CF4EEC31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="589">
   <si>
     <t>#</t>
   </si>
@@ -2432,6 +2432,10 @@
   </si>
   <si>
     <t>巅峰试炼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾光收集</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2439,7 +2443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2551,6 +2555,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2635,7 +2644,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2777,6 +2786,9 @@
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3087,7 +3099,7 @@
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3590,21 +3602,20 @@
         <v>1007</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="E12" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0</v>
+      </c>
+      <c r="G12" s="39">
         <v>1024</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="40" t="s">
         <v>552</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
       <c r="L12" s="37" t="s">
         <v>484</v>
       </c>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C1FC8-22D0-421A-978C-E07CF4EEC31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629C741D-7D34-4E5A-98AB-36CEFF647960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="591">
   <si>
     <t>#</t>
   </si>
@@ -1034,1408 +1034,1417 @@
     <t>20000028</t>
   </si>
   <si>
+    <t>-2507,-1,220</t>
+  </si>
+  <si>
+    <t>传说在密境中有一直守护在这里的巨兽,挑战并击败它可以获得丰厚的奖励</t>
+  </si>
+  <si>
+    <t>挑战之地</t>
+  </si>
+  <si>
+    <t>像试试自己差距嘛,那就来我这里吧。</t>
+  </si>
+  <si>
+    <t>20000031</t>
+  </si>
+  <si>
+    <t>神秘人</t>
+  </si>
+  <si>
+    <t>3049,1,5136</t>
+  </si>
+  <si>
+    <t>20000032</t>
+  </si>
+  <si>
+    <t>坐骑训练师</t>
+  </si>
+  <si>
+    <t>1717,1,3215</t>
+  </si>
+  <si>
+    <t>20000033</t>
+  </si>
+  <si>
+    <t>节日使者</t>
+  </si>
+  <si>
+    <t>5195,1,-97</t>
+  </si>
+  <si>
+    <t>每到节日的时候,超过20级的玩家都可以来我这里领取奖励哦~</t>
+  </si>
+  <si>
+    <t>20000034</t>
+  </si>
+  <si>
+    <t>任务使者</t>
+  </si>
+  <si>
+    <t>3300,1,-474</t>
+  </si>
+  <si>
+    <t>我这里有许许多多的奇怪任务哦!</t>
+  </si>
+  <si>
+    <t>20000035</t>
+  </si>
+  <si>
+    <t>勇士角斗</t>
+  </si>
+  <si>
+    <t>6000001</t>
+  </si>
+  <si>
+    <t>550,1,-574</t>
+  </si>
+  <si>
+    <t>到底谁是最厉害的强者呢</t>
+  </si>
+  <si>
+    <t>20000036</t>
+  </si>
+  <si>
+    <t>珍宝商人</t>
+  </si>
+  <si>
+    <t>-4107,1,6479</t>
+  </si>
+  <si>
+    <t>20000037</t>
+  </si>
+  <si>
+    <t>经验老头</t>
+  </si>
+  <si>
+    <t>3090,1,-1153</t>
+  </si>
+  <si>
+    <t>当你的等级达到上限时无法获得经验时,你可以用多余的30%经验来我这里换取一份不错的奖励哦!</t>
+  </si>
+  <si>
+    <t>20000038</t>
+  </si>
+  <si>
+    <t>争霸赛规则</t>
+  </si>
+  <si>
+    <t>-780,4,309</t>
+  </si>
+  <si>
+    <t>在占领区人数较多的一方家族可以获得最终胜利喔!</t>
+  </si>
+  <si>
+    <t>20000039</t>
+  </si>
+  <si>
+    <t>传承商人</t>
+  </si>
+  <si>
+    <t>-1957,1,5418</t>
+  </si>
+  <si>
+    <t>20000040</t>
+  </si>
+  <si>
+    <t>神兽碎片兑换</t>
+  </si>
+  <si>
+    <t>407,1,-4911</t>
+  </si>
+  <si>
+    <t>当你拥有全部神兽时,你可以用多余的神兽碎片来我这里换取璀璨传承哦。</t>
+  </si>
+  <si>
+    <t>20000041</t>
+  </si>
+  <si>
+    <t>封印之塔</t>
+  </si>
+  <si>
+    <t>-2954,1,-1198</t>
+  </si>
+  <si>
+    <t>在我这里有100层,听说能闯到最后的都是勇士哦！</t>
+  </si>
+  <si>
+    <t>20000101</t>
+  </si>
+  <si>
+    <t>家族管理</t>
+  </si>
+  <si>
+    <t>1234,0,-1782</t>
+  </si>
+  <si>
+    <t>20000102</t>
+  </si>
+  <si>
+    <t>家族任务</t>
+  </si>
+  <si>
+    <t>1334,0,-1482</t>
+  </si>
+  <si>
+    <t>我这里的家族试炼任务每完成20、40、60、80、100环都会获得一份特殊奖励哦!</t>
+  </si>
+  <si>
+    <t>20000103</t>
+  </si>
+  <si>
+    <t>家族捐献</t>
+  </si>
+  <si>
+    <t>1434,0,-1182</t>
+  </si>
+  <si>
+    <t>20000104</t>
+  </si>
+  <si>
+    <t>家族强化</t>
+  </si>
+  <si>
+    <t>1534,0,-1782</t>
+  </si>
+  <si>
+    <t>20000105</t>
+  </si>
+  <si>
+    <t>家族商店</t>
+  </si>
+  <si>
+    <t>1634,0,-1482</t>
+  </si>
+  <si>
+    <t>20000106</t>
+  </si>
+  <si>
+    <t>家族科技</t>
+  </si>
+  <si>
+    <t>1734,0,-1182</t>
+  </si>
+  <si>
+    <t>20001001</t>
+  </si>
+  <si>
+    <t>杂货药店老板</t>
+  </si>
+  <si>
+    <t>-442,0,-600</t>
+  </si>
+  <si>
+    <t>装备店老板</t>
+  </si>
+  <si>
+    <t>912,0,-700</t>
+  </si>
+  <si>
+    <t>村长·乌尔</t>
+  </si>
+  <si>
+    <t>30010001,30010002,30010003,30010006,30010008,30010020,30010044,31001008</t>
+  </si>
+  <si>
+    <t>0,0,-700</t>
+  </si>
+  <si>
+    <t>勇士,我是这里的村长,这里是一个被诅咒的村子,如果怕死,你还是赶紧离开这个鬼地方吧！</t>
+  </si>
+  <si>
+    <t>圣光军队长</t>
+  </si>
+  <si>
+    <t>-196,0,-1568</t>
+  </si>
+  <si>
+    <t>我们是国王圣恩手下的圣光军,不要轻易的出村子,那并不是我们的保护范围.</t>
+  </si>
+  <si>
+    <t>圣光军士兵</t>
+  </si>
+  <si>
+    <t>200,0,-2600</t>
+  </si>
+  <si>
+    <t>我觉得我们队长很懦弱,他总是告诫我们不要出村子,但我认为外面并没有什么可怕的！</t>
+  </si>
+  <si>
+    <t>-242,0,-2600</t>
+  </si>
+  <si>
+    <t>我是刚来这里的,这里每个人看起来都很害怕去外面！</t>
+  </si>
+  <si>
+    <t>勇士帕托</t>
+  </si>
+  <si>
+    <t>30010004,30010005</t>
+  </si>
+  <si>
+    <t>-1100,0,-4500</t>
+  </si>
+  <si>
+    <t>这些该死的野狼,真相让这些它们赶紧离开这个鬼地方！</t>
+  </si>
+  <si>
+    <t>安迪·凯伦</t>
+  </si>
+  <si>
+    <t>-2729,0,747</t>
+  </si>
+  <si>
+    <t>在村子里我的力气最大,如果你愿意给我金币,我可以帮你做一些事。</t>
+  </si>
+  <si>
+    <t>流浪者</t>
+  </si>
+  <si>
+    <t>30010007</t>
+  </si>
+  <si>
+    <t>-3364,-9,-876</t>
+  </si>
+  <si>
+    <t>有一天我梦游,不知不觉的就来到了这个村子.</t>
+  </si>
+  <si>
+    <t>受伤的士兵</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>不要问我,我什么都不知道！</t>
+  </si>
+  <si>
+    <t>走失的矿工</t>
+  </si>
+  <si>
+    <t>30010009</t>
+  </si>
+  <si>
+    <t>631,-92,-490</t>
+  </si>
+  <si>
+    <t>我好不容易逃出了那个该死的矿洞,在里面我发现了一个很凶猛的怪兽,不过我还没来的急看清那怪兽的样子就已经被那巨大的爪子拍晕了.</t>
+  </si>
+  <si>
+    <t>艾丽公主</t>
+  </si>
+  <si>
+    <t>30010018,30010019,31001001</t>
+  </si>
+  <si>
+    <t>1275,2,-1827</t>
+  </si>
+  <si>
+    <t>我多么希望赶紧离开这个阴森的地方,我好怕,谁来救救我啊</t>
+  </si>
+  <si>
+    <t>矿工艾伯特</t>
+  </si>
+  <si>
+    <t>30010011,30010012,30010013,30010014</t>
+  </si>
+  <si>
+    <t>1719,2,-5084</t>
+  </si>
+  <si>
+    <t>该死的！刚才双眼一黑我就什么也不知道了！这个矿洞里究竟发生了什么！</t>
+  </si>
+  <si>
+    <t>艾伯特博士</t>
+  </si>
+  <si>
+    <t>30010015,30010016,30010017</t>
+  </si>
+  <si>
+    <t>156,0,-7486</t>
+  </si>
+  <si>
+    <t>我想我已经知道了事情的真相,这里已经非常危险了！</t>
+  </si>
+  <si>
+    <t>勇士博肯</t>
+  </si>
+  <si>
+    <t>30010021,30010022,30010026</t>
+  </si>
+  <si>
+    <t>2083,1,-3521</t>
+  </si>
+  <si>
+    <t>希望这次旅行可以平安的到达目的地.</t>
+  </si>
+  <si>
+    <t>石墓护卫</t>
+  </si>
+  <si>
+    <t>镇压在这里的怪物已经一年多没什么动静了,都不知道是死是活！</t>
+  </si>
+  <si>
+    <t>森林守卫</t>
+  </si>
+  <si>
+    <t>30010023,30010024,30010025,31001002</t>
+  </si>
+  <si>
+    <t>560,1,-653</t>
+  </si>
+  <si>
+    <t>森林中有一个大型的怪兽,没事还是去别的地方转转吧,这里太危险.</t>
+  </si>
+  <si>
+    <t>石墓带刀护卫</t>
+  </si>
+  <si>
+    <t>禁止入内！</t>
+  </si>
+  <si>
+    <t>石墓守陵人</t>
+  </si>
+  <si>
+    <t>30010027,30010028,30010029,30010030,30010031,31001003,31001004</t>
+  </si>
+  <si>
+    <t>145,1,-3602</t>
+  </si>
+  <si>
+    <t>这个古墓已经很久没人来过了.</t>
+  </si>
+  <si>
+    <t>森林任务大使</t>
+  </si>
+  <si>
+    <t>这里已经大半年没有任何人来到这里了,我好像都不太会说话了.</t>
+  </si>
+  <si>
+    <t>石墓二层守陵人</t>
+  </si>
+  <si>
+    <t>180,2,-400</t>
+  </si>
+  <si>
+    <t>地下洞穴守洞人</t>
+  </si>
+  <si>
+    <t>30010032,30010033,30010034,30010035,30010036,30010037,30010038,30010039,30010040,30010041,30010042,30010043,31001005,31001006,31001007</t>
+  </si>
+  <si>
+    <t>174,1,-63</t>
+  </si>
+  <si>
+    <t>没想到竟然有人发现了这里的秘密！</t>
+  </si>
+  <si>
+    <t>仓库管理员</t>
+  </si>
+  <si>
+    <t>110,1,166</t>
+  </si>
+  <si>
+    <t>20002001</t>
+  </si>
+  <si>
+    <t>1422,1,-447</t>
+  </si>
+  <si>
+    <t>20002002</t>
+  </si>
+  <si>
+    <t>1549,1,-541</t>
+  </si>
+  <si>
+    <t>20002003</t>
+  </si>
+  <si>
+    <t>将军·希尔</t>
+  </si>
+  <si>
+    <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124,50000002,41001001,41001002,41001003,41001101,41001102,41001103</t>
+  </si>
+  <si>
+    <t>1462,1,-483</t>
+  </si>
+  <si>
+    <t>20002004</t>
+  </si>
+  <si>
+    <t>探路的军士</t>
+  </si>
+  <si>
+    <t>30020107,30020108,30020109,30020110</t>
+  </si>
+  <si>
+    <t>1373,1,-902</t>
+  </si>
+  <si>
+    <t>20002005</t>
+  </si>
+  <si>
+    <t>幸存者</t>
+  </si>
+  <si>
+    <t>30020111,30020112,30020113,30020114,30020115,30020116,30020117</t>
+  </si>
+  <si>
+    <t>1589,1,-693</t>
+  </si>
+  <si>
+    <t>20002006</t>
+  </si>
+  <si>
+    <t>走失的士兵</t>
+  </si>
+  <si>
+    <t>30020118,30020119,30020120,30020121,30020122,30020123,30020124</t>
+  </si>
+  <si>
+    <t>1414,1,-674</t>
+  </si>
+  <si>
+    <t>20002007</t>
+  </si>
+  <si>
+    <t>20002008</t>
+  </si>
+  <si>
+    <t>20002009</t>
+  </si>
+  <si>
+    <t>1261,1,-729</t>
+  </si>
+  <si>
+    <t>20003001</t>
+  </si>
+  <si>
+    <t>1471,1,-360</t>
+  </si>
+  <si>
+    <t>20003002</t>
+  </si>
+  <si>
+    <t>1464,1,-495</t>
+  </si>
+  <si>
+    <t>20003003</t>
+  </si>
+  <si>
+    <t>镇长卡瑟</t>
+  </si>
+  <si>
+    <t>1635,1,-430</t>
+  </si>
+  <si>
+    <t>20003004</t>
+  </si>
+  <si>
+    <t>侍卫卡夫</t>
+  </si>
+  <si>
+    <t>30030009,30030010,30030011,30030012,30030013,30030014</t>
+  </si>
+  <si>
+    <t>1459,1,-544</t>
+  </si>
+  <si>
+    <t>20003005</t>
+  </si>
+  <si>
+    <t>冰雪之路引路人</t>
+  </si>
+  <si>
+    <t>30030023,30030024,30030025,30030026,30030027,30030028,30030029</t>
+  </si>
+  <si>
+    <t>1372,1,-715</t>
+  </si>
+  <si>
+    <t>20003006</t>
+  </si>
+  <si>
+    <t>1588,1,-750</t>
+  </si>
+  <si>
+    <t>20003007</t>
+  </si>
+  <si>
+    <t>20003008</t>
+  </si>
+  <si>
+    <t>20003009</t>
+  </si>
+  <si>
+    <t>魔穴守护人</t>
+  </si>
+  <si>
+    <t>30030030,30030031,30030032,30030033,30030034</t>
+  </si>
+  <si>
+    <t>18,1,-7500</t>
+  </si>
+  <si>
+    <t>20003010</t>
+  </si>
+  <si>
+    <t>瑞斯</t>
+  </si>
+  <si>
+    <t>30030015,30030016,30030017,30030018,30030019,30030020,30030021,30030022</t>
+  </si>
+  <si>
+    <t>191,1,-339</t>
+  </si>
+  <si>
+    <t>20004001</t>
+  </si>
+  <si>
+    <t>1787,1,-574</t>
+  </si>
+  <si>
+    <t>20004002</t>
+  </si>
+  <si>
+    <t>1623,1,-581</t>
+  </si>
+  <si>
+    <t>20004003</t>
+  </si>
+  <si>
+    <t>镇长莫林</t>
+  </si>
+  <si>
+    <t>30040001,30040002,30040003,30040004,30040005,30040006,30040007,30040008,30040009,30040022,30040023,30040029,30040030,30040031,30040032,30040033</t>
+  </si>
+  <si>
+    <t>1878,1,-570</t>
+  </si>
+  <si>
+    <t>20004005</t>
+  </si>
+  <si>
+    <t>森林守护人</t>
+  </si>
+  <si>
+    <t>30040010,30040011,30040012,30040013,30040014,30040015,30040016</t>
+  </si>
+  <si>
+    <t>170,1,-768</t>
+  </si>
+  <si>
+    <t>20004006</t>
+  </si>
+  <si>
+    <t>矿工哈登</t>
+  </si>
+  <si>
+    <t>30040017,30040018,30040019,30040020,30040021</t>
+  </si>
+  <si>
+    <t>278,1,-666</t>
+  </si>
+  <si>
+    <t>20004007</t>
+  </si>
+  <si>
+    <t>20004008</t>
+  </si>
+  <si>
+    <t>20004009</t>
+  </si>
+  <si>
+    <t>峡谷护卫</t>
+  </si>
+  <si>
+    <t>30040024,30040025,30040026,30040027</t>
+  </si>
+  <si>
+    <t>143,2,-2681</t>
+  </si>
+  <si>
+    <t>20004010</t>
+  </si>
+  <si>
+    <t>裂谷护卫</t>
+  </si>
+  <si>
+    <t>30040028</t>
+  </si>
+  <si>
+    <t>232,2,-10</t>
+  </si>
+  <si>
+    <t>20005001</t>
+  </si>
+  <si>
+    <t>912,0,-1707</t>
+  </si>
+  <si>
+    <t>20005002</t>
+  </si>
+  <si>
+    <t>20005003</t>
+  </si>
+  <si>
+    <t>镇长乌尔</t>
+  </si>
+  <si>
+    <t>30050001,30050002,30050003,30050004,30050005,30050006,30050007,30050008,41004001,41004002,41004003,41004101,41004102,41004103,30050023</t>
+  </si>
+  <si>
+    <t>228,0,-620</t>
+  </si>
+  <si>
+    <t>20005004</t>
+  </si>
+  <si>
+    <t>卡琳娜</t>
+  </si>
+  <si>
+    <t>30050009,30050010,30050011,30050012,30050013,30050014</t>
+  </si>
+  <si>
+    <t>1406,0,-6651</t>
+  </si>
+  <si>
+    <t>20005005</t>
+  </si>
+  <si>
+    <t>卡尔</t>
+  </si>
+  <si>
+    <t>20005006</t>
+  </si>
+  <si>
+    <t>潜伏者·乌利兹</t>
+  </si>
+  <si>
+    <t>30050015,30050016,30050017,30050018,30050019,30050020,30050021,30050022</t>
+  </si>
+  <si>
+    <t>1149,0,-6951</t>
+  </si>
+  <si>
+    <t>20005007</t>
+  </si>
+  <si>
+    <t>20005008</t>
+  </si>
+  <si>
+    <t>圣光城装备老板</t>
+  </si>
+  <si>
+    <t>我这里的货物物美价廉!赶紧来看看有什么需要的,过段时间可不是这个价格呦！</t>
+  </si>
+  <si>
+    <t>圣光城药店老板</t>
+  </si>
+  <si>
+    <t>如果你在野外受伤了,赶紧来我这里买点药,保证喝完精神焕发</t>
+  </si>
+  <si>
+    <t>圣恩·帕托</t>
+  </si>
+  <si>
+    <t>在这个圣光城里,我时刻都感受到神圣的力量</t>
+  </si>
+  <si>
+    <t>圣恩·乌尔</t>
+  </si>
+  <si>
+    <t>我们不能在这样懦弱下去了,我们要复仇你明白嘛？</t>
+  </si>
+  <si>
+    <t>圣恩·瑞儿</t>
+  </si>
+  <si>
+    <t>听过国王马上要下令进攻恶魔军团了,我们应该做好准备！</t>
+  </si>
+  <si>
+    <t>别说话,这里需要安静！</t>
+  </si>
+  <si>
+    <t>小龟赛跑大使</t>
+  </si>
+  <si>
+    <t>-844,1,-436</t>
+  </si>
+  <si>
+    <t>小龟1号</t>
+  </si>
+  <si>
+    <t>-529,1,-548</t>
+  </si>
+  <si>
+    <t>我年轻力胜,获胜最终胜利的一定是我！</t>
+  </si>
+  <si>
+    <t>小龟2号</t>
+  </si>
+  <si>
+    <t>-205,1,-548</t>
+  </si>
+  <si>
+    <t>我是来自沙漠的龟,这么热的天获胜最终胜利的一定是我！</t>
+  </si>
+  <si>
+    <t>小龟3号</t>
+  </si>
+  <si>
+    <t>92,1,-548</t>
+  </si>
+  <si>
+    <t>我拥有丰富的赛龟经验,获胜最终胜利的一定是我！</t>
+  </si>
+  <si>
+    <t>小龟一号选手</t>
+  </si>
+  <si>
+    <t>20000,5000,5000</t>
+  </si>
+  <si>
+    <t>-2.46;3.55;97.41</t>
+  </si>
+  <si>
+    <t>小龟二号选手</t>
+  </si>
+  <si>
+    <t>-529,1,-248</t>
+  </si>
+  <si>
+    <t>小龟三号选手</t>
+  </si>
+  <si>
+    <t>92,-1,-5248</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>30000001</t>
+  </si>
+  <si>
+    <t>农场管理员</t>
+  </si>
+  <si>
+    <t>1046,0,-1876</t>
+  </si>
+  <si>
+    <t>30000002</t>
+  </si>
+  <si>
+    <t>牧场管理员</t>
+  </si>
+  <si>
+    <t>1140,0,-1802</t>
+  </si>
+  <si>
+    <t>30000003</t>
+  </si>
+  <si>
+    <t>家园管家</t>
+  </si>
+  <si>
+    <t>30000004</t>
+  </si>
+  <si>
+    <t>家园公告牌</t>
+  </si>
+  <si>
+    <t>30000005</t>
+  </si>
+  <si>
+    <t>采购管理员</t>
+  </si>
+  <si>
+    <t>1434,0,-1282</t>
+  </si>
+  <si>
+    <t>30000006</t>
+  </si>
+  <si>
+    <t>家园存放员</t>
+  </si>
+  <si>
+    <t>1534,0,-1082</t>
+  </si>
+  <si>
+    <t>30000007</t>
+  </si>
+  <si>
+    <t>家园士兵</t>
+  </si>
+  <si>
+    <t>1634,0,-882</t>
+  </si>
+  <si>
+    <t>30000008</t>
+  </si>
+  <si>
+    <t>1734,0,-682</t>
+  </si>
+  <si>
+    <t>30000009</t>
+  </si>
+  <si>
+    <t>美味大师</t>
+  </si>
+  <si>
+    <t>1784,0,-1782</t>
+  </si>
+  <si>
+    <t>30000010</t>
+  </si>
+  <si>
+    <t>家园宠物管理员</t>
+  </si>
+  <si>
+    <t>1834,0,-1482</t>
+  </si>
+  <si>
+    <t>30000011</t>
+  </si>
+  <si>
+    <t>装备宠物加锁</t>
+  </si>
+  <si>
+    <t>1900,0,-1282</t>
+  </si>
+  <si>
+    <t>30000013</t>
+  </si>
+  <si>
+    <t>家园商人</t>
+  </si>
+  <si>
+    <t>1950,0,-1082</t>
+  </si>
+  <si>
+    <t>30000014</t>
+  </si>
+  <si>
+    <t>藏宝图生活技能仓库</t>
+  </si>
+  <si>
+    <t>2000,0,-882</t>
+  </si>
+  <si>
+    <t>30000015</t>
+  </si>
+  <si>
+    <t>装备增幅</t>
+  </si>
+  <si>
+    <t>2150,0,-682</t>
+  </si>
+  <si>
+    <t>30000016</t>
+  </si>
+  <si>
+    <t>家园觉醒大师</t>
+  </si>
+  <si>
+    <t>2559,0,-707</t>
+  </si>
+  <si>
+    <t>40000001</t>
+  </si>
+  <si>
+    <t>战场招募·猎魔</t>
+  </si>
+  <si>
+    <t>1449,0,-1560</t>
+  </si>
+  <si>
+    <t>40000002</t>
+  </si>
+  <si>
+    <t>战场招募·曙光</t>
+  </si>
+  <si>
+    <t>2111,0,-937</t>
+  </si>
+  <si>
+    <t>40000003</t>
+  </si>
+  <si>
+    <t>神秘之门</t>
+  </si>
+  <si>
+    <t>56,0,-1330</t>
+  </si>
+  <si>
+    <t>宝藏之地</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>密境传送</t>
-  </si>
-  <si>
-    <t>-2507,-1,220</t>
-  </si>
-  <si>
-    <t>传说在密境中有一直守护在这里的巨兽,挑战并击败它可以获得丰厚的奖励</t>
-  </si>
-  <si>
-    <t>挑战之地</t>
-  </si>
-  <si>
-    <t>像试试自己差距嘛,那就来我这里吧。</t>
-  </si>
-  <si>
-    <t>20000031</t>
-  </si>
-  <si>
-    <t>神秘人</t>
-  </si>
-  <si>
-    <t>3049,1,5136</t>
-  </si>
-  <si>
-    <t>20000032</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务公告板</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2314,0,-4370</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-97,0,-1436</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Mail</t>
+  </si>
+  <si>
+    <t>NPC_Pet</t>
+  </si>
+  <si>
+    <t>NPC_CangKu</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1694,134,-2903</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Start</t>
+  </si>
+  <si>
+    <t>-2350,0,-3076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_FrogPerson</t>
+  </si>
+  <si>
+    <t>-948,0,-2401</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_BearPerson</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5235,0,-2423</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_BulletionBoard</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>6378,0,-5115</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5745,128,-4704</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ChuanSong</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5879,0,1406</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王-凯恩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_King</t>
+  </si>
+  <si>
+    <t>894,188,4336</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎你来到天空之城,我的子民!</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2513,0,-1741</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>走失的村民</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒谷村长</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1485,166,2637</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-58,1732,96</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒地探险者</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的卫士</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>4678,-38,-1606</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠猎手-安娜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗迹挖掘者</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1308,43,696</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5518,-57,-72</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠老者-加尔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1749,635,19504</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险者-奎恩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军-巴斯</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>360,161,-432</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>山谷长者</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤的魔法师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013,235,-13507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9444,-86,-11746</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险者-鲁维</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>精疲力尽的矿工</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-860,-97,-12378</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔法师-恩科</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者-库里</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,2,-2323</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地狩猎人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2084,0,1792</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司-法克</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2364,45,635</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰宫护卫长</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军-库克</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1694,2,-135</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>影月使者-维纶</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2569,29,3806</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2282,13,-1805</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪式魔法师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的村民</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>302,1209,-3364</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者-凯恩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3393,608,-797</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金狩猎者</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13,647,2556</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4898,0,-114</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-430,183,181</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3814,-77,-15853</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5467,612,-4138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3295,166,-2151</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038,41002001,41002002,41002003,41002101,41002102,41002103,41003001,41003002,41003003,41003101,41003102,41003103</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102001,102002,102003,102004,102005,102006,102007,102008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102009,102010,102011,102012,102013,102014,102015</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102016,102017,102018,102019,102020,102021,102022</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102023,102024,102025,102026,102027,102028,102029</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>102030,102031,102032,102033,102034,102035,102036</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103008,103009,103010,103011,103012,103013,103014</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103015,103016,103017,103018,103019,103020,103021</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103022,103023,103024,103025,103026,103027,103028</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103029,103030,103031,103032,103033,103034,103035,103036,103037,103038</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>103001,103002,103003,103004,103005,103006,103007</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100009,100010,100011,100012</t>
+  </si>
+  <si>
+    <t>100015,100016,100017,100018,100019</t>
+  </si>
+  <si>
+    <t>100022,100023,100024,100025,100026,100027</t>
+  </si>
+  <si>
+    <t>100028,100029,100030,100031,100032,100033,100034,100035,100036</t>
+  </si>
+  <si>
+    <t>100002,100003,100004,100005,100006,100007,100008,100013,100014</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104001,104002,104003,104004,104005,104006,104007,104008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104009,104010,104011,104012,104013,104014,104015,104016</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104017,104018,104019,104020,104021,104022,104023</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104024,104025,104026,104027,104028,104029,104030,104031</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>104032,104033,104034,104035,104036,104037,104038,104039,104040,104041,104042</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105001,105002,105003,105004,105005,105006,105007,105008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105009,105010,105011,105012,105013,105014,105015</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105016,105017,105018,105019,105020,105021,105022,105023</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105024,105025,105026,105027,105028,105029,105030,105031,105032,105033,105034,105035</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>105036</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001,100020,100021,105037,105038,105039</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>-3131,135,2254</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1801,135,-253</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>-3145,135,-243</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵禁秘塔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>巅峰试炼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾光收集</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗炼大师</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>密境传送</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>坐骑训练师</t>
-  </si>
-  <si>
-    <t>1717,1,3215</t>
-  </si>
-  <si>
-    <t>20000033</t>
-  </si>
-  <si>
-    <t>节日使者</t>
-  </si>
-  <si>
-    <t>5195,1,-97</t>
-  </si>
-  <si>
-    <t>每到节日的时候,超过20级的玩家都可以来我这里领取奖励哦~</t>
-  </si>
-  <si>
-    <t>20000034</t>
-  </si>
-  <si>
-    <t>任务使者</t>
-  </si>
-  <si>
-    <t>3300,1,-474</t>
-  </si>
-  <si>
-    <t>我这里有许许多多的奇怪任务哦!</t>
-  </si>
-  <si>
-    <t>20000035</t>
-  </si>
-  <si>
-    <t>勇士角斗</t>
-  </si>
-  <si>
-    <t>6000001</t>
-  </si>
-  <si>
-    <t>550,1,-574</t>
-  </si>
-  <si>
-    <t>到底谁是最厉害的强者呢</t>
-  </si>
-  <si>
-    <t>20000036</t>
-  </si>
-  <si>
-    <t>珍宝商人</t>
-  </si>
-  <si>
-    <t>-4107,1,6479</t>
-  </si>
-  <si>
-    <t>20000037</t>
-  </si>
-  <si>
-    <t>经验老头</t>
-  </si>
-  <si>
-    <t>3090,1,-1153</t>
-  </si>
-  <si>
-    <t>当你的等级达到上限时无法获得经验时,你可以用多余的30%经验来我这里换取一份不错的奖励哦!</t>
-  </si>
-  <si>
-    <t>20000038</t>
-  </si>
-  <si>
-    <t>争霸赛规则</t>
-  </si>
-  <si>
-    <t>-780,4,309</t>
-  </si>
-  <si>
-    <t>在占领区人数较多的一方家族可以获得最终胜利喔!</t>
-  </si>
-  <si>
-    <t>20000039</t>
-  </si>
-  <si>
-    <t>传承商人</t>
-  </si>
-  <si>
-    <t>-1957,1,5418</t>
-  </si>
-  <si>
-    <t>20000040</t>
-  </si>
-  <si>
-    <t>神兽碎片兑换</t>
-  </si>
-  <si>
-    <t>407,1,-4911</t>
-  </si>
-  <si>
-    <t>当你拥有全部神兽时,你可以用多余的神兽碎片来我这里换取璀璨传承哦。</t>
-  </si>
-  <si>
-    <t>20000041</t>
-  </si>
-  <si>
-    <t>封印之塔</t>
-  </si>
-  <si>
-    <t>-2954,1,-1198</t>
-  </si>
-  <si>
-    <t>在我这里有100层,听说能闯到最后的都是勇士哦！</t>
-  </si>
-  <si>
-    <t>20000101</t>
-  </si>
-  <si>
-    <t>家族管理</t>
-  </si>
-  <si>
-    <t>1234,0,-1782</t>
-  </si>
-  <si>
-    <t>20000102</t>
-  </si>
-  <si>
-    <t>家族任务</t>
-  </si>
-  <si>
-    <t>1334,0,-1482</t>
-  </si>
-  <si>
-    <t>我这里的家族试炼任务每完成20、40、60、80、100环都会获得一份特殊奖励哦!</t>
-  </si>
-  <si>
-    <t>20000103</t>
-  </si>
-  <si>
-    <t>家族捐献</t>
-  </si>
-  <si>
-    <t>1434,0,-1182</t>
-  </si>
-  <si>
-    <t>20000104</t>
-  </si>
-  <si>
-    <t>家族强化</t>
-  </si>
-  <si>
-    <t>1534,0,-1782</t>
-  </si>
-  <si>
-    <t>20000105</t>
-  </si>
-  <si>
-    <t>家族商店</t>
-  </si>
-  <si>
-    <t>1634,0,-1482</t>
-  </si>
-  <si>
-    <t>20000106</t>
-  </si>
-  <si>
-    <t>家族科技</t>
-  </si>
-  <si>
-    <t>1734,0,-1182</t>
-  </si>
-  <si>
-    <t>20001001</t>
-  </si>
-  <si>
-    <t>杂货药店老板</t>
-  </si>
-  <si>
-    <t>-442,0,-600</t>
-  </si>
-  <si>
-    <t>装备店老板</t>
-  </si>
-  <si>
-    <t>912,0,-700</t>
-  </si>
-  <si>
-    <t>村长·乌尔</t>
-  </si>
-  <si>
-    <t>30010001,30010002,30010003,30010006,30010008,30010020,30010044,31001008</t>
-  </si>
-  <si>
-    <t>0,0,-700</t>
-  </si>
-  <si>
-    <t>勇士,我是这里的村长,这里是一个被诅咒的村子,如果怕死,你还是赶紧离开这个鬼地方吧！</t>
-  </si>
-  <si>
-    <t>圣光军队长</t>
-  </si>
-  <si>
-    <t>-196,0,-1568</t>
-  </si>
-  <si>
-    <t>我们是国王圣恩手下的圣光军,不要轻易的出村子,那并不是我们的保护范围.</t>
-  </si>
-  <si>
-    <t>圣光军士兵</t>
-  </si>
-  <si>
-    <t>200,0,-2600</t>
-  </si>
-  <si>
-    <t>我觉得我们队长很懦弱,他总是告诫我们不要出村子,但我认为外面并没有什么可怕的！</t>
-  </si>
-  <si>
-    <t>-242,0,-2600</t>
-  </si>
-  <si>
-    <t>我是刚来这里的,这里每个人看起来都很害怕去外面！</t>
-  </si>
-  <si>
-    <t>勇士帕托</t>
-  </si>
-  <si>
-    <t>30010004,30010005</t>
-  </si>
-  <si>
-    <t>-1100,0,-4500</t>
-  </si>
-  <si>
-    <t>这些该死的野狼,真相让这些它们赶紧离开这个鬼地方！</t>
-  </si>
-  <si>
-    <t>安迪·凯伦</t>
-  </si>
-  <si>
-    <t>-2729,0,747</t>
-  </si>
-  <si>
-    <t>在村子里我的力气最大,如果你愿意给我金币,我可以帮你做一些事。</t>
-  </si>
-  <si>
-    <t>流浪者</t>
-  </si>
-  <si>
-    <t>30010007</t>
-  </si>
-  <si>
-    <t>-3364,-9,-876</t>
-  </si>
-  <si>
-    <t>有一天我梦游,不知不觉的就来到了这个村子.</t>
-  </si>
-  <si>
-    <t>受伤的士兵</t>
-  </si>
-  <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
-    <t>不要问我,我什么都不知道！</t>
-  </si>
-  <si>
-    <t>走失的矿工</t>
-  </si>
-  <si>
-    <t>30010009</t>
-  </si>
-  <si>
-    <t>631,-92,-490</t>
-  </si>
-  <si>
-    <t>我好不容易逃出了那个该死的矿洞,在里面我发现了一个很凶猛的怪兽,不过我还没来的急看清那怪兽的样子就已经被那巨大的爪子拍晕了.</t>
-  </si>
-  <si>
-    <t>艾丽公主</t>
-  </si>
-  <si>
-    <t>30010018,30010019,31001001</t>
-  </si>
-  <si>
-    <t>1275,2,-1827</t>
-  </si>
-  <si>
-    <t>我多么希望赶紧离开这个阴森的地方,我好怕,谁来救救我啊</t>
-  </si>
-  <si>
-    <t>矿工艾伯特</t>
-  </si>
-  <si>
-    <t>30010011,30010012,30010013,30010014</t>
-  </si>
-  <si>
-    <t>1719,2,-5084</t>
-  </si>
-  <si>
-    <t>该死的！刚才双眼一黑我就什么也不知道了！这个矿洞里究竟发生了什么！</t>
-  </si>
-  <si>
-    <t>艾伯特博士</t>
-  </si>
-  <si>
-    <t>30010015,30010016,30010017</t>
-  </si>
-  <si>
-    <t>156,0,-7486</t>
-  </si>
-  <si>
-    <t>我想我已经知道了事情的真相,这里已经非常危险了！</t>
-  </si>
-  <si>
-    <t>勇士博肯</t>
-  </si>
-  <si>
-    <t>30010021,30010022,30010026</t>
-  </si>
-  <si>
-    <t>2083,1,-3521</t>
-  </si>
-  <si>
-    <t>希望这次旅行可以平安的到达目的地.</t>
-  </si>
-  <si>
-    <t>石墓护卫</t>
-  </si>
-  <si>
-    <t>镇压在这里的怪物已经一年多没什么动静了,都不知道是死是活！</t>
-  </si>
-  <si>
-    <t>森林守卫</t>
-  </si>
-  <si>
-    <t>30010023,30010024,30010025,31001002</t>
-  </si>
-  <si>
-    <t>560,1,-653</t>
-  </si>
-  <si>
-    <t>森林中有一个大型的怪兽,没事还是去别的地方转转吧,这里太危险.</t>
-  </si>
-  <si>
-    <t>石墓带刀护卫</t>
-  </si>
-  <si>
-    <t>禁止入内！</t>
-  </si>
-  <si>
-    <t>石墓守陵人</t>
-  </si>
-  <si>
-    <t>30010027,30010028,30010029,30010030,30010031,31001003,31001004</t>
-  </si>
-  <si>
-    <t>145,1,-3602</t>
-  </si>
-  <si>
-    <t>这个古墓已经很久没人来过了.</t>
-  </si>
-  <si>
-    <t>森林任务大使</t>
-  </si>
-  <si>
-    <t>这里已经大半年没有任何人来到这里了,我好像都不太会说话了.</t>
-  </si>
-  <si>
-    <t>石墓二层守陵人</t>
-  </si>
-  <si>
-    <t>180,2,-400</t>
-  </si>
-  <si>
-    <t>地下洞穴守洞人</t>
-  </si>
-  <si>
-    <t>30010032,30010033,30010034,30010035,30010036,30010037,30010038,30010039,30010040,30010041,30010042,30010043,31001005,31001006,31001007</t>
-  </si>
-  <si>
-    <t>174,1,-63</t>
-  </si>
-  <si>
-    <t>没想到竟然有人发现了这里的秘密！</t>
-  </si>
-  <si>
-    <t>仓库管理员</t>
-  </si>
-  <si>
-    <t>110,1,166</t>
-  </si>
-  <si>
-    <t>20002001</t>
-  </si>
-  <si>
-    <t>1422,1,-447</t>
-  </si>
-  <si>
-    <t>20002002</t>
-  </si>
-  <si>
-    <t>1549,1,-541</t>
-  </si>
-  <si>
-    <t>20002003</t>
-  </si>
-  <si>
-    <t>将军·希尔</t>
-  </si>
-  <si>
-    <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124,50000002,41001001,41001002,41001003,41001101,41001102,41001103</t>
-  </si>
-  <si>
-    <t>1462,1,-483</t>
-  </si>
-  <si>
-    <t>20002004</t>
-  </si>
-  <si>
-    <t>探路的军士</t>
-  </si>
-  <si>
-    <t>30020107,30020108,30020109,30020110</t>
-  </si>
-  <si>
-    <t>1373,1,-902</t>
-  </si>
-  <si>
-    <t>20002005</t>
-  </si>
-  <si>
-    <t>幸存者</t>
-  </si>
-  <si>
-    <t>30020111,30020112,30020113,30020114,30020115,30020116,30020117</t>
-  </si>
-  <si>
-    <t>1589,1,-693</t>
-  </si>
-  <si>
-    <t>20002006</t>
-  </si>
-  <si>
-    <t>走失的士兵</t>
-  </si>
-  <si>
-    <t>30020118,30020119,30020120,30020121,30020122,30020123,30020124</t>
-  </si>
-  <si>
-    <t>1414,1,-674</t>
-  </si>
-  <si>
-    <t>20002007</t>
-  </si>
-  <si>
-    <t>20002008</t>
-  </si>
-  <si>
-    <t>20002009</t>
-  </si>
-  <si>
-    <t>1261,1,-729</t>
-  </si>
-  <si>
-    <t>20003001</t>
-  </si>
-  <si>
-    <t>1471,1,-360</t>
-  </si>
-  <si>
-    <t>20003002</t>
-  </si>
-  <si>
-    <t>1464,1,-495</t>
-  </si>
-  <si>
-    <t>20003003</t>
-  </si>
-  <si>
-    <t>镇长卡瑟</t>
-  </si>
-  <si>
-    <t>1635,1,-430</t>
-  </si>
-  <si>
-    <t>20003004</t>
-  </si>
-  <si>
-    <t>侍卫卡夫</t>
-  </si>
-  <si>
-    <t>30030009,30030010,30030011,30030012,30030013,30030014</t>
-  </si>
-  <si>
-    <t>1459,1,-544</t>
-  </si>
-  <si>
-    <t>20003005</t>
-  </si>
-  <si>
-    <t>冰雪之路引路人</t>
-  </si>
-  <si>
-    <t>30030023,30030024,30030025,30030026,30030027,30030028,30030029</t>
-  </si>
-  <si>
-    <t>1372,1,-715</t>
-  </si>
-  <si>
-    <t>20003006</t>
-  </si>
-  <si>
-    <t>1588,1,-750</t>
-  </si>
-  <si>
-    <t>20003007</t>
-  </si>
-  <si>
-    <t>20003008</t>
-  </si>
-  <si>
-    <t>20003009</t>
-  </si>
-  <si>
-    <t>魔穴守护人</t>
-  </si>
-  <si>
-    <t>30030030,30030031,30030032,30030033,30030034</t>
-  </si>
-  <si>
-    <t>18,1,-7500</t>
-  </si>
-  <si>
-    <t>20003010</t>
-  </si>
-  <si>
-    <t>瑞斯</t>
-  </si>
-  <si>
-    <t>30030015,30030016,30030017,30030018,30030019,30030020,30030021,30030022</t>
-  </si>
-  <si>
-    <t>191,1,-339</t>
-  </si>
-  <si>
-    <t>20004001</t>
-  </si>
-  <si>
-    <t>1787,1,-574</t>
-  </si>
-  <si>
-    <t>20004002</t>
-  </si>
-  <si>
-    <t>1623,1,-581</t>
-  </si>
-  <si>
-    <t>20004003</t>
-  </si>
-  <si>
-    <t>镇长莫林</t>
-  </si>
-  <si>
-    <t>30040001,30040002,30040003,30040004,30040005,30040006,30040007,30040008,30040009,30040022,30040023,30040029,30040030,30040031,30040032,30040033</t>
-  </si>
-  <si>
-    <t>1878,1,-570</t>
-  </si>
-  <si>
-    <t>20004005</t>
-  </si>
-  <si>
-    <t>森林守护人</t>
-  </si>
-  <si>
-    <t>30040010,30040011,30040012,30040013,30040014,30040015,30040016</t>
-  </si>
-  <si>
-    <t>170,1,-768</t>
-  </si>
-  <si>
-    <t>20004006</t>
-  </si>
-  <si>
-    <t>矿工哈登</t>
-  </si>
-  <si>
-    <t>30040017,30040018,30040019,30040020,30040021</t>
-  </si>
-  <si>
-    <t>278,1,-666</t>
-  </si>
-  <si>
-    <t>20004007</t>
-  </si>
-  <si>
-    <t>20004008</t>
-  </si>
-  <si>
-    <t>20004009</t>
-  </si>
-  <si>
-    <t>峡谷护卫</t>
-  </si>
-  <si>
-    <t>30040024,30040025,30040026,30040027</t>
-  </si>
-  <si>
-    <t>143,2,-2681</t>
-  </si>
-  <si>
-    <t>20004010</t>
-  </si>
-  <si>
-    <t>裂谷护卫</t>
-  </si>
-  <si>
-    <t>30040028</t>
-  </si>
-  <si>
-    <t>232,2,-10</t>
-  </si>
-  <si>
-    <t>20005001</t>
-  </si>
-  <si>
-    <t>912,0,-1707</t>
-  </si>
-  <si>
-    <t>20005002</t>
-  </si>
-  <si>
-    <t>20005003</t>
-  </si>
-  <si>
-    <t>镇长乌尔</t>
-  </si>
-  <si>
-    <t>30050001,30050002,30050003,30050004,30050005,30050006,30050007,30050008,41004001,41004002,41004003,41004101,41004102,41004103,30050023</t>
-  </si>
-  <si>
-    <t>228,0,-620</t>
-  </si>
-  <si>
-    <t>20005004</t>
-  </si>
-  <si>
-    <t>卡琳娜</t>
-  </si>
-  <si>
-    <t>30050009,30050010,30050011,30050012,30050013,30050014</t>
-  </si>
-  <si>
-    <t>1406,0,-6651</t>
-  </si>
-  <si>
-    <t>20005005</t>
-  </si>
-  <si>
-    <t>卡尔</t>
-  </si>
-  <si>
-    <t>20005006</t>
-  </si>
-  <si>
-    <t>潜伏者·乌利兹</t>
-  </si>
-  <si>
-    <t>30050015,30050016,30050017,30050018,30050019,30050020,30050021,30050022</t>
-  </si>
-  <si>
-    <t>1149,0,-6951</t>
-  </si>
-  <si>
-    <t>20005007</t>
-  </si>
-  <si>
-    <t>20005008</t>
-  </si>
-  <si>
-    <t>圣光城装备老板</t>
-  </si>
-  <si>
-    <t>我这里的货物物美价廉!赶紧来看看有什么需要的,过段时间可不是这个价格呦！</t>
-  </si>
-  <si>
-    <t>圣光城药店老板</t>
-  </si>
-  <si>
-    <t>如果你在野外受伤了,赶紧来我这里买点药,保证喝完精神焕发</t>
-  </si>
-  <si>
-    <t>圣恩·帕托</t>
-  </si>
-  <si>
-    <t>在这个圣光城里,我时刻都感受到神圣的力量</t>
-  </si>
-  <si>
-    <t>圣恩·乌尔</t>
-  </si>
-  <si>
-    <t>我们不能在这样懦弱下去了,我们要复仇你明白嘛？</t>
-  </si>
-  <si>
-    <t>圣恩·瑞儿</t>
-  </si>
-  <si>
-    <t>听过国王马上要下令进攻恶魔军团了,我们应该做好准备！</t>
-  </si>
-  <si>
-    <t>别说话,这里需要安静！</t>
-  </si>
-  <si>
-    <t>小龟赛跑大使</t>
-  </si>
-  <si>
-    <t>-844,1,-436</t>
-  </si>
-  <si>
-    <t>小龟1号</t>
-  </si>
-  <si>
-    <t>-529,1,-548</t>
-  </si>
-  <si>
-    <t>我年轻力胜,获胜最终胜利的一定是我！</t>
-  </si>
-  <si>
-    <t>小龟2号</t>
-  </si>
-  <si>
-    <t>-205,1,-548</t>
-  </si>
-  <si>
-    <t>我是来自沙漠的龟,这么热的天获胜最终胜利的一定是我！</t>
-  </si>
-  <si>
-    <t>小龟3号</t>
-  </si>
-  <si>
-    <t>92,1,-548</t>
-  </si>
-  <si>
-    <t>我拥有丰富的赛龟经验,获胜最终胜利的一定是我！</t>
-  </si>
-  <si>
-    <t>小龟一号选手</t>
-  </si>
-  <si>
-    <t>20000,5000,5000</t>
-  </si>
-  <si>
-    <t>-2.46;3.55;97.41</t>
-  </si>
-  <si>
-    <t>小龟二号选手</t>
-  </si>
-  <si>
-    <t>-529,1,-248</t>
-  </si>
-  <si>
-    <t>小龟三号选手</t>
-  </si>
-  <si>
-    <t>92,-1,-5248</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>30000001</t>
-  </si>
-  <si>
-    <t>农场管理员</t>
-  </si>
-  <si>
-    <t>1046,0,-1876</t>
-  </si>
-  <si>
-    <t>30000002</t>
-  </si>
-  <si>
-    <t>牧场管理员</t>
-  </si>
-  <si>
-    <t>1140,0,-1802</t>
-  </si>
-  <si>
-    <t>30000003</t>
-  </si>
-  <si>
-    <t>家园管家</t>
-  </si>
-  <si>
-    <t>30000004</t>
-  </si>
-  <si>
-    <t>家园公告牌</t>
-  </si>
-  <si>
-    <t>30000005</t>
-  </si>
-  <si>
-    <t>采购管理员</t>
-  </si>
-  <si>
-    <t>1434,0,-1282</t>
-  </si>
-  <si>
-    <t>30000006</t>
-  </si>
-  <si>
-    <t>家园存放员</t>
-  </si>
-  <si>
-    <t>1534,0,-1082</t>
-  </si>
-  <si>
-    <t>30000007</t>
-  </si>
-  <si>
-    <t>家园士兵</t>
-  </si>
-  <si>
-    <t>1634,0,-882</t>
-  </si>
-  <si>
-    <t>30000008</t>
-  </si>
-  <si>
-    <t>1734,0,-682</t>
-  </si>
-  <si>
-    <t>30000009</t>
-  </si>
-  <si>
-    <t>美味大师</t>
-  </si>
-  <si>
-    <t>1784,0,-1782</t>
-  </si>
-  <si>
-    <t>30000010</t>
-  </si>
-  <si>
-    <t>家园宠物管理员</t>
-  </si>
-  <si>
-    <t>1834,0,-1482</t>
-  </si>
-  <si>
-    <t>30000011</t>
-  </si>
-  <si>
-    <t>装备宠物加锁</t>
-  </si>
-  <si>
-    <t>1900,0,-1282</t>
-  </si>
-  <si>
-    <t>30000013</t>
-  </si>
-  <si>
-    <t>家园商人</t>
-  </si>
-  <si>
-    <t>1950,0,-1082</t>
-  </si>
-  <si>
-    <t>30000014</t>
-  </si>
-  <si>
-    <t>藏宝图生活技能仓库</t>
-  </si>
-  <si>
-    <t>2000,0,-882</t>
-  </si>
-  <si>
-    <t>30000015</t>
-  </si>
-  <si>
-    <t>装备增幅</t>
-  </si>
-  <si>
-    <t>2150,0,-682</t>
-  </si>
-  <si>
-    <t>30000016</t>
-  </si>
-  <si>
-    <t>家园觉醒大师</t>
-  </si>
-  <si>
-    <t>2559,0,-707</t>
-  </si>
-  <si>
-    <t>40000001</t>
-  </si>
-  <si>
-    <t>战场招募·猎魔</t>
-  </si>
-  <si>
-    <t>1449,0,-1560</t>
-  </si>
-  <si>
-    <t>40000002</t>
-  </si>
-  <si>
-    <t>战场招募·曙光</t>
-  </si>
-  <si>
-    <t>2111,0,-937</t>
-  </si>
-  <si>
-    <t>40000003</t>
-  </si>
-  <si>
-    <t>神秘之门</t>
-  </si>
-  <si>
-    <t>56,0,-1330</t>
-  </si>
-  <si>
-    <t>宝藏之地</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>密境传送</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务公告板</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>2314,0,-4370</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-97,0,-1436</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_Mail</t>
-  </si>
-  <si>
-    <t>NPC_Pet</t>
-  </si>
-  <si>
-    <t>NPC_CangKu</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>1694,134,-2903</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_Start</t>
-  </si>
-  <si>
-    <t>-2350,0,-3076</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_FrogPerson</t>
-  </si>
-  <si>
-    <t>-948,0,-2401</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_BearPerson</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>5235,0,-2423</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_BulletionBoard</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>6378,0,-5115</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5745,128,-4704</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_ChuanSong</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5879,0,1406</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国王-凯恩</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_King</t>
-  </si>
-  <si>
-    <t>894,188,4336</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎你来到天空之城,我的子民!</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>2513,0,-1741</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>走失的村民</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒谷村长</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1485,166,2637</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-58,1732,96</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒地探险者</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后的卫士</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>4678,-38,-1606</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠猎手-安娜</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗迹挖掘者</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>1308,43,696</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>5518,-57,-72</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠老者-加尔</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1749,635,19504</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>探险者-奎恩</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>将军-巴斯</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>360,161,-432</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>山谷长者</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤的魔法师</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013,235,-13507</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-9444,-86,-11746</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10006</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险者-鲁维</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>精疲力尽的矿工</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-860,-97,-12378</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大魔法师-恩科</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10008</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇者-库里</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,2,-2323</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪地狩猎人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>2084,0,1792</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭司-法克</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2364,45,635</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰宫护卫长</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>将军-库克</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>1694,2,-135</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>影月使者-维纶</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>2569,29,3806</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>2282,13,-1805</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>仪式魔法师</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后的村民</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>302,1209,-3364</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护者-凯恩</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>3393,608,-797</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>赏金狩猎者</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-13,647,2556</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4898,0,-114</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-430,183,181</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3814,-77,-15853</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>5467,612,-4138</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>3295,166,-2151</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038,41002001,41002002,41002003,41002101,41002102,41002103,41003001,41003002,41003003,41003101,41003102,41003103</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>102001,102002,102003,102004,102005,102006,102007,102008</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>102009,102010,102011,102012,102013,102014,102015</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>102016,102017,102018,102019,102020,102021,102022</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>102023,102024,102025,102026,102027,102028,102029</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>102030,102031,102032,102033,102034,102035,102036</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>103008,103009,103010,103011,103012,103013,103014</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>103015,103016,103017,103018,103019,103020,103021</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>103022,103023,103024,103025,103026,103027,103028</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>103029,103030,103031,103032,103033,103034,103035,103036,103037,103038</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>103001,103002,103003,103004,103005,103006,103007</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>100009,100010,100011,100012</t>
-  </si>
-  <si>
-    <t>100015,100016,100017,100018,100019</t>
-  </si>
-  <si>
-    <t>100022,100023,100024,100025,100026,100027</t>
-  </si>
-  <si>
-    <t>100028,100029,100030,100031,100032,100033,100034,100035,100036</t>
-  </si>
-  <si>
-    <t>100002,100003,100004,100005,100006,100007,100008,100013,100014</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>104001,104002,104003,104004,104005,104006,104007,104008</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>104009,104010,104011,104012,104013,104014,104015,104016</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>104017,104018,104019,104020,104021,104022,104023</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>104024,104025,104026,104027,104028,104029,104030,104031</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>104032,104033,104034,104035,104036,104037,104038,104039,104040,104041,104042</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>105001,105002,105003,105004,105005,105006,105007,105008</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>105009,105010,105011,105012,105013,105014,105015</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>105016,105017,105018,105019,105020,105021,105022,105023</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>105024,105025,105026,105027,105028,105029,105030,105031,105032,105033,105034,105035</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>105036</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001,100020,100021,105037,105038,105039</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>-3131,135,2254</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1801,135,-253</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>-3145,135,-243</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵禁秘塔</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>巅峰试炼</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾光收集</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3098,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3366,10 +3375,10 @@
       <c r="J6" s="40"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N6" s="39">
         <v>90</v>
@@ -3411,10 +3420,10 @@
       <c r="J7" s="40"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="M7" s="43" t="s">
         <v>482</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>483</v>
       </c>
       <c r="N7" s="39">
         <v>186</v>
@@ -3452,10 +3461,10 @@
       <c r="J8" s="40"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N8" s="39">
         <v>-60</v>
@@ -3493,10 +3502,10 @@
       <c r="J9" s="40"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N9" s="39">
         <v>180</v>
@@ -3536,10 +3545,10 @@
       <c r="J10" s="40"/>
       <c r="K10" s="39"/>
       <c r="L10" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="M10" s="43" t="s">
         <v>478</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>479</v>
       </c>
       <c r="N10" s="39">
         <v>-60</v>
@@ -3562,7 +3571,7 @@
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39" t="s">
-        <v>67</v>
+        <v>588</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="39">
@@ -3577,10 +3586,10 @@
       <c r="J11" s="40"/>
       <c r="K11" s="39"/>
       <c r="L11" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="M11" s="43" t="s">
         <v>480</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>481</v>
       </c>
       <c r="N11" s="39">
         <v>90</v>
@@ -3603,7 +3612,7 @@
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F12" s="50">
         <v>0</v>
@@ -3612,15 +3621,15 @@
         <v>1024</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="L12" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N12" s="39">
         <v>71</v>
@@ -3643,7 +3652,7 @@
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="39">
@@ -3658,10 +3667,10 @@
       <c r="J13" s="40"/>
       <c r="K13" s="39"/>
       <c r="L13" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N13" s="39">
         <v>0</v>
@@ -3686,7 +3695,7 @@
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39" t="s">
-        <v>156</v>
+        <v>589</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="39">
@@ -3701,10 +3710,10 @@
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="M14" s="43" t="s">
         <v>489</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>490</v>
       </c>
       <c r="N14" s="39">
         <v>90</v>
@@ -3713,7 +3722,7 @@
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
       <c r="R14" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S14" s="42"/>
       <c r="T14" s="42"/>
@@ -3729,7 +3738,7 @@
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="39" t="s">
-        <v>165</v>
+        <v>590</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="39">
@@ -3744,10 +3753,10 @@
       <c r="J15" s="40"/>
       <c r="K15" s="39"/>
       <c r="L15" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="M15" s="43" t="s">
         <v>484</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>485</v>
       </c>
       <c r="N15" s="39">
         <v>165</v>
@@ -3769,29 +3778,29 @@
         <v>1011</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F16" s="13"/>
       <c r="H16" s="48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="M16" s="31" t="s">
         <v>492</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>493</v>
       </c>
       <c r="N16" s="5">
         <v>178</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="3:25" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3800,7 +3809,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="39">
@@ -3810,10 +3819,10 @@
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="L17" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="M17" s="49" t="s">
         <v>580</v>
-      </c>
-      <c r="M17" s="49" t="s">
-        <v>581</v>
       </c>
       <c r="N17" s="38">
         <v>145</v>
@@ -3822,7 +3831,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -3838,7 +3847,7 @@
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="39">
@@ -3849,10 +3858,10 @@
       <c r="J18" s="40"/>
       <c r="K18" s="41"/>
       <c r="L18" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N18" s="38">
         <v>45</v>
@@ -3861,7 +3870,7 @@
       <c r="P18" s="23"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -3877,7 +3886,7 @@
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="39">
@@ -3888,10 +3897,10 @@
       <c r="J19" s="40"/>
       <c r="K19" s="41"/>
       <c r="L19" s="37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N19" s="38">
         <v>0</v>
@@ -3900,7 +3909,7 @@
       <c r="P19" s="23"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -4016,7 +4025,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="H24" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -4037,18 +4046,18 @@
         <v>1000201</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F25" s="13"/>
       <c r="H25" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I25" s="4"/>
       <c r="L25" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N25" s="5">
         <v>180</v>
@@ -4061,18 +4070,18 @@
         <v>1000301</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F26" s="13"/>
       <c r="H26" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I26" s="4"/>
       <c r="L26" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N26" s="5">
         <v>-306</v>
@@ -4085,18 +4094,18 @@
         <v>1000401</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F27" s="13"/>
       <c r="H27" s="48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I27" s="4"/>
       <c r="L27" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N27" s="5">
         <v>-183</v>
@@ -4109,18 +4118,18 @@
         <v>1000501</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F28" s="13"/>
       <c r="H28" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I28" s="4"/>
       <c r="L28" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N28" s="5">
         <v>-180</v>
@@ -4133,18 +4142,18 @@
         <v>2000101</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F29" s="13"/>
       <c r="H29" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I29" s="4"/>
       <c r="L29" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N29" s="5">
         <v>-155</v>
@@ -4157,18 +4166,18 @@
         <v>2000201</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F30" s="13"/>
       <c r="H30" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I30" s="4"/>
       <c r="L30" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N30" s="5">
         <v>-274</v>
@@ -4181,18 +4190,18 @@
         <v>2000301</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F31" s="13"/>
       <c r="H31" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I31" s="4"/>
       <c r="L31" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N31" s="5">
         <v>-223</v>
@@ -4205,18 +4214,18 @@
         <v>2000401</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F32" s="13"/>
       <c r="H32" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I32" s="4"/>
       <c r="L32" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N32" s="5">
         <v>-87</v>
@@ -4229,18 +4238,18 @@
         <v>2000501</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F33" s="13"/>
       <c r="H33" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I33" s="4"/>
       <c r="L33" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N33" s="5">
         <v>-45</v>
@@ -4253,18 +4262,18 @@
         <v>3000101</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F34" s="13"/>
       <c r="H34" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I34" s="4"/>
       <c r="L34" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N34" s="5">
         <v>-200</v>
@@ -4277,18 +4286,18 @@
         <v>3000201</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F35" s="13"/>
       <c r="H35" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I35" s="4"/>
       <c r="L35" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N35" s="5">
         <v>-144</v>
@@ -4301,18 +4310,18 @@
         <v>3000301</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F36" s="13"/>
       <c r="H36" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I36" s="4"/>
       <c r="L36" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N36" s="5">
         <v>-180</v>
@@ -4325,18 +4334,18 @@
         <v>3000401</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F37" s="13"/>
       <c r="H37" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I37" s="4"/>
       <c r="L37" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M37" s="31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N37" s="5">
         <v>-211</v>
@@ -4349,18 +4358,18 @@
         <v>3000501</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I38" s="4"/>
       <c r="L38" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N38" s="5">
         <v>-215</v>
@@ -4373,18 +4382,18 @@
         <v>4000101</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F39" s="13"/>
       <c r="H39" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I39" s="4"/>
       <c r="L39" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N39" s="5">
         <v>-157</v>
@@ -4397,18 +4406,18 @@
         <v>4000102</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F40" s="13"/>
       <c r="H40" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I40" s="4"/>
       <c r="L40" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N40" s="5">
         <v>-60</v>
@@ -4421,18 +4430,18 @@
         <v>4000103</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F41" s="13"/>
       <c r="H41" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I41" s="4"/>
       <c r="L41" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N41" s="5">
         <v>-187</v>
@@ -4445,18 +4454,18 @@
         <v>4000104</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F42" s="13"/>
       <c r="H42" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I42" s="4"/>
       <c r="L42" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N42" s="5">
         <v>-90</v>
@@ -4469,18 +4478,18 @@
         <v>4000105</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F43" s="13"/>
       <c r="H43" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I43" s="4"/>
       <c r="L43" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N43" s="5">
         <v>-94</v>
@@ -4493,18 +4502,18 @@
         <v>5000101</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F44" s="13"/>
       <c r="H44" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I44" s="4"/>
       <c r="L44" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N44" s="5">
         <v>-85</v>
@@ -4517,18 +4526,18 @@
         <v>5000201</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F45" s="13"/>
       <c r="H45" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I45" s="4"/>
       <c r="L45" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N45" s="5">
         <v>-280</v>
@@ -4541,18 +4550,18 @@
         <v>5000301</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F46" s="13"/>
       <c r="H46" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I46" s="4"/>
       <c r="L46" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N46" s="5">
         <v>-180</v>
@@ -4565,18 +4574,18 @@
         <v>5000401</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F47" s="13"/>
       <c r="H47" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I47" s="4"/>
       <c r="L47" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M47" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N47" s="5">
         <v>-152</v>
@@ -4589,18 +4598,18 @@
         <v>5000501</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F48" s="13"/>
       <c r="H48" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I48" s="4"/>
       <c r="L48" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M48" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N48" s="5">
         <v>-156</v>
@@ -5752,7 +5761,7 @@
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="16">
@@ -5792,7 +5801,7 @@
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="16">
@@ -5807,7 +5816,7 @@
         <v>51</v>
       </c>
       <c r="M77" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N77" s="14">
         <v>90</v>
@@ -5816,7 +5825,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
@@ -5828,11 +5837,11 @@
     </row>
     <row r="78" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="16">
@@ -5851,7 +5860,7 @@
         <v>51</v>
       </c>
       <c r="M78" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N78" s="14">
         <v>180</v>
@@ -5870,11 +5879,11 @@
     </row>
     <row r="79" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="16">
@@ -5891,7 +5900,7 @@
         <v>51</v>
       </c>
       <c r="M79" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N79" s="14">
         <v>0</v>
@@ -5910,11 +5919,11 @@
     </row>
     <row r="80" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="16">
@@ -5931,7 +5940,7 @@
         <v>51</v>
       </c>
       <c r="M80" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N80" s="14">
         <v>270</v>
@@ -5940,7 +5949,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -5952,11 +5961,11 @@
     </row>
     <row r="81" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="16">
@@ -5973,7 +5982,7 @@
         <v>51</v>
       </c>
       <c r="M81" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N81" s="14">
         <v>-146</v>
@@ -5982,7 +5991,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -5994,11 +6003,11 @@
     </row>
     <row r="82" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="16">
@@ -6011,13 +6020,13 @@
         <v>134</v>
       </c>
       <c r="J82" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M82" s="34" t="s">
         <v>177</v>
-      </c>
-      <c r="L82" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M82" s="34" t="s">
-        <v>178</v>
       </c>
       <c r="N82" s="14">
         <v>-146</v>
@@ -6026,7 +6035,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
@@ -6038,11 +6047,11 @@
     </row>
     <row r="83" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F83" s="15">
         <v>50000001</v>
@@ -6061,7 +6070,7 @@
         <v>51</v>
       </c>
       <c r="M83" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N83" s="14">
         <v>106</v>
@@ -6080,11 +6089,11 @@
     </row>
     <row r="84" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F84" s="15">
         <v>0</v>
@@ -6103,7 +6112,7 @@
         <v>51</v>
       </c>
       <c r="M84" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N84" s="14">
         <v>-90</v>
@@ -6112,7 +6121,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -6124,11 +6133,11 @@
     </row>
     <row r="85" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F85" s="15">
         <v>0</v>
@@ -6147,7 +6156,7 @@
         <v>51</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N85" s="14">
         <v>90</v>
@@ -6156,7 +6165,7 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -6168,11 +6177,11 @@
     </row>
     <row r="86" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F86" s="15">
         <v>60000001</v>
@@ -6191,7 +6200,7 @@
         <v>51</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N86" s="14">
         <v>180</v>
@@ -6210,11 +6219,11 @@
     </row>
     <row r="87" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F87" s="15">
         <v>0</v>
@@ -6233,7 +6242,7 @@
         <v>51</v>
       </c>
       <c r="M87" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N87" s="14">
         <v>-90</v>
@@ -6242,7 +6251,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -6254,11 +6263,11 @@
     </row>
     <row r="88" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="16">
@@ -6271,7 +6280,7 @@
         <v>51</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N88" s="14">
         <v>90</v>
@@ -6280,7 +6289,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -6294,11 +6303,11 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F89" s="15">
         <v>0</v>
@@ -6318,7 +6327,7 @@
         <v>51</v>
       </c>
       <c r="M89" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N89" s="14">
         <v>90</v>
@@ -6335,11 +6344,11 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F90" s="15">
         <v>0</v>
@@ -6359,14 +6368,14 @@
         <v>51</v>
       </c>
       <c r="M90" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N90" s="14">
         <v>-140</v>
       </c>
       <c r="O90" s="14"/>
       <c r="R90" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U90" s="14"/>
       <c r="V90" s="14"/>
@@ -6378,11 +6387,11 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F91" s="15">
         <v>0</v>
@@ -6402,7 +6411,7 @@
         <v>51</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N91" s="14">
         <v>90</v>
@@ -6419,11 +6428,11 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F92" s="15">
         <v>0</v>
@@ -6443,7 +6452,7 @@
         <v>51</v>
       </c>
       <c r="M92" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N92" s="14">
         <v>-180</v>
@@ -6460,11 +6469,11 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F93" s="15">
         <v>0</v>
@@ -6484,7 +6493,7 @@
         <v>51</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N93" s="14">
         <v>30</v>
@@ -6501,11 +6510,11 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F94" s="15">
         <v>0</v>
@@ -6525,7 +6534,7 @@
         <v>51</v>
       </c>
       <c r="M94" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N94" s="14">
         <v>130</v>
@@ -6540,11 +6549,11 @@
     </row>
     <row r="95" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F95" s="15">
         <v>10001101</v>
@@ -6563,7 +6572,7 @@
         <v>51</v>
       </c>
       <c r="M95" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N95" s="14">
         <v>60</v>
@@ -6586,7 +6595,7 @@
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F96" s="15">
         <v>10001201</v>
@@ -6605,7 +6614,7 @@
         <v>51</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N96" s="14">
         <v>-45</v>
@@ -6628,12 +6637,12 @@
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="16"/>
       <c r="H97" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>134</v>
@@ -6643,7 +6652,7 @@
         <v>51</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N97" s="14">
         <v>180</v>
@@ -6652,7 +6661,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -6668,7 +6677,7 @@
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="16"/>
@@ -6683,7 +6692,7 @@
         <v>51</v>
       </c>
       <c r="M98" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N98" s="14">
         <v>90</v>
@@ -6692,7 +6701,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -6708,7 +6717,7 @@
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="16"/>
@@ -6723,7 +6732,7 @@
         <v>51</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N99" s="14">
         <v>-45</v>
@@ -6732,7 +6741,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -6748,7 +6757,7 @@
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="16"/>
@@ -6763,7 +6772,7 @@
         <v>51</v>
       </c>
       <c r="M100" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N100" s="14">
         <v>45</v>
@@ -6772,7 +6781,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -6788,12 +6797,12 @@
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="16"/>
       <c r="H101" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I101" s="18" t="s">
         <v>134</v>
@@ -6803,7 +6812,7 @@
         <v>51</v>
       </c>
       <c r="M101" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N101" s="14">
         <v>150</v>
@@ -6812,7 +6821,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -6828,7 +6837,7 @@
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="16"/>
@@ -6843,7 +6852,7 @@
         <v>51</v>
       </c>
       <c r="M102" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N102" s="14">
         <v>-155</v>
@@ -6852,7 +6861,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -6868,12 +6877,12 @@
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
       <c r="H103" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>134</v>
@@ -6883,7 +6892,7 @@
         <v>51</v>
       </c>
       <c r="M103" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N103" s="14">
         <v>35</v>
@@ -6892,7 +6901,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -6908,7 +6917,7 @@
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="16"/>
@@ -6923,7 +6932,7 @@
         <v>51</v>
       </c>
       <c r="M104" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N104" s="14">
         <v>180</v>
@@ -6932,7 +6941,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -6948,12 +6957,12 @@
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="16"/>
       <c r="H105" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>134</v>
@@ -6963,7 +6972,7 @@
         <v>51</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N105" s="14">
         <v>-180</v>
@@ -6972,7 +6981,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -6988,12 +6997,12 @@
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="16"/>
       <c r="H106" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>134</v>
@@ -7003,7 +7012,7 @@
         <v>51</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N106" s="14">
         <v>80</v>
@@ -7012,7 +7021,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -7028,12 +7037,12 @@
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>134</v>
@@ -7043,7 +7052,7 @@
         <v>51</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N107" s="14">
         <v>180</v>
@@ -7052,7 +7061,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -7068,12 +7077,12 @@
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="16"/>
       <c r="H108" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>134</v>
@@ -7083,7 +7092,7 @@
         <v>51</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N108" s="14">
         <v>180</v>
@@ -7092,7 +7101,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -7108,12 +7117,12 @@
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
       <c r="H109" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>134</v>
@@ -7123,7 +7132,7 @@
         <v>51</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N109" s="14">
         <v>128</v>
@@ -7132,7 +7141,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
@@ -7148,7 +7157,7 @@
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="16"/>
@@ -7163,7 +7172,7 @@
         <v>51</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N110" s="14">
         <v>180</v>
@@ -7172,7 +7181,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
@@ -7188,12 +7197,12 @@
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
       <c r="H111" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>134</v>
@@ -7203,7 +7212,7 @@
         <v>51</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N111" s="14">
         <v>120</v>
@@ -7212,7 +7221,7 @@
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
       <c r="R111" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -7228,7 +7237,7 @@
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
@@ -7243,7 +7252,7 @@
         <v>51</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N112" s="14">
         <v>180</v>
@@ -7252,7 +7261,7 @@
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
@@ -7268,12 +7277,12 @@
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="16"/>
       <c r="H113" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>134</v>
@@ -7283,7 +7292,7 @@
         <v>51</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N113" s="14">
         <v>-180</v>
@@ -7292,7 +7301,7 @@
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -7308,7 +7317,7 @@
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="16"/>
@@ -7323,7 +7332,7 @@
         <v>51</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N114" s="14">
         <v>180</v>
@@ -7332,7 +7341,7 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -7348,7 +7357,7 @@
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
@@ -7363,7 +7372,7 @@
         <v>51</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N115" s="14">
         <v>-180</v>
@@ -7372,7 +7381,7 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -7388,12 +7397,12 @@
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="16"/>
       <c r="H116" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>134</v>
@@ -7403,7 +7412,7 @@
         <v>51</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N116" s="14">
         <v>-106</v>
@@ -7412,7 +7421,7 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
@@ -7428,7 +7437,7 @@
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="16">
@@ -7445,7 +7454,7 @@
         <v>51</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N117" s="14">
         <v>180</v>
@@ -7483,7 +7492,7 @@
         <v>51</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N118" s="14">
         <v>-152</v>
@@ -7502,7 +7511,7 @@
     </row>
     <row r="119" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="15" t="s">
@@ -7525,7 +7534,7 @@
         <v>51</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N119" s="14">
         <v>-147</v>
@@ -7544,11 +7553,11 @@
     </row>
     <row r="120" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F120" s="15">
         <v>10002201</v>
@@ -7567,7 +7576,7 @@
         <v>51</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N120" s="14">
         <v>-129</v>
@@ -7586,16 +7595,16 @@
     </row>
     <row r="121" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="16"/>
       <c r="H121" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>134</v>
@@ -7605,7 +7614,7 @@
         <v>51</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N121" s="14">
         <v>-131</v>
@@ -7614,7 +7623,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -7626,16 +7635,16 @@
     </row>
     <row r="122" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="16"/>
       <c r="H122" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>134</v>
@@ -7645,7 +7654,7 @@
         <v>51</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N122" s="14">
         <v>180</v>
@@ -7654,7 +7663,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -7666,16 +7675,16 @@
     </row>
     <row r="123" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="16"/>
       <c r="H123" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>134</v>
@@ -7685,7 +7694,7 @@
         <v>51</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N123" s="14">
         <v>180</v>
@@ -7694,7 +7703,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -7706,16 +7715,16 @@
     </row>
     <row r="124" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="16"/>
       <c r="H124" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>134</v>
@@ -7725,7 +7734,7 @@
         <v>51</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N124" s="14">
         <v>180</v>
@@ -7734,7 +7743,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -7746,11 +7755,11 @@
     </row>
     <row r="125" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="16"/>
@@ -7765,7 +7774,7 @@
         <v>51</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N125" s="14">
         <v>180</v>
@@ -7774,7 +7783,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
@@ -7786,11 +7795,11 @@
     </row>
     <row r="126" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="16"/>
@@ -7805,7 +7814,7 @@
         <v>51</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N126" s="14">
         <v>180</v>
@@ -7814,7 +7823,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
@@ -7826,11 +7835,11 @@
     </row>
     <row r="127" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="16"/>
@@ -7845,7 +7854,7 @@
         <v>51</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N127" s="14">
         <v>27</v>
@@ -7854,7 +7863,7 @@
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
       <c r="R127" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -7866,7 +7875,7 @@
     </row>
     <row r="128" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="15" t="s">
@@ -7889,7 +7898,7 @@
         <v>51</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N128" s="14">
         <v>123</v>
@@ -7908,11 +7917,11 @@
     </row>
     <row r="129" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F129" s="15">
         <v>10003201</v>
@@ -7931,7 +7940,7 @@
         <v>51</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N129" s="14">
         <v>45</v>
@@ -7950,16 +7959,16 @@
     </row>
     <row r="130" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="16"/>
       <c r="H130" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I130" s="18" t="s">
         <v>134</v>
@@ -7969,7 +7978,7 @@
         <v>51</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N130" s="14">
         <v>90</v>
@@ -7978,7 +7987,7 @@
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
@@ -7990,16 +7999,16 @@
     </row>
     <row r="131" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="16"/>
       <c r="H131" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I131" s="18" t="s">
         <v>134</v>
@@ -8009,7 +8018,7 @@
         <v>51</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N131" s="14">
         <v>180</v>
@@ -8018,7 +8027,7 @@
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
@@ -8030,16 +8039,16 @@
     </row>
     <row r="132" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="16"/>
       <c r="H132" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I132" s="18" t="s">
         <v>134</v>
@@ -8049,7 +8058,7 @@
         <v>51</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N132" s="14">
         <v>95</v>
@@ -8058,7 +8067,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -8070,11 +8079,11 @@
     </row>
     <row r="133" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="16"/>
@@ -8089,7 +8098,7 @@
         <v>51</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N133" s="14">
         <v>-70</v>
@@ -8098,7 +8107,7 @@
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
@@ -8110,11 +8119,11 @@
     </row>
     <row r="134" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="16"/>
@@ -8129,7 +8138,7 @@
         <v>51</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N134" s="14">
         <v>180</v>
@@ -8138,7 +8147,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
@@ -8150,11 +8159,11 @@
     </row>
     <row r="135" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="16"/>
@@ -8169,7 +8178,7 @@
         <v>51</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N135" s="14">
         <v>180</v>
@@ -8178,7 +8187,7 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -8190,16 +8199,16 @@
     </row>
     <row r="136" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="16"/>
       <c r="H136" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I136" s="18" t="s">
         <v>134</v>
@@ -8209,7 +8218,7 @@
         <v>51</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N136" s="14">
         <v>-70</v>
@@ -8218,7 +8227,7 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
@@ -8230,16 +8239,16 @@
     </row>
     <row r="137" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="16"/>
       <c r="H137" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I137" s="18" t="s">
         <v>134</v>
@@ -8249,7 +8258,7 @@
         <v>51</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N137" s="14">
         <v>-180</v>
@@ -8258,7 +8267,7 @@
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
@@ -8270,7 +8279,7 @@
     </row>
     <row r="138" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="15" t="s">
@@ -8293,7 +8302,7 @@
         <v>51</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N138" s="14">
         <v>35</v>
@@ -8312,11 +8321,11 @@
     </row>
     <row r="139" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F139" s="15">
         <v>10004201</v>
@@ -8335,7 +8344,7 @@
         <v>51</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N139" s="14">
         <v>-41</v>
@@ -8354,16 +8363,16 @@
     </row>
     <row r="140" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="16"/>
       <c r="H140" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I140" s="18" t="s">
         <v>134</v>
@@ -8373,7 +8382,7 @@
         <v>51</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N140" s="14">
         <v>0</v>
@@ -8382,7 +8391,7 @@
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
@@ -8394,16 +8403,16 @@
     </row>
     <row r="141" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="16"/>
       <c r="H141" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I141" s="18" t="s">
         <v>134</v>
@@ -8413,7 +8422,7 @@
         <v>51</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N141" s="14">
         <v>101</v>
@@ -8422,7 +8431,7 @@
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
@@ -8434,16 +8443,16 @@
     </row>
     <row r="142" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="16"/>
       <c r="H142" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I142" s="18" t="s">
         <v>134</v>
@@ -8453,7 +8462,7 @@
         <v>51</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N142" s="14">
         <v>-3</v>
@@ -8462,7 +8471,7 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
@@ -8474,11 +8483,11 @@
     </row>
     <row r="143" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="16"/>
@@ -8493,7 +8502,7 @@
         <v>51</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N143" s="14">
         <v>180</v>
@@ -8502,7 +8511,7 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
@@ -8514,11 +8523,11 @@
     </row>
     <row r="144" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="16"/>
@@ -8533,7 +8542,7 @@
         <v>51</v>
       </c>
       <c r="M144" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N144" s="14">
         <v>180</v>
@@ -8542,7 +8551,7 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
@@ -8554,16 +8563,16 @@
     </row>
     <row r="145" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="16"/>
       <c r="H145" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I145" s="18" t="s">
         <v>134</v>
@@ -8573,7 +8582,7 @@
         <v>51</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N145" s="14">
         <v>-180</v>
@@ -8582,7 +8591,7 @@
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
@@ -8594,16 +8603,16 @@
     </row>
     <row r="146" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="16"/>
       <c r="H146" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I146" s="18" t="s">
         <v>134</v>
@@ -8613,7 +8622,7 @@
         <v>51</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N146" s="14">
         <v>83</v>
@@ -8622,7 +8631,7 @@
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
@@ -8634,7 +8643,7 @@
     </row>
     <row r="147" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="15" t="s">
@@ -8657,7 +8666,7 @@
         <v>51</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N147" s="14">
         <v>51</v>
@@ -8676,11 +8685,11 @@
     </row>
     <row r="148" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F148" s="15">
         <v>10005201</v>
@@ -8699,7 +8708,7 @@
         <v>51</v>
       </c>
       <c r="M148" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N148" s="14">
         <v>-44</v>
@@ -8718,16 +8727,16 @@
     </row>
     <row r="149" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="16"/>
       <c r="H149" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I149" s="18" t="s">
         <v>134</v>
@@ -8737,7 +8746,7 @@
         <v>51</v>
       </c>
       <c r="M149" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N149" s="14">
         <v>180</v>
@@ -8746,7 +8755,7 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
@@ -8758,16 +8767,16 @@
     </row>
     <row r="150" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="16"/>
       <c r="H150" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I150" s="18" t="s">
         <v>134</v>
@@ -8777,7 +8786,7 @@
         <v>51</v>
       </c>
       <c r="M150" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N150" s="14">
         <v>92</v>
@@ -8786,7 +8795,7 @@
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
@@ -8798,11 +8807,11 @@
     </row>
     <row r="151" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="16"/>
@@ -8817,7 +8826,7 @@
         <v>51</v>
       </c>
       <c r="M151" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N151" s="14">
         <v>180</v>
@@ -8826,7 +8835,7 @@
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
@@ -8838,16 +8847,16 @@
     </row>
     <row r="152" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="16"/>
       <c r="H152" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I152" s="18" t="s">
         <v>134</v>
@@ -8857,7 +8866,7 @@
         <v>51</v>
       </c>
       <c r="M152" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N152" s="14">
         <v>145</v>
@@ -8866,7 +8875,7 @@
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
@@ -8878,11 +8887,11 @@
     </row>
     <row r="153" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="16"/>
@@ -8897,7 +8906,7 @@
         <v>51</v>
       </c>
       <c r="M153" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N153" s="14">
         <v>180</v>
@@ -8906,7 +8915,7 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
@@ -8918,11 +8927,11 @@
     </row>
     <row r="154" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F154" s="15"/>
       <c r="G154" s="16"/>
@@ -8937,7 +8946,7 @@
         <v>51</v>
       </c>
       <c r="M154" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N154" s="14">
         <v>180</v>
@@ -8946,7 +8955,7 @@
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
@@ -8962,7 +8971,7 @@
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="16"/>
@@ -8977,7 +8986,7 @@
         <v>51</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N155" s="14">
         <v>180</v>
@@ -8986,7 +8995,7 @@
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
@@ -9002,7 +9011,7 @@
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="16"/>
@@ -9017,7 +9026,7 @@
         <v>51</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N156" s="14">
         <v>180</v>
@@ -9026,7 +9035,7 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
@@ -9042,7 +9051,7 @@
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="16"/>
@@ -9057,7 +9066,7 @@
         <v>51</v>
       </c>
       <c r="M157" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N157" s="14">
         <v>180</v>
@@ -9066,7 +9075,7 @@
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
@@ -9082,7 +9091,7 @@
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F158" s="15"/>
       <c r="G158" s="16"/>
@@ -9097,7 +9106,7 @@
         <v>51</v>
       </c>
       <c r="M158" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N158" s="14">
         <v>180</v>
@@ -9106,7 +9115,7 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
@@ -9122,7 +9131,7 @@
       </c>
       <c r="D159" s="14"/>
       <c r="E159" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="16"/>
@@ -9137,7 +9146,7 @@
         <v>51</v>
       </c>
       <c r="M159" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N159" s="14">
         <v>180</v>
@@ -9146,7 +9155,7 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
@@ -9162,7 +9171,7 @@
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F160" s="15"/>
       <c r="G160" s="16"/>
@@ -9177,7 +9186,7 @@
         <v>51</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N160" s="14">
         <v>180</v>
@@ -9186,7 +9195,7 @@
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
       <c r="R160" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
@@ -9202,7 +9211,7 @@
       </c>
       <c r="D161" s="14"/>
       <c r="E161" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="16">
@@ -9215,7 +9224,7 @@
         <v>51</v>
       </c>
       <c r="M161" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N161" s="14">
         <v>180</v>
@@ -9238,7 +9247,7 @@
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="16"/>
@@ -9249,7 +9258,7 @@
         <v>51</v>
       </c>
       <c r="M162" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N162" s="14">
         <v>0</v>
@@ -9258,7 +9267,7 @@
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
@@ -9274,7 +9283,7 @@
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F163" s="27"/>
       <c r="G163" s="16"/>
@@ -9285,7 +9294,7 @@
         <v>51</v>
       </c>
       <c r="M163" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N163" s="14">
         <v>0</v>
@@ -9294,7 +9303,7 @@
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
@@ -9310,7 +9319,7 @@
       </c>
       <c r="D164" s="14"/>
       <c r="E164" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="16"/>
@@ -9321,7 +9330,7 @@
         <v>51</v>
       </c>
       <c r="M164" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N164" s="14">
         <v>0</v>
@@ -9330,7 +9339,7 @@
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
@@ -9346,20 +9355,20 @@
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="16"/>
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
       <c r="J165" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L165" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M165" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N165" s="14">
         <v>0</v>
@@ -9368,7 +9377,7 @@
         <v>13</v>
       </c>
       <c r="P165" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" s="28"/>
@@ -9386,20 +9395,20 @@
       </c>
       <c r="D166" s="14"/>
       <c r="E166" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="16"/>
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
       <c r="J166" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L166" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M166" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N166" s="14">
         <v>0</v>
@@ -9408,7 +9417,7 @@
         <v>13</v>
       </c>
       <c r="P166" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" s="28"/>
@@ -9426,20 +9435,20 @@
       </c>
       <c r="D167" s="14"/>
       <c r="E167" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F167" s="27"/>
       <c r="G167" s="16"/>
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
       <c r="J167" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L167" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M167" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N167" s="14">
         <v>0</v>
@@ -9448,7 +9457,7 @@
         <v>13</v>
       </c>
       <c r="P167" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" s="28"/>
@@ -9462,15 +9471,15 @@
     </row>
     <row r="168" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F168" s="14">
         <v>300001</v>
@@ -9490,7 +9499,7 @@
         <v>51</v>
       </c>
       <c r="M168" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N168" s="14">
         <v>0</v>
@@ -9508,11 +9517,11 @@
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D169" s="14"/>
       <c r="E169" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="16">
@@ -9530,7 +9539,7 @@
         <v>51</v>
       </c>
       <c r="M169" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N169" s="14">
         <v>90</v>
@@ -9548,11 +9557,11 @@
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="16">
@@ -9570,7 +9579,7 @@
         <v>51</v>
       </c>
       <c r="M170" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N170" s="14">
         <v>210</v>
@@ -9587,11 +9596,11 @@
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D171" s="14"/>
       <c r="E171" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="16">
@@ -9609,7 +9618,7 @@
         <v>51</v>
       </c>
       <c r="M171" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N171" s="14">
         <v>0</v>
@@ -9624,11 +9633,11 @@
     </row>
     <row r="172" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="16">
@@ -9645,7 +9654,7 @@
         <v>51</v>
       </c>
       <c r="M172" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N172" s="14">
         <v>-100</v>
@@ -9664,11 +9673,11 @@
     </row>
     <row r="173" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="16">
@@ -9685,7 +9694,7 @@
         <v>51</v>
       </c>
       <c r="M173" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N173" s="14">
         <v>123</v>
@@ -9704,11 +9713,11 @@
     </row>
     <row r="174" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D174" s="14"/>
       <c r="E174" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="16">
@@ -9725,7 +9734,7 @@
         <v>51</v>
       </c>
       <c r="M174" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N174" s="14">
         <v>90</v>
@@ -9744,11 +9753,11 @@
     </row>
     <row r="175" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D175" s="14"/>
       <c r="E175" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="16">
@@ -9765,7 +9774,7 @@
         <v>51</v>
       </c>
       <c r="M175" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N175" s="14">
         <v>270</v>
@@ -9784,11 +9793,11 @@
     </row>
     <row r="176" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="16">
@@ -9805,7 +9814,7 @@
         <v>51</v>
       </c>
       <c r="M176" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N176" s="14">
         <v>-90</v>
@@ -9824,11 +9833,11 @@
     </row>
     <row r="177" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D177" s="14"/>
       <c r="E177" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="16">
@@ -9845,7 +9854,7 @@
         <v>51</v>
       </c>
       <c r="M177" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N177" s="14">
         <v>-150</v>
@@ -9864,11 +9873,11 @@
     </row>
     <row r="178" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D178" s="14"/>
       <c r="E178" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F178" s="14"/>
       <c r="G178" s="16">
@@ -9885,7 +9894,7 @@
         <v>51</v>
       </c>
       <c r="M178" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N178" s="16">
         <v>90</v>
@@ -9906,11 +9915,11 @@
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D179" s="14"/>
       <c r="E179" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F179" s="14">
         <v>400001</v>
@@ -9930,7 +9939,7 @@
         <v>51</v>
       </c>
       <c r="M179" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N179" s="14">
         <v>110</v>
@@ -9944,11 +9953,11 @@
     </row>
     <row r="180" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="16">
@@ -9965,7 +9974,7 @@
         <v>51</v>
       </c>
       <c r="M180" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N180" s="14">
         <v>173</v>
@@ -9984,11 +9993,11 @@
     </row>
     <row r="181" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D181" s="14"/>
       <c r="E181" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="16">
@@ -10005,7 +10014,7 @@
         <v>51</v>
       </c>
       <c r="M181" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N181" s="14">
         <v>235</v>
@@ -10024,11 +10033,11 @@
     </row>
     <row r="182" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F182" s="14"/>
       <c r="G182" s="16">
@@ -10045,7 +10054,7 @@
         <v>51</v>
       </c>
       <c r="M182" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N182" s="14">
         <v>175</v>
@@ -10064,11 +10073,11 @@
     </row>
     <row r="183" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D183" s="14"/>
       <c r="E183" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="16">
@@ -10085,7 +10094,7 @@
         <v>51</v>
       </c>
       <c r="M183" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N183" s="14">
         <v>175</v>
@@ -10104,11 +10113,11 @@
     </row>
     <row r="184" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D184" s="14"/>
       <c r="E184" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="16">
@@ -10125,7 +10134,7 @@
         <v>51</v>
       </c>
       <c r="M184" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N184" s="14">
         <v>175</v>
@@ -10144,11 +10153,11 @@
     </row>
     <row r="185" spans="1:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D185" s="14"/>
       <c r="E185" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F185" s="14"/>
       <c r="G185" s="16">
@@ -10165,7 +10174,7 @@
         <v>51</v>
       </c>
       <c r="M185" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N185" s="14">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -2305,7 +2305,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2520,11 +2520,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2539,11 +2537,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -3057,8 +3050,8 @@
     <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3574,7 +3567,7 @@
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B75" workbookViewId="0">
-      <selection activeCell="B89" sqref="$A89:$XFD94"/>
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6779,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="23">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="H89" s="23">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FD183C-F6D5-4C87-BCDF-0F3061E0C0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC61B3-161D-472F-9517-DF73398AAE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2293,10 +2293,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>-4559,,141,-5772</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>-5745,128,-4280</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -2306,6 +2302,10 @@
   </si>
   <si>
     <t>-5729,141,-4855</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4559,141,-5772</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2516,7 +2516,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2663,9 +2663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2982,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3503,8 +3500,8 @@
       <c r="L12" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="54" t="s">
-        <v>588</v>
+      <c r="M12" s="53" t="s">
+        <v>587</v>
       </c>
       <c r="N12" s="16">
         <v>-250</v>
@@ -3802,7 +3799,7 @@
       <c r="E20" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="16">
         <v>2</v>
       </c>
       <c r="G20" s="16">
@@ -3819,8 +3816,8 @@
       <c r="L20" s="19">
         <v>10001</v>
       </c>
-      <c r="M20" s="53" t="s">
-        <v>587</v>
+      <c r="M20" s="52" t="s">
+        <v>590</v>
       </c>
       <c r="N20" s="15">
         <v>90</v>
@@ -3847,7 +3844,7 @@
       <c r="E21" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="16">
         <v>1</v>
       </c>
       <c r="G21" s="16">
@@ -3864,7 +3861,7 @@
       <c r="L21" s="19">
         <v>10001</v>
       </c>
-      <c r="M21" s="53" t="s">
+      <c r="M21" s="52" t="s">
         <v>586</v>
       </c>
       <c r="N21" s="15">
@@ -3892,7 +3889,7 @@
       <c r="E22" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="16">
         <v>3</v>
       </c>
       <c r="G22" s="16">
@@ -3909,8 +3906,8 @@
       <c r="L22" s="19">
         <v>10001</v>
       </c>
-      <c r="M22" s="53" t="s">
-        <v>590</v>
+      <c r="M22" s="52" t="s">
+        <v>589</v>
       </c>
       <c r="N22" s="15">
         <v>-256</v>
@@ -3954,8 +3951,8 @@
       <c r="L23" s="19">
         <v>10001</v>
       </c>
-      <c r="M23" s="53" t="s">
-        <v>589</v>
+      <c r="M23" s="52" t="s">
+        <v>588</v>
       </c>
       <c r="N23" s="15">
         <v>-261</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC61B3-161D-472F-9517-DF73398AAE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D339223-3690-48FF-8420-8FD4FA746726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2980,7 +2980,7 @@
   <dimension ref="A1:Y203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3820,7 +3820,7 @@
         <v>590</v>
       </c>
       <c r="N20" s="15">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="29"/>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D339223-3690-48FF-8420-8FD4FA746726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD0EC4-FCBC-4822-8974-93BD843014D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,6 +53,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为0：</t>
@@ -59,6 +62,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -70,6 +74,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为1：</t>
@@ -78,6 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,6 +99,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为2：</t>
@@ -101,6 +108,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -112,6 +120,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>商店类型为3：</t>
@@ -120,6 +129,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -134,6 +144,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -142,6 +153,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -179,6 +191,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示不拉近</t>
@@ -196,6 +209,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：表示拉近</t>
@@ -209,6 +223,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -217,6 +232,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -234,6 +250,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>文件存储在</t>
@@ -250,6 +267,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>文件夹下</t>
@@ -266,6 +284,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>多个音效用</t>
@@ -282,6 +301,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>号间隔</t>
@@ -298,6 +318,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>将会随机播放一个</t>
@@ -314,6 +335,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>如果有概率不播放就写成</t>
@@ -330,6 +352,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>就表示</t>
@@ -346,6 +369,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>概率播放</t>
@@ -362,6 +386,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>号音效</t>
@@ -375,6 +400,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -383,6 +409,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -401,6 +428,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>例如</t>
@@ -417,6 +445,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示</t>
@@ -433,6 +462,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>级会出现</t>
@@ -446,6 +476,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -454,6 +485,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -474,6 +506,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -482,6 +515,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -504,6 +538,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -512,6 +547,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -528,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="599">
   <si>
     <t>#</t>
   </si>
@@ -2306,6 +2342,38 @@
   </si>
   <si>
     <t>-4559,141,-5772</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石大师</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘商人</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器商人</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4296,141,-1448</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>880,195,2601</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2152,1,-2245</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖行商人</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5243,141,-3324</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2324,18 +2392,21 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2343,18 +2414,21 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2367,6 +2441,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2374,6 +2449,7 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2387,6 +2463,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2399,11 +2476,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2415,6 +2494,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2977,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y203"/>
+  <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3971,114 +4051,191 @@
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
     </row>
-    <row r="24" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="19">
-        <v>10001</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="F24" s="16">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1022</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="19">
         <v>10001</v>
       </c>
-      <c r="M24" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="32"/>
-    </row>
-    <row r="25" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="19">
-        <v>10002</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="32"/>
-    </row>
-    <row r="26" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="N24" s="15">
+        <v>-135</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+    </row>
+    <row r="25" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="F25" s="16">
+        <v>100001</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1012</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="19">
+        <v>10001</v>
+      </c>
+      <c r="M25" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="N25" s="15">
+        <v>-180</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+    </row>
+    <row r="26" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="19">
-        <v>10003</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="32"/>
-    </row>
-    <row r="27" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="19">
-        <v>10004</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>103</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="F26" s="16">
+        <v>5</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1029</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="19">
+        <v>10001</v>
+      </c>
+      <c r="M26" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="N26" s="15">
+        <v>-245</v>
+      </c>
+      <c r="O26" s="20"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+    </row>
+    <row r="27" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="14">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16">
+        <v>1014</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="19">
+        <v>10001</v>
+      </c>
+      <c r="M27" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="N27" s="15">
+        <v>-270</v>
+      </c>
+      <c r="O27" s="20"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
     </row>
     <row r="28" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="19">
-        <v>1000101</v>
+        <v>10001</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>97</v>
       </c>
       <c r="F28" s="19"/>
-      <c r="H28" s="44" t="s">
-        <v>104</v>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="5">
         <v>0</v>
       </c>
@@ -4095,759 +4252,692 @@
     </row>
     <row r="29" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="19">
-        <v>1000201</v>
+        <v>10002</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F29" s="19"/>
-      <c r="H29" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
       <c r="L29" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="45" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
       </c>
       <c r="N29" s="6">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R29" s="32"/>
-      <c r="S29" s="34"/>
     </row>
     <row r="30" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="19">
-        <v>1000301</v>
+        <v>10003</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F30" s="19"/>
-      <c r="H30" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
       <c r="L30" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
       </c>
       <c r="N30" s="6">
-        <v>-306</v>
+        <v>0</v>
       </c>
       <c r="R30" s="32"/>
-      <c r="S30" s="34"/>
     </row>
     <row r="31" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="19">
-        <v>1000401</v>
+        <v>10004</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F31" s="19"/>
-      <c r="H31" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
       <c r="L31" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>115</v>
+        <v>100</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
       </c>
       <c r="N31" s="6">
-        <v>-183</v>
-      </c>
-      <c r="R31" s="32"/>
-      <c r="S31" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="S31" s="32" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="19">
-        <v>1000501</v>
+        <v>1000101</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F32" s="19"/>
       <c r="H32" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="L32" s="27" t="s">
-        <v>118</v>
+        <v>104</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="19">
+        <v>10001</v>
       </c>
       <c r="M32" s="42" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N32" s="6">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="R32" s="32"/>
-      <c r="S32" s="34"/>
     </row>
     <row r="33" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="19">
-        <v>2000101</v>
+        <v>1000201</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F33" s="19"/>
       <c r="H33" s="44" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I33" s="5"/>
       <c r="L33" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="M33" s="42" t="s">
-        <v>123</v>
+        <v>107</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="N33" s="6">
-        <v>-155</v>
+        <v>180</v>
       </c>
       <c r="R33" s="32"/>
       <c r="S33" s="34"/>
     </row>
     <row r="34" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="19">
-        <v>2000201</v>
+        <v>1000301</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F34" s="19"/>
       <c r="H34" s="44" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I34" s="5"/>
       <c r="L34" s="27" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="M34" s="42" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="N34" s="6">
-        <v>-274</v>
+        <v>-306</v>
       </c>
       <c r="R34" s="32"/>
       <c r="S34" s="34"/>
     </row>
     <row r="35" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="19">
-        <v>2000301</v>
+        <v>1000401</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F35" s="19"/>
-      <c r="H35" s="44" t="s">
-        <v>128</v>
+      <c r="H35" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="I35" s="5"/>
       <c r="L35" s="27" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="M35" s="42" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="N35" s="6">
-        <v>-223</v>
+        <v>-183</v>
       </c>
       <c r="R35" s="32"/>
       <c r="S35" s="34"/>
     </row>
     <row r="36" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="19">
-        <v>2000401</v>
+        <v>1000501</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F36" s="19"/>
       <c r="H36" s="44" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I36" s="5"/>
       <c r="L36" s="27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M36" s="42" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="N36" s="6">
-        <v>-87</v>
+        <v>-180</v>
       </c>
       <c r="R36" s="32"/>
       <c r="S36" s="34"/>
     </row>
     <row r="37" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="19">
-        <v>2000501</v>
+        <v>2000101</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F37" s="19"/>
       <c r="H37" s="44" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I37" s="5"/>
       <c r="L37" s="27" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="M37" s="42" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N37" s="6">
-        <v>-45</v>
+        <v>-155</v>
       </c>
       <c r="R37" s="32"/>
       <c r="S37" s="34"/>
     </row>
     <row r="38" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="19">
-        <v>3000101</v>
+        <v>2000201</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F38" s="19"/>
       <c r="H38" s="44" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I38" s="5"/>
       <c r="L38" s="27" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="M38" s="42" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N38" s="6">
-        <v>-200</v>
+        <v>-274</v>
       </c>
       <c r="R38" s="32"/>
       <c r="S38" s="34"/>
     </row>
     <row r="39" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="19">
-        <v>3000201</v>
+        <v>2000301</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F39" s="19"/>
       <c r="H39" s="44" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I39" s="5"/>
       <c r="L39" s="27" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="M39" s="42" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="N39" s="6">
-        <v>-144</v>
+        <v>-223</v>
       </c>
       <c r="R39" s="32"/>
       <c r="S39" s="34"/>
     </row>
     <row r="40" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="19">
-        <v>3000301</v>
+        <v>2000401</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F40" s="19"/>
       <c r="H40" s="44" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I40" s="5"/>
       <c r="L40" s="27" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M40" s="42" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="N40" s="6">
-        <v>-180</v>
+        <v>-87</v>
       </c>
       <c r="R40" s="32"/>
       <c r="S40" s="34"/>
     </row>
     <row r="41" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="19">
-        <v>3000401</v>
+        <v>2000501</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F41" s="19"/>
       <c r="H41" s="44" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I41" s="5"/>
       <c r="L41" s="27" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="M41" s="42" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N41" s="6">
-        <v>-211</v>
+        <v>-45</v>
       </c>
       <c r="R41" s="32"/>
       <c r="S41" s="34"/>
     </row>
     <row r="42" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="19">
-        <v>3000501</v>
+        <v>3000101</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F42" s="19"/>
       <c r="H42" s="44" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I42" s="5"/>
       <c r="L42" s="27" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="M42" s="42" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="N42" s="6">
-        <v>-215</v>
+        <v>-200</v>
       </c>
       <c r="R42" s="32"/>
       <c r="S42" s="34"/>
     </row>
     <row r="43" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="19">
-        <v>4000101</v>
+        <v>3000201</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F43" s="19"/>
       <c r="H43" s="44" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I43" s="5"/>
       <c r="L43" s="27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="N43" s="6">
-        <v>-157</v>
+        <v>-144</v>
       </c>
       <c r="R43" s="32"/>
       <c r="S43" s="34"/>
     </row>
     <row r="44" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="19">
-        <v>4000102</v>
+        <v>3000301</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F44" s="19"/>
       <c r="H44" s="44" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I44" s="5"/>
       <c r="L44" s="27" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="M44" s="42" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="N44" s="6">
-        <v>-60</v>
+        <v>-180</v>
       </c>
       <c r="R44" s="32"/>
       <c r="S44" s="34"/>
     </row>
     <row r="45" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="19">
-        <v>4000103</v>
+        <v>3000401</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F45" s="19"/>
       <c r="H45" s="44" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="I45" s="5"/>
       <c r="L45" s="27" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N45" s="6">
-        <v>-187</v>
+        <v>-211</v>
       </c>
       <c r="R45" s="32"/>
       <c r="S45" s="34"/>
     </row>
     <row r="46" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="19">
-        <v>4000104</v>
+        <v>3000501</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F46" s="19"/>
       <c r="H46" s="44" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I46" s="5"/>
       <c r="L46" s="27" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="M46" s="42" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="N46" s="6">
-        <v>-90</v>
+        <v>-215</v>
       </c>
       <c r="R46" s="32"/>
       <c r="S46" s="34"/>
     </row>
     <row r="47" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="19">
-        <v>4000105</v>
+        <v>4000101</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F47" s="19"/>
       <c r="H47" s="44" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I47" s="5"/>
       <c r="L47" s="27" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M47" s="42" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="N47" s="6">
-        <v>-94</v>
+        <v>-157</v>
       </c>
       <c r="R47" s="32"/>
       <c r="S47" s="34"/>
     </row>
     <row r="48" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="19">
-        <v>5000101</v>
+        <v>4000102</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F48" s="19"/>
       <c r="H48" s="44" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I48" s="5"/>
       <c r="L48" s="27" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="M48" s="42" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="N48" s="6">
-        <v>-85</v>
+        <v>-60</v>
       </c>
       <c r="R48" s="32"/>
       <c r="S48" s="34"/>
     </row>
     <row r="49" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="19">
-        <v>5000201</v>
+        <v>4000103</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F49" s="19"/>
       <c r="H49" s="44" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I49" s="5"/>
       <c r="L49" s="27" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M49" s="42" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="N49" s="6">
-        <v>-280</v>
+        <v>-187</v>
       </c>
       <c r="R49" s="32"/>
       <c r="S49" s="34"/>
     </row>
     <row r="50" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="19">
-        <v>5000301</v>
+        <v>4000104</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F50" s="19"/>
       <c r="H50" s="44" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I50" s="5"/>
       <c r="L50" s="27" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="M50" s="42" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="N50" s="6">
-        <v>-180</v>
+        <v>-90</v>
       </c>
       <c r="R50" s="32"/>
       <c r="S50" s="34"/>
     </row>
     <row r="51" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="19">
-        <v>5000401</v>
+        <v>4000105</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F51" s="19"/>
       <c r="H51" s="44" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I51" s="5"/>
       <c r="L51" s="27" t="s">
         <v>95</v>
       </c>
       <c r="M51" s="42" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="N51" s="6">
-        <v>-152</v>
+        <v>-94</v>
       </c>
       <c r="R51" s="32"/>
       <c r="S51" s="34"/>
     </row>
     <row r="52" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="19">
-        <v>5000501</v>
+        <v>5000101</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F52" s="19"/>
       <c r="H52" s="44" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I52" s="5"/>
       <c r="L52" s="27" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="M52" s="42" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="N52" s="6">
-        <v>-156</v>
+        <v>-85</v>
       </c>
       <c r="R52" s="32"/>
       <c r="S52" s="34"/>
     </row>
-    <row r="53" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="19">
+        <v>5000201</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="H53" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="L53" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="M53" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="N53" s="6">
+        <v>-280</v>
+      </c>
+      <c r="R53" s="32"/>
+      <c r="S53" s="34"/>
+    </row>
+    <row r="54" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="19">
+        <v>5000301</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="H54" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="L54" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="N54" s="6">
+        <v>-180</v>
+      </c>
+      <c r="R54" s="32"/>
+      <c r="S54" s="34"/>
+    </row>
+    <row r="55" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="19">
+        <v>5000401</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="H55" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="L55" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="M55" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="N55" s="6">
+        <v>-152</v>
+      </c>
+      <c r="R55" s="32"/>
+      <c r="S55" s="34"/>
+    </row>
+    <row r="56" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="19">
+        <v>5000501</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="H56" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="L56" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="M56" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="N56" s="6">
+        <v>-156</v>
+      </c>
+      <c r="R56" s="32"/>
+      <c r="S56" s="34"/>
+    </row>
+    <row r="57" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="19">
         <v>1000014</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" s="21">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22">
-        <v>4</v>
-      </c>
-      <c r="H53" s="22">
-        <v>0</v>
-      </c>
-      <c r="I53" s="22">
-        <v>0</v>
-      </c>
-      <c r="J53" s="30"/>
-      <c r="L53" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M53" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="N53" s="20">
-        <v>-90</v>
-      </c>
-      <c r="O53" s="20"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-    </row>
-    <row r="54" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" s="21">
-        <v>200001</v>
-      </c>
-      <c r="G54" s="22">
-        <v>1012</v>
-      </c>
-      <c r="H54" s="22">
-        <v>0</v>
-      </c>
-      <c r="I54" s="22">
-        <v>0</v>
-      </c>
-      <c r="J54" s="30"/>
-      <c r="L54" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M54" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="N54" s="20">
-        <v>-90</v>
-      </c>
-      <c r="O54" s="20"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-    </row>
-    <row r="55" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="21">
-        <v>10001201</v>
-      </c>
-      <c r="G55" s="22">
-        <v>1009</v>
-      </c>
-      <c r="H55" s="22">
-        <v>0</v>
-      </c>
-      <c r="I55" s="22">
-        <v>0</v>
-      </c>
-      <c r="J55" s="30"/>
-      <c r="L55" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M55" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="N55" s="20">
-        <v>-280</v>
-      </c>
-      <c r="O55" s="20"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-    </row>
-    <row r="56" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22">
-        <v>1004</v>
-      </c>
-      <c r="H56" s="22">
-        <v>0</v>
-      </c>
-      <c r="I56" s="22">
-        <v>0</v>
-      </c>
-      <c r="J56" s="30"/>
-      <c r="L56" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M56" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="N56" s="20">
-        <v>-180</v>
-      </c>
-      <c r="O56" s="20"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-    </row>
-    <row r="57" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="21"/>
+        <v>182</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0</v>
+      </c>
       <c r="G57" s="22">
-        <v>1015</v>
+        <v>4</v>
       </c>
       <c r="H57" s="22">
         <v>0</v>
@@ -4860,15 +4950,17 @@
         <v>100</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N57" s="20">
-        <v>-280</v>
+        <v>-90</v>
       </c>
       <c r="O57" s="20"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="21"/>
+      <c r="R57" s="21" t="s">
+        <v>184</v>
+      </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="20"/>
@@ -4879,15 +4971,17 @@
     </row>
     <row r="58" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="23" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F58" s="21"/>
+        <v>185</v>
+      </c>
+      <c r="F58" s="21">
+        <v>200001</v>
+      </c>
       <c r="G58" s="22">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="H58" s="22">
         <v>0</v>
@@ -4900,17 +4994,15 @@
         <v>100</v>
       </c>
       <c r="M58" s="46" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="N58" s="20">
-        <v>-180</v>
+        <v>-90</v>
       </c>
       <c r="O58" s="20"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="R58" s="21"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="20"/>
@@ -4921,15 +5013,17 @@
     </row>
     <row r="59" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="23" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D59" s="20"/>
-      <c r="E59" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="20"/>
+      <c r="E59" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="21">
+        <v>10001201</v>
+      </c>
       <c r="G59" s="22">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="H59" s="22">
         <v>0</v>
@@ -4941,18 +5035,16 @@
       <c r="L59" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M59" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="N59" s="22">
-        <v>-180</v>
-      </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="33" t="s">
-        <v>51</v>
-      </c>
+      <c r="M59" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="N59" s="20">
+        <v>-280</v>
+      </c>
+      <c r="O59" s="20"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="21"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="20"/>
@@ -4963,15 +5055,15 @@
     </row>
     <row r="60" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="23" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="21" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="22">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="H60" s="22">
         <v>0</v>
@@ -4984,17 +5076,15 @@
         <v>100</v>
       </c>
       <c r="M60" s="46" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="N60" s="20">
-        <v>-90</v>
+        <v>-180</v>
       </c>
       <c r="O60" s="20"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="R60" s="21"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="20"/>
@@ -5005,15 +5095,15 @@
     </row>
     <row r="61" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="23" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="21" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="22">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="H61" s="22">
         <v>0</v>
@@ -5026,17 +5116,15 @@
         <v>100</v>
       </c>
       <c r="M61" s="46" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="N61" s="20">
-        <v>90</v>
+        <v>-280</v>
       </c>
       <c r="O61" s="20"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="R61" s="21"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="20"/>
@@ -5047,15 +5135,15 @@
     </row>
     <row r="62" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="23" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="21" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="22">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H62" s="22">
         <v>0</v>
@@ -5068,16 +5156,16 @@
         <v>100</v>
       </c>
       <c r="M62" s="46" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N62" s="20">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="O62" s="20"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="21" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -5089,15 +5177,15 @@
     </row>
     <row r="63" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="23" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="21"/>
+      <c r="E63" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="20"/>
       <c r="G63" s="22">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="H63" s="22">
         <v>0</v>
@@ -5109,17 +5197,17 @@
       <c r="L63" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M63" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N63" s="20">
-        <v>-270</v>
-      </c>
-      <c r="O63" s="20"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="21" t="s">
-        <v>61</v>
+      <c r="M63" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="N63" s="22">
+        <v>-180</v>
+      </c>
+      <c r="O63" s="22"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
@@ -5131,15 +5219,15 @@
     </row>
     <row r="64" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="23" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D64" s="20"/>
-      <c r="E64" s="51" t="s">
-        <v>585</v>
+      <c r="E64" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="22">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H64" s="22">
         <v>0</v>
@@ -5152,15 +5240,17 @@
         <v>100</v>
       </c>
       <c r="M64" s="46" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="N64" s="20">
-        <v>45</v>
+        <v>-90</v>
       </c>
       <c r="O64" s="20"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="21"/>
+      <c r="R64" s="21" t="s">
+        <v>196</v>
+      </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="20"/>
@@ -5171,17 +5261,15 @@
     </row>
     <row r="65" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="23" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D65" s="20"/>
-      <c r="E65" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="E65" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="21"/>
       <c r="G65" s="22">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="H65" s="22">
         <v>0</v>
@@ -5193,8 +5281,8 @@
       <c r="L65" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M65" s="48" t="s">
-        <v>216</v>
+      <c r="M65" s="46" t="s">
+        <v>204</v>
       </c>
       <c r="N65" s="20">
         <v>90</v>
@@ -5202,8 +5290,8 @@
       <c r="O65" s="20"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="33" t="s">
-        <v>217</v>
+      <c r="R65" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
@@ -5215,17 +5303,15 @@
     </row>
     <row r="66" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D66" s="20"/>
-      <c r="E66" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>220</v>
-      </c>
+      <c r="E66" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F66" s="21"/>
       <c r="G66" s="22">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="H66" s="22">
         <v>0</v>
@@ -5237,17 +5323,17 @@
       <c r="L66" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M66" s="48" t="s">
-        <v>221</v>
+      <c r="M66" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="N66" s="20">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O66" s="20"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="33" t="s">
-        <v>222</v>
+      <c r="R66" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
@@ -5259,17 +5345,15 @@
     </row>
     <row r="67" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="23" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D67" s="20"/>
-      <c r="E67" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="E67" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="21"/>
       <c r="G67" s="22">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="H67" s="22">
         <v>0</v>
@@ -5281,17 +5365,17 @@
       <c r="L67" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M67" s="48" t="s">
-        <v>226</v>
+      <c r="M67" s="46" t="s">
+        <v>210</v>
       </c>
       <c r="N67" s="20">
-        <v>225</v>
+        <v>-270</v>
       </c>
       <c r="O67" s="20"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="33" t="s">
-        <v>227</v>
+      <c r="R67" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
@@ -5303,15 +5387,15 @@
     </row>
     <row r="68" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="23" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D68" s="20"/>
-      <c r="E68" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F68" s="20"/>
+      <c r="E68" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="F68" s="21"/>
       <c r="G68" s="22">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="H68" s="22">
         <v>0</v>
@@ -5323,18 +5407,16 @@
       <c r="L68" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M68" s="48" t="s">
-        <v>230</v>
+      <c r="M68" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="N68" s="20">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O68" s="20"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="33" t="s">
-        <v>231</v>
-      </c>
+      <c r="R68" s="21"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="20"/>
@@ -5345,15 +5427,17 @@
     </row>
     <row r="69" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="23" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F69" s="20"/>
+        <v>214</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="G69" s="22">
-        <v>5</v>
+        <v>1007</v>
       </c>
       <c r="H69" s="22">
         <v>0</v>
@@ -5366,15 +5450,17 @@
         <v>100</v>
       </c>
       <c r="M69" s="48" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="N69" s="20">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="O69" s="20"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="33"/>
+      <c r="R69" s="33" t="s">
+        <v>217</v>
+      </c>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="20"/>
@@ -5385,15 +5471,17 @@
     </row>
     <row r="70" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="23" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="F70" s="20"/>
+        <v>219</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>220</v>
+      </c>
       <c r="G70" s="22">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="H70" s="22">
         <v>0</v>
@@ -5406,16 +5494,16 @@
         <v>100</v>
       </c>
       <c r="M70" s="48" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N70" s="20">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O70" s="20"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="33" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
@@ -5427,17 +5515,17 @@
     </row>
     <row r="71" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="23" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="20">
-        <v>4</v>
+        <v>224</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="G71" s="22">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="H71" s="22">
         <v>0</v>
@@ -5450,16 +5538,16 @@
         <v>100</v>
       </c>
       <c r="M71" s="48" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N71" s="20">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="O71" s="20"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="33" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
@@ -5471,15 +5559,15 @@
     </row>
     <row r="72" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="23" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="22" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="22">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="H72" s="22">
         <v>0</v>
@@ -5487,22 +5575,22 @@
       <c r="I72" s="22">
         <v>0</v>
       </c>
-      <c r="J72" s="22">
-        <v>52</v>
-      </c>
+      <c r="J72" s="30"/>
       <c r="L72" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M72" s="48" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="N72" s="20">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O72" s="20"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="33"/>
+      <c r="R72" s="33" t="s">
+        <v>231</v>
+      </c>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="20"/>
@@ -5513,15 +5601,15 @@
     </row>
     <row r="73" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="23" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="22" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H73" s="22">
         <v>0</v>
@@ -5529,17 +5617,15 @@
       <c r="I73" s="22">
         <v>0</v>
       </c>
-      <c r="J73" s="22">
-        <v>53</v>
-      </c>
+      <c r="J73" s="30"/>
       <c r="L73" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M73" s="48" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="N73" s="20">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="O73" s="20"/>
       <c r="P73" s="3"/>
@@ -5555,15 +5641,15 @@
     </row>
     <row r="74" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="23" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="22" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="22">
-        <v>1</v>
+        <v>1014</v>
       </c>
       <c r="H74" s="22">
         <v>0</v>
@@ -5571,22 +5657,22 @@
       <c r="I74" s="22">
         <v>0</v>
       </c>
-      <c r="J74" s="22">
-        <v>54</v>
-      </c>
+      <c r="J74" s="30"/>
       <c r="L74" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M74" s="48" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="N74" s="20">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O74" s="20"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="33"/>
+      <c r="R74" s="33" t="s">
+        <v>238</v>
+      </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="20"/>
@@ -5597,38 +5683,40 @@
     </row>
     <row r="75" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="23" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D75" s="20"/>
-      <c r="E75" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="F75" s="21">
-        <v>100001</v>
+      <c r="E75" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F75" s="20">
+        <v>4</v>
       </c>
       <c r="G75" s="22">
-        <v>1012</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I75" s="30" t="s">
-        <v>68</v>
+        <v>1022</v>
+      </c>
+      <c r="H75" s="22">
+        <v>0</v>
+      </c>
+      <c r="I75" s="22">
+        <v>0</v>
       </c>
       <c r="J75" s="30"/>
       <c r="L75" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M75" s="48" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="N75" s="20">
-        <v>-110</v>
+        <v>180</v>
       </c>
       <c r="O75" s="20"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="21"/>
+      <c r="R75" s="33" t="s">
+        <v>238</v>
+      </c>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="20"/>
@@ -5639,17 +5727,15 @@
     </row>
     <row r="76" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="23" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F76" s="20">
-        <v>5</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F76" s="20"/>
       <c r="G76" s="22">
-        <v>1029</v>
+        <v>1</v>
       </c>
       <c r="H76" s="22">
         <v>0</v>
@@ -5657,22 +5743,22 @@
       <c r="I76" s="22">
         <v>0</v>
       </c>
-      <c r="J76" s="30"/>
+      <c r="J76" s="22">
+        <v>52</v>
+      </c>
       <c r="L76" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M76" s="48" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="N76" s="20">
-        <v>-30</v>
+        <v>90</v>
       </c>
       <c r="O76" s="20"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="33" t="s">
-        <v>238</v>
-      </c>
+      <c r="R76" s="33"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="20"/>
@@ -5683,38 +5769,38 @@
     </row>
     <row r="77" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="23" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="22">
-        <v>3</v>
-      </c>
-      <c r="H77" s="49" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="H77" s="22">
+        <v>0</v>
       </c>
       <c r="I77" s="22">
         <v>0</v>
       </c>
-      <c r="J77" s="30"/>
+      <c r="J77" s="22">
+        <v>53</v>
+      </c>
       <c r="L77" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M77" s="48" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="N77" s="20">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O77" s="20"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="33" t="s">
-        <v>74</v>
-      </c>
+      <c r="R77" s="33"/>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
       <c r="U77" s="20"/>
@@ -5725,36 +5811,38 @@
     </row>
     <row r="78" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="23" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="F78" s="35">
-        <v>0</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F78" s="20"/>
       <c r="G78" s="22">
-        <v>1024</v>
-      </c>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="22">
+        <v>0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0</v>
+      </c>
+      <c r="J78" s="22">
+        <v>54</v>
+      </c>
       <c r="L78" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M78" s="48" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="N78" s="20">
-        <v>-30</v>
+        <v>90</v>
       </c>
       <c r="O78" s="20"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="33" t="s">
-        <v>263</v>
-      </c>
+      <c r="R78" s="33"/>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="20"/>
@@ -5765,40 +5853,38 @@
     </row>
     <row r="79" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="23" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D79" s="20"/>
-      <c r="E79" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F79" s="20">
-        <v>6</v>
+      <c r="E79" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F79" s="21">
+        <v>100001</v>
       </c>
       <c r="G79" s="22">
-        <v>1026</v>
-      </c>
-      <c r="H79" s="22">
-        <v>0</v>
-      </c>
-      <c r="I79" s="22">
-        <v>0</v>
+        <v>1012</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="J79" s="30"/>
       <c r="L79" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M79" s="48" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="N79" s="20">
-        <v>-144</v>
+        <v>-110</v>
       </c>
       <c r="O79" s="20"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="33" t="s">
-        <v>267</v>
-      </c>
+      <c r="R79" s="21"/>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
       <c r="U79" s="20"/>
@@ -5809,35 +5895,39 @@
     </row>
     <row r="80" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="23" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F80" s="20"/>
+        <v>255</v>
+      </c>
+      <c r="F80" s="20">
+        <v>5</v>
+      </c>
       <c r="G80" s="22">
-        <v>2</v>
-      </c>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="22">
-        <v>2000001</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="30"/>
       <c r="L80" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M80" s="48" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="N80" s="20">
-        <v>-180</v>
+        <v>-30</v>
       </c>
       <c r="O80" s="20"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="33" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -5847,37 +5937,39 @@
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
     </row>
-    <row r="81" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="23" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="22" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="22">
-        <v>2</v>
-      </c>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30">
-        <v>2000002</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H81" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81" s="22">
+        <v>0</v>
+      </c>
+      <c r="J81" s="30"/>
       <c r="L81" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M81" s="48" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="N81" s="20">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O81" s="20"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
@@ -5887,40 +5979,38 @@
       <c r="X81" s="20"/>
       <c r="Y81" s="20"/>
     </row>
-    <row r="82" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="23" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F82" s="20"/>
+        <v>261</v>
+      </c>
+      <c r="F82" s="35">
+        <v>0</v>
+      </c>
       <c r="G82" s="22">
-        <v>0</v>
-      </c>
-      <c r="H82" s="22">
-        <v>50000001</v>
-      </c>
-      <c r="I82" s="22">
-        <v>0</v>
-      </c>
-      <c r="J82" s="22">
-        <v>0</v>
-      </c>
+        <v>1024</v>
+      </c>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
       <c r="L82" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M82" s="48" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="N82" s="20">
-        <v>180</v>
+        <v>-30</v>
       </c>
       <c r="O82" s="20"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="33"/>
+      <c r="R82" s="33" t="s">
+        <v>263</v>
+      </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="20"/>
@@ -5929,38 +6019,42 @@
       <c r="X82" s="20"/>
       <c r="Y82" s="20"/>
     </row>
-    <row r="83" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="23" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D83" s="20"/>
-      <c r="E83" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="21"/>
+      <c r="E83" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="20">
+        <v>6</v>
+      </c>
       <c r="G83" s="22">
-        <v>1030</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I83" s="30" t="s">
-        <v>68</v>
+        <v>1026</v>
+      </c>
+      <c r="H83" s="22">
+        <v>0</v>
+      </c>
+      <c r="I83" s="22">
+        <v>0</v>
       </c>
       <c r="J83" s="30"/>
       <c r="L83" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M83" s="48" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="N83" s="20">
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="O83" s="20"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="21"/>
+      <c r="R83" s="33" t="s">
+        <v>267</v>
+      </c>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="20"/>
@@ -5969,39 +6063,37 @@
       <c r="X83" s="20"/>
       <c r="Y83" s="20"/>
     </row>
-    <row r="84" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="23" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D84" s="20"/>
-      <c r="E84" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="F84" s="21"/>
+      <c r="E84" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F84" s="20"/>
       <c r="G84" s="22">
-        <v>6</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I84" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J84" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="22">
+        <v>2000001</v>
+      </c>
       <c r="L84" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M84" s="48" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="N84" s="20">
-        <v>270</v>
+        <v>-180</v>
       </c>
       <c r="O84" s="20"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="21" t="s">
-        <v>282</v>
+      <c r="R84" s="33" t="s">
+        <v>271</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
@@ -6011,39 +6103,37 @@
       <c r="X84" s="20"/>
       <c r="Y84" s="20"/>
     </row>
-    <row r="85" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="23" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D85" s="20"/>
-      <c r="E85" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F85" s="21"/>
+      <c r="E85" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="20"/>
       <c r="G85" s="22">
-        <v>7</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I85" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J85" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30">
+        <v>2000002</v>
+      </c>
       <c r="L85" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M85" s="48" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="N85" s="20">
-        <v>-146</v>
+        <v>90</v>
       </c>
       <c r="O85" s="20"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="21" t="s">
-        <v>286</v>
+      <c r="R85" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
@@ -6053,42 +6143,40 @@
       <c r="X85" s="20"/>
       <c r="Y85" s="20"/>
     </row>
-    <row r="86" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="23" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D86" s="20"/>
-      <c r="E86" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F86" s="21"/>
+      <c r="E86" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="F86" s="20"/>
       <c r="G86" s="22">
-        <v>2</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I86" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J86" s="30" t="s">
-        <v>289</v>
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>50000001</v>
+      </c>
+      <c r="I86" s="22">
+        <v>0</v>
+      </c>
+      <c r="J86" s="22">
+        <v>0</v>
       </c>
       <c r="L86" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M86" s="48" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="N86" s="20">
-        <v>-146</v>
+        <v>180</v>
       </c>
       <c r="O86" s="20"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-      <c r="R86" s="21" t="s">
-        <v>291</v>
-      </c>
+      <c r="R86" s="33"/>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
       <c r="U86" s="20"/>
@@ -6097,35 +6185,33 @@
       <c r="X86" s="20"/>
       <c r="Y86" s="20"/>
     </row>
-    <row r="87" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="23" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D87" s="20"/>
       <c r="E87" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="F87" s="21">
-        <v>50000001</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F87" s="21"/>
       <c r="G87" s="22">
-        <v>1009</v>
-      </c>
-      <c r="H87" s="22">
-        <v>0</v>
-      </c>
-      <c r="I87" s="22">
-        <v>0</v>
+        <v>1030</v>
+      </c>
+      <c r="H87" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="J87" s="30"/>
       <c r="L87" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M87" s="46" t="s">
-        <v>294</v>
+      <c r="M87" s="48" t="s">
+        <v>278</v>
       </c>
       <c r="N87" s="20">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="O87" s="20"/>
       <c r="P87" s="3"/>
@@ -6139,41 +6225,39 @@
       <c r="X87" s="20"/>
       <c r="Y87" s="20"/>
     </row>
-    <row r="88" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="23" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="F88" s="21">
-        <v>0</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F88" s="21"/>
       <c r="G88" s="22">
-        <v>8</v>
-      </c>
-      <c r="H88" s="22">
-        <v>0</v>
-      </c>
-      <c r="I88" s="22">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I88" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="J88" s="30"/>
       <c r="L88" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M88" s="46" t="s">
-        <v>297</v>
+      <c r="M88" s="48" t="s">
+        <v>281</v>
       </c>
       <c r="N88" s="20">
-        <v>-90</v>
+        <v>270</v>
       </c>
       <c r="O88" s="20"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="21" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
@@ -6183,41 +6267,39 @@
       <c r="X88" s="20"/>
       <c r="Y88" s="20"/>
     </row>
-    <row r="89" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="23" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="F89" s="21">
-        <v>0</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="F89" s="21"/>
       <c r="G89" s="22">
-        <v>0</v>
-      </c>
-      <c r="H89" s="22">
-        <v>0</v>
-      </c>
-      <c r="I89" s="22">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H89" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="J89" s="30"/>
       <c r="L89" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M89" s="46" t="s">
-        <v>301</v>
+      <c r="M89" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="N89" s="20">
-        <v>90</v>
+        <v>-146</v>
       </c>
       <c r="O89" s="20"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="21" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
@@ -6227,40 +6309,42 @@
       <c r="X89" s="20"/>
       <c r="Y89" s="20"/>
     </row>
-    <row r="90" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="23" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="F90" s="21">
-        <v>60000001</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F90" s="21"/>
       <c r="G90" s="22">
-        <v>1009</v>
-      </c>
-      <c r="H90" s="22">
-        <v>0</v>
-      </c>
-      <c r="I90" s="22">
-        <v>0</v>
-      </c>
-      <c r="J90" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I90" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>289</v>
+      </c>
       <c r="L90" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M90" s="46" t="s">
-        <v>305</v>
+      <c r="M90" s="48" t="s">
+        <v>290</v>
       </c>
       <c r="N90" s="20">
-        <v>180</v>
+        <v>-146</v>
       </c>
       <c r="O90" s="20"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="21"/>
+      <c r="R90" s="21" t="s">
+        <v>291</v>
+      </c>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="20"/>
@@ -6269,19 +6353,19 @@
       <c r="X90" s="20"/>
       <c r="Y90" s="20"/>
     </row>
-    <row r="91" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="23" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D91" s="20"/>
       <c r="E91" s="21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F91" s="21">
-        <v>0</v>
+        <v>50000001</v>
       </c>
       <c r="G91" s="22">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="H91" s="22">
         <v>0</v>
@@ -6294,17 +6378,15 @@
         <v>100</v>
       </c>
       <c r="M91" s="46" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="N91" s="20">
-        <v>-90</v>
+        <v>106</v>
       </c>
       <c r="O91" s="20"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-      <c r="R91" s="21" t="s">
-        <v>309</v>
-      </c>
+      <c r="R91" s="21"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
       <c r="U91" s="20"/>
@@ -6313,35 +6395,41 @@
       <c r="X91" s="20"/>
       <c r="Y91" s="20"/>
     </row>
-    <row r="92" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="23" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D92" s="20"/>
-      <c r="E92" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="F92" s="20"/>
+      <c r="E92" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F92" s="21">
+        <v>0</v>
+      </c>
       <c r="G92" s="22">
-        <v>1050</v>
-      </c>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="H92" s="22">
+        <v>0</v>
+      </c>
+      <c r="I92" s="22">
+        <v>0</v>
+      </c>
       <c r="J92" s="30"/>
       <c r="L92" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M92" s="48" t="s">
-        <v>312</v>
+      <c r="M92" s="46" t="s">
+        <v>297</v>
       </c>
       <c r="N92" s="20">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="O92" s="20"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="33" t="s">
-        <v>89</v>
+      <c r="R92" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
@@ -6351,21 +6439,19 @@
       <c r="X92" s="20"/>
       <c r="Y92" s="20"/>
     </row>
-    <row r="93" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+    <row r="93" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="23" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D93" s="20"/>
       <c r="E93" s="21" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F93" s="21">
         <v>0</v>
       </c>
       <c r="G93" s="22">
-        <v>1073</v>
+        <v>0</v>
       </c>
       <c r="H93" s="22">
         <v>0</v>
@@ -6374,39 +6460,42 @@
         <v>0</v>
       </c>
       <c r="J93" s="30"/>
-      <c r="K93" s="2"/>
       <c r="L93" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M93" s="48" t="s">
-        <v>315</v>
+      <c r="M93" s="46" t="s">
+        <v>301</v>
       </c>
       <c r="N93" s="20">
         <v>90</v>
       </c>
       <c r="O93" s="20"/>
-      <c r="R93" s="21"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
       <c r="U93" s="20"/>
       <c r="V93" s="20"/>
       <c r="W93" s="20"/>
       <c r="X93" s="20"/>
       <c r="Y93" s="20"/>
     </row>
-    <row r="94" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+    <row r="94" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="23" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="21" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F94" s="21">
-        <v>0</v>
+        <v>60000001</v>
       </c>
       <c r="G94" s="22">
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="H94" s="22">
         <v>0</v>
@@ -6415,41 +6504,40 @@
         <v>0</v>
       </c>
       <c r="J94" s="30"/>
-      <c r="K94" s="2"/>
       <c r="L94" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M94" s="48" t="s">
-        <v>318</v>
+      <c r="M94" s="46" t="s">
+        <v>305</v>
       </c>
       <c r="N94" s="20">
-        <v>-140</v>
+        <v>180</v>
       </c>
       <c r="O94" s="20"/>
-      <c r="R94" s="21" t="s">
-        <v>319</v>
-      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
       <c r="U94" s="20"/>
       <c r="V94" s="20"/>
       <c r="W94" s="20"/>
       <c r="X94" s="20"/>
       <c r="Y94" s="20"/>
     </row>
-    <row r="95" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+    <row r="95" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="23" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="21" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F95" s="21">
         <v>0</v>
       </c>
       <c r="G95" s="22">
-        <v>1041</v>
+        <v>9</v>
       </c>
       <c r="H95" s="22">
         <v>0</v>
@@ -6458,59 +6546,61 @@
         <v>0</v>
       </c>
       <c r="J95" s="30"/>
-      <c r="K95" s="2"/>
       <c r="L95" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M95" s="48" t="s">
-        <v>322</v>
+      <c r="M95" s="46" t="s">
+        <v>308</v>
       </c>
       <c r="N95" s="20">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="O95" s="20"/>
-      <c r="R95" s="21"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
       <c r="U95" s="20"/>
       <c r="V95" s="20"/>
       <c r="W95" s="20"/>
       <c r="X95" s="20"/>
       <c r="Y95" s="20"/>
     </row>
-    <row r="96" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+    <row r="96" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="23" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D96" s="20"/>
-      <c r="E96" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="F96" s="21">
-        <v>0</v>
-      </c>
+      <c r="E96" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="F96" s="20"/>
       <c r="G96" s="22">
-        <v>1042</v>
-      </c>
-      <c r="H96" s="22">
-        <v>0</v>
-      </c>
-      <c r="I96" s="22">
-        <v>0</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
       <c r="J96" s="30"/>
-      <c r="K96" s="2"/>
       <c r="L96" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M96" s="48" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N96" s="20">
-        <v>-180</v>
+        <v>90</v>
       </c>
       <c r="O96" s="20"/>
-      <c r="R96" s="21"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
       <c r="U96" s="20"/>
       <c r="V96" s="20"/>
       <c r="W96" s="20"/>
@@ -6521,17 +6611,17 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="23" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D97" s="20"/>
       <c r="E97" s="21" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="F97" s="21">
         <v>0</v>
       </c>
       <c r="G97" s="22">
-        <v>1056</v>
+        <v>1073</v>
       </c>
       <c r="H97" s="22">
         <v>0</v>
@@ -6545,10 +6635,10 @@
         <v>100</v>
       </c>
       <c r="M97" s="48" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N97" s="20">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="O97" s="20"/>
       <c r="R97" s="21"/>
@@ -6562,17 +6652,17 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="23" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="21" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F98" s="21">
         <v>0</v>
       </c>
       <c r="G98" s="22">
-        <v>1072</v>
+        <v>0</v>
       </c>
       <c r="H98" s="22">
         <v>0</v>
@@ -6586,177 +6676,179 @@
         <v>100</v>
       </c>
       <c r="M98" s="48" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N98" s="20">
-        <v>130</v>
+        <v>-140</v>
       </c>
       <c r="O98" s="20"/>
-      <c r="R98" s="21"/>
+      <c r="R98" s="21" t="s">
+        <v>319</v>
+      </c>
       <c r="U98" s="20"/>
       <c r="V98" s="20"/>
       <c r="W98" s="20"/>
       <c r="X98" s="20"/>
       <c r="Y98" s="20"/>
     </row>
-    <row r="99" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="23" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="21" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F99" s="21">
-        <v>10001101</v>
+        <v>0</v>
       </c>
       <c r="G99" s="22">
-        <v>1009</v>
-      </c>
-      <c r="H99" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I99" s="30" t="s">
-        <v>68</v>
+        <v>1041</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
       </c>
       <c r="J99" s="30"/>
+      <c r="K99" s="2"/>
       <c r="L99" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M99" s="46" t="s">
-        <v>334</v>
+      <c r="M99" s="48" t="s">
+        <v>322</v>
       </c>
       <c r="N99" s="20">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O99" s="20"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
       <c r="R99" s="21"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
       <c r="U99" s="20"/>
       <c r="V99" s="20"/>
       <c r="W99" s="20"/>
       <c r="X99" s="20"/>
       <c r="Y99" s="20"/>
     </row>
-    <row r="100" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="21">
-        <v>20001002</v>
+    <row r="100" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="21" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F100" s="21">
-        <v>10001201</v>
+        <v>0</v>
       </c>
       <c r="G100" s="22">
-        <v>1009</v>
-      </c>
-      <c r="H100" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I100" s="30" t="s">
-        <v>68</v>
+        <v>1042</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>0</v>
       </c>
       <c r="J100" s="30"/>
+      <c r="K100" s="2"/>
       <c r="L100" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M100" s="20" t="s">
-        <v>336</v>
+      <c r="M100" s="48" t="s">
+        <v>325</v>
       </c>
       <c r="N100" s="20">
-        <v>-45</v>
+        <v>-180</v>
       </c>
       <c r="O100" s="20"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
       <c r="R100" s="21"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
       <c r="U100" s="20"/>
       <c r="V100" s="20"/>
       <c r="W100" s="20"/>
       <c r="X100" s="20"/>
       <c r="Y100" s="20"/>
     </row>
-    <row r="101" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="21">
-        <v>20001003</v>
+    <row r="101" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="F101" s="21"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="I101" s="30" t="s">
-        <v>68</v>
+        <v>327</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>1056</v>
+      </c>
+      <c r="H101" s="22">
+        <v>0</v>
+      </c>
+      <c r="I101" s="22">
+        <v>0</v>
       </c>
       <c r="J101" s="30"/>
+      <c r="K101" s="2"/>
       <c r="L101" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M101" s="20" t="s">
-        <v>339</v>
+      <c r="M101" s="48" t="s">
+        <v>328</v>
       </c>
       <c r="N101" s="20">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="O101" s="20"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
+      <c r="R101" s="21"/>
       <c r="U101" s="20"/>
       <c r="V101" s="20"/>
       <c r="W101" s="20"/>
       <c r="X101" s="20"/>
       <c r="Y101" s="20"/>
     </row>
-    <row r="102" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="21">
-        <v>20001004</v>
+    <row r="102" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="F102" s="21"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I102" s="30" t="s">
-        <v>68</v>
+        <v>330</v>
+      </c>
+      <c r="F102" s="21">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>1072</v>
+      </c>
+      <c r="H102" s="22">
+        <v>0</v>
+      </c>
+      <c r="I102" s="22">
+        <v>0</v>
       </c>
       <c r="J102" s="30"/>
+      <c r="K102" s="2"/>
       <c r="L102" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M102" s="46" t="s">
-        <v>342</v>
+      <c r="M102" s="48" t="s">
+        <v>331</v>
       </c>
       <c r="N102" s="20">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="O102" s="20"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
+      <c r="R102" s="21"/>
       <c r="U102" s="20"/>
       <c r="V102" s="20"/>
       <c r="W102" s="20"/>
@@ -6764,15 +6856,19 @@
       <c r="Y102" s="20"/>
     </row>
     <row r="103" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="21">
-        <v>20001005</v>
+      <c r="C103" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="F103" s="21"/>
-      <c r="G103" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="F103" s="21">
+        <v>10001101</v>
+      </c>
+      <c r="G103" s="22">
+        <v>1009</v>
+      </c>
       <c r="H103" s="30" t="s">
         <v>68</v>
       </c>
@@ -6783,18 +6879,16 @@
       <c r="L103" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M103" s="20" t="s">
-        <v>345</v>
+      <c r="M103" s="46" t="s">
+        <v>334</v>
       </c>
       <c r="N103" s="20">
-        <v>-45</v>
+        <v>60</v>
       </c>
       <c r="O103" s="20"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-      <c r="R103" s="36" t="s">
-        <v>346</v>
-      </c>
+      <c r="R103" s="21"/>
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
       <c r="U103" s="20"/>
@@ -6805,14 +6899,18 @@
     </row>
     <row r="104" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="21">
-        <v>20001006</v>
+        <v>20001002</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="F104" s="21"/>
-      <c r="G104" s="22"/>
+        <v>335</v>
+      </c>
+      <c r="F104" s="21">
+        <v>10001201</v>
+      </c>
+      <c r="G104" s="22">
+        <v>1009</v>
+      </c>
       <c r="H104" s="30" t="s">
         <v>68</v>
       </c>
@@ -6823,18 +6921,16 @@
       <c r="L104" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M104" s="46" t="s">
-        <v>347</v>
+      <c r="M104" s="20" t="s">
+        <v>336</v>
       </c>
       <c r="N104" s="20">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="O104" s="20"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-      <c r="R104" s="36" t="s">
-        <v>348</v>
-      </c>
+      <c r="R104" s="21"/>
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
       <c r="U104" s="20"/>
@@ -6845,16 +6941,16 @@
     </row>
     <row r="105" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="21">
-        <v>20001007</v>
+        <v>20001003</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="21" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F105" s="21"/>
       <c r="G105" s="22"/>
       <c r="H105" s="30" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="I105" s="30" t="s">
         <v>68</v>
@@ -6863,17 +6959,17 @@
       <c r="L105" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M105" s="46" t="s">
-        <v>351</v>
+      <c r="M105" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="N105" s="20">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="O105" s="20"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="36" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
@@ -6885,11 +6981,11 @@
     </row>
     <row r="106" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="21">
-        <v>20001008</v>
+        <v>20001004</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="21" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F106" s="21"/>
       <c r="G106" s="22"/>
@@ -6904,16 +7000,16 @@
         <v>100</v>
       </c>
       <c r="M106" s="46" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="N106" s="20">
-        <v>-155</v>
+        <v>90</v>
       </c>
       <c r="O106" s="20"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="36" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
@@ -6925,16 +7021,16 @@
     </row>
     <row r="107" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="21">
-        <v>20001009</v>
+        <v>20001005</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="21" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F107" s="21"/>
       <c r="G107" s="22"/>
       <c r="H107" s="30" t="s">
-        <v>357</v>
+        <v>68</v>
       </c>
       <c r="I107" s="30" t="s">
         <v>68</v>
@@ -6943,17 +7039,17 @@
       <c r="L107" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M107" s="46" t="s">
-        <v>358</v>
+      <c r="M107" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="N107" s="20">
-        <v>35</v>
+        <v>-45</v>
       </c>
       <c r="O107" s="20"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="36" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
@@ -6965,11 +7061,11 @@
     </row>
     <row r="108" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="21">
-        <v>20001010</v>
+        <v>20001006</v>
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="21" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="F108" s="21"/>
       <c r="G108" s="22"/>
@@ -6983,17 +7079,17 @@
       <c r="L108" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M108" s="49" t="s">
-        <v>361</v>
+      <c r="M108" s="46" t="s">
+        <v>347</v>
       </c>
       <c r="N108" s="20">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="O108" s="20"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="36" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
@@ -7005,16 +7101,16 @@
     </row>
     <row r="109" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="21">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="D109" s="20"/>
       <c r="E109" s="21" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F109" s="21"/>
       <c r="G109" s="22"/>
       <c r="H109" s="30" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I109" s="30" t="s">
         <v>68</v>
@@ -7023,17 +7119,17 @@
       <c r="L109" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M109" s="20" t="s">
-        <v>365</v>
+      <c r="M109" s="46" t="s">
+        <v>351</v>
       </c>
       <c r="N109" s="20">
-        <v>-180</v>
+        <v>150</v>
       </c>
       <c r="O109" s="20"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="36" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
@@ -7045,16 +7141,16 @@
     </row>
     <row r="110" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="21">
-        <v>20001012</v>
+        <v>20001008</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="21" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F110" s="21"/>
       <c r="G110" s="22"/>
       <c r="H110" s="30" t="s">
-        <v>368</v>
+        <v>68</v>
       </c>
       <c r="I110" s="30" t="s">
         <v>68</v>
@@ -7063,17 +7159,17 @@
       <c r="L110" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M110" s="20" t="s">
-        <v>369</v>
+      <c r="M110" s="46" t="s">
+        <v>354</v>
       </c>
       <c r="N110" s="20">
-        <v>80</v>
+        <v>-155</v>
       </c>
       <c r="O110" s="20"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="36" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
@@ -7085,16 +7181,16 @@
     </row>
     <row r="111" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="21">
-        <v>20001013</v>
+        <v>20001009</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="21" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F111" s="21"/>
       <c r="G111" s="22"/>
       <c r="H111" s="30" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="I111" s="30" t="s">
         <v>68</v>
@@ -7103,17 +7199,17 @@
       <c r="L111" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M111" s="20" t="s">
-        <v>373</v>
+      <c r="M111" s="46" t="s">
+        <v>358</v>
       </c>
       <c r="N111" s="20">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="O111" s="20"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
       <c r="R111" s="36" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
@@ -7125,16 +7221,16 @@
     </row>
     <row r="112" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="21">
-        <v>20001014</v>
+        <v>20001010</v>
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="21" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F112" s="21"/>
       <c r="G112" s="22"/>
       <c r="H112" s="30" t="s">
-        <v>376</v>
+        <v>68</v>
       </c>
       <c r="I112" s="30" t="s">
         <v>68</v>
@@ -7143,8 +7239,8 @@
       <c r="L112" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M112" s="20" t="s">
-        <v>377</v>
+      <c r="M112" s="49" t="s">
+        <v>361</v>
       </c>
       <c r="N112" s="20">
         <v>180</v>
@@ -7153,7 +7249,7 @@
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="36" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -7165,16 +7261,16 @@
     </row>
     <row r="113" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="21">
-        <v>20001015</v>
+        <v>20001011</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="21" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F113" s="21"/>
       <c r="G113" s="22"/>
       <c r="H113" s="30" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>68</v>
@@ -7184,16 +7280,16 @@
         <v>100</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="N113" s="20">
-        <v>128</v>
+        <v>-180</v>
       </c>
       <c r="O113" s="20"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
       <c r="R113" s="36" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
@@ -7205,16 +7301,16 @@
     </row>
     <row r="114" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="21">
-        <v>20001016</v>
+        <v>20001012</v>
       </c>
       <c r="D114" s="20"/>
       <c r="E114" s="21" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="F114" s="21"/>
       <c r="G114" s="22"/>
       <c r="H114" s="30" t="s">
-        <v>68</v>
+        <v>368</v>
       </c>
       <c r="I114" s="30" t="s">
         <v>68</v>
@@ -7224,16 +7320,16 @@
         <v>100</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="N114" s="20">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="O114" s="20"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="36" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
@@ -7245,16 +7341,16 @@
     </row>
     <row r="115" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="21">
-        <v>20001017</v>
+        <v>20001013</v>
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="21" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F115" s="21"/>
       <c r="G115" s="22"/>
       <c r="H115" s="30" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="I115" s="30" t="s">
         <v>68</v>
@@ -7264,16 +7360,16 @@
         <v>100</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="N115" s="20">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="O115" s="20"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="36" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
@@ -7285,26 +7381,26 @@
     </row>
     <row r="116" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="21">
-        <v>20001018</v>
+        <v>20001014</v>
       </c>
       <c r="D116" s="20"/>
       <c r="E116" s="21" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F116" s="21"/>
       <c r="G116" s="22"/>
       <c r="H116" s="30" t="s">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="I116" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J116" s="22"/>
+      <c r="J116" s="30"/>
       <c r="L116" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="N116" s="20">
         <v>180</v>
@@ -7313,7 +7409,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="36" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
@@ -7325,16 +7421,16 @@
     </row>
     <row r="117" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="21">
-        <v>20001019</v>
+        <v>20001015</v>
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="21" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F117" s="21"/>
       <c r="G117" s="22"/>
       <c r="H117" s="30" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="I117" s="30" t="s">
         <v>68</v>
@@ -7344,16 +7440,16 @@
         <v>100</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="N117" s="20">
-        <v>-180</v>
+        <v>128</v>
       </c>
       <c r="O117" s="20"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="36" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
@@ -7365,11 +7461,11 @@
     </row>
     <row r="118" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="21">
-        <v>20001020</v>
+        <v>20001016</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="21" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F118" s="21"/>
       <c r="G118" s="22"/>
@@ -7393,7 +7489,7 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="36" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
@@ -7405,16 +7501,16 @@
     </row>
     <row r="119" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="21">
-        <v>20001021</v>
+        <v>20001017</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="21" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F119" s="21"/>
       <c r="G119" s="22"/>
       <c r="H119" s="30" t="s">
-        <v>68</v>
+        <v>386</v>
       </c>
       <c r="I119" s="30" t="s">
         <v>68</v>
@@ -7424,16 +7520,16 @@
         <v>100</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="N119" s="20">
-        <v>-180</v>
+        <v>120</v>
       </c>
       <c r="O119" s="20"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
       <c r="R119" s="36" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
@@ -7445,35 +7541,35 @@
     </row>
     <row r="120" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="21">
-        <v>20001022</v>
+        <v>20001018</v>
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="21" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F120" s="21"/>
       <c r="G120" s="22"/>
       <c r="H120" s="30" t="s">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="I120" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J120" s="30"/>
+      <c r="J120" s="22"/>
       <c r="L120" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="N120" s="20">
-        <v>-106</v>
+        <v>180</v>
       </c>
       <c r="O120" s="20"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="36" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
@@ -7485,18 +7581,16 @@
     </row>
     <row r="121" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="21">
-        <v>20001023</v>
+        <v>20001019</v>
       </c>
       <c r="D121" s="20"/>
       <c r="E121" s="21" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F121" s="21"/>
-      <c r="G121" s="22">
-        <v>1004</v>
-      </c>
+      <c r="G121" s="22"/>
       <c r="H121" s="30" t="s">
-        <v>68</v>
+        <v>392</v>
       </c>
       <c r="I121" s="30" t="s">
         <v>68</v>
@@ -7506,15 +7600,17 @@
         <v>100</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="N121" s="20">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="O121" s="20"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
-      <c r="R121" s="21"/>
+      <c r="R121" s="36" t="s">
+        <v>394</v>
+      </c>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="20"/>
@@ -7525,11 +7621,11 @@
     </row>
     <row r="122" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="21">
-        <v>20001024</v>
+        <v>20001020</v>
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="21" t="s">
-        <v>64</v>
+        <v>395</v>
       </c>
       <c r="F122" s="21"/>
       <c r="G122" s="22"/>
@@ -7544,15 +7640,17 @@
         <v>100</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="N122" s="20">
-        <v>-152</v>
+        <v>180</v>
       </c>
       <c r="O122" s="20"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
-      <c r="R122" s="21"/>
+      <c r="R122" s="36" t="s">
+        <v>396</v>
+      </c>
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="20"/>
@@ -7562,19 +7660,15 @@
       <c r="Y122" s="20"/>
     </row>
     <row r="123" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="23" t="s">
-        <v>405</v>
+      <c r="C123" s="21">
+        <v>20001021</v>
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F123" s="21">
-        <v>10002101</v>
-      </c>
-      <c r="G123" s="22">
-        <v>1009</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="F123" s="21"/>
+      <c r="G123" s="22"/>
       <c r="H123" s="30" t="s">
         <v>68</v>
       </c>
@@ -7586,15 +7680,17 @@
         <v>100</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="N123" s="20">
-        <v>-147</v>
+        <v>-180</v>
       </c>
       <c r="O123" s="20"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
-      <c r="R123" s="21"/>
+      <c r="R123" s="36" t="s">
+        <v>394</v>
+      </c>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="20"/>
@@ -7604,21 +7700,17 @@
       <c r="Y123" s="20"/>
     </row>
     <row r="124" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="23" t="s">
-        <v>407</v>
+      <c r="C124" s="21">
+        <v>20001022</v>
       </c>
       <c r="D124" s="20"/>
       <c r="E124" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="F124" s="21">
-        <v>10002201</v>
-      </c>
-      <c r="G124" s="22">
-        <v>1009</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F124" s="21"/>
+      <c r="G124" s="22"/>
       <c r="H124" s="30" t="s">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="I124" s="30" t="s">
         <v>68</v>
@@ -7628,15 +7720,17 @@
         <v>100</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="N124" s="20">
-        <v>-129</v>
+        <v>-106</v>
       </c>
       <c r="O124" s="20"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
-      <c r="R124" s="21"/>
+      <c r="R124" s="36" t="s">
+        <v>402</v>
+      </c>
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
       <c r="U124" s="20"/>
@@ -7646,17 +7740,19 @@
       <c r="Y124" s="20"/>
     </row>
     <row r="125" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="23" t="s">
-        <v>409</v>
+      <c r="C125" s="21">
+        <v>20001023</v>
       </c>
       <c r="D125" s="20"/>
       <c r="E125" s="21" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F125" s="21"/>
-      <c r="G125" s="22"/>
+      <c r="G125" s="22">
+        <v>1004</v>
+      </c>
       <c r="H125" s="30" t="s">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="I125" s="30" t="s">
         <v>68</v>
@@ -7666,17 +7762,15 @@
         <v>100</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="N125" s="20">
-        <v>-131</v>
+        <v>180</v>
       </c>
       <c r="O125" s="20"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
-      <c r="R125" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R125" s="21"/>
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
       <c r="U125" s="20"/>
@@ -7686,17 +7780,17 @@
       <c r="Y125" s="20"/>
     </row>
     <row r="126" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="23" t="s">
-        <v>413</v>
+      <c r="C126" s="21">
+        <v>20001024</v>
       </c>
       <c r="D126" s="20"/>
       <c r="E126" s="21" t="s">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="F126" s="21"/>
       <c r="G126" s="22"/>
       <c r="H126" s="30" t="s">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="I126" s="30" t="s">
         <v>68</v>
@@ -7706,17 +7800,15 @@
         <v>100</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="N126" s="20">
-        <v>180</v>
+        <v>-152</v>
       </c>
       <c r="O126" s="20"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
-      <c r="R126" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R126" s="21"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
       <c r="U126" s="20"/>
@@ -7727,16 +7819,20 @@
     </row>
     <row r="127" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="23" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D127" s="20"/>
       <c r="E127" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="F127" s="21"/>
-      <c r="G127" s="22"/>
+        <v>185</v>
+      </c>
+      <c r="F127" s="21">
+        <v>10002101</v>
+      </c>
+      <c r="G127" s="22">
+        <v>1009</v>
+      </c>
       <c r="H127" s="30" t="s">
-        <v>419</v>
+        <v>68</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>68</v>
@@ -7746,17 +7842,15 @@
         <v>100</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N127" s="20">
-        <v>180</v>
+        <v>-147</v>
       </c>
       <c r="O127" s="20"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
-      <c r="R127" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R127" s="21"/>
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
       <c r="U127" s="20"/>
@@ -7767,16 +7861,20 @@
     </row>
     <row r="128" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="23" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D128" s="20"/>
       <c r="E128" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F128" s="21"/>
-      <c r="G128" s="22"/>
+        <v>335</v>
+      </c>
+      <c r="F128" s="21">
+        <v>10002201</v>
+      </c>
+      <c r="G128" s="22">
+        <v>1009</v>
+      </c>
       <c r="H128" s="30" t="s">
-        <v>423</v>
+        <v>68</v>
       </c>
       <c r="I128" s="30" t="s">
         <v>68</v>
@@ -7786,17 +7884,15 @@
         <v>100</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="N128" s="20">
-        <v>180</v>
+        <v>-129</v>
       </c>
       <c r="O128" s="20"/>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
-      <c r="R128" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R128" s="21"/>
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
       <c r="U128" s="20"/>
@@ -7807,16 +7903,16 @@
     </row>
     <row r="129" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="23" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D129" s="20"/>
       <c r="E129" s="21" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="F129" s="21"/>
       <c r="G129" s="22"/>
       <c r="H129" s="30" t="s">
-        <v>68</v>
+        <v>411</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>68</v>
@@ -7826,16 +7922,16 @@
         <v>100</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="N129" s="20">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="O129" s="20"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
       <c r="R129" s="36" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
@@ -7847,16 +7943,16 @@
     </row>
     <row r="130" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="23" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D130" s="20"/>
       <c r="E130" s="21" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="F130" s="21"/>
       <c r="G130" s="22"/>
       <c r="H130" s="30" t="s">
-        <v>68</v>
+        <v>415</v>
       </c>
       <c r="I130" s="30" t="s">
         <v>68</v>
@@ -7866,7 +7962,7 @@
         <v>100</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="N130" s="20">
         <v>180</v>
@@ -7875,7 +7971,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
       <c r="R130" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
@@ -7887,16 +7983,16 @@
     </row>
     <row r="131" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="23" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D131" s="20"/>
       <c r="E131" s="21" t="s">
-        <v>275</v>
+        <v>418</v>
       </c>
       <c r="F131" s="21"/>
       <c r="G131" s="22"/>
       <c r="H131" s="30" t="s">
-        <v>68</v>
+        <v>419</v>
       </c>
       <c r="I131" s="30" t="s">
         <v>68</v>
@@ -7906,16 +8002,16 @@
         <v>100</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="N131" s="20">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="O131" s="20"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
       <c r="R131" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
@@ -7927,20 +8023,16 @@
     </row>
     <row r="132" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="23" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D132" s="20"/>
       <c r="E132" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F132" s="21">
-        <v>10003101</v>
-      </c>
-      <c r="G132" s="22">
-        <v>1009</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="F132" s="21"/>
+      <c r="G132" s="22"/>
       <c r="H132" s="30" t="s">
-        <v>68</v>
+        <v>423</v>
       </c>
       <c r="I132" s="30" t="s">
         <v>68</v>
@@ -7950,15 +8042,17 @@
         <v>100</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N132" s="20">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="O132" s="20"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
-      <c r="R132" s="21"/>
+      <c r="R132" s="36" t="s">
+        <v>343</v>
+      </c>
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
       <c r="U132" s="20"/>
@@ -7969,18 +8063,14 @@
     </row>
     <row r="133" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D133" s="20"/>
       <c r="E133" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="F133" s="21">
-        <v>10003201</v>
-      </c>
-      <c r="G133" s="22">
-        <v>1009</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F133" s="21"/>
+      <c r="G133" s="22"/>
       <c r="H133" s="30" t="s">
         <v>68</v>
       </c>
@@ -7992,15 +8082,17 @@
         <v>100</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="N133" s="20">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="O133" s="20"/>
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
-      <c r="R133" s="21"/>
+      <c r="R133" s="36" t="s">
+        <v>346</v>
+      </c>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
       <c r="U133" s="20"/>
@@ -8011,16 +8103,16 @@
     </row>
     <row r="134" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="23" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D134" s="20"/>
       <c r="E134" s="21" t="s">
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="F134" s="21"/>
       <c r="G134" s="22"/>
       <c r="H134" s="30" t="s">
-        <v>435</v>
+        <v>68</v>
       </c>
       <c r="I134" s="30" t="s">
         <v>68</v>
@@ -8030,16 +8122,16 @@
         <v>100</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>436</v>
+        <v>361</v>
       </c>
       <c r="N134" s="20">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="O134" s="20"/>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
@@ -8051,16 +8143,16 @@
     </row>
     <row r="135" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="23" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D135" s="20"/>
       <c r="E135" s="21" t="s">
-        <v>438</v>
+        <v>275</v>
       </c>
       <c r="F135" s="21"/>
       <c r="G135" s="22"/>
       <c r="H135" s="30" t="s">
-        <v>439</v>
+        <v>68</v>
       </c>
       <c r="I135" s="30" t="s">
         <v>68</v>
@@ -8070,16 +8162,16 @@
         <v>100</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="N135" s="20">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="O135" s="20"/>
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
       <c r="R135" s="36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
@@ -8091,16 +8183,20 @@
     </row>
     <row r="136" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="23" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D136" s="20"/>
       <c r="E136" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="F136" s="21"/>
-      <c r="G136" s="22"/>
+        <v>185</v>
+      </c>
+      <c r="F136" s="21">
+        <v>10003101</v>
+      </c>
+      <c r="G136" s="22">
+        <v>1009</v>
+      </c>
       <c r="H136" s="30" t="s">
-        <v>443</v>
+        <v>68</v>
       </c>
       <c r="I136" s="30" t="s">
         <v>68</v>
@@ -8110,17 +8206,15 @@
         <v>100</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="N136" s="20">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="O136" s="20"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
-      <c r="R136" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R136" s="21"/>
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
       <c r="U136" s="20"/>
@@ -8131,14 +8225,18 @@
     </row>
     <row r="137" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="23" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D137" s="20"/>
       <c r="E137" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F137" s="21"/>
-      <c r="G137" s="22"/>
+        <v>335</v>
+      </c>
+      <c r="F137" s="21">
+        <v>10003201</v>
+      </c>
+      <c r="G137" s="22">
+        <v>1009</v>
+      </c>
       <c r="H137" s="30" t="s">
         <v>68</v>
       </c>
@@ -8150,17 +8248,15 @@
         <v>100</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="N137" s="20">
-        <v>-70</v>
+        <v>45</v>
       </c>
       <c r="O137" s="20"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
-      <c r="R137" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R137" s="21"/>
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
       <c r="U137" s="20"/>
@@ -8171,16 +8267,16 @@
     </row>
     <row r="138" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="23" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D138" s="20"/>
       <c r="E138" s="21" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="F138" s="21"/>
       <c r="G138" s="22"/>
       <c r="H138" s="30" t="s">
-        <v>68</v>
+        <v>435</v>
       </c>
       <c r="I138" s="30" t="s">
         <v>68</v>
@@ -8190,16 +8286,16 @@
         <v>100</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="N138" s="20">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="O138" s="20"/>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="36" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
@@ -8211,16 +8307,16 @@
     </row>
     <row r="139" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="23" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D139" s="20"/>
       <c r="E139" s="21" t="s">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="F139" s="21"/>
       <c r="G139" s="22"/>
       <c r="H139" s="30" t="s">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="I139" s="30" t="s">
         <v>68</v>
@@ -8230,7 +8326,7 @@
         <v>100</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="N139" s="20">
         <v>180</v>
@@ -8239,7 +8335,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
       <c r="R139" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
@@ -8251,16 +8347,16 @@
     </row>
     <row r="140" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="23" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D140" s="20"/>
       <c r="E140" s="21" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F140" s="21"/>
       <c r="G140" s="22"/>
       <c r="H140" s="30" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="I140" s="30" t="s">
         <v>68</v>
@@ -8270,16 +8366,16 @@
         <v>100</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N140" s="20">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="O140" s="20"/>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
@@ -8291,16 +8387,16 @@
     </row>
     <row r="141" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="23" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D141" s="20"/>
       <c r="E141" s="21" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="F141" s="21"/>
       <c r="G141" s="22"/>
       <c r="H141" s="30" t="s">
-        <v>455</v>
+        <v>68</v>
       </c>
       <c r="I141" s="30" t="s">
         <v>68</v>
@@ -8310,16 +8406,16 @@
         <v>100</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="N141" s="20">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="O141" s="20"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
       <c r="R141" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
@@ -8331,18 +8427,14 @@
     </row>
     <row r="142" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="23" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D142" s="20"/>
       <c r="E142" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F142" s="21">
-        <v>10004101</v>
-      </c>
-      <c r="G142" s="22">
-        <v>1009</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F142" s="21"/>
+      <c r="G142" s="22"/>
       <c r="H142" s="30" t="s">
         <v>68</v>
       </c>
@@ -8354,15 +8446,17 @@
         <v>100</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>458</v>
+        <v>361</v>
       </c>
       <c r="N142" s="20">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="O142" s="20"/>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
-      <c r="R142" s="21"/>
+      <c r="R142" s="36" t="s">
+        <v>346</v>
+      </c>
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
       <c r="U142" s="20"/>
@@ -8373,18 +8467,14 @@
     </row>
     <row r="143" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="23" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D143" s="20"/>
       <c r="E143" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="F143" s="21">
-        <v>10004201</v>
-      </c>
-      <c r="G143" s="22">
-        <v>1009</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F143" s="21"/>
+      <c r="G143" s="22"/>
       <c r="H143" s="30" t="s">
         <v>68</v>
       </c>
@@ -8396,15 +8486,17 @@
         <v>100</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="N143" s="20">
-        <v>-41</v>
+        <v>180</v>
       </c>
       <c r="O143" s="20"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
-      <c r="R143" s="21"/>
+      <c r="R143" s="36" t="s">
+        <v>348</v>
+      </c>
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
       <c r="U143" s="20"/>
@@ -8415,16 +8507,16 @@
     </row>
     <row r="144" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="23" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D144" s="20"/>
       <c r="E144" s="21" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F144" s="21"/>
       <c r="G144" s="22"/>
       <c r="H144" s="30" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="I144" s="30" t="s">
         <v>68</v>
@@ -8434,16 +8526,16 @@
         <v>100</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="N144" s="20">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="O144" s="20"/>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
@@ -8455,16 +8547,16 @@
     </row>
     <row r="145" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="23" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D145" s="20"/>
       <c r="E145" s="21" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F145" s="21"/>
       <c r="G145" s="22"/>
       <c r="H145" s="30" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="I145" s="30" t="s">
         <v>68</v>
@@ -8474,16 +8566,16 @@
         <v>100</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="N145" s="20">
-        <v>101</v>
+        <v>-180</v>
       </c>
       <c r="O145" s="20"/>
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
@@ -8495,16 +8587,20 @@
     </row>
     <row r="146" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="23" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D146" s="20"/>
       <c r="E146" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="F146" s="21"/>
-      <c r="G146" s="22"/>
+        <v>185</v>
+      </c>
+      <c r="F146" s="21">
+        <v>10004101</v>
+      </c>
+      <c r="G146" s="22">
+        <v>1009</v>
+      </c>
       <c r="H146" s="30" t="s">
-        <v>471</v>
+        <v>68</v>
       </c>
       <c r="I146" s="30" t="s">
         <v>68</v>
@@ -8514,17 +8610,15 @@
         <v>100</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="N146" s="20">
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="O146" s="20"/>
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
-      <c r="R146" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R146" s="21"/>
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
       <c r="U146" s="20"/>
@@ -8535,14 +8629,18 @@
     </row>
     <row r="147" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="23" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D147" s="20"/>
       <c r="E147" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="F147" s="21"/>
-      <c r="G147" s="22"/>
+        <v>335</v>
+      </c>
+      <c r="F147" s="21">
+        <v>10004201</v>
+      </c>
+      <c r="G147" s="22">
+        <v>1009</v>
+      </c>
       <c r="H147" s="30" t="s">
         <v>68</v>
       </c>
@@ -8554,17 +8652,15 @@
         <v>100</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>361</v>
+        <v>460</v>
       </c>
       <c r="N147" s="20">
-        <v>180</v>
+        <v>-41</v>
       </c>
       <c r="O147" s="20"/>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
-      <c r="R147" s="36" t="s">
-        <v>346</v>
-      </c>
+      <c r="R147" s="21"/>
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
       <c r="U147" s="20"/>
@@ -8575,16 +8671,16 @@
     </row>
     <row r="148" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="23" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D148" s="20"/>
       <c r="E148" s="21" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="F148" s="21"/>
       <c r="G148" s="22"/>
       <c r="H148" s="30" t="s">
-        <v>68</v>
+        <v>463</v>
       </c>
       <c r="I148" s="30" t="s">
         <v>68</v>
@@ -8594,16 +8690,16 @@
         <v>100</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="N148" s="20">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O148" s="20"/>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
@@ -8615,16 +8711,16 @@
     </row>
     <row r="149" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="23" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D149" s="20"/>
       <c r="E149" s="21" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F149" s="21"/>
       <c r="G149" s="22"/>
       <c r="H149" s="30" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="I149" s="30" t="s">
         <v>68</v>
@@ -8634,16 +8730,16 @@
         <v>100</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="N149" s="20">
-        <v>-180</v>
+        <v>101</v>
       </c>
       <c r="O149" s="20"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
       <c r="R149" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
@@ -8655,16 +8751,16 @@
     </row>
     <row r="150" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="23" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D150" s="20"/>
       <c r="E150" s="21" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F150" s="21"/>
       <c r="G150" s="22"/>
       <c r="H150" s="30" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>68</v>
@@ -8674,16 +8770,16 @@
         <v>100</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="N150" s="20">
-        <v>83</v>
+        <v>-3</v>
       </c>
       <c r="O150" s="20"/>
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
@@ -8695,18 +8791,14 @@
     </row>
     <row r="151" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="23" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D151" s="20"/>
       <c r="E151" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F151" s="21">
-        <v>10005101</v>
-      </c>
-      <c r="G151" s="22">
-        <v>1009</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F151" s="21"/>
+      <c r="G151" s="22"/>
       <c r="H151" s="30" t="s">
         <v>68</v>
       </c>
@@ -8718,15 +8810,17 @@
         <v>100</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>484</v>
+        <v>361</v>
       </c>
       <c r="N151" s="20">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="O151" s="20"/>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
-      <c r="R151" s="21"/>
+      <c r="R151" s="36" t="s">
+        <v>346</v>
+      </c>
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
       <c r="U151" s="20"/>
@@ -8737,18 +8831,14 @@
     </row>
     <row r="152" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="23" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D152" s="20"/>
       <c r="E152" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="F152" s="21">
-        <v>10005201</v>
-      </c>
-      <c r="G152" s="22">
-        <v>1009</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F152" s="21"/>
+      <c r="G152" s="22"/>
       <c r="H152" s="30" t="s">
         <v>68</v>
       </c>
@@ -8760,15 +8850,17 @@
         <v>100</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>484</v>
+        <v>361</v>
       </c>
       <c r="N152" s="20">
-        <v>-44</v>
+        <v>180</v>
       </c>
       <c r="O152" s="20"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
-      <c r="R152" s="21"/>
+      <c r="R152" s="36" t="s">
+        <v>348</v>
+      </c>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
       <c r="U152" s="20"/>
@@ -8779,16 +8871,16 @@
     </row>
     <row r="153" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="23" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D153" s="20"/>
       <c r="E153" s="21" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F153" s="21"/>
       <c r="G153" s="22"/>
       <c r="H153" s="30" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="I153" s="30" t="s">
         <v>68</v>
@@ -8798,16 +8890,16 @@
         <v>100</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="N153" s="20">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="O153" s="20"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
       <c r="R153" s="36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
@@ -8819,16 +8911,16 @@
     </row>
     <row r="154" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="23" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D154" s="20"/>
       <c r="E154" s="21" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F154" s="21"/>
       <c r="G154" s="22"/>
       <c r="H154" s="30" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="I154" s="30" t="s">
         <v>68</v>
@@ -8838,16 +8930,16 @@
         <v>100</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="N154" s="20">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O154" s="20"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
       <c r="R154" s="36" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
@@ -8859,14 +8951,18 @@
     </row>
     <row r="155" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="23" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D155" s="20"/>
       <c r="E155" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="F155" s="21"/>
-      <c r="G155" s="22"/>
+        <v>185</v>
+      </c>
+      <c r="F155" s="21">
+        <v>10005101</v>
+      </c>
+      <c r="G155" s="22">
+        <v>1009</v>
+      </c>
       <c r="H155" s="30" t="s">
         <v>68</v>
       </c>
@@ -8878,17 +8974,15 @@
         <v>100</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>361</v>
+        <v>484</v>
       </c>
       <c r="N155" s="20">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="O155" s="20"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
-      <c r="R155" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R155" s="21"/>
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
       <c r="U155" s="20"/>
@@ -8899,16 +8993,20 @@
     </row>
     <row r="156" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="23" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D156" s="20"/>
       <c r="E156" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F156" s="21"/>
-      <c r="G156" s="22"/>
+        <v>335</v>
+      </c>
+      <c r="F156" s="21">
+        <v>10005201</v>
+      </c>
+      <c r="G156" s="22">
+        <v>1009</v>
+      </c>
       <c r="H156" s="30" t="s">
-        <v>498</v>
+        <v>68</v>
       </c>
       <c r="I156" s="30" t="s">
         <v>68</v>
@@ -8918,17 +9016,15 @@
         <v>100</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="N156" s="20">
-        <v>145</v>
+        <v>-44</v>
       </c>
       <c r="O156" s="20"/>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
-      <c r="R156" s="36" t="s">
-        <v>343</v>
-      </c>
+      <c r="R156" s="21"/>
       <c r="S156" s="3"/>
       <c r="T156" s="3"/>
       <c r="U156" s="20"/>
@@ -8939,16 +9035,16 @@
     </row>
     <row r="157" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="23" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D157" s="20"/>
       <c r="E157" s="21" t="s">
-        <v>344</v>
+        <v>487</v>
       </c>
       <c r="F157" s="21"/>
       <c r="G157" s="22"/>
       <c r="H157" s="30" t="s">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>68</v>
@@ -8958,7 +9054,7 @@
         <v>100</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>361</v>
+        <v>489</v>
       </c>
       <c r="N157" s="20">
         <v>180</v>
@@ -8967,7 +9063,7 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
       <c r="R157" s="36" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
@@ -8979,16 +9075,16 @@
     </row>
     <row r="158" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="23" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D158" s="20"/>
       <c r="E158" s="21" t="s">
-        <v>344</v>
+        <v>491</v>
       </c>
       <c r="F158" s="21"/>
       <c r="G158" s="22"/>
       <c r="H158" s="30" t="s">
-        <v>68</v>
+        <v>492</v>
       </c>
       <c r="I158" s="30" t="s">
         <v>68</v>
@@ -8998,16 +9094,16 @@
         <v>100</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>361</v>
+        <v>493</v>
       </c>
       <c r="N158" s="20">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="O158" s="20"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
@@ -9018,12 +9114,12 @@
       <c r="Y158" s="20"/>
     </row>
     <row r="159" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="21">
-        <v>20099001</v>
+      <c r="C159" s="23" t="s">
+        <v>494</v>
       </c>
       <c r="D159" s="20"/>
       <c r="E159" s="21" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F159" s="21"/>
       <c r="G159" s="22"/>
@@ -9047,7 +9143,7 @@
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
       <c r="R159" s="36" t="s">
-        <v>503</v>
+        <v>343</v>
       </c>
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
@@ -9058,17 +9154,17 @@
       <c r="Y159" s="20"/>
     </row>
     <row r="160" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="21">
-        <v>20099002</v>
+      <c r="C160" s="23" t="s">
+        <v>496</v>
       </c>
       <c r="D160" s="20"/>
       <c r="E160" s="21" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F160" s="21"/>
       <c r="G160" s="22"/>
       <c r="H160" s="30" t="s">
-        <v>68</v>
+        <v>498</v>
       </c>
       <c r="I160" s="30" t="s">
         <v>68</v>
@@ -9078,16 +9174,16 @@
         <v>100</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>361</v>
+        <v>499</v>
       </c>
       <c r="N160" s="20">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="O160" s="20"/>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
       <c r="R160" s="36" t="s">
-        <v>505</v>
+        <v>343</v>
       </c>
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
@@ -9098,12 +9194,12 @@
       <c r="Y160" s="20"/>
     </row>
     <row r="161" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="21">
-        <v>20099003</v>
+      <c r="C161" s="23" t="s">
+        <v>500</v>
       </c>
       <c r="D161" s="20"/>
       <c r="E161" s="21" t="s">
-        <v>506</v>
+        <v>344</v>
       </c>
       <c r="F161" s="21"/>
       <c r="G161" s="22"/>
@@ -9127,7 +9223,7 @@
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
       <c r="R161" s="36" t="s">
-        <v>507</v>
+        <v>346</v>
       </c>
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
@@ -9138,12 +9234,12 @@
       <c r="Y161" s="20"/>
     </row>
     <row r="162" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="21">
-        <v>20099004</v>
+      <c r="C162" s="23" t="s">
+        <v>501</v>
       </c>
       <c r="D162" s="20"/>
       <c r="E162" s="21" t="s">
-        <v>508</v>
+        <v>344</v>
       </c>
       <c r="F162" s="21"/>
       <c r="G162" s="22"/>
@@ -9167,7 +9263,7 @@
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
       <c r="R162" s="36" t="s">
-        <v>509</v>
+        <v>348</v>
       </c>
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
@@ -9179,11 +9275,11 @@
     </row>
     <row r="163" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="21">
-        <v>20099005</v>
+        <v>20099001</v>
       </c>
       <c r="D163" s="20"/>
       <c r="E163" s="21" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F163" s="21"/>
       <c r="G163" s="22"/>
@@ -9207,7 +9303,7 @@
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
       <c r="R163" s="36" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
@@ -9219,11 +9315,11 @@
     </row>
     <row r="164" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="21">
-        <v>20099006</v>
+        <v>20099002</v>
       </c>
       <c r="D164" s="20"/>
       <c r="E164" s="21" t="s">
-        <v>344</v>
+        <v>504</v>
       </c>
       <c r="F164" s="21"/>
       <c r="G164" s="22"/>
@@ -9247,7 +9343,7 @@
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
       <c r="R164" s="36" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
@@ -9259,24 +9355,26 @@
     </row>
     <row r="165" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="21">
-        <v>20099007</v>
+        <v>20099003</v>
       </c>
       <c r="D165" s="20"/>
-      <c r="E165" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="F165" s="37"/>
-      <c r="G165" s="22">
-        <v>1057</v>
-      </c>
-      <c r="H165" s="30"/>
-      <c r="I165" s="30"/>
+      <c r="E165" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F165" s="21"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I165" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J165" s="30"/>
       <c r="L165" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M165" s="46" t="s">
-        <v>514</v>
+      <c r="M165" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="N165" s="20">
         <v>180</v>
@@ -9284,7 +9382,9 @@
       <c r="O165" s="20"/>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
-      <c r="R165" s="39"/>
+      <c r="R165" s="36" t="s">
+        <v>507</v>
+      </c>
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
       <c r="U165" s="20"/>
@@ -9295,31 +9395,35 @@
     </row>
     <row r="166" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="21">
-        <v>20099008</v>
+        <v>20099004</v>
       </c>
       <c r="D166" s="20"/>
-      <c r="E166" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="F166" s="37"/>
+      <c r="E166" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="F166" s="21"/>
       <c r="G166" s="22"/>
-      <c r="H166" s="30"/>
-      <c r="I166" s="30"/>
+      <c r="H166" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I166" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J166" s="30"/>
       <c r="L166" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M166" s="46" t="s">
-        <v>516</v>
+      <c r="M166" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="N166" s="20">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O166" s="20"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
-      <c r="R166" s="39" t="s">
-        <v>517</v>
+      <c r="R166" s="36" t="s">
+        <v>509</v>
       </c>
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
@@ -9331,31 +9435,35 @@
     </row>
     <row r="167" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="21">
-        <v>20099009</v>
+        <v>20099005</v>
       </c>
       <c r="D167" s="20"/>
-      <c r="E167" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="F167" s="37"/>
+      <c r="E167" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="F167" s="21"/>
       <c r="G167" s="22"/>
-      <c r="H167" s="30"/>
-      <c r="I167" s="30"/>
+      <c r="H167" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I167" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J167" s="30"/>
       <c r="L167" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M167" s="46" t="s">
-        <v>519</v>
+      <c r="M167" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="N167" s="20">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O167" s="20"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
-      <c r="R167" s="39" t="s">
-        <v>520</v>
+      <c r="R167" s="36" t="s">
+        <v>511</v>
       </c>
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
@@ -9367,31 +9475,35 @@
     </row>
     <row r="168" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="21">
-        <v>20099010</v>
+        <v>20099006</v>
       </c>
       <c r="D168" s="20"/>
-      <c r="E168" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="F168" s="37"/>
+      <c r="E168" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="F168" s="21"/>
       <c r="G168" s="22"/>
-      <c r="H168" s="30"/>
-      <c r="I168" s="30"/>
+      <c r="H168" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I168" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J168" s="30"/>
       <c r="L168" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M168" s="46" t="s">
-        <v>522</v>
+      <c r="M168" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="N168" s="20">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O168" s="20"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
-      <c r="R168" s="39" t="s">
-        <v>523</v>
+      <c r="R168" s="36" t="s">
+        <v>512</v>
       </c>
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
@@ -9403,34 +9515,30 @@
     </row>
     <row r="169" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="21">
-        <v>20099011</v>
+        <v>20099007</v>
       </c>
       <c r="D169" s="20"/>
       <c r="E169" s="37" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="F169" s="37"/>
-      <c r="G169" s="22"/>
+      <c r="G169" s="22">
+        <v>1057</v>
+      </c>
       <c r="H169" s="30"/>
       <c r="I169" s="30"/>
-      <c r="J169" s="30" t="s">
-        <v>525</v>
-      </c>
+      <c r="J169" s="30"/>
       <c r="L169" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M169" s="46" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N169" s="20">
-        <v>0</v>
-      </c>
-      <c r="O169" s="20">
-        <v>13</v>
-      </c>
-      <c r="P169" s="50" t="s">
-        <v>526</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O169" s="20"/>
+      <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
       <c r="R169" s="39"/>
       <c r="S169" s="3"/>
@@ -9443,36 +9551,32 @@
     </row>
     <row r="170" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="21">
-        <v>20099012</v>
+        <v>20099008</v>
       </c>
       <c r="D170" s="20"/>
       <c r="E170" s="37" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="22"/>
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
-      <c r="J170" s="30" t="s">
-        <v>525</v>
-      </c>
+      <c r="J170" s="30"/>
       <c r="L170" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M170" s="46" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="N170" s="20">
         <v>0</v>
       </c>
-      <c r="O170" s="20">
-        <v>13</v>
-      </c>
-      <c r="P170" s="50" t="s">
-        <v>526</v>
-      </c>
+      <c r="O170" s="20"/>
+      <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="39"/>
+      <c r="R170" s="39" t="s">
+        <v>517</v>
+      </c>
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
       <c r="U170" s="20"/>
@@ -9483,36 +9587,32 @@
     </row>
     <row r="171" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="21">
-        <v>20099013</v>
+        <v>20099009</v>
       </c>
       <c r="D171" s="20"/>
       <c r="E171" s="37" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="22"/>
       <c r="H171" s="30"/>
       <c r="I171" s="30"/>
-      <c r="J171" s="30" t="s">
-        <v>525</v>
-      </c>
+      <c r="J171" s="30"/>
       <c r="L171" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M171" s="46" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="N171" s="20">
         <v>0</v>
       </c>
-      <c r="O171" s="20">
-        <v>13</v>
-      </c>
-      <c r="P171" s="50" t="s">
-        <v>526</v>
-      </c>
+      <c r="O171" s="20"/>
+      <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
-      <c r="R171" s="39"/>
+      <c r="R171" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
       <c r="U171" s="20"/>
@@ -9521,179 +9621,179 @@
       <c r="X171" s="20"/>
       <c r="Y171" s="20"/>
     </row>
-    <row r="172" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="23" t="s">
-        <v>532</v>
+    <row r="172" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="21">
+        <v>20099010</v>
       </c>
       <c r="D172" s="20"/>
-      <c r="E172" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="F172" s="20">
-        <v>300001</v>
-      </c>
-      <c r="G172" s="22">
-        <v>1034</v>
-      </c>
-      <c r="H172" s="22">
-        <v>0</v>
-      </c>
-      <c r="I172" s="22">
-        <v>0</v>
-      </c>
-      <c r="J172" s="22"/>
-      <c r="K172" s="2"/>
+      <c r="E172" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F172" s="37"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="30"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
       <c r="L172" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M172" s="48" t="s">
-        <v>534</v>
+      <c r="M172" s="46" t="s">
+        <v>522</v>
       </c>
       <c r="N172" s="20">
         <v>0</v>
       </c>
       <c r="O172" s="20"/>
-      <c r="P172" s="29"/>
-      <c r="R172" s="33"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
       <c r="U172" s="20"/>
       <c r="V172" s="20"/>
       <c r="W172" s="20"/>
       <c r="X172" s="20"/>
       <c r="Y172" s="20"/>
     </row>
-    <row r="173" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="23" t="s">
-        <v>535</v>
+    <row r="173" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="21">
+        <v>20099011</v>
       </c>
       <c r="D173" s="20"/>
-      <c r="E173" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="F173" s="20"/>
-      <c r="G173" s="22">
-        <v>1035</v>
-      </c>
-      <c r="H173" s="22">
-        <v>0</v>
-      </c>
-      <c r="I173" s="22">
-        <v>0</v>
-      </c>
-      <c r="J173" s="22"/>
-      <c r="K173" s="2"/>
+      <c r="E173" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="F173" s="37"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30" t="s">
+        <v>525</v>
+      </c>
       <c r="L173" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M173" s="48" t="s">
-        <v>537</v>
+      <c r="M173" s="46" t="s">
+        <v>516</v>
       </c>
       <c r="N173" s="20">
-        <v>90</v>
-      </c>
-      <c r="O173" s="20"/>
-      <c r="P173" s="29"/>
-      <c r="R173" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="O173" s="20">
+        <v>13</v>
+      </c>
+      <c r="P173" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="39"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
       <c r="U173" s="20"/>
       <c r="V173" s="20"/>
       <c r="W173" s="20"/>
       <c r="X173" s="20"/>
       <c r="Y173" s="20"/>
     </row>
-    <row r="174" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="23" t="s">
-        <v>538</v>
+    <row r="174" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="21">
+        <v>20099012</v>
       </c>
       <c r="D174" s="20"/>
-      <c r="E174" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="F174" s="20"/>
-      <c r="G174" s="22">
-        <v>1033</v>
-      </c>
-      <c r="H174" s="22">
-        <v>0</v>
-      </c>
-      <c r="I174" s="22">
-        <v>0</v>
-      </c>
-      <c r="J174" s="22"/>
-      <c r="K174" s="2"/>
+      <c r="E174" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="F174" s="37"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30" t="s">
+        <v>525</v>
+      </c>
       <c r="L174" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M174" s="48" t="s">
-        <v>540</v>
+      <c r="M174" s="46" t="s">
+        <v>528</v>
       </c>
       <c r="N174" s="20">
-        <v>210</v>
-      </c>
-      <c r="O174" s="20"/>
-      <c r="R174" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="O174" s="20">
+        <v>13</v>
+      </c>
+      <c r="P174" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="39"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
       <c r="U174" s="20"/>
       <c r="V174" s="20"/>
       <c r="W174" s="20"/>
       <c r="X174" s="20"/>
       <c r="Y174" s="20"/>
     </row>
-    <row r="175" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="23" t="s">
-        <v>541</v>
+    <row r="175" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="21">
+        <v>20099013</v>
       </c>
       <c r="D175" s="20"/>
-      <c r="E175" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="F175" s="20"/>
-      <c r="G175" s="22">
-        <v>1039</v>
-      </c>
-      <c r="H175" s="22">
-        <v>0</v>
-      </c>
-      <c r="I175" s="22">
-        <v>0</v>
-      </c>
-      <c r="J175" s="22"/>
-      <c r="K175" s="2"/>
+      <c r="E175" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="F175" s="37"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30" t="s">
+        <v>525</v>
+      </c>
       <c r="L175" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M175" s="48" t="s">
-        <v>543</v>
+      <c r="M175" s="46" t="s">
+        <v>530</v>
       </c>
       <c r="N175" s="20">
         <v>0</v>
       </c>
-      <c r="O175" s="20"/>
-      <c r="R175" s="33"/>
+      <c r="O175" s="20">
+        <v>13</v>
+      </c>
+      <c r="P175" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="39"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
       <c r="U175" s="20"/>
       <c r="V175" s="20"/>
       <c r="W175" s="20"/>
       <c r="X175" s="20"/>
       <c r="Y175" s="20"/>
     </row>
-    <row r="176" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B176" s="2"/>
       <c r="C176" s="23" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D176" s="20"/>
       <c r="E176" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="F176" s="20"/>
+        <v>533</v>
+      </c>
+      <c r="F176" s="20">
+        <v>300001</v>
+      </c>
       <c r="G176" s="22">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H176" s="22">
         <v>0</v>
@@ -9702,38 +9802,38 @@
         <v>0</v>
       </c>
       <c r="J176" s="22"/>
+      <c r="K176" s="2"/>
       <c r="L176" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M176" s="48" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="N176" s="20">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O176" s="20"/>
-      <c r="P176" s="3"/>
-      <c r="Q176" s="3"/>
-      <c r="R176" s="3"/>
-      <c r="S176" s="3"/>
-      <c r="T176" s="3"/>
+      <c r="P176" s="29"/>
+      <c r="R176" s="33"/>
       <c r="U176" s="20"/>
       <c r="V176" s="20"/>
       <c r="W176" s="20"/>
       <c r="X176" s="20"/>
       <c r="Y176" s="20"/>
     </row>
-    <row r="177" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="23" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D177" s="20"/>
       <c r="E177" s="38" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F177" s="20"/>
       <c r="G177" s="22">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="H177" s="22">
         <v>0</v>
@@ -9742,38 +9842,38 @@
         <v>0</v>
       </c>
       <c r="J177" s="22"/>
+      <c r="K177" s="2"/>
       <c r="L177" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M177" s="48" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="N177" s="20">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="O177" s="20"/>
-      <c r="P177" s="3"/>
-      <c r="Q177" s="3"/>
-      <c r="R177" s="3"/>
-      <c r="S177" s="3"/>
-      <c r="T177" s="3"/>
+      <c r="P177" s="29"/>
+      <c r="R177" s="33"/>
       <c r="U177" s="20"/>
       <c r="V177" s="20"/>
       <c r="W177" s="20"/>
       <c r="X177" s="20"/>
       <c r="Y177" s="20"/>
     </row>
-    <row r="178" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="23" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D178" s="20"/>
       <c r="E178" s="38" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F178" s="20"/>
       <c r="G178" s="22">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="H178" s="22">
         <v>0</v>
@@ -9782,38 +9882,37 @@
         <v>0</v>
       </c>
       <c r="J178" s="22"/>
+      <c r="K178" s="2"/>
       <c r="L178" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M178" s="48" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="N178" s="20">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="O178" s="20"/>
-      <c r="P178" s="3"/>
-      <c r="Q178" s="3"/>
-      <c r="R178" s="3"/>
-      <c r="S178" s="3"/>
-      <c r="T178" s="3"/>
+      <c r="R178" s="33"/>
       <c r="U178" s="20"/>
       <c r="V178" s="20"/>
       <c r="W178" s="20"/>
       <c r="X178" s="20"/>
       <c r="Y178" s="20"/>
     </row>
-    <row r="179" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
       <c r="C179" s="23" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="D179" s="20"/>
       <c r="E179" s="38" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F179" s="20"/>
       <c r="G179" s="22">
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="H179" s="22">
         <v>0</v>
@@ -9822,21 +9921,18 @@
         <v>0</v>
       </c>
       <c r="J179" s="22"/>
+      <c r="K179" s="2"/>
       <c r="L179" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M179" s="48" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="N179" s="20">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="O179" s="20"/>
-      <c r="P179" s="3"/>
-      <c r="Q179" s="3"/>
-      <c r="R179" s="3"/>
-      <c r="S179" s="3"/>
-      <c r="T179" s="3"/>
+      <c r="R179" s="33"/>
       <c r="U179" s="20"/>
       <c r="V179" s="20"/>
       <c r="W179" s="20"/>
@@ -9845,15 +9941,15 @@
     </row>
     <row r="180" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="23" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D180" s="20"/>
       <c r="E180" s="38" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="F180" s="20"/>
       <c r="G180" s="22">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H180" s="22">
         <v>0</v>
@@ -9866,10 +9962,10 @@
         <v>100</v>
       </c>
       <c r="M180" s="48" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="N180" s="20">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="O180" s="20"/>
       <c r="P180" s="3"/>
@@ -9885,15 +9981,15 @@
     </row>
     <row r="181" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D181" s="20"/>
       <c r="E181" s="38" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F181" s="20"/>
       <c r="G181" s="22">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="H181" s="22">
         <v>0</v>
@@ -9906,10 +10002,10 @@
         <v>100</v>
       </c>
       <c r="M181" s="48" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="N181" s="20">
-        <v>-150</v>
+        <v>123</v>
       </c>
       <c r="O181" s="20"/>
       <c r="P181" s="3"/>
@@ -9925,15 +10021,15 @@
     </row>
     <row r="182" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="23" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D182" s="20"/>
       <c r="E182" s="38" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="F182" s="20"/>
       <c r="G182" s="22">
-        <v>1047</v>
+        <v>0</v>
       </c>
       <c r="H182" s="22">
         <v>0</v>
@@ -9946,12 +10042,12 @@
         <v>100</v>
       </c>
       <c r="M182" s="48" t="s">
-        <v>563</v>
-      </c>
-      <c r="N182" s="22">
+        <v>552</v>
+      </c>
+      <c r="N182" s="20">
         <v>90</v>
       </c>
-      <c r="O182" s="22"/>
+      <c r="O182" s="20"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
@@ -9963,21 +10059,17 @@
       <c r="X182" s="20"/>
       <c r="Y182" s="20"/>
     </row>
-    <row r="183" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
+    <row r="183" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="23" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D183" s="20"/>
       <c r="E183" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="F183" s="20">
-        <v>400001</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="F183" s="20"/>
       <c r="G183" s="22">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="H183" s="22">
         <v>0</v>
@@ -9986,17 +10078,21 @@
         <v>0</v>
       </c>
       <c r="J183" s="22"/>
-      <c r="K183" s="2"/>
       <c r="L183" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M183" s="48" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="N183" s="20">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="O183" s="20"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
       <c r="U183" s="20"/>
       <c r="V183" s="20"/>
       <c r="W183" s="20"/>
@@ -10005,15 +10101,15 @@
     </row>
     <row r="184" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="23" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D184" s="20"/>
       <c r="E184" s="38" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="F184" s="20"/>
       <c r="G184" s="22">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="H184" s="22">
         <v>0</v>
@@ -10026,10 +10122,10 @@
         <v>100</v>
       </c>
       <c r="M184" s="48" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="N184" s="20">
-        <v>173</v>
+        <v>-90</v>
       </c>
       <c r="O184" s="20"/>
       <c r="P184" s="3"/>
@@ -10045,15 +10141,15 @@
     </row>
     <row r="185" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="23" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D185" s="20"/>
       <c r="E185" s="38" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F185" s="20"/>
       <c r="G185" s="22">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="H185" s="22">
         <v>0</v>
@@ -10066,10 +10162,10 @@
         <v>100</v>
       </c>
       <c r="M185" s="48" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="N185" s="20">
-        <v>235</v>
+        <v>-150</v>
       </c>
       <c r="O185" s="20"/>
       <c r="P185" s="3"/>
@@ -10085,15 +10181,15 @@
     </row>
     <row r="186" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="23" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D186" s="20"/>
       <c r="E186" s="38" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="F186" s="20"/>
       <c r="G186" s="22">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="H186" s="22">
         <v>0</v>
@@ -10106,12 +10202,12 @@
         <v>100</v>
       </c>
       <c r="M186" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="N186" s="20">
-        <v>175</v>
-      </c>
-      <c r="O186" s="20"/>
+        <v>563</v>
+      </c>
+      <c r="N186" s="22">
+        <v>90</v>
+      </c>
+      <c r="O186" s="22"/>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
       <c r="R186" s="3"/>
@@ -10123,17 +10219,21 @@
       <c r="X186" s="20"/>
       <c r="Y186" s="20"/>
     </row>
-    <row r="187" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
       <c r="C187" s="23" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D187" s="20"/>
       <c r="E187" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="F187" s="20"/>
+        <v>565</v>
+      </c>
+      <c r="F187" s="20">
+        <v>400001</v>
+      </c>
       <c r="G187" s="22">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="H187" s="22">
         <v>0</v>
@@ -10142,21 +10242,17 @@
         <v>0</v>
       </c>
       <c r="J187" s="22"/>
+      <c r="K187" s="2"/>
       <c r="L187" s="23" t="s">
         <v>100</v>
       </c>
       <c r="M187" s="48" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="N187" s="20">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="O187" s="20"/>
-      <c r="P187" s="3"/>
-      <c r="Q187" s="3"/>
-      <c r="R187" s="3"/>
-      <c r="S187" s="3"/>
-      <c r="T187" s="3"/>
       <c r="U187" s="20"/>
       <c r="V187" s="20"/>
       <c r="W187" s="20"/>
@@ -10165,15 +10261,15 @@
     </row>
     <row r="188" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="23" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D188" s="20"/>
       <c r="E188" s="38" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="F188" s="20"/>
       <c r="G188" s="22">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="H188" s="22">
         <v>0</v>
@@ -10186,10 +10282,10 @@
         <v>100</v>
       </c>
       <c r="M188" s="48" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="N188" s="20">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O188" s="20"/>
       <c r="P188" s="3"/>
@@ -10205,15 +10301,15 @@
     </row>
     <row r="189" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="23" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D189" s="20"/>
       <c r="E189" s="38" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F189" s="20"/>
       <c r="G189" s="22">
-        <v>10</v>
+        <v>1051</v>
       </c>
       <c r="H189" s="22">
         <v>0</v>
@@ -10226,10 +10322,10 @@
         <v>100</v>
       </c>
       <c r="M189" s="48" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="N189" s="20">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="O189" s="20"/>
       <c r="P189" s="3"/>
@@ -10243,20 +10339,180 @@
       <c r="X189" s="20"/>
       <c r="Y189" s="20"/>
     </row>
-    <row r="190" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="D190" s="20"/>
+      <c r="E190" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="F190" s="20"/>
+      <c r="G190" s="22">
+        <v>1053</v>
+      </c>
+      <c r="H190" s="22">
+        <v>0</v>
+      </c>
+      <c r="I190" s="22">
+        <v>0</v>
+      </c>
+      <c r="J190" s="22"/>
+      <c r="L190" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M190" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="N190" s="20">
+        <v>175</v>
+      </c>
+      <c r="O190" s="20"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="20"/>
+      <c r="V190" s="20"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="20"/>
+      <c r="Y190" s="20"/>
+    </row>
+    <row r="191" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="D191" s="20"/>
+      <c r="E191" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="F191" s="20"/>
+      <c r="G191" s="22">
+        <v>1054</v>
+      </c>
+      <c r="H191" s="22">
+        <v>0</v>
+      </c>
+      <c r="I191" s="22">
+        <v>0</v>
+      </c>
+      <c r="J191" s="22"/>
+      <c r="L191" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M191" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="N191" s="20">
+        <v>175</v>
+      </c>
+      <c r="O191" s="20"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="20"/>
+      <c r="V191" s="20"/>
+      <c r="W191" s="20"/>
+      <c r="X191" s="20"/>
+      <c r="Y191" s="20"/>
+    </row>
+    <row r="192" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="D192" s="20"/>
+      <c r="E192" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="F192" s="20"/>
+      <c r="G192" s="22">
+        <v>1054</v>
+      </c>
+      <c r="H192" s="22">
+        <v>0</v>
+      </c>
+      <c r="I192" s="22">
+        <v>0</v>
+      </c>
+      <c r="J192" s="22"/>
+      <c r="L192" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M192" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="N192" s="20">
+        <v>175</v>
+      </c>
+      <c r="O192" s="20"/>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+      <c r="U192" s="20"/>
+      <c r="V192" s="20"/>
+      <c r="W192" s="20"/>
+      <c r="X192" s="20"/>
+      <c r="Y192" s="20"/>
+    </row>
+    <row r="193" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="D193" s="20"/>
+      <c r="E193" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="F193" s="20"/>
+      <c r="G193" s="22">
+        <v>10</v>
+      </c>
+      <c r="H193" s="22">
+        <v>0</v>
+      </c>
+      <c r="I193" s="22">
+        <v>0</v>
+      </c>
+      <c r="J193" s="22"/>
+      <c r="L193" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M193" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="N193" s="20">
+        <v>175</v>
+      </c>
+      <c r="O193" s="20"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+      <c r="U193" s="20"/>
+      <c r="V193" s="20"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="20"/>
+      <c r="Y193" s="20"/>
+    </row>
+    <row r="194" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD0EC4-FCBC-4822-8974-93BD843014D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A676E-AAB3-4A2E-B942-690C7552A8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3059,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3107,7 +3107,7 @@
       <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -3176,7 +3176,7 @@
       <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -3245,7 +3245,7 @@
       <c r="E5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -3894,7 +3894,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="1"/>
       <c r="L20" s="19">
-        <v>10001</v>
+        <v>10015</v>
       </c>
       <c r="M20" s="52" t="s">
         <v>590</v>
@@ -3938,8 +3938,8 @@
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="19">
-        <v>10001</v>
+      <c r="L21" s="14">
+        <v>10016</v>
       </c>
       <c r="M21" s="52" t="s">
         <v>586</v>
@@ -3984,7 +3984,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="1"/>
       <c r="L22" s="19">
-        <v>10001</v>
+        <v>10017</v>
       </c>
       <c r="M22" s="52" t="s">
         <v>589</v>
@@ -4028,8 +4028,8 @@
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="19">
-        <v>10001</v>
+      <c r="L23" s="14">
+        <v>10018</v>
       </c>
       <c r="M23" s="52" t="s">
         <v>588</v>
@@ -4074,7 +4074,7 @@
       <c r="J24" s="18"/>
       <c r="K24" s="1"/>
       <c r="L24" s="19">
-        <v>10001</v>
+        <v>10019</v>
       </c>
       <c r="M24" s="43" t="s">
         <v>594</v>
@@ -4119,7 +4119,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="1"/>
       <c r="L25" s="19">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="M25" s="43" t="s">
         <v>595</v>
@@ -4162,7 +4162,7 @@
       <c r="J26" s="18"/>
       <c r="K26" s="1"/>
       <c r="L26" s="19">
-        <v>10001</v>
+        <v>10021</v>
       </c>
       <c r="M26" s="43" t="s">
         <v>596</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A676E-AAB3-4A2E-B942-690C7552A8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44C5B4F-BDD1-482E-AAF6-43A46EAB5A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="601">
   <si>
     <t>#</t>
   </si>
@@ -2374,6 +2374,14 @@
   </si>
   <si>
     <t>-5243,141,-3324</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001b</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001a</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3060,7 +3068,7 @@
   <dimension ref="A1:Y207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3771,7 +3779,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="L17" s="26" t="s">
-        <v>87</v>
+        <v>600</v>
       </c>
       <c r="M17" s="43" t="s">
         <v>88</v>
@@ -4204,8 +4212,8 @@
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="19">
-        <v>10001</v>
+      <c r="L27" s="19" t="s">
+        <v>599</v>
       </c>
       <c r="M27" s="43" t="s">
         <v>598</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44C5B4F-BDD1-482E-AAF6-43A46EAB5A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE0CA7-2B66-40D6-ABEF-461795C13DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -836,9 +836,6 @@
     <t>在我这里有100层,听说能闯到最后的都是勇士哦！</t>
   </si>
   <si>
-    <t>挑战之地</t>
-  </si>
-  <si>
     <t>10002</t>
   </si>
   <si>
@@ -2382,6 +2379,10 @@
   </si>
   <si>
     <t>10001a</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者之境</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3068,7 +3069,7 @@
   <dimension ref="A1:Y207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3589,7 +3590,7 @@
         <v>69</v>
       </c>
       <c r="M12" s="53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N12" s="16">
         <v>-250</v>
@@ -3779,7 +3780,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="L17" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M17" s="43" t="s">
         <v>88</v>
@@ -3807,7 +3808,7 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16">
@@ -3818,10 +3819,10 @@
       <c r="J18" s="18"/>
       <c r="K18" s="1"/>
       <c r="L18" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="43" t="s">
         <v>91</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>92</v>
       </c>
       <c r="N18" s="15">
         <v>45</v>
@@ -3830,7 +3831,7 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="16">
@@ -3857,10 +3858,10 @@
       <c r="J19" s="18"/>
       <c r="K19" s="1"/>
       <c r="L19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="43" t="s">
         <v>95</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>96</v>
       </c>
       <c r="N19" s="15">
         <v>0</v>
@@ -3869,7 +3870,7 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -3885,7 +3886,7 @@
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F20" s="16">
         <v>2</v>
@@ -3905,7 +3906,7 @@
         <v>10015</v>
       </c>
       <c r="M20" s="52" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N20" s="15">
         <v>270</v>
@@ -3914,7 +3915,7 @@
       <c r="P20" s="29"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -3930,7 +3931,7 @@
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F21" s="16">
         <v>1</v>
@@ -3950,7 +3951,7 @@
         <v>10016</v>
       </c>
       <c r="M21" s="52" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N21" s="15">
         <v>-325</v>
@@ -3959,7 +3960,7 @@
       <c r="P21" s="29"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -3975,7 +3976,7 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F22" s="16">
         <v>3</v>
@@ -3995,7 +3996,7 @@
         <v>10017</v>
       </c>
       <c r="M22" s="52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N22" s="15">
         <v>-256</v>
@@ -4004,7 +4005,7 @@
       <c r="P22" s="29"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -4020,7 +4021,7 @@
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F23" s="16">
         <v>6</v>
@@ -4040,7 +4041,7 @@
         <v>10018</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N23" s="15">
         <v>-261</v>
@@ -4049,7 +4050,7 @@
       <c r="P23" s="29"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -4065,7 +4066,7 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F24" s="16">
         <v>4</v>
@@ -4085,7 +4086,7 @@
         <v>10019</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N24" s="15">
         <v>-135</v>
@@ -4094,7 +4095,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -4110,7 +4111,7 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F25" s="16">
         <v>100001</v>
@@ -4130,7 +4131,7 @@
         <v>10004</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N25" s="15">
         <v>-180</v>
@@ -4153,7 +4154,7 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F26" s="16">
         <v>5</v>
@@ -4173,7 +4174,7 @@
         <v>10021</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N26" s="15">
         <v>-245</v>
@@ -4182,7 +4183,7 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -4198,7 +4199,7 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16">
@@ -4213,10 +4214,10 @@
       <c r="J27" s="18"/>
       <c r="K27" s="1"/>
       <c r="L27" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M27" s="43" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N27" s="15">
         <v>-270</v>
@@ -4225,7 +4226,7 @@
       <c r="P27" s="29"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -4240,7 +4241,7 @@
         <v>10001</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="19"/>
       <c r="H28" s="5"/>
@@ -4251,7 +4252,7 @@
         <v>10001</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N28" s="6">
         <v>0</v>
@@ -4263,7 +4264,7 @@
         <v>10002</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="19"/>
       <c r="H29" s="5"/>
@@ -4271,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
@@ -4286,7 +4287,7 @@
         <v>10003</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="19"/>
       <c r="H30" s="5"/>
@@ -4294,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -4309,7 +4310,7 @@
         <v>10004</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="19"/>
       <c r="H31" s="5"/>
@@ -4317,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M31" s="6">
         <v>0</v>
@@ -4326,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4337,11 +4338,11 @@
         <v>1000101</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" s="19"/>
       <c r="H32" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="5">
         <v>0</v>
@@ -4350,7 +4351,7 @@
         <v>10001</v>
       </c>
       <c r="M32" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N32" s="6">
         <v>0</v>
@@ -4362,18 +4363,18 @@
         <v>1000201</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="19"/>
       <c r="H33" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="5"/>
       <c r="L33" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="45" t="s">
         <v>107</v>
-      </c>
-      <c r="M33" s="45" t="s">
-        <v>108</v>
       </c>
       <c r="N33" s="6">
         <v>180</v>
@@ -4386,18 +4387,18 @@
         <v>1000301</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="19"/>
       <c r="H34" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" s="5"/>
       <c r="L34" s="27" t="s">
         <v>87</v>
       </c>
       <c r="M34" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N34" s="6">
         <v>-306</v>
@@ -4410,18 +4411,18 @@
         <v>1000401</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="19"/>
       <c r="H35" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" s="5"/>
       <c r="L35" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M35" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="M35" s="42" t="s">
-        <v>115</v>
       </c>
       <c r="N35" s="6">
         <v>-183</v>
@@ -4434,18 +4435,18 @@
         <v>1000501</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F36" s="19"/>
       <c r="H36" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="5"/>
       <c r="L36" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="N36" s="6">
         <v>-180</v>
@@ -4458,18 +4459,18 @@
         <v>2000101</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37" s="19"/>
       <c r="H37" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I37" s="5"/>
       <c r="L37" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="M37" s="42" t="s">
-        <v>123</v>
       </c>
       <c r="N37" s="6">
         <v>-155</v>
@@ -4482,18 +4483,18 @@
         <v>2000201</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" s="19"/>
       <c r="H38" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I38" s="5"/>
       <c r="L38" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M38" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N38" s="6">
         <v>-274</v>
@@ -4506,18 +4507,18 @@
         <v>2000301</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F39" s="19"/>
       <c r="H39" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" s="5"/>
       <c r="L39" s="27" t="s">
         <v>87</v>
       </c>
       <c r="M39" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N39" s="6">
         <v>-223</v>
@@ -4530,18 +4531,18 @@
         <v>2000401</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="19"/>
       <c r="H40" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I40" s="5"/>
       <c r="L40" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M40" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="6">
         <v>-87</v>
@@ -4554,18 +4555,18 @@
         <v>2000501</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="19"/>
       <c r="H41" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" s="5"/>
       <c r="L41" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M41" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N41" s="6">
         <v>-45</v>
@@ -4578,18 +4579,18 @@
         <v>3000101</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" s="19"/>
       <c r="H42" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I42" s="5"/>
       <c r="L42" s="27" t="s">
         <v>87</v>
       </c>
       <c r="M42" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="6">
         <v>-200</v>
@@ -4602,18 +4603,18 @@
         <v>3000201</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" s="19"/>
       <c r="H43" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I43" s="5"/>
       <c r="L43" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N43" s="6">
         <v>-144</v>
@@ -4626,18 +4627,18 @@
         <v>3000301</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44" s="19"/>
       <c r="H44" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I44" s="5"/>
       <c r="L44" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M44" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N44" s="6">
         <v>-180</v>
@@ -4650,18 +4651,18 @@
         <v>3000401</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F45" s="19"/>
       <c r="H45" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="5"/>
       <c r="L45" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N45" s="6">
         <v>-211</v>
@@ -4674,18 +4675,18 @@
         <v>3000501</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="19"/>
       <c r="H46" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I46" s="5"/>
       <c r="L46" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="M46" s="42" t="s">
         <v>150</v>
-      </c>
-      <c r="M46" s="42" t="s">
-        <v>151</v>
       </c>
       <c r="N46" s="6">
         <v>-215</v>
@@ -4698,18 +4699,18 @@
         <v>4000101</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" s="19"/>
       <c r="H47" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I47" s="5"/>
       <c r="L47" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M47" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N47" s="6">
         <v>-157</v>
@@ -4722,18 +4723,18 @@
         <v>4000102</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="19"/>
       <c r="H48" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I48" s="5"/>
       <c r="L48" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M48" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N48" s="6">
         <v>-60</v>
@@ -4746,18 +4747,18 @@
         <v>4000103</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F49" s="19"/>
       <c r="H49" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I49" s="5"/>
       <c r="L49" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M49" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N49" s="6">
         <v>-187</v>
@@ -4770,18 +4771,18 @@
         <v>4000104</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50" s="19"/>
       <c r="H50" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I50" s="5"/>
       <c r="L50" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M50" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N50" s="6">
         <v>-90</v>
@@ -4794,18 +4795,18 @@
         <v>4000105</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F51" s="19"/>
       <c r="H51" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I51" s="5"/>
       <c r="L51" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M51" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N51" s="6">
         <v>-94</v>
@@ -4818,18 +4819,18 @@
         <v>5000101</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F52" s="19"/>
       <c r="H52" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I52" s="5"/>
       <c r="L52" s="27" t="s">
         <v>87</v>
       </c>
       <c r="M52" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N52" s="6">
         <v>-85</v>
@@ -4842,18 +4843,18 @@
         <v>5000201</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53" s="19"/>
       <c r="H53" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I53" s="5"/>
       <c r="L53" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M53" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N53" s="6">
         <v>-280</v>
@@ -4866,18 +4867,18 @@
         <v>5000301</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F54" s="19"/>
       <c r="H54" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I54" s="5"/>
       <c r="L54" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M54" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N54" s="6">
         <v>-180</v>
@@ -4890,18 +4891,18 @@
         <v>5000401</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" s="19"/>
       <c r="H55" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I55" s="5"/>
       <c r="L55" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M55" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N55" s="6">
         <v>-152</v>
@@ -4914,18 +4915,18 @@
         <v>5000501</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F56" s="19"/>
       <c r="H56" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I56" s="5"/>
       <c r="L56" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M56" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N56" s="6">
         <v>-156</v>
@@ -4939,7 +4940,7 @@
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F57" s="21">
         <v>0</v>
@@ -4955,10 +4956,10 @@
       </c>
       <c r="J57" s="30"/>
       <c r="L57" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N57" s="20">
         <v>-90</v>
@@ -4967,7 +4968,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
@@ -4979,11 +4980,11 @@
     </row>
     <row r="58" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F58" s="21">
         <v>200001</v>
@@ -4999,10 +5000,10 @@
       </c>
       <c r="J58" s="30"/>
       <c r="L58" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M58" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N58" s="20">
         <v>-90</v>
@@ -5021,7 +5022,7 @@
     </row>
     <row r="59" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="21" t="s">
@@ -5041,10 +5042,10 @@
       </c>
       <c r="J59" s="30"/>
       <c r="L59" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M59" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N59" s="20">
         <v>-280</v>
@@ -5063,7 +5064,7 @@
     </row>
     <row r="60" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="21" t="s">
@@ -5081,10 +5082,10 @@
       </c>
       <c r="J60" s="30"/>
       <c r="L60" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M60" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N60" s="20">
         <v>-180</v>
@@ -5103,7 +5104,7 @@
     </row>
     <row r="61" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="21" t="s">
@@ -5121,10 +5122,10 @@
       </c>
       <c r="J61" s="30"/>
       <c r="L61" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M61" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N61" s="20">
         <v>-280</v>
@@ -5143,11 +5144,11 @@
     </row>
     <row r="62" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="22">
@@ -5161,10 +5162,10 @@
       </c>
       <c r="J62" s="30"/>
       <c r="L62" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M62" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N62" s="20">
         <v>-180</v>
@@ -5173,7 +5174,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -5185,7 +5186,7 @@
     </row>
     <row r="63" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="22" t="s">
@@ -5203,10 +5204,10 @@
       </c>
       <c r="J63" s="30"/>
       <c r="L63" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M63" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N63" s="22">
         <v>-180</v>
@@ -5227,11 +5228,11 @@
     </row>
     <row r="64" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="22">
@@ -5245,10 +5246,10 @@
       </c>
       <c r="J64" s="30"/>
       <c r="L64" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M64" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N64" s="20">
         <v>-90</v>
@@ -5257,7 +5258,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
@@ -5269,11 +5270,11 @@
     </row>
     <row r="65" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="22">
@@ -5287,10 +5288,10 @@
       </c>
       <c r="J65" s="30"/>
       <c r="L65" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M65" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N65" s="20">
         <v>90</v>
@@ -5299,7 +5300,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
@@ -5311,11 +5312,11 @@
     </row>
     <row r="66" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="22">
@@ -5329,10 +5330,10 @@
       </c>
       <c r="J66" s="30"/>
       <c r="L66" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M66" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N66" s="20">
         <v>0</v>
@@ -5341,7 +5342,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
@@ -5353,7 +5354,7 @@
     </row>
     <row r="67" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="21" t="s">
@@ -5371,10 +5372,10 @@
       </c>
       <c r="J67" s="30"/>
       <c r="L67" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M67" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N67" s="20">
         <v>-270</v>
@@ -5395,11 +5396,11 @@
     </row>
     <row r="68" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="51" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="22">
@@ -5413,10 +5414,10 @@
       </c>
       <c r="J68" s="30"/>
       <c r="L68" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M68" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N68" s="20">
         <v>45</v>
@@ -5435,14 +5436,14 @@
     </row>
     <row r="69" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>215</v>
       </c>
       <c r="G69" s="22">
         <v>1007</v>
@@ -5455,10 +5456,10 @@
       </c>
       <c r="J69" s="30"/>
       <c r="L69" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M69" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N69" s="20">
         <v>90</v>
@@ -5467,7 +5468,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
@@ -5479,14 +5480,14 @@
     </row>
     <row r="70" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="G70" s="22">
         <v>1006</v>
@@ -5499,10 +5500,10 @@
       </c>
       <c r="J70" s="30"/>
       <c r="L70" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M70" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N70" s="20">
         <v>90</v>
@@ -5511,7 +5512,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
@@ -5523,14 +5524,14 @@
     </row>
     <row r="71" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>225</v>
       </c>
       <c r="G71" s="22">
         <v>1008</v>
@@ -5543,10 +5544,10 @@
       </c>
       <c r="J71" s="30"/>
       <c r="L71" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M71" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N71" s="20">
         <v>225</v>
@@ -5555,7 +5556,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
@@ -5567,11 +5568,11 @@
     </row>
     <row r="72" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="22">
@@ -5585,10 +5586,10 @@
       </c>
       <c r="J72" s="30"/>
       <c r="L72" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M72" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N72" s="20">
         <v>0</v>
@@ -5597,7 +5598,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
@@ -5609,11 +5610,11 @@
     </row>
     <row r="73" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="22">
@@ -5627,10 +5628,10 @@
       </c>
       <c r="J73" s="30"/>
       <c r="L73" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M73" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N73" s="20">
         <v>-90</v>
@@ -5649,11 +5650,11 @@
     </row>
     <row r="74" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="22">
@@ -5667,10 +5668,10 @@
       </c>
       <c r="J74" s="30"/>
       <c r="L74" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M74" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N74" s="20">
         <v>180</v>
@@ -5679,7 +5680,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
@@ -5691,11 +5692,11 @@
     </row>
     <row r="75" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F75" s="20">
         <v>4</v>
@@ -5711,10 +5712,10 @@
       </c>
       <c r="J75" s="30"/>
       <c r="L75" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M75" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N75" s="20">
         <v>180</v>
@@ -5723,7 +5724,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
@@ -5735,11 +5736,11 @@
     </row>
     <row r="76" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="22">
@@ -5755,10 +5756,10 @@
         <v>52</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M76" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N76" s="20">
         <v>90</v>
@@ -5777,11 +5778,11 @@
     </row>
     <row r="77" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="22">
@@ -5797,10 +5798,10 @@
         <v>53</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M77" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N77" s="20">
         <v>90</v>
@@ -5819,11 +5820,11 @@
     </row>
     <row r="78" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="22">
@@ -5839,10 +5840,10 @@
         <v>54</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M78" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N78" s="20">
         <v>90</v>
@@ -5861,11 +5862,11 @@
     </row>
     <row r="79" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F79" s="21">
         <v>100001</v>
@@ -5881,10 +5882,10 @@
       </c>
       <c r="J79" s="30"/>
       <c r="L79" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M79" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N79" s="20">
         <v>-110</v>
@@ -5903,11 +5904,11 @@
     </row>
     <row r="80" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F80" s="20">
         <v>5</v>
@@ -5923,10 +5924,10 @@
       </c>
       <c r="J80" s="30"/>
       <c r="L80" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M80" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N80" s="20">
         <v>-30</v>
@@ -5935,7 +5936,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -5947,11 +5948,11 @@
     </row>
     <row r="81" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="22">
@@ -5965,10 +5966,10 @@
       </c>
       <c r="J81" s="30"/>
       <c r="L81" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M81" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N81" s="20">
         <v>180</v>
@@ -5989,11 +5990,11 @@
     </row>
     <row r="82" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F82" s="35">
         <v>0</v>
@@ -6005,10 +6006,10 @@
       <c r="I82" s="30"/>
       <c r="J82" s="30"/>
       <c r="L82" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M82" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N82" s="20">
         <v>-30</v>
@@ -6017,7 +6018,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -6029,11 +6030,11 @@
     </row>
     <row r="83" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F83" s="20">
         <v>6</v>
@@ -6049,10 +6050,10 @@
       </c>
       <c r="J83" s="30"/>
       <c r="L83" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M83" s="48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N83" s="20">
         <v>-144</v>
@@ -6061,7 +6062,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
@@ -6073,11 +6074,11 @@
     </row>
     <row r="84" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="22">
@@ -6089,10 +6090,10 @@
         <v>2000001</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M84" s="48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N84" s="20">
         <v>-180</v>
@@ -6101,7 +6102,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
@@ -6113,7 +6114,7 @@
     </row>
     <row r="85" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D85" s="20"/>
       <c r="E85" s="22" t="s">
@@ -6129,10 +6130,10 @@
         <v>2000002</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M85" s="48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N85" s="20">
         <v>90</v>
@@ -6153,11 +6154,11 @@
     </row>
     <row r="86" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="22">
@@ -6173,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M86" s="48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N86" s="20">
         <v>180</v>
@@ -6195,7 +6196,7 @@
     </row>
     <row r="87" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D87" s="20"/>
       <c r="E87" s="21" t="s">
@@ -6213,10 +6214,10 @@
       </c>
       <c r="J87" s="30"/>
       <c r="L87" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M87" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N87" s="20">
         <v>0</v>
@@ -6235,11 +6236,11 @@
     </row>
     <row r="88" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="22">
@@ -6253,10 +6254,10 @@
       </c>
       <c r="J88" s="30"/>
       <c r="L88" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M88" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N88" s="20">
         <v>270</v>
@@ -6265,7 +6266,7 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
@@ -6277,11 +6278,11 @@
     </row>
     <row r="89" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="22">
@@ -6295,10 +6296,10 @@
       </c>
       <c r="J89" s="30"/>
       <c r="L89" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M89" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N89" s="20">
         <v>-146</v>
@@ -6307,7 +6308,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
@@ -6319,11 +6320,11 @@
     </row>
     <row r="90" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="22">
@@ -6336,13 +6337,13 @@
         <v>68</v>
       </c>
       <c r="J90" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L90" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M90" s="48" t="s">
         <v>289</v>
-      </c>
-      <c r="L90" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M90" s="48" t="s">
-        <v>290</v>
       </c>
       <c r="N90" s="20">
         <v>-146</v>
@@ -6351,7 +6352,7 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
@@ -6363,11 +6364,11 @@
     </row>
     <row r="91" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D91" s="20"/>
       <c r="E91" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F91" s="21">
         <v>50000001</v>
@@ -6383,10 +6384,10 @@
       </c>
       <c r="J91" s="30"/>
       <c r="L91" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M91" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N91" s="20">
         <v>106</v>
@@ -6405,11 +6406,11 @@
     </row>
     <row r="92" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D92" s="20"/>
       <c r="E92" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F92" s="21">
         <v>0</v>
@@ -6425,10 +6426,10 @@
       </c>
       <c r="J92" s="30"/>
       <c r="L92" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M92" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N92" s="20">
         <v>-90</v>
@@ -6437,7 +6438,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
@@ -6449,11 +6450,11 @@
     </row>
     <row r="93" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D93" s="20"/>
       <c r="E93" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F93" s="21">
         <v>0</v>
@@ -6469,10 +6470,10 @@
       </c>
       <c r="J93" s="30"/>
       <c r="L93" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M93" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N93" s="20">
         <v>90</v>
@@ -6481,7 +6482,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
@@ -6493,11 +6494,11 @@
     </row>
     <row r="94" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F94" s="21">
         <v>60000001</v>
@@ -6513,10 +6514,10 @@
       </c>
       <c r="J94" s="30"/>
       <c r="L94" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M94" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N94" s="20">
         <v>180</v>
@@ -6535,11 +6536,11 @@
     </row>
     <row r="95" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F95" s="21">
         <v>0</v>
@@ -6555,10 +6556,10 @@
       </c>
       <c r="J95" s="30"/>
       <c r="L95" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M95" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N95" s="20">
         <v>-90</v>
@@ -6567,7 +6568,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
@@ -6579,11 +6580,11 @@
     </row>
     <row r="96" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D96" s="20"/>
       <c r="E96" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F96" s="20"/>
       <c r="G96" s="22">
@@ -6593,10 +6594,10 @@
       <c r="I96" s="30"/>
       <c r="J96" s="30"/>
       <c r="L96" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M96" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N96" s="20">
         <v>90</v>
@@ -6619,11 +6620,11 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D97" s="20"/>
       <c r="E97" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F97" s="21">
         <v>0</v>
@@ -6640,10 +6641,10 @@
       <c r="J97" s="30"/>
       <c r="K97" s="2"/>
       <c r="L97" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M97" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N97" s="20">
         <v>90</v>
@@ -6660,11 +6661,11 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F98" s="21">
         <v>0</v>
@@ -6681,17 +6682,17 @@
       <c r="J98" s="30"/>
       <c r="K98" s="2"/>
       <c r="L98" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M98" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N98" s="20">
         <v>-140</v>
       </c>
       <c r="O98" s="20"/>
       <c r="R98" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U98" s="20"/>
       <c r="V98" s="20"/>
@@ -6703,11 +6704,11 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F99" s="21">
         <v>0</v>
@@ -6724,10 +6725,10 @@
       <c r="J99" s="30"/>
       <c r="K99" s="2"/>
       <c r="L99" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M99" s="48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N99" s="20">
         <v>90</v>
@@ -6744,11 +6745,11 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F100" s="21">
         <v>0</v>
@@ -6765,10 +6766,10 @@
       <c r="J100" s="30"/>
       <c r="K100" s="2"/>
       <c r="L100" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M100" s="48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N100" s="20">
         <v>-180</v>
@@ -6785,11 +6786,11 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F101" s="21">
         <v>0</v>
@@ -6806,10 +6807,10 @@
       <c r="J101" s="30"/>
       <c r="K101" s="2"/>
       <c r="L101" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M101" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N101" s="20">
         <v>30</v>
@@ -6826,11 +6827,11 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F102" s="21">
         <v>0</v>
@@ -6847,10 +6848,10 @@
       <c r="J102" s="30"/>
       <c r="K102" s="2"/>
       <c r="L102" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M102" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N102" s="20">
         <v>130</v>
@@ -6865,11 +6866,11 @@
     </row>
     <row r="103" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F103" s="21">
         <v>10001101</v>
@@ -6885,10 +6886,10 @@
       </c>
       <c r="J103" s="30"/>
       <c r="L103" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M103" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N103" s="20">
         <v>60</v>
@@ -6911,7 +6912,7 @@
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F104" s="21">
         <v>10001201</v>
@@ -6927,10 +6928,10 @@
       </c>
       <c r="J104" s="30"/>
       <c r="L104" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N104" s="20">
         <v>-45</v>
@@ -6953,22 +6954,22 @@
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F105" s="21"/>
       <c r="G105" s="22"/>
       <c r="H105" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I105" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J105" s="30"/>
       <c r="L105" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N105" s="20">
         <v>180</v>
@@ -6977,7 +6978,7 @@
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
@@ -6993,7 +6994,7 @@
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F106" s="21"/>
       <c r="G106" s="22"/>
@@ -7005,10 +7006,10 @@
       </c>
       <c r="J106" s="30"/>
       <c r="L106" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M106" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N106" s="20">
         <v>90</v>
@@ -7017,7 +7018,7 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
@@ -7033,7 +7034,7 @@
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F107" s="21"/>
       <c r="G107" s="22"/>
@@ -7045,10 +7046,10 @@
       </c>
       <c r="J107" s="30"/>
       <c r="L107" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N107" s="20">
         <v>-45</v>
@@ -7057,7 +7058,7 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
@@ -7073,7 +7074,7 @@
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F108" s="21"/>
       <c r="G108" s="22"/>
@@ -7085,10 +7086,10 @@
       </c>
       <c r="J108" s="30"/>
       <c r="L108" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M108" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N108" s="20">
         <v>45</v>
@@ -7097,7 +7098,7 @@
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
@@ -7113,22 +7114,22 @@
       </c>
       <c r="D109" s="20"/>
       <c r="E109" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F109" s="21"/>
       <c r="G109" s="22"/>
       <c r="H109" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I109" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J109" s="30"/>
       <c r="L109" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M109" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N109" s="20">
         <v>150</v>
@@ -7137,7 +7138,7 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
@@ -7153,7 +7154,7 @@
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F110" s="21"/>
       <c r="G110" s="22"/>
@@ -7165,10 +7166,10 @@
       </c>
       <c r="J110" s="30"/>
       <c r="L110" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M110" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N110" s="20">
         <v>-155</v>
@@ -7177,7 +7178,7 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
@@ -7193,22 +7194,22 @@
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F111" s="21"/>
       <c r="G111" s="22"/>
       <c r="H111" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I111" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J111" s="30"/>
       <c r="L111" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M111" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N111" s="20">
         <v>35</v>
@@ -7217,7 +7218,7 @@
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
       <c r="R111" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
@@ -7233,7 +7234,7 @@
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F112" s="21"/>
       <c r="G112" s="22"/>
@@ -7245,10 +7246,10 @@
       </c>
       <c r="J112" s="30"/>
       <c r="L112" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M112" s="49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N112" s="20">
         <v>180</v>
@@ -7257,7 +7258,7 @@
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -7273,22 +7274,22 @@
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F113" s="21"/>
       <c r="G113" s="22"/>
       <c r="H113" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J113" s="30"/>
       <c r="L113" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N113" s="20">
         <v>-180</v>
@@ -7297,7 +7298,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
       <c r="R113" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
@@ -7313,22 +7314,22 @@
       </c>
       <c r="D114" s="20"/>
       <c r="E114" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F114" s="21"/>
       <c r="G114" s="22"/>
       <c r="H114" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I114" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J114" s="30"/>
       <c r="L114" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N114" s="20">
         <v>80</v>
@@ -7337,7 +7338,7 @@
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
@@ -7353,22 +7354,22 @@
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F115" s="21"/>
       <c r="G115" s="22"/>
       <c r="H115" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I115" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J115" s="30"/>
       <c r="L115" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N115" s="20">
         <v>180</v>
@@ -7377,7 +7378,7 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
@@ -7393,22 +7394,22 @@
       </c>
       <c r="D116" s="20"/>
       <c r="E116" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F116" s="21"/>
       <c r="G116" s="22"/>
       <c r="H116" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I116" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J116" s="30"/>
       <c r="L116" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N116" s="20">
         <v>180</v>
@@ -7417,7 +7418,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
@@ -7433,22 +7434,22 @@
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F117" s="21"/>
       <c r="G117" s="22"/>
       <c r="H117" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I117" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J117" s="30"/>
       <c r="L117" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N117" s="20">
         <v>128</v>
@@ -7457,7 +7458,7 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
@@ -7473,7 +7474,7 @@
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F118" s="21"/>
       <c r="G118" s="22"/>
@@ -7485,10 +7486,10 @@
       </c>
       <c r="J118" s="30"/>
       <c r="L118" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N118" s="20">
         <v>180</v>
@@ -7497,7 +7498,7 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
@@ -7513,22 +7514,22 @@
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F119" s="21"/>
       <c r="G119" s="22"/>
       <c r="H119" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I119" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J119" s="30"/>
       <c r="L119" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N119" s="20">
         <v>120</v>
@@ -7537,7 +7538,7 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
       <c r="R119" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
@@ -7553,7 +7554,7 @@
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F120" s="21"/>
       <c r="G120" s="22"/>
@@ -7565,10 +7566,10 @@
       </c>
       <c r="J120" s="22"/>
       <c r="L120" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N120" s="20">
         <v>180</v>
@@ -7577,7 +7578,7 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
@@ -7593,22 +7594,22 @@
       </c>
       <c r="D121" s="20"/>
       <c r="E121" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F121" s="21"/>
       <c r="G121" s="22"/>
       <c r="H121" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I121" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J121" s="30"/>
       <c r="L121" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N121" s="20">
         <v>-180</v>
@@ -7617,7 +7618,7 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
       <c r="R121" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
@@ -7633,7 +7634,7 @@
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F122" s="21"/>
       <c r="G122" s="22"/>
@@ -7645,10 +7646,10 @@
       </c>
       <c r="J122" s="30"/>
       <c r="L122" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N122" s="20">
         <v>180</v>
@@ -7657,7 +7658,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
@@ -7673,7 +7674,7 @@
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F123" s="21"/>
       <c r="G123" s="22"/>
@@ -7685,10 +7686,10 @@
       </c>
       <c r="J123" s="30"/>
       <c r="L123" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N123" s="20">
         <v>-180</v>
@@ -7697,7 +7698,7 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
       <c r="R123" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
@@ -7713,22 +7714,22 @@
       </c>
       <c r="D124" s="20"/>
       <c r="E124" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F124" s="21"/>
       <c r="G124" s="22"/>
       <c r="H124" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I124" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J124" s="30"/>
       <c r="L124" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N124" s="20">
         <v>-106</v>
@@ -7737,7 +7738,7 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
@@ -7753,7 +7754,7 @@
       </c>
       <c r="D125" s="20"/>
       <c r="E125" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F125" s="21"/>
       <c r="G125" s="22">
@@ -7767,10 +7768,10 @@
       </c>
       <c r="J125" s="30"/>
       <c r="L125" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N125" s="20">
         <v>180</v>
@@ -7805,10 +7806,10 @@
       </c>
       <c r="J126" s="30"/>
       <c r="L126" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N126" s="20">
         <v>-152</v>
@@ -7827,11 +7828,11 @@
     </row>
     <row r="127" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D127" s="20"/>
       <c r="E127" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F127" s="21">
         <v>10002101</v>
@@ -7847,10 +7848,10 @@
       </c>
       <c r="J127" s="30"/>
       <c r="L127" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N127" s="20">
         <v>-147</v>
@@ -7869,11 +7870,11 @@
     </row>
     <row r="128" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D128" s="20"/>
       <c r="E128" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F128" s="21">
         <v>10002201</v>
@@ -7889,10 +7890,10 @@
       </c>
       <c r="J128" s="30"/>
       <c r="L128" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N128" s="20">
         <v>-129</v>
@@ -7911,26 +7912,26 @@
     </row>
     <row r="129" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D129" s="20"/>
       <c r="E129" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F129" s="21"/>
       <c r="G129" s="22"/>
       <c r="H129" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J129" s="30"/>
       <c r="L129" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N129" s="20">
         <v>-131</v>
@@ -7939,7 +7940,7 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
       <c r="R129" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
@@ -7951,26 +7952,26 @@
     </row>
     <row r="130" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D130" s="20"/>
       <c r="E130" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F130" s="21"/>
       <c r="G130" s="22"/>
       <c r="H130" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I130" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J130" s="30"/>
       <c r="L130" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N130" s="20">
         <v>180</v>
@@ -7979,7 +7980,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
       <c r="R130" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
@@ -7991,26 +7992,26 @@
     </row>
     <row r="131" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D131" s="20"/>
       <c r="E131" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F131" s="21"/>
       <c r="G131" s="22"/>
       <c r="H131" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I131" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J131" s="30"/>
       <c r="L131" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N131" s="20">
         <v>180</v>
@@ -8019,7 +8020,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
       <c r="R131" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
@@ -8031,26 +8032,26 @@
     </row>
     <row r="132" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D132" s="20"/>
       <c r="E132" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F132" s="21"/>
       <c r="G132" s="22"/>
       <c r="H132" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I132" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J132" s="30"/>
       <c r="L132" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N132" s="20">
         <v>180</v>
@@ -8059,7 +8060,7 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
       <c r="R132" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
@@ -8071,11 +8072,11 @@
     </row>
     <row r="133" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D133" s="20"/>
       <c r="E133" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F133" s="21"/>
       <c r="G133" s="22"/>
@@ -8087,10 +8088,10 @@
       </c>
       <c r="J133" s="30"/>
       <c r="L133" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N133" s="20">
         <v>180</v>
@@ -8099,7 +8100,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
       <c r="R133" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
@@ -8111,11 +8112,11 @@
     </row>
     <row r="134" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D134" s="20"/>
       <c r="E134" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F134" s="21"/>
       <c r="G134" s="22"/>
@@ -8127,10 +8128,10 @@
       </c>
       <c r="J134" s="30"/>
       <c r="L134" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M134" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N134" s="20">
         <v>180</v>
@@ -8139,7 +8140,7 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
@@ -8151,11 +8152,11 @@
     </row>
     <row r="135" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D135" s="20"/>
       <c r="E135" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F135" s="21"/>
       <c r="G135" s="22"/>
@@ -8167,10 +8168,10 @@
       </c>
       <c r="J135" s="30"/>
       <c r="L135" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M135" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N135" s="20">
         <v>27</v>
@@ -8179,7 +8180,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
       <c r="R135" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
@@ -8191,11 +8192,11 @@
     </row>
     <row r="136" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D136" s="20"/>
       <c r="E136" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F136" s="21">
         <v>10003101</v>
@@ -8211,10 +8212,10 @@
       </c>
       <c r="J136" s="30"/>
       <c r="L136" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N136" s="20">
         <v>123</v>
@@ -8233,11 +8234,11 @@
     </row>
     <row r="137" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D137" s="20"/>
       <c r="E137" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F137" s="21">
         <v>10003201</v>
@@ -8253,10 +8254,10 @@
       </c>
       <c r="J137" s="30"/>
       <c r="L137" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N137" s="20">
         <v>45</v>
@@ -8275,26 +8276,26 @@
     </row>
     <row r="138" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D138" s="20"/>
       <c r="E138" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F138" s="21"/>
       <c r="G138" s="22"/>
       <c r="H138" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I138" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J138" s="30"/>
       <c r="L138" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N138" s="20">
         <v>90</v>
@@ -8303,7 +8304,7 @@
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
@@ -8315,26 +8316,26 @@
     </row>
     <row r="139" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D139" s="20"/>
       <c r="E139" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F139" s="21"/>
       <c r="G139" s="22"/>
       <c r="H139" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I139" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J139" s="30"/>
       <c r="L139" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N139" s="20">
         <v>180</v>
@@ -8343,7 +8344,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
       <c r="R139" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
@@ -8355,26 +8356,26 @@
     </row>
     <row r="140" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D140" s="20"/>
       <c r="E140" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F140" s="21"/>
       <c r="G140" s="22"/>
       <c r="H140" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I140" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J140" s="30"/>
       <c r="L140" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N140" s="20">
         <v>95</v>
@@ -8383,7 +8384,7 @@
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
@@ -8395,11 +8396,11 @@
     </row>
     <row r="141" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D141" s="20"/>
       <c r="E141" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F141" s="21"/>
       <c r="G141" s="22"/>
@@ -8411,10 +8412,10 @@
       </c>
       <c r="J141" s="30"/>
       <c r="L141" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N141" s="20">
         <v>-70</v>
@@ -8423,7 +8424,7 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
       <c r="R141" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
@@ -8435,11 +8436,11 @@
     </row>
     <row r="142" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D142" s="20"/>
       <c r="E142" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F142" s="21"/>
       <c r="G142" s="22"/>
@@ -8451,10 +8452,10 @@
       </c>
       <c r="J142" s="30"/>
       <c r="L142" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N142" s="20">
         <v>180</v>
@@ -8463,7 +8464,7 @@
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
@@ -8475,11 +8476,11 @@
     </row>
     <row r="143" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D143" s="20"/>
       <c r="E143" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F143" s="21"/>
       <c r="G143" s="22"/>
@@ -8491,10 +8492,10 @@
       </c>
       <c r="J143" s="30"/>
       <c r="L143" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N143" s="20">
         <v>180</v>
@@ -8503,7 +8504,7 @@
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
       <c r="R143" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
@@ -8515,26 +8516,26 @@
     </row>
     <row r="144" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D144" s="20"/>
       <c r="E144" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F144" s="21"/>
       <c r="G144" s="22"/>
       <c r="H144" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I144" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J144" s="30"/>
       <c r="L144" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N144" s="20">
         <v>-70</v>
@@ -8543,7 +8544,7 @@
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
@@ -8555,26 +8556,26 @@
     </row>
     <row r="145" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D145" s="20"/>
       <c r="E145" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F145" s="21"/>
       <c r="G145" s="22"/>
       <c r="H145" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I145" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J145" s="30"/>
       <c r="L145" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N145" s="20">
         <v>-180</v>
@@ -8583,7 +8584,7 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
@@ -8595,11 +8596,11 @@
     </row>
     <row r="146" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D146" s="20"/>
       <c r="E146" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F146" s="21">
         <v>10004101</v>
@@ -8615,10 +8616,10 @@
       </c>
       <c r="J146" s="30"/>
       <c r="L146" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N146" s="20">
         <v>35</v>
@@ -8637,11 +8638,11 @@
     </row>
     <row r="147" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D147" s="20"/>
       <c r="E147" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F147" s="21">
         <v>10004201</v>
@@ -8657,10 +8658,10 @@
       </c>
       <c r="J147" s="30"/>
       <c r="L147" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N147" s="20">
         <v>-41</v>
@@ -8679,26 +8680,26 @@
     </row>
     <row r="148" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D148" s="20"/>
       <c r="E148" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F148" s="21"/>
       <c r="G148" s="22"/>
       <c r="H148" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I148" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J148" s="30"/>
       <c r="L148" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N148" s="20">
         <v>0</v>
@@ -8707,7 +8708,7 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
@@ -8719,26 +8720,26 @@
     </row>
     <row r="149" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D149" s="20"/>
       <c r="E149" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F149" s="21"/>
       <c r="G149" s="22"/>
       <c r="H149" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I149" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J149" s="30"/>
       <c r="L149" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N149" s="20">
         <v>101</v>
@@ -8747,7 +8748,7 @@
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
       <c r="R149" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
@@ -8759,26 +8760,26 @@
     </row>
     <row r="150" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D150" s="20"/>
       <c r="E150" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F150" s="21"/>
       <c r="G150" s="22"/>
       <c r="H150" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J150" s="30"/>
       <c r="L150" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N150" s="20">
         <v>-3</v>
@@ -8787,7 +8788,7 @@
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
@@ -8799,11 +8800,11 @@
     </row>
     <row r="151" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D151" s="20"/>
       <c r="E151" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F151" s="21"/>
       <c r="G151" s="22"/>
@@ -8815,10 +8816,10 @@
       </c>
       <c r="J151" s="30"/>
       <c r="L151" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N151" s="20">
         <v>180</v>
@@ -8827,7 +8828,7 @@
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
       <c r="R151" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
@@ -8839,11 +8840,11 @@
     </row>
     <row r="152" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D152" s="20"/>
       <c r="E152" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F152" s="21"/>
       <c r="G152" s="22"/>
@@ -8855,10 +8856,10 @@
       </c>
       <c r="J152" s="30"/>
       <c r="L152" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N152" s="20">
         <v>180</v>
@@ -8867,7 +8868,7 @@
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
@@ -8879,26 +8880,26 @@
     </row>
     <row r="153" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D153" s="20"/>
       <c r="E153" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F153" s="21"/>
       <c r="G153" s="22"/>
       <c r="H153" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I153" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J153" s="30"/>
       <c r="L153" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N153" s="20">
         <v>-180</v>
@@ -8907,7 +8908,7 @@
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
       <c r="R153" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
@@ -8919,26 +8920,26 @@
     </row>
     <row r="154" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D154" s="20"/>
       <c r="E154" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F154" s="21"/>
       <c r="G154" s="22"/>
       <c r="H154" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I154" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J154" s="30"/>
       <c r="L154" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N154" s="20">
         <v>83</v>
@@ -8947,7 +8948,7 @@
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
       <c r="R154" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
@@ -8959,11 +8960,11 @@
     </row>
     <row r="155" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D155" s="20"/>
       <c r="E155" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F155" s="21">
         <v>10005101</v>
@@ -8979,10 +8980,10 @@
       </c>
       <c r="J155" s="30"/>
       <c r="L155" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N155" s="20">
         <v>51</v>
@@ -9001,11 +9002,11 @@
     </row>
     <row r="156" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D156" s="20"/>
       <c r="E156" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F156" s="21">
         <v>10005201</v>
@@ -9021,10 +9022,10 @@
       </c>
       <c r="J156" s="30"/>
       <c r="L156" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N156" s="20">
         <v>-44</v>
@@ -9043,26 +9044,26 @@
     </row>
     <row r="157" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D157" s="20"/>
       <c r="E157" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F157" s="21"/>
       <c r="G157" s="22"/>
       <c r="H157" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J157" s="30"/>
       <c r="L157" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N157" s="20">
         <v>180</v>
@@ -9071,7 +9072,7 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
       <c r="R157" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
@@ -9083,26 +9084,26 @@
     </row>
     <row r="158" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D158" s="20"/>
       <c r="E158" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F158" s="21"/>
       <c r="G158" s="22"/>
       <c r="H158" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I158" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J158" s="30"/>
       <c r="L158" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N158" s="20">
         <v>92</v>
@@ -9111,7 +9112,7 @@
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
@@ -9123,11 +9124,11 @@
     </row>
     <row r="159" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D159" s="20"/>
       <c r="E159" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F159" s="21"/>
       <c r="G159" s="22"/>
@@ -9139,10 +9140,10 @@
       </c>
       <c r="J159" s="30"/>
       <c r="L159" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N159" s="20">
         <v>180</v>
@@ -9151,7 +9152,7 @@
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
       <c r="R159" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
@@ -9163,26 +9164,26 @@
     </row>
     <row r="160" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D160" s="20"/>
       <c r="E160" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F160" s="21"/>
       <c r="G160" s="22"/>
       <c r="H160" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I160" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J160" s="30"/>
       <c r="L160" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N160" s="20">
         <v>145</v>
@@ -9191,7 +9192,7 @@
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
       <c r="R160" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
@@ -9203,11 +9204,11 @@
     </row>
     <row r="161" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D161" s="20"/>
       <c r="E161" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F161" s="21"/>
       <c r="G161" s="22"/>
@@ -9219,10 +9220,10 @@
       </c>
       <c r="J161" s="30"/>
       <c r="L161" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N161" s="20">
         <v>180</v>
@@ -9231,7 +9232,7 @@
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
       <c r="R161" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
@@ -9243,11 +9244,11 @@
     </row>
     <row r="162" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D162" s="20"/>
       <c r="E162" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F162" s="21"/>
       <c r="G162" s="22"/>
@@ -9259,10 +9260,10 @@
       </c>
       <c r="J162" s="30"/>
       <c r="L162" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N162" s="20">
         <v>180</v>
@@ -9271,7 +9272,7 @@
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
       <c r="R162" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
@@ -9287,7 +9288,7 @@
       </c>
       <c r="D163" s="20"/>
       <c r="E163" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F163" s="21"/>
       <c r="G163" s="22"/>
@@ -9299,10 +9300,10 @@
       </c>
       <c r="J163" s="30"/>
       <c r="L163" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N163" s="20">
         <v>180</v>
@@ -9311,7 +9312,7 @@
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
       <c r="R163" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
@@ -9327,7 +9328,7 @@
       </c>
       <c r="D164" s="20"/>
       <c r="E164" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F164" s="21"/>
       <c r="G164" s="22"/>
@@ -9339,10 +9340,10 @@
       </c>
       <c r="J164" s="30"/>
       <c r="L164" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N164" s="20">
         <v>180</v>
@@ -9351,7 +9352,7 @@
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
       <c r="R164" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
@@ -9367,7 +9368,7 @@
       </c>
       <c r="D165" s="20"/>
       <c r="E165" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F165" s="21"/>
       <c r="G165" s="22"/>
@@ -9379,10 +9380,10 @@
       </c>
       <c r="J165" s="30"/>
       <c r="L165" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N165" s="20">
         <v>180</v>
@@ -9391,7 +9392,7 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
       <c r="R165" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
@@ -9407,7 +9408,7 @@
       </c>
       <c r="D166" s="20"/>
       <c r="E166" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F166" s="21"/>
       <c r="G166" s="22"/>
@@ -9419,10 +9420,10 @@
       </c>
       <c r="J166" s="30"/>
       <c r="L166" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N166" s="20">
         <v>180</v>
@@ -9431,7 +9432,7 @@
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
       <c r="R166" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
@@ -9447,7 +9448,7 @@
       </c>
       <c r="D167" s="20"/>
       <c r="E167" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F167" s="21"/>
       <c r="G167" s="22"/>
@@ -9459,10 +9460,10 @@
       </c>
       <c r="J167" s="30"/>
       <c r="L167" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N167" s="20">
         <v>180</v>
@@ -9471,7 +9472,7 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
       <c r="R167" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
@@ -9487,7 +9488,7 @@
       </c>
       <c r="D168" s="20"/>
       <c r="E168" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F168" s="21"/>
       <c r="G168" s="22"/>
@@ -9499,10 +9500,10 @@
       </c>
       <c r="J168" s="30"/>
       <c r="L168" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N168" s="20">
         <v>180</v>
@@ -9511,7 +9512,7 @@
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
       <c r="R168" s="36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
@@ -9527,7 +9528,7 @@
       </c>
       <c r="D169" s="20"/>
       <c r="E169" s="37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F169" s="37"/>
       <c r="G169" s="22">
@@ -9537,10 +9538,10 @@
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
       <c r="L169" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M169" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N169" s="20">
         <v>180</v>
@@ -9563,7 +9564,7 @@
       </c>
       <c r="D170" s="20"/>
       <c r="E170" s="37" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="22"/>
@@ -9571,10 +9572,10 @@
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
       <c r="L170" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M170" s="46" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N170" s="20">
         <v>0</v>
@@ -9583,7 +9584,7 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
       <c r="R170" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
@@ -9599,7 +9600,7 @@
       </c>
       <c r="D171" s="20"/>
       <c r="E171" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="22"/>
@@ -9607,10 +9608,10 @@
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
       <c r="L171" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M171" s="46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N171" s="20">
         <v>0</v>
@@ -9619,7 +9620,7 @@
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
       <c r="R171" s="39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
@@ -9635,7 +9636,7 @@
       </c>
       <c r="D172" s="20"/>
       <c r="E172" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="22"/>
@@ -9643,10 +9644,10 @@
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
       <c r="L172" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M172" s="46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N172" s="20">
         <v>0</v>
@@ -9655,7 +9656,7 @@
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
       <c r="R172" s="39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S172" s="3"/>
       <c r="T172" s="3"/>
@@ -9671,20 +9672,20 @@
       </c>
       <c r="D173" s="20"/>
       <c r="E173" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="22"/>
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
       <c r="J173" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L173" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M173" s="46" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N173" s="20">
         <v>0</v>
@@ -9693,7 +9694,7 @@
         <v>13</v>
       </c>
       <c r="P173" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q173" s="3"/>
       <c r="R173" s="39"/>
@@ -9711,20 +9712,20 @@
       </c>
       <c r="D174" s="20"/>
       <c r="E174" s="37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="22"/>
       <c r="H174" s="30"/>
       <c r="I174" s="30"/>
       <c r="J174" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L174" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M174" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N174" s="20">
         <v>0</v>
@@ -9733,7 +9734,7 @@
         <v>13</v>
       </c>
       <c r="P174" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q174" s="3"/>
       <c r="R174" s="39"/>
@@ -9751,20 +9752,20 @@
       </c>
       <c r="D175" s="20"/>
       <c r="E175" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="22"/>
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
       <c r="J175" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L175" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M175" s="46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N175" s="20">
         <v>0</v>
@@ -9773,7 +9774,7 @@
         <v>13</v>
       </c>
       <c r="P175" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q175" s="3"/>
       <c r="R175" s="39"/>
@@ -9787,15 +9788,15 @@
     </row>
     <row r="176" spans="1:25" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D176" s="20"/>
       <c r="E176" s="38" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F176" s="20">
         <v>300001</v>
@@ -9812,10 +9813,10 @@
       <c r="J176" s="22"/>
       <c r="K176" s="2"/>
       <c r="L176" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M176" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N176" s="20">
         <v>0</v>
@@ -9833,11 +9834,11 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D177" s="20"/>
       <c r="E177" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F177" s="20"/>
       <c r="G177" s="22">
@@ -9852,10 +9853,10 @@
       <c r="J177" s="22"/>
       <c r="K177" s="2"/>
       <c r="L177" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M177" s="48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N177" s="20">
         <v>90</v>
@@ -9873,11 +9874,11 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D178" s="20"/>
       <c r="E178" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F178" s="20"/>
       <c r="G178" s="22">
@@ -9892,10 +9893,10 @@
       <c r="J178" s="22"/>
       <c r="K178" s="2"/>
       <c r="L178" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M178" s="48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N178" s="20">
         <v>210</v>
@@ -9912,11 +9913,11 @@
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D179" s="20"/>
       <c r="E179" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F179" s="20"/>
       <c r="G179" s="22">
@@ -9931,10 +9932,10 @@
       <c r="J179" s="22"/>
       <c r="K179" s="2"/>
       <c r="L179" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M179" s="48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N179" s="20">
         <v>0</v>
@@ -9949,11 +9950,11 @@
     </row>
     <row r="180" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D180" s="20"/>
       <c r="E180" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F180" s="20"/>
       <c r="G180" s="22">
@@ -9967,10 +9968,10 @@
       </c>
       <c r="J180" s="22"/>
       <c r="L180" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M180" s="48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N180" s="20">
         <v>-100</v>
@@ -9989,11 +9990,11 @@
     </row>
     <row r="181" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D181" s="20"/>
       <c r="E181" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F181" s="20"/>
       <c r="G181" s="22">
@@ -10007,10 +10008,10 @@
       </c>
       <c r="J181" s="22"/>
       <c r="L181" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M181" s="48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N181" s="20">
         <v>123</v>
@@ -10029,11 +10030,11 @@
     </row>
     <row r="182" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D182" s="20"/>
       <c r="E182" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F182" s="20"/>
       <c r="G182" s="22">
@@ -10047,10 +10048,10 @@
       </c>
       <c r="J182" s="22"/>
       <c r="L182" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M182" s="48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N182" s="20">
         <v>90</v>
@@ -10069,11 +10070,11 @@
     </row>
     <row r="183" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D183" s="20"/>
       <c r="E183" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F183" s="20"/>
       <c r="G183" s="22">
@@ -10087,10 +10088,10 @@
       </c>
       <c r="J183" s="22"/>
       <c r="L183" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M183" s="48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N183" s="20">
         <v>270</v>
@@ -10109,11 +10110,11 @@
     </row>
     <row r="184" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D184" s="20"/>
       <c r="E184" s="38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F184" s="20"/>
       <c r="G184" s="22">
@@ -10127,10 +10128,10 @@
       </c>
       <c r="J184" s="22"/>
       <c r="L184" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M184" s="48" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N184" s="20">
         <v>-90</v>
@@ -10149,11 +10150,11 @@
     </row>
     <row r="185" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D185" s="20"/>
       <c r="E185" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F185" s="20"/>
       <c r="G185" s="22">
@@ -10167,10 +10168,10 @@
       </c>
       <c r="J185" s="22"/>
       <c r="L185" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M185" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N185" s="20">
         <v>-150</v>
@@ -10189,11 +10190,11 @@
     </row>
     <row r="186" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D186" s="20"/>
       <c r="E186" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F186" s="20"/>
       <c r="G186" s="22">
@@ -10207,10 +10208,10 @@
       </c>
       <c r="J186" s="22"/>
       <c r="L186" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M186" s="48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N186" s="22">
         <v>90</v>
@@ -10231,11 +10232,11 @@
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D187" s="20"/>
       <c r="E187" s="38" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F187" s="20">
         <v>400001</v>
@@ -10252,10 +10253,10 @@
       <c r="J187" s="22"/>
       <c r="K187" s="2"/>
       <c r="L187" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M187" s="48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N187" s="20">
         <v>110</v>
@@ -10269,11 +10270,11 @@
     </row>
     <row r="188" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D188" s="20"/>
       <c r="E188" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F188" s="20"/>
       <c r="G188" s="22">
@@ -10287,10 +10288,10 @@
       </c>
       <c r="J188" s="22"/>
       <c r="L188" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M188" s="48" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N188" s="20">
         <v>173</v>
@@ -10309,11 +10310,11 @@
     </row>
     <row r="189" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D189" s="20"/>
       <c r="E189" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F189" s="20"/>
       <c r="G189" s="22">
@@ -10327,10 +10328,10 @@
       </c>
       <c r="J189" s="22"/>
       <c r="L189" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M189" s="48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N189" s="20">
         <v>235</v>
@@ -10349,11 +10350,11 @@
     </row>
     <row r="190" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D190" s="20"/>
       <c r="E190" s="38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F190" s="20"/>
       <c r="G190" s="22">
@@ -10367,10 +10368,10 @@
       </c>
       <c r="J190" s="22"/>
       <c r="L190" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M190" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N190" s="20">
         <v>175</v>
@@ -10389,11 +10390,11 @@
     </row>
     <row r="191" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D191" s="20"/>
       <c r="E191" s="38" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F191" s="20"/>
       <c r="G191" s="22">
@@ -10407,10 +10408,10 @@
       </c>
       <c r="J191" s="22"/>
       <c r="L191" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M191" s="48" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N191" s="20">
         <v>175</v>
@@ -10429,11 +10430,11 @@
     </row>
     <row r="192" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D192" s="20"/>
       <c r="E192" s="38" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F192" s="20"/>
       <c r="G192" s="22">
@@ -10447,10 +10448,10 @@
       </c>
       <c r="J192" s="22"/>
       <c r="L192" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M192" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N192" s="20">
         <v>175</v>
@@ -10469,11 +10470,11 @@
     </row>
     <row r="193" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D193" s="20"/>
       <c r="E193" s="38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F193" s="20"/>
       <c r="G193" s="22">
@@ -10487,10 +10488,10 @@
       </c>
       <c r="J193" s="22"/>
       <c r="L193" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M193" s="48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N193" s="20">
         <v>175</v>

--- a/Unity/Assets/Config/Excel/NpcConfig.xlsx
+++ b/Unity/Assets/Config/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE0CA7-2B66-40D6-ABEF-461795C13DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE3271-5925-4C0C-B97A-854C4894F06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,9 +824,6 @@
     <t>欢迎你来到天空之城,我的子民!</t>
   </si>
   <si>
-    <t>灵禁秘塔</t>
-  </si>
-  <si>
     <t>10001</t>
   </si>
   <si>
@@ -2383,6 +2380,10 @@
   </si>
   <si>
     <t>勇者之境</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵禁秘塔</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3068,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3590,7 +3591,7 @@
         <v>69</v>
       </c>
       <c r="M12" s="53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N12" s="16">
         <v>-250</v>
@@ -3770,7 +3771,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>86</v>
+        <v>600</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16">
@@ -3780,10 +3781,10 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="L17" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" s="15">
         <v>145</v>
@@ -3792,7 +3793,7 @@
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
@@ -3808,7 +3809,7 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16">
@@ -3819,10 +3820,10 @@
       <c r="J18" s="18"/>
       <c r="K18" s="1"/>
       <c r="L18" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="43" t="s">
         <v>90</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>91</v>
       </c>
       <c r="N18" s="15">
         <v>45</v>
@@ -3831,7 +3832,7 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -3847,7 +3848,7 @@
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="16">
@@ -3858,10 +3859,10 @@
       <c r="J19" s="18"/>
       <c r="K19" s="1"/>
       <c r="L19" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="43" t="s">
         <v>94</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>95</v>
       </c>
       <c r="N19" s="15">
         <v>0</v>
@@ -3870,7 +3871,7 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -3886,7 +3887,7 @@
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="16">
         <v>2</v>
@@ -3906,7 +3907,7 @@
         <v>10015</v>
       </c>
       <c r="M20" s="52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N20" s="15">
         <v>270</v>
@@ -3915,7 +3916,7 @@
       <c r="P20" s="29"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -3931,7 +3932,7 @@
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" s="16">
         <v>1</v>
@@ -3951,7 +3952,7 @@
         <v>10016</v>
       </c>
       <c r="M21" s="52" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N21" s="15">
         <v>-325</v>
@@ -3960,7 +3961,7 @@
       <c r="P21" s="29"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -3976,7 +3977,7 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" s="16">
         <v>3</v>
@@ -3996,7 +3997,7 @@
         <v>10017</v>
       </c>
       <c r="M22" s="52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N22" s="15">
         <v>-256</v>
@@ -4005,7 +4006,7 @@
       <c r="P22" s="29"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -4021,7 +4022,7 @@
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F23" s="16">
         <v>6</v>
@@ -4041,7 +4042,7 @@
         <v>10018</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N23" s="15">
         <v>-261</v>
@@ -4050,7 +4051,7 @@
       <c r="P23" s="29"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -4066,7 +4067,7 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F24" s="16">
         <v>4</v>
@@ -4086,7 +4087,7 @@
         <v>10019</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N24" s="15">
         <v>-135</v>
@@ -4095,7 +4096,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -4111,7 +4112,7 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F25" s="16">
         <v>100001</v>
@@ -4131,7 +4132,7 @@
         <v>10004</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N25" s="15">
         <v>-180</v>
@@ -4154,7 +4155,7 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F26" s="16">
         <v>5</v>
@@ -4174,7 +4175,7 @@
         <v>10021</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N26" s="15">
         <v>-245</v>
@@ -4183,7 +4184,7 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -4199,7 +4200,7 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16">
@@ -4214,10 +4215,10 @@
       <c r="J27" s="18"/>
       <c r="K27" s="1"/>
       <c r="L27" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M27" s="43" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N27" s="15">
         <v>-270</v>
@@ -4226,7 +4227,7 @@
       <c r="P27" s="29"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -4241,7 +4242,7 @@
         <v>10001</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="19"/>
       <c r="H28" s="5"/>
@@ -4252,7 +4253,7 @@
         <v>10001</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N28" s="6">
         <v>0</v>
@@ -4264,7 +4265,7 @@
         <v>10002</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="19"/>
       <c r="H29" s="5"/>
@@ -4272,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
@@ -4287,7 +4288,7 @@
         <v>10003</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" s="19"/>
       <c r="H30" s="5"/>
@@ -4295,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -4310,7 +4311,7 @@
         <v>10004</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="19"/>
       <c r="H31" s="5"/>
@@ -4318,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M31" s="6">
         <v>0</v>
@@ -4327,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4338,11 +4339,11 @@
         <v>1000101</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="19"/>
       <c r="H32" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="5">
         <v>0</v>
@@ -4351,7 +4352,7 @@
         <v>10001</v>
       </c>
       <c r="M32" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N32" s="6">
         <v>0</v>
@@ -4363,18 +4364,18 @@
         <v>1000201</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="19"/>
       <c r="H33" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="5"/>
       <c r="L33" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="M33" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="M33" s="45" t="s">
-        <v>107</v>
       </c>
       <c r="N33" s="6">
         <v>180</v>
@@ -4387,18 +4388,18 @@
         <v>1000301</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="19"/>
       <c r="H34" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="5"/>
       <c r="L34" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M34" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N34" s="6">
         <v>-306</v>
@@ -4411,18 +4412,18 @@
         <v>1000401</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="19"/>
       <c r="H35" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="5"/>
       <c r="L35" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="42" t="s">
         <v>113</v>
-      </c>
-      <c r="M35" s="42" t="s">
-        <v>114</v>
       </c>
       <c r="N35" s="6">
         <v>-183</v>
@@ -4435,18 +4436,18 @@
         <v>1000501</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="19"/>
       <c r="H36" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="5"/>
       <c r="L36" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="42" t="s">
         <v>117</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>118</v>
       </c>
       <c r="N36" s="6">
         <v>-180</v>
@@ -4459,18 +4460,18 @@
         <v>2000101</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="19"/>
       <c r="H37" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I37" s="5"/>
       <c r="L37" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="42" t="s">
         <v>121</v>
-      </c>
-      <c r="M37" s="42" t="s">
-        <v>122</v>
       </c>
       <c r="N37" s="6">
         <v>-155</v>
@@ -4483,18 +4484,18 @@
         <v>2000201</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" s="19"/>
       <c r="H38" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I38" s="5"/>
       <c r="L38" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M38" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N38" s="6">
         <v>-274</v>
@@ -4507,18 +4508,18 @@
         <v>2000301</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="19"/>
       <c r="H39" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I39" s="5"/>
       <c r="L39" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M39" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N39" s="6">
         <v>-223</v>
@@ -4531,18 +4532,18 @@
         <v>2000401</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F40" s="19"/>
       <c r="H40" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I40" s="5"/>
       <c r="L40" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M40" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N40" s="6">
         <v>-87</v>
@@ -4555,18 +4556,18 @@
         <v>2000501</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F41" s="19"/>
       <c r="H41" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I41" s="5"/>
       <c r="L41" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M41" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N41" s="6">
         <v>-45</v>
@@ -4579,18 +4580,18 @@
         <v>3000101</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F42" s="19"/>
       <c r="H42" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I42" s="5"/>
       <c r="L42" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M42" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N42" s="6">
         <v>-200</v>
@@ -4603,18 +4604,18 @@
         <v>3000201</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="19"/>
       <c r="H43" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="5"/>
       <c r="L43" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N43" s="6">
         <v>-144</v>
@@ -4627,18 +4628,18 @@
         <v>3000301</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" s="19"/>
       <c r="H44" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I44" s="5"/>
       <c r="L44" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M44" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N44" s="6">
         <v>-180</v>
@@ -4651,18 +4652,18 @@
         <v>3000401</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F45" s="19"/>
       <c r="H45" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I45" s="5"/>
       <c r="L45" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N45" s="6">
         <v>-211</v>
@@ -4675,18 +4676,18 @@
         <v>3000501</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F46" s="19"/>
       <c r="H46" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I46" s="5"/>
       <c r="L46" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="M46" s="42" t="s">
         <v>149</v>
-      </c>
-      <c r="M46" s="42" t="s">
-        <v>150</v>
       </c>
       <c r="N46" s="6">
         <v>-215</v>
@@ -4699,18 +4700,18 @@
         <v>4000101</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F47" s="19"/>
       <c r="H47" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I47" s="5"/>
       <c r="L47" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M47" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N47" s="6">
         <v>-157</v>
@@ -4723,18 +4724,18 @@
         <v>4000102</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F48" s="19"/>
       <c r="H48" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I48" s="5"/>
       <c r="L48" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M48" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N48" s="6">
         <v>-60</v>
@@ -4747,18 +4748,18 @@
         <v>4000103</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F49" s="19"/>
       <c r="H49" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I49" s="5"/>
       <c r="L49" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M49" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N49" s="6">
         <v>-187</v>
@@ -4771,18 +4772,18 @@
         <v>4000104</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F50" s="19"/>
       <c r="H50" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I50" s="5"/>
       <c r="L50" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M50" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N50" s="6">
         <v>-90</v>
@@ -4795,18 +4796,18 @@
         <v>4000105</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F51" s="19"/>
       <c r="H51" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I51" s="5"/>
       <c r="L51" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M51" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N51" s="6">
         <v>-94</v>
@@ -4819,18 +4820,18 @@
         <v>5000101</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F52" s="19"/>
       <c r="H52" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I52" s="5"/>
       <c r="L52" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M52" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N52" s="6">
         <v>-85</v>
@@ -4843,18 +4844,18 @@
         <v>5000201</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F53" s="19"/>
       <c r="H53" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I53" s="5"/>
       <c r="L53" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M53" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N53" s="6">
         <v>-280</v>
@@ -4867,18 +4868,18 @@
         <v>5000301</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F54" s="19"/>
       <c r="H54" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I54" s="5"/>
       <c r="L54" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M54" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N54" s="6">
         <v>-180</v>
@@ -4891,18 +4892,18 @@
         <v>5000401</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F55" s="19"/>
       <c r="H55" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I55" s="5"/>
       <c r="L55" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M55" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N55" s="6">
         <v>-152</v>
@@ -4915,18 +4916,18 @@
         <v>5000501</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F56" s="19"/>
       <c r="H56" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I56" s="5"/>
       <c r="L56" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M56" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N56" s="6">
         <v>-156</v>
@@ -4940,7 +4941,7 @@
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F57" s="21">
         <v>0</v>
@@ -4956,10 +4957,10 @@
       </c>
       <c r="J57" s="30"/>
       <c r="L57" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N57" s="20">
         <v>-90</v>
@@ -4968,7 +4969,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
@@ -4980,11 +4981,11 @@
     </row>
     <row r="58" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F58" s="21">
         <v>200001</v>
@@ -5000,10 +5001,10 @@
       </c>
       <c r="J58" s="30"/>
       <c r="L58" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M58" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N58" s="20">
         <v>-90</v>
@@ -5022,7 +5023,7 @@
     </row>
     <row r="59" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="21" t="s">
@@ -5042,10 +5043,10 @@
       </c>
       <c r="J59" s="30"/>
       <c r="L59" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M59" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N59" s="20">
         <v>-280</v>
@@ -5064,7 +5065,7 @@
     </row>
     <row r="60" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="21" t="s">
@@ -5082,10 +5083,10 @@
       </c>
       <c r="J60" s="30"/>
       <c r="L60" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M60" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N60" s="20">
         <v>-180</v>
@@ -5104,7 +5105,7 @@
     </row>
     <row r="61" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="21" t="s">
@@ -5122,10 +5123,10 @@
       </c>
       <c r="J61" s="30"/>
       <c r="L61" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M61" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N61" s="20">
         <v>-280</v>
@@ -5144,11 +5145,11 @@
     </row>
     <row r="62" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="22">
@@ -5162,10 +5163,10 @@
       </c>
       <c r="J62" s="30"/>
       <c r="L62" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M62" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N62" s="20">
         <v>-180</v>
@@ -5174,7 +5175,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -5186,7 +5187,7 @@
     </row>
     <row r="63" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="22" t="s">
@@ -5204,10 +5205,10 @@
       </c>
       <c r="J63" s="30"/>
       <c r="L63" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M63" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N63" s="22">
         <v>-180</v>
@@ -5228,11 +5229,11 @@
     </row>
     <row r="64" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="22">
@@ -5246,10 +5247,10 @@
       </c>
       <c r="J64" s="30"/>
       <c r="L64" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M64" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N64" s="20">
         <v>-90</v>
@@ -5258,7 +5259,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
@@ -5270,11 +5271,11 @@
     </row>
     <row r="65" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="22">
@@ -5288,10 +5289,10 @@
       </c>
       <c r="J65" s="30"/>
       <c r="L65" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M65" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N65" s="20">
         <v>90</v>
@@ -5300,7 +5301,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
@@ -5312,11 +5313,11 @@
     </row>
     <row r="66" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="22">
@@ -5330,10 +5331,10 @@
       </c>
       <c r="J66" s="30"/>
       <c r="L66" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M66" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N66" s="20">
         <v>0</v>
@@ -5342,7 +5343,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
@@ -5354,7 +5355,7 @@
     </row>
     <row r="67" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="21" t="s">
@@ -5372,10 +5373,10 @@
       </c>
       <c r="J67" s="30"/>
       <c r="L67" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M67" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N67" s="20">
         <v>-270</v>
@@ -5396,11 +5397,11 @@
     </row>
     <row r="68" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="51" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="22">
@@ -5414,10 +5415,10 @@
       </c>
       <c r="J68" s="30"/>
       <c r="L68" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M68" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N68" s="20">
         <v>45</v>
@@ -5436,14 +5437,14 @@
     </row>
     <row r="69" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="20" t="s">
         <v>213</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>214</v>
       </c>
       <c r="G69" s="22">
         <v>1007</v>
@@ -5456,10 +5457,10 @@
       </c>
       <c r="J69" s="30"/>
       <c r="L69" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M69" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N69" s="20">
         <v>90</v>
@@ -5468,7 +5469,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
@@ -5480,14 +5481,14 @@
     </row>
     <row r="70" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>219</v>
       </c>
       <c r="G70" s="22">
         <v>1006</v>
@@ -5500,10 +5501,10 @@
       </c>
       <c r="J70" s="30"/>
       <c r="L70" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M70" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N70" s="20">
         <v>90</v>
@@ -5512,7 +5513,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
@@ -5524,14 +5525,14 @@
     </row>
     <row r="71" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>224</v>
       </c>
       <c r="G71" s="22">
         <v>1008</v>
@@ -5544,10 +5545,10 @@
       </c>
       <c r="J71" s="30"/>
       <c r="L71" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M71" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N71" s="20">
         <v>225</v>
@@ -5556,7 +5557,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
@@ -5568,11 +5569,11 @@
     </row>
     <row r="72" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="22">
@@ -5586,10 +5587,10 @@
       </c>
       <c r="J72" s="30"/>
       <c r="L72" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M72" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N72" s="20">
         <v>0</v>
@@ -5598,7 +5599,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
@@ -5610,11 +5611,11 @@
     </row>
     <row r="73" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="22">
@@ -5628,10 +5629,10 @@
       </c>
       <c r="J73" s="30"/>
       <c r="L73" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M73" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N73" s="20">
         <v>-90</v>
@@ -5650,11 +5651,11 @@
     </row>
     <row r="74" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="22">
@@ -5668,10 +5669,10 @@
       </c>
       <c r="J74" s="30"/>
       <c r="L74" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M74" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N74" s="20">
         <v>180</v>
@@ -5680,7 +5681,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
@@ -5692,11 +5693,11 @@
     </row>
     <row r="75" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F75" s="20">
         <v>4</v>
@@ -5712,10 +5713,10 @@
       </c>
       <c r="J75" s="30"/>
       <c r="L75" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M75" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N75" s="20">
         <v>180</v>
@@ -5724,7 +5725,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
@@ -5736,11 +5737,11 @@
     </row>
     <row r="76" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="22">
@@ -5756,10 +5757,10 @@
         <v>52</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M76" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N76" s="20">
         <v>90</v>
@@ -5778,11 +5779,11 @@
     </row>
     <row r="77" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="22">
@@ -5798,10 +5799,10 @@
         <v>53</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M77" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N77" s="20">
         <v>90</v>
@@ -5820,11 +5821,11 @@
     </row>
     <row r="78" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="22">
@@ -5840,10 +5841,10 @@
         <v>54</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M78" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N78" s="20">
         <v>90</v>
@@ -5862,11 +5863,11 @@
     </row>
     <row r="79" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F79" s="21">
         <v>100001</v>
@@ -5882,10 +5883,10 @@
       </c>
       <c r="J79" s="30"/>
       <c r="L79" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M79" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N79" s="20">
         <v>-110</v>
@@ -5904,11 +5905,11 @@
     </row>
     <row r="80" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F80" s="20">
         <v>5</v>
@@ -5924,10 +5925,10 @@
       </c>
       <c r="J80" s="30"/>
       <c r="L80" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M80" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N80" s="20">
         <v>-30</v>
@@ -5936,7 +5937,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -5948,11 +5949,11 @@
     </row>
     <row r="81" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="22">
@@ -5966,10 +5967,10 @@
       </c>
       <c r="J81" s="30"/>
       <c r="L81" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M81" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N81" s="20">
         <v>180</v>
@@ -5990,11 +5991,11 @@
     </row>
     <row r="82" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F82" s="35">
         <v>0</v>
@@ -6006,10 +6007,10 @@
       <c r="I82" s="30"/>
       <c r="J82" s="30"/>
       <c r="L82" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M82" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N82" s="20">
         <v>-30</v>
@@ -6018,7 +6019,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -6030,11 +6031,11 @@
     </row>
     <row r="83" spans="3:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F83" s="20">
         <v>6</v>
@@ -6050,10 +6051,10 @@
       </c>
       <c r="J83" s="30"/>
       <c r="L83" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M83" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N83" s="20">
         <v>-144</v>
@@ -6062,7 +6063,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
@@ -6074,11 +6075,11 @@
     </row>
     <row r="84" spans="3:25" s="2" customFormat="1" ht="20.100000000000001